--- a/GUI_20212202_AYZ8R9/Maps/map.xlsx
+++ b/GUI_20212202_AYZ8R9/Maps/map.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\game\GUI_20212202_AYZ8R9\Maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEE6F99-BA4E-4D7D-927D-2259A76F6C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF8DB7A-C0C3-4603-8A30-50EB062893BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4950" yWindow="1035" windowWidth="21600" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
+    <sheet name="Munka2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="8">
   <si>
     <t>B</t>
   </si>
@@ -112,7 +113,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -148,11 +149,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -168,6 +193,18 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -450,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH11" sqref="AH11"/>
+    <sheetView topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AO34" sqref="AO34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,13 +554,13 @@
       <c r="AY1" s="1"/>
       <c r="AZ1" s="1"/>
       <c r="BA1" s="1"/>
-      <c r="BB1" s="1"/>
-      <c r="BC1" s="1"/>
-      <c r="BD1" s="1"/>
-      <c r="BE1" s="1"/>
-      <c r="BF1" s="1"/>
-      <c r="BG1" s="1"/>
-      <c r="BH1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="3"/>
+      <c r="BF1" s="3"/>
+      <c r="BG1" s="3"/>
+      <c r="BH1" s="3"/>
       <c r="BI1" s="3"/>
       <c r="BJ1" s="3"/>
       <c r="BK1" s="3"/>
@@ -583,13 +620,13 @@
       <c r="AY2" s="1"/>
       <c r="AZ2" s="1"/>
       <c r="BA2" s="1"/>
-      <c r="BB2" s="1"/>
-      <c r="BC2" s="1"/>
-      <c r="BD2" s="1"/>
-      <c r="BE2" s="1"/>
-      <c r="BF2" s="1"/>
-      <c r="BG2" s="1"/>
-      <c r="BH2" s="2"/>
+      <c r="BB2" s="2"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BE2" s="3"/>
+      <c r="BF2" s="3"/>
+      <c r="BG2" s="3"/>
+      <c r="BH2" s="3"/>
       <c r="BI2" s="3"/>
       <c r="BJ2" s="3"/>
       <c r="BK2" s="3"/>
@@ -649,13 +686,13 @@
       <c r="AY3" s="1"/>
       <c r="AZ3" s="1"/>
       <c r="BA3" s="1"/>
-      <c r="BB3" s="1"/>
-      <c r="BC3" s="1"/>
-      <c r="BD3" s="1"/>
-      <c r="BE3" s="1"/>
-      <c r="BF3" s="1"/>
-      <c r="BG3" s="1"/>
-      <c r="BH3" s="2"/>
+      <c r="BB3" s="2"/>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="3"/>
+      <c r="BE3" s="3"/>
+      <c r="BF3" s="3"/>
+      <c r="BG3" s="3"/>
+      <c r="BH3" s="3"/>
       <c r="BI3" s="3"/>
       <c r="BJ3" s="3"/>
       <c r="BK3" s="3"/>
@@ -715,13 +752,13 @@
       <c r="AY4" s="1"/>
       <c r="AZ4" s="1"/>
       <c r="BA4" s="1"/>
-      <c r="BB4" s="1"/>
-      <c r="BC4" s="1"/>
-      <c r="BD4" s="1"/>
-      <c r="BE4" s="1"/>
-      <c r="BF4" s="1"/>
-      <c r="BG4" s="1"/>
-      <c r="BH4" s="2"/>
+      <c r="BB4" s="2"/>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="3"/>
+      <c r="BE4" s="3"/>
+      <c r="BF4" s="3"/>
+      <c r="BG4" s="3"/>
+      <c r="BH4" s="3"/>
       <c r="BI4" s="3"/>
       <c r="BJ4" s="3"/>
       <c r="BK4" s="3"/>
@@ -781,13 +818,13 @@
       <c r="AY5" s="1"/>
       <c r="AZ5" s="1"/>
       <c r="BA5" s="1"/>
-      <c r="BB5" s="1"/>
-      <c r="BC5" s="1"/>
-      <c r="BD5" s="1"/>
-      <c r="BE5" s="1"/>
-      <c r="BF5" s="1"/>
-      <c r="BG5" s="1"/>
-      <c r="BH5" s="2"/>
+      <c r="BB5" s="2"/>
+      <c r="BC5" s="3"/>
+      <c r="BD5" s="3"/>
+      <c r="BE5" s="3"/>
+      <c r="BF5" s="3"/>
+      <c r="BG5" s="3"/>
+      <c r="BH5" s="3"/>
       <c r="BI5" s="3"/>
       <c r="BJ5" s="3"/>
       <c r="BK5" s="3"/>
@@ -847,13 +884,13 @@
       <c r="AY6" s="1"/>
       <c r="AZ6" s="1"/>
       <c r="BA6" s="1"/>
-      <c r="BB6" s="1"/>
-      <c r="BC6" s="1"/>
-      <c r="BD6" s="1"/>
-      <c r="BE6" s="1"/>
-      <c r="BF6" s="1"/>
-      <c r="BG6" s="1"/>
-      <c r="BH6" s="2"/>
+      <c r="BB6" s="2"/>
+      <c r="BC6" s="3"/>
+      <c r="BD6" s="3"/>
+      <c r="BE6" s="3"/>
+      <c r="BF6" s="3"/>
+      <c r="BG6" s="3"/>
+      <c r="BH6" s="3"/>
       <c r="BI6" s="3"/>
       <c r="BJ6" s="3"/>
       <c r="BK6" s="3"/>
@@ -913,13 +950,13 @@
       <c r="AY7" s="1"/>
       <c r="AZ7" s="1"/>
       <c r="BA7" s="1"/>
-      <c r="BB7" s="1"/>
-      <c r="BC7" s="1"/>
-      <c r="BD7" s="1"/>
-      <c r="BE7" s="1"/>
-      <c r="BF7" s="1"/>
-      <c r="BG7" s="1"/>
-      <c r="BH7" s="2"/>
+      <c r="BB7" s="2"/>
+      <c r="BC7" s="3"/>
+      <c r="BD7" s="3"/>
+      <c r="BE7" s="3"/>
+      <c r="BF7" s="3"/>
+      <c r="BG7" s="3"/>
+      <c r="BH7" s="3"/>
       <c r="BI7" s="3"/>
       <c r="BJ7" s="3"/>
       <c r="BK7" s="3"/>
@@ -979,13 +1016,13 @@
       <c r="AY8" s="1"/>
       <c r="AZ8" s="1"/>
       <c r="BA8" s="1"/>
-      <c r="BB8" s="1"/>
-      <c r="BC8" s="1"/>
-      <c r="BD8" s="1"/>
-      <c r="BE8" s="1"/>
-      <c r="BF8" s="1"/>
-      <c r="BG8" s="1"/>
-      <c r="BH8" s="2"/>
+      <c r="BB8" s="2"/>
+      <c r="BC8" s="3"/>
+      <c r="BD8" s="3"/>
+      <c r="BE8" s="3"/>
+      <c r="BF8" s="3"/>
+      <c r="BG8" s="3"/>
+      <c r="BH8" s="3"/>
       <c r="BI8" s="3"/>
       <c r="BJ8" s="3"/>
       <c r="BK8" s="3"/>
@@ -1045,13 +1082,13 @@
       <c r="AY9" s="1"/>
       <c r="AZ9" s="1"/>
       <c r="BA9" s="1"/>
-      <c r="BB9" s="1"/>
-      <c r="BC9" s="1"/>
-      <c r="BD9" s="1"/>
-      <c r="BE9" s="1"/>
-      <c r="BF9" s="1"/>
-      <c r="BG9" s="1"/>
-      <c r="BH9" s="2"/>
+      <c r="BB9" s="2"/>
+      <c r="BC9" s="3"/>
+      <c r="BD9" s="3"/>
+      <c r="BE9" s="3"/>
+      <c r="BF9" s="3"/>
+      <c r="BG9" s="3"/>
+      <c r="BH9" s="3"/>
       <c r="BI9" s="3"/>
       <c r="BJ9" s="3"/>
       <c r="BK9" s="3"/>
@@ -1111,13 +1148,13 @@
       <c r="AY10" s="1"/>
       <c r="AZ10" s="1"/>
       <c r="BA10" s="1"/>
-      <c r="BB10" s="1"/>
-      <c r="BC10" s="1"/>
-      <c r="BD10" s="1"/>
-      <c r="BE10" s="1"/>
-      <c r="BF10" s="1"/>
-      <c r="BG10" s="1"/>
-      <c r="BH10" s="2"/>
+      <c r="BB10" s="2"/>
+      <c r="BC10" s="3"/>
+      <c r="BD10" s="3"/>
+      <c r="BE10" s="3"/>
+      <c r="BF10" s="3"/>
+      <c r="BG10" s="3"/>
+      <c r="BH10" s="3"/>
       <c r="BI10" s="3"/>
       <c r="BJ10" s="3"/>
       <c r="BK10" s="3"/>
@@ -1177,13 +1214,13 @@
       <c r="AY11" s="1"/>
       <c r="AZ11" s="1"/>
       <c r="BA11" s="1"/>
-      <c r="BB11" s="1"/>
-      <c r="BC11" s="1"/>
-      <c r="BD11" s="1"/>
-      <c r="BE11" s="1"/>
-      <c r="BF11" s="1"/>
-      <c r="BG11" s="1"/>
-      <c r="BH11" s="2"/>
+      <c r="BB11" s="2"/>
+      <c r="BC11" s="3"/>
+      <c r="BD11" s="3"/>
+      <c r="BE11" s="3"/>
+      <c r="BF11" s="3"/>
+      <c r="BG11" s="3"/>
+      <c r="BH11" s="3"/>
       <c r="BI11" s="3"/>
       <c r="BJ11" s="3"/>
       <c r="BK11" s="3"/>
@@ -1243,13 +1280,13 @@
       <c r="AY12" s="1"/>
       <c r="AZ12" s="1"/>
       <c r="BA12" s="1"/>
-      <c r="BB12" s="1"/>
-      <c r="BC12" s="1"/>
-      <c r="BD12" s="1"/>
-      <c r="BE12" s="1"/>
-      <c r="BF12" s="1"/>
-      <c r="BG12" s="1"/>
-      <c r="BH12" s="2"/>
+      <c r="BB12" s="2"/>
+      <c r="BC12" s="3"/>
+      <c r="BD12" s="3"/>
+      <c r="BE12" s="3"/>
+      <c r="BF12" s="3"/>
+      <c r="BG12" s="3"/>
+      <c r="BH12" s="3"/>
       <c r="BI12" s="3"/>
       <c r="BJ12" s="3"/>
       <c r="BK12" s="3"/>
@@ -1331,13 +1368,13 @@
       <c r="AY13" s="1"/>
       <c r="AZ13" s="1"/>
       <c r="BA13" s="1"/>
-      <c r="BB13" s="1"/>
-      <c r="BC13" s="1"/>
-      <c r="BD13" s="1"/>
-      <c r="BE13" s="1"/>
-      <c r="BF13" s="1"/>
-      <c r="BG13" s="1"/>
-      <c r="BH13" s="2"/>
+      <c r="BB13" s="2"/>
+      <c r="BC13" s="3"/>
+      <c r="BD13" s="3"/>
+      <c r="BE13" s="3"/>
+      <c r="BF13" s="3"/>
+      <c r="BG13" s="3"/>
+      <c r="BH13" s="3"/>
       <c r="BI13" s="3"/>
       <c r="BJ13" s="3"/>
       <c r="BK13" s="3"/>
@@ -1403,13 +1440,13 @@
       <c r="AY14" s="1"/>
       <c r="AZ14" s="1"/>
       <c r="BA14" s="1"/>
-      <c r="BB14" s="1"/>
-      <c r="BC14" s="1"/>
-      <c r="BD14" s="1"/>
-      <c r="BE14" s="1"/>
-      <c r="BF14" s="1"/>
-      <c r="BG14" s="1"/>
-      <c r="BH14" s="2"/>
+      <c r="BB14" s="2"/>
+      <c r="BC14" s="3"/>
+      <c r="BD14" s="3"/>
+      <c r="BE14" s="3"/>
+      <c r="BF14" s="3"/>
+      <c r="BG14" s="3"/>
+      <c r="BH14" s="3"/>
       <c r="BI14" s="3"/>
       <c r="BJ14" s="3"/>
       <c r="BK14" s="3"/>
@@ -1475,13 +1512,13 @@
       <c r="AY15" s="1"/>
       <c r="AZ15" s="1"/>
       <c r="BA15" s="1"/>
-      <c r="BB15" s="1"/>
-      <c r="BC15" s="1"/>
-      <c r="BD15" s="1"/>
-      <c r="BE15" s="1"/>
-      <c r="BF15" s="1"/>
-      <c r="BG15" s="1"/>
-      <c r="BH15" s="2"/>
+      <c r="BB15" s="2"/>
+      <c r="BC15" s="3"/>
+      <c r="BD15" s="3"/>
+      <c r="BE15" s="3"/>
+      <c r="BF15" s="3"/>
+      <c r="BG15" s="3"/>
+      <c r="BH15" s="3"/>
       <c r="BI15" s="3"/>
       <c r="BJ15" s="3"/>
       <c r="BK15" s="3"/>
@@ -1561,13 +1598,13 @@
       <c r="AY16" s="1"/>
       <c r="AZ16" s="1"/>
       <c r="BA16" s="1"/>
-      <c r="BB16" s="1"/>
-      <c r="BC16" s="1"/>
-      <c r="BD16" s="1"/>
-      <c r="BE16" s="1"/>
-      <c r="BF16" s="1"/>
-      <c r="BG16" s="1"/>
-      <c r="BH16" s="2"/>
+      <c r="BB16" s="2"/>
+      <c r="BC16" s="3"/>
+      <c r="BD16" s="3"/>
+      <c r="BE16" s="3"/>
+      <c r="BF16" s="3"/>
+      <c r="BG16" s="3"/>
+      <c r="BH16" s="3"/>
       <c r="BI16" s="3"/>
       <c r="BJ16" s="3"/>
       <c r="BK16" s="3"/>
@@ -1635,13 +1672,13 @@
       <c r="AY17" s="1"/>
       <c r="AZ17" s="1"/>
       <c r="BA17" s="1"/>
-      <c r="BB17" s="1"/>
-      <c r="BC17" s="1"/>
-      <c r="BD17" s="1"/>
-      <c r="BE17" s="1"/>
-      <c r="BF17" s="1"/>
-      <c r="BG17" s="1"/>
-      <c r="BH17" s="2"/>
+      <c r="BB17" s="2"/>
+      <c r="BC17" s="3"/>
+      <c r="BD17" s="3"/>
+      <c r="BE17" s="3"/>
+      <c r="BF17" s="3"/>
+      <c r="BG17" s="3"/>
+      <c r="BH17" s="3"/>
       <c r="BI17" s="3"/>
       <c r="BJ17" s="3"/>
       <c r="BK17" s="3"/>
@@ -1727,13 +1764,13 @@
       <c r="AY18" s="1"/>
       <c r="AZ18" s="1"/>
       <c r="BA18" s="1"/>
-      <c r="BB18" s="1"/>
-      <c r="BC18" s="1"/>
-      <c r="BD18" s="1"/>
-      <c r="BE18" s="1"/>
-      <c r="BF18" s="1"/>
-      <c r="BG18" s="1"/>
-      <c r="BH18" s="2"/>
+      <c r="BB18" s="2"/>
+      <c r="BC18" s="3"/>
+      <c r="BD18" s="3"/>
+      <c r="BE18" s="3"/>
+      <c r="BF18" s="3"/>
+      <c r="BG18" s="3"/>
+      <c r="BH18" s="3"/>
       <c r="BI18" s="3"/>
       <c r="BJ18" s="3"/>
       <c r="BK18" s="3"/>
@@ -1796,7 +1833,12 @@
       <c r="AT19" t="s">
         <v>2</v>
       </c>
-      <c r="BH19" s="2"/>
+      <c r="BC19" s="3"/>
+      <c r="BD19" s="3"/>
+      <c r="BE19" s="3"/>
+      <c r="BF19" s="3"/>
+      <c r="BG19" s="3"/>
+      <c r="BH19" s="3"/>
       <c r="BI19" s="3"/>
       <c r="BJ19" s="3"/>
       <c r="BK19" s="3"/>
@@ -1878,15 +1920,15 @@
       <c r="BA20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BB20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC20" s="1"/>
-      <c r="BD20" s="1"/>
-      <c r="BE20" s="1"/>
-      <c r="BF20" s="1"/>
-      <c r="BG20" s="1"/>
-      <c r="BH20" s="1"/>
+      <c r="BB20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC20" s="3"/>
+      <c r="BD20" s="3"/>
+      <c r="BE20" s="3"/>
+      <c r="BF20" s="3"/>
+      <c r="BG20" s="3"/>
+      <c r="BH20" s="3"/>
       <c r="BI20" s="3"/>
       <c r="BJ20" s="3"/>
       <c r="BK20" s="3"/>
@@ -1952,16 +1994,13 @@
       <c r="AY21" s="1"/>
       <c r="AZ21" s="1"/>
       <c r="BA21" s="1"/>
-      <c r="BB21" s="1"/>
-      <c r="BC21" s="1"/>
-      <c r="BD21" s="1" t="str">
-        <f>IF(BB20="Z","Z",IF(AND(BB20&lt;&gt;"U",BB20&lt;&gt;"V",BB20&lt;&gt;"W"),"V",IF(BB20="V","U",IF(BB20="U","W",IF(BB20="W","Z",IF(BB20="Z","",""))))))</f>
-        <v>V</v>
-      </c>
-      <c r="BE21" s="1"/>
-      <c r="BF21" s="1"/>
-      <c r="BG21" s="1"/>
-      <c r="BH21" s="1"/>
+      <c r="BB21" s="2"/>
+      <c r="BC21" s="3"/>
+      <c r="BD21" s="3"/>
+      <c r="BE21" s="3"/>
+      <c r="BF21" s="3"/>
+      <c r="BG21" s="3"/>
+      <c r="BH21" s="3"/>
       <c r="BI21" s="3"/>
       <c r="BJ21" s="3"/>
       <c r="BK21" s="3"/>
@@ -2027,13 +2066,13 @@
       <c r="AY22" s="1"/>
       <c r="AZ22" s="1"/>
       <c r="BA22" s="1"/>
-      <c r="BB22" s="1"/>
-      <c r="BC22" s="1"/>
-      <c r="BD22" s="1"/>
-      <c r="BE22" s="1"/>
-      <c r="BF22" s="1"/>
-      <c r="BG22" s="1"/>
-      <c r="BH22" s="1"/>
+      <c r="BB22" s="2"/>
+      <c r="BC22" s="3"/>
+      <c r="BD22" s="3"/>
+      <c r="BE22" s="3"/>
+      <c r="BF22" s="3"/>
+      <c r="BG22" s="3"/>
+      <c r="BH22" s="3"/>
       <c r="BI22" s="3"/>
       <c r="BJ22" s="3"/>
       <c r="BK22" s="3"/>
@@ -2099,13 +2138,13 @@
       <c r="AY23" s="1"/>
       <c r="AZ23" s="1"/>
       <c r="BA23" s="1"/>
-      <c r="BB23" s="1"/>
-      <c r="BC23" s="1"/>
-      <c r="BD23" s="1"/>
-      <c r="BE23" s="1"/>
-      <c r="BF23" s="1"/>
-      <c r="BG23" s="1"/>
-      <c r="BH23" s="1"/>
+      <c r="BB23" s="2"/>
+      <c r="BC23" s="3"/>
+      <c r="BD23" s="3"/>
+      <c r="BE23" s="3"/>
+      <c r="BF23" s="3"/>
+      <c r="BG23" s="3"/>
+      <c r="BH23" s="3"/>
       <c r="BI23" s="3"/>
       <c r="BJ23" s="3"/>
       <c r="BK23" s="3"/>
@@ -2183,13 +2222,13 @@
       <c r="AY24" s="1"/>
       <c r="AZ24" s="1"/>
       <c r="BA24" s="1"/>
-      <c r="BB24" s="1"/>
-      <c r="BC24" s="1"/>
-      <c r="BD24" s="1"/>
-      <c r="BE24" s="1"/>
-      <c r="BF24" s="1"/>
-      <c r="BG24" s="1"/>
-      <c r="BH24" s="1"/>
+      <c r="BB24" s="2"/>
+      <c r="BC24" s="3"/>
+      <c r="BD24" s="3"/>
+      <c r="BE24" s="3"/>
+      <c r="BF24" s="3"/>
+      <c r="BG24" s="3"/>
+      <c r="BH24" s="3"/>
       <c r="BI24" s="3"/>
       <c r="BJ24" s="3"/>
       <c r="BK24" s="3"/>
@@ -2249,13 +2288,13 @@
       <c r="AY25" s="1"/>
       <c r="AZ25" s="1"/>
       <c r="BA25" s="1"/>
-      <c r="BB25" s="1"/>
-      <c r="BC25" s="1"/>
-      <c r="BD25" s="1"/>
-      <c r="BE25" s="1"/>
-      <c r="BF25" s="1"/>
-      <c r="BG25" s="1"/>
-      <c r="BH25" s="1"/>
+      <c r="BB25" s="2"/>
+      <c r="BC25" s="3"/>
+      <c r="BD25" s="3"/>
+      <c r="BE25" s="3"/>
+      <c r="BF25" s="3"/>
+      <c r="BG25" s="3"/>
+      <c r="BH25" s="3"/>
       <c r="BI25" s="3"/>
       <c r="BJ25" s="3"/>
       <c r="BK25" s="3"/>
@@ -2315,13 +2354,13 @@
       <c r="AY26" s="1"/>
       <c r="AZ26" s="1"/>
       <c r="BA26" s="1"/>
-      <c r="BB26" s="1"/>
-      <c r="BC26" s="1"/>
-      <c r="BD26" s="1"/>
-      <c r="BE26" s="1"/>
-      <c r="BF26" s="1"/>
-      <c r="BG26" s="1"/>
-      <c r="BH26" s="1"/>
+      <c r="BB26" s="2"/>
+      <c r="BC26" s="3"/>
+      <c r="BD26" s="3"/>
+      <c r="BE26" s="3"/>
+      <c r="BF26" s="3"/>
+      <c r="BG26" s="3"/>
+      <c r="BH26" s="3"/>
       <c r="BI26" s="3"/>
       <c r="BJ26" s="3"/>
       <c r="BK26" s="3"/>
@@ -2380,13 +2419,13 @@
       <c r="AY27" s="1"/>
       <c r="AZ27" s="1"/>
       <c r="BA27" s="1"/>
-      <c r="BB27" s="1"/>
-      <c r="BC27" s="1"/>
-      <c r="BD27" s="1"/>
-      <c r="BE27" s="1"/>
-      <c r="BF27" s="1"/>
-      <c r="BG27" s="1"/>
-      <c r="BH27" s="1"/>
+      <c r="BB27" s="2"/>
+      <c r="BC27" s="3"/>
+      <c r="BD27" s="3"/>
+      <c r="BE27" s="3"/>
+      <c r="BF27" s="3"/>
+      <c r="BG27" s="3"/>
+      <c r="BH27" s="3"/>
       <c r="BI27" s="3"/>
       <c r="BJ27" s="3"/>
       <c r="BK27" s="3"/>
@@ -2446,13 +2485,13 @@
       <c r="AY28" s="1"/>
       <c r="AZ28" s="1"/>
       <c r="BA28" s="1"/>
-      <c r="BB28" s="1"/>
-      <c r="BC28" s="1"/>
-      <c r="BD28" s="1"/>
-      <c r="BE28" s="1"/>
-      <c r="BF28" s="1"/>
-      <c r="BG28" s="1"/>
-      <c r="BH28" s="1"/>
+      <c r="BB28" s="2"/>
+      <c r="BC28" s="3"/>
+      <c r="BD28" s="3"/>
+      <c r="BE28" s="3"/>
+      <c r="BF28" s="3"/>
+      <c r="BG28" s="3"/>
+      <c r="BH28" s="3"/>
       <c r="BI28" s="3"/>
       <c r="BJ28" s="3"/>
       <c r="BK28" s="3"/>
@@ -2512,343 +2551,343 @@
       <c r="AY29" s="1"/>
       <c r="AZ29" s="1"/>
       <c r="BA29" s="1"/>
-      <c r="BB29" s="1"/>
-      <c r="BC29" s="1"/>
-      <c r="BD29" s="1"/>
-      <c r="BE29" s="1"/>
-      <c r="BF29" s="1"/>
-      <c r="BG29" s="1"/>
-      <c r="BH29" s="1"/>
+      <c r="BB29" s="2"/>
+      <c r="BC29" s="3"/>
+      <c r="BD29" s="3"/>
+      <c r="BE29" s="3"/>
+      <c r="BF29" s="3"/>
+      <c r="BG29" s="3"/>
+      <c r="BH29" s="3"/>
       <c r="BI29" s="3"/>
       <c r="BJ29" s="3"/>
       <c r="BK29" s="3"/>
       <c r="BL29" s="3"/>
     </row>
     <row r="30" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
-      <c r="AA30" s="1"/>
-      <c r="AB30" s="1"/>
-      <c r="AC30" s="1"/>
-      <c r="AD30" s="9"/>
-      <c r="AE30" s="1"/>
-      <c r="AF30" s="1"/>
-      <c r="AG30" s="1"/>
-      <c r="AH30" s="1"/>
-      <c r="AI30" s="1"/>
-      <c r="AJ30" s="1"/>
-      <c r="AK30" s="1"/>
-      <c r="AL30" s="1"/>
-      <c r="AM30" s="1"/>
-      <c r="AN30" s="11"/>
-      <c r="AO30" s="1"/>
-      <c r="AP30" s="1"/>
-      <c r="AQ30" s="1"/>
-      <c r="AR30" s="1"/>
-      <c r="AS30" s="1"/>
-      <c r="AT30" s="1"/>
-      <c r="AU30" s="1"/>
-      <c r="AV30" s="1"/>
-      <c r="AW30" s="1"/>
-      <c r="AX30" s="13"/>
-      <c r="AY30" s="1"/>
-      <c r="AZ30" s="1"/>
-      <c r="BA30" s="1"/>
-      <c r="BB30" s="1"/>
-      <c r="BC30" s="1"/>
-      <c r="BD30" s="1"/>
-      <c r="BE30" s="1"/>
-      <c r="BF30" s="1"/>
-      <c r="BG30" s="1"/>
-      <c r="BH30" s="1"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="15"/>
+      <c r="Z30" s="15"/>
+      <c r="AA30" s="15"/>
+      <c r="AB30" s="15"/>
+      <c r="AC30" s="15"/>
+      <c r="AD30" s="18"/>
+      <c r="AE30" s="15"/>
+      <c r="AF30" s="15"/>
+      <c r="AG30" s="15"/>
+      <c r="AH30" s="15"/>
+      <c r="AI30" s="15"/>
+      <c r="AJ30" s="15"/>
+      <c r="AK30" s="15"/>
+      <c r="AL30" s="15"/>
+      <c r="AM30" s="15"/>
+      <c r="AN30" s="22"/>
+      <c r="AO30" s="15"/>
+      <c r="AP30" s="15"/>
+      <c r="AQ30" s="15"/>
+      <c r="AR30" s="15"/>
+      <c r="AS30" s="15"/>
+      <c r="AT30" s="15"/>
+      <c r="AU30" s="15"/>
+      <c r="AV30" s="15"/>
+      <c r="AW30" s="15"/>
+      <c r="AX30" s="23"/>
+      <c r="AY30" s="15"/>
+      <c r="AZ30" s="15"/>
+      <c r="BA30" s="15"/>
+      <c r="BB30" s="24"/>
+      <c r="BC30" s="3"/>
+      <c r="BD30" s="3"/>
+      <c r="BE30" s="3"/>
+      <c r="BF30" s="3"/>
+      <c r="BG30" s="3"/>
+      <c r="BH30" s="3"/>
       <c r="BI30" s="3"/>
       <c r="BJ30" s="3"/>
       <c r="BK30" s="3"/>
       <c r="BL30" s="3"/>
     </row>
     <row r="31" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
-      <c r="AA31" s="1"/>
-      <c r="AB31" s="1"/>
-      <c r="AC31" s="1"/>
-      <c r="AD31" s="9"/>
-      <c r="AE31" s="1"/>
-      <c r="AF31" s="1"/>
-      <c r="AG31" s="1"/>
-      <c r="AH31" s="1"/>
-      <c r="AI31" s="1"/>
-      <c r="AJ31" s="1"/>
-      <c r="AK31" s="1"/>
-      <c r="AL31" s="1"/>
-      <c r="AM31" s="1"/>
-      <c r="AN31" s="11"/>
-      <c r="AO31" s="1"/>
-      <c r="AP31" s="1"/>
-      <c r="AQ31" s="1"/>
-      <c r="AR31" s="1"/>
-      <c r="AS31" s="1"/>
-      <c r="AT31" s="1"/>
-      <c r="AU31" s="1"/>
-      <c r="AV31" s="1"/>
-      <c r="AW31" s="1"/>
-      <c r="AX31" s="13"/>
-      <c r="AY31" s="1"/>
-      <c r="AZ31" s="1"/>
-      <c r="BA31" s="1"/>
-      <c r="BB31" s="1"/>
-      <c r="BC31" s="1"/>
-      <c r="BD31" s="1"/>
-      <c r="BE31" s="1"/>
-      <c r="BF31" s="1"/>
-      <c r="BG31" s="1"/>
-      <c r="BH31" s="1"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="21"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="3"/>
+      <c r="AL31" s="3"/>
+      <c r="AM31" s="3"/>
+      <c r="AN31" s="25"/>
+      <c r="AO31" s="3"/>
+      <c r="AP31" s="3"/>
+      <c r="AQ31" s="3"/>
+      <c r="AR31" s="3"/>
+      <c r="AS31" s="3"/>
+      <c r="AT31" s="3"/>
+      <c r="AU31" s="3"/>
+      <c r="AV31" s="3"/>
+      <c r="AW31" s="3"/>
+      <c r="AX31" s="26"/>
+      <c r="AY31" s="3"/>
+      <c r="AZ31" s="3"/>
+      <c r="BA31" s="3"/>
+      <c r="BB31" s="3"/>
+      <c r="BC31" s="3"/>
+      <c r="BD31" s="3"/>
+      <c r="BE31" s="3"/>
+      <c r="BF31" s="3"/>
+      <c r="BG31" s="3"/>
+      <c r="BH31" s="3"/>
       <c r="BI31" s="3"/>
       <c r="BJ31" s="3"/>
       <c r="BK31" s="3"/>
       <c r="BL31" s="3"/>
     </row>
     <row r="32" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
-      <c r="AA32" s="1"/>
-      <c r="AB32" s="1"/>
-      <c r="AC32" s="1"/>
-      <c r="AD32" s="9"/>
-      <c r="AE32" s="1"/>
-      <c r="AF32" s="1"/>
-      <c r="AG32" s="1"/>
-      <c r="AH32" s="1"/>
-      <c r="AI32" s="1"/>
-      <c r="AJ32" s="1"/>
-      <c r="AK32" s="1"/>
-      <c r="AL32" s="1"/>
-      <c r="AM32" s="1"/>
-      <c r="AN32" s="11"/>
-      <c r="AO32" s="1"/>
-      <c r="AP32" s="1"/>
-      <c r="AQ32" s="1"/>
-      <c r="AR32" s="1"/>
-      <c r="AS32" s="1"/>
-      <c r="AT32" s="1"/>
-      <c r="AU32" s="1"/>
-      <c r="AV32" s="1"/>
-      <c r="AW32" s="1"/>
-      <c r="AX32" s="13"/>
-      <c r="AY32" s="1"/>
-      <c r="AZ32" s="1"/>
-      <c r="BA32" s="1"/>
-      <c r="BB32" s="1"/>
-      <c r="BC32" s="1"/>
-      <c r="BD32" s="1"/>
-      <c r="BE32" s="1"/>
-      <c r="BF32" s="1"/>
-      <c r="BG32" s="1"/>
-      <c r="BH32" s="1"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="21"/>
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="3"/>
+      <c r="AG32" s="3"/>
+      <c r="AH32" s="3"/>
+      <c r="AI32" s="3"/>
+      <c r="AJ32" s="3"/>
+      <c r="AK32" s="3"/>
+      <c r="AL32" s="3"/>
+      <c r="AM32" s="3"/>
+      <c r="AN32" s="25"/>
+      <c r="AO32" s="3"/>
+      <c r="AP32" s="3"/>
+      <c r="AQ32" s="3"/>
+      <c r="AR32" s="3"/>
+      <c r="AS32" s="3"/>
+      <c r="AT32" s="3"/>
+      <c r="AU32" s="3"/>
+      <c r="AV32" s="3"/>
+      <c r="AW32" s="3"/>
+      <c r="AX32" s="26"/>
+      <c r="AY32" s="3"/>
+      <c r="AZ32" s="3"/>
+      <c r="BA32" s="3"/>
+      <c r="BB32" s="3"/>
+      <c r="BC32" s="3"/>
+      <c r="BD32" s="3"/>
+      <c r="BE32" s="3"/>
+      <c r="BF32" s="3"/>
+      <c r="BG32" s="3"/>
+      <c r="BH32" s="3"/>
       <c r="BI32" s="3"/>
       <c r="BJ32" s="3"/>
       <c r="BK32" s="3"/>
       <c r="BL32" s="3"/>
     </row>
     <row r="33" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
-      <c r="AA33" s="1"/>
-      <c r="AB33" s="1"/>
-      <c r="AC33" s="1"/>
-      <c r="AD33" s="9"/>
-      <c r="AE33" s="1"/>
-      <c r="AF33" s="1"/>
-      <c r="AG33" s="1"/>
-      <c r="AH33" s="1"/>
-      <c r="AI33" s="1"/>
-      <c r="AJ33" s="1"/>
-      <c r="AK33" s="1"/>
-      <c r="AL33" s="1"/>
-      <c r="AM33" s="1"/>
-      <c r="AN33" s="11"/>
-      <c r="AO33" s="1"/>
-      <c r="AP33" s="1"/>
-      <c r="AQ33" s="1"/>
-      <c r="AR33" s="1"/>
-      <c r="AS33" s="1"/>
-      <c r="AT33" s="1"/>
-      <c r="AU33" s="1"/>
-      <c r="AV33" s="1"/>
-      <c r="AW33" s="1"/>
-      <c r="AX33" s="13"/>
-      <c r="AY33" s="1"/>
-      <c r="AZ33" s="1"/>
-      <c r="BA33" s="1"/>
-      <c r="BB33" s="1"/>
-      <c r="BC33" s="1"/>
-      <c r="BD33" s="1"/>
-      <c r="BE33" s="1"/>
-      <c r="BF33" s="1"/>
-      <c r="BG33" s="1"/>
-      <c r="BH33" s="1"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="21"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3"/>
+      <c r="AK33" s="3"/>
+      <c r="AL33" s="3"/>
+      <c r="AM33" s="3"/>
+      <c r="AN33" s="25"/>
+      <c r="AO33" s="3"/>
+      <c r="AP33" s="3"/>
+      <c r="AQ33" s="3"/>
+      <c r="AR33" s="3"/>
+      <c r="AS33" s="3"/>
+      <c r="AT33" s="3"/>
+      <c r="AU33" s="3"/>
+      <c r="AV33" s="3"/>
+      <c r="AW33" s="3"/>
+      <c r="AX33" s="26"/>
+      <c r="AY33" s="3"/>
+      <c r="AZ33" s="3"/>
+      <c r="BA33" s="3"/>
+      <c r="BB33" s="3"/>
+      <c r="BC33" s="3"/>
+      <c r="BD33" s="3"/>
+      <c r="BE33" s="3"/>
+      <c r="BF33" s="3"/>
+      <c r="BG33" s="3"/>
+      <c r="BH33" s="3"/>
       <c r="BI33" s="3"/>
       <c r="BJ33" s="3"/>
       <c r="BK33" s="3"/>
       <c r="BL33" s="3"/>
     </row>
     <row r="34" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
-      <c r="AA34" s="1"/>
-      <c r="AB34" s="1"/>
-      <c r="AC34" s="1"/>
-      <c r="AD34" s="9"/>
-      <c r="AE34" s="1"/>
-      <c r="AF34" s="1"/>
-      <c r="AG34" s="1"/>
-      <c r="AH34" s="1"/>
-      <c r="AI34" s="1"/>
-      <c r="AJ34" s="1"/>
-      <c r="AK34" s="1"/>
-      <c r="AL34" s="1"/>
-      <c r="AM34" s="1"/>
-      <c r="AN34" s="11"/>
-      <c r="AO34" s="1"/>
-      <c r="AP34" s="1"/>
-      <c r="AQ34" s="1"/>
-      <c r="AR34" s="1"/>
-      <c r="AS34" s="1"/>
-      <c r="AT34" s="1"/>
-      <c r="AU34" s="1"/>
-      <c r="AV34" s="1"/>
-      <c r="AW34" s="1"/>
-      <c r="AX34" s="13"/>
-      <c r="AY34" s="1"/>
-      <c r="AZ34" s="1"/>
-      <c r="BA34" s="1"/>
-      <c r="BB34" s="1"/>
-      <c r="BC34" s="1"/>
-      <c r="BD34" s="1"/>
-      <c r="BE34" s="1"/>
-      <c r="BF34" s="1"/>
-      <c r="BG34" s="1"/>
-      <c r="BH34" s="1"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="21"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3"/>
+      <c r="AH34" s="3"/>
+      <c r="AI34" s="3"/>
+      <c r="AJ34" s="3"/>
+      <c r="AK34" s="3"/>
+      <c r="AL34" s="3"/>
+      <c r="AM34" s="3"/>
+      <c r="AN34" s="25"/>
+      <c r="AO34" s="3"/>
+      <c r="AP34" s="3"/>
+      <c r="AQ34" s="3"/>
+      <c r="AR34" s="3"/>
+      <c r="AS34" s="3"/>
+      <c r="AT34" s="3"/>
+      <c r="AU34" s="3"/>
+      <c r="AV34" s="3"/>
+      <c r="AW34" s="3"/>
+      <c r="AX34" s="26"/>
+      <c r="AY34" s="3"/>
+      <c r="AZ34" s="3"/>
+      <c r="BA34" s="3"/>
+      <c r="BB34" s="3"/>
+      <c r="BC34" s="3"/>
+      <c r="BD34" s="3"/>
+      <c r="BE34" s="3"/>
+      <c r="BF34" s="3"/>
+      <c r="BG34" s="3"/>
+      <c r="BH34" s="3"/>
       <c r="BI34" s="3"/>
       <c r="BJ34" s="3"/>
       <c r="BK34" s="3"/>
@@ -2868,4 +2907,2490 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32EA023-0038-482A-B633-0391C0CB8525}">
+  <dimension ref="A1:BL34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AZ28" sqref="AZ28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="9.140625" style="6"/>
+    <col min="20" max="20" width="9.140625" style="8"/>
+    <col min="30" max="30" width="9.140625" style="10"/>
+    <col min="40" max="40" width="9.140625" style="12"/>
+    <col min="50" max="50" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="11"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="13"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="3"/>
+      <c r="BF1" s="3"/>
+      <c r="BG1" s="3"/>
+      <c r="BH1" s="3"/>
+      <c r="BI1" s="3"/>
+      <c r="BJ1" s="3"/>
+      <c r="BK1" s="3"/>
+      <c r="BL1" s="3"/>
+    </row>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="11"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="13"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+      <c r="BA2" s="1"/>
+      <c r="BB2" s="2"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BE2" s="3"/>
+      <c r="BF2" s="3"/>
+      <c r="BG2" s="3"/>
+      <c r="BH2" s="3"/>
+      <c r="BI2" s="3"/>
+      <c r="BJ2" s="3"/>
+      <c r="BK2" s="3"/>
+      <c r="BL2" s="3"/>
+    </row>
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="11"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="13"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
+      <c r="BB3" s="2"/>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="3"/>
+      <c r="BE3" s="3"/>
+      <c r="BF3" s="3"/>
+      <c r="BG3" s="3"/>
+      <c r="BH3" s="3"/>
+      <c r="BI3" s="3"/>
+      <c r="BJ3" s="3"/>
+      <c r="BK3" s="3"/>
+      <c r="BL3" s="3"/>
+    </row>
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="11"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="13"/>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1"/>
+      <c r="BA4" s="1"/>
+      <c r="BB4" s="2"/>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="3"/>
+      <c r="BE4" s="3"/>
+      <c r="BF4" s="3"/>
+      <c r="BG4" s="3"/>
+      <c r="BH4" s="3"/>
+      <c r="BI4" s="3"/>
+      <c r="BJ4" s="3"/>
+      <c r="BK4" s="3"/>
+      <c r="BL4" s="3"/>
+    </row>
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="11"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="1"/>
+      <c r="AX5" s="13"/>
+      <c r="AY5" s="1"/>
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="1"/>
+      <c r="BB5" s="2"/>
+      <c r="BC5" s="3"/>
+      <c r="BD5" s="3"/>
+      <c r="BE5" s="3"/>
+      <c r="BF5" s="3"/>
+      <c r="BG5" s="3"/>
+      <c r="BH5" s="3"/>
+      <c r="BI5" s="3"/>
+      <c r="BJ5" s="3"/>
+      <c r="BK5" s="3"/>
+      <c r="BL5" s="3"/>
+    </row>
+    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="11"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1"/>
+      <c r="AS6" s="1"/>
+      <c r="AT6" s="1"/>
+      <c r="AU6" s="1"/>
+      <c r="AV6" s="1"/>
+      <c r="AW6" s="1"/>
+      <c r="AX6" s="13"/>
+      <c r="AY6" s="1"/>
+      <c r="AZ6" s="1"/>
+      <c r="BA6" s="1"/>
+      <c r="BB6" s="2"/>
+      <c r="BC6" s="3"/>
+      <c r="BD6" s="3"/>
+      <c r="BE6" s="3"/>
+      <c r="BF6" s="3"/>
+      <c r="BG6" s="3"/>
+      <c r="BH6" s="3"/>
+      <c r="BI6" s="3"/>
+      <c r="BJ6" s="3"/>
+      <c r="BK6" s="3"/>
+      <c r="BL6" s="3"/>
+    </row>
+    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="11"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="1"/>
+      <c r="AT7" s="1"/>
+      <c r="AU7" s="1"/>
+      <c r="AV7" s="1"/>
+      <c r="AW7" s="1"/>
+      <c r="AX7" s="13"/>
+      <c r="AY7" s="1"/>
+      <c r="AZ7" s="1"/>
+      <c r="BA7" s="1"/>
+      <c r="BB7" s="2"/>
+      <c r="BC7" s="3"/>
+      <c r="BD7" s="3"/>
+      <c r="BE7" s="3"/>
+      <c r="BF7" s="3"/>
+      <c r="BG7" s="3"/>
+      <c r="BH7" s="3"/>
+      <c r="BI7" s="3"/>
+      <c r="BJ7" s="3"/>
+      <c r="BK7" s="3"/>
+      <c r="BL7" s="3"/>
+    </row>
+    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="11"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="1"/>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="1"/>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="1"/>
+      <c r="AX8" s="13"/>
+      <c r="AY8" s="1"/>
+      <c r="AZ8" s="1"/>
+      <c r="BA8" s="1"/>
+      <c r="BB8" s="2"/>
+      <c r="BC8" s="3"/>
+      <c r="BD8" s="3"/>
+      <c r="BE8" s="3"/>
+      <c r="BF8" s="3"/>
+      <c r="BG8" s="3"/>
+      <c r="BH8" s="3"/>
+      <c r="BI8" s="3"/>
+      <c r="BJ8" s="3"/>
+      <c r="BK8" s="3"/>
+      <c r="BL8" s="3"/>
+    </row>
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="11"/>
+      <c r="AO9" s="1"/>
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1"/>
+      <c r="AS9" s="1"/>
+      <c r="AT9" s="1"/>
+      <c r="AU9" s="1"/>
+      <c r="AV9" s="1"/>
+      <c r="AW9" s="1"/>
+      <c r="AX9" s="13"/>
+      <c r="AY9" s="1"/>
+      <c r="AZ9" s="1"/>
+      <c r="BA9" s="1"/>
+      <c r="BB9" s="2"/>
+      <c r="BC9" s="3"/>
+      <c r="BD9" s="3"/>
+      <c r="BE9" s="3"/>
+      <c r="BF9" s="3"/>
+      <c r="BG9" s="3"/>
+      <c r="BH9" s="3"/>
+      <c r="BI9" s="3"/>
+      <c r="BJ9" s="3"/>
+      <c r="BK9" s="3"/>
+      <c r="BL9" s="3"/>
+    </row>
+    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="11"/>
+      <c r="AO10" s="1"/>
+      <c r="AP10" s="1"/>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1"/>
+      <c r="AS10" s="1"/>
+      <c r="AT10" s="1"/>
+      <c r="AU10" s="1"/>
+      <c r="AV10" s="1"/>
+      <c r="AW10" s="1"/>
+      <c r="AX10" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="3"/>
+      <c r="BD10" s="3"/>
+      <c r="BE10" s="3"/>
+      <c r="BF10" s="3"/>
+      <c r="BG10" s="3"/>
+      <c r="BH10" s="3"/>
+      <c r="BI10" s="3"/>
+      <c r="BJ10" s="3"/>
+      <c r="BK10" s="3"/>
+      <c r="BL10" s="3"/>
+    </row>
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="11"/>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="1"/>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="1"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX11" s="13"/>
+      <c r="AY11" s="1"/>
+      <c r="AZ11" s="1"/>
+      <c r="BA11" s="1"/>
+      <c r="BB11" s="2"/>
+      <c r="BC11" s="3"/>
+      <c r="BD11" s="3"/>
+      <c r="BE11" s="3"/>
+      <c r="BF11" s="3"/>
+      <c r="BG11" s="3"/>
+      <c r="BH11" s="3"/>
+      <c r="BI11" s="3"/>
+      <c r="BJ11" s="3"/>
+      <c r="BK11" s="3"/>
+      <c r="BL11" s="3"/>
+    </row>
+    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="11"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="1"/>
+      <c r="AV12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW12" s="1"/>
+      <c r="AX12" s="13"/>
+      <c r="AY12" s="1"/>
+      <c r="AZ12" s="1"/>
+      <c r="BA12" s="1"/>
+      <c r="BB12" s="2"/>
+      <c r="BC12" s="3"/>
+      <c r="BD12" s="3"/>
+      <c r="BE12" s="3"/>
+      <c r="BF12" s="3"/>
+      <c r="BG12" s="3"/>
+      <c r="BH12" s="3"/>
+      <c r="BI12" s="3"/>
+      <c r="BJ12" s="3"/>
+      <c r="BK12" s="3"/>
+      <c r="BL12" s="3"/>
+    </row>
+    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1"/>
+      <c r="AS13" s="1"/>
+      <c r="AT13" s="1"/>
+      <c r="AU13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV13" s="1"/>
+      <c r="AW13" s="1"/>
+      <c r="AX13" s="13"/>
+      <c r="AY13" s="1"/>
+      <c r="AZ13" s="1"/>
+      <c r="BA13" s="1"/>
+      <c r="BB13" s="2"/>
+      <c r="BC13" s="3"/>
+      <c r="BD13" s="3"/>
+      <c r="BE13" s="3"/>
+      <c r="BF13" s="3"/>
+      <c r="BG13" s="3"/>
+      <c r="BH13" s="3"/>
+      <c r="BI13" s="3"/>
+      <c r="BJ13" s="3"/>
+      <c r="BK13" s="3"/>
+      <c r="BL13" s="3"/>
+    </row>
+    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="11"/>
+      <c r="AO14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="1"/>
+      <c r="AV14" s="1"/>
+      <c r="AW14" s="1"/>
+      <c r="AX14" s="13"/>
+      <c r="AY14" s="1"/>
+      <c r="AZ14" s="1"/>
+      <c r="BA14" s="1"/>
+      <c r="BB14" s="2"/>
+      <c r="BC14" s="3"/>
+      <c r="BD14" s="3"/>
+      <c r="BE14" s="3"/>
+      <c r="BF14" s="3"/>
+      <c r="BG14" s="3"/>
+      <c r="BH14" s="3"/>
+      <c r="BI14" s="3"/>
+      <c r="BJ14" s="3"/>
+      <c r="BK14" s="3"/>
+      <c r="BL14" s="3"/>
+    </row>
+    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="11"/>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1"/>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="1"/>
+      <c r="AU15" s="1"/>
+      <c r="AV15" s="1"/>
+      <c r="AW15" s="1"/>
+      <c r="AX15" s="13"/>
+      <c r="AY15" s="1"/>
+      <c r="AZ15" s="1"/>
+      <c r="BA15" s="1"/>
+      <c r="BB15" s="2"/>
+      <c r="BC15" s="3"/>
+      <c r="BD15" s="3"/>
+      <c r="BE15" s="3"/>
+      <c r="BF15" s="3"/>
+      <c r="BG15" s="3"/>
+      <c r="BH15" s="3"/>
+      <c r="BI15" s="3"/>
+      <c r="BJ15" s="3"/>
+      <c r="BK15" s="3"/>
+      <c r="BL15" s="3"/>
+    </row>
+    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="11"/>
+      <c r="AO16" s="1"/>
+      <c r="AP16" s="1"/>
+      <c r="AQ16" s="1"/>
+      <c r="AR16" s="1"/>
+      <c r="AS16" s="1"/>
+      <c r="AT16" s="1"/>
+      <c r="AU16" s="1"/>
+      <c r="AV16" s="1"/>
+      <c r="AW16" s="1"/>
+      <c r="AX16" s="13"/>
+      <c r="AY16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AZ16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC16" s="3"/>
+      <c r="BD16" s="3"/>
+      <c r="BE16" s="3"/>
+      <c r="BF16" s="3"/>
+      <c r="BG16" s="3"/>
+      <c r="BH16" s="3"/>
+      <c r="BI16" s="3"/>
+      <c r="BJ16" s="3"/>
+      <c r="BK16" s="3"/>
+      <c r="BL16" s="3"/>
+    </row>
+    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="11"/>
+      <c r="AO17" s="1"/>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="1"/>
+      <c r="AS17" s="1"/>
+      <c r="AT17" s="1"/>
+      <c r="AU17" s="1"/>
+      <c r="AV17" s="1"/>
+      <c r="AW17" s="1"/>
+      <c r="AX17" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="AY17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AZ17" s="1"/>
+      <c r="BA17" s="1"/>
+      <c r="BB17" s="2"/>
+      <c r="BC17" s="3"/>
+      <c r="BD17" s="3"/>
+      <c r="BE17" s="3"/>
+      <c r="BF17" s="3"/>
+      <c r="BG17" s="3"/>
+      <c r="BH17" s="3"/>
+      <c r="BI17" s="3"/>
+      <c r="BJ17" s="3"/>
+      <c r="BK17" s="3"/>
+      <c r="BL17" s="3"/>
+    </row>
+    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="11"/>
+      <c r="AO18" s="1"/>
+      <c r="AP18" s="1"/>
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="1"/>
+      <c r="AS18" s="1"/>
+      <c r="AT18" s="1"/>
+      <c r="AU18" s="1"/>
+      <c r="AV18" s="1"/>
+      <c r="AW18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX18" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY18" s="1"/>
+      <c r="AZ18" s="1"/>
+      <c r="BA18" s="1"/>
+      <c r="BB18" s="2"/>
+      <c r="BC18" s="3"/>
+      <c r="BD18" s="3"/>
+      <c r="BE18" s="3"/>
+      <c r="BF18" s="3"/>
+      <c r="BG18" s="3"/>
+      <c r="BH18" s="3"/>
+      <c r="BI18" s="3"/>
+      <c r="BJ18" s="3"/>
+      <c r="BK18" s="3"/>
+      <c r="BL18" s="3"/>
+    </row>
+    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="9"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN19" s="11"/>
+      <c r="AO19" s="1"/>
+      <c r="AP19" s="1"/>
+      <c r="AQ19" s="1"/>
+      <c r="AR19" s="1"/>
+      <c r="AS19" s="1"/>
+      <c r="AV19" t="s">
+        <v>5</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC19" s="3"/>
+      <c r="BD19" s="3"/>
+      <c r="BE19" s="3"/>
+      <c r="BF19" s="3"/>
+      <c r="BG19" s="3"/>
+      <c r="BH19" s="3"/>
+      <c r="BI19" s="3"/>
+      <c r="BJ19" s="3"/>
+      <c r="BK19" s="3"/>
+      <c r="BL19" s="3"/>
+    </row>
+    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="1"/>
+      <c r="AM20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN20" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW20" s="1"/>
+      <c r="AX20" s="13"/>
+      <c r="AY20" s="1"/>
+      <c r="AZ20" s="1"/>
+      <c r="BA20" s="1"/>
+      <c r="BB20" s="2"/>
+      <c r="BC20" s="3"/>
+      <c r="BD20" s="3"/>
+      <c r="BE20" s="3"/>
+      <c r="BF20" s="3"/>
+      <c r="BG20" s="3"/>
+      <c r="BH20" s="3"/>
+      <c r="BI20" s="3"/>
+      <c r="BJ20" s="3"/>
+      <c r="BK20" s="3"/>
+      <c r="BL20" s="3"/>
+    </row>
+    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="9"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="1"/>
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO21" s="1"/>
+      <c r="AP21" s="1"/>
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="1"/>
+      <c r="AS21" s="1"/>
+      <c r="AT21" s="1"/>
+      <c r="AU21" s="1"/>
+      <c r="AV21" s="1"/>
+      <c r="AW21" s="1"/>
+      <c r="AX21" s="13"/>
+      <c r="AY21" s="1"/>
+      <c r="AZ21" s="1"/>
+      <c r="BA21" s="1"/>
+      <c r="BB21" s="2"/>
+      <c r="BC21" s="3"/>
+      <c r="BD21" s="3"/>
+      <c r="BE21" s="3"/>
+      <c r="BF21" s="3"/>
+      <c r="BG21" s="3"/>
+      <c r="BH21" s="3"/>
+      <c r="BI21" s="3"/>
+      <c r="BJ21" s="3"/>
+      <c r="BK21" s="3"/>
+      <c r="BL21" s="3"/>
+    </row>
+    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="1"/>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1"/>
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="11"/>
+      <c r="AO22" s="1"/>
+      <c r="AP22" s="1"/>
+      <c r="AQ22" s="1"/>
+      <c r="AR22" s="1"/>
+      <c r="AS22" s="1"/>
+      <c r="AT22" s="1"/>
+      <c r="AU22" s="1"/>
+      <c r="AV22" s="1"/>
+      <c r="AW22" s="1"/>
+      <c r="AX22" s="13"/>
+      <c r="AY22" s="1"/>
+      <c r="AZ22" s="1"/>
+      <c r="BA22" s="1"/>
+      <c r="BB22" s="2"/>
+      <c r="BC22" s="3"/>
+      <c r="BD22" s="3"/>
+      <c r="BE22" s="3"/>
+      <c r="BF22" s="3"/>
+      <c r="BG22" s="3"/>
+      <c r="BH22" s="3"/>
+      <c r="BI22" s="3"/>
+      <c r="BJ22" s="3"/>
+      <c r="BK22" s="3"/>
+      <c r="BL22" s="3"/>
+    </row>
+    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="1"/>
+      <c r="AJ23" s="1"/>
+      <c r="AK23" s="1"/>
+      <c r="AL23" s="1"/>
+      <c r="AM23" s="1"/>
+      <c r="AN23" s="11"/>
+      <c r="AO23" s="1"/>
+      <c r="AP23" s="1"/>
+      <c r="AQ23" s="1"/>
+      <c r="AR23" s="1"/>
+      <c r="AS23" s="1"/>
+      <c r="AT23" s="1"/>
+      <c r="AU23" s="1"/>
+      <c r="AV23" s="1"/>
+      <c r="AW23" s="1"/>
+      <c r="AX23" s="13"/>
+      <c r="AY23" s="1"/>
+      <c r="AZ23" s="1"/>
+      <c r="BA23" s="1"/>
+      <c r="BB23" s="2"/>
+      <c r="BC23" s="3"/>
+      <c r="BD23" s="3"/>
+      <c r="BE23" s="3"/>
+      <c r="BF23" s="3"/>
+      <c r="BG23" s="3"/>
+      <c r="BH23" s="3"/>
+      <c r="BI23" s="3"/>
+      <c r="BJ23" s="3"/>
+      <c r="BK23" s="3"/>
+      <c r="BL23" s="3"/>
+    </row>
+    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="9"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="1"/>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="1"/>
+      <c r="AM24" s="1"/>
+      <c r="AN24" s="11"/>
+      <c r="AO24" s="1"/>
+      <c r="AP24" s="1"/>
+      <c r="AQ24" s="1"/>
+      <c r="AR24" s="1"/>
+      <c r="AS24" s="1"/>
+      <c r="AT24" s="1"/>
+      <c r="AU24" s="1"/>
+      <c r="AV24" s="1"/>
+      <c r="AW24" s="1"/>
+      <c r="AX24" s="13"/>
+      <c r="AY24" s="1"/>
+      <c r="AZ24" s="1"/>
+      <c r="BA24" s="1"/>
+      <c r="BB24" s="2"/>
+      <c r="BC24" s="3"/>
+      <c r="BD24" s="3"/>
+      <c r="BE24" s="3"/>
+      <c r="BF24" s="3"/>
+      <c r="BG24" s="3"/>
+      <c r="BH24" s="3"/>
+      <c r="BI24" s="3"/>
+      <c r="BJ24" s="3"/>
+      <c r="BK24" s="3"/>
+      <c r="BL24" s="3"/>
+    </row>
+    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="9"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="1"/>
+      <c r="AK25" s="1"/>
+      <c r="AL25" s="1"/>
+      <c r="AM25" s="1"/>
+      <c r="AN25" s="11"/>
+      <c r="AO25" s="1"/>
+      <c r="AP25" s="1"/>
+      <c r="AQ25" s="1"/>
+      <c r="AR25" s="1"/>
+      <c r="AS25" s="1"/>
+      <c r="AT25" s="1"/>
+      <c r="AU25" s="1"/>
+      <c r="AV25" s="1"/>
+      <c r="AW25" s="1"/>
+      <c r="AX25" s="13"/>
+      <c r="AY25" s="1"/>
+      <c r="AZ25" s="1"/>
+      <c r="BA25" s="1"/>
+      <c r="BB25" s="2"/>
+      <c r="BC25" s="3"/>
+      <c r="BD25" s="3"/>
+      <c r="BE25" s="3"/>
+      <c r="BF25" s="3"/>
+      <c r="BG25" s="3"/>
+      <c r="BH25" s="3"/>
+      <c r="BI25" s="3"/>
+      <c r="BJ25" s="3"/>
+      <c r="BK25" s="3"/>
+      <c r="BL25" s="3"/>
+    </row>
+    <row r="26" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T26" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="9"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1"/>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="11"/>
+      <c r="AO26" s="1"/>
+      <c r="AP26" s="1"/>
+      <c r="AQ26" s="1"/>
+      <c r="AR26" s="1"/>
+      <c r="AS26" s="1"/>
+      <c r="AT26" s="1"/>
+      <c r="AU26" s="1"/>
+      <c r="AV26" s="1"/>
+      <c r="AW26" s="1"/>
+      <c r="AX26" s="13"/>
+      <c r="AY26" s="1"/>
+      <c r="AZ26" s="1"/>
+      <c r="BA26" s="1"/>
+      <c r="BB26" s="2"/>
+      <c r="BC26" s="3"/>
+      <c r="BD26" s="3"/>
+      <c r="BE26" s="3"/>
+      <c r="BF26" s="3"/>
+      <c r="BG26" s="3"/>
+      <c r="BH26" s="3"/>
+      <c r="BI26" s="3"/>
+      <c r="BJ26" s="3"/>
+      <c r="BK26" s="3"/>
+      <c r="BL26" s="3"/>
+    </row>
+    <row r="27" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="9"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="1"/>
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="11"/>
+      <c r="AO27" s="1"/>
+      <c r="AP27" s="1"/>
+      <c r="AQ27" s="1"/>
+      <c r="AR27" s="1"/>
+      <c r="AS27" s="1"/>
+      <c r="AT27" s="1"/>
+      <c r="AU27" s="1"/>
+      <c r="AV27" s="1"/>
+      <c r="AW27" s="1"/>
+      <c r="AY27" s="1"/>
+      <c r="AZ27" s="1"/>
+      <c r="BA27" s="1"/>
+      <c r="BB27" s="2"/>
+      <c r="BC27" s="3"/>
+      <c r="BD27" s="3"/>
+      <c r="BE27" s="3"/>
+      <c r="BF27" s="3"/>
+      <c r="BG27" s="3"/>
+      <c r="BH27" s="3"/>
+      <c r="BI27" s="3"/>
+      <c r="BJ27" s="3"/>
+      <c r="BK27" s="3"/>
+      <c r="BL27" s="3"/>
+    </row>
+    <row r="28" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="9"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="1"/>
+      <c r="AK28" s="1"/>
+      <c r="AL28" s="1"/>
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="11"/>
+      <c r="AO28" s="1"/>
+      <c r="AP28" s="1"/>
+      <c r="AQ28" s="1"/>
+      <c r="AR28" s="1"/>
+      <c r="AS28" s="1"/>
+      <c r="AT28" s="1"/>
+      <c r="AU28" s="1"/>
+      <c r="AV28" s="1"/>
+      <c r="AW28" s="1"/>
+      <c r="AX28" s="13"/>
+      <c r="AY28" s="1"/>
+      <c r="AZ28" s="1"/>
+      <c r="BA28" s="1"/>
+      <c r="BB28" s="2"/>
+      <c r="BC28" s="3"/>
+      <c r="BD28" s="3"/>
+      <c r="BE28" s="3"/>
+      <c r="BF28" s="3"/>
+      <c r="BG28" s="3"/>
+      <c r="BH28" s="3"/>
+      <c r="BI28" s="3"/>
+      <c r="BJ28" s="3"/>
+      <c r="BK28" s="3"/>
+      <c r="BL28" s="3"/>
+    </row>
+    <row r="29" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="9"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="11"/>
+      <c r="AO29" s="1"/>
+      <c r="AP29" s="1"/>
+      <c r="AQ29" s="1"/>
+      <c r="AR29" s="1"/>
+      <c r="AS29" s="1"/>
+      <c r="AT29" s="1"/>
+      <c r="AU29" s="1"/>
+      <c r="AV29" s="1"/>
+      <c r="AW29" s="1"/>
+      <c r="AX29" s="13"/>
+      <c r="AY29" s="1"/>
+      <c r="AZ29" s="1"/>
+      <c r="BA29" s="1"/>
+      <c r="BB29" s="2"/>
+      <c r="BC29" s="3"/>
+      <c r="BD29" s="3"/>
+      <c r="BE29" s="3"/>
+      <c r="BF29" s="3"/>
+      <c r="BG29" s="3"/>
+      <c r="BH29" s="3"/>
+      <c r="BI29" s="3"/>
+      <c r="BJ29" s="3"/>
+      <c r="BK29" s="3"/>
+      <c r="BL29" s="3"/>
+    </row>
+    <row r="30" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="15"/>
+      <c r="Z30" s="15"/>
+      <c r="AA30" s="15"/>
+      <c r="AB30" s="15"/>
+      <c r="AC30" s="15"/>
+      <c r="AD30" s="18"/>
+      <c r="AE30" s="15"/>
+      <c r="AF30" s="15"/>
+      <c r="AG30" s="15"/>
+      <c r="AH30" s="15"/>
+      <c r="AI30" s="15"/>
+      <c r="AJ30" s="15"/>
+      <c r="AK30" s="15"/>
+      <c r="AL30" s="15"/>
+      <c r="AM30" s="15"/>
+      <c r="AN30" s="22"/>
+      <c r="AO30" s="15"/>
+      <c r="AP30" s="15"/>
+      <c r="AQ30" s="15"/>
+      <c r="AR30" s="15"/>
+      <c r="AS30" s="15"/>
+      <c r="AT30" s="15"/>
+      <c r="AU30" s="15"/>
+      <c r="AV30" s="15"/>
+      <c r="AW30" s="15"/>
+      <c r="AX30" s="23"/>
+      <c r="AY30" s="15"/>
+      <c r="AZ30" s="15"/>
+      <c r="BA30" s="15"/>
+      <c r="BB30" s="24"/>
+      <c r="BC30" s="3"/>
+      <c r="BD30" s="3"/>
+      <c r="BE30" s="3"/>
+      <c r="BF30" s="3"/>
+      <c r="BG30" s="3"/>
+      <c r="BH30" s="3"/>
+      <c r="BI30" s="3"/>
+      <c r="BJ30" s="3"/>
+      <c r="BK30" s="3"/>
+      <c r="BL30" s="3"/>
+    </row>
+    <row r="31" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="21"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="3"/>
+      <c r="AL31" s="3"/>
+      <c r="AM31" s="3"/>
+      <c r="AN31" s="25"/>
+      <c r="AO31" s="3"/>
+      <c r="AP31" s="3"/>
+      <c r="AQ31" s="3"/>
+      <c r="AR31" s="3"/>
+      <c r="AS31" s="3"/>
+      <c r="AT31" s="3"/>
+      <c r="AU31" s="3"/>
+      <c r="AV31" s="3"/>
+      <c r="AW31" s="3"/>
+      <c r="AX31" s="26"/>
+      <c r="AY31" s="3"/>
+      <c r="AZ31" s="3"/>
+      <c r="BA31" s="3"/>
+      <c r="BB31" s="3"/>
+      <c r="BC31" s="3"/>
+      <c r="BD31" s="3"/>
+      <c r="BE31" s="3"/>
+      <c r="BF31" s="3"/>
+      <c r="BG31" s="3"/>
+      <c r="BH31" s="3"/>
+      <c r="BI31" s="3"/>
+      <c r="BJ31" s="3"/>
+      <c r="BK31" s="3"/>
+      <c r="BL31" s="3"/>
+    </row>
+    <row r="32" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="21"/>
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="3"/>
+      <c r="AG32" s="3"/>
+      <c r="AH32" s="3"/>
+      <c r="AI32" s="3"/>
+      <c r="AJ32" s="3"/>
+      <c r="AK32" s="3"/>
+      <c r="AL32" s="3"/>
+      <c r="AM32" s="3"/>
+      <c r="AN32" s="25"/>
+      <c r="AO32" s="3"/>
+      <c r="AP32" s="3"/>
+      <c r="AQ32" s="3"/>
+      <c r="AR32" s="3"/>
+      <c r="AS32" s="3"/>
+      <c r="AT32" s="3"/>
+      <c r="AU32" s="3"/>
+      <c r="AV32" s="3"/>
+      <c r="AW32" s="3"/>
+      <c r="AX32" s="26"/>
+      <c r="AY32" s="3"/>
+      <c r="AZ32" s="3"/>
+      <c r="BA32" s="3"/>
+      <c r="BB32" s="3"/>
+      <c r="BC32" s="3"/>
+      <c r="BD32" s="3"/>
+      <c r="BE32" s="3"/>
+      <c r="BF32" s="3"/>
+      <c r="BG32" s="3"/>
+      <c r="BH32" s="3"/>
+      <c r="BI32" s="3"/>
+      <c r="BJ32" s="3"/>
+      <c r="BK32" s="3"/>
+      <c r="BL32" s="3"/>
+    </row>
+    <row r="33" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="21"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3"/>
+      <c r="AK33" s="3"/>
+      <c r="AL33" s="3"/>
+      <c r="AM33" s="3"/>
+      <c r="AN33" s="25"/>
+      <c r="AO33" s="3"/>
+      <c r="AP33" s="3"/>
+      <c r="AQ33" s="3"/>
+      <c r="AR33" s="3"/>
+      <c r="AS33" s="3"/>
+      <c r="AT33" s="3"/>
+      <c r="AU33" s="3"/>
+      <c r="AV33" s="3"/>
+      <c r="AW33" s="3"/>
+      <c r="AX33" s="26"/>
+      <c r="AY33" s="3"/>
+      <c r="AZ33" s="3"/>
+      <c r="BA33" s="3"/>
+      <c r="BB33" s="3"/>
+      <c r="BC33" s="3"/>
+      <c r="BD33" s="3"/>
+      <c r="BE33" s="3"/>
+      <c r="BF33" s="3"/>
+      <c r="BG33" s="3"/>
+      <c r="BH33" s="3"/>
+      <c r="BI33" s="3"/>
+      <c r="BJ33" s="3"/>
+      <c r="BK33" s="3"/>
+      <c r="BL33" s="3"/>
+    </row>
+    <row r="34" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="21"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3"/>
+      <c r="AH34" s="3"/>
+      <c r="AI34" s="3"/>
+      <c r="AJ34" s="3"/>
+      <c r="AK34" s="3"/>
+      <c r="AL34" s="3"/>
+      <c r="AM34" s="3"/>
+      <c r="AN34" s="25"/>
+      <c r="AO34" s="3"/>
+      <c r="AP34" s="3"/>
+      <c r="AQ34" s="3"/>
+      <c r="AR34" s="3"/>
+      <c r="AS34" s="3"/>
+      <c r="AT34" s="3"/>
+      <c r="AU34" s="3"/>
+      <c r="AV34" s="3"/>
+      <c r="AW34" s="3"/>
+      <c r="AX34" s="26"/>
+      <c r="AY34" s="3"/>
+      <c r="AZ34" s="3"/>
+      <c r="BA34" s="3"/>
+      <c r="BB34" s="3"/>
+      <c r="BC34" s="3"/>
+      <c r="BD34" s="3"/>
+      <c r="BE34" s="3"/>
+      <c r="BF34" s="3"/>
+      <c r="BG34" s="3"/>
+      <c r="BH34" s="3"/>
+      <c r="BI34" s="3"/>
+      <c r="BJ34" s="3"/>
+      <c r="BK34" s="3"/>
+      <c r="BL34" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/GUI_20212202_AYZ8R9/Maps/map.xlsx
+++ b/GUI_20212202_AYZ8R9/Maps/map.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\game\GUI_20212202_AYZ8R9\Maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF8DB7A-C0C3-4603-8A30-50EB062893BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490DD743-0C61-4062-A791-0F25EC80B570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
     <sheet name="Munka2" sheetId="2" r:id="rId2"/>
+    <sheet name="Munka3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="10">
   <si>
     <t>B</t>
   </si>
@@ -60,6 +61,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -113,7 +120,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -173,11 +180,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -205,6 +223,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -487,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL39"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AO34" sqref="AO34"/>
+    <sheetView topLeftCell="Z1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AS37" sqref="AS37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1321,7 +1340,9 @@
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
+      <c r="AC13" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="AD13" s="9" t="s">
         <v>5</v>
       </c>
@@ -1409,7 +1430,9 @@
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
+      <c r="AC14" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="AD14" s="9" t="s">
         <v>6</v>
       </c>
@@ -1481,7 +1504,9 @@
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
+      <c r="AC15" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="AD15" s="9" t="s">
         <v>6</v>
       </c>
@@ -1567,7 +1592,9 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
+      <c r="AC16" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="AD16" s="9" t="s">
         <v>6</v>
       </c>
@@ -1641,7 +1668,9 @@
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
+      <c r="AC17" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="AD17" s="9" t="s">
         <v>6</v>
       </c>
@@ -1722,7 +1751,9 @@
       <c r="Q18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="R18" s="1"/>
+      <c r="R18" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="S18" s="1"/>
       <c r="T18" s="7"/>
       <c r="U18" s="1"/>
@@ -1733,7 +1764,9 @@
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
+      <c r="AC18" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="AD18" s="9" t="s">
         <v>6</v>
       </c>
@@ -1796,7 +1829,9 @@
       <c r="Q19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R19" s="1"/>
+      <c r="R19" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="S19" s="1"/>
       <c r="T19" s="7"/>
       <c r="U19" s="1"/>
@@ -1864,7 +1899,9 @@
       <c r="Q20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="1"/>
+      <c r="R20" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="S20" s="1"/>
       <c r="T20" s="7"/>
       <c r="U20" s="1"/>
@@ -1954,7 +1991,9 @@
       <c r="Q21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R21" s="1"/>
+      <c r="R21" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="S21" s="1"/>
       <c r="T21" s="7"/>
       <c r="U21" s="1"/>
@@ -2026,7 +2065,9 @@
       <c r="Q22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R22" s="1"/>
+      <c r="R22" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="S22" s="1"/>
       <c r="T22" s="7"/>
       <c r="U22" s="1"/>
@@ -2098,7 +2139,9 @@
       <c r="Q23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R23" s="1"/>
+      <c r="R23" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="S23" s="1"/>
       <c r="T23" s="7"/>
       <c r="U23" s="1"/>
@@ -2913,8 +2956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32EA023-0038-482A-B633-0391C0CB8525}">
   <dimension ref="A1:BL34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AZ28" sqref="AZ28"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AW23" sqref="AW23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3493,7 +3536,9 @@
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
-      <c r="AI9" s="1"/>
+      <c r="AI9" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="AJ9" s="1" t="s">
         <v>1</v>
       </c>
@@ -3561,8 +3606,12 @@
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
-      <c r="AJ10" s="1"/>
+      <c r="AI10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ10" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="AK10" s="1" t="s">
         <v>1</v>
       </c>
@@ -3639,9 +3688,15 @@
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
-      <c r="AI11" s="1"/>
-      <c r="AJ11" s="1"/>
-      <c r="AK11" s="1"/>
+      <c r="AI11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK11" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="AL11" s="1" t="s">
         <v>1</v>
       </c>
@@ -3658,11 +3713,21 @@
       <c r="AW11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AX11" s="13"/>
-      <c r="AY11" s="1"/>
-      <c r="AZ11" s="1"/>
-      <c r="BA11" s="1"/>
-      <c r="BB11" s="2"/>
+      <c r="AX11" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB11" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="BC11" s="3"/>
       <c r="BD11" s="3"/>
       <c r="BE11" s="3"/>
@@ -3709,10 +3774,18 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
-      <c r="AI12" s="1"/>
-      <c r="AJ12" s="1"/>
-      <c r="AK12" s="1"/>
-      <c r="AL12" s="1"/>
+      <c r="AI12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL12" s="27" t="s">
+        <v>9</v>
+      </c>
       <c r="AM12" s="1" t="s">
         <v>1</v>
       </c>
@@ -3727,12 +3800,24 @@
       <c r="AV12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AW12" s="1"/>
-      <c r="AX12" s="13"/>
-      <c r="AY12" s="1"/>
-      <c r="AZ12" s="1"/>
-      <c r="BA12" s="1"/>
-      <c r="BB12" s="2"/>
+      <c r="AW12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB12" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="BC12" s="3"/>
       <c r="BD12" s="3"/>
       <c r="BE12" s="3"/>
@@ -3797,11 +3882,21 @@
         <v>5</v>
       </c>
       <c r="AH13" s="1"/>
-      <c r="AI13" s="1"/>
-      <c r="AJ13" s="1"/>
-      <c r="AK13" s="1"/>
-      <c r="AL13" s="1"/>
-      <c r="AM13" s="1"/>
+      <c r="AI13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM13" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="AN13" s="11" t="s">
         <v>1</v>
       </c>
@@ -3814,13 +3909,27 @@
       <c r="AU13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AV13" s="1"/>
-      <c r="AW13" s="1"/>
-      <c r="AX13" s="13"/>
-      <c r="AY13" s="1"/>
-      <c r="AZ13" s="1"/>
-      <c r="BA13" s="1"/>
-      <c r="BB13" s="2"/>
+      <c r="AV13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX13" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB13" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="BC13" s="3"/>
       <c r="BD13" s="3"/>
       <c r="BE13" s="3"/>
@@ -3875,12 +3984,24 @@
       <c r="AH14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AI14" s="1"/>
-      <c r="AJ14" s="1"/>
-      <c r="AK14" s="1"/>
-      <c r="AL14" s="1"/>
-      <c r="AM14" s="1"/>
-      <c r="AN14" s="11"/>
+      <c r="AI14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ14" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN14" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="AO14" s="1" t="s">
         <v>1</v>
       </c>
@@ -3899,14 +4020,30 @@
       <c r="AT14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AU14" s="1"/>
-      <c r="AV14" s="1"/>
-      <c r="AW14" s="1"/>
-      <c r="AX14" s="13"/>
-      <c r="AY14" s="1"/>
-      <c r="AZ14" s="1"/>
-      <c r="BA14" s="1"/>
-      <c r="BB14" s="2"/>
+      <c r="AU14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB14" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="BC14" s="3"/>
       <c r="BD14" s="3"/>
       <c r="BE14" s="3"/>
@@ -3962,25 +4099,63 @@
       <c r="AI15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AJ15" s="1"/>
-      <c r="AK15" s="1"/>
-      <c r="AL15" s="1"/>
-      <c r="AM15" s="1"/>
-      <c r="AN15" s="11"/>
-      <c r="AO15" s="1"/>
-      <c r="AP15" s="1"/>
-      <c r="AQ15" s="1"/>
-      <c r="AR15" s="1"/>
-      <c r="AS15" s="1"/>
-      <c r="AT15" s="1"/>
-      <c r="AU15" s="1"/>
-      <c r="AV15" s="1"/>
-      <c r="AW15" s="1"/>
-      <c r="AX15" s="13"/>
-      <c r="AY15" s="1"/>
-      <c r="AZ15" s="1"/>
-      <c r="BA15" s="1"/>
-      <c r="BB15" s="2"/>
+      <c r="AJ15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB15" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="BC15" s="3"/>
       <c r="BD15" s="3"/>
       <c r="BE15" s="3"/>
@@ -4047,19 +4222,45 @@
       <c r="AJ16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AK16" s="1"/>
-      <c r="AL16" s="1"/>
-      <c r="AM16" s="1"/>
-      <c r="AN16" s="11"/>
-      <c r="AO16" s="1"/>
-      <c r="AP16" s="1"/>
-      <c r="AQ16" s="1"/>
-      <c r="AR16" s="1"/>
-      <c r="AS16" s="1"/>
-      <c r="AT16" s="1"/>
-      <c r="AU16" s="1"/>
-      <c r="AV16" s="1"/>
-      <c r="AW16" s="1"/>
+      <c r="AK16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW16" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="AX16" s="13"/>
       <c r="AY16" s="1" t="s">
         <v>5</v>
@@ -4138,18 +4339,42 @@
       <c r="AK17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AL17" s="1"/>
-      <c r="AM17" s="1"/>
-      <c r="AN17" s="11"/>
-      <c r="AO17" s="1"/>
-      <c r="AP17" s="1"/>
-      <c r="AQ17" s="1"/>
-      <c r="AR17" s="1"/>
-      <c r="AS17" s="1"/>
-      <c r="AT17" s="1"/>
-      <c r="AU17" s="1"/>
-      <c r="AV17" s="1"/>
-      <c r="AW17" s="1"/>
+      <c r="AL17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW17" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="AX17" s="13" t="s">
         <v>5</v>
       </c>
@@ -4231,16 +4456,36 @@
       <c r="AL18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AM18" s="1"/>
-      <c r="AN18" s="11"/>
-      <c r="AO18" s="1"/>
-      <c r="AP18" s="1"/>
-      <c r="AQ18" s="1"/>
-      <c r="AR18" s="1"/>
-      <c r="AS18" s="1"/>
-      <c r="AT18" s="1"/>
-      <c r="AU18" s="1"/>
-      <c r="AV18" s="1"/>
+      <c r="AM18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN18" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV18" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="AW18" s="1" t="s">
         <v>5</v>
       </c>
@@ -4314,12 +4559,30 @@
       <c r="AM19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AN19" s="11"/>
-      <c r="AO19" s="1"/>
-      <c r="AP19" s="1"/>
-      <c r="AQ19" s="1"/>
-      <c r="AR19" s="1"/>
-      <c r="AS19" s="1"/>
+      <c r="AN19" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU19" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="AV19" t="s">
         <v>5</v>
       </c>
@@ -4481,9 +4744,7 @@
       <c r="AK21" s="1"/>
       <c r="AL21" s="1"/>
       <c r="AM21" s="1"/>
-      <c r="AN21" s="11" t="s">
-        <v>1</v>
-      </c>
+      <c r="AN21" s="11"/>
       <c r="AO21" s="1"/>
       <c r="AP21" s="1"/>
       <c r="AQ21" s="1"/>
@@ -5393,4 +5654,2643 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8F6284-F138-4CEB-A50F-8C3CA6F27EB7}">
+  <dimension ref="A1:BL34"/>
+  <sheetViews>
+    <sheetView topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AM16" sqref="AM16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="9.140625" style="6"/>
+    <col min="20" max="20" width="9.140625" style="8"/>
+    <col min="30" max="30" width="9.140625" style="10"/>
+    <col min="40" max="40" width="9.140625" style="12"/>
+    <col min="50" max="50" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="11"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="13"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="3"/>
+      <c r="BF1" s="3"/>
+      <c r="BG1" s="3"/>
+      <c r="BH1" s="3"/>
+      <c r="BI1" s="3"/>
+      <c r="BJ1" s="3"/>
+      <c r="BK1" s="3"/>
+      <c r="BL1" s="3"/>
+    </row>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="11"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="13"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+      <c r="BA2" s="1"/>
+      <c r="BB2" s="2"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BE2" s="3"/>
+      <c r="BF2" s="3"/>
+      <c r="BG2" s="3"/>
+      <c r="BH2" s="3"/>
+      <c r="BI2" s="3"/>
+      <c r="BJ2" s="3"/>
+      <c r="BK2" s="3"/>
+      <c r="BL2" s="3"/>
+    </row>
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="11"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="13"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
+      <c r="BB3" s="2"/>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="3"/>
+      <c r="BE3" s="3"/>
+      <c r="BF3" s="3"/>
+      <c r="BG3" s="3"/>
+      <c r="BH3" s="3"/>
+      <c r="BI3" s="3"/>
+      <c r="BJ3" s="3"/>
+      <c r="BK3" s="3"/>
+      <c r="BL3" s="3"/>
+    </row>
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="11"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="13"/>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1"/>
+      <c r="BA4" s="1"/>
+      <c r="BB4" s="2"/>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="3"/>
+      <c r="BE4" s="3"/>
+      <c r="BF4" s="3"/>
+      <c r="BG4" s="3"/>
+      <c r="BH4" s="3"/>
+      <c r="BI4" s="3"/>
+      <c r="BJ4" s="3"/>
+      <c r="BK4" s="3"/>
+      <c r="BL4" s="3"/>
+    </row>
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="11"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="1"/>
+      <c r="AX5" s="13"/>
+      <c r="AY5" s="1"/>
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="1"/>
+      <c r="BB5" s="2"/>
+      <c r="BC5" s="3"/>
+      <c r="BD5" s="3"/>
+      <c r="BE5" s="3"/>
+      <c r="BF5" s="3"/>
+      <c r="BG5" s="3"/>
+      <c r="BH5" s="3"/>
+      <c r="BI5" s="3"/>
+      <c r="BJ5" s="3"/>
+      <c r="BK5" s="3"/>
+      <c r="BL5" s="3"/>
+    </row>
+    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S6" s="1"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU6" s="1"/>
+      <c r="AV6" s="1"/>
+      <c r="AW6" s="1"/>
+      <c r="AX6" s="13"/>
+      <c r="AY6" s="1"/>
+      <c r="AZ6" s="1"/>
+      <c r="BA6" s="1"/>
+      <c r="BB6" s="2"/>
+      <c r="BC6" s="3"/>
+      <c r="BD6" s="3"/>
+      <c r="BE6" s="3"/>
+      <c r="BF6" s="3"/>
+      <c r="BG6" s="3"/>
+      <c r="BH6" s="3"/>
+      <c r="BI6" s="3"/>
+      <c r="BJ6" s="3"/>
+      <c r="BK6" s="3"/>
+      <c r="BL6" s="3"/>
+    </row>
+    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" s="1"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="11"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="1"/>
+      <c r="AT7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV7" s="1"/>
+      <c r="AW7" s="1"/>
+      <c r="AX7" s="13"/>
+      <c r="AY7" s="1"/>
+      <c r="AZ7" s="1"/>
+      <c r="BA7" s="1"/>
+      <c r="BB7" s="2"/>
+      <c r="BC7" s="3"/>
+      <c r="BD7" s="3"/>
+      <c r="BE7" s="3"/>
+      <c r="BF7" s="3"/>
+      <c r="BG7" s="3"/>
+      <c r="BH7" s="3"/>
+      <c r="BI7" s="3"/>
+      <c r="BJ7" s="3"/>
+      <c r="BK7" s="3"/>
+      <c r="BL7" s="3"/>
+    </row>
+    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T8" s="7"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="11"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="1"/>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW8" s="1"/>
+      <c r="AX8" s="13"/>
+      <c r="AY8" s="1"/>
+      <c r="AZ8" s="1"/>
+      <c r="BA8" s="1"/>
+      <c r="BB8" s="2"/>
+      <c r="BC8" s="3"/>
+      <c r="BD8" s="3"/>
+      <c r="BE8" s="3"/>
+      <c r="BF8" s="3"/>
+      <c r="BG8" s="3"/>
+      <c r="BH8" s="3"/>
+      <c r="BI8" s="3"/>
+      <c r="BJ8" s="3"/>
+      <c r="BK8" s="3"/>
+      <c r="BL8" s="3"/>
+    </row>
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T9" s="7"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="11"/>
+      <c r="AO9" s="1"/>
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1"/>
+      <c r="AS9" s="1"/>
+      <c r="AT9" s="1"/>
+      <c r="AU9" s="1"/>
+      <c r="AV9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX9" s="13"/>
+      <c r="AY9" s="1"/>
+      <c r="AZ9" s="1"/>
+      <c r="BA9" s="1"/>
+      <c r="BB9" s="2"/>
+      <c r="BC9" s="3"/>
+      <c r="BD9" s="3"/>
+      <c r="BE9" s="3"/>
+      <c r="BF9" s="3"/>
+      <c r="BG9" s="3"/>
+      <c r="BH9" s="3"/>
+      <c r="BI9" s="3"/>
+      <c r="BJ9" s="3"/>
+      <c r="BK9" s="3"/>
+      <c r="BL9" s="3"/>
+    </row>
+    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="11"/>
+      <c r="AO10" s="1"/>
+      <c r="AP10" s="1"/>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1"/>
+      <c r="AS10" s="1"/>
+      <c r="AT10" s="1"/>
+      <c r="AU10" s="1"/>
+      <c r="AV10" s="1"/>
+      <c r="AW10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY10" s="1"/>
+      <c r="AZ10" s="1"/>
+      <c r="BA10" s="1"/>
+      <c r="BB10" s="2"/>
+      <c r="BC10" s="3"/>
+      <c r="BD10" s="3"/>
+      <c r="BE10" s="3"/>
+      <c r="BF10" s="3"/>
+      <c r="BG10" s="3"/>
+      <c r="BH10" s="3"/>
+      <c r="BI10" s="3"/>
+      <c r="BJ10" s="3"/>
+      <c r="BK10" s="3"/>
+      <c r="BL10" s="3"/>
+    </row>
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="T11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="11"/>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="1"/>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="1"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1"/>
+      <c r="AX11" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ11" s="1"/>
+      <c r="BA11" s="1"/>
+      <c r="BB11" s="2"/>
+      <c r="BC11" s="3"/>
+      <c r="BD11" s="3"/>
+      <c r="BE11" s="3"/>
+      <c r="BF11" s="3"/>
+      <c r="BG11" s="3"/>
+      <c r="BH11" s="3"/>
+      <c r="BI11" s="3"/>
+      <c r="BJ11" s="3"/>
+      <c r="BK11" s="3"/>
+      <c r="BL11" s="3"/>
+    </row>
+    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="11"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="1"/>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="1"/>
+      <c r="AX12" s="13"/>
+      <c r="AY12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA12" s="1"/>
+      <c r="BB12" s="2"/>
+      <c r="BC12" s="3"/>
+      <c r="BD12" s="3"/>
+      <c r="BE12" s="3"/>
+      <c r="BF12" s="3"/>
+      <c r="BG12" s="3"/>
+      <c r="BH12" s="3"/>
+      <c r="BI12" s="3"/>
+      <c r="BJ12" s="3"/>
+      <c r="BK12" s="3"/>
+      <c r="BL12" s="3"/>
+    </row>
+    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="11"/>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1"/>
+      <c r="AS13" s="1"/>
+      <c r="AT13" s="1"/>
+      <c r="AU13" s="1"/>
+      <c r="AV13" s="1"/>
+      <c r="AW13" s="1"/>
+      <c r="AX13" s="13"/>
+      <c r="AY13" s="1"/>
+      <c r="AZ13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="3"/>
+      <c r="BD13" s="3"/>
+      <c r="BE13" s="3"/>
+      <c r="BF13" s="3"/>
+      <c r="BG13" s="3"/>
+      <c r="BH13" s="3"/>
+      <c r="BI13" s="3"/>
+      <c r="BJ13" s="3"/>
+      <c r="BK13" s="3"/>
+      <c r="BL13" s="3"/>
+    </row>
+    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="11"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
+      <c r="AS14" s="1"/>
+      <c r="AT14" s="1"/>
+      <c r="AU14" s="1"/>
+      <c r="AV14" s="1"/>
+      <c r="AW14" s="1"/>
+      <c r="AX14" s="13"/>
+      <c r="AY14" s="1"/>
+      <c r="AZ14" s="1"/>
+      <c r="BA14" s="1"/>
+      <c r="BB14" s="2"/>
+      <c r="BC14" s="3"/>
+      <c r="BD14" s="3"/>
+      <c r="BE14" s="3"/>
+      <c r="BF14" s="3"/>
+      <c r="BG14" s="3"/>
+      <c r="BH14" s="3"/>
+      <c r="BI14" s="3"/>
+      <c r="BJ14" s="3"/>
+      <c r="BK14" s="3"/>
+      <c r="BL14" s="3"/>
+    </row>
+    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="11"/>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1"/>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="1"/>
+      <c r="AU15" s="1"/>
+      <c r="AV15" s="1"/>
+      <c r="AW15" s="1"/>
+      <c r="AX15" s="13"/>
+      <c r="AY15" s="1"/>
+      <c r="AZ15" s="1"/>
+      <c r="BA15" s="1"/>
+      <c r="BB15" s="2"/>
+      <c r="BC15" s="3"/>
+      <c r="BD15" s="3"/>
+      <c r="BE15" s="3"/>
+      <c r="BF15" s="3"/>
+      <c r="BG15" s="3"/>
+      <c r="BH15" s="3"/>
+      <c r="BI15" s="3"/>
+      <c r="BJ15" s="3"/>
+      <c r="BK15" s="3"/>
+      <c r="BL15" s="3"/>
+    </row>
+    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S16" s="1"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="11"/>
+      <c r="AO16" s="1"/>
+      <c r="AP16" s="1"/>
+      <c r="AQ16" s="1"/>
+      <c r="AR16" s="1"/>
+      <c r="AS16" s="1"/>
+      <c r="AT16" s="1"/>
+      <c r="AU16" s="1"/>
+      <c r="AV16" s="1"/>
+      <c r="AW16" s="1"/>
+      <c r="AX16" s="13"/>
+      <c r="AY16" s="1"/>
+      <c r="AZ16" s="1"/>
+      <c r="BA16" s="1"/>
+      <c r="BB16" s="2"/>
+      <c r="BC16" s="3"/>
+      <c r="BD16" s="3"/>
+      <c r="BE16" s="3"/>
+      <c r="BF16" s="3"/>
+      <c r="BG16" s="3"/>
+      <c r="BH16" s="3"/>
+      <c r="BI16" s="3"/>
+      <c r="BJ16" s="3"/>
+      <c r="BK16" s="3"/>
+      <c r="BL16" s="3"/>
+    </row>
+    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" s="1"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="11"/>
+      <c r="AO17" s="1"/>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="1"/>
+      <c r="AS17" s="1"/>
+      <c r="AT17" s="1"/>
+      <c r="AU17" s="1"/>
+      <c r="AV17" s="1"/>
+      <c r="AW17" s="1"/>
+      <c r="AX17" s="13"/>
+      <c r="AY17" s="1"/>
+      <c r="AZ17" s="1"/>
+      <c r="BA17" s="1"/>
+      <c r="BB17" s="2"/>
+      <c r="BC17" s="3"/>
+      <c r="BD17" s="3"/>
+      <c r="BE17" s="3"/>
+      <c r="BF17" s="3"/>
+      <c r="BG17" s="3"/>
+      <c r="BH17" s="3"/>
+      <c r="BI17" s="3"/>
+      <c r="BJ17" s="3"/>
+      <c r="BK17" s="3"/>
+      <c r="BL17" s="3"/>
+    </row>
+    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="1"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="11"/>
+      <c r="AO18" s="1"/>
+      <c r="AP18" s="1"/>
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="1"/>
+      <c r="AS18" s="1"/>
+      <c r="AT18" s="1"/>
+      <c r="AU18" s="1"/>
+      <c r="AV18" s="1"/>
+      <c r="AW18" s="1"/>
+      <c r="AX18" s="13"/>
+      <c r="AY18" s="1"/>
+      <c r="AZ18" s="1"/>
+      <c r="BA18" s="1"/>
+      <c r="BB18" s="2"/>
+      <c r="BC18" s="3"/>
+      <c r="BD18" s="3"/>
+      <c r="BE18" s="3"/>
+      <c r="BF18" s="3"/>
+      <c r="BG18" s="3"/>
+      <c r="BH18" s="3"/>
+      <c r="BI18" s="3"/>
+      <c r="BJ18" s="3"/>
+      <c r="BK18" s="3"/>
+      <c r="BL18" s="3"/>
+    </row>
+    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="9"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="11"/>
+      <c r="AO19" s="1"/>
+      <c r="AP19" s="1"/>
+      <c r="AQ19" s="1"/>
+      <c r="AR19" s="1"/>
+      <c r="AS19" s="1"/>
+      <c r="BC19" s="3"/>
+      <c r="BD19" s="3"/>
+      <c r="BE19" s="3"/>
+      <c r="BF19" s="3"/>
+      <c r="BG19" s="3"/>
+      <c r="BH19" s="3"/>
+      <c r="BI19" s="3"/>
+      <c r="BJ19" s="3"/>
+      <c r="BK19" s="3"/>
+      <c r="BL19" s="3"/>
+    </row>
+    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T20" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="Y20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="1"/>
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="11"/>
+      <c r="AO20" s="1"/>
+      <c r="AP20" s="1"/>
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="1"/>
+      <c r="AS20" s="1"/>
+      <c r="AT20" s="1"/>
+      <c r="AU20" s="1"/>
+      <c r="AV20" s="1"/>
+      <c r="AW20" s="1"/>
+      <c r="AX20" s="13"/>
+      <c r="AY20" s="1"/>
+      <c r="AZ20" s="1"/>
+      <c r="BA20" s="1"/>
+      <c r="BB20" s="2"/>
+      <c r="BC20" s="3"/>
+      <c r="BD20" s="3"/>
+      <c r="BE20" s="3"/>
+      <c r="BF20" s="3"/>
+      <c r="BG20" s="3"/>
+      <c r="BH20" s="3"/>
+      <c r="BI20" s="3"/>
+      <c r="BJ20" s="3"/>
+      <c r="BK20" s="3"/>
+      <c r="BL20" s="3"/>
+    </row>
+    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="9"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="1"/>
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="11"/>
+      <c r="AO21" s="1"/>
+      <c r="AP21" s="1"/>
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="1"/>
+      <c r="AS21" s="1"/>
+      <c r="AT21" s="1"/>
+      <c r="AU21" s="1"/>
+      <c r="AV21" s="1"/>
+      <c r="AW21" s="1"/>
+      <c r="AX21" s="13"/>
+      <c r="AY21" s="1"/>
+      <c r="AZ21" s="1"/>
+      <c r="BA21" s="1"/>
+      <c r="BB21" s="2"/>
+      <c r="BC21" s="3"/>
+      <c r="BD21" s="3"/>
+      <c r="BE21" s="3"/>
+      <c r="BF21" s="3"/>
+      <c r="BG21" s="3"/>
+      <c r="BH21" s="3"/>
+      <c r="BI21" s="3"/>
+      <c r="BJ21" s="3"/>
+      <c r="BK21" s="3"/>
+      <c r="BL21" s="3"/>
+    </row>
+    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ22" s="1"/>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1"/>
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="11"/>
+      <c r="AO22" s="1"/>
+      <c r="AP22" s="1"/>
+      <c r="AQ22" s="1"/>
+      <c r="AR22" s="1"/>
+      <c r="AS22" s="1"/>
+      <c r="AT22" s="1"/>
+      <c r="AU22" s="1"/>
+      <c r="AV22" s="1"/>
+      <c r="AW22" s="1"/>
+      <c r="AX22" s="13"/>
+      <c r="AY22" s="1"/>
+      <c r="AZ22" s="1"/>
+      <c r="BA22" s="1"/>
+      <c r="BB22" s="2"/>
+      <c r="BC22" s="3"/>
+      <c r="BD22" s="3"/>
+      <c r="BE22" s="3"/>
+      <c r="BF22" s="3"/>
+      <c r="BG22" s="3"/>
+      <c r="BH22" s="3"/>
+      <c r="BI22" s="3"/>
+      <c r="BJ22" s="3"/>
+      <c r="BK22" s="3"/>
+      <c r="BL22" s="3"/>
+    </row>
+    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ23" s="1"/>
+      <c r="AK23" s="1"/>
+      <c r="AL23" s="1"/>
+      <c r="AM23" s="1"/>
+      <c r="AN23" s="11"/>
+      <c r="AO23" s="1"/>
+      <c r="AP23" s="1"/>
+      <c r="AQ23" s="1"/>
+      <c r="AR23" s="1"/>
+      <c r="AS23" s="1"/>
+      <c r="AT23" s="1"/>
+      <c r="AU23" s="1"/>
+      <c r="AV23" s="1"/>
+      <c r="AW23" s="1"/>
+      <c r="AX23" s="13"/>
+      <c r="AY23" s="1"/>
+      <c r="AZ23" s="1"/>
+      <c r="BA23" s="1"/>
+      <c r="BB23" s="2"/>
+      <c r="BC23" s="3"/>
+      <c r="BD23" s="3"/>
+      <c r="BE23" s="3"/>
+      <c r="BF23" s="3"/>
+      <c r="BG23" s="3"/>
+      <c r="BH23" s="3"/>
+      <c r="BI23" s="3"/>
+      <c r="BJ23" s="3"/>
+      <c r="BK23" s="3"/>
+      <c r="BL23" s="3"/>
+    </row>
+    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="9"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ24" s="1"/>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="1"/>
+      <c r="AM24" s="1"/>
+      <c r="AN24" s="11"/>
+      <c r="AO24" s="1"/>
+      <c r="AP24" s="1"/>
+      <c r="AQ24" s="1"/>
+      <c r="AR24" s="1"/>
+      <c r="AS24" s="1"/>
+      <c r="AT24" s="1"/>
+      <c r="AU24" s="1"/>
+      <c r="AV24" s="1"/>
+      <c r="AW24" s="1"/>
+      <c r="AX24" s="13"/>
+      <c r="AY24" s="1"/>
+      <c r="AZ24" s="1"/>
+      <c r="BA24" s="1"/>
+      <c r="BB24" s="2"/>
+      <c r="BC24" s="3"/>
+      <c r="BD24" s="3"/>
+      <c r="BE24" s="3"/>
+      <c r="BF24" s="3"/>
+      <c r="BG24" s="3"/>
+      <c r="BH24" s="3"/>
+      <c r="BI24" s="3"/>
+      <c r="BJ24" s="3"/>
+      <c r="BK24" s="3"/>
+      <c r="BL24" s="3"/>
+    </row>
+    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="9"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ25" s="1"/>
+      <c r="AK25" s="1"/>
+      <c r="AL25" s="1"/>
+      <c r="AM25" s="1"/>
+      <c r="AN25" s="11"/>
+      <c r="AO25" s="1"/>
+      <c r="AP25" s="1"/>
+      <c r="AQ25" s="1"/>
+      <c r="AR25" s="1"/>
+      <c r="AS25" s="1"/>
+      <c r="AT25" s="1"/>
+      <c r="AU25" s="1"/>
+      <c r="AV25" s="1"/>
+      <c r="AW25" s="1"/>
+      <c r="AX25" s="13"/>
+      <c r="AY25" s="1"/>
+      <c r="AZ25" s="1"/>
+      <c r="BA25" s="1"/>
+      <c r="BB25" s="2"/>
+      <c r="BC25" s="3"/>
+      <c r="BD25" s="3"/>
+      <c r="BE25" s="3"/>
+      <c r="BF25" s="3"/>
+      <c r="BG25" s="3"/>
+      <c r="BH25" s="3"/>
+      <c r="BI25" s="3"/>
+      <c r="BJ25" s="3"/>
+      <c r="BK25" s="3"/>
+      <c r="BL25" s="3"/>
+    </row>
+    <row r="26" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1"/>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="11"/>
+      <c r="AO26" s="1"/>
+      <c r="AP26" s="1"/>
+      <c r="AQ26" s="1"/>
+      <c r="AR26" s="1"/>
+      <c r="AS26" s="1"/>
+      <c r="AT26" s="1"/>
+      <c r="AU26" s="1"/>
+      <c r="AV26" s="1"/>
+      <c r="AW26" s="1"/>
+      <c r="AX26" s="13"/>
+      <c r="AY26" s="1"/>
+      <c r="AZ26" s="1"/>
+      <c r="BA26" s="1"/>
+      <c r="BB26" s="2"/>
+      <c r="BC26" s="3"/>
+      <c r="BD26" s="3"/>
+      <c r="BE26" s="3"/>
+      <c r="BF26" s="3"/>
+      <c r="BG26" s="3"/>
+      <c r="BH26" s="3"/>
+      <c r="BI26" s="3"/>
+      <c r="BJ26" s="3"/>
+      <c r="BK26" s="3"/>
+      <c r="BL26" s="3"/>
+    </row>
+    <row r="27" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="9"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="1"/>
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="11"/>
+      <c r="AO27" s="1"/>
+      <c r="AP27" s="1"/>
+      <c r="AQ27" s="1"/>
+      <c r="AR27" s="1"/>
+      <c r="AS27" s="1"/>
+      <c r="AT27" s="1"/>
+      <c r="AU27" s="1"/>
+      <c r="AV27" s="1"/>
+      <c r="AW27" s="1"/>
+      <c r="AY27" s="1"/>
+      <c r="AZ27" s="1"/>
+      <c r="BA27" s="1"/>
+      <c r="BB27" s="2"/>
+      <c r="BC27" s="3"/>
+      <c r="BD27" s="3"/>
+      <c r="BE27" s="3"/>
+      <c r="BF27" s="3"/>
+      <c r="BG27" s="3"/>
+      <c r="BH27" s="3"/>
+      <c r="BI27" s="3"/>
+      <c r="BJ27" s="3"/>
+      <c r="BK27" s="3"/>
+      <c r="BL27" s="3"/>
+    </row>
+    <row r="28" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="9"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="1"/>
+      <c r="AK28" s="1"/>
+      <c r="AL28" s="1"/>
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="11"/>
+      <c r="AO28" s="1"/>
+      <c r="AP28" s="1"/>
+      <c r="AQ28" s="1"/>
+      <c r="AR28" s="1"/>
+      <c r="AS28" s="1"/>
+      <c r="AT28" s="1"/>
+      <c r="AU28" s="1"/>
+      <c r="AV28" s="1"/>
+      <c r="AW28" s="1"/>
+      <c r="AX28" s="13"/>
+      <c r="AY28" s="1"/>
+      <c r="AZ28" s="1"/>
+      <c r="BA28" s="1"/>
+      <c r="BB28" s="2"/>
+      <c r="BC28" s="3"/>
+      <c r="BD28" s="3"/>
+      <c r="BE28" s="3"/>
+      <c r="BF28" s="3"/>
+      <c r="BG28" s="3"/>
+      <c r="BH28" s="3"/>
+      <c r="BI28" s="3"/>
+      <c r="BJ28" s="3"/>
+      <c r="BK28" s="3"/>
+      <c r="BL28" s="3"/>
+    </row>
+    <row r="29" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="9"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="11"/>
+      <c r="AO29" s="1"/>
+      <c r="AP29" s="1"/>
+      <c r="AQ29" s="1"/>
+      <c r="AR29" s="1"/>
+      <c r="AS29" s="1"/>
+      <c r="AT29" s="1"/>
+      <c r="AU29" s="1"/>
+      <c r="AV29" s="1"/>
+      <c r="AW29" s="1"/>
+      <c r="AX29" s="13"/>
+      <c r="AY29" s="1"/>
+      <c r="AZ29" s="1"/>
+      <c r="BA29" s="1"/>
+      <c r="BB29" s="2"/>
+      <c r="BC29" s="3"/>
+      <c r="BD29" s="3"/>
+      <c r="BE29" s="3"/>
+      <c r="BF29" s="3"/>
+      <c r="BG29" s="3"/>
+      <c r="BH29" s="3"/>
+      <c r="BI29" s="3"/>
+      <c r="BJ29" s="3"/>
+      <c r="BK29" s="3"/>
+      <c r="BL29" s="3"/>
+    </row>
+    <row r="30" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="15"/>
+      <c r="Z30" s="15"/>
+      <c r="AA30" s="15"/>
+      <c r="AB30" s="15"/>
+      <c r="AC30" s="15"/>
+      <c r="AD30" s="18"/>
+      <c r="AE30" s="15"/>
+      <c r="AF30" s="15"/>
+      <c r="AG30" s="15"/>
+      <c r="AH30" s="15"/>
+      <c r="AI30" s="15"/>
+      <c r="AJ30" s="15"/>
+      <c r="AK30" s="15"/>
+      <c r="AL30" s="15"/>
+      <c r="AM30" s="15"/>
+      <c r="AN30" s="22"/>
+      <c r="AO30" s="15"/>
+      <c r="AP30" s="15"/>
+      <c r="AQ30" s="15"/>
+      <c r="AR30" s="15"/>
+      <c r="AS30" s="15"/>
+      <c r="AT30" s="15"/>
+      <c r="AU30" s="15"/>
+      <c r="AV30" s="15"/>
+      <c r="AW30" s="15"/>
+      <c r="AX30" s="23"/>
+      <c r="AY30" s="15"/>
+      <c r="AZ30" s="15"/>
+      <c r="BA30" s="15"/>
+      <c r="BB30" s="24"/>
+      <c r="BC30" s="3"/>
+      <c r="BD30" s="3"/>
+      <c r="BE30" s="3"/>
+      <c r="BF30" s="3"/>
+      <c r="BG30" s="3"/>
+      <c r="BH30" s="3"/>
+      <c r="BI30" s="3"/>
+      <c r="BJ30" s="3"/>
+      <c r="BK30" s="3"/>
+      <c r="BL30" s="3"/>
+    </row>
+    <row r="31" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="21"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="3"/>
+      <c r="AL31" s="3"/>
+      <c r="AM31" s="3"/>
+      <c r="AN31" s="25"/>
+      <c r="AO31" s="3"/>
+      <c r="AP31" s="3"/>
+      <c r="AQ31" s="3"/>
+      <c r="AR31" s="3"/>
+      <c r="AS31" s="3"/>
+      <c r="AT31" s="3"/>
+      <c r="AU31" s="3"/>
+      <c r="AV31" s="3"/>
+      <c r="AW31" s="3"/>
+      <c r="AX31" s="26"/>
+      <c r="AY31" s="3"/>
+      <c r="AZ31" s="3"/>
+      <c r="BA31" s="3"/>
+      <c r="BB31" s="3"/>
+      <c r="BC31" s="3"/>
+      <c r="BD31" s="3"/>
+      <c r="BE31" s="3"/>
+      <c r="BF31" s="3"/>
+      <c r="BG31" s="3"/>
+      <c r="BH31" s="3"/>
+      <c r="BI31" s="3"/>
+      <c r="BJ31" s="3"/>
+      <c r="BK31" s="3"/>
+      <c r="BL31" s="3"/>
+    </row>
+    <row r="32" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="21"/>
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="3"/>
+      <c r="AG32" s="3"/>
+      <c r="AH32" s="3"/>
+      <c r="AI32" s="3"/>
+      <c r="AJ32" s="3"/>
+      <c r="AK32" s="3"/>
+      <c r="AL32" s="3"/>
+      <c r="AM32" s="3"/>
+      <c r="AN32" s="25"/>
+      <c r="AO32" s="3"/>
+      <c r="AP32" s="3"/>
+      <c r="AQ32" s="3"/>
+      <c r="AR32" s="3"/>
+      <c r="AS32" s="3"/>
+      <c r="AT32" s="3"/>
+      <c r="AU32" s="3"/>
+      <c r="AV32" s="3"/>
+      <c r="AW32" s="3"/>
+      <c r="AX32" s="26"/>
+      <c r="AY32" s="3"/>
+      <c r="AZ32" s="3"/>
+      <c r="BA32" s="3"/>
+      <c r="BB32" s="3"/>
+      <c r="BC32" s="3"/>
+      <c r="BD32" s="3"/>
+      <c r="BE32" s="3"/>
+      <c r="BF32" s="3"/>
+      <c r="BG32" s="3"/>
+      <c r="BH32" s="3"/>
+      <c r="BI32" s="3"/>
+      <c r="BJ32" s="3"/>
+      <c r="BK32" s="3"/>
+      <c r="BL32" s="3"/>
+    </row>
+    <row r="33" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="21"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3"/>
+      <c r="AK33" s="3"/>
+      <c r="AL33" s="3"/>
+      <c r="AM33" s="3"/>
+      <c r="AN33" s="25"/>
+      <c r="AO33" s="3"/>
+      <c r="AP33" s="3"/>
+      <c r="AQ33" s="3"/>
+      <c r="AR33" s="3"/>
+      <c r="AS33" s="3"/>
+      <c r="AT33" s="3"/>
+      <c r="AU33" s="3"/>
+      <c r="AV33" s="3"/>
+      <c r="AW33" s="3"/>
+      <c r="AX33" s="26"/>
+      <c r="AY33" s="3"/>
+      <c r="AZ33" s="3"/>
+      <c r="BA33" s="3"/>
+      <c r="BB33" s="3"/>
+      <c r="BC33" s="3"/>
+      <c r="BD33" s="3"/>
+      <c r="BE33" s="3"/>
+      <c r="BF33" s="3"/>
+      <c r="BG33" s="3"/>
+      <c r="BH33" s="3"/>
+      <c r="BI33" s="3"/>
+      <c r="BJ33" s="3"/>
+      <c r="BK33" s="3"/>
+      <c r="BL33" s="3"/>
+    </row>
+    <row r="34" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="21"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3"/>
+      <c r="AH34" s="3"/>
+      <c r="AI34" s="3"/>
+      <c r="AJ34" s="3"/>
+      <c r="AK34" s="3"/>
+      <c r="AL34" s="3"/>
+      <c r="AM34" s="3"/>
+      <c r="AN34" s="25"/>
+      <c r="AO34" s="3"/>
+      <c r="AP34" s="3"/>
+      <c r="AQ34" s="3"/>
+      <c r="AR34" s="3"/>
+      <c r="AS34" s="3"/>
+      <c r="AT34" s="3"/>
+      <c r="AU34" s="3"/>
+      <c r="AV34" s="3"/>
+      <c r="AW34" s="3"/>
+      <c r="AX34" s="26"/>
+      <c r="AY34" s="3"/>
+      <c r="AZ34" s="3"/>
+      <c r="BA34" s="3"/>
+      <c r="BB34" s="3"/>
+      <c r="BC34" s="3"/>
+      <c r="BD34" s="3"/>
+      <c r="BE34" s="3"/>
+      <c r="BF34" s="3"/>
+      <c r="BG34" s="3"/>
+      <c r="BH34" s="3"/>
+      <c r="BI34" s="3"/>
+      <c r="BJ34" s="3"/>
+      <c r="BK34" s="3"/>
+      <c r="BL34" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/GUI_20212202_AYZ8R9/Maps/map.xlsx
+++ b/GUI_20212202_AYZ8R9/Maps/map.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\game\GUI_20212202_AYZ8R9\Maps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\game3\GUI_20212202_AYZ8R9\Maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490DD743-0C61-4062-A791-0F25EC80B570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409971BD-C55B-411D-8B15-D553E955361D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Munka1" sheetId="1" r:id="rId1"/>
+    <sheet name="Munka1" sheetId="4" r:id="rId1"/>
     <sheet name="Munka2" sheetId="2" r:id="rId2"/>
     <sheet name="Munka3" sheetId="3" r:id="rId3"/>
+    <sheet name="Munka4" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="16">
   <si>
     <t>B</t>
   </si>
@@ -67,6 +68,24 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>PRE</t>
+  </si>
+  <si>
+    <t>NEXT</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>CHEST</t>
+  </si>
+  <si>
+    <t>PLAYER</t>
+  </si>
+  <si>
+    <t>HOME</t>
   </si>
 </sst>
 </file>
@@ -503,11 +522,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BL39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382D7427-FBDE-4BF3-ADAB-21A4C37623DD}">
+  <dimension ref="A1:BL34"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AS37" sqref="AS37"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,10 +1084,6 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
@@ -1131,10 +1146,6 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
@@ -1197,10 +1208,6 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
@@ -1263,10 +1270,6 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
@@ -1329,10 +1332,6 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
@@ -1340,42 +1339,18 @@
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
-      <c r="AC13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD13" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN13" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="11"/>
       <c r="AO13" s="1"/>
       <c r="AP13" s="1"/>
       <c r="AQ13" s="1"/>
@@ -1402,7 +1377,6 @@
       <c r="BL13" s="3"/>
     </row>
     <row r="14" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1419,23 +1393,26 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="1"/>
+      <c r="R14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
-      <c r="AC14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD14" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="9"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
@@ -1445,12 +1422,8 @@
       <c r="AK14" s="1"/>
       <c r="AL14" s="1"/>
       <c r="AM14" s="1"/>
-      <c r="AN14" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO14" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="AN14" s="11"/>
+      <c r="AO14" s="1"/>
       <c r="AP14" s="1"/>
       <c r="AQ14" s="1"/>
       <c r="AR14" s="1"/>
@@ -1463,7 +1436,6 @@
       <c r="AY14" s="1"/>
       <c r="AZ14" s="1"/>
       <c r="BA14" s="1"/>
-      <c r="BB14" s="2"/>
       <c r="BC14" s="3"/>
       <c r="BD14" s="3"/>
       <c r="BE14" s="3"/>
@@ -1476,101 +1448,27 @@
       <c r="BL14" s="3"/>
     </row>
     <row r="15" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD15" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
-      <c r="AH15" s="1"/>
-      <c r="AI15" s="1"/>
-      <c r="AJ15" s="1"/>
-      <c r="AK15" s="1"/>
-      <c r="AL15" s="1"/>
-      <c r="AM15" s="1"/>
-      <c r="AN15" s="11"/>
-      <c r="AO15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AP15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AQ15" s="1"/>
-      <c r="AR15" s="1"/>
-      <c r="AS15" s="1"/>
-      <c r="AT15" s="1"/>
-      <c r="AU15" s="1"/>
-      <c r="AV15" s="1"/>
-      <c r="AW15" s="1"/>
-      <c r="AX15" s="13"/>
-      <c r="AY15" s="1"/>
-      <c r="AZ15" s="1"/>
-      <c r="BA15" s="1"/>
-      <c r="BB15" s="2"/>
-      <c r="BC15" s="3"/>
-      <c r="BD15" s="3"/>
-      <c r="BE15" s="3"/>
-      <c r="BF15" s="3"/>
-      <c r="BG15" s="3"/>
-      <c r="BH15" s="3"/>
-      <c r="BI15" s="3"/>
-      <c r="BJ15" s="3"/>
-      <c r="BK15" s="3"/>
-      <c r="BL15" s="3"/>
+      <c r="R15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="5"/>
@@ -1581,10 +1479,18 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="1"/>
+      <c r="R16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
@@ -1592,12 +1498,8 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
-      <c r="AC16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD16" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="9"/>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
@@ -1609,12 +1511,8 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="11"/>
       <c r="AO16" s="1"/>
-      <c r="AP16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ16" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="AP16" s="1"/>
+      <c r="AQ16" s="1"/>
       <c r="AR16" s="1"/>
       <c r="AS16" s="1"/>
       <c r="AT16" s="1"/>
@@ -1638,16 +1536,13 @@
       <c r="BL16" s="3"/>
     </row>
     <row r="17" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="5"/>
       <c r="K17" s="1"/>
@@ -1657,23 +1552,26 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="1"/>
+      <c r="R17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
-      <c r="AC17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD17" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="9"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
@@ -1686,12 +1584,8 @@
       <c r="AN17" s="11"/>
       <c r="AO17" s="1"/>
       <c r="AP17" s="1"/>
-      <c r="AQ17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AR17" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="1"/>
       <c r="AS17" s="1"/>
       <c r="AT17" s="1"/>
       <c r="AU17" s="1"/>
@@ -1714,103 +1608,23 @@
       <c r="BL17" s="3"/>
     </row>
     <row r="18" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="R18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S18" s="1"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD18" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE18" s="1"/>
-      <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
-      <c r="AH18" s="1"/>
-      <c r="AI18" s="1"/>
-      <c r="AJ18" s="1"/>
-      <c r="AK18" s="1"/>
-      <c r="AL18" s="1"/>
-      <c r="AM18" s="1"/>
-      <c r="AN18" s="11"/>
-      <c r="AO18" s="1"/>
-      <c r="AP18" s="1"/>
-      <c r="AQ18" s="1"/>
-      <c r="AR18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT18" s="1"/>
-      <c r="AU18" s="1"/>
-      <c r="AV18" s="1"/>
-      <c r="AW18" s="1"/>
-      <c r="AX18" s="13"/>
-      <c r="AY18" s="1"/>
-      <c r="AZ18" s="1"/>
-      <c r="BA18" s="1"/>
-      <c r="BB18" s="2"/>
-      <c r="BC18" s="3"/>
-      <c r="BD18" s="3"/>
-      <c r="BE18" s="3"/>
-      <c r="BF18" s="3"/>
-      <c r="BG18" s="3"/>
-      <c r="BH18" s="3"/>
-      <c r="BI18" s="3"/>
-      <c r="BJ18" s="3"/>
-      <c r="BK18" s="3"/>
-      <c r="BL18" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="19" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1826,28 +1640,30 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="Q19" s="1"/>
       <c r="R19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S19" s="1"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
+      <c r="X19" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
-      <c r="AC19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD19" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="9"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
@@ -1862,11 +1678,9 @@
       <c r="AP19" s="1"/>
       <c r="AQ19" s="1"/>
       <c r="AR19" s="1"/>
-      <c r="AS19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT19" t="s">
-        <v>2</v>
+      <c r="AS19" s="1"/>
+      <c r="BB19" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="BC19" s="3"/>
       <c r="BD19" s="3"/>
@@ -1880,61 +1694,143 @@
       <c r="BL19" s="3"/>
     </row>
     <row r="20" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="Q20" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S20" s="1"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="AB20" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD20" s="9"/>
-      <c r="AE20" s="1"/>
-      <c r="AF20" s="1"/>
-      <c r="AG20" s="1"/>
-      <c r="AH20" s="1"/>
-      <c r="AI20" s="1"/>
-      <c r="AJ20" s="1"/>
-      <c r="AK20" s="1"/>
-      <c r="AL20" s="1"/>
-      <c r="AM20" s="1"/>
-      <c r="AN20" s="11"/>
-      <c r="AO20" s="1"/>
-      <c r="AP20" s="1"/>
-      <c r="AQ20" s="1"/>
-      <c r="AR20" s="1"/>
-      <c r="AS20" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="AT20" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU20" s="1" t="s">
         <v>0</v>
@@ -1945,7 +1841,7 @@
       <c r="AW20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AX20" s="13" t="s">
+      <c r="AX20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AY20" s="1" t="s">
@@ -1957,7 +1853,7 @@
       <c r="BA20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BB20" s="2" t="s">
+      <c r="BB20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BC20" s="3"/>
@@ -1988,12 +1884,8 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="7"/>
       <c r="U21" s="1"/>
@@ -2002,12 +1894,8 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
-      <c r="AA21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB21" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="9"/>
       <c r="AE21" s="1"/>
@@ -2062,12 +1950,8 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="7"/>
       <c r="U22" s="1"/>
@@ -2075,12 +1959,8 @@
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
-      <c r="Z22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA22" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
       <c r="AD22" s="9"/>
@@ -2136,24 +2016,16 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
-      <c r="Q23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="7"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
-      <c r="Y23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z23" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
@@ -2210,33 +2082,15 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
-      <c r="Q24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T24" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="U24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
@@ -2936,19 +2790,8 @@
       <c r="BK34" s="3"/>
       <c r="BL34" s="3"/>
     </row>
-    <row r="36" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="AT36" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="AU39" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2956,8 +2799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32EA023-0038-482A-B633-0391C0CB8525}">
   <dimension ref="A1:BL34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AW23" sqref="AW23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4154,7 +3997,7 @@
         <v>9</v>
       </c>
       <c r="BB15" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BC15" s="3"/>
       <c r="BD15" s="3"/>
@@ -4428,7 +4271,9 @@
         <v>2</v>
       </c>
       <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
+      <c r="S18" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="T18" s="7" t="s">
         <v>5</v>
       </c>
@@ -4508,7 +4353,9 @@
       <c r="BL18" s="3"/>
     </row>
     <row r="19" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -4532,7 +4379,9 @@
         <v>3</v>
       </c>
       <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
+      <c r="S19" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="T19" s="7" t="s">
         <v>6</v>
       </c>
@@ -4631,7 +4480,9 @@
         <v>3</v>
       </c>
       <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
+      <c r="S20" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="T20" s="7" t="s">
         <v>6</v>
       </c>
@@ -4721,7 +4572,9 @@
         <v>3</v>
       </c>
       <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
+      <c r="S21" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="T21" s="7" t="s">
         <v>6</v>
       </c>
@@ -4791,7 +4644,9 @@
         <v>3</v>
       </c>
       <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
+      <c r="S22" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="T22" s="7" t="s">
         <v>6</v>
       </c>
@@ -4861,7 +4716,9 @@
         <v>3</v>
       </c>
       <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
+      <c r="S23" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="T23" s="7" t="s">
         <v>6</v>
       </c>
@@ -4931,7 +4788,9 @@
         <v>3</v>
       </c>
       <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
+      <c r="S24" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="T24" s="7" t="s">
         <v>6</v>
       </c>
@@ -5000,8 +4859,12 @@
       <c r="Q25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
+      <c r="R25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="T25" s="7" t="s">
         <v>6</v>
       </c>
@@ -5660,8 +5523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8F6284-F138-4CEB-A50F-8C3CA6F27EB7}">
   <dimension ref="A1:BL34"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM16" sqref="AM16"/>
+    <sheetView topLeftCell="AF1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AX13" sqref="AX13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6448,7 +6311,9 @@
       <c r="AX10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="AY10" s="1"/>
+      <c r="AY10" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="AZ10" s="1"/>
       <c r="BA10" s="1"/>
       <c r="BB10" s="2"/>
@@ -6629,7 +6494,9 @@
         <v>2</v>
       </c>
       <c r="BA12" s="1"/>
-      <c r="BB12" s="2"/>
+      <c r="BB12" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="BC12" s="3"/>
       <c r="BD12" s="3"/>
       <c r="BE12" s="3"/>
@@ -6816,7 +6683,9 @@
       <c r="BL14" s="3"/>
     </row>
     <row r="15" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
@@ -7624,7 +7493,9 @@
       </c>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
+      <c r="Y25" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
@@ -8293,4 +8164,2468 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BL39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="9.140625" style="6"/>
+    <col min="20" max="20" width="9.140625" style="8"/>
+    <col min="30" max="30" width="9.140625" style="10"/>
+    <col min="40" max="40" width="9.140625" style="12"/>
+    <col min="50" max="50" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="11"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="13"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="3"/>
+      <c r="BF1" s="3"/>
+      <c r="BG1" s="3"/>
+      <c r="BH1" s="3"/>
+      <c r="BI1" s="3"/>
+      <c r="BJ1" s="3"/>
+      <c r="BK1" s="3"/>
+      <c r="BL1" s="3"/>
+    </row>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="11"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="13"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+      <c r="BA2" s="1"/>
+      <c r="BB2" s="2"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BE2" s="3"/>
+      <c r="BF2" s="3"/>
+      <c r="BG2" s="3"/>
+      <c r="BH2" s="3"/>
+      <c r="BI2" s="3"/>
+      <c r="BJ2" s="3"/>
+      <c r="BK2" s="3"/>
+      <c r="BL2" s="3"/>
+    </row>
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="11"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="13"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
+      <c r="BB3" s="2"/>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="3"/>
+      <c r="BE3" s="3"/>
+      <c r="BF3" s="3"/>
+      <c r="BG3" s="3"/>
+      <c r="BH3" s="3"/>
+      <c r="BI3" s="3"/>
+      <c r="BJ3" s="3"/>
+      <c r="BK3" s="3"/>
+      <c r="BL3" s="3"/>
+    </row>
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="11"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="13"/>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1"/>
+      <c r="BA4" s="1"/>
+      <c r="BB4" s="2"/>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="3"/>
+      <c r="BE4" s="3"/>
+      <c r="BF4" s="3"/>
+      <c r="BG4" s="3"/>
+      <c r="BH4" s="3"/>
+      <c r="BI4" s="3"/>
+      <c r="BJ4" s="3"/>
+      <c r="BK4" s="3"/>
+      <c r="BL4" s="3"/>
+    </row>
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="11"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="1"/>
+      <c r="AX5" s="13"/>
+      <c r="AY5" s="1"/>
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="1"/>
+      <c r="BB5" s="2"/>
+      <c r="BC5" s="3"/>
+      <c r="BD5" s="3"/>
+      <c r="BE5" s="3"/>
+      <c r="BF5" s="3"/>
+      <c r="BG5" s="3"/>
+      <c r="BH5" s="3"/>
+      <c r="BI5" s="3"/>
+      <c r="BJ5" s="3"/>
+      <c r="BK5" s="3"/>
+      <c r="BL5" s="3"/>
+    </row>
+    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="11"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1"/>
+      <c r="AS6" s="1"/>
+      <c r="AT6" s="1"/>
+      <c r="AU6" s="1"/>
+      <c r="AV6" s="1"/>
+      <c r="AW6" s="1"/>
+      <c r="AX6" s="13"/>
+      <c r="AY6" s="1"/>
+      <c r="AZ6" s="1"/>
+      <c r="BA6" s="1"/>
+      <c r="BB6" s="2"/>
+      <c r="BC6" s="3"/>
+      <c r="BD6" s="3"/>
+      <c r="BE6" s="3"/>
+      <c r="BF6" s="3"/>
+      <c r="BG6" s="3"/>
+      <c r="BH6" s="3"/>
+      <c r="BI6" s="3"/>
+      <c r="BJ6" s="3"/>
+      <c r="BK6" s="3"/>
+      <c r="BL6" s="3"/>
+    </row>
+    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="11"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="1"/>
+      <c r="AT7" s="1"/>
+      <c r="AU7" s="1"/>
+      <c r="AV7" s="1"/>
+      <c r="AW7" s="1"/>
+      <c r="AX7" s="13"/>
+      <c r="AY7" s="1"/>
+      <c r="AZ7" s="1"/>
+      <c r="BA7" s="1"/>
+      <c r="BB7" s="2"/>
+      <c r="BC7" s="3"/>
+      <c r="BD7" s="3"/>
+      <c r="BE7" s="3"/>
+      <c r="BF7" s="3"/>
+      <c r="BG7" s="3"/>
+      <c r="BH7" s="3"/>
+      <c r="BI7" s="3"/>
+      <c r="BJ7" s="3"/>
+      <c r="BK7" s="3"/>
+      <c r="BL7" s="3"/>
+    </row>
+    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="11"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="1"/>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="1"/>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="1"/>
+      <c r="AX8" s="13"/>
+      <c r="AY8" s="1"/>
+      <c r="AZ8" s="1"/>
+      <c r="BA8" s="1"/>
+      <c r="BB8" s="2"/>
+      <c r="BC8" s="3"/>
+      <c r="BD8" s="3"/>
+      <c r="BE8" s="3"/>
+      <c r="BF8" s="3"/>
+      <c r="BG8" s="3"/>
+      <c r="BH8" s="3"/>
+      <c r="BI8" s="3"/>
+      <c r="BJ8" s="3"/>
+      <c r="BK8" s="3"/>
+      <c r="BL8" s="3"/>
+    </row>
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="11"/>
+      <c r="AO9" s="1"/>
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1"/>
+      <c r="AS9" s="1"/>
+      <c r="AT9" s="1"/>
+      <c r="AU9" s="1"/>
+      <c r="AV9" s="1"/>
+      <c r="AW9" s="1"/>
+      <c r="AX9" s="13"/>
+      <c r="AY9" s="1"/>
+      <c r="AZ9" s="1"/>
+      <c r="BA9" s="1"/>
+      <c r="BB9" s="2"/>
+      <c r="BC9" s="3"/>
+      <c r="BD9" s="3"/>
+      <c r="BE9" s="3"/>
+      <c r="BF9" s="3"/>
+      <c r="BG9" s="3"/>
+      <c r="BH9" s="3"/>
+      <c r="BI9" s="3"/>
+      <c r="BJ9" s="3"/>
+      <c r="BK9" s="3"/>
+      <c r="BL9" s="3"/>
+    </row>
+    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="11"/>
+      <c r="AO10" s="1"/>
+      <c r="AP10" s="1"/>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1"/>
+      <c r="AS10" s="1"/>
+      <c r="AT10" s="1"/>
+      <c r="AU10" s="1"/>
+      <c r="AV10" s="1"/>
+      <c r="AW10" s="1"/>
+      <c r="AX10" s="13"/>
+      <c r="AY10" s="1"/>
+      <c r="AZ10" s="1"/>
+      <c r="BA10" s="1"/>
+      <c r="BB10" s="2"/>
+      <c r="BC10" s="3"/>
+      <c r="BD10" s="3"/>
+      <c r="BE10" s="3"/>
+      <c r="BF10" s="3"/>
+      <c r="BG10" s="3"/>
+      <c r="BH10" s="3"/>
+      <c r="BI10" s="3"/>
+      <c r="BJ10" s="3"/>
+      <c r="BK10" s="3"/>
+      <c r="BL10" s="3"/>
+    </row>
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="11"/>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="1"/>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="1"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1"/>
+      <c r="AX11" s="13"/>
+      <c r="AY11" s="1"/>
+      <c r="AZ11" s="1"/>
+      <c r="BA11" s="1"/>
+      <c r="BB11" s="2"/>
+      <c r="BC11" s="3"/>
+      <c r="BD11" s="3"/>
+      <c r="BE11" s="3"/>
+      <c r="BF11" s="3"/>
+      <c r="BG11" s="3"/>
+      <c r="BH11" s="3"/>
+      <c r="BI11" s="3"/>
+      <c r="BJ11" s="3"/>
+      <c r="BK11" s="3"/>
+      <c r="BL11" s="3"/>
+    </row>
+    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="11"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="1"/>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="1"/>
+      <c r="AX12" s="13"/>
+      <c r="AY12" s="1"/>
+      <c r="AZ12" s="1"/>
+      <c r="BA12" s="1"/>
+      <c r="BB12" s="2"/>
+      <c r="BC12" s="3"/>
+      <c r="BD12" s="3"/>
+      <c r="BE12" s="3"/>
+      <c r="BF12" s="3"/>
+      <c r="BG12" s="3"/>
+      <c r="BH12" s="3"/>
+      <c r="BI12" s="3"/>
+      <c r="BJ12" s="3"/>
+      <c r="BK12" s="3"/>
+      <c r="BL12" s="3"/>
+    </row>
+    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1"/>
+      <c r="AS13" s="1"/>
+      <c r="AT13" s="1"/>
+      <c r="AU13" s="1"/>
+      <c r="AV13" s="1"/>
+      <c r="AW13" s="1"/>
+      <c r="AX13" s="13"/>
+      <c r="AY13" s="1"/>
+      <c r="AZ13" s="1"/>
+      <c r="BA13" s="1"/>
+      <c r="BB13" s="2"/>
+      <c r="BC13" s="3"/>
+      <c r="BD13" s="3"/>
+      <c r="BE13" s="3"/>
+      <c r="BF13" s="3"/>
+      <c r="BG13" s="3"/>
+      <c r="BH13" s="3"/>
+      <c r="BI13" s="3"/>
+      <c r="BJ13" s="3"/>
+      <c r="BK13" s="3"/>
+      <c r="BL13" s="3"/>
+    </row>
+    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
+      <c r="AS14" s="1"/>
+      <c r="AT14" s="1"/>
+      <c r="AU14" s="1"/>
+      <c r="AV14" s="1"/>
+      <c r="AW14" s="1"/>
+      <c r="AX14" s="13"/>
+      <c r="AY14" s="1"/>
+      <c r="AZ14" s="1"/>
+      <c r="BA14" s="1"/>
+      <c r="BB14" s="2"/>
+      <c r="BC14" s="3"/>
+      <c r="BD14" s="3"/>
+      <c r="BE14" s="3"/>
+      <c r="BF14" s="3"/>
+      <c r="BG14" s="3"/>
+      <c r="BH14" s="3"/>
+      <c r="BI14" s="3"/>
+      <c r="BJ14" s="3"/>
+      <c r="BK14" s="3"/>
+      <c r="BL14" s="3"/>
+    </row>
+    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="11"/>
+      <c r="AO15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1"/>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="1"/>
+      <c r="AU15" s="1"/>
+      <c r="AV15" s="1"/>
+      <c r="AW15" s="1"/>
+      <c r="AX15" s="13"/>
+      <c r="AY15" s="1"/>
+      <c r="AZ15" s="1"/>
+      <c r="BA15" s="1"/>
+      <c r="BB15" s="2"/>
+      <c r="BC15" s="3"/>
+      <c r="BD15" s="3"/>
+      <c r="BE15" s="3"/>
+      <c r="BF15" s="3"/>
+      <c r="BG15" s="3"/>
+      <c r="BH15" s="3"/>
+      <c r="BI15" s="3"/>
+      <c r="BJ15" s="3"/>
+      <c r="BK15" s="3"/>
+      <c r="BL15" s="3"/>
+    </row>
+    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="11"/>
+      <c r="AO16" s="1"/>
+      <c r="AP16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS16" s="1"/>
+      <c r="AT16" s="1"/>
+      <c r="AU16" s="1"/>
+      <c r="AV16" s="1"/>
+      <c r="AW16" s="1"/>
+      <c r="AX16" s="13"/>
+      <c r="AY16" s="1"/>
+      <c r="AZ16" s="1"/>
+      <c r="BA16" s="1"/>
+      <c r="BB16" s="2"/>
+      <c r="BC16" s="3"/>
+      <c r="BD16" s="3"/>
+      <c r="BE16" s="3"/>
+      <c r="BF16" s="3"/>
+      <c r="BG16" s="3"/>
+      <c r="BH16" s="3"/>
+      <c r="BI16" s="3"/>
+      <c r="BJ16" s="3"/>
+      <c r="BK16" s="3"/>
+      <c r="BL16" s="3"/>
+    </row>
+    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="11"/>
+      <c r="AO17" s="1"/>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS17" s="1"/>
+      <c r="AT17" s="1"/>
+      <c r="AU17" s="1"/>
+      <c r="AV17" s="1"/>
+      <c r="AW17" s="1"/>
+      <c r="AX17" s="13"/>
+      <c r="AY17" s="1"/>
+      <c r="AZ17" s="1"/>
+      <c r="BA17" s="1"/>
+      <c r="BB17" s="2"/>
+      <c r="BC17" s="3"/>
+      <c r="BD17" s="3"/>
+      <c r="BE17" s="3"/>
+      <c r="BF17" s="3"/>
+      <c r="BG17" s="3"/>
+      <c r="BH17" s="3"/>
+      <c r="BI17" s="3"/>
+      <c r="BJ17" s="3"/>
+      <c r="BK17" s="3"/>
+      <c r="BL17" s="3"/>
+    </row>
+    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S18" s="1"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="11"/>
+      <c r="AO18" s="1"/>
+      <c r="AP18" s="1"/>
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT18" s="1"/>
+      <c r="AU18" s="1"/>
+      <c r="AV18" s="1"/>
+      <c r="AW18" s="1"/>
+      <c r="AX18" s="13"/>
+      <c r="AY18" s="1"/>
+      <c r="AZ18" s="1"/>
+      <c r="BA18" s="1"/>
+      <c r="BB18" s="2"/>
+      <c r="BC18" s="3"/>
+      <c r="BD18" s="3"/>
+      <c r="BE18" s="3"/>
+      <c r="BF18" s="3"/>
+      <c r="BG18" s="3"/>
+      <c r="BH18" s="3"/>
+      <c r="BI18" s="3"/>
+      <c r="BJ18" s="3"/>
+      <c r="BK18" s="3"/>
+      <c r="BL18" s="3"/>
+    </row>
+    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S19" s="1"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD19" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="11"/>
+      <c r="AO19" s="1"/>
+      <c r="AP19" s="1"/>
+      <c r="AQ19" s="1"/>
+      <c r="AR19" s="1"/>
+      <c r="AS19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC19" s="3"/>
+      <c r="BD19" s="3"/>
+      <c r="BE19" s="3"/>
+      <c r="BF19" s="3"/>
+      <c r="BG19" s="3"/>
+      <c r="BH19" s="3"/>
+      <c r="BI19" s="3"/>
+      <c r="BJ19" s="3"/>
+      <c r="BK19" s="3"/>
+      <c r="BL19" s="3"/>
+    </row>
+    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S20" s="1"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="1"/>
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="11"/>
+      <c r="AO20" s="1"/>
+      <c r="AP20" s="1"/>
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="1"/>
+      <c r="AS20" s="1"/>
+      <c r="AT20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX20" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC20" s="3"/>
+      <c r="BD20" s="3"/>
+      <c r="BE20" s="3"/>
+      <c r="BF20" s="3"/>
+      <c r="BG20" s="3"/>
+      <c r="BH20" s="3"/>
+      <c r="BI20" s="3"/>
+      <c r="BJ20" s="3"/>
+      <c r="BK20" s="3"/>
+      <c r="BL20" s="3"/>
+    </row>
+    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="1"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="9"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="1"/>
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="11"/>
+      <c r="AO21" s="1"/>
+      <c r="AP21" s="1"/>
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="1"/>
+      <c r="AS21" s="1"/>
+      <c r="AT21" s="1"/>
+      <c r="AU21" s="1"/>
+      <c r="AV21" s="1"/>
+      <c r="AW21" s="1"/>
+      <c r="AX21" s="13"/>
+      <c r="AY21" s="1"/>
+      <c r="AZ21" s="1"/>
+      <c r="BA21" s="1"/>
+      <c r="BB21" s="2"/>
+      <c r="BC21" s="3"/>
+      <c r="BD21" s="3"/>
+      <c r="BE21" s="3"/>
+      <c r="BF21" s="3"/>
+      <c r="BG21" s="3"/>
+      <c r="BH21" s="3"/>
+      <c r="BI21" s="3"/>
+      <c r="BJ21" s="3"/>
+      <c r="BK21" s="3"/>
+      <c r="BL21" s="3"/>
+    </row>
+    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S22" s="1"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="1"/>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1"/>
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="11"/>
+      <c r="AO22" s="1"/>
+      <c r="AP22" s="1"/>
+      <c r="AQ22" s="1"/>
+      <c r="AR22" s="1"/>
+      <c r="AS22" s="1"/>
+      <c r="AT22" s="1"/>
+      <c r="AU22" s="1"/>
+      <c r="AV22" s="1"/>
+      <c r="AW22" s="1"/>
+      <c r="AX22" s="13"/>
+      <c r="AY22" s="1"/>
+      <c r="AZ22" s="1"/>
+      <c r="BA22" s="1"/>
+      <c r="BB22" s="2"/>
+      <c r="BC22" s="3"/>
+      <c r="BD22" s="3"/>
+      <c r="BE22" s="3"/>
+      <c r="BF22" s="3"/>
+      <c r="BG22" s="3"/>
+      <c r="BH22" s="3"/>
+      <c r="BI22" s="3"/>
+      <c r="BJ22" s="3"/>
+      <c r="BK22" s="3"/>
+      <c r="BL22" s="3"/>
+    </row>
+    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S23" s="1"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="1"/>
+      <c r="AJ23" s="1"/>
+      <c r="AK23" s="1"/>
+      <c r="AL23" s="1"/>
+      <c r="AM23" s="1"/>
+      <c r="AN23" s="11"/>
+      <c r="AO23" s="1"/>
+      <c r="AP23" s="1"/>
+      <c r="AQ23" s="1"/>
+      <c r="AR23" s="1"/>
+      <c r="AS23" s="1"/>
+      <c r="AT23" s="1"/>
+      <c r="AU23" s="1"/>
+      <c r="AV23" s="1"/>
+      <c r="AW23" s="1"/>
+      <c r="AX23" s="13"/>
+      <c r="AY23" s="1"/>
+      <c r="AZ23" s="1"/>
+      <c r="BA23" s="1"/>
+      <c r="BB23" s="2"/>
+      <c r="BC23" s="3"/>
+      <c r="BD23" s="3"/>
+      <c r="BE23" s="3"/>
+      <c r="BF23" s="3"/>
+      <c r="BG23" s="3"/>
+      <c r="BH23" s="3"/>
+      <c r="BI23" s="3"/>
+      <c r="BJ23" s="3"/>
+      <c r="BK23" s="3"/>
+      <c r="BL23" s="3"/>
+    </row>
+    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T24" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="9"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="1"/>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="1"/>
+      <c r="AM24" s="1"/>
+      <c r="AN24" s="11"/>
+      <c r="AO24" s="1"/>
+      <c r="AP24" s="1"/>
+      <c r="AQ24" s="1"/>
+      <c r="AR24" s="1"/>
+      <c r="AS24" s="1"/>
+      <c r="AT24" s="1"/>
+      <c r="AU24" s="1"/>
+      <c r="AV24" s="1"/>
+      <c r="AW24" s="1"/>
+      <c r="AX24" s="13"/>
+      <c r="AY24" s="1"/>
+      <c r="AZ24" s="1"/>
+      <c r="BA24" s="1"/>
+      <c r="BB24" s="2"/>
+      <c r="BC24" s="3"/>
+      <c r="BD24" s="3"/>
+      <c r="BE24" s="3"/>
+      <c r="BF24" s="3"/>
+      <c r="BG24" s="3"/>
+      <c r="BH24" s="3"/>
+      <c r="BI24" s="3"/>
+      <c r="BJ24" s="3"/>
+      <c r="BK24" s="3"/>
+      <c r="BL24" s="3"/>
+    </row>
+    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="9"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="1"/>
+      <c r="AK25" s="1"/>
+      <c r="AL25" s="1"/>
+      <c r="AM25" s="1"/>
+      <c r="AN25" s="11"/>
+      <c r="AO25" s="1"/>
+      <c r="AP25" s="1"/>
+      <c r="AQ25" s="1"/>
+      <c r="AR25" s="1"/>
+      <c r="AS25" s="1"/>
+      <c r="AT25" s="1"/>
+      <c r="AU25" s="1"/>
+      <c r="AV25" s="1"/>
+      <c r="AW25" s="1"/>
+      <c r="AX25" s="13"/>
+      <c r="AY25" s="1"/>
+      <c r="AZ25" s="1"/>
+      <c r="BA25" s="1"/>
+      <c r="BB25" s="2"/>
+      <c r="BC25" s="3"/>
+      <c r="BD25" s="3"/>
+      <c r="BE25" s="3"/>
+      <c r="BF25" s="3"/>
+      <c r="BG25" s="3"/>
+      <c r="BH25" s="3"/>
+      <c r="BI25" s="3"/>
+      <c r="BJ25" s="3"/>
+      <c r="BK25" s="3"/>
+      <c r="BL25" s="3"/>
+    </row>
+    <row r="26" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="9"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1"/>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="11"/>
+      <c r="AO26" s="1"/>
+      <c r="AP26" s="1"/>
+      <c r="AQ26" s="1"/>
+      <c r="AR26" s="1"/>
+      <c r="AS26" s="1"/>
+      <c r="AT26" s="1"/>
+      <c r="AU26" s="1"/>
+      <c r="AV26" s="1"/>
+      <c r="AW26" s="1"/>
+      <c r="AX26" s="13"/>
+      <c r="AY26" s="1"/>
+      <c r="AZ26" s="1"/>
+      <c r="BA26" s="1"/>
+      <c r="BB26" s="2"/>
+      <c r="BC26" s="3"/>
+      <c r="BD26" s="3"/>
+      <c r="BE26" s="3"/>
+      <c r="BF26" s="3"/>
+      <c r="BG26" s="3"/>
+      <c r="BH26" s="3"/>
+      <c r="BI26" s="3"/>
+      <c r="BJ26" s="3"/>
+      <c r="BK26" s="3"/>
+      <c r="BL26" s="3"/>
+    </row>
+    <row r="27" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="9"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="1"/>
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="11"/>
+      <c r="AO27" s="1"/>
+      <c r="AP27" s="1"/>
+      <c r="AQ27" s="1"/>
+      <c r="AR27" s="1"/>
+      <c r="AS27" s="1"/>
+      <c r="AT27" s="1"/>
+      <c r="AU27" s="1"/>
+      <c r="AV27" s="1"/>
+      <c r="AW27" s="1"/>
+      <c r="AY27" s="1"/>
+      <c r="AZ27" s="1"/>
+      <c r="BA27" s="1"/>
+      <c r="BB27" s="2"/>
+      <c r="BC27" s="3"/>
+      <c r="BD27" s="3"/>
+      <c r="BE27" s="3"/>
+      <c r="BF27" s="3"/>
+      <c r="BG27" s="3"/>
+      <c r="BH27" s="3"/>
+      <c r="BI27" s="3"/>
+      <c r="BJ27" s="3"/>
+      <c r="BK27" s="3"/>
+      <c r="BL27" s="3"/>
+    </row>
+    <row r="28" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="9"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="1"/>
+      <c r="AK28" s="1"/>
+      <c r="AL28" s="1"/>
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="11"/>
+      <c r="AO28" s="1"/>
+      <c r="AP28" s="1"/>
+      <c r="AQ28" s="1"/>
+      <c r="AR28" s="1"/>
+      <c r="AS28" s="1"/>
+      <c r="AT28" s="1"/>
+      <c r="AU28" s="1"/>
+      <c r="AV28" s="1"/>
+      <c r="AW28" s="1"/>
+      <c r="AX28" s="13"/>
+      <c r="AY28" s="1"/>
+      <c r="AZ28" s="1"/>
+      <c r="BA28" s="1"/>
+      <c r="BB28" s="2"/>
+      <c r="BC28" s="3"/>
+      <c r="BD28" s="3"/>
+      <c r="BE28" s="3"/>
+      <c r="BF28" s="3"/>
+      <c r="BG28" s="3"/>
+      <c r="BH28" s="3"/>
+      <c r="BI28" s="3"/>
+      <c r="BJ28" s="3"/>
+      <c r="BK28" s="3"/>
+      <c r="BL28" s="3"/>
+    </row>
+    <row r="29" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="9"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="11"/>
+      <c r="AO29" s="1"/>
+      <c r="AP29" s="1"/>
+      <c r="AQ29" s="1"/>
+      <c r="AR29" s="1"/>
+      <c r="AS29" s="1"/>
+      <c r="AT29" s="1"/>
+      <c r="AU29" s="1"/>
+      <c r="AV29" s="1"/>
+      <c r="AW29" s="1"/>
+      <c r="AX29" s="13"/>
+      <c r="AY29" s="1"/>
+      <c r="AZ29" s="1"/>
+      <c r="BA29" s="1"/>
+      <c r="BB29" s="2"/>
+      <c r="BC29" s="3"/>
+      <c r="BD29" s="3"/>
+      <c r="BE29" s="3"/>
+      <c r="BF29" s="3"/>
+      <c r="BG29" s="3"/>
+      <c r="BH29" s="3"/>
+      <c r="BI29" s="3"/>
+      <c r="BJ29" s="3"/>
+      <c r="BK29" s="3"/>
+      <c r="BL29" s="3"/>
+    </row>
+    <row r="30" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="15"/>
+      <c r="Z30" s="15"/>
+      <c r="AA30" s="15"/>
+      <c r="AB30" s="15"/>
+      <c r="AC30" s="15"/>
+      <c r="AD30" s="18"/>
+      <c r="AE30" s="15"/>
+      <c r="AF30" s="15"/>
+      <c r="AG30" s="15"/>
+      <c r="AH30" s="15"/>
+      <c r="AI30" s="15"/>
+      <c r="AJ30" s="15"/>
+      <c r="AK30" s="15"/>
+      <c r="AL30" s="15"/>
+      <c r="AM30" s="15"/>
+      <c r="AN30" s="22"/>
+      <c r="AO30" s="15"/>
+      <c r="AP30" s="15"/>
+      <c r="AQ30" s="15"/>
+      <c r="AR30" s="15"/>
+      <c r="AS30" s="15"/>
+      <c r="AT30" s="15"/>
+      <c r="AU30" s="15"/>
+      <c r="AV30" s="15"/>
+      <c r="AW30" s="15"/>
+      <c r="AX30" s="23"/>
+      <c r="AY30" s="15"/>
+      <c r="AZ30" s="15"/>
+      <c r="BA30" s="15"/>
+      <c r="BB30" s="24"/>
+      <c r="BC30" s="3"/>
+      <c r="BD30" s="3"/>
+      <c r="BE30" s="3"/>
+      <c r="BF30" s="3"/>
+      <c r="BG30" s="3"/>
+      <c r="BH30" s="3"/>
+      <c r="BI30" s="3"/>
+      <c r="BJ30" s="3"/>
+      <c r="BK30" s="3"/>
+      <c r="BL30" s="3"/>
+    </row>
+    <row r="31" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="21"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="3"/>
+      <c r="AL31" s="3"/>
+      <c r="AM31" s="3"/>
+      <c r="AN31" s="25"/>
+      <c r="AO31" s="3"/>
+      <c r="AP31" s="3"/>
+      <c r="AQ31" s="3"/>
+      <c r="AR31" s="3"/>
+      <c r="AS31" s="3"/>
+      <c r="AT31" s="3"/>
+      <c r="AU31" s="3"/>
+      <c r="AV31" s="3"/>
+      <c r="AW31" s="3"/>
+      <c r="AX31" s="26"/>
+      <c r="AY31" s="3"/>
+      <c r="AZ31" s="3"/>
+      <c r="BA31" s="3"/>
+      <c r="BB31" s="3"/>
+      <c r="BC31" s="3"/>
+      <c r="BD31" s="3"/>
+      <c r="BE31" s="3"/>
+      <c r="BF31" s="3"/>
+      <c r="BG31" s="3"/>
+      <c r="BH31" s="3"/>
+      <c r="BI31" s="3"/>
+      <c r="BJ31" s="3"/>
+      <c r="BK31" s="3"/>
+      <c r="BL31" s="3"/>
+    </row>
+    <row r="32" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="21"/>
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="3"/>
+      <c r="AG32" s="3"/>
+      <c r="AH32" s="3"/>
+      <c r="AI32" s="3"/>
+      <c r="AJ32" s="3"/>
+      <c r="AK32" s="3"/>
+      <c r="AL32" s="3"/>
+      <c r="AM32" s="3"/>
+      <c r="AN32" s="25"/>
+      <c r="AO32" s="3"/>
+      <c r="AP32" s="3"/>
+      <c r="AQ32" s="3"/>
+      <c r="AR32" s="3"/>
+      <c r="AS32" s="3"/>
+      <c r="AT32" s="3"/>
+      <c r="AU32" s="3"/>
+      <c r="AV32" s="3"/>
+      <c r="AW32" s="3"/>
+      <c r="AX32" s="26"/>
+      <c r="AY32" s="3"/>
+      <c r="AZ32" s="3"/>
+      <c r="BA32" s="3"/>
+      <c r="BB32" s="3"/>
+      <c r="BC32" s="3"/>
+      <c r="BD32" s="3"/>
+      <c r="BE32" s="3"/>
+      <c r="BF32" s="3"/>
+      <c r="BG32" s="3"/>
+      <c r="BH32" s="3"/>
+      <c r="BI32" s="3"/>
+      <c r="BJ32" s="3"/>
+      <c r="BK32" s="3"/>
+      <c r="BL32" s="3"/>
+    </row>
+    <row r="33" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="21"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3"/>
+      <c r="AK33" s="3"/>
+      <c r="AL33" s="3"/>
+      <c r="AM33" s="3"/>
+      <c r="AN33" s="25"/>
+      <c r="AO33" s="3"/>
+      <c r="AP33" s="3"/>
+      <c r="AQ33" s="3"/>
+      <c r="AR33" s="3"/>
+      <c r="AS33" s="3"/>
+      <c r="AT33" s="3"/>
+      <c r="AU33" s="3"/>
+      <c r="AV33" s="3"/>
+      <c r="AW33" s="3"/>
+      <c r="AX33" s="26"/>
+      <c r="AY33" s="3"/>
+      <c r="AZ33" s="3"/>
+      <c r="BA33" s="3"/>
+      <c r="BB33" s="3"/>
+      <c r="BC33" s="3"/>
+      <c r="BD33" s="3"/>
+      <c r="BE33" s="3"/>
+      <c r="BF33" s="3"/>
+      <c r="BG33" s="3"/>
+      <c r="BH33" s="3"/>
+      <c r="BI33" s="3"/>
+      <c r="BJ33" s="3"/>
+      <c r="BK33" s="3"/>
+      <c r="BL33" s="3"/>
+    </row>
+    <row r="34" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="21"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3"/>
+      <c r="AH34" s="3"/>
+      <c r="AI34" s="3"/>
+      <c r="AJ34" s="3"/>
+      <c r="AK34" s="3"/>
+      <c r="AL34" s="3"/>
+      <c r="AM34" s="3"/>
+      <c r="AN34" s="25"/>
+      <c r="AO34" s="3"/>
+      <c r="AP34" s="3"/>
+      <c r="AQ34" s="3"/>
+      <c r="AR34" s="3"/>
+      <c r="AS34" s="3"/>
+      <c r="AT34" s="3"/>
+      <c r="AU34" s="3"/>
+      <c r="AV34" s="3"/>
+      <c r="AW34" s="3"/>
+      <c r="AX34" s="26"/>
+      <c r="AY34" s="3"/>
+      <c r="AZ34" s="3"/>
+      <c r="BA34" s="3"/>
+      <c r="BB34" s="3"/>
+      <c r="BC34" s="3"/>
+      <c r="BD34" s="3"/>
+      <c r="BE34" s="3"/>
+      <c r="BF34" s="3"/>
+      <c r="BG34" s="3"/>
+      <c r="BH34" s="3"/>
+      <c r="BI34" s="3"/>
+      <c r="BJ34" s="3"/>
+      <c r="BK34" s="3"/>
+      <c r="BL34" s="3"/>
+    </row>
+    <row r="36" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="AT36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="AU39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/GUI_20212202_AYZ8R9/Maps/map.xlsx
+++ b/GUI_20212202_AYZ8R9/Maps/map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\game3\GUI_20212202_AYZ8R9\Maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409971BD-C55B-411D-8B15-D553E955361D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CEDD5E-9C07-41CB-ABFE-CB069851AD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="17">
   <si>
     <t>B</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>HOME</t>
+  </si>
+  <si>
+    <t>Z</t>
   </si>
 </sst>
 </file>
@@ -525,7 +528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382D7427-FBDE-4BF3-ADAB-21A4C37623DD}">
   <dimension ref="A1:BL34"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
@@ -2799,8 +2802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32EA023-0038-482A-B633-0391C0CB8525}">
   <dimension ref="A1:BL34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3380,7 +3383,7 @@
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AJ9" s="1" t="s">
         <v>1</v>
@@ -3450,10 +3453,10 @@
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
       <c r="AI10" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AJ10" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AK10" s="1" t="s">
         <v>1</v>
@@ -3476,15 +3479,9 @@
       <c r="AY10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AZ10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB10" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="AZ10" s="1"/>
+      <c r="BA10" s="1"/>
+      <c r="BB10" s="2"/>
       <c r="BC10" s="3"/>
       <c r="BD10" s="3"/>
       <c r="BE10" s="3"/>
@@ -3532,13 +3529,13 @@
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AJ11" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AK11" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AL11" s="1" t="s">
         <v>1</v>
@@ -3557,19 +3554,19 @@
         <v>4</v>
       </c>
       <c r="AX11" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="AY11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA11" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="AY11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AZ11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA11" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="BB11" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="BC11" s="3"/>
       <c r="BD11" s="3"/>
@@ -3618,16 +3615,16 @@
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AJ12" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AK12" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AL12" s="27" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AM12" s="1" t="s">
         <v>1</v>
@@ -3644,22 +3641,22 @@
         <v>4</v>
       </c>
       <c r="AW12" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AX12" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="AY12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA12" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="AY12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AZ12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA12" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="BB12" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="BC12" s="3"/>
       <c r="BD12" s="3"/>
@@ -3726,19 +3723,19 @@
       </c>
       <c r="AH13" s="1"/>
       <c r="AI13" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AJ13" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AK13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL13" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="AL13" s="27" t="s">
+        <v>16</v>
       </c>
       <c r="AM13" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AN13" s="11" t="s">
         <v>1</v>
@@ -3753,25 +3750,25 @@
         <v>4</v>
       </c>
       <c r="AV13" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AW13" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AX13" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="AY13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA13" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="AY13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AZ13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA13" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="BB13" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="BC13" s="3"/>
       <c r="BD13" s="3"/>
@@ -3828,22 +3825,22 @@
         <v>5</v>
       </c>
       <c r="AI14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ14" s="27" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="AJ14" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL14" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="AL14" s="27" t="s">
+        <v>16</v>
       </c>
       <c r="AM14" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AN14" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AO14" s="1" t="s">
         <v>1</v>
@@ -3864,28 +3861,28 @@
         <v>0</v>
       </c>
       <c r="AU14" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AV14" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AW14" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AX14" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="AY14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA14" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="AY14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AZ14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA14" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="BB14" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="BC14" s="3"/>
       <c r="BD14" s="3"/>
@@ -3943,58 +3940,58 @@
         <v>5</v>
       </c>
       <c r="AJ15" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AK15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL15" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="AL15" s="27" t="s">
+        <v>16</v>
       </c>
       <c r="AM15" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AN15" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AO15" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AP15" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AQ15" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AR15" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AS15" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AU15" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AV15" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AW15" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AX15" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="AY15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA15" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="AY15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AZ15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA15" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="BB15" s="1" t="s">
         <v>12</v>
@@ -4066,43 +4063,43 @@
         <v>5</v>
       </c>
       <c r="AK16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL16" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="AL16" s="27" t="s">
+        <v>16</v>
       </c>
       <c r="AM16" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AN16" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AO16" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AP16" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AQ16" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AR16" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AS16" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AT16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AU16" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AV16" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AW16" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AX16" s="13"/>
       <c r="AY16" s="1" t="s">
@@ -4182,41 +4179,41 @@
       <c r="AK17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AL17" s="1" t="s">
-        <v>9</v>
+      <c r="AL17" s="27" t="s">
+        <v>16</v>
       </c>
       <c r="AM17" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AN17" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AO17" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AP17" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AQ17" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AR17" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AS17" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AT17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AU17" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AV17" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AW17" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AX17" s="13" t="s">
         <v>5</v>
@@ -4302,34 +4299,34 @@
         <v>5</v>
       </c>
       <c r="AM18" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AN18" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AO18" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AP18" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AQ18" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AR18" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AS18" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AT18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AU18" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AV18" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AW18" s="1" t="s">
         <v>5</v>
@@ -4409,28 +4406,28 @@
         <v>5</v>
       </c>
       <c r="AN19" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AO19" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AP19" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AQ19" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AR19" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AS19" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AT19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AU19" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AV19" t="s">
         <v>5</v>
@@ -5523,8 +5520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8F6284-F138-4CEB-A50F-8C3CA6F27EB7}">
   <dimension ref="A1:BL34"/>
   <sheetViews>
-    <sheetView topLeftCell="AF1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AX13" sqref="AX13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8170,7 +8167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="AD1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>

--- a/GUI_20212202_AYZ8R9/Maps/map.xlsx
+++ b/GUI_20212202_AYZ8R9/Maps/map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\game3\GUI_20212202_AYZ8R9\Maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A306C14-5458-41A2-A1F0-BFD02ACDA872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF93495-E104-4AFD-9B06-D4FA92A23B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="15">
   <si>
     <t>B</t>
   </si>
@@ -620,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382D7427-FBDE-4BF3-ADAB-21A4C37623DD}">
   <dimension ref="A1:CY47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BB19" sqref="BB19"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y37" sqref="Y37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5797,8 +5797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32EA023-0038-482A-B633-0391C0CB8525}">
   <dimension ref="A1:BL34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="X45" sqref="X45"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BD15" sqref="BD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6554,15 +6554,9 @@
       <c r="AY11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AZ11" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="BA11" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="BB11" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="AZ11" s="13"/>
+      <c r="BA11" s="13"/>
+      <c r="BB11" s="1"/>
       <c r="BC11" s="3"/>
       <c r="BD11" s="3"/>
       <c r="BE11" s="3"/>
@@ -6644,15 +6638,9 @@
       <c r="AY12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AZ12" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="BA12" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="BB12" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="AZ12" s="13"/>
+      <c r="BA12" s="13"/>
+      <c r="BB12" s="1"/>
       <c r="BC12" s="3"/>
       <c r="BD12" s="3"/>
       <c r="BE12" s="3"/>
@@ -6756,15 +6744,9 @@
       <c r="AY13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AZ13" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="BA13" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="BB13" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="AZ13" s="13"/>
+      <c r="BA13" s="13"/>
+      <c r="BB13" s="1"/>
       <c r="BC13" s="3"/>
       <c r="BD13" s="3"/>
       <c r="BE13" s="3"/>
@@ -6870,15 +6852,9 @@
       <c r="AY14" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AZ14" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="BA14" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="BB14" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="AZ14" s="13"/>
+      <c r="BA14" s="13"/>
+      <c r="BB14" s="1"/>
       <c r="BC14" s="3"/>
       <c r="BD14" s="3"/>
       <c r="BE14" s="3"/>
@@ -6982,12 +6958,8 @@
       <c r="AY15" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AZ15" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="BA15" s="13" t="s">
-        <v>14</v>
-      </c>
+      <c r="AZ15" s="13"/>
+      <c r="BA15" s="13"/>
       <c r="BB15" s="1" t="s">
         <v>10</v>
       </c>

--- a/GUI_20212202_AYZ8R9/Maps/map.xlsx
+++ b/GUI_20212202_AYZ8R9/Maps/map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\game3\GUI_20212202_AYZ8R9\Maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF93495-E104-4AFD-9B06-D4FA92A23B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8DE140-54A8-42FF-ABBA-923A6136A51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="16">
   <si>
     <t>B</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Z</t>
+  </si>
+  <si>
+    <t>CHEST1</t>
   </si>
 </sst>
 </file>
@@ -5797,8 +5800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32EA023-0038-482A-B633-0391C0CB8525}">
   <dimension ref="A1:BL34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BD15" sqref="BD15"/>
+    <sheetView topLeftCell="AI1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AZ23" sqref="AZ23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6551,11 +6554,11 @@
       <c r="AX11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AY11" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="AZ11" s="13"/>
-      <c r="BA11" s="13"/>
+      <c r="AY11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ11" s="4"/>
+      <c r="BA11" s="4"/>
       <c r="BB11" s="1"/>
       <c r="BC11" s="3"/>
       <c r="BD11" s="3"/>
@@ -6635,11 +6638,11 @@
       <c r="AX12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AY12" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="AZ12" s="13"/>
-      <c r="BA12" s="13"/>
+      <c r="AY12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ12" s="4"/>
+      <c r="BA12" s="4"/>
       <c r="BB12" s="1"/>
       <c r="BC12" s="3"/>
       <c r="BD12" s="3"/>
@@ -6741,11 +6744,11 @@
       <c r="AX13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AY13" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="AZ13" s="13"/>
-      <c r="BA13" s="13"/>
+      <c r="AY13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ13" s="4"/>
+      <c r="BA13" s="4"/>
       <c r="BB13" s="1"/>
       <c r="BC13" s="3"/>
       <c r="BD13" s="3"/>
@@ -6849,11 +6852,11 @@
       <c r="AX14" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AY14" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="AZ14" s="13"/>
-      <c r="BA14" s="13"/>
+      <c r="AY14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ14" s="4"/>
+      <c r="BA14" s="4"/>
       <c r="BB14" s="1"/>
       <c r="BC14" s="3"/>
       <c r="BD14" s="3"/>
@@ -6955,11 +6958,11 @@
       <c r="AX15" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AY15" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="AZ15" s="13"/>
-      <c r="BA15" s="13"/>
+      <c r="AY15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ15" s="4"/>
+      <c r="BA15" s="4"/>
       <c r="BB15" s="1" t="s">
         <v>10</v>
       </c>
@@ -8489,8 +8492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8F6284-F138-4CEB-A50F-8C3CA6F27EB7}">
   <dimension ref="A1:BL34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y25" sqref="Y25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10734,7 +10737,7 @@
         <v>14</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Z25" s="1" t="s">
         <v>14</v>
@@ -11426,7 +11429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>

--- a/GUI_20212202_AYZ8R9/Maps/map.xlsx
+++ b/GUI_20212202_AYZ8R9/Maps/map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\game3\GUI_20212202_AYZ8R9\Maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8DE140-54A8-42FF-ABBA-923A6136A51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4639AE78-0901-4740-98FB-3FBA04ED6514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="4" r:id="rId1"/>
@@ -624,7 +624,7 @@
   <dimension ref="A1:CY47"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y37" sqref="Y37"/>
+      <selection activeCell="BC30" sqref="BC30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5800,7 +5800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32EA023-0038-482A-B633-0391C0CB8525}">
   <dimension ref="A1:BL34"/>
   <sheetViews>
-    <sheetView topLeftCell="AI1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AZ23" sqref="AZ23"/>
     </sheetView>
   </sheetViews>
@@ -8492,8 +8492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8F6284-F138-4CEB-A50F-8C3CA6F27EB7}">
   <dimension ref="A1:BL34"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y25" sqref="Y25"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BD15" sqref="BD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11429,7 +11429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>

--- a/GUI_20212202_AYZ8R9/Maps/map.xlsx
+++ b/GUI_20212202_AYZ8R9/Maps/map.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\game3\GUI_20212202_AYZ8R9\Maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB5ECE8-DC87-4BB0-9741-B88E869E37DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B16D6E-6145-4E7D-892B-DECE6086F779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="4" r:id="rId1"/>
     <sheet name="Munka2" sheetId="2" r:id="rId2"/>
     <sheet name="Munka3" sheetId="3" r:id="rId3"/>
     <sheet name="Munka4" sheetId="1" r:id="rId4"/>
+    <sheet name="Munka5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="16">
   <si>
     <t>B</t>
   </si>
@@ -664,7 +665,7 @@
   <dimension ref="A1:CY47"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="P13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5794,7 +5795,7 @@
   <dimension ref="A1:BL35"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23:N23"/>
+      <selection activeCell="AD20" sqref="AD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7224,13 +7225,7 @@
       <c r="N19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="1" t="s">
+      <c r="O19" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R19" s="1"/>
@@ -7336,9 +7331,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1" t="s">
+      <c r="O20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="R20" s="1"/>
@@ -7437,9 +7430,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1" t="s">
+      <c r="O21" s="1" t="s">
         <v>3</v>
       </c>
       <c r="R21" s="1"/>
@@ -7529,9 +7520,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1" t="s">
+      <c r="O22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="R22" s="1"/>
@@ -7601,9 +7590,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1" t="s">
+      <c r="O23" s="1" t="s">
         <v>3</v>
       </c>
       <c r="R23" s="1"/>
@@ -7673,9 +7660,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1" t="s">
+      <c r="O24" s="1" t="s">
         <v>3</v>
       </c>
       <c r="R24" s="1"/>
@@ -7745,9 +7730,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1" t="s">
+      <c r="O25" s="1" t="s">
         <v>3</v>
       </c>
       <c r="R25" s="1"/>
@@ -7817,12 +7800,10 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
+      <c r="O26" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="Q26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="S26" s="1" t="s">
@@ -7891,10 +7872,14 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1" t="s">
+      <c r="O27" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="P27" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>0</v>
       </c>
       <c r="R27" s="1" t="s">
         <v>0</v>
@@ -8486,8 +8471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8F6284-F138-4CEB-A50F-8C3CA6F27EB7}">
   <dimension ref="A1:BL35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8664,12 +8649,8 @@
       <c r="AC4" s="1"/>
       <c r="AD4" s="9"/>
       <c r="AE4" s="1"/>
-      <c r="AF4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
@@ -8734,12 +8715,8 @@
       <c r="AC5" s="1"/>
       <c r="AD5" s="9"/>
       <c r="AE5" s="1"/>
-      <c r="AF5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
@@ -8811,7 +8788,7 @@
       <c r="AD6" s="9"/>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AG6" s="1" t="s">
         <v>3</v>
@@ -8891,7 +8868,7 @@
       <c r="AD7" s="9"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AG7" s="1" t="s">
         <v>3</v>
@@ -8995,7 +8972,7 @@
       <c r="AD8" s="9"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AG8" s="1" t="s">
         <v>3</v>
@@ -9089,7 +9066,7 @@
       <c r="AD9" s="9"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AG9" s="1" t="s">
         <v>3</v>
@@ -9185,7 +9162,7 @@
       <c r="AD10" s="9"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AG10" s="1" t="s">
         <v>3</v>
@@ -9287,7 +9264,7 @@
       <c r="AD11" s="9"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AG11" s="1" t="s">
         <v>3</v>
@@ -9391,7 +9368,7 @@
       <c r="AD12" s="9"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AG12" s="1" t="s">
         <v>3</v>
@@ -9483,7 +9460,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>14</v>
@@ -9511,7 +9488,7 @@
       <c r="AD13" s="9"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AG13" s="1" t="s">
         <v>3</v>
@@ -9587,11 +9564,9 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="1" t="s">
+      <c r="O14" s="1"/>
+      <c r="P14" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>14</v>
@@ -9619,7 +9594,7 @@
       <c r="AD14" s="9"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AG14" s="1" t="s">
         <v>3</v>
@@ -9725,7 +9700,7 @@
       <c r="AD15" s="9"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AG15" s="1" t="s">
         <v>3</v>
@@ -9823,7 +9798,7 @@
       <c r="AD16" s="9"/>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AG16" s="1" t="s">
         <v>3</v>
@@ -9919,7 +9894,7 @@
       <c r="AD17" s="9"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AG17" s="1" t="s">
         <v>3</v>
@@ -10005,7 +9980,7 @@
       <c r="AD18" s="9"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AG18" s="1" t="s">
         <v>3</v>
@@ -10093,7 +10068,7 @@
       <c r="AD19" s="9"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AG19" s="1" t="s">
         <v>3</v>
@@ -10181,7 +10156,7 @@
       <c r="AD20" s="9"/>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AG20" s="1" t="s">
         <v>3</v>
@@ -10262,17 +10237,17 @@
       <c r="AC21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AD21" s="9" t="s">
+      <c r="AD21" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AE21" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AF21" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AG21" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH21" s="1" t="s">
         <v>8</v>
@@ -11425,7 +11400,7 @@
   <dimension ref="A1:BL40"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AC7" sqref="AC7"/>
+      <selection activeCell="BB21" sqref="BB21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13885,4 +13860,5503 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9BF40A-B043-489B-97BD-E120A8256F34}">
+  <dimension ref="A1:CY47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AT15" sqref="AT15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="9" width="4.28515625" style="29"/>
+    <col min="10" max="10" width="4.28515625" style="36"/>
+    <col min="11" max="19" width="4.28515625" style="29"/>
+    <col min="20" max="20" width="4.28515625" style="37"/>
+    <col min="21" max="29" width="4.28515625" style="29"/>
+    <col min="30" max="30" width="4.28515625" style="38"/>
+    <col min="31" max="39" width="4.28515625" style="29"/>
+    <col min="40" max="40" width="4.28515625" style="39"/>
+    <col min="41" max="49" width="4.28515625" style="29"/>
+    <col min="50" max="50" width="4.28515625" style="40"/>
+    <col min="51" max="54" width="4.28515625" style="29"/>
+    <col min="55" max="55" width="4.28515625" style="43"/>
+    <col min="56" max="16384" width="4.28515625" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:103" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="62"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="62"/>
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="62"/>
+      <c r="AT1" s="62"/>
+      <c r="AU1" s="62"/>
+      <c r="AV1" s="62"/>
+      <c r="AW1" s="62"/>
+      <c r="AX1" s="62"/>
+      <c r="AY1" s="62"/>
+      <c r="AZ1" s="62"/>
+      <c r="BA1" s="62"/>
+      <c r="BB1" s="63"/>
+      <c r="BD1" s="64"/>
+      <c r="BE1" s="64"/>
+      <c r="BF1" s="64"/>
+      <c r="BG1" s="64"/>
+      <c r="BH1" s="64"/>
+      <c r="BI1" s="64"/>
+      <c r="BJ1" s="64"/>
+      <c r="BK1" s="64"/>
+      <c r="BL1" s="64"/>
+      <c r="BM1" s="64"/>
+      <c r="BN1" s="64"/>
+      <c r="BO1" s="64"/>
+      <c r="BP1" s="64"/>
+      <c r="BQ1" s="64"/>
+      <c r="BR1" s="64"/>
+      <c r="BS1" s="64"/>
+      <c r="BT1" s="64"/>
+      <c r="BU1" s="64"/>
+      <c r="BV1" s="64"/>
+      <c r="BW1" s="64"/>
+      <c r="BX1" s="64"/>
+      <c r="BY1" s="64"/>
+      <c r="BZ1" s="64"/>
+      <c r="CA1" s="64"/>
+      <c r="CB1" s="64"/>
+      <c r="CC1" s="64"/>
+      <c r="CD1" s="64"/>
+      <c r="CE1" s="64"/>
+      <c r="CF1" s="64"/>
+      <c r="CG1" s="64"/>
+      <c r="CH1" s="64"/>
+      <c r="CI1" s="64"/>
+      <c r="CJ1" s="64"/>
+      <c r="CK1" s="64"/>
+      <c r="CL1" s="64"/>
+      <c r="CM1" s="64"/>
+      <c r="CN1" s="64"/>
+      <c r="CO1" s="64"/>
+      <c r="CP1" s="64"/>
+      <c r="CQ1" s="64"/>
+      <c r="CR1" s="64"/>
+      <c r="CS1" s="64"/>
+      <c r="CT1" s="64"/>
+      <c r="CU1" s="64"/>
+      <c r="CV1" s="64"/>
+      <c r="CW1" s="64"/>
+      <c r="CX1" s="64"/>
+      <c r="CY1" s="64"/>
+    </row>
+    <row r="2" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="44"/>
+      <c r="AR2" s="44"/>
+      <c r="AS2" s="44"/>
+      <c r="AT2" s="44"/>
+      <c r="AU2" s="44"/>
+      <c r="AV2" s="44"/>
+      <c r="AW2" s="44"/>
+      <c r="AX2" s="49"/>
+      <c r="AY2" s="44"/>
+      <c r="AZ2" s="44"/>
+      <c r="BA2" s="44"/>
+      <c r="BB2" s="50"/>
+      <c r="BC2" s="51">
+        <v>0</v>
+      </c>
+      <c r="BD2" s="28"/>
+      <c r="BE2" s="28"/>
+      <c r="BF2" s="28"/>
+      <c r="BG2" s="28"/>
+      <c r="BH2" s="28"/>
+      <c r="BI2" s="28"/>
+      <c r="BJ2" s="28"/>
+      <c r="BK2" s="28"/>
+      <c r="BL2" s="28"/>
+      <c r="BM2" s="28"/>
+      <c r="BN2" s="28"/>
+      <c r="BO2" s="28"/>
+      <c r="BP2" s="28"/>
+      <c r="BQ2" s="28"/>
+      <c r="BR2" s="28"/>
+      <c r="BS2" s="28"/>
+      <c r="BT2" s="28"/>
+      <c r="BU2" s="28"/>
+      <c r="BV2" s="28"/>
+      <c r="BW2" s="28"/>
+      <c r="BX2" s="28"/>
+      <c r="BY2" s="28"/>
+      <c r="BZ2" s="28"/>
+      <c r="CA2" s="28"/>
+      <c r="CB2" s="28"/>
+      <c r="CC2" s="28"/>
+      <c r="CD2" s="28"/>
+      <c r="CE2" s="28"/>
+      <c r="CF2" s="28"/>
+      <c r="CG2" s="28"/>
+      <c r="CH2" s="28"/>
+      <c r="CI2" s="28"/>
+      <c r="CJ2" s="28"/>
+      <c r="CK2" s="28"/>
+      <c r="CL2" s="28"/>
+      <c r="CM2" s="28"/>
+      <c r="CN2" s="28"/>
+      <c r="CO2" s="28"/>
+      <c r="CP2" s="28"/>
+      <c r="CQ2" s="28"/>
+      <c r="CR2" s="28"/>
+      <c r="CS2" s="28"/>
+      <c r="CT2" s="28"/>
+      <c r="CU2" s="28"/>
+      <c r="CV2" s="28"/>
+      <c r="CW2" s="28"/>
+      <c r="CX2" s="28"/>
+      <c r="CY2" s="28"/>
+    </row>
+    <row r="3" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="47"/>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="44"/>
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="44"/>
+      <c r="AN3" s="48"/>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="44"/>
+      <c r="AR3" s="44"/>
+      <c r="AS3" s="44"/>
+      <c r="AT3" s="44"/>
+      <c r="AU3" s="44"/>
+      <c r="AV3" s="44"/>
+      <c r="AW3" s="44"/>
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="44"/>
+      <c r="AZ3" s="44"/>
+      <c r="BA3" s="44"/>
+      <c r="BB3" s="50"/>
+      <c r="BC3" s="51">
+        <v>1</v>
+      </c>
+      <c r="BD3" s="28"/>
+      <c r="BE3" s="28"/>
+      <c r="BF3" s="28"/>
+      <c r="BG3" s="28"/>
+      <c r="BH3" s="28"/>
+      <c r="BI3" s="28"/>
+      <c r="BJ3" s="28"/>
+      <c r="BK3" s="28"/>
+      <c r="BL3" s="28"/>
+      <c r="BM3" s="28"/>
+      <c r="BN3" s="28"/>
+      <c r="BO3" s="28"/>
+      <c r="BP3" s="28"/>
+      <c r="BQ3" s="28"/>
+      <c r="BR3" s="28"/>
+      <c r="BS3" s="28"/>
+      <c r="BT3" s="28"/>
+      <c r="BU3" s="28"/>
+      <c r="BV3" s="28"/>
+      <c r="BW3" s="28"/>
+      <c r="BX3" s="28"/>
+      <c r="BY3" s="28"/>
+      <c r="BZ3" s="28"/>
+      <c r="CA3" s="28"/>
+      <c r="CB3" s="28"/>
+      <c r="CC3" s="28"/>
+      <c r="CD3" s="28"/>
+      <c r="CE3" s="28"/>
+      <c r="CF3" s="28"/>
+      <c r="CG3" s="28"/>
+      <c r="CH3" s="28"/>
+      <c r="CI3" s="28"/>
+      <c r="CJ3" s="28"/>
+      <c r="CK3" s="28"/>
+      <c r="CL3" s="28"/>
+      <c r="CM3" s="28"/>
+      <c r="CN3" s="28"/>
+      <c r="CO3" s="28"/>
+      <c r="CP3" s="28"/>
+      <c r="CQ3" s="28"/>
+      <c r="CR3" s="28"/>
+      <c r="CS3" s="28"/>
+      <c r="CT3" s="28"/>
+      <c r="CU3" s="28"/>
+      <c r="CV3" s="28"/>
+      <c r="CW3" s="28"/>
+      <c r="CX3" s="28"/>
+      <c r="CY3" s="28"/>
+    </row>
+    <row r="4" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="44"/>
+      <c r="AG4" s="44"/>
+      <c r="AH4" s="44"/>
+      <c r="AI4" s="44"/>
+      <c r="AJ4" s="44"/>
+      <c r="AK4" s="44"/>
+      <c r="AL4" s="44"/>
+      <c r="AM4" s="44"/>
+      <c r="AN4" s="48"/>
+      <c r="AO4" s="44"/>
+      <c r="AP4" s="44"/>
+      <c r="AQ4" s="44"/>
+      <c r="AR4" s="44"/>
+      <c r="AS4" s="44"/>
+      <c r="AT4" s="44"/>
+      <c r="AU4" s="44"/>
+      <c r="AV4" s="44"/>
+      <c r="AW4" s="44"/>
+      <c r="AX4" s="49"/>
+      <c r="AY4" s="44"/>
+      <c r="AZ4" s="44"/>
+      <c r="BA4" s="44"/>
+      <c r="BB4" s="50"/>
+      <c r="BC4" s="51">
+        <v>2</v>
+      </c>
+      <c r="BD4" s="28"/>
+      <c r="BE4" s="28"/>
+      <c r="BF4" s="28"/>
+      <c r="BG4" s="28"/>
+      <c r="BH4" s="28"/>
+      <c r="BI4" s="28"/>
+      <c r="BJ4" s="28"/>
+      <c r="BK4" s="28"/>
+      <c r="BL4" s="28"/>
+      <c r="BM4" s="28"/>
+      <c r="BN4" s="28"/>
+      <c r="BO4" s="28"/>
+      <c r="BP4" s="28"/>
+      <c r="BQ4" s="28"/>
+      <c r="BR4" s="28"/>
+      <c r="BS4" s="28"/>
+      <c r="BT4" s="28"/>
+      <c r="BU4" s="28"/>
+      <c r="BV4" s="28"/>
+      <c r="BW4" s="28"/>
+      <c r="BX4" s="28"/>
+      <c r="BY4" s="28"/>
+      <c r="BZ4" s="28"/>
+      <c r="CA4" s="28"/>
+      <c r="CB4" s="28"/>
+      <c r="CC4" s="28"/>
+      <c r="CD4" s="28"/>
+      <c r="CE4" s="28"/>
+      <c r="CF4" s="28"/>
+      <c r="CG4" s="28"/>
+      <c r="CH4" s="28"/>
+      <c r="CI4" s="28"/>
+      <c r="CJ4" s="28"/>
+      <c r="CK4" s="28"/>
+      <c r="CL4" s="28"/>
+      <c r="CM4" s="28"/>
+      <c r="CN4" s="28"/>
+      <c r="CO4" s="28"/>
+      <c r="CP4" s="28"/>
+      <c r="CQ4" s="28"/>
+      <c r="CR4" s="28"/>
+      <c r="CS4" s="28"/>
+      <c r="CT4" s="28"/>
+      <c r="CU4" s="28"/>
+      <c r="CV4" s="28"/>
+      <c r="CW4" s="28"/>
+      <c r="CX4" s="28"/>
+      <c r="CY4" s="28"/>
+    </row>
+    <row r="5" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="44"/>
+      <c r="Z5" s="44"/>
+      <c r="AA5" s="44"/>
+      <c r="AB5" s="44"/>
+      <c r="AC5" s="44"/>
+      <c r="AD5" s="47"/>
+      <c r="AE5" s="44"/>
+      <c r="AF5" s="44"/>
+      <c r="AG5" s="44"/>
+      <c r="AH5" s="44"/>
+      <c r="AI5" s="44"/>
+      <c r="AJ5" s="44"/>
+      <c r="AK5" s="44"/>
+      <c r="AL5" s="44"/>
+      <c r="AM5" s="44"/>
+      <c r="AN5" s="48"/>
+      <c r="AO5" s="44"/>
+      <c r="AP5" s="44"/>
+      <c r="AQ5" s="44"/>
+      <c r="AR5" s="44"/>
+      <c r="AS5" s="44"/>
+      <c r="AT5" s="44"/>
+      <c r="AU5" s="44"/>
+      <c r="AV5" s="44"/>
+      <c r="AW5" s="44"/>
+      <c r="AX5" s="49"/>
+      <c r="AY5" s="44"/>
+      <c r="AZ5" s="44"/>
+      <c r="BA5" s="44"/>
+      <c r="BB5" s="50"/>
+      <c r="BC5" s="51">
+        <v>3</v>
+      </c>
+      <c r="BD5" s="28"/>
+      <c r="BE5" s="28"/>
+      <c r="BF5" s="28"/>
+      <c r="BG5" s="28"/>
+      <c r="BH5" s="28"/>
+      <c r="BI5" s="28"/>
+      <c r="BJ5" s="28"/>
+      <c r="BK5" s="28"/>
+      <c r="BL5" s="28"/>
+      <c r="BM5" s="28"/>
+      <c r="BN5" s="28"/>
+      <c r="BO5" s="28"/>
+      <c r="BP5" s="28"/>
+      <c r="BQ5" s="28"/>
+      <c r="BR5" s="28"/>
+      <c r="BS5" s="28"/>
+      <c r="BT5" s="28"/>
+      <c r="BU5" s="28"/>
+      <c r="BV5" s="28"/>
+      <c r="BW5" s="28"/>
+      <c r="BX5" s="28"/>
+      <c r="BY5" s="28"/>
+      <c r="BZ5" s="28"/>
+      <c r="CA5" s="28"/>
+      <c r="CB5" s="28"/>
+      <c r="CC5" s="28"/>
+      <c r="CD5" s="28"/>
+      <c r="CE5" s="28"/>
+      <c r="CF5" s="28"/>
+      <c r="CG5" s="28"/>
+      <c r="CH5" s="28"/>
+      <c r="CI5" s="28"/>
+      <c r="CJ5" s="28"/>
+      <c r="CK5" s="28"/>
+      <c r="CL5" s="28"/>
+      <c r="CM5" s="28"/>
+      <c r="CN5" s="28"/>
+      <c r="CO5" s="28"/>
+      <c r="CP5" s="28"/>
+      <c r="CQ5" s="28"/>
+      <c r="CR5" s="28"/>
+      <c r="CS5" s="28"/>
+      <c r="CT5" s="28"/>
+      <c r="CU5" s="28"/>
+      <c r="CV5" s="28"/>
+      <c r="CW5" s="28"/>
+      <c r="CX5" s="28"/>
+      <c r="CY5" s="28"/>
+    </row>
+    <row r="6" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="44"/>
+      <c r="Z6" s="44"/>
+      <c r="AA6" s="44"/>
+      <c r="AB6" s="44"/>
+      <c r="AC6" s="44"/>
+      <c r="AD6" s="47"/>
+      <c r="AE6" s="44"/>
+      <c r="AF6" s="44"/>
+      <c r="AG6" s="44"/>
+      <c r="AH6" s="44"/>
+      <c r="AI6" s="44"/>
+      <c r="AJ6" s="44"/>
+      <c r="AK6" s="44"/>
+      <c r="AL6" s="44"/>
+      <c r="AM6" s="44"/>
+      <c r="AN6" s="48"/>
+      <c r="AO6" s="44"/>
+      <c r="AP6" s="44"/>
+      <c r="AQ6" s="44"/>
+      <c r="AR6" s="44"/>
+      <c r="AS6" s="44"/>
+      <c r="AT6" s="44"/>
+      <c r="AU6" s="44"/>
+      <c r="AV6" s="44"/>
+      <c r="AW6" s="44"/>
+      <c r="AX6" s="49"/>
+      <c r="AY6" s="44"/>
+      <c r="AZ6" s="44"/>
+      <c r="BA6" s="44"/>
+      <c r="BB6" s="50"/>
+      <c r="BC6" s="51">
+        <v>4</v>
+      </c>
+      <c r="BD6" s="28"/>
+      <c r="BE6" s="28"/>
+      <c r="BF6" s="28"/>
+      <c r="BG6" s="28"/>
+      <c r="BH6" s="28"/>
+      <c r="BI6" s="28"/>
+      <c r="BJ6" s="28"/>
+      <c r="BK6" s="28"/>
+      <c r="BL6" s="28"/>
+      <c r="BM6" s="28"/>
+      <c r="BN6" s="28"/>
+      <c r="BO6" s="28"/>
+      <c r="BP6" s="28"/>
+      <c r="BQ6" s="28"/>
+      <c r="BR6" s="28"/>
+      <c r="BS6" s="28"/>
+      <c r="BT6" s="28"/>
+      <c r="BU6" s="28"/>
+      <c r="BV6" s="28"/>
+      <c r="BW6" s="28"/>
+      <c r="BX6" s="28"/>
+      <c r="BY6" s="28"/>
+      <c r="BZ6" s="28"/>
+      <c r="CA6" s="28"/>
+      <c r="CB6" s="28"/>
+      <c r="CC6" s="28"/>
+      <c r="CD6" s="28"/>
+      <c r="CE6" s="28"/>
+      <c r="CF6" s="28"/>
+      <c r="CG6" s="28"/>
+      <c r="CH6" s="28"/>
+      <c r="CI6" s="28"/>
+      <c r="CJ6" s="28"/>
+      <c r="CK6" s="28"/>
+      <c r="CL6" s="28"/>
+      <c r="CM6" s="28"/>
+      <c r="CN6" s="28"/>
+      <c r="CO6" s="28"/>
+      <c r="CP6" s="28"/>
+      <c r="CQ6" s="28"/>
+      <c r="CR6" s="28"/>
+      <c r="CS6" s="28"/>
+      <c r="CT6" s="28"/>
+      <c r="CU6" s="28"/>
+      <c r="CV6" s="28"/>
+      <c r="CW6" s="28"/>
+      <c r="CX6" s="28"/>
+      <c r="CY6" s="28"/>
+    </row>
+    <row r="7" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="44"/>
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="44"/>
+      <c r="AD7" s="47"/>
+      <c r="AE7" s="44"/>
+      <c r="AF7" s="44"/>
+      <c r="AG7" s="44"/>
+      <c r="AH7" s="44"/>
+      <c r="AI7" s="44"/>
+      <c r="AJ7" s="44"/>
+      <c r="AK7" s="44"/>
+      <c r="AL7" s="44"/>
+      <c r="AM7" s="44"/>
+      <c r="AN7" s="48"/>
+      <c r="AO7" s="44"/>
+      <c r="AP7" s="44"/>
+      <c r="AQ7" s="44"/>
+      <c r="AR7" s="44"/>
+      <c r="AS7" s="44"/>
+      <c r="AT7" s="44"/>
+      <c r="AU7" s="44"/>
+      <c r="AV7" s="44"/>
+      <c r="AW7" s="44"/>
+      <c r="AX7" s="49"/>
+      <c r="AY7" s="44"/>
+      <c r="AZ7" s="44"/>
+      <c r="BA7" s="44"/>
+      <c r="BB7" s="50"/>
+      <c r="BC7" s="51">
+        <v>5</v>
+      </c>
+      <c r="BD7" s="28"/>
+      <c r="BE7" s="28"/>
+      <c r="BF7" s="28"/>
+      <c r="BG7" s="28"/>
+      <c r="BH7" s="28"/>
+      <c r="BI7" s="28"/>
+      <c r="BJ7" s="28"/>
+      <c r="BK7" s="28"/>
+      <c r="BL7" s="28"/>
+      <c r="BM7" s="28"/>
+      <c r="BN7" s="28"/>
+      <c r="BO7" s="28"/>
+      <c r="BP7" s="28"/>
+      <c r="BQ7" s="28"/>
+      <c r="BR7" s="28"/>
+      <c r="BS7" s="28"/>
+      <c r="BT7" s="28"/>
+      <c r="BU7" s="28"/>
+      <c r="BV7" s="28"/>
+      <c r="BW7" s="28"/>
+      <c r="BX7" s="28"/>
+      <c r="BY7" s="28"/>
+      <c r="BZ7" s="28"/>
+      <c r="CA7" s="28"/>
+      <c r="CB7" s="28"/>
+      <c r="CC7" s="28"/>
+      <c r="CD7" s="28"/>
+      <c r="CE7" s="28"/>
+      <c r="CF7" s="28"/>
+      <c r="CG7" s="28"/>
+      <c r="CH7" s="28"/>
+      <c r="CI7" s="28"/>
+      <c r="CJ7" s="28"/>
+      <c r="CK7" s="28"/>
+      <c r="CL7" s="28"/>
+      <c r="CM7" s="28"/>
+      <c r="CN7" s="28"/>
+      <c r="CO7" s="28"/>
+      <c r="CP7" s="28"/>
+      <c r="CQ7" s="28"/>
+      <c r="CR7" s="28"/>
+      <c r="CS7" s="28"/>
+      <c r="CT7" s="28"/>
+      <c r="CU7" s="28"/>
+      <c r="CV7" s="28"/>
+      <c r="CW7" s="28"/>
+      <c r="CX7" s="28"/>
+      <c r="CY7" s="28"/>
+    </row>
+    <row r="8" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="44"/>
+      <c r="V8" s="44"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="44"/>
+      <c r="AD8" s="47"/>
+      <c r="AE8" s="44"/>
+      <c r="AF8" s="44"/>
+      <c r="AG8" s="44"/>
+      <c r="AH8" s="44"/>
+      <c r="AI8" s="44"/>
+      <c r="AJ8" s="44"/>
+      <c r="AK8" s="44"/>
+      <c r="AL8" s="44"/>
+      <c r="AM8" s="44"/>
+      <c r="AN8" s="48"/>
+      <c r="AO8" s="44"/>
+      <c r="AP8" s="44"/>
+      <c r="AQ8" s="44"/>
+      <c r="AR8" s="44"/>
+      <c r="AS8" s="44"/>
+      <c r="AT8" s="44"/>
+      <c r="AU8" s="44"/>
+      <c r="AV8" s="44"/>
+      <c r="AW8" s="44"/>
+      <c r="AX8" s="49"/>
+      <c r="AY8" s="44"/>
+      <c r="AZ8" s="44"/>
+      <c r="BA8" s="44"/>
+      <c r="BB8" s="50"/>
+      <c r="BC8" s="51">
+        <v>6</v>
+      </c>
+      <c r="BD8" s="28"/>
+      <c r="BE8" s="28"/>
+      <c r="BF8" s="28"/>
+      <c r="BG8" s="28"/>
+      <c r="BH8" s="28"/>
+      <c r="BI8" s="28"/>
+      <c r="BJ8" s="28"/>
+      <c r="BK8" s="28"/>
+      <c r="BL8" s="28"/>
+      <c r="BM8" s="28"/>
+      <c r="BN8" s="28"/>
+      <c r="BO8" s="28"/>
+      <c r="BP8" s="28"/>
+      <c r="BQ8" s="28"/>
+      <c r="BR8" s="28"/>
+      <c r="BS8" s="28"/>
+      <c r="BT8" s="28"/>
+      <c r="BU8" s="28"/>
+      <c r="BV8" s="28"/>
+      <c r="BW8" s="28"/>
+      <c r="BX8" s="28"/>
+      <c r="BY8" s="28"/>
+      <c r="BZ8" s="28"/>
+      <c r="CA8" s="28"/>
+      <c r="CB8" s="28"/>
+      <c r="CC8" s="28"/>
+      <c r="CD8" s="28"/>
+      <c r="CE8" s="28"/>
+      <c r="CF8" s="28"/>
+      <c r="CG8" s="28"/>
+      <c r="CH8" s="28"/>
+      <c r="CI8" s="28"/>
+      <c r="CJ8" s="28"/>
+      <c r="CK8" s="28"/>
+      <c r="CL8" s="28"/>
+      <c r="CM8" s="28"/>
+      <c r="CN8" s="28"/>
+      <c r="CO8" s="28"/>
+      <c r="CP8" s="28"/>
+      <c r="CQ8" s="28"/>
+      <c r="CR8" s="28"/>
+      <c r="CS8" s="28"/>
+      <c r="CT8" s="28"/>
+      <c r="CU8" s="28"/>
+      <c r="CV8" s="28"/>
+      <c r="CW8" s="28"/>
+      <c r="CX8" s="28"/>
+      <c r="CY8" s="28"/>
+    </row>
+    <row r="9" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="44"/>
+      <c r="V9" s="44"/>
+      <c r="W9" s="44"/>
+      <c r="X9" s="44"/>
+      <c r="Y9" s="44"/>
+      <c r="Z9" s="44"/>
+      <c r="AA9" s="44"/>
+      <c r="AB9" s="44"/>
+      <c r="AC9" s="44"/>
+      <c r="AD9" s="47"/>
+      <c r="AE9" s="44"/>
+      <c r="AF9" s="44"/>
+      <c r="AG9" s="44"/>
+      <c r="AH9" s="44"/>
+      <c r="AI9" s="44"/>
+      <c r="AJ9" s="44"/>
+      <c r="AK9" s="44"/>
+      <c r="AL9" s="44"/>
+      <c r="AM9" s="44"/>
+      <c r="AN9" s="48"/>
+      <c r="AO9" s="44"/>
+      <c r="AP9" s="44"/>
+      <c r="AQ9" s="44"/>
+      <c r="AR9" s="44"/>
+      <c r="AS9" s="44"/>
+      <c r="AT9" s="44"/>
+      <c r="AU9" s="44"/>
+      <c r="AV9" s="44"/>
+      <c r="AW9" s="44"/>
+      <c r="AX9" s="49"/>
+      <c r="AY9" s="44"/>
+      <c r="AZ9" s="44"/>
+      <c r="BA9" s="44"/>
+      <c r="BB9" s="50"/>
+      <c r="BC9" s="51">
+        <v>7</v>
+      </c>
+      <c r="BD9" s="28"/>
+      <c r="BE9" s="28"/>
+      <c r="BF9" s="28"/>
+      <c r="BG9" s="28"/>
+      <c r="BH9" s="28"/>
+      <c r="BI9" s="28"/>
+      <c r="BJ9" s="28"/>
+      <c r="BK9" s="28"/>
+      <c r="BL9" s="28"/>
+      <c r="BM9" s="28"/>
+      <c r="BN9" s="28"/>
+      <c r="BO9" s="28"/>
+      <c r="BP9" s="28"/>
+      <c r="BQ9" s="28"/>
+      <c r="BR9" s="28"/>
+      <c r="BS9" s="28"/>
+      <c r="BT9" s="28"/>
+      <c r="BU9" s="28"/>
+      <c r="BV9" s="28"/>
+      <c r="BW9" s="28"/>
+      <c r="BX9" s="28"/>
+      <c r="BY9" s="28"/>
+      <c r="BZ9" s="28"/>
+      <c r="CA9" s="28"/>
+      <c r="CB9" s="28"/>
+      <c r="CC9" s="28"/>
+      <c r="CD9" s="28"/>
+      <c r="CE9" s="28"/>
+      <c r="CF9" s="28"/>
+      <c r="CG9" s="28"/>
+      <c r="CH9" s="28"/>
+      <c r="CI9" s="28"/>
+      <c r="CJ9" s="28"/>
+      <c r="CK9" s="28"/>
+      <c r="CL9" s="28"/>
+      <c r="CM9" s="28"/>
+      <c r="CN9" s="28"/>
+      <c r="CO9" s="28"/>
+      <c r="CP9" s="28"/>
+      <c r="CQ9" s="28"/>
+      <c r="CR9" s="28"/>
+      <c r="CS9" s="28"/>
+      <c r="CT9" s="28"/>
+      <c r="CU9" s="28"/>
+      <c r="CV9" s="28"/>
+      <c r="CW9" s="28"/>
+      <c r="CX9" s="28"/>
+      <c r="CY9" s="28"/>
+    </row>
+    <row r="10" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="44"/>
+      <c r="V10" s="44"/>
+      <c r="W10" s="44"/>
+      <c r="X10" s="44"/>
+      <c r="Y10" s="44"/>
+      <c r="Z10" s="44"/>
+      <c r="AA10" s="44"/>
+      <c r="AB10" s="44"/>
+      <c r="AC10" s="44"/>
+      <c r="AD10" s="47"/>
+      <c r="AE10" s="44"/>
+      <c r="AF10" s="44"/>
+      <c r="AG10" s="44"/>
+      <c r="AH10" s="44"/>
+      <c r="AI10" s="44"/>
+      <c r="AJ10" s="44"/>
+      <c r="AK10" s="44"/>
+      <c r="AL10" s="44"/>
+      <c r="AM10" s="44"/>
+      <c r="AN10" s="48"/>
+      <c r="AO10" s="44"/>
+      <c r="AP10" s="44"/>
+      <c r="AQ10" s="44"/>
+      <c r="AR10" s="44"/>
+      <c r="AS10" s="44"/>
+      <c r="AT10" s="44"/>
+      <c r="AU10" s="44"/>
+      <c r="AV10" s="44"/>
+      <c r="AW10" s="44"/>
+      <c r="AX10" s="49"/>
+      <c r="AY10" s="44"/>
+      <c r="AZ10" s="44"/>
+      <c r="BA10" s="44"/>
+      <c r="BB10" s="50"/>
+      <c r="BC10" s="51">
+        <v>8</v>
+      </c>
+      <c r="BD10" s="28"/>
+      <c r="BE10" s="28"/>
+      <c r="BF10" s="28"/>
+      <c r="BG10" s="28"/>
+      <c r="BH10" s="28"/>
+      <c r="BI10" s="28"/>
+      <c r="BJ10" s="28"/>
+      <c r="BK10" s="28"/>
+      <c r="BL10" s="28"/>
+      <c r="BM10" s="28"/>
+      <c r="BN10" s="28"/>
+      <c r="BO10" s="28"/>
+      <c r="BP10" s="28"/>
+      <c r="BQ10" s="28"/>
+      <c r="BR10" s="28"/>
+      <c r="BS10" s="28"/>
+      <c r="BT10" s="28"/>
+      <c r="BU10" s="28"/>
+      <c r="BV10" s="28"/>
+      <c r="BW10" s="28"/>
+      <c r="BX10" s="28"/>
+      <c r="BY10" s="28"/>
+      <c r="BZ10" s="28"/>
+      <c r="CA10" s="28"/>
+      <c r="CB10" s="28"/>
+      <c r="CC10" s="28"/>
+      <c r="CD10" s="28"/>
+      <c r="CE10" s="28"/>
+      <c r="CF10" s="28"/>
+      <c r="CG10" s="28"/>
+      <c r="CH10" s="28"/>
+      <c r="CI10" s="28"/>
+      <c r="CJ10" s="28"/>
+      <c r="CK10" s="28"/>
+      <c r="CL10" s="28"/>
+      <c r="CM10" s="28"/>
+      <c r="CN10" s="28"/>
+      <c r="CO10" s="28"/>
+      <c r="CP10" s="28"/>
+      <c r="CQ10" s="28"/>
+      <c r="CR10" s="28"/>
+      <c r="CS10" s="28"/>
+      <c r="CT10" s="28"/>
+      <c r="CU10" s="28"/>
+      <c r="CV10" s="28"/>
+      <c r="CW10" s="28"/>
+      <c r="CX10" s="28"/>
+      <c r="CY10" s="28"/>
+    </row>
+    <row r="11" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="44"/>
+      <c r="Y11" s="44"/>
+      <c r="Z11" s="44"/>
+      <c r="AA11" s="44"/>
+      <c r="AB11" s="44"/>
+      <c r="AC11" s="44"/>
+      <c r="AD11" s="47"/>
+      <c r="AE11" s="44"/>
+      <c r="AF11" s="44"/>
+      <c r="AG11" s="44"/>
+      <c r="AH11" s="44"/>
+      <c r="AI11" s="44"/>
+      <c r="AJ11" s="44"/>
+      <c r="AK11" s="44"/>
+      <c r="AL11" s="44"/>
+      <c r="AM11" s="44"/>
+      <c r="AN11" s="48"/>
+      <c r="AO11" s="44"/>
+      <c r="AP11" s="44"/>
+      <c r="AQ11" s="44"/>
+      <c r="AR11" s="44"/>
+      <c r="AS11" s="44"/>
+      <c r="AT11" s="44"/>
+      <c r="AU11" s="44"/>
+      <c r="AV11" s="44"/>
+      <c r="AW11" s="44"/>
+      <c r="AX11" s="49"/>
+      <c r="AY11" s="44"/>
+      <c r="AZ11" s="44"/>
+      <c r="BA11" s="44"/>
+      <c r="BB11" s="50"/>
+      <c r="BC11" s="51">
+        <v>9</v>
+      </c>
+      <c r="BD11" s="28"/>
+      <c r="BE11" s="28"/>
+      <c r="BF11" s="28"/>
+      <c r="BG11" s="28"/>
+      <c r="BH11" s="28"/>
+      <c r="BI11" s="28"/>
+      <c r="BJ11" s="28"/>
+      <c r="BK11" s="28"/>
+      <c r="BL11" s="28"/>
+      <c r="BM11" s="28"/>
+      <c r="BN11" s="28"/>
+      <c r="BO11" s="28"/>
+      <c r="BP11" s="28"/>
+      <c r="BQ11" s="28"/>
+      <c r="BR11" s="28"/>
+      <c r="BS11" s="28"/>
+      <c r="BT11" s="28"/>
+      <c r="BU11" s="28"/>
+      <c r="BV11" s="28"/>
+      <c r="BW11" s="28"/>
+      <c r="BX11" s="28"/>
+      <c r="BY11" s="28"/>
+      <c r="BZ11" s="28"/>
+      <c r="CA11" s="28"/>
+      <c r="CB11" s="28"/>
+      <c r="CC11" s="28"/>
+      <c r="CD11" s="28"/>
+      <c r="CE11" s="28"/>
+      <c r="CF11" s="28"/>
+      <c r="CG11" s="28"/>
+      <c r="CH11" s="28"/>
+      <c r="CI11" s="28"/>
+      <c r="CJ11" s="28"/>
+      <c r="CK11" s="28"/>
+      <c r="CL11" s="28"/>
+      <c r="CM11" s="28"/>
+      <c r="CN11" s="28"/>
+      <c r="CO11" s="28"/>
+      <c r="CP11" s="28"/>
+      <c r="CQ11" s="28"/>
+      <c r="CR11" s="28"/>
+      <c r="CS11" s="28"/>
+      <c r="CT11" s="28"/>
+      <c r="CU11" s="28"/>
+      <c r="CV11" s="28"/>
+      <c r="CW11" s="28"/>
+      <c r="CX11" s="28"/>
+      <c r="CY11" s="28"/>
+    </row>
+    <row r="12" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="44"/>
+      <c r="X12" s="44"/>
+      <c r="Y12" s="44"/>
+      <c r="Z12" s="44"/>
+      <c r="AA12" s="44"/>
+      <c r="AB12" s="44"/>
+      <c r="AC12" s="44"/>
+      <c r="AD12" s="47"/>
+      <c r="AE12" s="44"/>
+      <c r="AF12" s="44"/>
+      <c r="AG12" s="44"/>
+      <c r="AH12" s="44"/>
+      <c r="AI12" s="44"/>
+      <c r="AJ12" s="44"/>
+      <c r="AK12" s="44"/>
+      <c r="AL12" s="44"/>
+      <c r="AM12" s="44"/>
+      <c r="AN12" s="48"/>
+      <c r="AO12" s="44"/>
+      <c r="AP12" s="44"/>
+      <c r="AQ12" s="44"/>
+      <c r="AR12" s="44"/>
+      <c r="AS12" s="44"/>
+      <c r="AT12" s="44"/>
+      <c r="AU12" s="44"/>
+      <c r="AV12" s="44"/>
+      <c r="AW12" s="44"/>
+      <c r="AX12" s="49"/>
+      <c r="AY12" s="44"/>
+      <c r="AZ12" s="44"/>
+      <c r="BA12" s="44"/>
+      <c r="BB12" s="50"/>
+      <c r="BC12" s="51">
+        <v>10</v>
+      </c>
+      <c r="BD12" s="28"/>
+      <c r="BE12" s="28"/>
+      <c r="BF12" s="28"/>
+      <c r="BG12" s="28"/>
+      <c r="BH12" s="28"/>
+      <c r="BI12" s="28"/>
+      <c r="BJ12" s="28"/>
+      <c r="BK12" s="28"/>
+      <c r="BL12" s="28"/>
+      <c r="BM12" s="28"/>
+      <c r="BN12" s="28"/>
+      <c r="BO12" s="28"/>
+      <c r="BP12" s="28"/>
+      <c r="BQ12" s="28"/>
+      <c r="BR12" s="28"/>
+      <c r="BS12" s="28"/>
+      <c r="BT12" s="28"/>
+      <c r="BU12" s="28"/>
+      <c r="BV12" s="28"/>
+      <c r="BW12" s="28"/>
+      <c r="BX12" s="28"/>
+      <c r="BY12" s="28"/>
+      <c r="BZ12" s="28"/>
+      <c r="CA12" s="28"/>
+      <c r="CB12" s="28"/>
+      <c r="CC12" s="28"/>
+      <c r="CD12" s="28"/>
+      <c r="CE12" s="28"/>
+      <c r="CF12" s="28"/>
+      <c r="CG12" s="28"/>
+      <c r="CH12" s="28"/>
+      <c r="CI12" s="28"/>
+      <c r="CJ12" s="28"/>
+      <c r="CK12" s="28"/>
+      <c r="CL12" s="28"/>
+      <c r="CM12" s="28"/>
+      <c r="CN12" s="28"/>
+      <c r="CO12" s="28"/>
+      <c r="CP12" s="28"/>
+      <c r="CQ12" s="28"/>
+      <c r="CR12" s="28"/>
+      <c r="CS12" s="28"/>
+      <c r="CT12" s="28"/>
+      <c r="CU12" s="28"/>
+      <c r="CV12" s="28"/>
+      <c r="CW12" s="28"/>
+      <c r="CX12" s="28"/>
+      <c r="CY12" s="28"/>
+    </row>
+    <row r="13" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="44"/>
+      <c r="Z13" s="44"/>
+      <c r="AA13" s="44"/>
+      <c r="AB13" s="44"/>
+      <c r="AC13" s="44"/>
+      <c r="AD13" s="47"/>
+      <c r="AE13" s="44"/>
+      <c r="AF13" s="44"/>
+      <c r="AG13" s="44"/>
+      <c r="AH13" s="44"/>
+      <c r="AI13" s="44"/>
+      <c r="AJ13" s="44"/>
+      <c r="AK13" s="44"/>
+      <c r="AL13" s="44"/>
+      <c r="AM13" s="44"/>
+      <c r="AN13" s="48"/>
+      <c r="AO13" s="44"/>
+      <c r="AP13" s="44"/>
+      <c r="AQ13" s="44"/>
+      <c r="AR13" s="44"/>
+      <c r="AS13" s="44"/>
+      <c r="AT13" s="44"/>
+      <c r="AU13" s="44"/>
+      <c r="AV13" s="44"/>
+      <c r="AW13" s="44"/>
+      <c r="AX13" s="49"/>
+      <c r="AY13" s="44"/>
+      <c r="AZ13" s="44"/>
+      <c r="BA13" s="44"/>
+      <c r="BB13" s="50"/>
+      <c r="BC13" s="51">
+        <v>11</v>
+      </c>
+      <c r="BD13" s="28"/>
+      <c r="BE13" s="28"/>
+      <c r="BF13" s="28"/>
+      <c r="BG13" s="28"/>
+      <c r="BH13" s="28"/>
+      <c r="BI13" s="28"/>
+      <c r="BJ13" s="28"/>
+      <c r="BK13" s="28"/>
+      <c r="BL13" s="28"/>
+      <c r="BM13" s="28"/>
+      <c r="BN13" s="28"/>
+      <c r="BO13" s="28"/>
+      <c r="BP13" s="28"/>
+      <c r="BQ13" s="28"/>
+      <c r="BR13" s="28"/>
+      <c r="BS13" s="28"/>
+      <c r="BT13" s="28"/>
+      <c r="BU13" s="28"/>
+      <c r="BV13" s="28"/>
+      <c r="BW13" s="28"/>
+      <c r="BX13" s="28"/>
+      <c r="BY13" s="28"/>
+      <c r="BZ13" s="28"/>
+      <c r="CA13" s="28"/>
+      <c r="CB13" s="28"/>
+      <c r="CC13" s="28"/>
+      <c r="CD13" s="28"/>
+      <c r="CE13" s="28"/>
+      <c r="CF13" s="28"/>
+      <c r="CG13" s="28"/>
+      <c r="CH13" s="28"/>
+      <c r="CI13" s="28"/>
+      <c r="CJ13" s="28"/>
+      <c r="CK13" s="28"/>
+      <c r="CL13" s="28"/>
+      <c r="CM13" s="28"/>
+      <c r="CN13" s="28"/>
+      <c r="CO13" s="28"/>
+      <c r="CP13" s="28"/>
+      <c r="CQ13" s="28"/>
+      <c r="CR13" s="28"/>
+      <c r="CS13" s="28"/>
+      <c r="CT13" s="28"/>
+      <c r="CU13" s="28"/>
+      <c r="CV13" s="28"/>
+      <c r="CW13" s="28"/>
+      <c r="CX13" s="28"/>
+      <c r="CY13" s="28"/>
+    </row>
+    <row r="14" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="44"/>
+      <c r="V14" s="44"/>
+      <c r="W14" s="44"/>
+      <c r="X14" s="44"/>
+      <c r="Y14" s="44"/>
+      <c r="Z14" s="44"/>
+      <c r="AA14" s="44"/>
+      <c r="AB14" s="44"/>
+      <c r="AC14" s="44"/>
+      <c r="AD14" s="44"/>
+      <c r="AE14" s="44"/>
+      <c r="AF14" s="44"/>
+      <c r="AG14" s="44"/>
+      <c r="AH14" s="44"/>
+      <c r="AI14" s="44"/>
+      <c r="AJ14" s="44"/>
+      <c r="AK14" s="44"/>
+      <c r="AL14" s="44"/>
+      <c r="AM14" s="44"/>
+      <c r="AN14" s="48"/>
+      <c r="AO14" s="44"/>
+      <c r="AP14" s="44"/>
+      <c r="AQ14" s="44"/>
+      <c r="AR14" s="44"/>
+      <c r="AS14" s="44"/>
+      <c r="AT14" s="44"/>
+      <c r="AU14" s="44"/>
+      <c r="AV14" s="44"/>
+      <c r="AW14" s="44"/>
+      <c r="AX14" s="49"/>
+      <c r="AY14" s="44"/>
+      <c r="AZ14" s="44"/>
+      <c r="BA14" s="44"/>
+      <c r="BB14" s="50"/>
+      <c r="BC14" s="51">
+        <v>12</v>
+      </c>
+      <c r="BD14" s="28"/>
+      <c r="BE14" s="28"/>
+      <c r="BF14" s="28"/>
+      <c r="BG14" s="28"/>
+      <c r="BH14" s="28"/>
+      <c r="BI14" s="28"/>
+      <c r="BJ14" s="28"/>
+      <c r="BK14" s="28"/>
+      <c r="BL14" s="28"/>
+      <c r="BM14" s="28"/>
+      <c r="BN14" s="28"/>
+      <c r="BO14" s="28"/>
+      <c r="BP14" s="28"/>
+      <c r="BQ14" s="28"/>
+      <c r="BR14" s="28"/>
+      <c r="BS14" s="28"/>
+      <c r="BT14" s="28"/>
+      <c r="BU14" s="28"/>
+      <c r="BV14" s="28"/>
+      <c r="BW14" s="28"/>
+      <c r="BX14" s="28"/>
+      <c r="BY14" s="28"/>
+      <c r="BZ14" s="28"/>
+      <c r="CA14" s="28"/>
+      <c r="CB14" s="28"/>
+      <c r="CC14" s="28"/>
+      <c r="CD14" s="28"/>
+      <c r="CE14" s="28"/>
+      <c r="CF14" s="28"/>
+      <c r="CG14" s="28"/>
+      <c r="CH14" s="28"/>
+      <c r="CI14" s="28"/>
+      <c r="CJ14" s="28"/>
+      <c r="CK14" s="28"/>
+      <c r="CL14" s="28"/>
+      <c r="CM14" s="28"/>
+      <c r="CN14" s="28"/>
+      <c r="CO14" s="28"/>
+      <c r="CP14" s="28"/>
+      <c r="CQ14" s="28"/>
+      <c r="CR14" s="28"/>
+      <c r="CS14" s="28"/>
+      <c r="CT14" s="28"/>
+      <c r="CU14" s="28"/>
+      <c r="CV14" s="28"/>
+      <c r="CW14" s="28"/>
+      <c r="CX14" s="28"/>
+      <c r="CY14" s="28"/>
+    </row>
+    <row r="15" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N15" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="46"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="44"/>
+      <c r="Z15" s="44"/>
+      <c r="AA15" s="44"/>
+      <c r="AB15" s="44"/>
+      <c r="AC15" s="44"/>
+      <c r="AD15" s="44"/>
+      <c r="AE15" s="44"/>
+      <c r="AF15" s="44"/>
+      <c r="AG15" s="44"/>
+      <c r="AH15" s="44"/>
+      <c r="AI15" s="44"/>
+      <c r="AJ15" s="44"/>
+      <c r="AK15" s="44"/>
+      <c r="AL15" s="44"/>
+      <c r="AM15" s="44"/>
+      <c r="AN15" s="48"/>
+      <c r="AO15" s="44"/>
+      <c r="AP15" s="44"/>
+      <c r="AQ15" s="44"/>
+      <c r="AR15" s="44"/>
+      <c r="AS15" s="44"/>
+      <c r="AT15" s="44"/>
+      <c r="AU15" s="44"/>
+      <c r="AV15" s="44"/>
+      <c r="AW15" s="44"/>
+      <c r="AX15" s="49"/>
+      <c r="AY15" s="44"/>
+      <c r="AZ15" s="44"/>
+      <c r="BA15" s="44"/>
+      <c r="BB15" s="50"/>
+      <c r="BC15" s="51">
+        <v>13</v>
+      </c>
+      <c r="BD15" s="28"/>
+      <c r="BE15" s="28"/>
+      <c r="BF15" s="28"/>
+      <c r="BG15" s="28"/>
+      <c r="BH15" s="28"/>
+      <c r="BI15" s="28"/>
+      <c r="BJ15" s="28"/>
+      <c r="BK15" s="28"/>
+      <c r="BL15" s="28"/>
+      <c r="BM15" s="28"/>
+      <c r="BN15" s="28"/>
+      <c r="BO15" s="28"/>
+      <c r="BP15" s="28"/>
+      <c r="BQ15" s="28"/>
+      <c r="BR15" s="28"/>
+      <c r="BS15" s="28"/>
+      <c r="BT15" s="28"/>
+      <c r="BU15" s="28"/>
+      <c r="BV15" s="28"/>
+      <c r="BW15" s="28"/>
+      <c r="BX15" s="28"/>
+      <c r="BY15" s="28"/>
+      <c r="BZ15" s="28"/>
+      <c r="CA15" s="28"/>
+      <c r="CB15" s="28"/>
+      <c r="CC15" s="28"/>
+      <c r="CD15" s="28"/>
+      <c r="CE15" s="28"/>
+      <c r="CF15" s="28"/>
+      <c r="CG15" s="28"/>
+      <c r="CH15" s="28"/>
+      <c r="CI15" s="28"/>
+      <c r="CJ15" s="28"/>
+      <c r="CK15" s="28"/>
+      <c r="CL15" s="28"/>
+      <c r="CM15" s="28"/>
+      <c r="CN15" s="28"/>
+      <c r="CO15" s="28"/>
+      <c r="CP15" s="28"/>
+      <c r="CQ15" s="28"/>
+      <c r="CR15" s="28"/>
+      <c r="CS15" s="28"/>
+      <c r="CT15" s="28"/>
+      <c r="CU15" s="28"/>
+      <c r="CV15" s="28"/>
+      <c r="CW15" s="28"/>
+      <c r="CX15" s="28"/>
+      <c r="CY15" s="28"/>
+    </row>
+    <row r="16" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="44"/>
+      <c r="X16" s="44"/>
+      <c r="Y16" s="44"/>
+      <c r="Z16" s="44"/>
+      <c r="AA16" s="44"/>
+      <c r="AB16" s="44"/>
+      <c r="AC16" s="44"/>
+      <c r="AD16" s="44"/>
+      <c r="AE16" s="44"/>
+      <c r="AF16" s="44"/>
+      <c r="AG16" s="44"/>
+      <c r="AH16" s="44"/>
+      <c r="AI16" s="44"/>
+      <c r="AJ16" s="44"/>
+      <c r="AK16" s="44"/>
+      <c r="AL16" s="44"/>
+      <c r="AM16" s="44"/>
+      <c r="AN16" s="48"/>
+      <c r="AO16" s="44"/>
+      <c r="AP16" s="44"/>
+      <c r="AQ16" s="44"/>
+      <c r="AR16" s="44"/>
+      <c r="AS16" s="44"/>
+      <c r="AT16" s="44"/>
+      <c r="AU16" s="44"/>
+      <c r="AV16" s="44"/>
+      <c r="AW16" s="44"/>
+      <c r="AX16" s="49"/>
+      <c r="AY16" s="44"/>
+      <c r="AZ16" s="44"/>
+      <c r="BA16" s="44"/>
+      <c r="BB16" s="50"/>
+      <c r="BC16" s="51">
+        <v>14</v>
+      </c>
+      <c r="BD16" s="28"/>
+      <c r="BE16" s="28"/>
+      <c r="BF16" s="28"/>
+      <c r="BG16" s="28"/>
+      <c r="BH16" s="28"/>
+      <c r="BI16" s="28"/>
+      <c r="BJ16" s="28"/>
+      <c r="BK16" s="28"/>
+      <c r="BL16" s="28"/>
+      <c r="BM16" s="28"/>
+      <c r="BN16" s="28"/>
+      <c r="BO16" s="28"/>
+      <c r="BP16" s="28"/>
+      <c r="BQ16" s="28"/>
+      <c r="BR16" s="28"/>
+      <c r="BS16" s="28"/>
+      <c r="BT16" s="28"/>
+      <c r="BU16" s="28"/>
+      <c r="BV16" s="28"/>
+      <c r="BW16" s="28"/>
+      <c r="BX16" s="28"/>
+      <c r="BY16" s="28"/>
+      <c r="BZ16" s="28"/>
+      <c r="CA16" s="28"/>
+      <c r="CB16" s="28"/>
+      <c r="CC16" s="28"/>
+      <c r="CD16" s="28"/>
+      <c r="CE16" s="28"/>
+      <c r="CF16" s="28"/>
+      <c r="CG16" s="28"/>
+      <c r="CH16" s="28"/>
+      <c r="CI16" s="28"/>
+      <c r="CJ16" s="28"/>
+      <c r="CK16" s="28"/>
+      <c r="CL16" s="28"/>
+      <c r="CM16" s="28"/>
+      <c r="CN16" s="28"/>
+      <c r="CO16" s="28"/>
+      <c r="CP16" s="28"/>
+      <c r="CQ16" s="28"/>
+      <c r="CR16" s="28"/>
+      <c r="CS16" s="28"/>
+      <c r="CT16" s="28"/>
+      <c r="CU16" s="28"/>
+      <c r="CV16" s="28"/>
+      <c r="CW16" s="28"/>
+      <c r="CX16" s="28"/>
+      <c r="CY16" s="28"/>
+    </row>
+    <row r="17" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="45"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="R17" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="S17" s="44"/>
+      <c r="T17" s="46"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="44"/>
+      <c r="W17" s="44"/>
+      <c r="X17" s="44"/>
+      <c r="Y17" s="44"/>
+      <c r="Z17" s="44"/>
+      <c r="AA17" s="44"/>
+      <c r="AB17" s="44"/>
+      <c r="AC17" s="44"/>
+      <c r="AD17" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE17" s="44"/>
+      <c r="AF17" s="44"/>
+      <c r="AG17" s="44"/>
+      <c r="AH17" s="44"/>
+      <c r="AI17" s="44"/>
+      <c r="AJ17" s="44"/>
+      <c r="AK17" s="44"/>
+      <c r="AL17" s="44"/>
+      <c r="AM17" s="44"/>
+      <c r="AN17" s="48"/>
+      <c r="AO17" s="44"/>
+      <c r="AP17" s="44"/>
+      <c r="AQ17" s="44"/>
+      <c r="AR17" s="44"/>
+      <c r="AS17" s="44"/>
+      <c r="AT17" s="44"/>
+      <c r="AU17" s="44"/>
+      <c r="AV17" s="44"/>
+      <c r="AW17" s="44"/>
+      <c r="AX17" s="49"/>
+      <c r="AY17" s="44"/>
+      <c r="AZ17" s="44"/>
+      <c r="BA17" s="44"/>
+      <c r="BB17" s="50"/>
+      <c r="BC17" s="51">
+        <v>15</v>
+      </c>
+      <c r="BD17" s="28"/>
+      <c r="BE17" s="28"/>
+      <c r="BF17" s="28"/>
+      <c r="BG17" s="28"/>
+      <c r="BH17" s="28"/>
+      <c r="BI17" s="28"/>
+      <c r="BJ17" s="28"/>
+      <c r="BK17" s="28"/>
+      <c r="BL17" s="28"/>
+      <c r="BM17" s="28"/>
+      <c r="BN17" s="28"/>
+      <c r="BO17" s="28"/>
+      <c r="BP17" s="28"/>
+      <c r="BQ17" s="28"/>
+      <c r="BR17" s="28"/>
+      <c r="BS17" s="28"/>
+      <c r="BT17" s="28"/>
+      <c r="BU17" s="28"/>
+      <c r="BV17" s="28"/>
+      <c r="BW17" s="28"/>
+      <c r="BX17" s="28"/>
+      <c r="BY17" s="28"/>
+      <c r="BZ17" s="28"/>
+      <c r="CA17" s="28"/>
+      <c r="CB17" s="28"/>
+      <c r="CC17" s="28"/>
+      <c r="CD17" s="28"/>
+      <c r="CE17" s="28"/>
+      <c r="CF17" s="28"/>
+      <c r="CG17" s="28"/>
+      <c r="CH17" s="28"/>
+      <c r="CI17" s="28"/>
+      <c r="CJ17" s="28"/>
+      <c r="CK17" s="28"/>
+      <c r="CL17" s="28"/>
+      <c r="CM17" s="28"/>
+      <c r="CN17" s="28"/>
+      <c r="CO17" s="28"/>
+      <c r="CP17" s="28"/>
+      <c r="CQ17" s="28"/>
+      <c r="CR17" s="28"/>
+      <c r="CS17" s="28"/>
+      <c r="CT17" s="28"/>
+      <c r="CU17" s="28"/>
+      <c r="CV17" s="28"/>
+      <c r="CW17" s="28"/>
+      <c r="CX17" s="28"/>
+      <c r="CY17" s="28"/>
+    </row>
+    <row r="18" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="44"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="S18" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="T18" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="U18" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="V18" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="W18" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="X18" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y18" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z18" s="44"/>
+      <c r="AA18" s="44"/>
+      <c r="AB18" s="44"/>
+      <c r="AC18" s="44"/>
+      <c r="AD18" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF18" s="44"/>
+      <c r="AG18" s="44"/>
+      <c r="AH18" s="44"/>
+      <c r="AI18" s="44"/>
+      <c r="AJ18" s="44"/>
+      <c r="AK18" s="44"/>
+      <c r="AL18" s="44"/>
+      <c r="AM18" s="44"/>
+      <c r="AN18" s="48"/>
+      <c r="AO18" s="44"/>
+      <c r="AP18" s="44"/>
+      <c r="AQ18" s="44"/>
+      <c r="AR18" s="44"/>
+      <c r="AS18" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT18" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX18" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC18" s="51">
+        <v>16</v>
+      </c>
+      <c r="BD18" s="28"/>
+      <c r="BE18" s="28"/>
+      <c r="BF18" s="28"/>
+      <c r="BG18" s="28"/>
+      <c r="BH18" s="28"/>
+      <c r="BI18" s="28"/>
+      <c r="BJ18" s="28"/>
+      <c r="BK18" s="28"/>
+      <c r="BL18" s="28"/>
+      <c r="BM18" s="28"/>
+      <c r="BN18" s="28"/>
+      <c r="BO18" s="28"/>
+      <c r="BP18" s="28"/>
+      <c r="BQ18" s="28"/>
+      <c r="BR18" s="28"/>
+      <c r="BS18" s="28"/>
+      <c r="BT18" s="28"/>
+      <c r="BU18" s="28"/>
+      <c r="BV18" s="28"/>
+      <c r="BW18" s="28"/>
+      <c r="BX18" s="28"/>
+      <c r="BY18" s="28"/>
+      <c r="BZ18" s="28"/>
+      <c r="CA18" s="28"/>
+      <c r="CB18" s="28"/>
+      <c r="CC18" s="28"/>
+      <c r="CD18" s="28"/>
+      <c r="CE18" s="28"/>
+      <c r="CF18" s="28"/>
+      <c r="CG18" s="28"/>
+      <c r="CH18" s="28"/>
+      <c r="CI18" s="28"/>
+      <c r="CJ18" s="28"/>
+      <c r="CK18" s="28"/>
+      <c r="CL18" s="28"/>
+      <c r="CM18" s="28"/>
+      <c r="CN18" s="28"/>
+      <c r="CO18" s="28"/>
+      <c r="CP18" s="28"/>
+      <c r="CQ18" s="28"/>
+      <c r="CR18" s="28"/>
+      <c r="CS18" s="28"/>
+      <c r="CT18" s="28"/>
+      <c r="CU18" s="28"/>
+      <c r="CV18" s="28"/>
+      <c r="CW18" s="28"/>
+      <c r="CX18" s="28"/>
+      <c r="CY18" s="28"/>
+    </row>
+    <row r="19" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y19" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z19" s="44"/>
+      <c r="AA19" s="44"/>
+      <c r="AB19" s="44"/>
+      <c r="AC19" s="44"/>
+      <c r="AD19" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE19" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG19" s="44"/>
+      <c r="AH19" s="44"/>
+      <c r="AI19" s="44"/>
+      <c r="AJ19" s="44"/>
+      <c r="AK19" s="44"/>
+      <c r="AL19" s="44"/>
+      <c r="AM19" s="44"/>
+      <c r="AN19" s="48"/>
+      <c r="AO19" s="44"/>
+      <c r="AP19" s="44"/>
+      <c r="AQ19" s="44"/>
+      <c r="AR19" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS19" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT19" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU19" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV19" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW19" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX19" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY19" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ19" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA19" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB19" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC19" s="51">
+        <v>17</v>
+      </c>
+      <c r="BD19" s="28"/>
+      <c r="BE19" s="28"/>
+      <c r="BF19" s="28"/>
+      <c r="BG19" s="28"/>
+      <c r="BH19" s="28"/>
+      <c r="BI19" s="28"/>
+      <c r="BJ19" s="28"/>
+      <c r="BK19" s="28"/>
+      <c r="BL19" s="28"/>
+      <c r="BM19" s="28"/>
+      <c r="BN19" s="28"/>
+      <c r="BO19" s="28"/>
+      <c r="BP19" s="28"/>
+      <c r="BQ19" s="28"/>
+      <c r="BR19" s="28"/>
+      <c r="BS19" s="28"/>
+      <c r="BT19" s="28"/>
+      <c r="BU19" s="28"/>
+      <c r="BV19" s="28"/>
+      <c r="BW19" s="28"/>
+      <c r="BX19" s="28"/>
+      <c r="BY19" s="28"/>
+      <c r="BZ19" s="28"/>
+      <c r="CA19" s="28"/>
+      <c r="CB19" s="28"/>
+      <c r="CC19" s="28"/>
+      <c r="CD19" s="28"/>
+      <c r="CE19" s="28"/>
+      <c r="CF19" s="28"/>
+      <c r="CG19" s="28"/>
+      <c r="CH19" s="28"/>
+      <c r="CI19" s="28"/>
+      <c r="CJ19" s="28"/>
+      <c r="CK19" s="28"/>
+      <c r="CL19" s="28"/>
+      <c r="CM19" s="28"/>
+      <c r="CN19" s="28"/>
+      <c r="CO19" s="28"/>
+      <c r="CP19" s="28"/>
+      <c r="CQ19" s="28"/>
+      <c r="CR19" s="28"/>
+      <c r="CS19" s="28"/>
+      <c r="CT19" s="28"/>
+      <c r="CU19" s="28"/>
+      <c r="CV19" s="28"/>
+      <c r="CW19" s="28"/>
+      <c r="CX19" s="28"/>
+      <c r="CY19" s="28"/>
+    </row>
+    <row r="20" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y20" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z20" s="44"/>
+      <c r="AA20" s="44"/>
+      <c r="AB20" s="44"/>
+      <c r="AC20" s="44"/>
+      <c r="AD20" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE20" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF20" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG20" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH20" s="44"/>
+      <c r="AI20" s="44"/>
+      <c r="AJ20" s="44"/>
+      <c r="AK20" s="44"/>
+      <c r="AL20" s="44"/>
+      <c r="AM20" s="44"/>
+      <c r="AN20" s="48"/>
+      <c r="AO20" s="44"/>
+      <c r="AP20" s="44"/>
+      <c r="AQ20" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR20" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS20" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT20" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU20" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV20" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW20" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX20" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY20" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ20" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA20" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB20" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC20" s="51">
+        <v>18</v>
+      </c>
+      <c r="BD20" s="28"/>
+      <c r="BE20" s="28"/>
+      <c r="BF20" s="28"/>
+      <c r="BG20" s="28"/>
+      <c r="BH20" s="28"/>
+      <c r="BI20" s="28"/>
+      <c r="BJ20" s="28"/>
+      <c r="BK20" s="28"/>
+      <c r="BL20" s="28"/>
+      <c r="BM20" s="28"/>
+      <c r="BN20" s="28"/>
+      <c r="BO20" s="28"/>
+      <c r="BP20" s="28"/>
+      <c r="BQ20" s="28"/>
+      <c r="BR20" s="28"/>
+      <c r="BS20" s="28"/>
+      <c r="BT20" s="28"/>
+      <c r="BU20" s="28"/>
+      <c r="BV20" s="28"/>
+      <c r="BW20" s="28"/>
+      <c r="BX20" s="28"/>
+      <c r="BY20" s="28"/>
+      <c r="BZ20" s="28"/>
+      <c r="CA20" s="28"/>
+      <c r="CB20" s="28"/>
+      <c r="CC20" s="28"/>
+      <c r="CD20" s="28"/>
+      <c r="CE20" s="28"/>
+      <c r="CF20" s="28"/>
+      <c r="CG20" s="28"/>
+      <c r="CH20" s="28"/>
+      <c r="CI20" s="28"/>
+      <c r="CJ20" s="28"/>
+      <c r="CK20" s="28"/>
+      <c r="CL20" s="28"/>
+      <c r="CM20" s="28"/>
+      <c r="CN20" s="28"/>
+      <c r="CO20" s="28"/>
+      <c r="CP20" s="28"/>
+      <c r="CQ20" s="28"/>
+      <c r="CR20" s="28"/>
+      <c r="CS20" s="28"/>
+      <c r="CT20" s="28"/>
+      <c r="CU20" s="28"/>
+      <c r="CV20" s="28"/>
+      <c r="CW20" s="28"/>
+      <c r="CX20" s="28"/>
+      <c r="CY20" s="28"/>
+    </row>
+    <row r="21" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y21" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z21" s="44"/>
+      <c r="AA21" s="44"/>
+      <c r="AB21" s="44"/>
+      <c r="AC21" s="44"/>
+      <c r="AD21" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE21" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF21" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG21" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH21" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR21" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS21" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT21" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU21" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV21" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW21" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX21" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY21" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ21" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA21" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB21" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC21" s="51">
+        <v>19</v>
+      </c>
+      <c r="BD21" s="28"/>
+      <c r="BE21" s="28"/>
+      <c r="BF21" s="28"/>
+      <c r="BG21" s="28"/>
+      <c r="BH21" s="28"/>
+      <c r="BI21" s="28"/>
+      <c r="BJ21" s="28"/>
+      <c r="BK21" s="28"/>
+      <c r="BL21" s="28"/>
+      <c r="BM21" s="28"/>
+      <c r="BN21" s="28"/>
+      <c r="BO21" s="28"/>
+      <c r="BP21" s="28"/>
+      <c r="BQ21" s="28"/>
+      <c r="BR21" s="28"/>
+      <c r="BS21" s="28"/>
+      <c r="BT21" s="28"/>
+      <c r="BU21" s="28"/>
+      <c r="BV21" s="28"/>
+      <c r="BW21" s="28"/>
+      <c r="BX21" s="28"/>
+      <c r="BY21" s="28"/>
+      <c r="BZ21" s="28"/>
+      <c r="CA21" s="28"/>
+      <c r="CB21" s="28"/>
+      <c r="CC21" s="28"/>
+      <c r="CD21" s="28"/>
+      <c r="CE21" s="28"/>
+      <c r="CF21" s="28"/>
+      <c r="CG21" s="28"/>
+      <c r="CH21" s="28"/>
+      <c r="CI21" s="28"/>
+      <c r="CJ21" s="28"/>
+      <c r="CK21" s="28"/>
+      <c r="CL21" s="28"/>
+      <c r="CM21" s="28"/>
+      <c r="CN21" s="28"/>
+      <c r="CO21" s="28"/>
+      <c r="CP21" s="28"/>
+      <c r="CQ21" s="28"/>
+      <c r="CR21" s="28"/>
+      <c r="CS21" s="28"/>
+      <c r="CT21" s="28"/>
+      <c r="CU21" s="28"/>
+      <c r="CV21" s="28"/>
+      <c r="CW21" s="28"/>
+      <c r="CX21" s="28"/>
+      <c r="CY21" s="28"/>
+    </row>
+    <row r="22" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="44"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="44"/>
+      <c r="X22" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y22" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z22" s="44"/>
+      <c r="AA22" s="44"/>
+      <c r="AB22" s="44"/>
+      <c r="AC22" s="44"/>
+      <c r="AD22" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE22" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF22" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG22" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH22" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI22" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ22" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK22" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL22" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM22" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN22" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO22" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP22" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ22" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR22" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS22" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT22" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU22" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV22" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW22" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX22" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY22" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ22" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA22" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB22" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC22" s="51">
+        <v>20</v>
+      </c>
+      <c r="BD22" s="28"/>
+      <c r="BE22" s="28"/>
+      <c r="BF22" s="28"/>
+      <c r="BG22" s="28"/>
+      <c r="BH22" s="28"/>
+      <c r="BI22" s="28"/>
+      <c r="BJ22" s="28"/>
+      <c r="BK22" s="28"/>
+      <c r="BL22" s="28"/>
+      <c r="BM22" s="28"/>
+      <c r="BN22" s="28"/>
+      <c r="BO22" s="28"/>
+      <c r="BP22" s="28"/>
+      <c r="BQ22" s="28"/>
+      <c r="BR22" s="28"/>
+      <c r="BS22" s="28"/>
+      <c r="BT22" s="28"/>
+      <c r="BU22" s="28"/>
+      <c r="BV22" s="28"/>
+      <c r="BW22" s="28"/>
+      <c r="BX22" s="28"/>
+      <c r="BY22" s="28"/>
+      <c r="BZ22" s="28"/>
+      <c r="CA22" s="28"/>
+      <c r="CB22" s="28"/>
+      <c r="CC22" s="28"/>
+      <c r="CD22" s="28"/>
+      <c r="CE22" s="28"/>
+      <c r="CF22" s="28"/>
+      <c r="CG22" s="28"/>
+      <c r="CH22" s="28"/>
+      <c r="CI22" s="28"/>
+      <c r="CJ22" s="28"/>
+      <c r="CK22" s="28"/>
+      <c r="CL22" s="28"/>
+      <c r="CM22" s="28"/>
+      <c r="CN22" s="28"/>
+      <c r="CO22" s="28"/>
+      <c r="CP22" s="28"/>
+      <c r="CQ22" s="28"/>
+      <c r="CR22" s="28"/>
+      <c r="CS22" s="28"/>
+      <c r="CT22" s="28"/>
+      <c r="CU22" s="28"/>
+      <c r="CV22" s="28"/>
+      <c r="CW22" s="28"/>
+      <c r="CX22" s="28"/>
+      <c r="CY22" s="28"/>
+    </row>
+    <row r="23" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="46"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="44"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y23" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z23" s="44"/>
+      <c r="AA23" s="44"/>
+      <c r="AB23" s="44"/>
+      <c r="AC23" s="44"/>
+      <c r="AD23" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE23" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF23" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG23" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH23" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI23" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ23" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK23" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL23" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM23" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN23" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO23" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP23" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ23" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR23" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS23" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT23" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU23" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV23" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW23" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX23" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY23" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ23" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA23" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB23" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC23" s="51">
+        <v>21</v>
+      </c>
+      <c r="BD23" s="28"/>
+      <c r="BE23" s="28"/>
+      <c r="BF23" s="28"/>
+      <c r="BG23" s="28"/>
+      <c r="BH23" s="28"/>
+      <c r="BI23" s="28"/>
+      <c r="BJ23" s="28"/>
+      <c r="BK23" s="28"/>
+      <c r="BL23" s="28"/>
+      <c r="BM23" s="28"/>
+      <c r="BN23" s="28"/>
+      <c r="BO23" s="28"/>
+      <c r="BP23" s="28"/>
+      <c r="BQ23" s="28"/>
+      <c r="BR23" s="28"/>
+      <c r="BS23" s="28"/>
+      <c r="BT23" s="28"/>
+      <c r="BU23" s="28"/>
+      <c r="BV23" s="28"/>
+      <c r="BW23" s="28"/>
+      <c r="BX23" s="28"/>
+      <c r="BY23" s="28"/>
+      <c r="BZ23" s="28"/>
+      <c r="CA23" s="28"/>
+      <c r="CB23" s="28"/>
+      <c r="CC23" s="28"/>
+      <c r="CD23" s="28"/>
+      <c r="CE23" s="28"/>
+      <c r="CF23" s="28"/>
+      <c r="CG23" s="28"/>
+      <c r="CH23" s="28"/>
+      <c r="CI23" s="28"/>
+      <c r="CJ23" s="28"/>
+      <c r="CK23" s="28"/>
+      <c r="CL23" s="28"/>
+      <c r="CM23" s="28"/>
+      <c r="CN23" s="28"/>
+      <c r="CO23" s="28"/>
+      <c r="CP23" s="28"/>
+      <c r="CQ23" s="28"/>
+      <c r="CR23" s="28"/>
+      <c r="CS23" s="28"/>
+      <c r="CT23" s="28"/>
+      <c r="CU23" s="28"/>
+      <c r="CV23" s="28"/>
+      <c r="CW23" s="28"/>
+      <c r="CX23" s="28"/>
+      <c r="CY23" s="28"/>
+    </row>
+    <row r="24" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="46"/>
+      <c r="U24" s="44"/>
+      <c r="V24" s="44"/>
+      <c r="W24" s="44"/>
+      <c r="X24" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y24" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z24" s="44"/>
+      <c r="AA24" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB24" s="44"/>
+      <c r="AC24" s="44"/>
+      <c r="AD24" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE24" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF24" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG24" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH24" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI24" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ24" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK24" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL24" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM24" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN24" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO24" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP24" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ24" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR24" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS24" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT24" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU24" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV24" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW24" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX24" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY24" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ24" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA24" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB24" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC24" s="51">
+        <v>22</v>
+      </c>
+      <c r="BD24" s="28"/>
+      <c r="BE24" s="28"/>
+      <c r="BF24" s="28"/>
+      <c r="BG24" s="28"/>
+      <c r="BH24" s="28"/>
+      <c r="BI24" s="28"/>
+      <c r="BJ24" s="28"/>
+      <c r="BK24" s="28"/>
+      <c r="BL24" s="28"/>
+      <c r="BM24" s="28"/>
+      <c r="BN24" s="28"/>
+      <c r="BO24" s="28"/>
+      <c r="BP24" s="28"/>
+      <c r="BQ24" s="28"/>
+      <c r="BR24" s="28"/>
+      <c r="BS24" s="28"/>
+      <c r="BT24" s="28"/>
+      <c r="BU24" s="28"/>
+      <c r="BV24" s="28"/>
+      <c r="BW24" s="28"/>
+      <c r="BX24" s="28"/>
+      <c r="BY24" s="28"/>
+      <c r="BZ24" s="28"/>
+      <c r="CA24" s="28"/>
+      <c r="CB24" s="28"/>
+      <c r="CC24" s="28"/>
+      <c r="CD24" s="28"/>
+      <c r="CE24" s="28"/>
+      <c r="CF24" s="28"/>
+      <c r="CG24" s="28"/>
+      <c r="CH24" s="28"/>
+      <c r="CI24" s="28"/>
+      <c r="CJ24" s="28"/>
+      <c r="CK24" s="28"/>
+      <c r="CL24" s="28"/>
+      <c r="CM24" s="28"/>
+      <c r="CN24" s="28"/>
+      <c r="CO24" s="28"/>
+      <c r="CP24" s="28"/>
+      <c r="CQ24" s="28"/>
+      <c r="CR24" s="28"/>
+      <c r="CS24" s="28"/>
+      <c r="CT24" s="28"/>
+      <c r="CU24" s="28"/>
+      <c r="CV24" s="28"/>
+      <c r="CW24" s="28"/>
+      <c r="CX24" s="28"/>
+      <c r="CY24" s="28"/>
+    </row>
+    <row r="25" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="46"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="44"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y25" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE25" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF25" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG25" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH25" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI25" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ25" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK25" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL25" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM25" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN25" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO25" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP25" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ25" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR25" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS25" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT25" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU25" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV25" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW25" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX25" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY25" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ25" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA25" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB25" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC25" s="51">
+        <v>23</v>
+      </c>
+      <c r="BD25" s="28"/>
+      <c r="BE25" s="28"/>
+      <c r="BF25" s="28"/>
+      <c r="BG25" s="28"/>
+      <c r="BH25" s="28"/>
+      <c r="BI25" s="28"/>
+      <c r="BJ25" s="28"/>
+      <c r="BK25" s="28"/>
+      <c r="BL25" s="28"/>
+      <c r="BM25" s="28"/>
+      <c r="BN25" s="28"/>
+      <c r="BO25" s="28"/>
+      <c r="BP25" s="28"/>
+      <c r="BQ25" s="28"/>
+      <c r="BR25" s="28"/>
+      <c r="BS25" s="28"/>
+      <c r="BT25" s="28"/>
+      <c r="BU25" s="28"/>
+      <c r="BV25" s="28"/>
+      <c r="BW25" s="28"/>
+      <c r="BX25" s="28"/>
+      <c r="BY25" s="28"/>
+      <c r="BZ25" s="28"/>
+      <c r="CA25" s="28"/>
+      <c r="CB25" s="28"/>
+      <c r="CC25" s="28"/>
+      <c r="CD25" s="28"/>
+      <c r="CE25" s="28"/>
+      <c r="CF25" s="28"/>
+      <c r="CG25" s="28"/>
+      <c r="CH25" s="28"/>
+      <c r="CI25" s="28"/>
+      <c r="CJ25" s="28"/>
+      <c r="CK25" s="28"/>
+      <c r="CL25" s="28"/>
+      <c r="CM25" s="28"/>
+      <c r="CN25" s="28"/>
+      <c r="CO25" s="28"/>
+      <c r="CP25" s="28"/>
+      <c r="CQ25" s="28"/>
+      <c r="CR25" s="28"/>
+      <c r="CS25" s="28"/>
+      <c r="CT25" s="28"/>
+      <c r="CU25" s="28"/>
+      <c r="CV25" s="28"/>
+      <c r="CW25" s="28"/>
+      <c r="CX25" s="28"/>
+      <c r="CY25" s="28"/>
+    </row>
+    <row r="26" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="46"/>
+      <c r="U26" s="44"/>
+      <c r="V26" s="44"/>
+      <c r="W26" s="44"/>
+      <c r="X26" s="44"/>
+      <c r="Y26" s="44"/>
+      <c r="Z26" s="44"/>
+      <c r="AA26" s="44"/>
+      <c r="AB26" s="44"/>
+      <c r="AC26" s="44"/>
+      <c r="AD26" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF26" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG26" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH26" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI26" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ26" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK26" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL26" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM26" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN26" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO26" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP26" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ26" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR26" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS26" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT26" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU26" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV26" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW26" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX26" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY26" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ26" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA26" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB26" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC26" s="51">
+        <v>24</v>
+      </c>
+      <c r="BD26" s="28"/>
+      <c r="BE26" s="28"/>
+      <c r="BF26" s="28"/>
+      <c r="BG26" s="28"/>
+      <c r="BH26" s="28"/>
+      <c r="BI26" s="28"/>
+      <c r="BJ26" s="28"/>
+      <c r="BK26" s="28"/>
+      <c r="BL26" s="28"/>
+      <c r="BM26" s="28"/>
+      <c r="BN26" s="28"/>
+      <c r="BO26" s="28"/>
+      <c r="BP26" s="28"/>
+      <c r="BQ26" s="28"/>
+      <c r="BR26" s="28"/>
+      <c r="BS26" s="28"/>
+      <c r="BT26" s="28"/>
+      <c r="BU26" s="28"/>
+      <c r="BV26" s="28"/>
+      <c r="BW26" s="28"/>
+      <c r="BX26" s="28"/>
+      <c r="BY26" s="28"/>
+      <c r="BZ26" s="28"/>
+      <c r="CA26" s="28"/>
+      <c r="CB26" s="28"/>
+      <c r="CC26" s="28"/>
+      <c r="CD26" s="28"/>
+      <c r="CE26" s="28"/>
+      <c r="CF26" s="28"/>
+      <c r="CG26" s="28"/>
+      <c r="CH26" s="28"/>
+      <c r="CI26" s="28"/>
+      <c r="CJ26" s="28"/>
+      <c r="CK26" s="28"/>
+      <c r="CL26" s="28"/>
+      <c r="CM26" s="28"/>
+      <c r="CN26" s="28"/>
+      <c r="CO26" s="28"/>
+      <c r="CP26" s="28"/>
+      <c r="CQ26" s="28"/>
+      <c r="CR26" s="28"/>
+      <c r="CS26" s="28"/>
+      <c r="CT26" s="28"/>
+      <c r="CU26" s="28"/>
+      <c r="CV26" s="28"/>
+      <c r="CW26" s="28"/>
+      <c r="CX26" s="28"/>
+      <c r="CY26" s="28"/>
+    </row>
+    <row r="27" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="46"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="44"/>
+      <c r="Y27" s="44"/>
+      <c r="Z27" s="44"/>
+      <c r="AA27" s="44"/>
+      <c r="AB27" s="44"/>
+      <c r="AC27" s="44"/>
+      <c r="AD27" s="47"/>
+      <c r="AE27" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF27" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG27" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH27" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI27" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ27" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK27" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL27" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM27" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN27" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO27" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP27" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ27" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR27" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS27" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT27" s="44"/>
+      <c r="AU27" s="44"/>
+      <c r="AV27" s="44"/>
+      <c r="AW27" s="44"/>
+      <c r="AX27" s="49"/>
+      <c r="AY27" s="44"/>
+      <c r="AZ27" s="44"/>
+      <c r="BA27" s="44"/>
+      <c r="BB27" s="50"/>
+      <c r="BC27" s="51">
+        <v>25</v>
+      </c>
+      <c r="BD27" s="28"/>
+      <c r="BE27" s="28"/>
+      <c r="BF27" s="28"/>
+      <c r="BG27" s="28"/>
+      <c r="BH27" s="28"/>
+      <c r="BI27" s="28"/>
+      <c r="BJ27" s="28"/>
+      <c r="BK27" s="28"/>
+      <c r="BL27" s="28"/>
+      <c r="BM27" s="28"/>
+      <c r="BN27" s="28"/>
+      <c r="BO27" s="28"/>
+      <c r="BP27" s="28"/>
+      <c r="BQ27" s="28"/>
+      <c r="BR27" s="28"/>
+      <c r="BS27" s="28"/>
+      <c r="BT27" s="28"/>
+      <c r="BU27" s="28"/>
+      <c r="BV27" s="28"/>
+      <c r="BW27" s="28"/>
+      <c r="BX27" s="28"/>
+      <c r="BY27" s="28"/>
+      <c r="BZ27" s="28"/>
+      <c r="CA27" s="28"/>
+      <c r="CB27" s="28"/>
+      <c r="CC27" s="28"/>
+      <c r="CD27" s="28"/>
+      <c r="CE27" s="28"/>
+      <c r="CF27" s="28"/>
+      <c r="CG27" s="28"/>
+      <c r="CH27" s="28"/>
+      <c r="CI27" s="28"/>
+      <c r="CJ27" s="28"/>
+      <c r="CK27" s="28"/>
+      <c r="CL27" s="28"/>
+      <c r="CM27" s="28"/>
+      <c r="CN27" s="28"/>
+      <c r="CO27" s="28"/>
+      <c r="CP27" s="28"/>
+      <c r="CQ27" s="28"/>
+      <c r="CR27" s="28"/>
+      <c r="CS27" s="28"/>
+      <c r="CT27" s="28"/>
+      <c r="CU27" s="28"/>
+      <c r="CV27" s="28"/>
+      <c r="CW27" s="28"/>
+      <c r="CX27" s="28"/>
+      <c r="CY27" s="28"/>
+    </row>
+    <row r="28" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="44"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="44"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="46"/>
+      <c r="U28" s="44"/>
+      <c r="V28" s="44"/>
+      <c r="W28" s="44"/>
+      <c r="X28" s="44"/>
+      <c r="Y28" s="44"/>
+      <c r="Z28" s="44"/>
+      <c r="AA28" s="44"/>
+      <c r="AB28" s="44"/>
+      <c r="AC28" s="44"/>
+      <c r="AD28" s="47"/>
+      <c r="AE28" s="44"/>
+      <c r="AF28" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG28" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH28" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI28" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ28" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK28" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL28" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM28" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN28" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO28" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP28" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ28" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR28" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS28" s="44"/>
+      <c r="AT28" s="44"/>
+      <c r="AU28" s="44"/>
+      <c r="AV28" s="44"/>
+      <c r="AW28" s="44"/>
+      <c r="AX28" s="49"/>
+      <c r="AY28" s="44"/>
+      <c r="AZ28" s="44"/>
+      <c r="BA28" s="44"/>
+      <c r="BB28" s="50"/>
+      <c r="BC28" s="51">
+        <v>26</v>
+      </c>
+      <c r="BD28" s="28"/>
+      <c r="BE28" s="28"/>
+      <c r="BF28" s="28"/>
+      <c r="BG28" s="28"/>
+      <c r="BH28" s="28"/>
+      <c r="BI28" s="28"/>
+      <c r="BJ28" s="28"/>
+      <c r="BK28" s="28"/>
+      <c r="BL28" s="28"/>
+      <c r="BM28" s="28"/>
+      <c r="BN28" s="28"/>
+      <c r="BO28" s="28"/>
+      <c r="BP28" s="28"/>
+      <c r="BQ28" s="28"/>
+      <c r="BR28" s="28"/>
+      <c r="BS28" s="28"/>
+      <c r="BT28" s="28"/>
+      <c r="BU28" s="28"/>
+      <c r="BV28" s="28"/>
+      <c r="BW28" s="28"/>
+      <c r="BX28" s="28"/>
+      <c r="BY28" s="28"/>
+      <c r="BZ28" s="28"/>
+      <c r="CA28" s="28"/>
+      <c r="CB28" s="28"/>
+      <c r="CC28" s="28"/>
+      <c r="CD28" s="28"/>
+      <c r="CE28" s="28"/>
+      <c r="CF28" s="28"/>
+      <c r="CG28" s="28"/>
+      <c r="CH28" s="28"/>
+      <c r="CI28" s="28"/>
+      <c r="CJ28" s="28"/>
+      <c r="CK28" s="28"/>
+      <c r="CL28" s="28"/>
+      <c r="CM28" s="28"/>
+      <c r="CN28" s="28"/>
+      <c r="CO28" s="28"/>
+      <c r="CP28" s="28"/>
+      <c r="CQ28" s="28"/>
+      <c r="CR28" s="28"/>
+      <c r="CS28" s="28"/>
+      <c r="CT28" s="28"/>
+      <c r="CU28" s="28"/>
+      <c r="CV28" s="28"/>
+      <c r="CW28" s="28"/>
+      <c r="CX28" s="28"/>
+      <c r="CY28" s="28"/>
+    </row>
+    <row r="29" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="46"/>
+      <c r="U29" s="44"/>
+      <c r="V29" s="44"/>
+      <c r="W29" s="44"/>
+      <c r="X29" s="44"/>
+      <c r="Y29" s="44"/>
+      <c r="Z29" s="44"/>
+      <c r="AA29" s="44"/>
+      <c r="AB29" s="44"/>
+      <c r="AC29" s="44"/>
+      <c r="AD29" s="47"/>
+      <c r="AE29" s="44"/>
+      <c r="AF29" s="44"/>
+      <c r="AG29" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH29" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP29" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR29" s="44"/>
+      <c r="AS29" s="44"/>
+      <c r="AT29" s="44"/>
+      <c r="AU29" s="44"/>
+      <c r="AV29" s="44"/>
+      <c r="AW29" s="44"/>
+      <c r="AX29" s="49"/>
+      <c r="AY29" s="44"/>
+      <c r="AZ29" s="44"/>
+      <c r="BA29" s="44"/>
+      <c r="BB29" s="50"/>
+      <c r="BC29" s="51">
+        <v>27</v>
+      </c>
+      <c r="BD29" s="28"/>
+      <c r="BE29" s="28"/>
+      <c r="BF29" s="28"/>
+      <c r="BG29" s="28"/>
+      <c r="BH29" s="28"/>
+      <c r="BI29" s="28"/>
+      <c r="BJ29" s="28"/>
+      <c r="BK29" s="28"/>
+      <c r="BL29" s="28"/>
+      <c r="BM29" s="28"/>
+      <c r="BN29" s="28"/>
+      <c r="BO29" s="28"/>
+      <c r="BP29" s="28"/>
+      <c r="BQ29" s="28"/>
+      <c r="BR29" s="28"/>
+      <c r="BS29" s="28"/>
+      <c r="BT29" s="28"/>
+      <c r="BU29" s="28"/>
+      <c r="BV29" s="28"/>
+      <c r="BW29" s="28"/>
+      <c r="BX29" s="28"/>
+      <c r="BY29" s="28"/>
+      <c r="BZ29" s="28"/>
+      <c r="CA29" s="28"/>
+      <c r="CB29" s="28"/>
+      <c r="CC29" s="28"/>
+      <c r="CD29" s="28"/>
+      <c r="CE29" s="28"/>
+      <c r="CF29" s="28"/>
+      <c r="CG29" s="28"/>
+      <c r="CH29" s="28"/>
+      <c r="CI29" s="28"/>
+      <c r="CJ29" s="28"/>
+      <c r="CK29" s="28"/>
+      <c r="CL29" s="28"/>
+      <c r="CM29" s="28"/>
+      <c r="CN29" s="28"/>
+      <c r="CO29" s="28"/>
+      <c r="CP29" s="28"/>
+      <c r="CQ29" s="28"/>
+      <c r="CR29" s="28"/>
+      <c r="CS29" s="28"/>
+      <c r="CT29" s="28"/>
+      <c r="CU29" s="28"/>
+      <c r="CV29" s="28"/>
+      <c r="CW29" s="28"/>
+      <c r="CX29" s="28"/>
+      <c r="CY29" s="28"/>
+    </row>
+    <row r="30" spans="1:103" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="54"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="54"/>
+      <c r="R30" s="54"/>
+      <c r="S30" s="54"/>
+      <c r="T30" s="56"/>
+      <c r="U30" s="54"/>
+      <c r="V30" s="54"/>
+      <c r="W30" s="54"/>
+      <c r="X30" s="54"/>
+      <c r="Y30" s="54"/>
+      <c r="Z30" s="54"/>
+      <c r="AA30" s="54"/>
+      <c r="AB30" s="54"/>
+      <c r="AC30" s="54"/>
+      <c r="AD30" s="57"/>
+      <c r="AE30" s="54"/>
+      <c r="AF30" s="54"/>
+      <c r="AG30" s="54"/>
+      <c r="AH30" s="54"/>
+      <c r="AI30" s="54"/>
+      <c r="AJ30" s="54"/>
+      <c r="AK30" s="54"/>
+      <c r="AL30" s="54"/>
+      <c r="AM30" s="54"/>
+      <c r="AN30" s="58"/>
+      <c r="AO30" s="54"/>
+      <c r="AP30" s="54"/>
+      <c r="AQ30" s="54"/>
+      <c r="AR30" s="54"/>
+      <c r="AS30" s="54"/>
+      <c r="AT30" s="54"/>
+      <c r="AU30" s="54"/>
+      <c r="AV30" s="54"/>
+      <c r="AW30" s="54"/>
+      <c r="AX30" s="59"/>
+      <c r="AY30" s="54"/>
+      <c r="AZ30" s="54"/>
+      <c r="BA30" s="54"/>
+      <c r="BB30" s="60"/>
+      <c r="BC30" s="51">
+        <v>28</v>
+      </c>
+      <c r="BD30" s="28"/>
+      <c r="BE30" s="28"/>
+      <c r="BF30" s="28"/>
+      <c r="BG30" s="28"/>
+      <c r="BH30" s="28"/>
+      <c r="BI30" s="28"/>
+      <c r="BJ30" s="28"/>
+      <c r="BK30" s="28"/>
+      <c r="BL30" s="28"/>
+      <c r="BM30" s="28"/>
+      <c r="BN30" s="28"/>
+      <c r="BO30" s="28"/>
+      <c r="BP30" s="28"/>
+      <c r="BQ30" s="28"/>
+      <c r="BR30" s="28"/>
+      <c r="BS30" s="28"/>
+      <c r="BT30" s="28"/>
+      <c r="BU30" s="28"/>
+      <c r="BV30" s="28"/>
+      <c r="BW30" s="28"/>
+      <c r="BX30" s="28"/>
+      <c r="BY30" s="28"/>
+      <c r="BZ30" s="28"/>
+      <c r="CA30" s="28"/>
+      <c r="CB30" s="28"/>
+      <c r="CC30" s="28"/>
+      <c r="CD30" s="28"/>
+      <c r="CE30" s="28"/>
+      <c r="CF30" s="28"/>
+      <c r="CG30" s="28"/>
+      <c r="CH30" s="28"/>
+      <c r="CI30" s="28"/>
+      <c r="CJ30" s="28"/>
+      <c r="CK30" s="28"/>
+      <c r="CL30" s="28"/>
+      <c r="CM30" s="28"/>
+      <c r="CN30" s="28"/>
+      <c r="CO30" s="28"/>
+      <c r="CP30" s="28"/>
+      <c r="CQ30" s="28"/>
+      <c r="CR30" s="28"/>
+      <c r="CS30" s="28"/>
+      <c r="CT30" s="28"/>
+      <c r="CU30" s="28"/>
+      <c r="CV30" s="28"/>
+      <c r="CW30" s="28"/>
+      <c r="CX30" s="28"/>
+      <c r="CY30" s="28"/>
+    </row>
+    <row r="31" spans="1:103" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BC31" s="51">
+        <v>29</v>
+      </c>
+      <c r="BD31" s="67"/>
+      <c r="BE31" s="67"/>
+      <c r="BF31" s="67"/>
+      <c r="BG31" s="67"/>
+      <c r="BH31" s="67"/>
+      <c r="BI31" s="67"/>
+      <c r="BJ31" s="67"/>
+      <c r="BK31" s="67"/>
+      <c r="BL31" s="67"/>
+      <c r="BM31" s="67"/>
+      <c r="BN31" s="67"/>
+      <c r="BO31" s="67"/>
+      <c r="BP31" s="67"/>
+      <c r="BQ31" s="67"/>
+      <c r="BR31" s="67"/>
+      <c r="BS31" s="67"/>
+      <c r="BT31" s="67"/>
+      <c r="BU31" s="67"/>
+      <c r="BV31" s="67"/>
+      <c r="BW31" s="67"/>
+      <c r="BX31" s="67"/>
+      <c r="BY31" s="67"/>
+      <c r="BZ31" s="67"/>
+      <c r="CA31" s="67"/>
+      <c r="CB31" s="67"/>
+      <c r="CC31" s="67"/>
+      <c r="CD31" s="67"/>
+      <c r="CE31" s="67"/>
+      <c r="CF31" s="67"/>
+      <c r="CG31" s="67"/>
+      <c r="CH31" s="67"/>
+      <c r="CI31" s="67"/>
+      <c r="CJ31" s="67"/>
+      <c r="CK31" s="67"/>
+      <c r="CL31" s="67"/>
+      <c r="CM31" s="67"/>
+      <c r="CN31" s="67"/>
+      <c r="CO31" s="67"/>
+      <c r="CP31" s="67"/>
+      <c r="CQ31" s="67"/>
+      <c r="CR31" s="67"/>
+      <c r="CS31" s="67"/>
+      <c r="CT31" s="67"/>
+      <c r="CU31" s="67"/>
+      <c r="CV31" s="67"/>
+      <c r="CW31" s="67"/>
+      <c r="CX31" s="67"/>
+      <c r="CY31" s="67"/>
+    </row>
+    <row r="32" spans="1:103" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="53">
+        <v>0</v>
+      </c>
+      <c r="B32" s="53">
+        <v>1</v>
+      </c>
+      <c r="C32" s="53">
+        <v>2</v>
+      </c>
+      <c r="D32" s="53">
+        <v>3</v>
+      </c>
+      <c r="E32" s="53">
+        <v>4</v>
+      </c>
+      <c r="F32" s="53">
+        <v>5</v>
+      </c>
+      <c r="G32" s="53">
+        <v>6</v>
+      </c>
+      <c r="H32" s="53">
+        <v>7</v>
+      </c>
+      <c r="I32" s="53">
+        <v>8</v>
+      </c>
+      <c r="J32" s="53">
+        <v>9</v>
+      </c>
+      <c r="K32" s="53">
+        <v>10</v>
+      </c>
+      <c r="L32" s="53">
+        <v>11</v>
+      </c>
+      <c r="M32" s="53">
+        <v>12</v>
+      </c>
+      <c r="N32" s="53">
+        <v>13</v>
+      </c>
+      <c r="O32" s="53">
+        <v>14</v>
+      </c>
+      <c r="P32" s="53">
+        <v>15</v>
+      </c>
+      <c r="Q32" s="53">
+        <v>16</v>
+      </c>
+      <c r="R32" s="53">
+        <v>17</v>
+      </c>
+      <c r="S32" s="53">
+        <v>18</v>
+      </c>
+      <c r="T32" s="53">
+        <v>19</v>
+      </c>
+      <c r="U32" s="53">
+        <v>20</v>
+      </c>
+      <c r="V32" s="53">
+        <v>21</v>
+      </c>
+      <c r="W32" s="53">
+        <v>22</v>
+      </c>
+      <c r="X32" s="53">
+        <v>23</v>
+      </c>
+      <c r="Y32" s="53">
+        <v>24</v>
+      </c>
+      <c r="Z32" s="53">
+        <v>25</v>
+      </c>
+      <c r="AA32" s="53">
+        <v>26</v>
+      </c>
+      <c r="AB32" s="53">
+        <v>27</v>
+      </c>
+      <c r="AC32" s="53">
+        <v>28</v>
+      </c>
+      <c r="AD32" s="53">
+        <v>29</v>
+      </c>
+      <c r="AE32" s="53">
+        <v>30</v>
+      </c>
+      <c r="AF32" s="53">
+        <v>31</v>
+      </c>
+      <c r="AG32" s="53">
+        <v>32</v>
+      </c>
+      <c r="AH32" s="53">
+        <v>33</v>
+      </c>
+      <c r="AI32" s="53">
+        <v>34</v>
+      </c>
+      <c r="AJ32" s="53">
+        <v>35</v>
+      </c>
+      <c r="AK32" s="53">
+        <v>36</v>
+      </c>
+      <c r="AL32" s="53">
+        <v>37</v>
+      </c>
+      <c r="AM32" s="53">
+        <v>38</v>
+      </c>
+      <c r="AN32" s="53">
+        <v>39</v>
+      </c>
+      <c r="AO32" s="53">
+        <v>40</v>
+      </c>
+      <c r="AP32" s="53">
+        <v>41</v>
+      </c>
+      <c r="AQ32" s="53">
+        <v>42</v>
+      </c>
+      <c r="AR32" s="53">
+        <v>43</v>
+      </c>
+      <c r="AS32" s="53">
+        <v>44</v>
+      </c>
+      <c r="AT32" s="53">
+        <v>45</v>
+      </c>
+      <c r="AU32" s="53">
+        <v>46</v>
+      </c>
+      <c r="AV32" s="53">
+        <v>47</v>
+      </c>
+      <c r="AW32" s="53">
+        <v>48</v>
+      </c>
+      <c r="AX32" s="53">
+        <v>49</v>
+      </c>
+      <c r="AY32" s="53">
+        <v>50</v>
+      </c>
+      <c r="AZ32" s="53">
+        <v>51</v>
+      </c>
+      <c r="BA32" s="53">
+        <v>52</v>
+      </c>
+      <c r="BB32" s="53">
+        <v>53</v>
+      </c>
+      <c r="BC32" s="35"/>
+      <c r="BD32" s="28"/>
+      <c r="BE32" s="28"/>
+      <c r="BF32" s="28"/>
+      <c r="BG32" s="28"/>
+      <c r="BH32" s="28"/>
+      <c r="BI32" s="28"/>
+      <c r="BJ32" s="28"/>
+      <c r="BK32" s="28"/>
+      <c r="BL32" s="28"/>
+      <c r="BM32" s="28"/>
+      <c r="BN32" s="28"/>
+      <c r="BO32" s="28"/>
+      <c r="BP32" s="28"/>
+      <c r="BQ32" s="28"/>
+      <c r="BR32" s="28"/>
+      <c r="BS32" s="28"/>
+      <c r="BT32" s="28"/>
+      <c r="BU32" s="28"/>
+      <c r="BV32" s="28"/>
+      <c r="BW32" s="28"/>
+      <c r="BX32" s="28"/>
+      <c r="BY32" s="28"/>
+      <c r="BZ32" s="28"/>
+      <c r="CA32" s="28"/>
+      <c r="CB32" s="28"/>
+      <c r="CC32" s="28"/>
+      <c r="CD32" s="28"/>
+      <c r="CE32" s="28"/>
+      <c r="CF32" s="28"/>
+      <c r="CG32" s="28"/>
+      <c r="CH32" s="28"/>
+      <c r="CI32" s="28"/>
+      <c r="CJ32" s="28"/>
+      <c r="CK32" s="28"/>
+      <c r="CL32" s="28"/>
+      <c r="CM32" s="28"/>
+      <c r="CN32" s="28"/>
+      <c r="CO32" s="28"/>
+      <c r="CP32" s="28"/>
+      <c r="CQ32" s="28"/>
+      <c r="CR32" s="28"/>
+      <c r="CS32" s="28"/>
+      <c r="CT32" s="28"/>
+      <c r="CU32" s="28"/>
+      <c r="CV32" s="28"/>
+      <c r="CW32" s="28"/>
+      <c r="CX32" s="28"/>
+      <c r="CY32" s="28"/>
+    </row>
+    <row r="33" spans="1:103" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="28"/>
+      <c r="T33" s="31"/>
+      <c r="U33" s="28"/>
+      <c r="V33" s="28"/>
+      <c r="W33" s="28"/>
+      <c r="X33" s="28"/>
+      <c r="Y33" s="28"/>
+      <c r="Z33" s="28"/>
+      <c r="AA33" s="28"/>
+      <c r="AB33" s="28"/>
+      <c r="AC33" s="28"/>
+      <c r="AD33" s="32"/>
+      <c r="AE33" s="28"/>
+      <c r="AF33" s="28"/>
+      <c r="AG33" s="28"/>
+      <c r="AH33" s="28"/>
+      <c r="AI33" s="28"/>
+      <c r="AJ33" s="28"/>
+      <c r="AK33" s="28"/>
+      <c r="AL33" s="28"/>
+      <c r="AM33" s="28"/>
+      <c r="AN33" s="33"/>
+      <c r="AO33" s="28"/>
+      <c r="AP33" s="28"/>
+      <c r="AQ33" s="28"/>
+      <c r="AR33" s="28"/>
+      <c r="AS33" s="28"/>
+      <c r="AT33" s="28"/>
+      <c r="AU33" s="28"/>
+      <c r="AV33" s="28"/>
+      <c r="AW33" s="28"/>
+      <c r="AX33" s="34"/>
+      <c r="AY33" s="28"/>
+      <c r="AZ33" s="28"/>
+      <c r="BA33" s="28"/>
+      <c r="BB33" s="28"/>
+      <c r="BC33" s="35"/>
+      <c r="BD33" s="28"/>
+      <c r="BE33" s="28"/>
+      <c r="BF33" s="28"/>
+      <c r="BG33" s="28"/>
+      <c r="BH33" s="28"/>
+      <c r="BI33" s="28"/>
+      <c r="BJ33" s="28"/>
+      <c r="BK33" s="28"/>
+      <c r="BL33" s="28"/>
+      <c r="BM33" s="28"/>
+      <c r="BN33" s="28"/>
+      <c r="BO33" s="28"/>
+      <c r="BP33" s="28"/>
+      <c r="BQ33" s="28"/>
+      <c r="BR33" s="28"/>
+      <c r="BS33" s="28"/>
+      <c r="BT33" s="28"/>
+      <c r="BU33" s="28"/>
+      <c r="BV33" s="28"/>
+      <c r="BW33" s="28"/>
+      <c r="BX33" s="28"/>
+      <c r="BY33" s="28"/>
+      <c r="BZ33" s="28"/>
+      <c r="CA33" s="28"/>
+      <c r="CB33" s="28"/>
+      <c r="CC33" s="28"/>
+      <c r="CD33" s="28"/>
+      <c r="CE33" s="28"/>
+      <c r="CF33" s="28"/>
+      <c r="CG33" s="28"/>
+      <c r="CH33" s="28"/>
+      <c r="CI33" s="28"/>
+      <c r="CJ33" s="28"/>
+      <c r="CK33" s="28"/>
+      <c r="CL33" s="28"/>
+      <c r="CM33" s="28"/>
+      <c r="CN33" s="28"/>
+      <c r="CO33" s="28"/>
+      <c r="CP33" s="28"/>
+      <c r="CQ33" s="28"/>
+      <c r="CR33" s="28"/>
+      <c r="CS33" s="28"/>
+      <c r="CT33" s="28"/>
+      <c r="CU33" s="28"/>
+      <c r="CV33" s="28"/>
+      <c r="CW33" s="28"/>
+      <c r="CX33" s="28"/>
+      <c r="CY33" s="28"/>
+    </row>
+    <row r="34" spans="1:103" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J34" s="30"/>
+      <c r="T34" s="31"/>
+      <c r="AD34" s="32"/>
+      <c r="AN34" s="33"/>
+      <c r="AX34" s="34"/>
+      <c r="BC34" s="35"/>
+    </row>
+    <row r="35" spans="1:103" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="28"/>
+      <c r="T35" s="31"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="28"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="28"/>
+      <c r="Y35" s="28"/>
+      <c r="Z35" s="28"/>
+      <c r="AA35" s="28"/>
+      <c r="AB35" s="28"/>
+      <c r="AC35" s="28"/>
+      <c r="AD35" s="32"/>
+      <c r="AE35" s="28"/>
+      <c r="AF35" s="28"/>
+      <c r="AG35" s="28"/>
+      <c r="AH35" s="28"/>
+      <c r="AI35" s="28"/>
+      <c r="AJ35" s="28"/>
+      <c r="AK35" s="28"/>
+      <c r="AL35" s="28"/>
+      <c r="AM35" s="28"/>
+      <c r="AN35" s="33"/>
+      <c r="AO35" s="28"/>
+      <c r="AP35" s="28"/>
+      <c r="AQ35" s="28"/>
+      <c r="AR35" s="28"/>
+      <c r="AS35" s="28"/>
+      <c r="AT35" s="28"/>
+      <c r="AU35" s="28"/>
+      <c r="AV35" s="28"/>
+      <c r="AW35" s="28"/>
+      <c r="AX35" s="34"/>
+      <c r="AY35" s="28"/>
+      <c r="AZ35" s="28"/>
+      <c r="BA35" s="28"/>
+      <c r="BB35" s="28"/>
+      <c r="BC35" s="35"/>
+      <c r="BD35" s="28"/>
+      <c r="BE35" s="28"/>
+      <c r="BF35" s="28"/>
+      <c r="BG35" s="28"/>
+      <c r="BH35" s="28"/>
+      <c r="BI35" s="28"/>
+      <c r="BJ35" s="28"/>
+      <c r="BK35" s="28"/>
+      <c r="BL35" s="28"/>
+      <c r="BM35" s="28"/>
+      <c r="BN35" s="28"/>
+      <c r="BO35" s="28"/>
+      <c r="BP35" s="28"/>
+      <c r="BQ35" s="28"/>
+      <c r="BR35" s="28"/>
+      <c r="BS35" s="28"/>
+      <c r="BT35" s="28"/>
+      <c r="BU35" s="28"/>
+      <c r="BV35" s="28"/>
+      <c r="BW35" s="28"/>
+      <c r="BX35" s="28"/>
+      <c r="BY35" s="28"/>
+      <c r="BZ35" s="28"/>
+      <c r="CA35" s="28"/>
+      <c r="CB35" s="28"/>
+      <c r="CC35" s="28"/>
+      <c r="CD35" s="28"/>
+      <c r="CE35" s="28"/>
+      <c r="CF35" s="28"/>
+      <c r="CG35" s="28"/>
+      <c r="CH35" s="28"/>
+      <c r="CI35" s="28"/>
+      <c r="CJ35" s="28"/>
+      <c r="CK35" s="28"/>
+      <c r="CL35" s="28"/>
+      <c r="CM35" s="28"/>
+      <c r="CN35" s="28"/>
+      <c r="CO35" s="28"/>
+      <c r="CP35" s="28"/>
+      <c r="CQ35" s="28"/>
+      <c r="CR35" s="28"/>
+      <c r="CS35" s="28"/>
+      <c r="CT35" s="28"/>
+      <c r="CU35" s="28"/>
+      <c r="CV35" s="28"/>
+      <c r="CW35" s="28"/>
+      <c r="CX35" s="28"/>
+      <c r="CY35" s="28"/>
+    </row>
+    <row r="36" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="31"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="28"/>
+      <c r="W36" s="28"/>
+      <c r="X36" s="28"/>
+      <c r="Y36" s="28"/>
+      <c r="Z36" s="28"/>
+      <c r="AA36" s="28"/>
+      <c r="AB36" s="28"/>
+      <c r="AC36" s="28"/>
+      <c r="AD36" s="32"/>
+      <c r="AE36" s="28"/>
+      <c r="AF36" s="28"/>
+      <c r="AG36" s="28"/>
+      <c r="AH36" s="28"/>
+      <c r="AI36" s="28"/>
+      <c r="AJ36" s="28"/>
+      <c r="AK36" s="28"/>
+      <c r="AL36" s="28"/>
+      <c r="AM36" s="28"/>
+      <c r="AN36" s="33"/>
+      <c r="AO36" s="28"/>
+      <c r="AP36" s="28"/>
+      <c r="AQ36" s="28"/>
+      <c r="AR36" s="28"/>
+      <c r="AS36" s="28"/>
+      <c r="AT36" s="28"/>
+      <c r="AU36" s="28"/>
+      <c r="AV36" s="28"/>
+      <c r="AW36" s="28"/>
+      <c r="AX36" s="34"/>
+      <c r="AY36" s="28"/>
+      <c r="AZ36" s="28"/>
+      <c r="BA36" s="28"/>
+      <c r="BB36" s="28"/>
+      <c r="BC36" s="35"/>
+      <c r="BD36" s="28"/>
+      <c r="BE36" s="28"/>
+      <c r="BF36" s="28"/>
+      <c r="BG36" s="28"/>
+      <c r="BH36" s="28"/>
+      <c r="BI36" s="28"/>
+      <c r="BJ36" s="28"/>
+      <c r="BK36" s="28"/>
+      <c r="BL36" s="28"/>
+      <c r="BM36" s="28"/>
+      <c r="BN36" s="28"/>
+      <c r="BO36" s="28"/>
+      <c r="BP36" s="28"/>
+      <c r="BQ36" s="28"/>
+      <c r="BR36" s="28"/>
+      <c r="BS36" s="28"/>
+      <c r="BT36" s="28"/>
+      <c r="BU36" s="28"/>
+      <c r="BV36" s="28"/>
+      <c r="BW36" s="28"/>
+      <c r="BX36" s="28"/>
+      <c r="BY36" s="28"/>
+      <c r="BZ36" s="28"/>
+      <c r="CA36" s="28"/>
+      <c r="CB36" s="28"/>
+      <c r="CC36" s="28"/>
+      <c r="CD36" s="28"/>
+      <c r="CE36" s="28"/>
+      <c r="CF36" s="28"/>
+      <c r="CG36" s="28"/>
+      <c r="CH36" s="28"/>
+      <c r="CI36" s="28"/>
+      <c r="CJ36" s="28"/>
+      <c r="CK36" s="28"/>
+      <c r="CL36" s="28"/>
+      <c r="CM36" s="28"/>
+      <c r="CN36" s="28"/>
+      <c r="CO36" s="28"/>
+      <c r="CP36" s="28"/>
+      <c r="CQ36" s="28"/>
+      <c r="CR36" s="28"/>
+      <c r="CS36" s="28"/>
+      <c r="CT36" s="28"/>
+      <c r="CU36" s="28"/>
+      <c r="CV36" s="28"/>
+      <c r="CW36" s="28"/>
+      <c r="CX36" s="28"/>
+      <c r="CY36" s="28"/>
+    </row>
+    <row r="37" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="28"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="28"/>
+      <c r="R37" s="28"/>
+      <c r="S37" s="28"/>
+      <c r="T37" s="31"/>
+      <c r="U37" s="28"/>
+      <c r="V37" s="28"/>
+      <c r="W37" s="28"/>
+      <c r="X37" s="28"/>
+      <c r="Y37" s="28"/>
+      <c r="Z37" s="28"/>
+      <c r="AA37" s="28"/>
+      <c r="AB37" s="28"/>
+      <c r="AC37" s="28"/>
+      <c r="AD37" s="32"/>
+      <c r="AE37" s="28"/>
+      <c r="AF37" s="28"/>
+      <c r="AG37" s="28"/>
+      <c r="AH37" s="28"/>
+      <c r="AI37" s="28"/>
+      <c r="AJ37" s="28"/>
+      <c r="AK37" s="28"/>
+      <c r="AL37" s="28"/>
+      <c r="AM37" s="28"/>
+      <c r="AN37" s="33"/>
+      <c r="AO37" s="28"/>
+      <c r="AP37" s="28"/>
+      <c r="AQ37" s="28"/>
+      <c r="AR37" s="28"/>
+      <c r="AS37" s="28"/>
+      <c r="AT37" s="28"/>
+      <c r="AU37" s="28"/>
+      <c r="AV37" s="28"/>
+      <c r="AW37" s="28"/>
+      <c r="AX37" s="34"/>
+      <c r="AY37" s="28"/>
+      <c r="AZ37" s="28"/>
+      <c r="BA37" s="28"/>
+      <c r="BB37" s="28"/>
+      <c r="BC37" s="35"/>
+      <c r="BD37" s="28"/>
+      <c r="BE37" s="28"/>
+      <c r="BF37" s="28"/>
+      <c r="BG37" s="28"/>
+      <c r="BH37" s="28"/>
+      <c r="BI37" s="28"/>
+      <c r="BJ37" s="28"/>
+      <c r="BK37" s="28"/>
+      <c r="BL37" s="28"/>
+      <c r="BM37" s="28"/>
+      <c r="BN37" s="28"/>
+      <c r="BO37" s="28"/>
+      <c r="BP37" s="28"/>
+      <c r="BQ37" s="28"/>
+      <c r="BR37" s="28"/>
+      <c r="BS37" s="28"/>
+      <c r="BT37" s="28"/>
+      <c r="BU37" s="28"/>
+      <c r="BV37" s="28"/>
+      <c r="BW37" s="28"/>
+      <c r="BX37" s="28"/>
+      <c r="BY37" s="28"/>
+      <c r="BZ37" s="28"/>
+      <c r="CA37" s="28"/>
+      <c r="CB37" s="28"/>
+      <c r="CC37" s="28"/>
+      <c r="CD37" s="28"/>
+      <c r="CE37" s="28"/>
+      <c r="CF37" s="28"/>
+      <c r="CG37" s="28"/>
+      <c r="CH37" s="28"/>
+      <c r="CI37" s="28"/>
+      <c r="CJ37" s="28"/>
+      <c r="CK37" s="28"/>
+      <c r="CL37" s="28"/>
+      <c r="CM37" s="28"/>
+      <c r="CN37" s="28"/>
+      <c r="CO37" s="28"/>
+      <c r="CP37" s="28"/>
+      <c r="CQ37" s="28"/>
+      <c r="CR37" s="28"/>
+      <c r="CS37" s="28"/>
+      <c r="CT37" s="28"/>
+      <c r="CU37" s="28"/>
+      <c r="CV37" s="28"/>
+      <c r="CW37" s="28"/>
+      <c r="CX37" s="28"/>
+      <c r="CY37" s="28"/>
+    </row>
+    <row r="38" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="28"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="28"/>
+      <c r="T38" s="31"/>
+      <c r="U38" s="28"/>
+      <c r="V38" s="28"/>
+      <c r="W38" s="28"/>
+      <c r="X38" s="28"/>
+      <c r="Y38" s="28"/>
+      <c r="Z38" s="28"/>
+      <c r="AA38" s="28"/>
+      <c r="AB38" s="28"/>
+      <c r="AC38" s="28"/>
+      <c r="AD38" s="32"/>
+      <c r="AE38" s="28"/>
+      <c r="AF38" s="28"/>
+      <c r="AG38" s="28"/>
+      <c r="AH38" s="28"/>
+      <c r="AI38" s="28"/>
+      <c r="AJ38" s="28"/>
+      <c r="AK38" s="28"/>
+      <c r="AL38" s="28"/>
+      <c r="AM38" s="28"/>
+      <c r="AN38" s="33"/>
+      <c r="AO38" s="28"/>
+      <c r="AP38" s="28"/>
+      <c r="AQ38" s="28"/>
+      <c r="AR38" s="28"/>
+      <c r="AS38" s="28"/>
+      <c r="AT38" s="28"/>
+      <c r="AU38" s="28"/>
+      <c r="AV38" s="28"/>
+      <c r="AW38" s="28"/>
+      <c r="AX38" s="34"/>
+      <c r="AY38" s="28"/>
+      <c r="AZ38" s="28"/>
+      <c r="BA38" s="28"/>
+      <c r="BB38" s="28"/>
+      <c r="BC38" s="35"/>
+      <c r="BD38" s="28"/>
+      <c r="BE38" s="28"/>
+      <c r="BF38" s="28"/>
+      <c r="BG38" s="28"/>
+      <c r="BH38" s="28"/>
+      <c r="BI38" s="28"/>
+      <c r="BJ38" s="28"/>
+      <c r="BK38" s="28"/>
+      <c r="BL38" s="28"/>
+      <c r="BM38" s="28"/>
+      <c r="BN38" s="28"/>
+      <c r="BO38" s="28"/>
+      <c r="BP38" s="28"/>
+      <c r="BQ38" s="28"/>
+      <c r="BR38" s="28"/>
+      <c r="BS38" s="28"/>
+      <c r="BT38" s="28"/>
+      <c r="BU38" s="28"/>
+      <c r="BV38" s="28"/>
+      <c r="BW38" s="28"/>
+      <c r="BX38" s="28"/>
+      <c r="BY38" s="28"/>
+      <c r="BZ38" s="28"/>
+      <c r="CA38" s="28"/>
+      <c r="CB38" s="28"/>
+      <c r="CC38" s="28"/>
+      <c r="CD38" s="28"/>
+      <c r="CE38" s="28"/>
+      <c r="CF38" s="28"/>
+      <c r="CG38" s="28"/>
+      <c r="CH38" s="28"/>
+      <c r="CI38" s="28"/>
+      <c r="CJ38" s="28"/>
+      <c r="CK38" s="28"/>
+      <c r="CL38" s="28"/>
+      <c r="CM38" s="28"/>
+      <c r="CN38" s="28"/>
+      <c r="CO38" s="28"/>
+      <c r="CP38" s="28"/>
+      <c r="CQ38" s="28"/>
+      <c r="CR38" s="28"/>
+      <c r="CS38" s="28"/>
+      <c r="CT38" s="28"/>
+      <c r="CU38" s="28"/>
+      <c r="CV38" s="28"/>
+      <c r="CW38" s="28"/>
+      <c r="CX38" s="28"/>
+      <c r="CY38" s="28"/>
+    </row>
+    <row r="39" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="28"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="28"/>
+      <c r="R39" s="28"/>
+      <c r="S39" s="28"/>
+      <c r="T39" s="31"/>
+      <c r="U39" s="28"/>
+      <c r="V39" s="28"/>
+      <c r="W39" s="28"/>
+      <c r="X39" s="28"/>
+      <c r="Y39" s="28"/>
+      <c r="Z39" s="28"/>
+      <c r="AA39" s="28"/>
+      <c r="AB39" s="28"/>
+      <c r="AC39" s="28"/>
+      <c r="AD39" s="32"/>
+      <c r="AE39" s="28"/>
+      <c r="AF39" s="28"/>
+      <c r="AG39" s="28"/>
+      <c r="AH39" s="28"/>
+      <c r="AI39" s="28"/>
+      <c r="AJ39" s="28"/>
+      <c r="AK39" s="28"/>
+      <c r="AL39" s="28"/>
+      <c r="AM39" s="28"/>
+      <c r="AN39" s="33"/>
+      <c r="AO39" s="28"/>
+      <c r="AP39" s="28"/>
+      <c r="AQ39" s="28"/>
+      <c r="AR39" s="28"/>
+      <c r="AS39" s="28"/>
+      <c r="AT39" s="28"/>
+      <c r="AU39" s="28"/>
+      <c r="AV39" s="28"/>
+      <c r="AW39" s="28"/>
+      <c r="AX39" s="34"/>
+      <c r="AY39" s="28"/>
+      <c r="AZ39" s="28"/>
+      <c r="BA39" s="28"/>
+      <c r="BB39" s="28"/>
+      <c r="BC39" s="35"/>
+      <c r="BD39" s="28"/>
+      <c r="BE39" s="28"/>
+      <c r="BF39" s="28"/>
+      <c r="BG39" s="28"/>
+      <c r="BH39" s="28"/>
+      <c r="BI39" s="28"/>
+      <c r="BJ39" s="28"/>
+      <c r="BK39" s="28"/>
+      <c r="BL39" s="28"/>
+      <c r="BM39" s="28"/>
+      <c r="BN39" s="28"/>
+      <c r="BO39" s="28"/>
+      <c r="BP39" s="28"/>
+      <c r="BQ39" s="28"/>
+      <c r="BR39" s="28"/>
+      <c r="BS39" s="28"/>
+      <c r="BT39" s="28"/>
+      <c r="BU39" s="28"/>
+      <c r="BV39" s="28"/>
+      <c r="BW39" s="28"/>
+      <c r="BX39" s="28"/>
+      <c r="BY39" s="28"/>
+      <c r="BZ39" s="28"/>
+      <c r="CA39" s="28"/>
+      <c r="CB39" s="28"/>
+      <c r="CC39" s="28"/>
+      <c r="CD39" s="28"/>
+      <c r="CE39" s="28"/>
+      <c r="CF39" s="28"/>
+      <c r="CG39" s="28"/>
+      <c r="CH39" s="28"/>
+      <c r="CI39" s="28"/>
+      <c r="CJ39" s="28"/>
+      <c r="CK39" s="28"/>
+      <c r="CL39" s="28"/>
+      <c r="CM39" s="28"/>
+      <c r="CN39" s="28"/>
+      <c r="CO39" s="28"/>
+      <c r="CP39" s="28"/>
+      <c r="CQ39" s="28"/>
+      <c r="CR39" s="28"/>
+      <c r="CS39" s="28"/>
+      <c r="CT39" s="28"/>
+      <c r="CU39" s="28"/>
+      <c r="CV39" s="28"/>
+      <c r="CW39" s="28"/>
+      <c r="CX39" s="28"/>
+      <c r="CY39" s="28"/>
+    </row>
+    <row r="40" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="28"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="28"/>
+      <c r="T40" s="31"/>
+      <c r="U40" s="28"/>
+      <c r="V40" s="28"/>
+      <c r="W40" s="28"/>
+      <c r="X40" s="28"/>
+      <c r="Y40" s="28"/>
+      <c r="Z40" s="28"/>
+      <c r="AA40" s="28"/>
+      <c r="AB40" s="28"/>
+      <c r="AC40" s="28"/>
+      <c r="AD40" s="32"/>
+      <c r="AE40" s="28"/>
+      <c r="AF40" s="28"/>
+      <c r="AG40" s="28"/>
+      <c r="AH40" s="28"/>
+      <c r="AI40" s="28"/>
+      <c r="AJ40" s="28"/>
+      <c r="AK40" s="28"/>
+      <c r="AL40" s="28"/>
+      <c r="AM40" s="28"/>
+      <c r="AN40" s="33"/>
+      <c r="AO40" s="28"/>
+      <c r="AP40" s="28"/>
+      <c r="AQ40" s="28"/>
+      <c r="AR40" s="28"/>
+      <c r="AS40" s="28"/>
+      <c r="AT40" s="28"/>
+      <c r="AU40" s="28"/>
+      <c r="AV40" s="28"/>
+      <c r="AW40" s="28"/>
+      <c r="AX40" s="34"/>
+      <c r="AY40" s="28"/>
+      <c r="AZ40" s="28"/>
+      <c r="BA40" s="28"/>
+      <c r="BB40" s="28"/>
+      <c r="BC40" s="35"/>
+      <c r="BD40" s="28"/>
+      <c r="BE40" s="28"/>
+      <c r="BF40" s="28"/>
+      <c r="BG40" s="28"/>
+      <c r="BH40" s="28"/>
+      <c r="BI40" s="28"/>
+      <c r="BJ40" s="28"/>
+      <c r="BK40" s="28"/>
+      <c r="BL40" s="28"/>
+      <c r="BM40" s="28"/>
+      <c r="BN40" s="28"/>
+      <c r="BO40" s="28"/>
+      <c r="BP40" s="28"/>
+      <c r="BQ40" s="28"/>
+      <c r="BR40" s="28"/>
+      <c r="BS40" s="28"/>
+      <c r="BT40" s="28"/>
+      <c r="BU40" s="28"/>
+      <c r="BV40" s="28"/>
+      <c r="BW40" s="28"/>
+      <c r="BX40" s="28"/>
+      <c r="BY40" s="28"/>
+      <c r="BZ40" s="28"/>
+      <c r="CA40" s="28"/>
+      <c r="CB40" s="28"/>
+      <c r="CC40" s="28"/>
+      <c r="CD40" s="28"/>
+      <c r="CE40" s="28"/>
+      <c r="CF40" s="28"/>
+      <c r="CG40" s="28"/>
+      <c r="CH40" s="28"/>
+      <c r="CI40" s="28"/>
+      <c r="CJ40" s="28"/>
+      <c r="CK40" s="28"/>
+      <c r="CL40" s="28"/>
+      <c r="CM40" s="28"/>
+      <c r="CN40" s="28"/>
+      <c r="CO40" s="28"/>
+      <c r="CP40" s="28"/>
+      <c r="CQ40" s="28"/>
+      <c r="CR40" s="28"/>
+      <c r="CS40" s="28"/>
+      <c r="CT40" s="28"/>
+      <c r="CU40" s="28"/>
+      <c r="CV40" s="28"/>
+      <c r="CW40" s="28"/>
+      <c r="CX40" s="28"/>
+      <c r="CY40" s="28"/>
+    </row>
+    <row r="41" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="28"/>
+      <c r="T41" s="31"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="28"/>
+      <c r="W41" s="28"/>
+      <c r="X41" s="28"/>
+      <c r="Y41" s="28"/>
+      <c r="Z41" s="28"/>
+      <c r="AA41" s="28"/>
+      <c r="AB41" s="28"/>
+      <c r="AC41" s="28"/>
+      <c r="AD41" s="32"/>
+      <c r="AE41" s="28"/>
+      <c r="AF41" s="28"/>
+      <c r="AG41" s="28"/>
+      <c r="AH41" s="28"/>
+      <c r="AI41" s="28"/>
+      <c r="AJ41" s="28"/>
+      <c r="AK41" s="28"/>
+      <c r="AL41" s="28"/>
+      <c r="AM41" s="28"/>
+      <c r="AN41" s="33"/>
+      <c r="AO41" s="28"/>
+      <c r="AP41" s="28"/>
+      <c r="AQ41" s="28"/>
+      <c r="AR41" s="28"/>
+      <c r="AS41" s="28"/>
+      <c r="AT41" s="28"/>
+      <c r="AU41" s="28"/>
+      <c r="AV41" s="28"/>
+      <c r="AW41" s="28"/>
+      <c r="AX41" s="34"/>
+      <c r="AY41" s="28"/>
+      <c r="AZ41" s="28"/>
+      <c r="BA41" s="28"/>
+      <c r="BB41" s="28"/>
+      <c r="BC41" s="35"/>
+      <c r="BD41" s="28"/>
+      <c r="BE41" s="28"/>
+      <c r="BF41" s="28"/>
+      <c r="BG41" s="28"/>
+      <c r="BH41" s="28"/>
+      <c r="BI41" s="28"/>
+      <c r="BJ41" s="28"/>
+      <c r="BK41" s="28"/>
+      <c r="BL41" s="28"/>
+      <c r="BM41" s="28"/>
+      <c r="BN41" s="28"/>
+      <c r="BO41" s="28"/>
+      <c r="BP41" s="28"/>
+      <c r="BQ41" s="28"/>
+      <c r="BR41" s="28"/>
+      <c r="BS41" s="28"/>
+      <c r="BT41" s="28"/>
+      <c r="BU41" s="28"/>
+      <c r="BV41" s="28"/>
+      <c r="BW41" s="28"/>
+      <c r="BX41" s="28"/>
+      <c r="BY41" s="28"/>
+      <c r="BZ41" s="28"/>
+      <c r="CA41" s="28"/>
+      <c r="CB41" s="28"/>
+      <c r="CC41" s="28"/>
+      <c r="CD41" s="28"/>
+      <c r="CE41" s="28"/>
+      <c r="CF41" s="28"/>
+      <c r="CG41" s="28"/>
+      <c r="CH41" s="28"/>
+      <c r="CI41" s="28"/>
+      <c r="CJ41" s="28"/>
+      <c r="CK41" s="28"/>
+      <c r="CL41" s="28"/>
+      <c r="CM41" s="28"/>
+      <c r="CN41" s="28"/>
+      <c r="CO41" s="28"/>
+      <c r="CP41" s="28"/>
+      <c r="CQ41" s="28"/>
+      <c r="CR41" s="28"/>
+      <c r="CS41" s="28"/>
+      <c r="CT41" s="28"/>
+      <c r="CU41" s="28"/>
+      <c r="CV41" s="28"/>
+      <c r="CW41" s="28"/>
+      <c r="CX41" s="28"/>
+      <c r="CY41" s="28"/>
+    </row>
+    <row r="42" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="28"/>
+      <c r="T42" s="31"/>
+      <c r="U42" s="28"/>
+      <c r="V42" s="28"/>
+      <c r="W42" s="28"/>
+      <c r="X42" s="28"/>
+      <c r="Y42" s="28"/>
+      <c r="Z42" s="28"/>
+      <c r="AA42" s="28"/>
+      <c r="AB42" s="28"/>
+      <c r="AC42" s="28"/>
+      <c r="AD42" s="32"/>
+      <c r="AE42" s="28"/>
+      <c r="AF42" s="28"/>
+      <c r="AG42" s="28"/>
+      <c r="AH42" s="28"/>
+      <c r="AI42" s="28"/>
+      <c r="AJ42" s="28"/>
+      <c r="AK42" s="28"/>
+      <c r="AL42" s="28"/>
+      <c r="AM42" s="28"/>
+      <c r="AN42" s="33"/>
+      <c r="AO42" s="28"/>
+      <c r="AP42" s="28"/>
+      <c r="AQ42" s="28"/>
+      <c r="AR42" s="28"/>
+      <c r="AS42" s="28"/>
+      <c r="AT42" s="28"/>
+      <c r="AU42" s="28"/>
+      <c r="AV42" s="28"/>
+      <c r="AW42" s="28"/>
+      <c r="AX42" s="34"/>
+      <c r="AY42" s="28"/>
+      <c r="AZ42" s="28"/>
+      <c r="BA42" s="28"/>
+      <c r="BB42" s="28"/>
+      <c r="BC42" s="35"/>
+      <c r="BD42" s="28"/>
+      <c r="BE42" s="28"/>
+      <c r="BF42" s="28"/>
+      <c r="BG42" s="28"/>
+      <c r="BH42" s="28"/>
+      <c r="BI42" s="28"/>
+      <c r="BJ42" s="28"/>
+      <c r="BK42" s="28"/>
+      <c r="BL42" s="28"/>
+      <c r="BM42" s="28"/>
+      <c r="BN42" s="28"/>
+      <c r="BO42" s="28"/>
+      <c r="BP42" s="28"/>
+      <c r="BQ42" s="28"/>
+      <c r="BR42" s="28"/>
+      <c r="BS42" s="28"/>
+      <c r="BT42" s="28"/>
+      <c r="BU42" s="28"/>
+      <c r="BV42" s="28"/>
+      <c r="BW42" s="28"/>
+      <c r="BX42" s="28"/>
+      <c r="BY42" s="28"/>
+      <c r="BZ42" s="28"/>
+      <c r="CA42" s="28"/>
+      <c r="CB42" s="28"/>
+      <c r="CC42" s="28"/>
+      <c r="CD42" s="28"/>
+      <c r="CE42" s="28"/>
+      <c r="CF42" s="28"/>
+      <c r="CG42" s="28"/>
+      <c r="CH42" s="28"/>
+      <c r="CI42" s="28"/>
+      <c r="CJ42" s="28"/>
+      <c r="CK42" s="28"/>
+      <c r="CL42" s="28"/>
+      <c r="CM42" s="28"/>
+      <c r="CN42" s="28"/>
+      <c r="CO42" s="28"/>
+      <c r="CP42" s="28"/>
+      <c r="CQ42" s="28"/>
+      <c r="CR42" s="28"/>
+      <c r="CS42" s="28"/>
+      <c r="CT42" s="28"/>
+      <c r="CU42" s="28"/>
+      <c r="CV42" s="28"/>
+      <c r="CW42" s="28"/>
+      <c r="CX42" s="28"/>
+      <c r="CY42" s="28"/>
+    </row>
+    <row r="43" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="28"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="28"/>
+      <c r="Q43" s="28"/>
+      <c r="R43" s="28"/>
+      <c r="S43" s="28"/>
+      <c r="T43" s="31"/>
+      <c r="U43" s="28"/>
+      <c r="V43" s="28"/>
+      <c r="W43" s="28"/>
+      <c r="X43" s="28"/>
+      <c r="Y43" s="28"/>
+      <c r="Z43" s="28"/>
+      <c r="AA43" s="28"/>
+      <c r="AB43" s="28"/>
+      <c r="AC43" s="28"/>
+      <c r="AD43" s="32"/>
+      <c r="AE43" s="28"/>
+      <c r="AF43" s="28"/>
+      <c r="AG43" s="28"/>
+      <c r="AH43" s="28"/>
+      <c r="AI43" s="28"/>
+      <c r="AJ43" s="28"/>
+      <c r="AK43" s="28"/>
+      <c r="AL43" s="28"/>
+      <c r="AM43" s="28"/>
+      <c r="AN43" s="33"/>
+      <c r="AO43" s="28"/>
+      <c r="AP43" s="28"/>
+      <c r="AQ43" s="28"/>
+      <c r="AR43" s="28"/>
+      <c r="AS43" s="28"/>
+      <c r="AT43" s="28"/>
+      <c r="AU43" s="28"/>
+      <c r="AV43" s="28"/>
+      <c r="AW43" s="28"/>
+      <c r="AX43" s="34"/>
+      <c r="AY43" s="28"/>
+      <c r="AZ43" s="28"/>
+      <c r="BA43" s="28"/>
+      <c r="BB43" s="28"/>
+      <c r="BC43" s="35"/>
+      <c r="BD43" s="28"/>
+      <c r="BE43" s="28"/>
+      <c r="BF43" s="28"/>
+      <c r="BG43" s="28"/>
+      <c r="BH43" s="28"/>
+      <c r="BI43" s="28"/>
+      <c r="BJ43" s="28"/>
+      <c r="BK43" s="28"/>
+      <c r="BL43" s="28"/>
+      <c r="BM43" s="28"/>
+      <c r="BN43" s="28"/>
+      <c r="BO43" s="28"/>
+      <c r="BP43" s="28"/>
+      <c r="BQ43" s="28"/>
+      <c r="BR43" s="28"/>
+      <c r="BS43" s="28"/>
+      <c r="BT43" s="28"/>
+      <c r="BU43" s="28"/>
+      <c r="BV43" s="28"/>
+      <c r="BW43" s="28"/>
+      <c r="BX43" s="28"/>
+      <c r="BY43" s="28"/>
+      <c r="BZ43" s="28"/>
+      <c r="CA43" s="28"/>
+      <c r="CB43" s="28"/>
+      <c r="CC43" s="28"/>
+      <c r="CD43" s="28"/>
+      <c r="CE43" s="28"/>
+      <c r="CF43" s="28"/>
+      <c r="CG43" s="28"/>
+      <c r="CH43" s="28"/>
+      <c r="CI43" s="28"/>
+      <c r="CJ43" s="28"/>
+      <c r="CK43" s="28"/>
+      <c r="CL43" s="28"/>
+      <c r="CM43" s="28"/>
+      <c r="CN43" s="28"/>
+      <c r="CO43" s="28"/>
+      <c r="CP43" s="28"/>
+      <c r="CQ43" s="28"/>
+      <c r="CR43" s="28"/>
+      <c r="CS43" s="28"/>
+      <c r="CT43" s="28"/>
+      <c r="CU43" s="28"/>
+      <c r="CV43" s="28"/>
+      <c r="CW43" s="28"/>
+      <c r="CX43" s="28"/>
+      <c r="CY43" s="28"/>
+    </row>
+    <row r="44" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="28"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="28"/>
+      <c r="P44" s="28"/>
+      <c r="Q44" s="28"/>
+      <c r="R44" s="28"/>
+      <c r="S44" s="28"/>
+      <c r="T44" s="31"/>
+      <c r="U44" s="28"/>
+      <c r="V44" s="28"/>
+      <c r="W44" s="28"/>
+      <c r="X44" s="28"/>
+      <c r="Y44" s="28"/>
+      <c r="Z44" s="28"/>
+      <c r="AA44" s="28"/>
+      <c r="AB44" s="28"/>
+      <c r="AC44" s="28"/>
+      <c r="AD44" s="32"/>
+      <c r="AE44" s="28"/>
+      <c r="AF44" s="28"/>
+      <c r="AG44" s="28"/>
+      <c r="AH44" s="28"/>
+      <c r="AI44" s="28"/>
+      <c r="AJ44" s="28"/>
+      <c r="AK44" s="28"/>
+      <c r="AL44" s="28"/>
+      <c r="AM44" s="28"/>
+      <c r="AN44" s="33"/>
+      <c r="AO44" s="28"/>
+      <c r="AP44" s="28"/>
+      <c r="AQ44" s="28"/>
+      <c r="AR44" s="28"/>
+      <c r="AS44" s="28"/>
+      <c r="AT44" s="28"/>
+      <c r="AU44" s="28"/>
+      <c r="AV44" s="28"/>
+      <c r="AW44" s="28"/>
+      <c r="AX44" s="34"/>
+      <c r="AY44" s="28"/>
+      <c r="AZ44" s="28"/>
+      <c r="BA44" s="28"/>
+      <c r="BB44" s="28"/>
+      <c r="BC44" s="35"/>
+      <c r="BD44" s="28"/>
+      <c r="BE44" s="28"/>
+      <c r="BF44" s="28"/>
+      <c r="BG44" s="28"/>
+      <c r="BH44" s="28"/>
+      <c r="BI44" s="28"/>
+      <c r="BJ44" s="28"/>
+      <c r="BK44" s="28"/>
+      <c r="BL44" s="28"/>
+      <c r="BM44" s="28"/>
+      <c r="BN44" s="28"/>
+      <c r="BO44" s="28"/>
+      <c r="BP44" s="28"/>
+      <c r="BQ44" s="28"/>
+      <c r="BR44" s="28"/>
+      <c r="BS44" s="28"/>
+      <c r="BT44" s="28"/>
+      <c r="BU44" s="28"/>
+      <c r="BV44" s="28"/>
+      <c r="BW44" s="28"/>
+      <c r="BX44" s="28"/>
+      <c r="BY44" s="28"/>
+      <c r="BZ44" s="28"/>
+      <c r="CA44" s="28"/>
+      <c r="CB44" s="28"/>
+      <c r="CC44" s="28"/>
+      <c r="CD44" s="28"/>
+      <c r="CE44" s="28"/>
+      <c r="CF44" s="28"/>
+      <c r="CG44" s="28"/>
+      <c r="CH44" s="28"/>
+      <c r="CI44" s="28"/>
+      <c r="CJ44" s="28"/>
+      <c r="CK44" s="28"/>
+      <c r="CL44" s="28"/>
+      <c r="CM44" s="28"/>
+      <c r="CN44" s="28"/>
+      <c r="CO44" s="28"/>
+      <c r="CP44" s="28"/>
+      <c r="CQ44" s="28"/>
+      <c r="CR44" s="28"/>
+      <c r="CS44" s="28"/>
+      <c r="CT44" s="28"/>
+      <c r="CU44" s="28"/>
+      <c r="CV44" s="28"/>
+      <c r="CW44" s="28"/>
+      <c r="CX44" s="28"/>
+      <c r="CY44" s="28"/>
+    </row>
+    <row r="45" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="28"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="28"/>
+      <c r="R45" s="28"/>
+      <c r="S45" s="28"/>
+      <c r="T45" s="31"/>
+      <c r="U45" s="28"/>
+      <c r="V45" s="28"/>
+      <c r="W45" s="28"/>
+      <c r="X45" s="28"/>
+      <c r="Y45" s="28"/>
+      <c r="Z45" s="28"/>
+      <c r="AA45" s="28"/>
+      <c r="AB45" s="28"/>
+      <c r="AC45" s="28"/>
+      <c r="AD45" s="32"/>
+      <c r="AE45" s="28"/>
+      <c r="AF45" s="28"/>
+      <c r="AG45" s="28"/>
+      <c r="AH45" s="28"/>
+      <c r="AI45" s="28"/>
+      <c r="AJ45" s="28"/>
+      <c r="AK45" s="28"/>
+      <c r="AL45" s="28"/>
+      <c r="AM45" s="28"/>
+      <c r="AN45" s="33"/>
+      <c r="AO45" s="28"/>
+      <c r="AP45" s="28"/>
+      <c r="AQ45" s="28"/>
+      <c r="AR45" s="28"/>
+      <c r="AS45" s="28"/>
+      <c r="AT45" s="28"/>
+      <c r="AU45" s="28"/>
+      <c r="AV45" s="28"/>
+      <c r="AW45" s="28"/>
+      <c r="AX45" s="34"/>
+      <c r="AY45" s="28"/>
+      <c r="AZ45" s="28"/>
+      <c r="BA45" s="28"/>
+      <c r="BB45" s="28"/>
+      <c r="BC45" s="35"/>
+      <c r="BD45" s="28"/>
+      <c r="BE45" s="28"/>
+      <c r="BF45" s="28"/>
+      <c r="BG45" s="28"/>
+      <c r="BH45" s="28"/>
+      <c r="BI45" s="28"/>
+      <c r="BJ45" s="28"/>
+      <c r="BK45" s="28"/>
+      <c r="BL45" s="28"/>
+      <c r="BM45" s="28"/>
+      <c r="BN45" s="28"/>
+      <c r="BO45" s="28"/>
+      <c r="BP45" s="28"/>
+      <c r="BQ45" s="28"/>
+      <c r="BR45" s="28"/>
+      <c r="BS45" s="28"/>
+      <c r="BT45" s="28"/>
+      <c r="BU45" s="28"/>
+      <c r="BV45" s="28"/>
+      <c r="BW45" s="28"/>
+      <c r="BX45" s="28"/>
+      <c r="BY45" s="28"/>
+      <c r="BZ45" s="28"/>
+      <c r="CA45" s="28"/>
+      <c r="CB45" s="28"/>
+      <c r="CC45" s="28"/>
+      <c r="CD45" s="28"/>
+      <c r="CE45" s="28"/>
+      <c r="CF45" s="28"/>
+      <c r="CG45" s="28"/>
+      <c r="CH45" s="28"/>
+      <c r="CI45" s="28"/>
+      <c r="CJ45" s="28"/>
+      <c r="CK45" s="28"/>
+      <c r="CL45" s="28"/>
+      <c r="CM45" s="28"/>
+      <c r="CN45" s="28"/>
+      <c r="CO45" s="28"/>
+      <c r="CP45" s="28"/>
+      <c r="CQ45" s="28"/>
+      <c r="CR45" s="28"/>
+      <c r="CS45" s="28"/>
+      <c r="CT45" s="28"/>
+      <c r="CU45" s="28"/>
+      <c r="CV45" s="28"/>
+      <c r="CW45" s="28"/>
+      <c r="CX45" s="28"/>
+      <c r="CY45" s="28"/>
+    </row>
+    <row r="46" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="28"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="28"/>
+      <c r="R46" s="28"/>
+      <c r="S46" s="28"/>
+      <c r="T46" s="31"/>
+      <c r="U46" s="28"/>
+      <c r="V46" s="28"/>
+      <c r="W46" s="28"/>
+      <c r="X46" s="28"/>
+      <c r="Y46" s="28"/>
+      <c r="Z46" s="28"/>
+      <c r="AA46" s="28"/>
+      <c r="AB46" s="28"/>
+      <c r="AC46" s="28"/>
+      <c r="AD46" s="32"/>
+      <c r="AE46" s="28"/>
+      <c r="AF46" s="28"/>
+      <c r="AG46" s="28"/>
+      <c r="AH46" s="28"/>
+      <c r="AI46" s="28"/>
+      <c r="AJ46" s="28"/>
+      <c r="AK46" s="28"/>
+      <c r="AL46" s="28"/>
+      <c r="AM46" s="28"/>
+      <c r="AN46" s="33"/>
+      <c r="AO46" s="28"/>
+      <c r="AP46" s="28"/>
+      <c r="AQ46" s="28"/>
+      <c r="AR46" s="28"/>
+      <c r="AS46" s="28"/>
+      <c r="AT46" s="28"/>
+      <c r="AU46" s="28"/>
+      <c r="AV46" s="28"/>
+      <c r="AW46" s="28"/>
+      <c r="AX46" s="34"/>
+      <c r="AY46" s="28"/>
+      <c r="AZ46" s="28"/>
+      <c r="BA46" s="28"/>
+      <c r="BB46" s="28"/>
+      <c r="BC46" s="35"/>
+      <c r="BD46" s="28"/>
+      <c r="BE46" s="28"/>
+      <c r="BF46" s="28"/>
+      <c r="BG46" s="28"/>
+      <c r="BH46" s="28"/>
+      <c r="BI46" s="28"/>
+      <c r="BJ46" s="28"/>
+      <c r="BK46" s="28"/>
+      <c r="BL46" s="28"/>
+      <c r="BM46" s="28"/>
+      <c r="BN46" s="28"/>
+      <c r="BO46" s="28"/>
+      <c r="BP46" s="28"/>
+      <c r="BQ46" s="28"/>
+      <c r="BR46" s="28"/>
+      <c r="BS46" s="28"/>
+      <c r="BT46" s="28"/>
+      <c r="BU46" s="28"/>
+      <c r="BV46" s="28"/>
+      <c r="BW46" s="28"/>
+      <c r="BX46" s="28"/>
+      <c r="BY46" s="28"/>
+      <c r="BZ46" s="28"/>
+      <c r="CA46" s="28"/>
+      <c r="CB46" s="28"/>
+      <c r="CC46" s="28"/>
+      <c r="CD46" s="28"/>
+      <c r="CE46" s="28"/>
+      <c r="CF46" s="28"/>
+      <c r="CG46" s="28"/>
+      <c r="CH46" s="28"/>
+      <c r="CI46" s="28"/>
+      <c r="CJ46" s="28"/>
+      <c r="CK46" s="28"/>
+      <c r="CL46" s="28"/>
+      <c r="CM46" s="28"/>
+      <c r="CN46" s="28"/>
+      <c r="CO46" s="28"/>
+      <c r="CP46" s="28"/>
+      <c r="CQ46" s="28"/>
+      <c r="CR46" s="28"/>
+      <c r="CS46" s="28"/>
+      <c r="CT46" s="28"/>
+      <c r="CU46" s="28"/>
+      <c r="CV46" s="28"/>
+      <c r="CW46" s="28"/>
+      <c r="CX46" s="28"/>
+      <c r="CY46" s="28"/>
+    </row>
+    <row r="47" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BC47" s="41"/>
+      <c r="BD47" s="42"/>
+      <c r="BE47" s="42"/>
+      <c r="BF47" s="42"/>
+      <c r="BG47" s="42"/>
+      <c r="BH47" s="42"/>
+      <c r="BI47" s="42"/>
+      <c r="BJ47" s="42"/>
+      <c r="BK47" s="42"/>
+      <c r="BL47" s="42"/>
+      <c r="BM47" s="42"/>
+      <c r="BN47" s="42"/>
+      <c r="BO47" s="42"/>
+      <c r="BP47" s="42"/>
+      <c r="BQ47" s="42"/>
+      <c r="BR47" s="42"/>
+      <c r="BS47" s="42"/>
+      <c r="BT47" s="42"/>
+      <c r="BU47" s="42"/>
+      <c r="BV47" s="42"/>
+      <c r="BW47" s="42"/>
+      <c r="BX47" s="42"/>
+      <c r="BY47" s="42"/>
+      <c r="BZ47" s="42"/>
+      <c r="CA47" s="42"/>
+      <c r="CB47" s="42"/>
+      <c r="CC47" s="42"/>
+      <c r="CD47" s="42"/>
+      <c r="CE47" s="42"/>
+      <c r="CF47" s="42"/>
+      <c r="CG47" s="42"/>
+      <c r="CH47" s="42"/>
+      <c r="CI47" s="42"/>
+      <c r="CJ47" s="42"/>
+      <c r="CK47" s="42"/>
+      <c r="CL47" s="42"/>
+      <c r="CM47" s="42"/>
+      <c r="CN47" s="42"/>
+      <c r="CO47" s="42"/>
+      <c r="CP47" s="42"/>
+      <c r="CQ47" s="42"/>
+      <c r="CR47" s="42"/>
+      <c r="CS47" s="42"/>
+      <c r="CT47" s="42"/>
+      <c r="CU47" s="42"/>
+      <c r="CV47" s="42"/>
+      <c r="CW47" s="42"/>
+      <c r="CX47" s="42"/>
+      <c r="CY47" s="42"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/GUI_20212202_AYZ8R9/Maps/map.xlsx
+++ b/GUI_20212202_AYZ8R9/Maps/map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\game3\GUI_20212202_AYZ8R9\Maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B16D6E-6145-4E7D-892B-DECE6086F779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E073B2F3-AA86-4CB3-8EA9-FCA351A3BCC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,9 +74,6 @@
     <t>NE</t>
   </si>
   <si>
-    <t>CHEST</t>
-  </si>
-  <si>
     <t>PLAYER</t>
   </si>
   <si>
@@ -86,7 +83,10 @@
     <t>Z</t>
   </si>
   <si>
-    <t>CHEST1</t>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>CH1</t>
   </si>
 </sst>
 </file>
@@ -665,7 +665,7 @@
   <dimension ref="A1:CY47"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="P13" sqref="A1:XFD1048576"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2310,37 +2310,37 @@
       <c r="T16" s="46"/>
       <c r="U16" s="44"/>
       <c r="V16" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W16" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X16" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y16" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z16" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA16" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB16" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC16" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD16" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE16" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF16" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG16" s="44"/>
       <c r="AH16" s="44"/>
@@ -2439,37 +2439,37 @@
       <c r="T17" s="46"/>
       <c r="U17" s="44"/>
       <c r="V17" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W17" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X17" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y17" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z17" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA17" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB17" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC17" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD17" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE17" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF17" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG17" s="44"/>
       <c r="AH17" s="44"/>
@@ -2568,37 +2568,37 @@
       <c r="T18" s="46"/>
       <c r="U18" s="44"/>
       <c r="V18" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W18" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X18" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y18" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z18" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA18" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB18" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC18" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD18" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE18" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF18" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG18" s="44"/>
       <c r="AH18" s="52"/>
@@ -2699,44 +2699,44 @@
       <c r="T19" s="46"/>
       <c r="U19" s="44"/>
       <c r="V19" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W19" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X19" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y19" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z19" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA19" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB19" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC19" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD19" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE19" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF19" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG19" s="44"/>
       <c r="AH19" s="44"/>
       <c r="AI19" s="44"/>
       <c r="AJ19" s="44"/>
       <c r="AK19" s="44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL19" s="44"/>
       <c r="AM19" s="44"/>
@@ -5795,7 +5795,7 @@
   <dimension ref="A1:BL35"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AD20" sqref="AD20"/>
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6376,7 +6376,7 @@
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
       <c r="AI10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ10" s="1" t="s">
         <v>1</v>
@@ -6446,10 +6446,10 @@
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK11" s="1" t="s">
         <v>1</v>
@@ -6522,13 +6522,13 @@
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL12" s="1" t="s">
         <v>1</v>
@@ -6547,10 +6547,10 @@
         <v>4</v>
       </c>
       <c r="AX12" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY12" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ12" s="4"/>
       <c r="BA12" s="4"/>
@@ -6602,16 +6602,16 @@
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
       <c r="AI13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL13" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM13" s="1" t="s">
         <v>1</v>
@@ -6628,13 +6628,13 @@
         <v>4</v>
       </c>
       <c r="AW13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX13" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY13" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ13" s="4"/>
       <c r="BA13" s="4"/>
@@ -6704,19 +6704,19 @@
       </c>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL14" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN14" s="11" t="s">
         <v>1</v>
@@ -6731,16 +6731,16 @@
         <v>4</v>
       </c>
       <c r="AV14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX14" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY14" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ14" s="4"/>
       <c r="BA14" s="4"/>
@@ -6800,22 +6800,22 @@
         <v>5</v>
       </c>
       <c r="AI15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL15" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN15" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO15" s="1" t="s">
         <v>1</v>
@@ -6836,19 +6836,19 @@
         <v>0</v>
       </c>
       <c r="AU15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX15" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY15" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ15" s="4"/>
       <c r="BA15" s="4"/>
@@ -6909,52 +6909,52 @@
         <v>5</v>
       </c>
       <c r="AJ16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL16" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN16" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX16" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY16" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ16" s="4"/>
       <c r="BA16" s="4"/>
@@ -7028,46 +7028,46 @@
         <v>5</v>
       </c>
       <c r="AK17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL17" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN17" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX17" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY17" s="1" t="s">
         <v>5</v>
@@ -7147,40 +7147,40 @@
         <v>5</v>
       </c>
       <c r="AL18" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN18" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX18" s="13" t="s">
         <v>5</v>
@@ -7260,34 +7260,34 @@
         <v>5</v>
       </c>
       <c r="AM19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN19" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW19" s="1" t="s">
         <v>5</v>
@@ -7365,28 +7365,28 @@
         <v>5</v>
       </c>
       <c r="AN20" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV20" t="s">
         <v>5</v>
@@ -7804,7 +7804,7 @@
         <v>3</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>8</v>
@@ -8472,7 +8472,7 @@
   <dimension ref="A1:BL35"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="AU14" sqref="AU14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8846,7 +8846,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>1</v>
@@ -8939,7 +8939,7 @@
         <v>4</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -8950,10 +8950,10 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>3</v>
@@ -9028,10 +9028,10 @@
         <v>4</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -9042,10 +9042,10 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>1</v>
@@ -9121,13 +9121,13 @@
         <v>4</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -9138,13 +9138,13 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>3</v>
@@ -9218,16 +9218,16 @@
         <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -9238,13 +9238,13 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>1</v>
@@ -9295,7 +9295,7 @@
         <v>2</v>
       </c>
       <c r="AY11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ11" s="1"/>
       <c r="BA11" s="1"/>
@@ -9313,25 +9313,25 @@
     </row>
     <row r="12" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -9342,16 +9342,16 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S12" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T12" s="7" t="s">
         <v>3</v>
@@ -9415,22 +9415,22 @@
     </row>
     <row r="13" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>5</v>
@@ -9463,13 +9463,13 @@
         <v>0</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S13" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T13" s="7" t="s">
         <v>1</v>
@@ -9537,19 +9537,19 @@
     </row>
     <row r="14" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>5</v>
@@ -9569,16 +9569,16 @@
         <v>1</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S14" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T14" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>3</v>
@@ -9643,16 +9643,16 @@
     </row>
     <row r="15" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>5</v>
@@ -9673,16 +9673,16 @@
         <v>3</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S15" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>1</v>
@@ -9746,10 +9746,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>5</v>
@@ -9774,16 +9774,16 @@
         <v>0</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S16" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T16" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V16" s="1" t="s">
         <v>3</v>
@@ -9871,13 +9871,13 @@
         <v>3</v>
       </c>
       <c r="S17" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T17" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V17" s="1" t="s">
         <v>1</v>
@@ -9957,16 +9957,16 @@
         <v>3</v>
       </c>
       <c r="S18" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W18" s="1" t="s">
         <v>3</v>
@@ -10043,16 +10043,16 @@
         <v>3</v>
       </c>
       <c r="S19" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T19" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W19" s="1" t="s">
         <v>1</v>
@@ -10134,16 +10134,16 @@
         <v>0</v>
       </c>
       <c r="T20" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W20" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X20" s="1" t="s">
         <v>3</v>
@@ -10214,13 +10214,13 @@
         <v>3</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y21" s="1" t="s">
         <v>0</v>
@@ -10309,43 +10309,43 @@
         <v>3</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH22" s="1" t="s">
         <v>8</v>
@@ -10407,43 +10407,43 @@
         <v>3</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH23" s="1" t="s">
         <v>8</v>
@@ -10508,40 +10508,40 @@
         <v>0</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH24" s="1" t="s">
         <v>8</v>
@@ -10607,37 +10607,37 @@
         <v>3</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD25" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE25" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF25" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG25" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH25" s="1" t="s">
         <v>8</v>
@@ -10701,37 +10701,37 @@
         <v>3</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA26" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC26" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD26" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE26" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF26" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG26" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH26" s="1" t="s">
         <v>8</v>
@@ -11400,7 +11400,7 @@
   <dimension ref="A1:BL40"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="BB21" sqref="BB21"/>
+      <selection activeCell="AR17" sqref="AR17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12517,7 +12517,7 @@
         <v>2</v>
       </c>
       <c r="AR17" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AS17" s="1"/>
       <c r="AT17" s="1"/>
@@ -12554,7 +12554,7 @@
         <v>2</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="1"/>
@@ -13866,8 +13866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9BF40A-B043-489B-97BD-E120A8256F34}">
   <dimension ref="A1:CY47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AT15" sqref="AT15"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AS30" sqref="AS30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15925,7 +15925,7 @@
       <c r="AB19" s="44"/>
       <c r="AC19" s="44"/>
       <c r="AD19" s="47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE19" s="44" t="s">
         <v>1</v>
@@ -15951,31 +15951,31 @@
         <v>4</v>
       </c>
       <c r="AT19" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU19" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV19" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW19" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX19" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY19" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ19" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA19" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB19" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC19" s="51">
         <v>17</v>
@@ -16070,10 +16070,10 @@
       <c r="AB20" s="44"/>
       <c r="AC20" s="44"/>
       <c r="AD20" s="47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE20" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF20" s="44" t="s">
         <v>1</v>
@@ -16097,34 +16097,34 @@
         <v>4</v>
       </c>
       <c r="AS20" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT20" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU20" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV20" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW20" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX20" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY20" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ20" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA20" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB20" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC20" s="51">
         <v>18</v>
@@ -16223,13 +16223,13 @@
       <c r="AB21" s="44"/>
       <c r="AC21" s="44"/>
       <c r="AD21" s="47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE21" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF21" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG21" s="44" t="s">
         <v>1</v>
@@ -16265,37 +16265,37 @@
         <v>4</v>
       </c>
       <c r="AR21" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS21" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT21" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU21" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV21" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW21" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX21" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY21" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ21" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA21" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB21" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC21" s="51">
         <v>19</v>
@@ -16384,79 +16384,79 @@
       <c r="AB22" s="44"/>
       <c r="AC22" s="44"/>
       <c r="AD22" s="47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE22" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF22" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG22" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH22" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI22" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ22" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK22" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL22" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM22" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN22" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO22" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP22" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ22" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR22" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS22" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT22" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU22" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV22" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW22" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX22" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY22" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ22" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA22" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB22" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC22" s="51">
         <v>20</v>
@@ -16545,79 +16545,79 @@
       <c r="AB23" s="44"/>
       <c r="AC23" s="44"/>
       <c r="AD23" s="47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE23" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF23" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG23" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH23" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI23" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ23" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK23" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL23" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM23" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN23" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO23" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP23" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ23" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR23" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS23" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT23" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU23" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV23" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW23" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX23" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY23" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ23" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA23" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB23" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC23" s="51">
         <v>21</v>
@@ -16703,84 +16703,84 @@
       </c>
       <c r="Z24" s="44"/>
       <c r="AA24" s="44" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AB24" s="44"/>
       <c r="AC24" s="44"/>
       <c r="AD24" s="47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE24" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF24" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG24" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH24" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI24" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ24" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK24" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL24" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM24" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN24" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO24" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP24" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ24" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR24" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS24" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT24" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU24" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV24" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW24" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX24" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY24" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ24" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA24" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB24" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC24" s="51">
         <v>22</v>
@@ -16880,73 +16880,73 @@
         <v>2</v>
       </c>
       <c r="AE25" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF25" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG25" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH25" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI25" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ25" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK25" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL25" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM25" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN25" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO25" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP25" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ25" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR25" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS25" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT25" s="44" t="s">
         <v>15</v>
       </c>
       <c r="AU25" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV25" s="44" t="s">
         <v>15</v>
       </c>
       <c r="AW25" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX25" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY25" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ25" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA25" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB25" s="44" t="s">
         <v>10</v>
@@ -17040,43 +17040,43 @@
         <v>2</v>
       </c>
       <c r="AF26" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG26" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH26" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI26" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ26" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK26" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL26" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM26" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN26" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO26" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP26" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ26" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR26" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS26" s="44" t="s">
         <v>5</v>
@@ -17198,37 +17198,37 @@
         <v>2</v>
       </c>
       <c r="AG27" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH27" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI27" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ27" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK27" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL27" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM27" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN27" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO27" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP27" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ27" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR27" s="44" t="s">
         <v>5</v>
@@ -17336,31 +17336,31 @@
         <v>2</v>
       </c>
       <c r="AH28" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI28" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ28" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK28" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL28" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM28" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN28" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO28" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP28" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ28" s="44" t="s">
         <v>5</v>

--- a/GUI_20212202_AYZ8R9/Maps/map.xlsx
+++ b/GUI_20212202_AYZ8R9/Maps/map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\game3\GUI_20212202_AYZ8R9\Maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E073B2F3-AA86-4CB3-8EA9-FCA351A3BCC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB39635-32B5-433F-BF5D-376A0E33464D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Munka3" sheetId="3" r:id="rId3"/>
     <sheet name="Munka4" sheetId="1" r:id="rId4"/>
     <sheet name="Munka5" sheetId="5" r:id="rId5"/>
+    <sheet name="Munka6" sheetId="6" r:id="rId6"/>
+    <sheet name="Munka7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="19">
   <si>
     <t>B</t>
   </si>
@@ -87,6 +89,15 @@
   </si>
   <si>
     <t>CH1</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -665,7 +676,7 @@
   <dimension ref="A1:CY47"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="AA32" sqref="AA32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5795,7 +5806,7 @@
   <dimension ref="A1:BL35"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+      <selection activeCell="Z19" sqref="Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6375,9 +6386,7 @@
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
-      <c r="AI10" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="AI10" s="1"/>
       <c r="AJ10" s="1" t="s">
         <v>1</v>
       </c>
@@ -6445,12 +6454,8 @@
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
-      <c r="AI11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ11" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
       <c r="AK11" s="1" t="s">
         <v>1</v>
       </c>
@@ -6521,15 +6526,9 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
-      <c r="AI12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK12" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
       <c r="AL12" s="1" t="s">
         <v>1</v>
       </c>
@@ -6546,12 +6545,8 @@
       <c r="AW12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AX12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="AY12" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="AX12" s="13"/>
+      <c r="AY12" s="4"/>
       <c r="AZ12" s="4"/>
       <c r="BA12" s="4"/>
       <c r="BB12" s="1"/>
@@ -6601,18 +6596,10 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
-      <c r="AI13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL13" s="27" t="s">
-        <v>13</v>
-      </c>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="27"/>
       <c r="AM13" s="1" t="s">
         <v>1</v>
       </c>
@@ -6627,15 +6614,9 @@
       <c r="AV13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AW13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AX13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="AY13" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="AW13" s="1"/>
+      <c r="AX13" s="13"/>
+      <c r="AY13" s="4"/>
       <c r="AZ13" s="4"/>
       <c r="BA13" s="4"/>
       <c r="BB13" s="1"/>
@@ -6703,21 +6684,11 @@
         <v>5</v>
       </c>
       <c r="AH14" s="1"/>
-      <c r="AI14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL14" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="AM14" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="27"/>
+      <c r="AM14" s="1"/>
       <c r="AN14" s="11" t="s">
         <v>1</v>
       </c>
@@ -6730,18 +6701,10 @@
       <c r="AU14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AV14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AW14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AX14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="AY14" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="AV14" s="1"/>
+      <c r="AW14" s="1"/>
+      <c r="AX14" s="13"/>
+      <c r="AY14" s="4"/>
       <c r="AZ14" s="4"/>
       <c r="BA14" s="4"/>
       <c r="BB14" s="1"/>
@@ -6793,30 +6756,16 @@
       <c r="AD15" s="9"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
-      <c r="AG15" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AG15" s="1"/>
       <c r="AH15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AI15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL15" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="AM15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN15" s="11" t="s">
-        <v>13</v>
-      </c>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="27"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="11"/>
       <c r="AO15" s="1" t="s">
         <v>1</v>
       </c>
@@ -6838,18 +6787,10 @@
       <c r="AU15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AV15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AW15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AX15" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="AY15" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="AV15" s="1"/>
+      <c r="AW15" s="1"/>
+      <c r="AX15" s="13"/>
+      <c r="AY15" s="4"/>
       <c r="AZ15" s="4"/>
       <c r="BA15" s="4"/>
       <c r="BB15" s="1"/>
@@ -6902,60 +6843,26 @@
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
-      <c r="AH16" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AH16" s="1"/>
       <c r="AI16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL16" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="AM16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="AO16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AQ16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AR16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AS16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AT16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AU16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AV16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AW16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AX16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="AY16" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="27"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="11"/>
+      <c r="AO16" s="1"/>
+      <c r="AP16" s="1"/>
+      <c r="AQ16" s="1"/>
+      <c r="AR16" s="1"/>
+      <c r="AS16" s="1"/>
+      <c r="AT16" s="1"/>
+      <c r="AU16" s="1"/>
+      <c r="AV16" s="1"/>
+      <c r="AW16" s="1"/>
+      <c r="AX16" s="13"/>
+      <c r="AY16" s="4"/>
       <c r="AZ16" s="4"/>
       <c r="BA16" s="4"/>
       <c r="BB16" s="1" t="s">
@@ -7021,56 +6928,26 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
-      <c r="AI17" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AI17" s="1"/>
       <c r="AJ17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL17" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="AM17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="AO17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AQ17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AR17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AS17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AT17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AU17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AV17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AW17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AX17" s="13" t="s">
-        <v>13</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="27"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="11"/>
+      <c r="AO17" s="1"/>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="1"/>
+      <c r="AS17" s="1"/>
+      <c r="AT17" s="1"/>
+      <c r="AU17" s="1"/>
+      <c r="AV17" s="1"/>
+      <c r="AW17" s="1"/>
+      <c r="AX17" s="13"/>
       <c r="AY17" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="AZ17" s="1" t="s">
         <v>0</v>
@@ -7140,54 +7017,26 @@
       <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
       <c r="AI18" s="1"/>
-      <c r="AJ18" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AJ18" s="1"/>
       <c r="AK18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL18" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="AM18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN18" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="AO18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AQ18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AR18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AS18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AT18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AU18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AV18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AW18" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="AL18" s="27"/>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="11"/>
+      <c r="AO18" s="1"/>
+      <c r="AP18" s="1"/>
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="1"/>
+      <c r="AS18" s="1"/>
+      <c r="AT18" s="1"/>
+      <c r="AU18" s="1"/>
+      <c r="AV18" s="1"/>
+      <c r="AW18" s="1"/>
       <c r="AX18" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AY18" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="AY18" s="1"/>
       <c r="AZ18" s="1"/>
       <c r="BA18" s="1"/>
       <c r="BB18" s="2"/>
@@ -7253,48 +7102,24 @@
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
       <c r="AJ19" s="1"/>
-      <c r="AK19" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AK19" s="1"/>
       <c r="AL19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="AO19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AQ19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AR19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AS19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AT19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AU19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AV19" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="11"/>
+      <c r="AO19" s="1"/>
+      <c r="AP19" s="1"/>
+      <c r="AQ19" s="1"/>
+      <c r="AR19" s="1"/>
+      <c r="AS19" s="1"/>
+      <c r="AT19" s="1"/>
+      <c r="AU19" s="1"/>
+      <c r="AV19" s="1"/>
       <c r="AW19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AX19" s="13" t="s">
-        <v>4</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="AX19" s="13"/>
       <c r="AY19" s="1"/>
       <c r="AZ19" s="1"/>
       <c r="BA19" s="1"/>
@@ -7358,41 +7183,20 @@
       <c r="AI20" s="1"/>
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1"/>
-      <c r="AL20" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AL20" s="1"/>
       <c r="AM20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN20" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="AO20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AQ20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AR20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AS20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AT20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AU20" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="AN20" s="11"/>
+      <c r="AO20" s="1"/>
+      <c r="AP20" s="1"/>
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="1"/>
+      <c r="AS20" s="1"/>
+      <c r="AT20" s="1"/>
+      <c r="AU20" s="1"/>
       <c r="AV20" t="s">
-        <v>5</v>
-      </c>
-      <c r="AW20" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="BC20" s="3"/>
       <c r="BD20" s="3"/>
@@ -7458,36 +7262,32 @@
       <c r="AJ21" s="1"/>
       <c r="AK21" s="1"/>
       <c r="AL21" s="1"/>
-      <c r="AM21" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AM21" s="1"/>
       <c r="AN21" s="11" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AO21" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AP21" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AQ21" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AR21" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AS21" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AU21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV21" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="AV21" s="1"/>
       <c r="AW21" s="1"/>
       <c r="AX21" s="13"/>
       <c r="AY21" s="1"/>
@@ -7558,7 +7358,9 @@
       <c r="AT22" s="1"/>
       <c r="AU22" s="1"/>
       <c r="AV22" s="1"/>
-      <c r="AW22" s="1"/>
+      <c r="AW22" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="AX22" s="13"/>
       <c r="AY22" s="1"/>
       <c r="AZ22" s="1"/>
@@ -8472,7 +8274,7 @@
   <dimension ref="A1:BL35"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AU14" sqref="AU14"/>
+      <selection activeCell="AG23" sqref="AG23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8690,7 +8492,9 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="5"/>
@@ -8755,9 +8559,11 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -8767,12 +8573,8 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="7"/>
@@ -8830,13 +8632,13 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="5"/>
@@ -8845,15 +8647,9 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="7"/>
       <c r="U7" s="1"/>
@@ -8931,16 +8727,14 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="E8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="5"/>
@@ -8949,15 +8743,9 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="7"/>
       <c r="U8" s="1"/>
@@ -9020,19 +8808,15 @@
     <row r="9" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="D9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="5"/>
@@ -9041,18 +8825,10 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
       <c r="T9" s="7"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
@@ -9112,23 +8888,19 @@
       <c r="BL9" s="3"/>
     </row>
     <row r="10" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="5"/>
@@ -9137,18 +8909,10 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
       <c r="T10" s="7"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
@@ -9208,27 +8972,6 @@
       <c r="BL10" s="3"/>
     </row>
     <row r="11" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="5"/>
@@ -9237,21 +8980,11 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="T11" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="7"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
@@ -9312,27 +9045,13 @@
       <c r="BL11" s="3"/>
     </row>
     <row r="12" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="5"/>
@@ -9341,21 +9060,11 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S12" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="T12" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="7"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
@@ -9414,26 +9123,14 @@
       <c r="BL12" s="3"/>
     </row>
     <row r="13" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>0</v>
@@ -9454,29 +9151,15 @@
         <v>0</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S13" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="T13" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="U13" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
@@ -9536,53 +9219,33 @@
       <c r="BL13" s="3"/>
     </row>
     <row r="14" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="5"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S14" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="T14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="O14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
@@ -9642,24 +9305,14 @@
       <c r="BL14" s="3"/>
     </row>
     <row r="15" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -9668,28 +9321,18 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
+      <c r="O15" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="P15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S15" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="T15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="V15" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
@@ -9745,18 +9388,12 @@
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -9771,22 +9408,14 @@
         <v>1</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S16" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="T16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R16" s="1"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="1"/>
       <c r="V16" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
@@ -9841,17 +9470,15 @@
     </row>
     <row r="17" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -9868,17 +9495,11 @@
         <v>1</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S17" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="T17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="S17" s="27"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="1"/>
       <c r="V17" s="1" t="s">
         <v>1</v>
       </c>
@@ -9954,24 +9575,20 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S18" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="S18" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="T18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="T18" s="7"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
       <c r="W18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="X18" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
@@ -10039,26 +9656,16 @@
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="1"/>
-      <c r="R19" s="1" t="s">
+      <c r="R19" s="1"/>
+      <c r="S19" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="S19" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="T19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W19" s="1" t="s">
+      <c r="T19" s="7"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="X19" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
@@ -10127,34 +9734,36 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
-      <c r="R20" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="R20" s="1"/>
       <c r="S20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W20" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="X20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="9"/>
-      <c r="AE20" s="1"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="AF20" s="1" t="s">
         <v>6</v>
       </c>
@@ -10208,47 +9817,16 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="T21" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="U21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG21" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="T21" s="7"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
       <c r="AH21" s="1" t="s">
         <v>8</v>
       </c>
@@ -10304,49 +9882,23 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="7" t="s">
+      <c r="S22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="U22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG22" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="T22" s="7"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
       <c r="AH22" s="1" t="s">
         <v>8</v>
       </c>
@@ -10402,49 +9954,23 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="7" t="s">
+      <c r="S23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="U23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG23" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="T23" s="7"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
       <c r="AH23" s="1" t="s">
         <v>8</v>
       </c>
@@ -10502,47 +10028,25 @@
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="7" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG24" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
       <c r="AH24" s="1" t="s">
         <v>8</v>
       </c>
@@ -10600,45 +10104,21 @@
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="7"/>
-      <c r="U25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="V25" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
       <c r="W25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG25" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
       <c r="AH25" s="1" t="s">
         <v>8</v>
       </c>
@@ -10697,42 +10177,21 @@
       <c r="S26" s="1"/>
       <c r="T26" s="7"/>
       <c r="U26" s="1"/>
-      <c r="V26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W26" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
       <c r="X26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Z26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG26" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
       <c r="AH26" s="1" t="s">
         <v>8</v>
       </c>
@@ -10791,44 +10250,38 @@
       <c r="S27" s="1"/>
       <c r="T27" s="7"/>
       <c r="U27" s="1"/>
-      <c r="V27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X27" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
       <c r="Y27" s="1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AA27" s="1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AC27" s="1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AD27" s="9" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE27" s="1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AF27" s="1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AG27" s="1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AH27" s="1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AI27" s="1" t="s">
         <v>6</v>
@@ -11400,7 +10853,7 @@
   <dimension ref="A1:BL40"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AR17" sqref="AR17"/>
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13866,8 +13319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9BF40A-B043-489B-97BD-E120A8256F34}">
   <dimension ref="A1:CY47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AS30" sqref="AS30"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AT19" sqref="AT19:BB26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15776,7 +15229,7 @@
         <v>4</v>
       </c>
       <c r="X18" s="44" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Y18" s="44" t="s">
         <v>8</v>
@@ -15804,36 +15257,7 @@
       <c r="AP18" s="44"/>
       <c r="AQ18" s="44"/>
       <c r="AR18" s="44"/>
-      <c r="AS18" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="AT18" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU18" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV18" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW18" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX18" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY18" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ18" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA18" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB18" s="50" t="s">
-        <v>0</v>
-      </c>
+      <c r="AS18" s="44"/>
       <c r="BC18" s="51">
         <v>16</v>
       </c>
@@ -15915,7 +15339,7 @@
       <c r="V19" s="44"/>
       <c r="W19" s="44"/>
       <c r="X19" s="44" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Y19" s="44" t="s">
         <v>8</v>
@@ -15924,9 +15348,7 @@
       <c r="AA19" s="44"/>
       <c r="AB19" s="44"/>
       <c r="AC19" s="44"/>
-      <c r="AD19" s="47" t="s">
-        <v>13</v>
-      </c>
+      <c r="AD19" s="47"/>
       <c r="AE19" s="44" t="s">
         <v>1</v>
       </c>
@@ -15948,34 +15370,34 @@
         <v>5</v>
       </c>
       <c r="AS19" s="44" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="44" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AU19" s="44" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AV19" s="44" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AW19" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AX19" s="44" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="AX19" s="49" t="s">
+        <v>0</v>
       </c>
       <c r="AY19" s="44" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AZ19" s="44" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BA19" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="BB19" s="44" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="BB19" s="50" t="s">
+        <v>0</v>
       </c>
       <c r="BC19" s="51">
         <v>17</v>
@@ -16060,7 +15482,7 @@
       <c r="V20" s="44"/>
       <c r="W20" s="44"/>
       <c r="X20" s="44" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Y20" s="44" t="s">
         <v>8</v>
@@ -16069,12 +15491,8 @@
       <c r="AA20" s="44"/>
       <c r="AB20" s="44"/>
       <c r="AC20" s="44"/>
-      <c r="AD20" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE20" s="44" t="s">
-        <v>13</v>
-      </c>
+      <c r="AD20" s="47"/>
+      <c r="AE20" s="44"/>
       <c r="AF20" s="44" t="s">
         <v>1</v>
       </c>
@@ -16096,36 +15514,16 @@
       <c r="AR20" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AS20" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AT20" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AU20" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AV20" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AW20" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AX20" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AY20" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AZ20" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="BA20" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="BB20" s="44" t="s">
-        <v>13</v>
-      </c>
+      <c r="AS20" s="44"/>
+      <c r="AT20" s="44"/>
+      <c r="AU20" s="44"/>
+      <c r="AV20" s="44"/>
+      <c r="AW20" s="44"/>
+      <c r="AX20" s="44"/>
+      <c r="AY20" s="44"/>
+      <c r="AZ20" s="44"/>
+      <c r="BA20" s="44"/>
+      <c r="BB20" s="44"/>
       <c r="BC20" s="51">
         <v>18</v>
       </c>
@@ -16213,7 +15611,7 @@
       <c r="V21" s="44"/>
       <c r="W21" s="44"/>
       <c r="X21" s="44" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Y21" s="44" t="s">
         <v>8</v>
@@ -16222,81 +15620,26 @@
       <c r="AA21" s="44"/>
       <c r="AB21" s="44"/>
       <c r="AC21" s="44"/>
-      <c r="AD21" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE21" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF21" s="44" t="s">
-        <v>13</v>
-      </c>
+      <c r="AD21" s="47"/>
+      <c r="AE21" s="44"/>
+      <c r="AF21" s="44"/>
       <c r="AG21" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="AH21" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM21" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO21" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP21" s="44" t="s">
-        <v>0</v>
-      </c>
       <c r="AQ21" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AR21" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AS21" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AT21" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AU21" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AV21" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AW21" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AX21" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AY21" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AZ21" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="BA21" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="BB21" s="44" t="s">
-        <v>13</v>
-      </c>
+      <c r="AR21" s="44"/>
+      <c r="AS21" s="44"/>
+      <c r="AT21" s="44"/>
+      <c r="AU21" s="44"/>
+      <c r="AV21" s="44"/>
+      <c r="AW21" s="44"/>
+      <c r="AX21" s="44"/>
+      <c r="AY21" s="44"/>
+      <c r="AZ21" s="44"/>
+      <c r="BA21" s="44"/>
+      <c r="BB21" s="44"/>
       <c r="BC21" s="51">
         <v>19</v>
       </c>
@@ -16374,7 +15717,7 @@
       <c r="V22" s="44"/>
       <c r="W22" s="44"/>
       <c r="X22" s="44" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Y22" s="44" t="s">
         <v>8</v>
@@ -16383,81 +15726,49 @@
       <c r="AA22" s="44"/>
       <c r="AB22" s="44"/>
       <c r="AC22" s="44"/>
-      <c r="AD22" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE22" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF22" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG22" s="44" t="s">
-        <v>13</v>
-      </c>
+      <c r="AD22" s="47"/>
+      <c r="AE22" s="44"/>
+      <c r="AF22" s="44"/>
+      <c r="AG22" s="44"/>
       <c r="AH22" s="44" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AI22" s="44" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="44" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AK22" s="44" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AL22" s="44" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AM22" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN22" s="44" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="AN22" s="48" t="s">
+        <v>0</v>
       </c>
       <c r="AO22" s="44" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AP22" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AQ22" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AR22" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AS22" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AT22" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AU22" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AV22" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AW22" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AX22" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AY22" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AZ22" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="BA22" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="BB22" s="44" t="s">
-        <v>13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="44"/>
+      <c r="AR22" s="44"/>
+      <c r="AS22" s="44"/>
+      <c r="AT22" s="44"/>
+      <c r="AU22" s="44"/>
+      <c r="AV22" s="44"/>
+      <c r="AW22" s="44"/>
+      <c r="AX22" s="44"/>
+      <c r="AY22" s="44"/>
+      <c r="AZ22" s="44"/>
+      <c r="BA22" s="44"/>
+      <c r="BB22" s="44"/>
       <c r="BC22" s="51">
         <v>20</v>
       </c>
@@ -16535,7 +15846,7 @@
       <c r="V23" s="44"/>
       <c r="W23" s="44"/>
       <c r="X23" s="44" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Y23" s="44" t="s">
         <v>8</v>
@@ -16544,81 +15855,31 @@
       <c r="AA23" s="44"/>
       <c r="AB23" s="44"/>
       <c r="AC23" s="44"/>
-      <c r="AD23" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE23" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF23" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG23" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH23" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI23" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ23" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK23" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL23" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AM23" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN23" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AO23" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP23" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AQ23" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AR23" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AS23" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AT23" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AU23" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AV23" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AW23" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AX23" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AY23" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AZ23" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="BA23" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="BB23" s="44" t="s">
-        <v>13</v>
-      </c>
+      <c r="AD23" s="47"/>
+      <c r="AE23" s="44"/>
+      <c r="AF23" s="44"/>
+      <c r="AG23" s="44"/>
+      <c r="AH23" s="44"/>
+      <c r="AI23" s="44"/>
+      <c r="AJ23" s="44"/>
+      <c r="AK23" s="44"/>
+      <c r="AL23" s="44"/>
+      <c r="AM23" s="44"/>
+      <c r="AN23" s="44"/>
+      <c r="AO23" s="44"/>
+      <c r="AP23" s="44"/>
+      <c r="AQ23" s="44"/>
+      <c r="AR23" s="44"/>
+      <c r="AS23" s="44"/>
+      <c r="AT23" s="44"/>
+      <c r="AU23" s="44"/>
+      <c r="AV23" s="44"/>
+      <c r="AW23" s="44"/>
+      <c r="AX23" s="44"/>
+      <c r="AY23" s="44"/>
+      <c r="AZ23" s="44"/>
+      <c r="BA23" s="44"/>
+      <c r="BB23" s="44"/>
       <c r="BC23" s="51">
         <v>21</v>
       </c>
@@ -16696,7 +15957,7 @@
       <c r="V24" s="44"/>
       <c r="W24" s="44"/>
       <c r="X24" s="44" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Y24" s="44" t="s">
         <v>8</v>
@@ -16707,81 +15968,31 @@
       </c>
       <c r="AB24" s="44"/>
       <c r="AC24" s="44"/>
-      <c r="AD24" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE24" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF24" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG24" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH24" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI24" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ24" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK24" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL24" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AM24" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN24" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AO24" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP24" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AQ24" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AR24" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AS24" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AT24" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AU24" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AV24" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AW24" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AX24" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AY24" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AZ24" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="BA24" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="BB24" s="44" t="s">
-        <v>13</v>
-      </c>
+      <c r="AD24" s="47"/>
+      <c r="AE24" s="44"/>
+      <c r="AF24" s="44"/>
+      <c r="AG24" s="44"/>
+      <c r="AH24" s="44"/>
+      <c r="AI24" s="44"/>
+      <c r="AJ24" s="44"/>
+      <c r="AK24" s="44"/>
+      <c r="AL24" s="44"/>
+      <c r="AM24" s="44"/>
+      <c r="AN24" s="44"/>
+      <c r="AO24" s="44"/>
+      <c r="AP24" s="44"/>
+      <c r="AQ24" s="44"/>
+      <c r="AR24" s="44"/>
+      <c r="AS24" s="44"/>
+      <c r="AT24" s="44"/>
+      <c r="AU24" s="44"/>
+      <c r="AV24" s="44"/>
+      <c r="AW24" s="44"/>
+      <c r="AX24" s="44"/>
+      <c r="AY24" s="44"/>
+      <c r="AZ24" s="44"/>
+      <c r="BA24" s="44"/>
+      <c r="BB24" s="44"/>
       <c r="BC24" s="51">
         <v>22</v>
       </c>
@@ -16859,7 +16070,7 @@
       <c r="V25" s="44"/>
       <c r="W25" s="44"/>
       <c r="X25" s="44" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Y25" s="44" t="s">
         <v>0</v>
@@ -16877,77 +16088,35 @@
         <v>0</v>
       </c>
       <c r="AD25" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE25" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF25" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG25" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH25" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI25" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ25" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK25" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL25" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AM25" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN25" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AO25" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP25" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AQ25" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AR25" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AS25" s="44" t="s">
-        <v>13</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="AE25" s="44"/>
+      <c r="AF25" s="44"/>
+      <c r="AG25" s="44"/>
+      <c r="AH25" s="44"/>
+      <c r="AI25" s="44"/>
+      <c r="AJ25" s="44"/>
+      <c r="AK25" s="44"/>
+      <c r="AL25" s="44"/>
+      <c r="AM25" s="44"/>
+      <c r="AN25" s="44"/>
+      <c r="AO25" s="44"/>
+      <c r="AP25" s="44"/>
+      <c r="AQ25" s="44"/>
+      <c r="AR25" s="44"/>
+      <c r="AS25" s="44"/>
       <c r="AT25" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="AU25" s="44" t="s">
-        <v>13</v>
-      </c>
+      <c r="AU25" s="44"/>
       <c r="AV25" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="AW25" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AX25" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AY25" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AZ25" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="BA25" s="44" t="s">
-        <v>13</v>
-      </c>
+      <c r="AW25" s="44"/>
+      <c r="AX25" s="44"/>
+      <c r="AY25" s="44"/>
+      <c r="AZ25" s="44"/>
+      <c r="BA25" s="44"/>
       <c r="BB25" s="44" t="s">
         <v>10</v>
       </c>
@@ -17033,80 +16202,52 @@
       <c r="AA26" s="44"/>
       <c r="AB26" s="44"/>
       <c r="AC26" s="44"/>
-      <c r="AD26" s="47" t="s">
-        <v>1</v>
-      </c>
+      <c r="AD26" s="47"/>
       <c r="AE26" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF26" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG26" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH26" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI26" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ26" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK26" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL26" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AM26" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN26" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AO26" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP26" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AQ26" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AR26" s="44" t="s">
-        <v>13</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="AF26" s="44"/>
+      <c r="AG26" s="44"/>
+      <c r="AH26" s="44"/>
+      <c r="AI26" s="44"/>
+      <c r="AJ26" s="44"/>
+      <c r="AK26" s="44"/>
+      <c r="AL26" s="44"/>
+      <c r="AM26" s="44"/>
+      <c r="AN26" s="44"/>
+      <c r="AO26" s="44"/>
+      <c r="AP26" s="44"/>
+      <c r="AQ26" s="44"/>
+      <c r="AR26" s="44"/>
       <c r="AS26" s="44" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="AT26" s="44" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AU26" s="44" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AV26" s="44" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AW26" s="44" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AX26" s="49" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AY26" s="44" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AZ26" s="44" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="BA26" s="44" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="BB26" s="50" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="BC26" s="51">
         <v>24</v>
@@ -17191,51 +16332,25 @@
       <c r="AB27" s="44"/>
       <c r="AC27" s="44"/>
       <c r="AD27" s="47"/>
-      <c r="AE27" s="44" t="s">
-        <v>1</v>
-      </c>
+      <c r="AE27" s="44"/>
       <c r="AF27" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG27" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH27" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI27" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ27" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK27" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL27" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AM27" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN27" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AO27" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP27" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AQ27" s="44" t="s">
-        <v>13</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="AG27" s="44"/>
+      <c r="AH27" s="44"/>
+      <c r="AI27" s="44"/>
+      <c r="AJ27" s="44"/>
+      <c r="AK27" s="44"/>
+      <c r="AL27" s="44"/>
+      <c r="AM27" s="44"/>
+      <c r="AN27" s="44"/>
+      <c r="AO27" s="44"/>
+      <c r="AP27" s="44"/>
+      <c r="AQ27" s="44"/>
       <c r="AR27" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="AS27" s="44" t="s">
-        <v>4</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="AS27" s="44"/>
       <c r="AT27" s="44"/>
       <c r="AU27" s="44"/>
       <c r="AV27" s="44"/>
@@ -17329,45 +16444,23 @@
       <c r="AC28" s="44"/>
       <c r="AD28" s="47"/>
       <c r="AE28" s="44"/>
-      <c r="AF28" s="44" t="s">
-        <v>1</v>
-      </c>
+      <c r="AF28" s="44"/>
       <c r="AG28" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH28" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI28" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ28" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK28" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL28" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AM28" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN28" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AO28" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP28" s="44" t="s">
-        <v>13</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="AH28" s="44"/>
+      <c r="AI28" s="44"/>
+      <c r="AJ28" s="44"/>
+      <c r="AK28" s="44"/>
+      <c r="AL28" s="44"/>
+      <c r="AM28" s="44"/>
+      <c r="AN28" s="44"/>
+      <c r="AO28" s="44"/>
+      <c r="AP28" s="44"/>
       <c r="AQ28" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR28" s="44" t="s">
-        <v>4</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="AR28" s="44"/>
       <c r="AS28" s="44"/>
       <c r="AT28" s="44"/>
       <c r="AU28" s="44"/>
@@ -17463,39 +16556,35 @@
       <c r="AD29" s="47"/>
       <c r="AE29" s="44"/>
       <c r="AF29" s="44"/>
-      <c r="AG29" s="44" t="s">
-        <v>1</v>
-      </c>
+      <c r="AG29" s="44"/>
       <c r="AH29" s="44" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AI29" s="44" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AJ29" s="44" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AK29" s="44" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AL29" s="44" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AM29" s="44" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AN29" s="48" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AO29" s="44" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AP29" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ29" s="44" t="s">
-        <v>4</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="AQ29" s="44"/>
       <c r="AR29" s="44"/>
       <c r="AS29" s="44"/>
       <c r="AT29" s="44"/>
@@ -19359,4 +18448,4387 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C52672-88BB-4AE4-B0C9-F548BA5F269A}">
+  <dimension ref="A1:BC32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H34" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="62"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="62"/>
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="62"/>
+      <c r="AT1" s="62"/>
+      <c r="AU1" s="62"/>
+      <c r="AV1" s="62"/>
+      <c r="AW1" s="62"/>
+      <c r="AX1" s="62"/>
+      <c r="AY1" s="62"/>
+      <c r="AZ1" s="62"/>
+      <c r="BA1" s="62"/>
+      <c r="BB1" s="63"/>
+      <c r="BC1" s="65"/>
+    </row>
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="44"/>
+      <c r="AR2" s="44"/>
+      <c r="AS2" s="44"/>
+      <c r="AT2" s="44"/>
+      <c r="AU2" s="44"/>
+      <c r="AV2" s="44"/>
+      <c r="AW2" s="44"/>
+      <c r="AX2" s="49"/>
+      <c r="AY2" s="44"/>
+      <c r="AZ2" s="44"/>
+      <c r="BA2" s="44"/>
+      <c r="BB2" s="50"/>
+      <c r="BC2" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="47"/>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="44"/>
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="44"/>
+      <c r="AN3" s="48"/>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="44"/>
+      <c r="AR3" s="44"/>
+      <c r="AS3" s="44"/>
+      <c r="AT3" s="44"/>
+      <c r="AU3" s="44"/>
+      <c r="AV3" s="44"/>
+      <c r="AW3" s="44"/>
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="44"/>
+      <c r="AZ3" s="44"/>
+      <c r="BA3" s="44"/>
+      <c r="BB3" s="50"/>
+      <c r="BC3" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="44"/>
+      <c r="AG4" s="44"/>
+      <c r="AH4" s="44"/>
+      <c r="AI4" s="44"/>
+      <c r="AJ4" s="44"/>
+      <c r="AK4" s="44"/>
+      <c r="AL4" s="44"/>
+      <c r="AM4" s="44"/>
+      <c r="AN4" s="48"/>
+      <c r="AO4" s="44"/>
+      <c r="AP4" s="44"/>
+      <c r="AQ4" s="44"/>
+      <c r="AR4" s="44"/>
+      <c r="AS4" s="44"/>
+      <c r="AT4" s="44"/>
+      <c r="AU4" s="44"/>
+      <c r="AV4" s="44"/>
+      <c r="AW4" s="44"/>
+      <c r="AX4" s="49"/>
+      <c r="AY4" s="44"/>
+      <c r="AZ4" s="44"/>
+      <c r="BA4" s="44"/>
+      <c r="BB4" s="50"/>
+      <c r="BC4" s="51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="44"/>
+      <c r="Z5" s="44"/>
+      <c r="AA5" s="44"/>
+      <c r="AB5" s="44"/>
+      <c r="AC5" s="44"/>
+      <c r="AD5" s="47"/>
+      <c r="AE5" s="44"/>
+      <c r="AF5" s="44"/>
+      <c r="AG5" s="44"/>
+      <c r="AH5" s="44"/>
+      <c r="AI5" s="44"/>
+      <c r="AJ5" s="44"/>
+      <c r="AK5" s="44"/>
+      <c r="AL5" s="44"/>
+      <c r="AM5" s="44"/>
+      <c r="AN5" s="48"/>
+      <c r="AO5" s="44"/>
+      <c r="AP5" s="44"/>
+      <c r="AQ5" s="44"/>
+      <c r="AR5" s="44"/>
+      <c r="AS5" s="44"/>
+      <c r="AT5" s="44"/>
+      <c r="AU5" s="44"/>
+      <c r="AV5" s="44"/>
+      <c r="AW5" s="44"/>
+      <c r="AX5" s="49"/>
+      <c r="AY5" s="44"/>
+      <c r="AZ5" s="44"/>
+      <c r="BA5" s="44"/>
+      <c r="BB5" s="50"/>
+      <c r="BC5" s="51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="44"/>
+      <c r="Z6" s="44"/>
+      <c r="AA6" s="44"/>
+      <c r="AB6" s="44"/>
+      <c r="AC6" s="44"/>
+      <c r="AD6" s="47"/>
+      <c r="AE6" s="44"/>
+      <c r="AF6" s="44"/>
+      <c r="AG6" s="44"/>
+      <c r="AH6" s="44"/>
+      <c r="AI6" s="44"/>
+      <c r="AJ6" s="44"/>
+      <c r="AK6" s="44"/>
+      <c r="AL6" s="44"/>
+      <c r="AM6" s="44"/>
+      <c r="AN6" s="48"/>
+      <c r="AO6" s="44"/>
+      <c r="AP6" s="44"/>
+      <c r="AQ6" s="44"/>
+      <c r="AR6" s="44"/>
+      <c r="AS6" s="44"/>
+      <c r="AT6" s="44"/>
+      <c r="AU6" s="44"/>
+      <c r="AV6" s="44"/>
+      <c r="AW6" s="44"/>
+      <c r="AX6" s="49"/>
+      <c r="AY6" s="44"/>
+      <c r="AZ6" s="44"/>
+      <c r="BA6" s="44"/>
+      <c r="BB6" s="50"/>
+      <c r="BC6" s="51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="44"/>
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="44"/>
+      <c r="AD7" s="47"/>
+      <c r="AE7" s="44"/>
+      <c r="AF7" s="44"/>
+      <c r="AG7" s="44"/>
+      <c r="AH7" s="44"/>
+      <c r="AI7" s="44"/>
+      <c r="AJ7" s="44"/>
+      <c r="AK7" s="44"/>
+      <c r="AL7" s="44"/>
+      <c r="AM7" s="44"/>
+      <c r="AN7" s="48"/>
+      <c r="AO7" s="44"/>
+      <c r="AP7" s="44"/>
+      <c r="AQ7" s="44"/>
+      <c r="AR7" s="44"/>
+      <c r="AS7" s="44"/>
+      <c r="AT7" s="44"/>
+      <c r="AU7" s="44"/>
+      <c r="AV7" s="44"/>
+      <c r="AW7" s="44"/>
+      <c r="AX7" s="49"/>
+      <c r="AY7" s="44"/>
+      <c r="AZ7" s="44"/>
+      <c r="BA7" s="44"/>
+      <c r="BB7" s="50"/>
+      <c r="BC7" s="51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="V8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="W8" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="X8" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="44"/>
+      <c r="AG8" s="44"/>
+      <c r="AH8" s="44"/>
+      <c r="AI8" s="44"/>
+      <c r="AJ8" s="44"/>
+      <c r="AK8" s="44"/>
+      <c r="AL8" s="44"/>
+      <c r="AM8" s="44"/>
+      <c r="AN8" s="48"/>
+      <c r="AO8" s="44"/>
+      <c r="AP8" s="44"/>
+      <c r="AQ8" s="44"/>
+      <c r="AR8" s="44"/>
+      <c r="AS8" s="44"/>
+      <c r="AT8" s="44"/>
+      <c r="AU8" s="44"/>
+      <c r="AV8" s="44"/>
+      <c r="AW8" s="44"/>
+      <c r="AX8" s="49"/>
+      <c r="AY8" s="44"/>
+      <c r="AZ8" s="44"/>
+      <c r="BA8" s="44"/>
+      <c r="BB8" s="50"/>
+      <c r="BC8" s="51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="V9" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="W9" s="44"/>
+      <c r="X9" s="44"/>
+      <c r="Y9" s="44"/>
+      <c r="Z9" s="44"/>
+      <c r="AA9" s="44"/>
+      <c r="AB9" s="44"/>
+      <c r="AC9" s="44"/>
+      <c r="AD9" s="47"/>
+      <c r="AE9" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG9" s="44"/>
+      <c r="AH9" s="44"/>
+      <c r="AI9" s="44"/>
+      <c r="AJ9" s="44"/>
+      <c r="AK9" s="44"/>
+      <c r="AL9" s="44"/>
+      <c r="AM9" s="44"/>
+      <c r="AN9" s="48"/>
+      <c r="AO9" s="44"/>
+      <c r="AP9" s="44"/>
+      <c r="AQ9" s="44"/>
+      <c r="AR9" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS9" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX9" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY9" s="44"/>
+      <c r="AZ9" s="44"/>
+      <c r="BA9" s="44"/>
+      <c r="BB9" s="50"/>
+      <c r="BC9" s="51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="V10" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="W10" s="44"/>
+      <c r="X10" s="44"/>
+      <c r="Y10" s="44"/>
+      <c r="Z10" s="44"/>
+      <c r="AA10" s="44"/>
+      <c r="AB10" s="44"/>
+      <c r="AC10" s="44"/>
+      <c r="AD10" s="47"/>
+      <c r="AE10" s="44"/>
+      <c r="AF10" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH10" s="44"/>
+      <c r="AI10" s="44"/>
+      <c r="AJ10" s="44"/>
+      <c r="AK10" s="44"/>
+      <c r="AL10" s="44"/>
+      <c r="AM10" s="44"/>
+      <c r="AN10" s="48"/>
+      <c r="AO10" s="44"/>
+      <c r="AP10" s="44"/>
+      <c r="AQ10" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR10" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS10" s="44"/>
+      <c r="AT10" s="44"/>
+      <c r="AU10" s="44"/>
+      <c r="AV10" s="44"/>
+      <c r="AW10" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX10" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY10" s="44"/>
+      <c r="AZ10" s="44"/>
+      <c r="BA10" s="44"/>
+      <c r="BB10" s="50"/>
+      <c r="BC10" s="51">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="W11" s="44"/>
+      <c r="X11" s="44"/>
+      <c r="Y11" s="44"/>
+      <c r="Z11" s="44"/>
+      <c r="AA11" s="44"/>
+      <c r="AB11" s="44"/>
+      <c r="AC11" s="44"/>
+      <c r="AD11" s="47"/>
+      <c r="AE11" s="44"/>
+      <c r="AF11" s="44"/>
+      <c r="AG11" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI11" s="44"/>
+      <c r="AJ11" s="44"/>
+      <c r="AK11" s="44"/>
+      <c r="AL11" s="44"/>
+      <c r="AM11" s="44"/>
+      <c r="AN11" s="48"/>
+      <c r="AO11" s="44"/>
+      <c r="AP11" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ11" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR11" s="44"/>
+      <c r="AS11" s="44"/>
+      <c r="AT11" s="44"/>
+      <c r="AU11" s="44"/>
+      <c r="AV11" s="44"/>
+      <c r="AW11" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX11" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY11" s="44"/>
+      <c r="AZ11" s="44"/>
+      <c r="BA11" s="44"/>
+      <c r="BB11" s="50"/>
+      <c r="BC11" s="51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="W12" s="44"/>
+      <c r="X12" s="44"/>
+      <c r="Y12" s="44"/>
+      <c r="Z12" s="44"/>
+      <c r="AA12" s="44"/>
+      <c r="AB12" s="44"/>
+      <c r="AC12" s="44"/>
+      <c r="AD12" s="47"/>
+      <c r="AE12" s="44"/>
+      <c r="AF12" s="44"/>
+      <c r="AG12" s="44"/>
+      <c r="AH12" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ12" s="44"/>
+      <c r="AK12" s="44"/>
+      <c r="AL12" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM12" s="44"/>
+      <c r="AN12" s="48"/>
+      <c r="AO12" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP12" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ12" s="44"/>
+      <c r="AR12" s="44"/>
+      <c r="AS12" s="44"/>
+      <c r="AT12" s="44"/>
+      <c r="AU12" s="44"/>
+      <c r="AV12" s="44"/>
+      <c r="AW12" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX12" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY12" s="44"/>
+      <c r="AZ12" s="44"/>
+      <c r="BA12" s="44"/>
+      <c r="BB12" s="50"/>
+      <c r="BC12" s="51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="V13" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="W13" s="44"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="44"/>
+      <c r="Z13" s="44"/>
+      <c r="AA13" s="44"/>
+      <c r="AB13" s="44"/>
+      <c r="AC13" s="44"/>
+      <c r="AD13" s="47"/>
+      <c r="AE13" s="44"/>
+      <c r="AF13" s="44"/>
+      <c r="AG13" s="44"/>
+      <c r="AH13" s="44"/>
+      <c r="AI13" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP13" s="44"/>
+      <c r="AQ13" s="44"/>
+      <c r="AR13" s="44"/>
+      <c r="AS13" s="44"/>
+      <c r="AT13" s="44"/>
+      <c r="AU13" s="44"/>
+      <c r="AV13" s="44"/>
+      <c r="AW13" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX13" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY13" s="44"/>
+      <c r="AZ13" s="44"/>
+      <c r="BA13" s="44"/>
+      <c r="BB13" s="50"/>
+      <c r="BC13" s="51">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="W14" s="44"/>
+      <c r="X14" s="44"/>
+      <c r="Y14" s="44"/>
+      <c r="Z14" s="44"/>
+      <c r="AA14" s="44"/>
+      <c r="AB14" s="44"/>
+      <c r="AC14" s="44"/>
+      <c r="AD14" s="44"/>
+      <c r="AE14" s="44"/>
+      <c r="AF14" s="44"/>
+      <c r="AG14" s="44"/>
+      <c r="AH14" s="44"/>
+      <c r="AI14" s="44"/>
+      <c r="AJ14" s="44"/>
+      <c r="AK14" s="44"/>
+      <c r="AL14" s="44"/>
+      <c r="AM14" s="44"/>
+      <c r="AN14" s="48"/>
+      <c r="AO14" s="44"/>
+      <c r="AP14" s="44"/>
+      <c r="AQ14" s="44"/>
+      <c r="AR14" s="44"/>
+      <c r="AS14" s="44"/>
+      <c r="AT14" s="44"/>
+      <c r="AU14" s="44"/>
+      <c r="AV14" s="44"/>
+      <c r="AW14" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX14" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY14" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ14" s="44"/>
+      <c r="BA14" s="44"/>
+      <c r="BB14" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC14" s="51">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="46"/>
+      <c r="U15" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="W15" s="44"/>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="44"/>
+      <c r="Z15" s="44"/>
+      <c r="AA15" s="44"/>
+      <c r="AB15" s="44"/>
+      <c r="AC15" s="44"/>
+      <c r="AD15" s="44"/>
+      <c r="AE15" s="44"/>
+      <c r="AF15" s="44"/>
+      <c r="AG15" s="44"/>
+      <c r="AH15" s="44"/>
+      <c r="AI15" s="44"/>
+      <c r="AJ15" s="44"/>
+      <c r="AK15" s="44"/>
+      <c r="AL15" s="44"/>
+      <c r="AM15" s="44"/>
+      <c r="AN15" s="48"/>
+      <c r="AO15" s="44"/>
+      <c r="AP15" s="44"/>
+      <c r="AQ15" s="44"/>
+      <c r="AR15" s="44"/>
+      <c r="AS15" s="44"/>
+      <c r="AT15" s="44"/>
+      <c r="AU15" s="44"/>
+      <c r="AV15" s="44"/>
+      <c r="AW15" s="44"/>
+      <c r="AX15" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY15" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA15" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB15" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC15" s="51">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="V16" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="W16" s="44"/>
+      <c r="X16" s="44"/>
+      <c r="Y16" s="44"/>
+      <c r="Z16" s="44"/>
+      <c r="AA16" s="44"/>
+      <c r="AB16" s="44"/>
+      <c r="AC16" s="44"/>
+      <c r="AD16" s="44"/>
+      <c r="AE16" s="44"/>
+      <c r="AF16" s="44"/>
+      <c r="AG16" s="44"/>
+      <c r="AH16" s="44"/>
+      <c r="AI16" s="44"/>
+      <c r="AJ16" s="44"/>
+      <c r="AK16" s="44"/>
+      <c r="AL16" s="44"/>
+      <c r="AM16" s="44"/>
+      <c r="AN16" s="48"/>
+      <c r="AO16" s="44"/>
+      <c r="AP16" s="44"/>
+      <c r="AQ16" s="44"/>
+      <c r="AR16" s="44"/>
+      <c r="AS16" s="44"/>
+      <c r="AT16" s="44"/>
+      <c r="AU16" s="44"/>
+      <c r="AV16" s="44"/>
+      <c r="AW16" s="44"/>
+      <c r="AX16" s="49"/>
+      <c r="AY16" s="44"/>
+      <c r="AZ16" s="44"/>
+      <c r="BA16" s="44"/>
+      <c r="BB16" s="50"/>
+      <c r="BC16" s="51">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="46"/>
+      <c r="U17" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="V17" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="W17" s="44"/>
+      <c r="X17" s="44"/>
+      <c r="Y17" s="44"/>
+      <c r="Z17" s="44"/>
+      <c r="AA17" s="44"/>
+      <c r="AB17" s="44"/>
+      <c r="AC17" s="44"/>
+      <c r="AD17" s="47"/>
+      <c r="AE17" s="44"/>
+      <c r="AF17" s="44"/>
+      <c r="AG17" s="44"/>
+      <c r="AH17" s="44"/>
+      <c r="AI17" s="44"/>
+      <c r="AJ17" s="44"/>
+      <c r="AK17" s="44"/>
+      <c r="AL17" s="44"/>
+      <c r="AM17" s="44"/>
+      <c r="AN17" s="48"/>
+      <c r="AO17" s="44"/>
+      <c r="AP17" s="44"/>
+      <c r="AQ17" s="44"/>
+      <c r="AR17" s="44"/>
+      <c r="AS17" s="44"/>
+      <c r="AT17" s="44"/>
+      <c r="AU17" s="44"/>
+      <c r="AV17" s="44"/>
+      <c r="AW17" s="44"/>
+      <c r="AX17" s="49"/>
+      <c r="AY17" s="44"/>
+      <c r="AZ17" s="44"/>
+      <c r="BA17" s="44"/>
+      <c r="BB17" s="50"/>
+      <c r="BC17" s="51">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="T18" s="46"/>
+      <c r="U18" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="V18" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="W18" s="44"/>
+      <c r="X18" s="44"/>
+      <c r="Y18" s="44"/>
+      <c r="Z18" s="44"/>
+      <c r="AA18" s="44"/>
+      <c r="AB18" s="44"/>
+      <c r="AC18" s="44"/>
+      <c r="AD18" s="47"/>
+      <c r="AE18" s="44"/>
+      <c r="AF18" s="44"/>
+      <c r="AG18" s="44"/>
+      <c r="AH18" s="44"/>
+      <c r="AI18" s="44"/>
+      <c r="AJ18" s="44"/>
+      <c r="AK18" s="44"/>
+      <c r="AL18" s="44"/>
+      <c r="AM18" s="44"/>
+      <c r="AN18" s="48"/>
+      <c r="AO18" s="44"/>
+      <c r="AP18" s="44"/>
+      <c r="AQ18" s="44"/>
+      <c r="AR18" s="44"/>
+      <c r="AS18" s="44"/>
+      <c r="AT18" s="29"/>
+      <c r="AU18" s="29"/>
+      <c r="AV18" s="29"/>
+      <c r="AW18" s="29"/>
+      <c r="AX18" s="40"/>
+      <c r="AY18" s="29"/>
+      <c r="AZ18" s="29"/>
+      <c r="BA18" s="29"/>
+      <c r="BB18" s="29"/>
+      <c r="BC18" s="51">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A19" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="45"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q19" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="R19" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="S19" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="T19" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="U19" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="V19" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="W19" s="44"/>
+      <c r="X19" s="44"/>
+      <c r="Y19" s="44"/>
+      <c r="Z19" s="44"/>
+      <c r="AA19" s="44"/>
+      <c r="AB19" s="44"/>
+      <c r="AC19" s="44"/>
+      <c r="AD19" s="47"/>
+      <c r="AE19" s="44"/>
+      <c r="AF19" s="44"/>
+      <c r="AG19" s="44"/>
+      <c r="AH19" s="44"/>
+      <c r="AI19" s="44"/>
+      <c r="AJ19" s="44"/>
+      <c r="AK19" s="44"/>
+      <c r="AL19" s="44"/>
+      <c r="AM19" s="44"/>
+      <c r="AN19" s="48"/>
+      <c r="AO19" s="44"/>
+      <c r="AP19" s="44"/>
+      <c r="AQ19" s="44"/>
+      <c r="AR19" s="44"/>
+      <c r="AS19" s="44"/>
+      <c r="AT19" s="44"/>
+      <c r="AU19" s="44"/>
+      <c r="AV19" s="44"/>
+      <c r="AW19" s="44"/>
+      <c r="AX19" s="49"/>
+      <c r="AY19" s="44"/>
+      <c r="AZ19" s="44"/>
+      <c r="BA19" s="44"/>
+      <c r="BB19" s="50"/>
+      <c r="BC19" s="51">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="44"/>
+      <c r="Y20" s="44"/>
+      <c r="Z20" s="44"/>
+      <c r="AA20" s="44"/>
+      <c r="AB20" s="44"/>
+      <c r="AC20" s="44"/>
+      <c r="AD20" s="47"/>
+      <c r="AE20" s="44"/>
+      <c r="AF20" s="44"/>
+      <c r="AG20" s="44"/>
+      <c r="AH20" s="44"/>
+      <c r="AI20" s="44"/>
+      <c r="AJ20" s="44"/>
+      <c r="AK20" s="44"/>
+      <c r="AL20" s="44"/>
+      <c r="AM20" s="44"/>
+      <c r="AN20" s="48"/>
+      <c r="AO20" s="44"/>
+      <c r="AP20" s="44"/>
+      <c r="AQ20" s="44"/>
+      <c r="AR20" s="44"/>
+      <c r="AS20" s="44"/>
+      <c r="AT20" s="44"/>
+      <c r="AU20" s="44"/>
+      <c r="AV20" s="44"/>
+      <c r="AW20" s="44"/>
+      <c r="AX20" s="44"/>
+      <c r="AY20" s="44"/>
+      <c r="AZ20" s="44"/>
+      <c r="BA20" s="44"/>
+      <c r="BB20" s="44"/>
+      <c r="BC20" s="51">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="44"/>
+      <c r="Y21" s="44"/>
+      <c r="Z21" s="44"/>
+      <c r="AA21" s="44"/>
+      <c r="AB21" s="44"/>
+      <c r="AC21" s="44"/>
+      <c r="AD21" s="47"/>
+      <c r="AE21" s="44"/>
+      <c r="AF21" s="44"/>
+      <c r="AG21" s="44"/>
+      <c r="AH21" s="29"/>
+      <c r="AI21" s="29"/>
+      <c r="AJ21" s="29"/>
+      <c r="AK21" s="29"/>
+      <c r="AL21" s="29"/>
+      <c r="AM21" s="29"/>
+      <c r="AN21" s="39"/>
+      <c r="AO21" s="29"/>
+      <c r="AP21" s="29"/>
+      <c r="AQ21" s="44"/>
+      <c r="AR21" s="44"/>
+      <c r="AS21" s="44"/>
+      <c r="AT21" s="44"/>
+      <c r="AU21" s="44"/>
+      <c r="AV21" s="44"/>
+      <c r="AW21" s="44"/>
+      <c r="AX21" s="44"/>
+      <c r="AY21" s="44"/>
+      <c r="AZ21" s="44"/>
+      <c r="BA21" s="44"/>
+      <c r="BB21" s="44"/>
+      <c r="BC21" s="51">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="44"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="44"/>
+      <c r="X22" s="44"/>
+      <c r="Y22" s="44"/>
+      <c r="Z22" s="44"/>
+      <c r="AA22" s="44"/>
+      <c r="AB22" s="44"/>
+      <c r="AC22" s="44"/>
+      <c r="AD22" s="47"/>
+      <c r="AE22" s="44"/>
+      <c r="AF22" s="44"/>
+      <c r="AG22" s="44"/>
+      <c r="AH22" s="44"/>
+      <c r="AI22" s="44"/>
+      <c r="AJ22" s="44"/>
+      <c r="AK22" s="44"/>
+      <c r="AL22" s="44"/>
+      <c r="AM22" s="44"/>
+      <c r="AN22" s="48"/>
+      <c r="AO22" s="44"/>
+      <c r="AP22" s="44"/>
+      <c r="AQ22" s="44"/>
+      <c r="AR22" s="44"/>
+      <c r="AS22" s="44"/>
+      <c r="AT22" s="44"/>
+      <c r="AU22" s="44"/>
+      <c r="AV22" s="44"/>
+      <c r="AW22" s="44"/>
+      <c r="AX22" s="44"/>
+      <c r="AY22" s="44"/>
+      <c r="AZ22" s="44"/>
+      <c r="BA22" s="44"/>
+      <c r="BB22" s="44"/>
+      <c r="BC22" s="51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="46"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="44"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="44"/>
+      <c r="Y23" s="44"/>
+      <c r="Z23" s="44"/>
+      <c r="AA23" s="44"/>
+      <c r="AB23" s="44"/>
+      <c r="AC23" s="44"/>
+      <c r="AD23" s="47"/>
+      <c r="AE23" s="44"/>
+      <c r="AF23" s="44"/>
+      <c r="AG23" s="44"/>
+      <c r="AH23" s="44"/>
+      <c r="AI23" s="44"/>
+      <c r="AJ23" s="44"/>
+      <c r="AK23" s="44"/>
+      <c r="AL23" s="44"/>
+      <c r="AM23" s="44"/>
+      <c r="AN23" s="44"/>
+      <c r="AO23" s="44"/>
+      <c r="AP23" s="44"/>
+      <c r="AQ23" s="44"/>
+      <c r="AR23" s="44"/>
+      <c r="AS23" s="44"/>
+      <c r="AT23" s="44"/>
+      <c r="AU23" s="44"/>
+      <c r="AV23" s="44"/>
+      <c r="AW23" s="44"/>
+      <c r="AX23" s="44"/>
+      <c r="AY23" s="44"/>
+      <c r="AZ23" s="44"/>
+      <c r="BA23" s="44"/>
+      <c r="BB23" s="44"/>
+      <c r="BC23" s="51">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="46"/>
+      <c r="U24" s="44"/>
+      <c r="V24" s="44"/>
+      <c r="W24" s="44"/>
+      <c r="X24" s="44"/>
+      <c r="Y24" s="44"/>
+      <c r="Z24" s="44"/>
+      <c r="AA24" s="44"/>
+      <c r="AB24" s="44"/>
+      <c r="AC24" s="44"/>
+      <c r="AD24" s="47"/>
+      <c r="AE24" s="44"/>
+      <c r="AF24" s="44"/>
+      <c r="AG24" s="44"/>
+      <c r="AH24" s="44"/>
+      <c r="AI24" s="44"/>
+      <c r="AJ24" s="44"/>
+      <c r="AK24" s="44"/>
+      <c r="AL24" s="44"/>
+      <c r="AM24" s="44"/>
+      <c r="AN24" s="44"/>
+      <c r="AO24" s="44"/>
+      <c r="AP24" s="44"/>
+      <c r="AQ24" s="44"/>
+      <c r="AR24" s="44"/>
+      <c r="AS24" s="44"/>
+      <c r="AT24" s="44"/>
+      <c r="AU24" s="44"/>
+      <c r="AV24" s="44"/>
+      <c r="AW24" s="44"/>
+      <c r="AX24" s="44"/>
+      <c r="AY24" s="44"/>
+      <c r="AZ24" s="44"/>
+      <c r="BA24" s="44"/>
+      <c r="BB24" s="44"/>
+      <c r="BC24" s="51">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A25" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="46"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="44"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="44"/>
+      <c r="Y25" s="44"/>
+      <c r="Z25" s="44"/>
+      <c r="AA25" s="44"/>
+      <c r="AB25" s="44"/>
+      <c r="AC25" s="44"/>
+      <c r="AD25" s="47"/>
+      <c r="AE25" s="44"/>
+      <c r="AF25" s="44"/>
+      <c r="AG25" s="44"/>
+      <c r="AH25" s="44"/>
+      <c r="AI25" s="44"/>
+      <c r="AJ25" s="44"/>
+      <c r="AK25" s="44"/>
+      <c r="AL25" s="44"/>
+      <c r="AM25" s="44"/>
+      <c r="AN25" s="44"/>
+      <c r="AO25" s="44"/>
+      <c r="AP25" s="44"/>
+      <c r="AQ25" s="44"/>
+      <c r="AR25" s="44"/>
+      <c r="AS25" s="44"/>
+      <c r="AT25" s="44"/>
+      <c r="AU25" s="44"/>
+      <c r="AV25" s="44"/>
+      <c r="AW25" s="44"/>
+      <c r="AX25" s="44"/>
+      <c r="AY25" s="44"/>
+      <c r="AZ25" s="44"/>
+      <c r="BA25" s="44"/>
+      <c r="BB25" s="44"/>
+      <c r="BC25" s="51">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A26" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="45"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="46"/>
+      <c r="U26" s="44"/>
+      <c r="V26" s="44"/>
+      <c r="W26" s="44"/>
+      <c r="X26" s="44"/>
+      <c r="Y26" s="44"/>
+      <c r="Z26" s="44"/>
+      <c r="AA26" s="44"/>
+      <c r="AB26" s="44"/>
+      <c r="AC26" s="44"/>
+      <c r="AD26" s="47"/>
+      <c r="AE26" s="44"/>
+      <c r="AF26" s="44"/>
+      <c r="AG26" s="44"/>
+      <c r="AH26" s="44"/>
+      <c r="AI26" s="44"/>
+      <c r="AJ26" s="44"/>
+      <c r="AK26" s="44"/>
+      <c r="AL26" s="44"/>
+      <c r="AM26" s="44"/>
+      <c r="AN26" s="44"/>
+      <c r="AO26" s="44"/>
+      <c r="AP26" s="44"/>
+      <c r="AQ26" s="44"/>
+      <c r="AR26" s="44"/>
+      <c r="AS26" s="44"/>
+      <c r="AT26" s="44"/>
+      <c r="AU26" s="44"/>
+      <c r="AV26" s="44"/>
+      <c r="AW26" s="44"/>
+      <c r="AX26" s="49"/>
+      <c r="AY26" s="44"/>
+      <c r="AZ26" s="44"/>
+      <c r="BA26" s="44"/>
+      <c r="BB26" s="50"/>
+      <c r="BC26" s="51">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="46"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="44"/>
+      <c r="Y27" s="44"/>
+      <c r="Z27" s="44"/>
+      <c r="AA27" s="44"/>
+      <c r="AB27" s="44"/>
+      <c r="AC27" s="44"/>
+      <c r="AD27" s="47"/>
+      <c r="AE27" s="44"/>
+      <c r="AF27" s="44"/>
+      <c r="AG27" s="44"/>
+      <c r="AH27" s="44"/>
+      <c r="AI27" s="44"/>
+      <c r="AJ27" s="44"/>
+      <c r="AK27" s="44"/>
+      <c r="AL27" s="44"/>
+      <c r="AM27" s="44"/>
+      <c r="AN27" s="44"/>
+      <c r="AO27" s="44"/>
+      <c r="AP27" s="44"/>
+      <c r="AQ27" s="44"/>
+      <c r="AR27" s="44"/>
+      <c r="AS27" s="44"/>
+      <c r="AT27" s="44"/>
+      <c r="AU27" s="44"/>
+      <c r="AV27" s="44"/>
+      <c r="AW27" s="44"/>
+      <c r="AX27" s="49"/>
+      <c r="AY27" s="44"/>
+      <c r="AZ27" s="44"/>
+      <c r="BA27" s="44"/>
+      <c r="BB27" s="50"/>
+      <c r="BC27" s="51">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A28" s="44"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="44"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="46"/>
+      <c r="U28" s="44"/>
+      <c r="V28" s="44"/>
+      <c r="W28" s="44"/>
+      <c r="X28" s="44"/>
+      <c r="Y28" s="44"/>
+      <c r="Z28" s="44"/>
+      <c r="AA28" s="44"/>
+      <c r="AB28" s="44"/>
+      <c r="AC28" s="44"/>
+      <c r="AD28" s="47"/>
+      <c r="AE28" s="44"/>
+      <c r="AF28" s="44"/>
+      <c r="AG28" s="44"/>
+      <c r="AH28" s="44"/>
+      <c r="AI28" s="44"/>
+      <c r="AJ28" s="44"/>
+      <c r="AK28" s="44"/>
+      <c r="AL28" s="44"/>
+      <c r="AM28" s="44"/>
+      <c r="AN28" s="44"/>
+      <c r="AO28" s="44"/>
+      <c r="AP28" s="44"/>
+      <c r="AQ28" s="44"/>
+      <c r="AR28" s="44"/>
+      <c r="AS28" s="44"/>
+      <c r="AT28" s="44"/>
+      <c r="AU28" s="44"/>
+      <c r="AV28" s="44"/>
+      <c r="AW28" s="44"/>
+      <c r="AX28" s="49"/>
+      <c r="AY28" s="44"/>
+      <c r="AZ28" s="44"/>
+      <c r="BA28" s="44"/>
+      <c r="BB28" s="50"/>
+      <c r="BC28" s="51">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="46"/>
+      <c r="U29" s="44"/>
+      <c r="V29" s="44"/>
+      <c r="W29" s="44"/>
+      <c r="X29" s="44"/>
+      <c r="Y29" s="44"/>
+      <c r="Z29" s="44"/>
+      <c r="AA29" s="44"/>
+      <c r="AB29" s="44"/>
+      <c r="AC29" s="44"/>
+      <c r="AD29" s="47"/>
+      <c r="AE29" s="44"/>
+      <c r="AF29" s="44"/>
+      <c r="AG29" s="44"/>
+      <c r="AH29" s="44"/>
+      <c r="AI29" s="44"/>
+      <c r="AJ29" s="44"/>
+      <c r="AK29" s="44"/>
+      <c r="AL29" s="44"/>
+      <c r="AM29" s="44"/>
+      <c r="AN29" s="48"/>
+      <c r="AO29" s="44"/>
+      <c r="AP29" s="44"/>
+      <c r="AQ29" s="44"/>
+      <c r="AR29" s="44"/>
+      <c r="AS29" s="44"/>
+      <c r="AT29" s="44"/>
+      <c r="AU29" s="44"/>
+      <c r="AV29" s="44"/>
+      <c r="AW29" s="44"/>
+      <c r="AX29" s="49"/>
+      <c r="AY29" s="44"/>
+      <c r="AZ29" s="44"/>
+      <c r="BA29" s="44"/>
+      <c r="BB29" s="50"/>
+      <c r="BC29" s="51">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A30" s="54"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="54"/>
+      <c r="R30" s="54"/>
+      <c r="S30" s="54"/>
+      <c r="T30" s="56"/>
+      <c r="U30" s="54"/>
+      <c r="V30" s="54"/>
+      <c r="W30" s="54"/>
+      <c r="X30" s="54"/>
+      <c r="Y30" s="54"/>
+      <c r="Z30" s="54"/>
+      <c r="AA30" s="54"/>
+      <c r="AB30" s="54"/>
+      <c r="AC30" s="54"/>
+      <c r="AD30" s="57"/>
+      <c r="AE30" s="54"/>
+      <c r="AF30" s="54"/>
+      <c r="AG30" s="54"/>
+      <c r="AH30" s="54"/>
+      <c r="AI30" s="54"/>
+      <c r="AJ30" s="54"/>
+      <c r="AK30" s="54"/>
+      <c r="AL30" s="54"/>
+      <c r="AM30" s="54"/>
+      <c r="AN30" s="58"/>
+      <c r="AO30" s="54"/>
+      <c r="AP30" s="54"/>
+      <c r="AQ30" s="54"/>
+      <c r="AR30" s="54"/>
+      <c r="AS30" s="54"/>
+      <c r="AT30" s="54"/>
+      <c r="AU30" s="54"/>
+      <c r="AV30" s="54"/>
+      <c r="AW30" s="54"/>
+      <c r="AX30" s="59"/>
+      <c r="AY30" s="54"/>
+      <c r="AZ30" s="54"/>
+      <c r="BA30" s="54"/>
+      <c r="BB30" s="60"/>
+      <c r="BC30" s="51">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="66"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="66"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="66"/>
+      <c r="P31" s="66"/>
+      <c r="Q31" s="66"/>
+      <c r="R31" s="66"/>
+      <c r="S31" s="66"/>
+      <c r="T31" s="66"/>
+      <c r="U31" s="66"/>
+      <c r="V31" s="66"/>
+      <c r="W31" s="66"/>
+      <c r="X31" s="66"/>
+      <c r="Y31" s="66"/>
+      <c r="Z31" s="66"/>
+      <c r="AA31" s="66"/>
+      <c r="AB31" s="66"/>
+      <c r="AC31" s="66"/>
+      <c r="AD31" s="66"/>
+      <c r="AE31" s="66"/>
+      <c r="AF31" s="66"/>
+      <c r="AG31" s="66"/>
+      <c r="AH31" s="66"/>
+      <c r="AI31" s="66"/>
+      <c r="AJ31" s="66"/>
+      <c r="AK31" s="66"/>
+      <c r="AL31" s="66"/>
+      <c r="AM31" s="66"/>
+      <c r="AN31" s="66"/>
+      <c r="AO31" s="66"/>
+      <c r="AP31" s="66"/>
+      <c r="AQ31" s="66"/>
+      <c r="AR31" s="66"/>
+      <c r="AS31" s="66"/>
+      <c r="AT31" s="66"/>
+      <c r="AU31" s="66"/>
+      <c r="AV31" s="66"/>
+      <c r="AW31" s="66"/>
+      <c r="AX31" s="66"/>
+      <c r="AY31" s="66"/>
+      <c r="AZ31" s="66"/>
+      <c r="BA31" s="66"/>
+      <c r="BB31" s="66"/>
+      <c r="BC31" s="51">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A32" s="53">
+        <v>0</v>
+      </c>
+      <c r="B32" s="53">
+        <v>1</v>
+      </c>
+      <c r="C32" s="53">
+        <v>2</v>
+      </c>
+      <c r="D32" s="53">
+        <v>3</v>
+      </c>
+      <c r="E32" s="53">
+        <v>4</v>
+      </c>
+      <c r="F32" s="53">
+        <v>5</v>
+      </c>
+      <c r="G32" s="53">
+        <v>6</v>
+      </c>
+      <c r="H32" s="53">
+        <v>7</v>
+      </c>
+      <c r="I32" s="53">
+        <v>8</v>
+      </c>
+      <c r="J32" s="53">
+        <v>9</v>
+      </c>
+      <c r="K32" s="53">
+        <v>10</v>
+      </c>
+      <c r="L32" s="53">
+        <v>11</v>
+      </c>
+      <c r="M32" s="53">
+        <v>12</v>
+      </c>
+      <c r="N32" s="53">
+        <v>13</v>
+      </c>
+      <c r="O32" s="53">
+        <v>14</v>
+      </c>
+      <c r="P32" s="53">
+        <v>15</v>
+      </c>
+      <c r="Q32" s="53">
+        <v>16</v>
+      </c>
+      <c r="R32" s="53">
+        <v>17</v>
+      </c>
+      <c r="S32" s="53">
+        <v>18</v>
+      </c>
+      <c r="T32" s="53">
+        <v>19</v>
+      </c>
+      <c r="U32" s="53">
+        <v>20</v>
+      </c>
+      <c r="V32" s="53">
+        <v>21</v>
+      </c>
+      <c r="W32" s="53">
+        <v>22</v>
+      </c>
+      <c r="X32" s="53">
+        <v>23</v>
+      </c>
+      <c r="Y32" s="53">
+        <v>24</v>
+      </c>
+      <c r="Z32" s="53">
+        <v>25</v>
+      </c>
+      <c r="AA32" s="53">
+        <v>26</v>
+      </c>
+      <c r="AB32" s="53">
+        <v>27</v>
+      </c>
+      <c r="AC32" s="53">
+        <v>28</v>
+      </c>
+      <c r="AD32" s="53">
+        <v>29</v>
+      </c>
+      <c r="AE32" s="53">
+        <v>30</v>
+      </c>
+      <c r="AF32" s="53">
+        <v>31</v>
+      </c>
+      <c r="AG32" s="53">
+        <v>32</v>
+      </c>
+      <c r="AH32" s="53">
+        <v>33</v>
+      </c>
+      <c r="AI32" s="53">
+        <v>34</v>
+      </c>
+      <c r="AJ32" s="53">
+        <v>35</v>
+      </c>
+      <c r="AK32" s="53">
+        <v>36</v>
+      </c>
+      <c r="AL32" s="53">
+        <v>37</v>
+      </c>
+      <c r="AM32" s="53">
+        <v>38</v>
+      </c>
+      <c r="AN32" s="53">
+        <v>39</v>
+      </c>
+      <c r="AO32" s="53">
+        <v>40</v>
+      </c>
+      <c r="AP32" s="53">
+        <v>41</v>
+      </c>
+      <c r="AQ32" s="53">
+        <v>42</v>
+      </c>
+      <c r="AR32" s="53">
+        <v>43</v>
+      </c>
+      <c r="AS32" s="53">
+        <v>44</v>
+      </c>
+      <c r="AT32" s="53">
+        <v>45</v>
+      </c>
+      <c r="AU32" s="53">
+        <v>46</v>
+      </c>
+      <c r="AV32" s="53">
+        <v>47</v>
+      </c>
+      <c r="AW32" s="53">
+        <v>48</v>
+      </c>
+      <c r="AX32" s="53">
+        <v>49</v>
+      </c>
+      <c r="AY32" s="53">
+        <v>50</v>
+      </c>
+      <c r="AZ32" s="53">
+        <v>51</v>
+      </c>
+      <c r="BA32" s="53">
+        <v>52</v>
+      </c>
+      <c r="BB32" s="53">
+        <v>53</v>
+      </c>
+      <c r="BC32" s="35"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF70BD8-2872-42BA-B1C3-A79569DA3A3A}">
+  <dimension ref="A1:BC32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="62"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="62"/>
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="62"/>
+      <c r="AT1" s="62"/>
+      <c r="AU1" s="62"/>
+      <c r="AV1" s="62"/>
+      <c r="AW1" s="62"/>
+      <c r="AX1" s="62"/>
+      <c r="AY1" s="62"/>
+      <c r="AZ1" s="62"/>
+      <c r="BA1" s="62"/>
+      <c r="BB1" s="63"/>
+      <c r="BC1" s="65"/>
+    </row>
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="44"/>
+      <c r="AR2" s="44"/>
+      <c r="AS2" s="44"/>
+      <c r="AT2" s="44"/>
+      <c r="AU2" s="44"/>
+      <c r="AV2" s="44"/>
+      <c r="AW2" s="44"/>
+      <c r="AX2" s="49"/>
+      <c r="AY2" s="44"/>
+      <c r="AZ2" s="44"/>
+      <c r="BA2" s="44"/>
+      <c r="BB2" s="50"/>
+      <c r="BC2" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="47"/>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="44"/>
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="44"/>
+      <c r="AN3" s="48"/>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="44"/>
+      <c r="AR3" s="44"/>
+      <c r="AS3" s="44"/>
+      <c r="AT3" s="44"/>
+      <c r="AU3" s="44"/>
+      <c r="AV3" s="44"/>
+      <c r="AW3" s="44"/>
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="44"/>
+      <c r="AZ3" s="44"/>
+      <c r="BA3" s="44"/>
+      <c r="BB3" s="50"/>
+      <c r="BC3" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="44"/>
+      <c r="AG4" s="44"/>
+      <c r="AH4" s="44"/>
+      <c r="AI4" s="44"/>
+      <c r="AJ4" s="44"/>
+      <c r="AK4" s="44"/>
+      <c r="AL4" s="44"/>
+      <c r="AM4" s="44"/>
+      <c r="AN4" s="48"/>
+      <c r="AO4" s="44"/>
+      <c r="AP4" s="44"/>
+      <c r="AQ4" s="44"/>
+      <c r="AR4" s="44"/>
+      <c r="AS4" s="44"/>
+      <c r="AT4" s="44"/>
+      <c r="AU4" s="44"/>
+      <c r="AV4" s="44"/>
+      <c r="AW4" s="44"/>
+      <c r="AX4" s="49"/>
+      <c r="AY4" s="44"/>
+      <c r="AZ4" s="44"/>
+      <c r="BA4" s="44"/>
+      <c r="BB4" s="50"/>
+      <c r="BC4" s="51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="44"/>
+      <c r="Z5" s="44"/>
+      <c r="AA5" s="44"/>
+      <c r="AB5" s="44"/>
+      <c r="AC5" s="44"/>
+      <c r="AD5" s="44"/>
+      <c r="AE5" s="44"/>
+      <c r="AF5" s="44"/>
+      <c r="AG5" s="44"/>
+      <c r="AH5" s="44"/>
+      <c r="AI5" s="44"/>
+      <c r="AJ5" s="44"/>
+      <c r="AK5" s="44"/>
+      <c r="AL5" s="44"/>
+      <c r="AM5" s="44"/>
+      <c r="AN5" s="48"/>
+      <c r="AO5" s="44"/>
+      <c r="AP5" s="44"/>
+      <c r="AQ5" s="44"/>
+      <c r="AR5" s="44"/>
+      <c r="AS5" s="44"/>
+      <c r="AT5" s="44"/>
+      <c r="AU5" s="44"/>
+      <c r="AV5" s="44"/>
+      <c r="AW5" s="44"/>
+      <c r="AX5" s="49"/>
+      <c r="AY5" s="44"/>
+      <c r="AZ5" s="44"/>
+      <c r="BA5" s="44"/>
+      <c r="BB5" s="50"/>
+      <c r="BC5" s="51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="44"/>
+      <c r="Z6" s="44"/>
+      <c r="AA6" s="44"/>
+      <c r="AB6" s="44"/>
+      <c r="AC6" s="44"/>
+      <c r="AD6" s="44"/>
+      <c r="AE6" s="44"/>
+      <c r="AF6" s="44"/>
+      <c r="AG6" s="44"/>
+      <c r="AH6" s="44"/>
+      <c r="AI6" s="44"/>
+      <c r="AJ6" s="44"/>
+      <c r="AK6" s="44"/>
+      <c r="AL6" s="44"/>
+      <c r="AM6" s="44"/>
+      <c r="AN6" s="48"/>
+      <c r="AO6" s="44"/>
+      <c r="AP6" s="44"/>
+      <c r="AQ6" s="44"/>
+      <c r="AR6" s="44"/>
+      <c r="AS6" s="44"/>
+      <c r="AT6" s="44"/>
+      <c r="AU6" s="44"/>
+      <c r="AV6" s="44"/>
+      <c r="AW6" s="44"/>
+      <c r="AX6" s="49"/>
+      <c r="AY6" s="44"/>
+      <c r="AZ6" s="44"/>
+      <c r="BA6" s="44"/>
+      <c r="BB6" s="50"/>
+      <c r="BC6" s="51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="44"/>
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="44"/>
+      <c r="AD7" s="47"/>
+      <c r="AE7" s="44"/>
+      <c r="AF7" s="44"/>
+      <c r="AG7" s="44"/>
+      <c r="AH7" s="44"/>
+      <c r="AI7" s="44"/>
+      <c r="AJ7" s="44"/>
+      <c r="AK7" s="44"/>
+      <c r="AL7" s="44"/>
+      <c r="AM7" s="44"/>
+      <c r="AN7" s="48"/>
+      <c r="AO7" s="44"/>
+      <c r="AP7" s="44"/>
+      <c r="AQ7" s="44"/>
+      <c r="AR7" s="44"/>
+      <c r="AS7" s="44"/>
+      <c r="AT7" s="44"/>
+      <c r="AU7" s="44"/>
+      <c r="AV7" s="44"/>
+      <c r="AW7" s="44"/>
+      <c r="AX7" s="49"/>
+      <c r="AY7" s="44"/>
+      <c r="AZ7" s="44"/>
+      <c r="BA7" s="44"/>
+      <c r="BB7" s="50"/>
+      <c r="BC7" s="51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="44"/>
+      <c r="V8" s="44"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="44"/>
+      <c r="AT8" s="44"/>
+      <c r="AU8" s="44"/>
+      <c r="AV8" s="44"/>
+      <c r="AW8" s="44"/>
+      <c r="AX8" s="49"/>
+      <c r="AY8" s="44"/>
+      <c r="AZ8" s="44"/>
+      <c r="BA8" s="44"/>
+      <c r="BB8" s="50"/>
+      <c r="BC8" s="51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="44"/>
+      <c r="V9" s="44"/>
+      <c r="W9" s="44"/>
+      <c r="X9" s="44"/>
+      <c r="Y9" s="44"/>
+      <c r="AT9" s="44"/>
+      <c r="AU9" s="44"/>
+      <c r="AV9" s="44"/>
+      <c r="AW9" s="44"/>
+      <c r="AX9" s="49"/>
+      <c r="AY9" s="44"/>
+      <c r="AZ9" s="44"/>
+      <c r="BA9" s="44"/>
+      <c r="BB9" s="50"/>
+      <c r="BC9" s="51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="44"/>
+      <c r="V10" s="44"/>
+      <c r="W10" s="44"/>
+      <c r="X10" s="44"/>
+      <c r="Y10" s="44"/>
+      <c r="Z10" s="44"/>
+      <c r="AA10" s="44"/>
+      <c r="AB10" s="44"/>
+      <c r="AC10" s="44"/>
+      <c r="AD10" s="47"/>
+      <c r="AE10" s="44"/>
+      <c r="AF10" s="44"/>
+      <c r="AG10" s="44"/>
+      <c r="AH10" s="44"/>
+      <c r="AI10" s="44"/>
+      <c r="AJ10" s="44"/>
+      <c r="AK10" s="44"/>
+      <c r="AL10" s="44"/>
+      <c r="AM10" s="44"/>
+      <c r="AN10" s="48"/>
+      <c r="AO10" s="44"/>
+      <c r="AP10" s="44"/>
+      <c r="AQ10" s="44"/>
+      <c r="AR10" s="44"/>
+      <c r="AS10" s="44"/>
+      <c r="AT10" s="44"/>
+      <c r="AU10" s="44"/>
+      <c r="AV10" s="44"/>
+      <c r="AW10" s="44"/>
+      <c r="AX10" s="49"/>
+      <c r="AY10" s="44"/>
+      <c r="AZ10" s="44"/>
+      <c r="BA10" s="44"/>
+      <c r="BB10" s="50"/>
+      <c r="BC10" s="51">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="44"/>
+      <c r="Y11" s="44"/>
+      <c r="Z11" s="44"/>
+      <c r="AA11" s="44"/>
+      <c r="AB11" s="44"/>
+      <c r="AC11" s="44"/>
+      <c r="AD11" s="47"/>
+      <c r="AE11" s="44"/>
+      <c r="AF11" s="44"/>
+      <c r="AG11" s="44"/>
+      <c r="AH11" s="44"/>
+      <c r="AI11" s="44"/>
+      <c r="AJ11" s="44"/>
+      <c r="AK11" s="44"/>
+      <c r="AL11" s="44"/>
+      <c r="AM11" s="44"/>
+      <c r="AN11" s="48"/>
+      <c r="AO11" s="44"/>
+      <c r="AP11" s="44"/>
+      <c r="AQ11" s="44"/>
+      <c r="AR11" s="44"/>
+      <c r="AS11" s="44"/>
+      <c r="AT11" s="44"/>
+      <c r="AU11" s="44"/>
+      <c r="AV11" s="44"/>
+      <c r="AW11" s="44"/>
+      <c r="AX11" s="49"/>
+      <c r="AY11" s="44"/>
+      <c r="AZ11" s="44"/>
+      <c r="BA11" s="44"/>
+      <c r="BB11" s="50"/>
+      <c r="BC11" s="51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="44"/>
+      <c r="X12" s="44"/>
+      <c r="Y12" s="44"/>
+      <c r="AT12" s="44"/>
+      <c r="AU12" s="44"/>
+      <c r="AV12" s="44"/>
+      <c r="AW12" s="44"/>
+      <c r="AX12" s="49"/>
+      <c r="AY12" s="44"/>
+      <c r="AZ12" s="44"/>
+      <c r="BA12" s="44"/>
+      <c r="BB12" s="50"/>
+      <c r="BC12" s="51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="44"/>
+      <c r="Z13" s="44"/>
+      <c r="AA13" s="44"/>
+      <c r="AB13" s="44"/>
+      <c r="AC13" s="44"/>
+      <c r="AD13" s="47"/>
+      <c r="AE13" s="44"/>
+      <c r="AF13" s="44"/>
+      <c r="AG13" s="44"/>
+      <c r="AH13" s="44"/>
+      <c r="AI13" s="44"/>
+      <c r="AJ13" s="44"/>
+      <c r="AK13" s="44"/>
+      <c r="AL13" s="44"/>
+      <c r="AM13" s="44"/>
+      <c r="AN13" s="48"/>
+      <c r="AO13" s="44"/>
+      <c r="AP13" s="44"/>
+      <c r="AQ13" s="44"/>
+      <c r="AR13" s="44"/>
+      <c r="AS13" s="44"/>
+      <c r="AT13" s="44"/>
+      <c r="AU13" s="44"/>
+      <c r="AV13" s="44"/>
+      <c r="AW13" s="44"/>
+      <c r="AX13" s="49"/>
+      <c r="AY13" s="44"/>
+      <c r="AZ13" s="44"/>
+      <c r="BA13" s="44"/>
+      <c r="BB13" s="50"/>
+      <c r="BC13" s="51">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A14" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="44"/>
+      <c r="V14" s="44"/>
+      <c r="W14" s="44"/>
+      <c r="X14" s="44"/>
+      <c r="Y14" s="44"/>
+      <c r="Z14" s="44"/>
+      <c r="AA14" s="44"/>
+      <c r="AB14" s="44"/>
+      <c r="AC14" s="44"/>
+      <c r="AD14" s="47"/>
+      <c r="AE14" s="44"/>
+      <c r="AF14" s="44"/>
+      <c r="AG14" s="44"/>
+      <c r="AH14" s="29"/>
+      <c r="AI14" s="29"/>
+      <c r="AJ14" s="29"/>
+      <c r="AK14" s="29"/>
+      <c r="AL14" s="29"/>
+      <c r="AM14" s="29"/>
+      <c r="AN14" s="39"/>
+      <c r="AO14" s="29"/>
+      <c r="AP14" s="29"/>
+      <c r="AQ14" s="44"/>
+      <c r="AR14" s="44"/>
+      <c r="AS14" s="44"/>
+      <c r="AT14" s="44"/>
+      <c r="AU14" s="44"/>
+      <c r="AV14" s="44"/>
+      <c r="AW14" s="44"/>
+      <c r="AX14" s="49"/>
+      <c r="AY14" s="44"/>
+      <c r="AZ14" s="44"/>
+      <c r="BA14" s="44"/>
+      <c r="BB14" s="50"/>
+      <c r="BC14" s="51">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A15" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="O15" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R15" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S15" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="T15" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="U15" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="44"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="44"/>
+      <c r="Z15" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA15" s="44"/>
+      <c r="AB15" s="44"/>
+      <c r="AC15" s="44"/>
+      <c r="AD15" s="47"/>
+      <c r="AE15" s="44"/>
+      <c r="AF15" s="44"/>
+      <c r="AG15" s="44"/>
+      <c r="AH15" s="44"/>
+      <c r="AI15" s="44"/>
+      <c r="AJ15" s="44"/>
+      <c r="AK15" s="44"/>
+      <c r="AL15" s="44"/>
+      <c r="AM15" s="44"/>
+      <c r="AN15" s="48"/>
+      <c r="AO15" s="44"/>
+      <c r="AP15" s="44"/>
+      <c r="AQ15" s="44"/>
+      <c r="AR15" s="44"/>
+      <c r="AS15" s="44"/>
+      <c r="AT15" s="44"/>
+      <c r="AU15" s="44"/>
+      <c r="AV15" s="44"/>
+      <c r="AW15" s="44"/>
+      <c r="AX15" s="49"/>
+      <c r="AY15" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ15" s="44"/>
+      <c r="BA15" s="44"/>
+      <c r="BB15" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC15" s="51">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="U16" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="V16" s="44"/>
+      <c r="W16" s="44"/>
+      <c r="X16" s="44"/>
+      <c r="Y16" s="44"/>
+      <c r="Z16" s="44"/>
+      <c r="AA16" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB16" s="44"/>
+      <c r="AC16" s="44"/>
+      <c r="AD16" s="47"/>
+      <c r="AE16" s="44"/>
+      <c r="AF16" s="44"/>
+      <c r="AG16" s="44"/>
+      <c r="AH16" s="44"/>
+      <c r="AI16" s="44"/>
+      <c r="AJ16" s="44"/>
+      <c r="AK16" s="44"/>
+      <c r="AL16" s="44"/>
+      <c r="AM16" s="44"/>
+      <c r="AN16" s="44"/>
+      <c r="AO16" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP16" s="44"/>
+      <c r="AQ16" s="44"/>
+      <c r="AR16" s="44"/>
+      <c r="AS16" s="44"/>
+      <c r="AT16" s="44"/>
+      <c r="AU16" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB16" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC16" s="51">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="U17" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="V17" s="44"/>
+      <c r="W17" s="44"/>
+      <c r="X17" s="44"/>
+      <c r="Y17" s="44"/>
+      <c r="Z17" s="44"/>
+      <c r="AA17" s="44"/>
+      <c r="AB17" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC17" s="44"/>
+      <c r="AD17" s="47"/>
+      <c r="AE17" s="44"/>
+      <c r="AF17" s="44"/>
+      <c r="AG17" s="44"/>
+      <c r="AH17" s="44"/>
+      <c r="AI17" s="44"/>
+      <c r="AJ17" s="44"/>
+      <c r="AK17" s="44"/>
+      <c r="AL17" s="44"/>
+      <c r="AM17" s="44"/>
+      <c r="AN17" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO17" s="44"/>
+      <c r="AP17" s="44"/>
+      <c r="AQ17" s="44"/>
+      <c r="AR17" s="44"/>
+      <c r="AS17" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT17" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU17" s="44"/>
+      <c r="AV17" s="44"/>
+      <c r="AW17" s="44"/>
+      <c r="AX17" s="49"/>
+      <c r="AY17" s="44"/>
+      <c r="AZ17" s="44"/>
+      <c r="BA17" s="44"/>
+      <c r="BB17" s="50"/>
+      <c r="BC17" s="51">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="U18" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="V18" s="44"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="44"/>
+      <c r="Y18" s="44"/>
+      <c r="Z18" s="44"/>
+      <c r="AA18" s="44"/>
+      <c r="AB18" s="44"/>
+      <c r="AC18" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD18" s="47"/>
+      <c r="AE18" s="44"/>
+      <c r="AF18" s="44"/>
+      <c r="AG18" s="44"/>
+      <c r="AH18" s="44"/>
+      <c r="AI18" s="44"/>
+      <c r="AJ18" s="44"/>
+      <c r="AK18" s="44"/>
+      <c r="AL18" s="44"/>
+      <c r="AM18" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN18" s="44"/>
+      <c r="AO18" s="44"/>
+      <c r="AP18" s="44"/>
+      <c r="AQ18" s="44"/>
+      <c r="AR18" s="44"/>
+      <c r="AS18" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT18" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU18" s="29"/>
+      <c r="AV18" s="29"/>
+      <c r="AW18" s="29"/>
+      <c r="AX18" s="40"/>
+      <c r="AY18" s="29"/>
+      <c r="AZ18" s="29"/>
+      <c r="BA18" s="29"/>
+      <c r="BB18" s="29"/>
+      <c r="BC18" s="51">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="U19" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="V19" s="44"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="44"/>
+      <c r="Y19" s="44"/>
+      <c r="Z19" s="44"/>
+      <c r="AA19" s="44"/>
+      <c r="AB19" s="44"/>
+      <c r="AC19" s="44"/>
+      <c r="AD19" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE19" s="44"/>
+      <c r="AF19" s="44"/>
+      <c r="AG19" s="44"/>
+      <c r="AH19" s="44"/>
+      <c r="AI19" s="44"/>
+      <c r="AJ19" s="44"/>
+      <c r="AK19" s="44"/>
+      <c r="AL19" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM19" s="44"/>
+      <c r="AN19" s="44"/>
+      <c r="AO19" s="44"/>
+      <c r="AP19" s="44"/>
+      <c r="AQ19" s="44"/>
+      <c r="AR19" s="44"/>
+      <c r="AS19" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT19" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU19" s="44"/>
+      <c r="AV19" s="44"/>
+      <c r="AW19" s="44"/>
+      <c r="AX19" s="49"/>
+      <c r="AY19" s="44"/>
+      <c r="AZ19" s="44"/>
+      <c r="BA19" s="44"/>
+      <c r="BB19" s="50"/>
+      <c r="BC19" s="51">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="U20" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="V20" s="44"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="44"/>
+      <c r="Y20" s="44"/>
+      <c r="Z20" s="44"/>
+      <c r="AA20" s="44"/>
+      <c r="AB20" s="44"/>
+      <c r="AC20" s="44"/>
+      <c r="AD20" s="47"/>
+      <c r="AE20" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF20" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG20" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH20" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI20" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ20" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK20" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL20" s="44"/>
+      <c r="AM20" s="44"/>
+      <c r="AN20" s="44"/>
+      <c r="AO20" s="44"/>
+      <c r="AP20" s="44"/>
+      <c r="AQ20" s="44"/>
+      <c r="AR20" s="44"/>
+      <c r="AS20" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT20" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU20" s="44"/>
+      <c r="AV20" s="44"/>
+      <c r="AW20" s="44"/>
+      <c r="AX20" s="44"/>
+      <c r="AY20" s="44"/>
+      <c r="AZ20" s="44"/>
+      <c r="BA20" s="44"/>
+      <c r="BB20" s="44"/>
+      <c r="BC20" s="51">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="V21" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="W21" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="X21" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="44"/>
+      <c r="AA21" s="44"/>
+      <c r="AB21" s="44"/>
+      <c r="AC21" s="44"/>
+      <c r="AD21" s="47"/>
+      <c r="AE21" s="44"/>
+      <c r="AF21" s="44"/>
+      <c r="AG21" s="44"/>
+      <c r="AH21" s="29"/>
+      <c r="AI21" s="29"/>
+      <c r="AJ21" s="29"/>
+      <c r="AK21" s="29"/>
+      <c r="AL21" s="29"/>
+      <c r="AM21" s="29"/>
+      <c r="AN21" s="39"/>
+      <c r="AO21" s="29"/>
+      <c r="AP21" s="29"/>
+      <c r="AQ21" s="44"/>
+      <c r="AR21" s="44"/>
+      <c r="AS21" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT21" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU21" s="44"/>
+      <c r="AV21" s="44"/>
+      <c r="AW21" s="44"/>
+      <c r="AX21" s="44"/>
+      <c r="AY21" s="44"/>
+      <c r="AZ21" s="44"/>
+      <c r="BA21" s="44"/>
+      <c r="BB21" s="44"/>
+      <c r="BC21" s="51">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="44"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="44"/>
+      <c r="X22" s="44"/>
+      <c r="Y22" s="44"/>
+      <c r="Z22" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA22" s="44"/>
+      <c r="AB22" s="44"/>
+      <c r="AC22" s="44"/>
+      <c r="AD22" s="47"/>
+      <c r="AE22" s="44"/>
+      <c r="AF22" s="44"/>
+      <c r="AG22" s="44"/>
+      <c r="AH22" s="44"/>
+      <c r="AI22" s="44"/>
+      <c r="AJ22" s="44"/>
+      <c r="AK22" s="44"/>
+      <c r="AL22" s="44"/>
+      <c r="AM22" s="44"/>
+      <c r="AN22" s="48"/>
+      <c r="AO22" s="44"/>
+      <c r="AP22" s="44"/>
+      <c r="AQ22" s="44"/>
+      <c r="AR22" s="44"/>
+      <c r="AS22" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT22" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU22" s="44"/>
+      <c r="AV22" s="44"/>
+      <c r="AW22" s="44"/>
+      <c r="AX22" s="44"/>
+      <c r="AY22" s="44"/>
+      <c r="AZ22" s="44"/>
+      <c r="BA22" s="44"/>
+      <c r="BB22" s="44"/>
+      <c r="BC22" s="51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="46"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="44"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="44"/>
+      <c r="Y23" s="44"/>
+      <c r="Z23" s="44"/>
+      <c r="AA23" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB23" s="44"/>
+      <c r="AC23" s="44"/>
+      <c r="AD23" s="47"/>
+      <c r="AE23" s="44"/>
+      <c r="AF23" s="44"/>
+      <c r="AG23" s="44"/>
+      <c r="AH23" s="44"/>
+      <c r="AI23" s="44"/>
+      <c r="AJ23" s="44"/>
+      <c r="AK23" s="44"/>
+      <c r="AL23" s="44"/>
+      <c r="AM23" s="44"/>
+      <c r="AN23" s="44"/>
+      <c r="AO23" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP23" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ23" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR23" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="AS23" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="AT23" s="44"/>
+      <c r="AU23" s="44"/>
+      <c r="AV23" s="44"/>
+      <c r="AW23" s="44"/>
+      <c r="AX23" s="44"/>
+      <c r="AY23" s="44"/>
+      <c r="AZ23" s="44"/>
+      <c r="BA23" s="44"/>
+      <c r="BB23" s="44"/>
+      <c r="BC23" s="51">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="46"/>
+      <c r="U24" s="44"/>
+      <c r="V24" s="44"/>
+      <c r="W24" s="44"/>
+      <c r="X24" s="44"/>
+      <c r="Y24" s="44"/>
+      <c r="Z24" s="44"/>
+      <c r="AA24" s="44"/>
+      <c r="AB24" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC24" s="44"/>
+      <c r="AD24" s="47"/>
+      <c r="AE24" s="44"/>
+      <c r="AF24" s="44"/>
+      <c r="AG24" s="44"/>
+      <c r="AH24" s="44"/>
+      <c r="AI24" s="44"/>
+      <c r="AJ24" s="44"/>
+      <c r="AK24" s="44"/>
+      <c r="AL24" s="44"/>
+      <c r="AM24" s="44"/>
+      <c r="AN24" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO24" s="44"/>
+      <c r="AP24" s="44"/>
+      <c r="AQ24" s="44"/>
+      <c r="AR24" s="44"/>
+      <c r="AS24" s="44"/>
+      <c r="AT24" s="44"/>
+      <c r="AU24" s="44"/>
+      <c r="AV24" s="44"/>
+      <c r="AW24" s="44"/>
+      <c r="AX24" s="44"/>
+      <c r="AY24" s="44"/>
+      <c r="AZ24" s="44"/>
+      <c r="BA24" s="44"/>
+      <c r="BB24" s="44"/>
+      <c r="BC24" s="51">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="46"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="44"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="44"/>
+      <c r="Y25" s="44"/>
+      <c r="Z25" s="44"/>
+      <c r="AA25" s="44"/>
+      <c r="AB25" s="44"/>
+      <c r="AC25" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD25" s="47"/>
+      <c r="AE25" s="44"/>
+      <c r="AF25" s="44"/>
+      <c r="AG25" s="44"/>
+      <c r="AH25" s="44"/>
+      <c r="AI25" s="44"/>
+      <c r="AJ25" s="44"/>
+      <c r="AK25" s="44"/>
+      <c r="AL25" s="44"/>
+      <c r="AM25" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN25" s="44"/>
+      <c r="AO25" s="44"/>
+      <c r="AP25" s="44"/>
+      <c r="AQ25" s="44"/>
+      <c r="AR25" s="44"/>
+      <c r="AS25" s="44"/>
+      <c r="AT25" s="44"/>
+      <c r="AU25" s="44"/>
+      <c r="AV25" s="44"/>
+      <c r="AW25" s="44"/>
+      <c r="AX25" s="44"/>
+      <c r="AY25" s="44"/>
+      <c r="AZ25" s="44"/>
+      <c r="BA25" s="44"/>
+      <c r="BB25" s="44"/>
+      <c r="BC25" s="51">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="46"/>
+      <c r="U26" s="44"/>
+      <c r="V26" s="44"/>
+      <c r="W26" s="44"/>
+      <c r="X26" s="44"/>
+      <c r="Y26" s="44"/>
+      <c r="Z26" s="44"/>
+      <c r="AA26" s="44"/>
+      <c r="AB26" s="44"/>
+      <c r="AC26" s="44"/>
+      <c r="AD26" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE26" s="44"/>
+      <c r="AF26" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG26" s="44"/>
+      <c r="AH26" s="44"/>
+      <c r="AI26" s="44"/>
+      <c r="AJ26" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK26" s="44"/>
+      <c r="AL26" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM26" s="44"/>
+      <c r="AN26" s="44"/>
+      <c r="AO26" s="44"/>
+      <c r="AP26" s="44"/>
+      <c r="AQ26" s="44"/>
+      <c r="AR26" s="44"/>
+      <c r="AS26" s="44"/>
+      <c r="AT26" s="44"/>
+      <c r="AU26" s="44"/>
+      <c r="AV26" s="44"/>
+      <c r="AW26" s="44"/>
+      <c r="AX26" s="49"/>
+      <c r="AY26" s="44"/>
+      <c r="AZ26" s="44"/>
+      <c r="BA26" s="44"/>
+      <c r="BB26" s="50"/>
+      <c r="BC26" s="51">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="46"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="44"/>
+      <c r="Y27" s="44"/>
+      <c r="Z27" s="44"/>
+      <c r="AA27" s="44"/>
+      <c r="AB27" s="44"/>
+      <c r="AC27" s="44"/>
+      <c r="AD27" s="47"/>
+      <c r="AE27" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF27" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG27" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH27" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI27" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ27" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK27" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL27" s="44"/>
+      <c r="AM27" s="44"/>
+      <c r="AN27" s="44"/>
+      <c r="AO27" s="44"/>
+      <c r="AP27" s="44"/>
+      <c r="AQ27" s="44"/>
+      <c r="AR27" s="44"/>
+      <c r="AS27" s="44"/>
+      <c r="AT27" s="44"/>
+      <c r="AU27" s="44"/>
+      <c r="AV27" s="44"/>
+      <c r="AW27" s="44"/>
+      <c r="AX27" s="49"/>
+      <c r="AY27" s="44"/>
+      <c r="AZ27" s="44"/>
+      <c r="BA27" s="44"/>
+      <c r="BB27" s="50"/>
+      <c r="BC27" s="51">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A28" s="44"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="44"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="46"/>
+      <c r="U28" s="44"/>
+      <c r="V28" s="44"/>
+      <c r="W28" s="44"/>
+      <c r="X28" s="44"/>
+      <c r="Y28" s="44"/>
+      <c r="Z28" s="44"/>
+      <c r="AA28" s="44"/>
+      <c r="AB28" s="44"/>
+      <c r="AC28" s="44"/>
+      <c r="AD28" s="47"/>
+      <c r="AE28" s="44"/>
+      <c r="AF28" s="44"/>
+      <c r="AG28" s="44"/>
+      <c r="AH28" s="44"/>
+      <c r="AI28" s="44"/>
+      <c r="AJ28" s="44"/>
+      <c r="AK28" s="44"/>
+      <c r="AL28" s="44"/>
+      <c r="AM28" s="44"/>
+      <c r="AN28" s="44"/>
+      <c r="AO28" s="44"/>
+      <c r="AP28" s="44"/>
+      <c r="AQ28" s="44"/>
+      <c r="AR28" s="44"/>
+      <c r="AS28" s="44"/>
+      <c r="AT28" s="44"/>
+      <c r="AU28" s="44"/>
+      <c r="AV28" s="44"/>
+      <c r="AW28" s="44"/>
+      <c r="AX28" s="49"/>
+      <c r="AY28" s="44"/>
+      <c r="AZ28" s="44"/>
+      <c r="BA28" s="44"/>
+      <c r="BB28" s="50"/>
+      <c r="BC28" s="51">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="46"/>
+      <c r="U29" s="44"/>
+      <c r="V29" s="44"/>
+      <c r="W29" s="44"/>
+      <c r="X29" s="44"/>
+      <c r="Y29" s="44"/>
+      <c r="Z29" s="44"/>
+      <c r="AA29" s="44"/>
+      <c r="AB29" s="44"/>
+      <c r="AC29" s="44"/>
+      <c r="AD29" s="47"/>
+      <c r="AE29" s="44"/>
+      <c r="AF29" s="44"/>
+      <c r="AG29" s="44"/>
+      <c r="AH29" s="44"/>
+      <c r="AI29" s="44"/>
+      <c r="AJ29" s="44"/>
+      <c r="AK29" s="44"/>
+      <c r="AL29" s="44"/>
+      <c r="AM29" s="44"/>
+      <c r="AN29" s="48"/>
+      <c r="AO29" s="44"/>
+      <c r="AP29" s="44"/>
+      <c r="AQ29" s="44"/>
+      <c r="AR29" s="44"/>
+      <c r="AS29" s="44"/>
+      <c r="AT29" s="44"/>
+      <c r="AU29" s="44"/>
+      <c r="AV29" s="44"/>
+      <c r="AW29" s="44"/>
+      <c r="AX29" s="49"/>
+      <c r="AY29" s="44"/>
+      <c r="AZ29" s="44"/>
+      <c r="BA29" s="44"/>
+      <c r="BB29" s="50"/>
+      <c r="BC29" s="51">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A30" s="54"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="54"/>
+      <c r="R30" s="54"/>
+      <c r="S30" s="54"/>
+      <c r="T30" s="56"/>
+      <c r="U30" s="54"/>
+      <c r="V30" s="54"/>
+      <c r="W30" s="54"/>
+      <c r="X30" s="54"/>
+      <c r="Y30" s="54"/>
+      <c r="Z30" s="54"/>
+      <c r="AA30" s="54"/>
+      <c r="AB30" s="54"/>
+      <c r="AC30" s="54"/>
+      <c r="AD30" s="57"/>
+      <c r="AE30" s="54"/>
+      <c r="AF30" s="54"/>
+      <c r="AG30" s="54"/>
+      <c r="AH30" s="54"/>
+      <c r="AI30" s="54"/>
+      <c r="AJ30" s="54"/>
+      <c r="AK30" s="54"/>
+      <c r="AL30" s="54"/>
+      <c r="AM30" s="54"/>
+      <c r="AN30" s="58"/>
+      <c r="AO30" s="54"/>
+      <c r="AP30" s="54"/>
+      <c r="AQ30" s="54"/>
+      <c r="AR30" s="54"/>
+      <c r="AS30" s="54"/>
+      <c r="AT30" s="54"/>
+      <c r="AU30" s="54"/>
+      <c r="AV30" s="54"/>
+      <c r="AW30" s="54"/>
+      <c r="AX30" s="59"/>
+      <c r="AY30" s="54"/>
+      <c r="AZ30" s="54"/>
+      <c r="BA30" s="54"/>
+      <c r="BB30" s="60"/>
+      <c r="BC30" s="51">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="66"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="66"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="66"/>
+      <c r="P31" s="66"/>
+      <c r="Q31" s="66"/>
+      <c r="R31" s="66"/>
+      <c r="S31" s="66"/>
+      <c r="T31" s="66"/>
+      <c r="U31" s="66"/>
+      <c r="V31" s="66"/>
+      <c r="W31" s="66"/>
+      <c r="X31" s="66"/>
+      <c r="Y31" s="66"/>
+      <c r="Z31" s="66"/>
+      <c r="AA31" s="66"/>
+      <c r="AB31" s="66"/>
+      <c r="AC31" s="66"/>
+      <c r="AD31" s="66"/>
+      <c r="AE31" s="66"/>
+      <c r="AF31" s="66"/>
+      <c r="AG31" s="66"/>
+      <c r="AH31" s="66"/>
+      <c r="AI31" s="66"/>
+      <c r="AJ31" s="66"/>
+      <c r="AK31" s="66"/>
+      <c r="AL31" s="66"/>
+      <c r="AM31" s="66"/>
+      <c r="AN31" s="66"/>
+      <c r="AO31" s="66"/>
+      <c r="AP31" s="66"/>
+      <c r="AQ31" s="66"/>
+      <c r="AR31" s="66"/>
+      <c r="AS31" s="66"/>
+      <c r="AT31" s="66"/>
+      <c r="AU31" s="66"/>
+      <c r="AV31" s="66"/>
+      <c r="AW31" s="66"/>
+      <c r="AX31" s="66"/>
+      <c r="AY31" s="66"/>
+      <c r="AZ31" s="66"/>
+      <c r="BA31" s="66"/>
+      <c r="BB31" s="66"/>
+      <c r="BC31" s="51">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A32" s="53">
+        <v>0</v>
+      </c>
+      <c r="B32" s="53">
+        <v>1</v>
+      </c>
+      <c r="C32" s="53">
+        <v>2</v>
+      </c>
+      <c r="D32" s="53">
+        <v>3</v>
+      </c>
+      <c r="E32" s="53">
+        <v>4</v>
+      </c>
+      <c r="F32" s="53">
+        <v>5</v>
+      </c>
+      <c r="G32" s="53">
+        <v>6</v>
+      </c>
+      <c r="H32" s="53">
+        <v>7</v>
+      </c>
+      <c r="I32" s="53">
+        <v>8</v>
+      </c>
+      <c r="J32" s="53">
+        <v>9</v>
+      </c>
+      <c r="K32" s="53">
+        <v>10</v>
+      </c>
+      <c r="L32" s="53">
+        <v>11</v>
+      </c>
+      <c r="M32" s="53">
+        <v>12</v>
+      </c>
+      <c r="N32" s="53">
+        <v>13</v>
+      </c>
+      <c r="O32" s="53">
+        <v>14</v>
+      </c>
+      <c r="P32" s="53">
+        <v>15</v>
+      </c>
+      <c r="Q32" s="53">
+        <v>16</v>
+      </c>
+      <c r="R32" s="53">
+        <v>17</v>
+      </c>
+      <c r="S32" s="53">
+        <v>18</v>
+      </c>
+      <c r="T32" s="53">
+        <v>19</v>
+      </c>
+      <c r="U32" s="53">
+        <v>20</v>
+      </c>
+      <c r="V32" s="53">
+        <v>21</v>
+      </c>
+      <c r="W32" s="53">
+        <v>22</v>
+      </c>
+      <c r="X32" s="53">
+        <v>23</v>
+      </c>
+      <c r="Y32" s="53">
+        <v>24</v>
+      </c>
+      <c r="Z32" s="53">
+        <v>25</v>
+      </c>
+      <c r="AA32" s="53">
+        <v>26</v>
+      </c>
+      <c r="AB32" s="53">
+        <v>27</v>
+      </c>
+      <c r="AC32" s="53">
+        <v>28</v>
+      </c>
+      <c r="AD32" s="53">
+        <v>29</v>
+      </c>
+      <c r="AE32" s="53">
+        <v>30</v>
+      </c>
+      <c r="AF32" s="53">
+        <v>31</v>
+      </c>
+      <c r="AG32" s="53">
+        <v>32</v>
+      </c>
+      <c r="AH32" s="53">
+        <v>33</v>
+      </c>
+      <c r="AI32" s="53">
+        <v>34</v>
+      </c>
+      <c r="AJ32" s="53">
+        <v>35</v>
+      </c>
+      <c r="AK32" s="53">
+        <v>36</v>
+      </c>
+      <c r="AL32" s="53">
+        <v>37</v>
+      </c>
+      <c r="AM32" s="53">
+        <v>38</v>
+      </c>
+      <c r="AN32" s="53">
+        <v>39</v>
+      </c>
+      <c r="AO32" s="53">
+        <v>40</v>
+      </c>
+      <c r="AP32" s="53">
+        <v>41</v>
+      </c>
+      <c r="AQ32" s="53">
+        <v>42</v>
+      </c>
+      <c r="AR32" s="53">
+        <v>43</v>
+      </c>
+      <c r="AS32" s="53">
+        <v>44</v>
+      </c>
+      <c r="AT32" s="53">
+        <v>45</v>
+      </c>
+      <c r="AU32" s="53">
+        <v>46</v>
+      </c>
+      <c r="AV32" s="53">
+        <v>47</v>
+      </c>
+      <c r="AW32" s="53">
+        <v>48</v>
+      </c>
+      <c r="AX32" s="53">
+        <v>49</v>
+      </c>
+      <c r="AY32" s="53">
+        <v>50</v>
+      </c>
+      <c r="AZ32" s="53">
+        <v>51</v>
+      </c>
+      <c r="BA32" s="53">
+        <v>52</v>
+      </c>
+      <c r="BB32" s="53">
+        <v>53</v>
+      </c>
+      <c r="BC32" s="35"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/GUI_20212202_AYZ8R9/Maps/map.xlsx
+++ b/GUI_20212202_AYZ8R9/Maps/map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\game3\GUI_20212202_AYZ8R9\Maps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\game4\GUI_20212202_AYZ8R9\Maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB39635-32B5-433F-BF5D-376A0E33464D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88F4D95-89B4-446C-BB11-74FDE52EFF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="18">
   <si>
     <t>B</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>HOME</t>
-  </si>
-  <si>
-    <t>Z</t>
   </si>
   <si>
     <t>CH</t>
@@ -675,7 +672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382D7427-FBDE-4BF3-ADAB-21A4C37623DD}">
   <dimension ref="A1:CY47"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="AA32" sqref="AA32"/>
     </sheetView>
   </sheetViews>
@@ -5806,7 +5803,7 @@
   <dimension ref="A1:BL35"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Z19" sqref="Z19"/>
+      <selection activeCell="AR19" sqref="AR19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6692,12 +6689,24 @@
       <c r="AN14" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="AO14" s="1"/>
-      <c r="AP14" s="1"/>
-      <c r="AQ14" s="1"/>
-      <c r="AR14" s="1"/>
-      <c r="AS14" s="1"/>
-      <c r="AT14" s="1"/>
+      <c r="AO14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="AU14" s="1" t="s">
         <v>4</v>
       </c>
@@ -6766,27 +6775,7 @@
       <c r="AL15" s="27"/>
       <c r="AM15" s="1"/>
       <c r="AN15" s="11"/>
-      <c r="AO15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AP15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU15" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="AU15" s="1"/>
       <c r="AV15" s="1"/>
       <c r="AW15" s="1"/>
       <c r="AX15" s="13"/>
@@ -6845,7 +6834,7 @@
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
@@ -6930,7 +6919,7 @@
       <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
       <c r="AJ17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK17" s="1"/>
       <c r="AL17" s="27"/>
@@ -6947,7 +6936,7 @@
       <c r="AW17" s="1"/>
       <c r="AX17" s="13"/>
       <c r="AY17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ17" s="1" t="s">
         <v>0</v>
@@ -7019,7 +7008,7 @@
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL18" s="27"/>
       <c r="AM18" s="1"/>
@@ -7034,7 +7023,7 @@
       <c r="AV18" s="1"/>
       <c r="AW18" s="1"/>
       <c r="AX18" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY18" s="1"/>
       <c r="AZ18" s="1"/>
@@ -7104,7 +7093,7 @@
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1"/>
       <c r="AL19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM19" s="1"/>
       <c r="AN19" s="11"/>
@@ -7117,7 +7106,7 @@
       <c r="AU19" s="1"/>
       <c r="AV19" s="1"/>
       <c r="AW19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX19" s="13"/>
       <c r="AY19" s="1"/>
@@ -7185,7 +7174,7 @@
       <c r="AK20" s="1"/>
       <c r="AL20" s="1"/>
       <c r="AM20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN20" s="11"/>
       <c r="AO20" s="1"/>
@@ -7196,7 +7185,7 @@
       <c r="AT20" s="1"/>
       <c r="AU20" s="1"/>
       <c r="AV20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC20" s="3"/>
       <c r="BD20" s="3"/>
@@ -7264,28 +7253,28 @@
       <c r="AL21" s="1"/>
       <c r="AM21" s="1"/>
       <c r="AN21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AO21" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="AP21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV21" s="1"/>
       <c r="AW21" s="1"/>
@@ -7606,7 +7595,7 @@
         <v>3</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>8</v>
@@ -8274,7 +8263,7 @@
   <dimension ref="A1:BL35"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AG23" sqref="AG23"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9028,7 +9017,7 @@
         <v>2</v>
       </c>
       <c r="AY11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ11" s="1"/>
       <c r="BA11" s="1"/>
@@ -9130,7 +9119,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>0</v>
@@ -9225,7 +9214,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -9310,7 +9299,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -9391,7 +9380,7 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -9470,13 +9459,13 @@
     </row>
     <row r="17" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -9580,7 +9569,9 @@
       <c r="S18" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="T18" s="7"/>
+      <c r="T18" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1" t="s">
@@ -9660,7 +9651,9 @@
       <c r="S19" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="T19" s="7"/>
+      <c r="T19" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
@@ -9738,7 +9731,9 @@
       <c r="S20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T20" s="7"/>
+      <c r="T20" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="27"/>
@@ -9819,7 +9814,9 @@
       <c r="S21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T21" s="7"/>
+      <c r="T21" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
@@ -9885,7 +9882,9 @@
       <c r="S22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T22" s="7"/>
+      <c r="T22" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
@@ -9957,7 +9956,9 @@
       <c r="S23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T23" s="7"/>
+      <c r="T23" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
@@ -10028,13 +10029,13 @@
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
@@ -10107,7 +10108,7 @@
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
@@ -10180,14 +10181,14 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
@@ -10254,34 +10255,34 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AD27" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI27" s="1" t="s">
         <v>6</v>
@@ -10853,7 +10854,7 @@
   <dimension ref="A1:BL40"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11970,7 +11971,7 @@
         <v>2</v>
       </c>
       <c r="AR17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS17" s="1"/>
       <c r="AT17" s="1"/>
@@ -12007,7 +12008,7 @@
         <v>2</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="1"/>
@@ -13320,7 +13321,7 @@
   <dimension ref="A1:CY47"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AT19" sqref="AT19:BB26"/>
+      <selection activeCell="AH23" sqref="AH23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15964,7 +15965,7 @@
       </c>
       <c r="Z24" s="44"/>
       <c r="AA24" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB24" s="44"/>
       <c r="AC24" s="44"/>
@@ -16088,7 +16089,7 @@
         <v>0</v>
       </c>
       <c r="AD25" s="47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE25" s="44"/>
       <c r="AF25" s="44"/>
@@ -16106,11 +16107,11 @@
       <c r="AR25" s="44"/>
       <c r="AS25" s="44"/>
       <c r="AT25" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU25" s="44"/>
       <c r="AV25" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW25" s="44"/>
       <c r="AX25" s="44"/>
@@ -16204,7 +16205,7 @@
       <c r="AC26" s="44"/>
       <c r="AD26" s="47"/>
       <c r="AE26" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF26" s="44"/>
       <c r="AG26" s="44"/>
@@ -16220,34 +16221,34 @@
       <c r="AQ26" s="44"/>
       <c r="AR26" s="44"/>
       <c r="AS26" s="44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT26" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU26" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV26" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW26" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX26" s="49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY26" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ26" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA26" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB26" s="50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC26" s="51">
         <v>24</v>
@@ -16334,7 +16335,7 @@
       <c r="AD27" s="47"/>
       <c r="AE27" s="44"/>
       <c r="AF27" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG27" s="44"/>
       <c r="AH27" s="44"/>
@@ -16348,7 +16349,7 @@
       <c r="AP27" s="44"/>
       <c r="AQ27" s="44"/>
       <c r="AR27" s="44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS27" s="44"/>
       <c r="AT27" s="44"/>
@@ -16446,7 +16447,7 @@
       <c r="AE28" s="44"/>
       <c r="AF28" s="44"/>
       <c r="AG28" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH28" s="44"/>
       <c r="AI28" s="44"/>
@@ -16458,7 +16459,7 @@
       <c r="AO28" s="44"/>
       <c r="AP28" s="44"/>
       <c r="AQ28" s="44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR28" s="44"/>
       <c r="AS28" s="44"/>
@@ -16558,31 +16559,31 @@
       <c r="AF29" s="44"/>
       <c r="AG29" s="44"/>
       <c r="AH29" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI29" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ29" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK29" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL29" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM29" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN29" s="48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO29" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP29" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ29" s="44"/>
       <c r="AR29" s="44"/>
@@ -18455,7 +18456,7 @@
   <dimension ref="A1:BC32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="A1:XFD1048576"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19230,7 +19231,7 @@
       <c r="AJ12" s="44"/>
       <c r="AK12" s="44"/>
       <c r="AL12" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM12" s="44"/>
       <c r="AN12" s="48"/>
@@ -19401,7 +19402,7 @@
         <v>8</v>
       </c>
       <c r="AY14" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ14" s="44"/>
       <c r="BA14" s="44"/>
@@ -19631,7 +19632,7 @@
       <c r="Q18" s="44"/>
       <c r="R18" s="44"/>
       <c r="S18" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T18" s="46"/>
       <c r="U18" s="44" t="s">
@@ -19711,22 +19712,22 @@
       <c r="N19" s="44"/>
       <c r="O19" s="44"/>
       <c r="P19" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q19" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R19" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S19" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T19" s="46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U19" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V19" s="44" t="s">
         <v>3</v>
@@ -19783,7 +19784,7 @@
       <c r="M20" s="44"/>
       <c r="N20" s="44"/>
       <c r="O20" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P20" s="44"/>
       <c r="Q20" s="44"/>
@@ -19843,7 +19844,7 @@
       <c r="L21" s="44"/>
       <c r="M21" s="44"/>
       <c r="N21" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O21" s="44"/>
       <c r="P21" s="44"/>
@@ -19903,7 +19904,7 @@
       <c r="K22" s="44"/>
       <c r="L22" s="44"/>
       <c r="M22" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N22" s="44"/>
       <c r="O22" s="44"/>
@@ -19963,7 +19964,7 @@
       <c r="J23" s="45"/>
       <c r="K23" s="44"/>
       <c r="L23" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M23" s="44"/>
       <c r="N23" s="44"/>
@@ -20023,7 +20024,7 @@
       <c r="I24" s="44"/>
       <c r="J24" s="45"/>
       <c r="K24" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L24" s="44"/>
       <c r="M24" s="44"/>
@@ -20083,11 +20084,9 @@
       <c r="F25" s="44"/>
       <c r="G25" s="44"/>
       <c r="H25" s="44"/>
-      <c r="I25" s="44" t="s">
-        <v>10</v>
-      </c>
+      <c r="I25" s="44"/>
       <c r="J25" s="45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K25" s="44"/>
       <c r="L25" s="44"/>
@@ -20139,31 +20138,31 @@
     </row>
     <row r="26" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26" s="49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F26" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G26" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H26" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I26" s="50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J26" s="45"/>
       <c r="K26" s="44"/>
@@ -20683,8 +20682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF70BD8-2872-42BA-B1C3-A79569DA3A3A}">
   <dimension ref="A1:BC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AQ19" sqref="AQ19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21536,7 +21535,7 @@
       <c r="X15" s="44"/>
       <c r="Y15" s="44"/>
       <c r="Z15" s="44" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="AA15" s="44"/>
       <c r="AB15" s="44"/>
@@ -21563,7 +21562,7 @@
       <c r="AW15" s="44"/>
       <c r="AX15" s="49"/>
       <c r="AY15" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ15" s="44"/>
       <c r="BA15" s="44"/>
@@ -21606,7 +21605,7 @@
       <c r="Y16" s="44"/>
       <c r="Z16" s="44"/>
       <c r="AA16" s="44" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="AB16" s="44"/>
       <c r="AC16" s="44"/>
@@ -21622,7 +21621,7 @@
       <c r="AM16" s="44"/>
       <c r="AN16" s="44"/>
       <c r="AO16" s="44" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="AP16" s="44"/>
       <c r="AQ16" s="44"/>
@@ -21690,7 +21689,7 @@
       <c r="Z17" s="44"/>
       <c r="AA17" s="44"/>
       <c r="AB17" s="44" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="AC17" s="44"/>
       <c r="AD17" s="47"/>
@@ -21704,7 +21703,7 @@
       <c r="AL17" s="44"/>
       <c r="AM17" s="44"/>
       <c r="AN17" s="44" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="AO17" s="44"/>
       <c r="AP17" s="44"/>
@@ -21762,7 +21761,7 @@
       <c r="AA18" s="44"/>
       <c r="AB18" s="44"/>
       <c r="AC18" s="44" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="AD18" s="47"/>
       <c r="AE18" s="44"/>
@@ -21774,7 +21773,7 @@
       <c r="AK18" s="44"/>
       <c r="AL18" s="44"/>
       <c r="AM18" s="44" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="AN18" s="44"/>
       <c r="AO18" s="44"/>
@@ -21834,7 +21833,7 @@
       <c r="AB19" s="44"/>
       <c r="AC19" s="44"/>
       <c r="AD19" s="47" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="AE19" s="44"/>
       <c r="AF19" s="44"/>
@@ -21844,7 +21843,7 @@
       <c r="AJ19" s="44"/>
       <c r="AK19" s="44"/>
       <c r="AL19" s="44" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="AM19" s="44"/>
       <c r="AN19" s="44"/>
@@ -21906,25 +21905,25 @@
       <c r="AC20" s="44"/>
       <c r="AD20" s="47"/>
       <c r="AE20" s="44" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AF20" s="44" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AG20" s="44" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AH20" s="44" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AI20" s="44" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="44" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AK20" s="44" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AL20" s="44"/>
       <c r="AM20" s="44"/>
@@ -22051,7 +22050,7 @@
       <c r="X22" s="44"/>
       <c r="Y22" s="44"/>
       <c r="Z22" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA22" s="44"/>
       <c r="AB22" s="44"/>
@@ -22117,7 +22116,7 @@
       <c r="Y23" s="44"/>
       <c r="Z23" s="44"/>
       <c r="AA23" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB23" s="44"/>
       <c r="AC23" s="44"/>
@@ -22133,19 +22132,19 @@
       <c r="AM23" s="44"/>
       <c r="AN23" s="44"/>
       <c r="AO23" s="44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP23" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ23" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR23" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS23" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT23" s="44"/>
       <c r="AU23" s="44"/>
@@ -22189,7 +22188,7 @@
       <c r="Z24" s="44"/>
       <c r="AA24" s="44"/>
       <c r="AB24" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC24" s="44"/>
       <c r="AD24" s="47"/>
@@ -22203,7 +22202,7 @@
       <c r="AL24" s="44"/>
       <c r="AM24" s="44"/>
       <c r="AN24" s="44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO24" s="44"/>
       <c r="AP24" s="44"/>
@@ -22253,7 +22252,7 @@
       <c r="AA25" s="44"/>
       <c r="AB25" s="44"/>
       <c r="AC25" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AD25" s="47"/>
       <c r="AE25" s="44"/>
@@ -22265,7 +22264,7 @@
       <c r="AK25" s="44"/>
       <c r="AL25" s="44"/>
       <c r="AM25" s="44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN25" s="44"/>
       <c r="AO25" s="44"/>
@@ -22317,21 +22316,21 @@
       <c r="AB26" s="44"/>
       <c r="AC26" s="44"/>
       <c r="AD26" s="47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE26" s="44"/>
       <c r="AF26" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG26" s="44"/>
       <c r="AH26" s="44"/>
       <c r="AI26" s="44"/>
       <c r="AJ26" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK26" s="44"/>
       <c r="AL26" s="44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM26" s="44"/>
       <c r="AN26" s="44"/>
@@ -22385,25 +22384,25 @@
       <c r="AC27" s="44"/>
       <c r="AD27" s="47"/>
       <c r="AE27" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF27" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG27" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH27" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI27" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ27" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK27" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL27" s="44"/>
       <c r="AM27" s="44"/>

--- a/GUI_20212202_AYZ8R9/Maps/map.xlsx
+++ b/GUI_20212202_AYZ8R9/Maps/map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\game4\GUI_20212202_AYZ8R9\Maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88F4D95-89B4-446C-BB11-74FDE52EFF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2AE6A8-4C3E-4C5F-AEA7-113BAA4567F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="19">
   <si>
     <t>B</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>EN</t>
   </si>
 </sst>
 </file>
@@ -672,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382D7427-FBDE-4BF3-ADAB-21A4C37623DD}">
   <dimension ref="A1:CY47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AA32" sqref="AA32"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2683,9 +2686,7 @@
       <c r="CY18" s="28"/>
     </row>
     <row r="19" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
-        <v>9</v>
-      </c>
+      <c r="A19" s="44"/>
       <c r="B19" s="44"/>
       <c r="C19" s="44"/>
       <c r="D19" s="44"/>
@@ -5802,8 +5803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32EA023-0038-482A-B633-0391C0CB8525}">
   <dimension ref="A1:BL35"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AR19" sqref="AR19"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6401,7 +6402,9 @@
       <c r="AV10" s="1"/>
       <c r="AW10" s="1"/>
       <c r="AX10" s="13"/>
-      <c r="AY10" s="1"/>
+      <c r="AY10" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="AZ10" s="1"/>
       <c r="BA10" s="1"/>
       <c r="BB10" s="2"/>
@@ -6470,9 +6473,6 @@
       <c r="AW11" s="1"/>
       <c r="AX11" s="13" t="s">
         <v>4</v>
-      </c>
-      <c r="AY11" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="AZ11" s="1"/>
       <c r="BA11" s="1"/>
@@ -6875,7 +6875,9 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H17" s="1" t="s">
         <v>5</v>
       </c>
@@ -7045,7 +7047,6 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
         <v>5</v>
       </c>
@@ -7180,7 +7181,9 @@
       <c r="AO20" s="1"/>
       <c r="AP20" s="1"/>
       <c r="AQ20" s="1"/>
-      <c r="AR20" s="1"/>
+      <c r="AR20" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="AS20" s="1"/>
       <c r="AT20" s="1"/>
       <c r="AU20" s="1"/>
@@ -8263,7 +8266,7 @@
   <dimension ref="A1:BL35"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8591,7 +8594,9 @@
       <c r="AL6" s="1"/>
       <c r="AM6" s="1"/>
       <c r="AN6" s="11"/>
-      <c r="AO6" s="1"/>
+      <c r="AO6" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="AP6" s="1"/>
       <c r="AQ6" s="1"/>
       <c r="AR6" s="1"/>
@@ -9212,7 +9217,9 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="F14" s="1" t="s">
         <v>17</v>
       </c>
@@ -10854,7 +10861,7 @@
   <dimension ref="A1:BL40"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11763,7 +11770,9 @@
       <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -12228,6 +12237,9 @@
       </c>
       <c r="AT20" t="s">
         <v>2</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>18</v>
       </c>
       <c r="BB20" t="s">
         <v>10</v>
@@ -13321,7 +13333,7 @@
   <dimension ref="A1:CY47"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AH23" sqref="AH23"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15458,7 +15470,9 @@
       </c>
       <c r="B20" s="44"/>
       <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
+      <c r="D20" s="44" t="s">
+        <v>10</v>
+      </c>
       <c r="E20" s="44" t="s">
         <v>5</v>
       </c>
@@ -16453,7 +16467,9 @@
       <c r="AI28" s="44"/>
       <c r="AJ28" s="44"/>
       <c r="AK28" s="44"/>
-      <c r="AL28" s="44"/>
+      <c r="AL28" s="44" t="s">
+        <v>18</v>
+      </c>
       <c r="AM28" s="44"/>
       <c r="AN28" s="44"/>
       <c r="AO28" s="44"/>
@@ -18456,7 +18472,7 @@
   <dimension ref="A1:BC32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18839,7 +18855,9 @@
       <c r="W7" s="44"/>
       <c r="X7" s="44"/>
       <c r="Y7" s="44"/>
-      <c r="Z7" s="44"/>
+      <c r="Z7" s="44" t="s">
+        <v>18</v>
+      </c>
       <c r="AA7" s="44"/>
       <c r="AB7" s="44"/>
       <c r="AC7" s="44"/>
@@ -20080,7 +20098,9 @@
       <c r="B25" s="44"/>
       <c r="C25" s="44"/>
       <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
+      <c r="E25" s="44" t="s">
+        <v>10</v>
+      </c>
       <c r="F25" s="44"/>
       <c r="G25" s="44"/>
       <c r="H25" s="44"/>
@@ -20683,7 +20703,7 @@
   <dimension ref="A1:BC32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AQ19" sqref="AQ19"/>
+      <selection activeCell="AB35" sqref="AB35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21562,7 +21582,7 @@
       <c r="AW15" s="44"/>
       <c r="AX15" s="49"/>
       <c r="AY15" s="44" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ15" s="44"/>
       <c r="BA15" s="44"/>

--- a/GUI_20212202_AYZ8R9/Maps/map.xlsx
+++ b/GUI_20212202_AYZ8R9/Maps/map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\game4\GUI_20212202_AYZ8R9\Maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2AE6A8-4C3E-4C5F-AEA7-113BAA4567F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF813C54-2C08-4E39-B435-28A261BFE42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="20">
   <si>
     <t>B</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>EN</t>
+  </si>
+  <si>
+    <t>END</t>
   </si>
 </sst>
 </file>
@@ -5803,8 +5806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32EA023-0038-482A-B633-0391C0CB8525}">
   <dimension ref="A1:BL35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Y23" sqref="Y23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8266,7 +8269,7 @@
   <dimension ref="A1:BL35"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="AO6" sqref="AO6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13333,7 +13336,7 @@
   <dimension ref="A1:CY47"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="Q27" sqref="P27:Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15115,7 +15118,9 @@
       <c r="T17" s="46"/>
       <c r="U17" s="44"/>
       <c r="V17" s="44"/>
-      <c r="W17" s="44"/>
+      <c r="W17" s="44" t="s">
+        <v>13</v>
+      </c>
       <c r="X17" s="44"/>
       <c r="Y17" s="44"/>
       <c r="Z17" s="44"/>
@@ -15978,11 +15983,10 @@
         <v>8</v>
       </c>
       <c r="Z24" s="44"/>
-      <c r="AA24" s="44" t="s">
-        <v>13</v>
-      </c>
       <c r="AB24" s="44"/>
-      <c r="AC24" s="44"/>
+      <c r="AC24" s="44" t="s">
+        <v>18</v>
+      </c>
       <c r="AD24" s="47"/>
       <c r="AE24" s="44"/>
       <c r="AF24" s="44"/>
@@ -16467,9 +16471,6 @@
       <c r="AI28" s="44"/>
       <c r="AJ28" s="44"/>
       <c r="AK28" s="44"/>
-      <c r="AL28" s="44" t="s">
-        <v>18</v>
-      </c>
       <c r="AM28" s="44"/>
       <c r="AN28" s="44"/>
       <c r="AO28" s="44"/>
@@ -18472,7 +18473,7 @@
   <dimension ref="A1:BC32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="AG17" sqref="AG17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18855,14 +18856,13 @@
       <c r="W7" s="44"/>
       <c r="X7" s="44"/>
       <c r="Y7" s="44"/>
-      <c r="Z7" s="44" t="s">
-        <v>18</v>
-      </c>
       <c r="AA7" s="44"/>
       <c r="AB7" s="44"/>
       <c r="AC7" s="44"/>
       <c r="AD7" s="47"/>
-      <c r="AE7" s="44"/>
+      <c r="AE7" s="44" t="s">
+        <v>18</v>
+      </c>
       <c r="AF7" s="44"/>
       <c r="AG7" s="44"/>
       <c r="AH7" s="44"/>
@@ -19647,7 +19647,6 @@
       <c r="N18" s="44"/>
       <c r="O18" s="44"/>
       <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
       <c r="R18" s="44"/>
       <c r="S18" s="44" t="s">
         <v>13</v>
@@ -20702,8 +20701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF70BD8-2872-42BA-B1C3-A79569DA3A3A}">
   <dimension ref="A1:BC32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB35" sqref="AB35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y30" sqref="Y30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21587,7 +21586,7 @@
       <c r="AZ15" s="44"/>
       <c r="BA15" s="44"/>
       <c r="BB15" s="50" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="BC15" s="51">
         <v>13</v>

--- a/GUI_20212202_AYZ8R9/Maps/map.xlsx
+++ b/GUI_20212202_AYZ8R9/Maps/map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\game4\GUI_20212202_AYZ8R9\Maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF813C54-2C08-4E39-B435-28A261BFE42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6A633F-E5FE-4501-B5C6-251BBE61F519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="21">
   <si>
     <t>B</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>END</t>
+  </si>
+  <si>
+    <t>HC</t>
   </si>
 </sst>
 </file>
@@ -678,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382D7427-FBDE-4BF3-ADAB-21A4C37623DD}">
   <dimension ref="A1:CY47"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AG19" sqref="AG19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2743,7 +2746,9 @@
       <c r="AF19" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="AG19" s="44"/>
+      <c r="AG19" s="44" t="s">
+        <v>20</v>
+      </c>
       <c r="AH19" s="44"/>
       <c r="AI19" s="44"/>
       <c r="AJ19" s="44"/>
@@ -5807,7 +5812,7 @@
   <dimension ref="A1:BL35"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Y23" sqref="Y23"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20701,8 +20706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF70BD8-2872-42BA-B1C3-A79569DA3A3A}">
   <dimension ref="A1:BC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y30" sqref="Y30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AU15" sqref="AU15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21576,13 +21581,12 @@
       <c r="AR15" s="44"/>
       <c r="AS15" s="44"/>
       <c r="AT15" s="44"/>
-      <c r="AU15" s="44"/>
+      <c r="AU15" s="44" t="s">
+        <v>18</v>
+      </c>
       <c r="AV15" s="44"/>
       <c r="AW15" s="44"/>
       <c r="AX15" s="49"/>
-      <c r="AY15" s="44" t="s">
-        <v>18</v>
-      </c>
       <c r="AZ15" s="44"/>
       <c r="BA15" s="44"/>
       <c r="BB15" s="50" t="s">

--- a/GUI_20212202_AYZ8R9/Maps/map.xlsx
+++ b/GUI_20212202_AYZ8R9/Maps/map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\game4\GUI_20212202_AYZ8R9\Maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6A633F-E5FE-4501-B5C6-251BBE61F519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7B68ED-735A-4DA9-B833-ED047293A07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -682,7 +682,7 @@
   <dimension ref="A1:CY47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AG19" sqref="AG19"/>
+      <selection activeCell="AJ12" sqref="AJ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/GUI_20212202_AYZ8R9/Maps/map.xlsx
+++ b/GUI_20212202_AYZ8R9/Maps/map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\game3\GUI_20212202_AYZ8R9\Maps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\game4\GUI_20212202_AYZ8R9\Maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB39635-32B5-433F-BF5D-376A0E33464D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7B68ED-735A-4DA9-B833-ED047293A07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="21">
   <si>
     <t>B</t>
   </si>
@@ -82,9 +82,6 @@
     <t>HOME</t>
   </si>
   <si>
-    <t>Z</t>
-  </si>
-  <si>
     <t>CH</t>
   </si>
   <si>
@@ -98,6 +95,15 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>END</t>
+  </si>
+  <si>
+    <t>HC</t>
   </si>
 </sst>
 </file>
@@ -675,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382D7427-FBDE-4BF3-ADAB-21A4C37623DD}">
   <dimension ref="A1:CY47"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AA32" sqref="AA32"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AJ12" sqref="AJ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2686,9 +2692,7 @@
       <c r="CY18" s="28"/>
     </row>
     <row r="19" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
-        <v>9</v>
-      </c>
+      <c r="A19" s="44"/>
       <c r="B19" s="44"/>
       <c r="C19" s="44"/>
       <c r="D19" s="44"/>
@@ -2742,7 +2746,9 @@
       <c r="AF19" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="AG19" s="44"/>
+      <c r="AG19" s="44" t="s">
+        <v>20</v>
+      </c>
       <c r="AH19" s="44"/>
       <c r="AI19" s="44"/>
       <c r="AJ19" s="44"/>
@@ -5806,7 +5812,7 @@
   <dimension ref="A1:BL35"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Z19" sqref="Z19"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6404,7 +6410,9 @@
       <c r="AV10" s="1"/>
       <c r="AW10" s="1"/>
       <c r="AX10" s="13"/>
-      <c r="AY10" s="1"/>
+      <c r="AY10" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="AZ10" s="1"/>
       <c r="BA10" s="1"/>
       <c r="BB10" s="2"/>
@@ -6473,9 +6481,6 @@
       <c r="AW11" s="1"/>
       <c r="AX11" s="13" t="s">
         <v>4</v>
-      </c>
-      <c r="AY11" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="AZ11" s="1"/>
       <c r="BA11" s="1"/>
@@ -6692,12 +6697,24 @@
       <c r="AN14" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="AO14" s="1"/>
-      <c r="AP14" s="1"/>
-      <c r="AQ14" s="1"/>
-      <c r="AR14" s="1"/>
-      <c r="AS14" s="1"/>
-      <c r="AT14" s="1"/>
+      <c r="AO14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="AU14" s="1" t="s">
         <v>4</v>
       </c>
@@ -6766,27 +6783,7 @@
       <c r="AL15" s="27"/>
       <c r="AM15" s="1"/>
       <c r="AN15" s="11"/>
-      <c r="AO15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AP15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU15" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="AU15" s="1"/>
       <c r="AV15" s="1"/>
       <c r="AW15" s="1"/>
       <c r="AX15" s="13"/>
@@ -6845,7 +6842,7 @@
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
@@ -6886,7 +6883,9 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H17" s="1" t="s">
         <v>5</v>
       </c>
@@ -6930,7 +6929,7 @@
       <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
       <c r="AJ17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK17" s="1"/>
       <c r="AL17" s="27"/>
@@ -6947,7 +6946,7 @@
       <c r="AW17" s="1"/>
       <c r="AX17" s="13"/>
       <c r="AY17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ17" s="1" t="s">
         <v>0</v>
@@ -7019,7 +7018,7 @@
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL18" s="27"/>
       <c r="AM18" s="1"/>
@@ -7034,7 +7033,7 @@
       <c r="AV18" s="1"/>
       <c r="AW18" s="1"/>
       <c r="AX18" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY18" s="1"/>
       <c r="AZ18" s="1"/>
@@ -7056,7 +7055,6 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
         <v>5</v>
       </c>
@@ -7104,7 +7102,7 @@
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1"/>
       <c r="AL19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM19" s="1"/>
       <c r="AN19" s="11"/>
@@ -7117,7 +7115,7 @@
       <c r="AU19" s="1"/>
       <c r="AV19" s="1"/>
       <c r="AW19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX19" s="13"/>
       <c r="AY19" s="1"/>
@@ -7185,18 +7183,20 @@
       <c r="AK20" s="1"/>
       <c r="AL20" s="1"/>
       <c r="AM20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN20" s="11"/>
       <c r="AO20" s="1"/>
       <c r="AP20" s="1"/>
       <c r="AQ20" s="1"/>
-      <c r="AR20" s="1"/>
+      <c r="AR20" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="AS20" s="1"/>
       <c r="AT20" s="1"/>
       <c r="AU20" s="1"/>
       <c r="AV20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC20" s="3"/>
       <c r="BD20" s="3"/>
@@ -7264,28 +7264,28 @@
       <c r="AL21" s="1"/>
       <c r="AM21" s="1"/>
       <c r="AN21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AO21" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="AP21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV21" s="1"/>
       <c r="AW21" s="1"/>
@@ -7606,7 +7606,7 @@
         <v>3</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>8</v>
@@ -8274,7 +8274,7 @@
   <dimension ref="A1:BL35"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AG23" sqref="AG23"/>
+      <selection activeCell="AO6" sqref="AO6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8602,7 +8602,9 @@
       <c r="AL6" s="1"/>
       <c r="AM6" s="1"/>
       <c r="AN6" s="11"/>
-      <c r="AO6" s="1"/>
+      <c r="AO6" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="AP6" s="1"/>
       <c r="AQ6" s="1"/>
       <c r="AR6" s="1"/>
@@ -9028,7 +9030,7 @@
         <v>2</v>
       </c>
       <c r="AY11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ11" s="1"/>
       <c r="BA11" s="1"/>
@@ -9130,7 +9132,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>0</v>
@@ -9223,9 +9225,11 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="F14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -9310,7 +9314,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -9391,7 +9395,7 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -9470,13 +9474,13 @@
     </row>
     <row r="17" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -9580,7 +9584,9 @@
       <c r="S18" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="T18" s="7"/>
+      <c r="T18" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1" t="s">
@@ -9660,7 +9666,9 @@
       <c r="S19" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="T19" s="7"/>
+      <c r="T19" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
@@ -9738,7 +9746,9 @@
       <c r="S20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T20" s="7"/>
+      <c r="T20" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="27"/>
@@ -9819,7 +9829,9 @@
       <c r="S21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T21" s="7"/>
+      <c r="T21" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
@@ -9885,7 +9897,9 @@
       <c r="S22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T22" s="7"/>
+      <c r="T22" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
@@ -9957,7 +9971,9 @@
       <c r="S23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T23" s="7"/>
+      <c r="T23" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
@@ -10028,13 +10044,13 @@
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
@@ -10107,7 +10123,7 @@
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
@@ -10180,14 +10196,14 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
@@ -10254,34 +10270,34 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AD27" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI27" s="1" t="s">
         <v>6</v>
@@ -10853,7 +10869,7 @@
   <dimension ref="A1:BL40"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11762,7 +11778,9 @@
       <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -11970,7 +11988,7 @@
         <v>2</v>
       </c>
       <c r="AR17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS17" s="1"/>
       <c r="AT17" s="1"/>
@@ -12007,7 +12025,7 @@
         <v>2</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="1"/>
@@ -12227,6 +12245,9 @@
       </c>
       <c r="AT20" t="s">
         <v>2</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>18</v>
       </c>
       <c r="BB20" t="s">
         <v>10</v>
@@ -13320,7 +13341,7 @@
   <dimension ref="A1:CY47"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AT19" sqref="AT19:BB26"/>
+      <selection activeCell="Q27" sqref="P27:Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15102,7 +15123,9 @@
       <c r="T17" s="46"/>
       <c r="U17" s="44"/>
       <c r="V17" s="44"/>
-      <c r="W17" s="44"/>
+      <c r="W17" s="44" t="s">
+        <v>13</v>
+      </c>
       <c r="X17" s="44"/>
       <c r="Y17" s="44"/>
       <c r="Z17" s="44"/>
@@ -15457,7 +15480,9 @@
       </c>
       <c r="B20" s="44"/>
       <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
+      <c r="D20" s="44" t="s">
+        <v>10</v>
+      </c>
       <c r="E20" s="44" t="s">
         <v>5</v>
       </c>
@@ -15963,11 +15988,10 @@
         <v>8</v>
       </c>
       <c r="Z24" s="44"/>
-      <c r="AA24" s="44" t="s">
-        <v>14</v>
-      </c>
       <c r="AB24" s="44"/>
-      <c r="AC24" s="44"/>
+      <c r="AC24" s="44" t="s">
+        <v>18</v>
+      </c>
       <c r="AD24" s="47"/>
       <c r="AE24" s="44"/>
       <c r="AF24" s="44"/>
@@ -16088,7 +16112,7 @@
         <v>0</v>
       </c>
       <c r="AD25" s="47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE25" s="44"/>
       <c r="AF25" s="44"/>
@@ -16106,11 +16130,11 @@
       <c r="AR25" s="44"/>
       <c r="AS25" s="44"/>
       <c r="AT25" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU25" s="44"/>
       <c r="AV25" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW25" s="44"/>
       <c r="AX25" s="44"/>
@@ -16204,7 +16228,7 @@
       <c r="AC26" s="44"/>
       <c r="AD26" s="47"/>
       <c r="AE26" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF26" s="44"/>
       <c r="AG26" s="44"/>
@@ -16220,34 +16244,34 @@
       <c r="AQ26" s="44"/>
       <c r="AR26" s="44"/>
       <c r="AS26" s="44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT26" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU26" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV26" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW26" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX26" s="49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY26" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ26" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA26" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB26" s="50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC26" s="51">
         <v>24</v>
@@ -16334,7 +16358,7 @@
       <c r="AD27" s="47"/>
       <c r="AE27" s="44"/>
       <c r="AF27" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG27" s="44"/>
       <c r="AH27" s="44"/>
@@ -16348,7 +16372,7 @@
       <c r="AP27" s="44"/>
       <c r="AQ27" s="44"/>
       <c r="AR27" s="44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS27" s="44"/>
       <c r="AT27" s="44"/>
@@ -16446,19 +16470,18 @@
       <c r="AE28" s="44"/>
       <c r="AF28" s="44"/>
       <c r="AG28" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH28" s="44"/>
       <c r="AI28" s="44"/>
       <c r="AJ28" s="44"/>
       <c r="AK28" s="44"/>
-      <c r="AL28" s="44"/>
       <c r="AM28" s="44"/>
       <c r="AN28" s="44"/>
       <c r="AO28" s="44"/>
       <c r="AP28" s="44"/>
       <c r="AQ28" s="44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR28" s="44"/>
       <c r="AS28" s="44"/>
@@ -16558,31 +16581,31 @@
       <c r="AF29" s="44"/>
       <c r="AG29" s="44"/>
       <c r="AH29" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI29" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ29" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK29" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL29" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM29" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN29" s="48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO29" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP29" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ29" s="44"/>
       <c r="AR29" s="44"/>
@@ -18455,7 +18478,7 @@
   <dimension ref="A1:BC32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="A1:XFD1048576"/>
+      <selection activeCell="AG17" sqref="AG17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18838,12 +18861,13 @@
       <c r="W7" s="44"/>
       <c r="X7" s="44"/>
       <c r="Y7" s="44"/>
-      <c r="Z7" s="44"/>
       <c r="AA7" s="44"/>
       <c r="AB7" s="44"/>
       <c r="AC7" s="44"/>
       <c r="AD7" s="47"/>
-      <c r="AE7" s="44"/>
+      <c r="AE7" s="44" t="s">
+        <v>18</v>
+      </c>
       <c r="AF7" s="44"/>
       <c r="AG7" s="44"/>
       <c r="AH7" s="44"/>
@@ -19230,7 +19254,7 @@
       <c r="AJ12" s="44"/>
       <c r="AK12" s="44"/>
       <c r="AL12" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM12" s="44"/>
       <c r="AN12" s="48"/>
@@ -19401,7 +19425,7 @@
         <v>8</v>
       </c>
       <c r="AY14" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ14" s="44"/>
       <c r="BA14" s="44"/>
@@ -19628,10 +19652,9 @@
       <c r="N18" s="44"/>
       <c r="O18" s="44"/>
       <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
       <c r="R18" s="44"/>
       <c r="S18" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T18" s="46"/>
       <c r="U18" s="44" t="s">
@@ -19711,22 +19734,22 @@
       <c r="N19" s="44"/>
       <c r="O19" s="44"/>
       <c r="P19" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q19" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R19" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S19" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T19" s="46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U19" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V19" s="44" t="s">
         <v>3</v>
@@ -19783,7 +19806,7 @@
       <c r="M20" s="44"/>
       <c r="N20" s="44"/>
       <c r="O20" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P20" s="44"/>
       <c r="Q20" s="44"/>
@@ -19843,7 +19866,7 @@
       <c r="L21" s="44"/>
       <c r="M21" s="44"/>
       <c r="N21" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O21" s="44"/>
       <c r="P21" s="44"/>
@@ -19903,7 +19926,7 @@
       <c r="K22" s="44"/>
       <c r="L22" s="44"/>
       <c r="M22" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N22" s="44"/>
       <c r="O22" s="44"/>
@@ -19963,7 +19986,7 @@
       <c r="J23" s="45"/>
       <c r="K23" s="44"/>
       <c r="L23" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M23" s="44"/>
       <c r="N23" s="44"/>
@@ -20023,7 +20046,7 @@
       <c r="I24" s="44"/>
       <c r="J24" s="45"/>
       <c r="K24" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L24" s="44"/>
       <c r="M24" s="44"/>
@@ -20079,15 +20102,15 @@
       <c r="B25" s="44"/>
       <c r="C25" s="44"/>
       <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
+      <c r="E25" s="44" t="s">
+        <v>10</v>
+      </c>
       <c r="F25" s="44"/>
       <c r="G25" s="44"/>
       <c r="H25" s="44"/>
-      <c r="I25" s="44" t="s">
-        <v>10</v>
-      </c>
+      <c r="I25" s="44"/>
       <c r="J25" s="45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K25" s="44"/>
       <c r="L25" s="44"/>
@@ -20139,31 +20162,31 @@
     </row>
     <row r="26" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26" s="49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F26" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G26" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H26" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I26" s="50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J26" s="45"/>
       <c r="K26" s="44"/>
@@ -20683,8 +20706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF70BD8-2872-42BA-B1C3-A79569DA3A3A}">
   <dimension ref="A1:BC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AU15" sqref="AU15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21536,7 +21559,7 @@
       <c r="X15" s="44"/>
       <c r="Y15" s="44"/>
       <c r="Z15" s="44" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="AA15" s="44"/>
       <c r="AB15" s="44"/>
@@ -21558,17 +21581,16 @@
       <c r="AR15" s="44"/>
       <c r="AS15" s="44"/>
       <c r="AT15" s="44"/>
-      <c r="AU15" s="44"/>
+      <c r="AU15" s="44" t="s">
+        <v>18</v>
+      </c>
       <c r="AV15" s="44"/>
       <c r="AW15" s="44"/>
       <c r="AX15" s="49"/>
-      <c r="AY15" s="44" t="s">
-        <v>14</v>
-      </c>
       <c r="AZ15" s="44"/>
       <c r="BA15" s="44"/>
       <c r="BB15" s="50" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="BC15" s="51">
         <v>13</v>
@@ -21606,7 +21628,7 @@
       <c r="Y16" s="44"/>
       <c r="Z16" s="44"/>
       <c r="AA16" s="44" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="AB16" s="44"/>
       <c r="AC16" s="44"/>
@@ -21622,7 +21644,7 @@
       <c r="AM16" s="44"/>
       <c r="AN16" s="44"/>
       <c r="AO16" s="44" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="AP16" s="44"/>
       <c r="AQ16" s="44"/>
@@ -21690,7 +21712,7 @@
       <c r="Z17" s="44"/>
       <c r="AA17" s="44"/>
       <c r="AB17" s="44" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="AC17" s="44"/>
       <c r="AD17" s="47"/>
@@ -21704,7 +21726,7 @@
       <c r="AL17" s="44"/>
       <c r="AM17" s="44"/>
       <c r="AN17" s="44" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="AO17" s="44"/>
       <c r="AP17" s="44"/>
@@ -21762,7 +21784,7 @@
       <c r="AA18" s="44"/>
       <c r="AB18" s="44"/>
       <c r="AC18" s="44" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="AD18" s="47"/>
       <c r="AE18" s="44"/>
@@ -21774,7 +21796,7 @@
       <c r="AK18" s="44"/>
       <c r="AL18" s="44"/>
       <c r="AM18" s="44" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="AN18" s="44"/>
       <c r="AO18" s="44"/>
@@ -21834,7 +21856,7 @@
       <c r="AB19" s="44"/>
       <c r="AC19" s="44"/>
       <c r="AD19" s="47" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="AE19" s="44"/>
       <c r="AF19" s="44"/>
@@ -21844,7 +21866,7 @@
       <c r="AJ19" s="44"/>
       <c r="AK19" s="44"/>
       <c r="AL19" s="44" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="AM19" s="44"/>
       <c r="AN19" s="44"/>
@@ -21906,25 +21928,25 @@
       <c r="AC20" s="44"/>
       <c r="AD20" s="47"/>
       <c r="AE20" s="44" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AF20" s="44" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AG20" s="44" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AH20" s="44" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AI20" s="44" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="44" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AK20" s="44" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AL20" s="44"/>
       <c r="AM20" s="44"/>
@@ -22051,7 +22073,7 @@
       <c r="X22" s="44"/>
       <c r="Y22" s="44"/>
       <c r="Z22" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA22" s="44"/>
       <c r="AB22" s="44"/>
@@ -22117,7 +22139,7 @@
       <c r="Y23" s="44"/>
       <c r="Z23" s="44"/>
       <c r="AA23" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB23" s="44"/>
       <c r="AC23" s="44"/>
@@ -22133,19 +22155,19 @@
       <c r="AM23" s="44"/>
       <c r="AN23" s="44"/>
       <c r="AO23" s="44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP23" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ23" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR23" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS23" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT23" s="44"/>
       <c r="AU23" s="44"/>
@@ -22189,7 +22211,7 @@
       <c r="Z24" s="44"/>
       <c r="AA24" s="44"/>
       <c r="AB24" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC24" s="44"/>
       <c r="AD24" s="47"/>
@@ -22203,7 +22225,7 @@
       <c r="AL24" s="44"/>
       <c r="AM24" s="44"/>
       <c r="AN24" s="44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO24" s="44"/>
       <c r="AP24" s="44"/>
@@ -22253,7 +22275,7 @@
       <c r="AA25" s="44"/>
       <c r="AB25" s="44"/>
       <c r="AC25" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AD25" s="47"/>
       <c r="AE25" s="44"/>
@@ -22265,7 +22287,7 @@
       <c r="AK25" s="44"/>
       <c r="AL25" s="44"/>
       <c r="AM25" s="44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN25" s="44"/>
       <c r="AO25" s="44"/>
@@ -22317,21 +22339,21 @@
       <c r="AB26" s="44"/>
       <c r="AC26" s="44"/>
       <c r="AD26" s="47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE26" s="44"/>
       <c r="AF26" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG26" s="44"/>
       <c r="AH26" s="44"/>
       <c r="AI26" s="44"/>
       <c r="AJ26" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK26" s="44"/>
       <c r="AL26" s="44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM26" s="44"/>
       <c r="AN26" s="44"/>
@@ -22385,25 +22407,25 @@
       <c r="AC27" s="44"/>
       <c r="AD27" s="47"/>
       <c r="AE27" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF27" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG27" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH27" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI27" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ27" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK27" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL27" s="44"/>
       <c r="AM27" s="44"/>

--- a/GUI_20212202_AYZ8R9/Maps/map.xlsx
+++ b/GUI_20212202_AYZ8R9/Maps/map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\game4\GUI_20212202_AYZ8R9\Maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6A633F-E5FE-4501-B5C6-251BBE61F519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8F405D-C964-46E7-AC4C-C82BF642E572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -682,7 +682,7 @@
   <dimension ref="A1:CY47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AG19" sqref="AG19"/>
+      <selection activeCell="AI10" sqref="AI10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/GUI_20212202_AYZ8R9/Maps/map.xlsx
+++ b/GUI_20212202_AYZ8R9/Maps/map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\game4\GUI_20212202_AYZ8R9\Maps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krisz\OneDrive\Asztali gép\SZTGUI Féléves\GUI_20212202_AYZ8R9\GUI_20212202_AYZ8R9\Maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8F405D-C964-46E7-AC4C-C82BF642E572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE4DC4C-715E-4B95-B337-351A9BF3BC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="26">
   <si>
     <t>B</t>
   </si>
@@ -79,9 +79,6 @@
     <t>PLAYER</t>
   </si>
   <si>
-    <t>HOME</t>
-  </si>
-  <si>
     <t>CH</t>
   </si>
   <si>
@@ -104,6 +101,24 @@
   </si>
   <si>
     <t>HC</t>
+  </si>
+  <si>
+    <t>HOMELC</t>
+  </si>
+  <si>
+    <t>HOMEC</t>
+  </si>
+  <si>
+    <t>HOMELW</t>
+  </si>
+  <si>
+    <t>HOMEB</t>
+  </si>
+  <si>
+    <t>HOMERC</t>
+  </si>
+  <si>
+    <t>HOMERW</t>
   </si>
 </sst>
 </file>
@@ -681,28 +696,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382D7427-FBDE-4BF3-ADAB-21A4C37623DD}">
   <dimension ref="A1:CY47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AI10" sqref="AI10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AF19" sqref="AF19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="9" width="4.28515625" style="29"/>
-    <col min="10" max="10" width="4.28515625" style="36"/>
-    <col min="11" max="19" width="4.28515625" style="29"/>
-    <col min="20" max="20" width="4.28515625" style="37"/>
-    <col min="21" max="29" width="4.28515625" style="29"/>
-    <col min="30" max="30" width="4.28515625" style="38"/>
-    <col min="31" max="39" width="4.28515625" style="29"/>
-    <col min="40" max="40" width="4.28515625" style="39"/>
-    <col min="41" max="49" width="4.28515625" style="29"/>
-    <col min="50" max="50" width="4.28515625" style="40"/>
-    <col min="51" max="54" width="4.28515625" style="29"/>
-    <col min="55" max="55" width="4.28515625" style="43"/>
-    <col min="56" max="16384" width="4.28515625" style="29"/>
+    <col min="1" max="9" width="4.33203125" style="29"/>
+    <col min="10" max="10" width="4.33203125" style="36"/>
+    <col min="11" max="19" width="4.33203125" style="29"/>
+    <col min="20" max="20" width="4.33203125" style="37"/>
+    <col min="21" max="29" width="4.33203125" style="29"/>
+    <col min="30" max="30" width="4.33203125" style="38"/>
+    <col min="31" max="39" width="4.33203125" style="29"/>
+    <col min="40" max="40" width="4.33203125" style="39"/>
+    <col min="41" max="49" width="4.33203125" style="29"/>
+    <col min="50" max="50" width="4.33203125" style="40"/>
+    <col min="51" max="54" width="4.33203125" style="29"/>
+    <col min="55" max="55" width="4.33203125" style="43"/>
+    <col min="56" max="16384" width="4.33203125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:103" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="62"/>
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
@@ -806,7 +821,7 @@
       <c r="CX1" s="64"/>
       <c r="CY1" s="64"/>
     </row>
-    <row r="2" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44"/>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
@@ -913,7 +928,7 @@
       <c r="CX2" s="28"/>
       <c r="CY2" s="28"/>
     </row>
-    <row r="3" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="44"/>
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
@@ -1020,7 +1035,7 @@
       <c r="CX3" s="28"/>
       <c r="CY3" s="28"/>
     </row>
-    <row r="4" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="44"/>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -1127,7 +1142,7 @@
       <c r="CX4" s="28"/>
       <c r="CY4" s="28"/>
     </row>
-    <row r="5" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="44"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
@@ -1234,7 +1249,7 @@
       <c r="CX5" s="28"/>
       <c r="CY5" s="28"/>
     </row>
-    <row r="6" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="44"/>
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
@@ -1341,7 +1356,7 @@
       <c r="CX6" s="28"/>
       <c r="CY6" s="28"/>
     </row>
-    <row r="7" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="44"/>
       <c r="B7" s="44"/>
       <c r="C7" s="44"/>
@@ -1448,7 +1463,7 @@
       <c r="CX7" s="28"/>
       <c r="CY7" s="28"/>
     </row>
-    <row r="8" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="44"/>
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
@@ -1555,7 +1570,7 @@
       <c r="CX8" s="28"/>
       <c r="CY8" s="28"/>
     </row>
-    <row r="9" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="44"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
@@ -1662,7 +1677,7 @@
       <c r="CX9" s="28"/>
       <c r="CY9" s="28"/>
     </row>
-    <row r="10" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="44"/>
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
@@ -1769,7 +1784,7 @@
       <c r="CX10" s="28"/>
       <c r="CY10" s="28"/>
     </row>
-    <row r="11" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="44"/>
       <c r="B11" s="44"/>
       <c r="C11" s="44"/>
@@ -1876,7 +1891,7 @@
       <c r="CX11" s="28"/>
       <c r="CY11" s="28"/>
     </row>
-    <row r="12" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="44"/>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
@@ -1983,7 +1998,7 @@
       <c r="CX12" s="28"/>
       <c r="CY12" s="28"/>
     </row>
-    <row r="13" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="44"/>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
@@ -2090,7 +2105,7 @@
       <c r="CX13" s="28"/>
       <c r="CY13" s="28"/>
     </row>
-    <row r="14" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="44"/>
       <c r="B14" s="44"/>
       <c r="C14" s="44"/>
@@ -2197,7 +2212,7 @@
       <c r="CX14" s="28"/>
       <c r="CY14" s="28"/>
     </row>
-    <row r="15" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="44"/>
       <c r="B15" s="44"/>
       <c r="C15" s="44"/>
@@ -2304,7 +2319,7 @@
       <c r="CX15" s="28"/>
       <c r="CY15" s="28"/>
     </row>
-    <row r="16" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="44"/>
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
@@ -2327,37 +2342,37 @@
       <c r="T16" s="46"/>
       <c r="U16" s="44"/>
       <c r="V16" s="44" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="W16" s="44" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="X16" s="44" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Y16" s="44" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Z16" s="44" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AA16" s="44" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AB16" s="44" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AC16" s="44" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AD16" s="44" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AE16" s="44" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AF16" s="44" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="AG16" s="44"/>
       <c r="AH16" s="44"/>
@@ -2433,7 +2448,7 @@
       <c r="CX16" s="28"/>
       <c r="CY16" s="28"/>
     </row>
-    <row r="17" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="44"/>
       <c r="B17" s="44"/>
       <c r="C17" s="44"/>
@@ -2456,37 +2471,37 @@
       <c r="T17" s="46"/>
       <c r="U17" s="44"/>
       <c r="V17" s="44" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="W17" s="44" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="X17" s="44" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Y17" s="44" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Z17" s="44" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AA17" s="44" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AB17" s="44" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AC17" s="44" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AD17" s="44" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AE17" s="44" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AF17" s="44" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AG17" s="44"/>
       <c r="AH17" s="44"/>
@@ -2562,7 +2577,7 @@
       <c r="CX17" s="28"/>
       <c r="CY17" s="28"/>
     </row>
-    <row r="18" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="44"/>
       <c r="B18" s="44"/>
       <c r="C18" s="44"/>
@@ -2585,37 +2600,37 @@
       <c r="T18" s="46"/>
       <c r="U18" s="44"/>
       <c r="V18" s="44" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="W18" s="44" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="X18" s="44" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Y18" s="44" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Z18" s="44" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AA18" s="44" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AB18" s="44" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AC18" s="44" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AD18" s="44" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AE18" s="44" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AF18" s="44" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AG18" s="44"/>
       <c r="AH18" s="52"/>
@@ -2691,7 +2706,7 @@
       <c r="CX18" s="28"/>
       <c r="CY18" s="28"/>
     </row>
-    <row r="19" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="44"/>
       <c r="B19" s="44"/>
       <c r="C19" s="44"/>
@@ -2714,40 +2729,40 @@
       <c r="T19" s="46"/>
       <c r="U19" s="44"/>
       <c r="V19" s="44" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="W19" s="44" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="X19" s="44" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Y19" s="44" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Z19" s="44" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AA19" s="44" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AB19" s="44" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AC19" s="44" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AD19" s="44" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AE19" s="44" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AF19" s="44" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AG19" s="44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH19" s="44"/>
       <c r="AI19" s="44"/>
@@ -2826,7 +2841,7 @@
       <c r="CX19" s="28"/>
       <c r="CY19" s="28"/>
     </row>
-    <row r="20" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="44" t="s">
         <v>0</v>
       </c>
@@ -3041,7 +3056,7 @@
       <c r="CX20" s="28"/>
       <c r="CY20" s="28"/>
     </row>
-    <row r="21" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="44"/>
       <c r="B21" s="44"/>
       <c r="C21" s="44"/>
@@ -3148,7 +3163,7 @@
       <c r="CX21" s="28"/>
       <c r="CY21" s="28"/>
     </row>
-    <row r="22" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="44"/>
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
@@ -3255,7 +3270,7 @@
       <c r="CX22" s="28"/>
       <c r="CY22" s="28"/>
     </row>
-    <row r="23" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="44"/>
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
@@ -3362,7 +3377,7 @@
       <c r="CX23" s="28"/>
       <c r="CY23" s="28"/>
     </row>
-    <row r="24" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="44"/>
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
@@ -3469,7 +3484,7 @@
       <c r="CX24" s="28"/>
       <c r="CY24" s="28"/>
     </row>
-    <row r="25" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="44"/>
       <c r="B25" s="44"/>
       <c r="C25" s="44"/>
@@ -3576,7 +3591,7 @@
       <c r="CX25" s="28"/>
       <c r="CY25" s="28"/>
     </row>
-    <row r="26" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="44"/>
       <c r="B26" s="44"/>
       <c r="C26" s="44"/>
@@ -3683,7 +3698,7 @@
       <c r="CX26" s="28"/>
       <c r="CY26" s="28"/>
     </row>
-    <row r="27" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="44"/>
       <c r="B27" s="44"/>
       <c r="C27" s="44"/>
@@ -3790,7 +3805,7 @@
       <c r="CX27" s="28"/>
       <c r="CY27" s="28"/>
     </row>
-    <row r="28" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="44"/>
       <c r="B28" s="44"/>
       <c r="C28" s="44"/>
@@ -3897,7 +3912,7 @@
       <c r="CX28" s="28"/>
       <c r="CY28" s="28"/>
     </row>
-    <row r="29" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="44"/>
       <c r="B29" s="44"/>
       <c r="C29" s="44"/>
@@ -4004,7 +4019,7 @@
       <c r="CX29" s="28"/>
       <c r="CY29" s="28"/>
     </row>
-    <row r="30" spans="1:103" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:103" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="54"/>
       <c r="B30" s="54"/>
       <c r="C30" s="54"/>
@@ -4111,7 +4126,7 @@
       <c r="CX30" s="28"/>
       <c r="CY30" s="28"/>
     </row>
-    <row r="31" spans="1:103" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:103" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="BC31" s="51">
         <v>29</v>
       </c>
@@ -4164,7 +4179,7 @@
       <c r="CX31" s="67"/>
       <c r="CY31" s="67"/>
     </row>
-    <row r="32" spans="1:103" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:103" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="53">
         <v>0</v>
       </c>
@@ -4377,7 +4392,7 @@
       <c r="CX32" s="28"/>
       <c r="CY32" s="28"/>
     </row>
-    <row r="33" spans="1:103" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:103" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="28"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -4482,7 +4497,7 @@
       <c r="CX33" s="28"/>
       <c r="CY33" s="28"/>
     </row>
-    <row r="34" spans="1:103" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:103" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J34" s="30"/>
       <c r="T34" s="31"/>
       <c r="AD34" s="32"/>
@@ -4490,7 +4505,7 @@
       <c r="AX34" s="34"/>
       <c r="BC34" s="35"/>
     </row>
-    <row r="35" spans="1:103" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:103" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="28"/>
       <c r="B35" s="28"/>
       <c r="C35" s="28"/>
@@ -4595,7 +4610,7 @@
       <c r="CX35" s="28"/>
       <c r="CY35" s="28"/>
     </row>
-    <row r="36" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="28"/>
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
@@ -4700,7 +4715,7 @@
       <c r="CX36" s="28"/>
       <c r="CY36" s="28"/>
     </row>
-    <row r="37" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="28"/>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
@@ -4805,7 +4820,7 @@
       <c r="CX37" s="28"/>
       <c r="CY37" s="28"/>
     </row>
-    <row r="38" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="28"/>
       <c r="B38" s="28"/>
       <c r="C38" s="28"/>
@@ -4910,7 +4925,7 @@
       <c r="CX38" s="28"/>
       <c r="CY38" s="28"/>
     </row>
-    <row r="39" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="28"/>
       <c r="B39" s="28"/>
       <c r="C39" s="28"/>
@@ -5015,7 +5030,7 @@
       <c r="CX39" s="28"/>
       <c r="CY39" s="28"/>
     </row>
-    <row r="40" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="28"/>
       <c r="B40" s="28"/>
       <c r="C40" s="28"/>
@@ -5120,7 +5135,7 @@
       <c r="CX40" s="28"/>
       <c r="CY40" s="28"/>
     </row>
-    <row r="41" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="28"/>
       <c r="B41" s="28"/>
       <c r="C41" s="28"/>
@@ -5225,7 +5240,7 @@
       <c r="CX41" s="28"/>
       <c r="CY41" s="28"/>
     </row>
-    <row r="42" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="28"/>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
@@ -5330,7 +5345,7 @@
       <c r="CX42" s="28"/>
       <c r="CY42" s="28"/>
     </row>
-    <row r="43" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="28"/>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
@@ -5435,7 +5450,7 @@
       <c r="CX43" s="28"/>
       <c r="CY43" s="28"/>
     </row>
-    <row r="44" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
@@ -5540,7 +5555,7 @@
       <c r="CX44" s="28"/>
       <c r="CY44" s="28"/>
     </row>
-    <row r="45" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
@@ -5645,7 +5660,7 @@
       <c r="CX45" s="28"/>
       <c r="CY45" s="28"/>
     </row>
-    <row r="46" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="28"/>
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
@@ -5750,7 +5765,7 @@
       <c r="CX46" s="28"/>
       <c r="CY46" s="28"/>
     </row>
-    <row r="47" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="BC47" s="41"/>
       <c r="BD47" s="42"/>
       <c r="BE47" s="42"/>
@@ -5811,21 +5826,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32EA023-0038-482A-B633-0391C0CB8525}">
   <dimension ref="A1:BL35"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="4.42578125" style="6"/>
-    <col min="20" max="20" width="4.42578125" style="8"/>
-    <col min="30" max="30" width="4.42578125" style="10"/>
-    <col min="40" max="40" width="4.42578125" style="12"/>
-    <col min="50" max="50" width="4.42578125" style="14"/>
+    <col min="10" max="10" width="4.44140625" style="6"/>
+    <col min="20" max="20" width="4.44140625" style="8"/>
+    <col min="30" max="30" width="4.44140625" style="10"/>
+    <col min="40" max="40" width="4.44140625" style="12"/>
+    <col min="50" max="50" width="4.44140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="68" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64" s="68" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -5891,7 +5906,7 @@
       <c r="BK2" s="3"/>
       <c r="BL2" s="3"/>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -5957,7 +5972,7 @@
       <c r="BK3" s="3"/>
       <c r="BL3" s="3"/>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -6023,7 +6038,7 @@
       <c r="BK4" s="3"/>
       <c r="BL4" s="3"/>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -6089,7 +6104,7 @@
       <c r="BK5" s="3"/>
       <c r="BL5" s="3"/>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -6155,7 +6170,7 @@
       <c r="BK6" s="3"/>
       <c r="BL6" s="3"/>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -6221,7 +6236,7 @@
       <c r="BK7" s="3"/>
       <c r="BL7" s="3"/>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -6287,7 +6302,7 @@
       <c r="BK8" s="3"/>
       <c r="BL8" s="3"/>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -6357,7 +6372,7 @@
       <c r="BK9" s="3"/>
       <c r="BL9" s="3"/>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -6427,7 +6442,7 @@
       <c r="BK10" s="3"/>
       <c r="BL10" s="3"/>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -6496,7 +6511,7 @@
       <c r="BK11" s="3"/>
       <c r="BL11" s="3"/>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -6566,7 +6581,7 @@
       <c r="BK12" s="3"/>
       <c r="BL12" s="3"/>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -6636,7 +6651,7 @@
       <c r="BK13" s="3"/>
       <c r="BL13" s="3"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -6736,7 +6751,7 @@
       <c r="BK14" s="3"/>
       <c r="BL14" s="3"/>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -6802,7 +6817,7 @@
       <c r="BK15" s="3"/>
       <c r="BL15" s="3"/>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -6842,7 +6857,7 @@
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
@@ -6876,16 +6891,14 @@
       <c r="BK16" s="3"/>
       <c r="BL16" s="3"/>
     </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
         <v>5</v>
       </c>
@@ -6929,7 +6942,7 @@
       <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
       <c r="AJ17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK17" s="1"/>
       <c r="AL17" s="27"/>
@@ -6946,7 +6959,7 @@
       <c r="AW17" s="1"/>
       <c r="AX17" s="13"/>
       <c r="AY17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ17" s="1" t="s">
         <v>0</v>
@@ -6968,7 +6981,7 @@
       <c r="BK17" s="3"/>
       <c r="BL17" s="3"/>
     </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -7018,7 +7031,7 @@
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL18" s="27"/>
       <c r="AM18" s="1"/>
@@ -7033,7 +7046,7 @@
       <c r="AV18" s="1"/>
       <c r="AW18" s="1"/>
       <c r="AX18" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY18" s="1"/>
       <c r="AZ18" s="1"/>
@@ -7050,7 +7063,7 @@
       <c r="BK18" s="3"/>
       <c r="BL18" s="3"/>
     </row>
-    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -7102,7 +7115,7 @@
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1"/>
       <c r="AL19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM19" s="1"/>
       <c r="AN19" s="11"/>
@@ -7115,7 +7128,7 @@
       <c r="AU19" s="1"/>
       <c r="AV19" s="1"/>
       <c r="AW19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX19" s="13"/>
       <c r="AY19" s="1"/>
@@ -7133,7 +7146,7 @@
       <c r="BK19" s="3"/>
       <c r="BL19" s="3"/>
     </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -7183,20 +7196,20 @@
       <c r="AK20" s="1"/>
       <c r="AL20" s="1"/>
       <c r="AM20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN20" s="11"/>
       <c r="AO20" s="1"/>
       <c r="AP20" s="1"/>
       <c r="AQ20" s="1"/>
       <c r="AR20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS20" s="1"/>
       <c r="AT20" s="1"/>
       <c r="AU20" s="1"/>
       <c r="AV20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC20" s="3"/>
       <c r="BD20" s="3"/>
@@ -7209,7 +7222,7 @@
       <c r="BK20" s="3"/>
       <c r="BL20" s="3"/>
     </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -7264,28 +7277,28 @@
       <c r="AL21" s="1"/>
       <c r="AM21" s="1"/>
       <c r="AN21" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AO21" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="AP21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV21" s="1"/>
       <c r="AW21" s="1"/>
@@ -7305,7 +7318,7 @@
       <c r="BK21" s="3"/>
       <c r="BL21" s="3"/>
     </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -7377,7 +7390,7 @@
       <c r="BK22" s="3"/>
       <c r="BL22" s="3"/>
     </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -7447,7 +7460,7 @@
       <c r="BK23" s="3"/>
       <c r="BL23" s="3"/>
     </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -7517,7 +7530,7 @@
       <c r="BK24" s="3"/>
       <c r="BL24" s="3"/>
     </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -7587,7 +7600,7 @@
       <c r="BK25" s="3"/>
       <c r="BL25" s="3"/>
     </row>
-    <row r="26" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -7606,7 +7619,7 @@
         <v>3</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>8</v>
@@ -7659,7 +7672,7 @@
       <c r="BK26" s="3"/>
       <c r="BL26" s="3"/>
     </row>
-    <row r="27" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -7737,7 +7750,7 @@
       <c r="BK27" s="3"/>
       <c r="BL27" s="3"/>
     </row>
-    <row r="28" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -7802,7 +7815,7 @@
       <c r="BK28" s="3"/>
       <c r="BL28" s="3"/>
     </row>
-    <row r="29" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -7868,7 +7881,7 @@
       <c r="BK29" s="3"/>
       <c r="BL29" s="3"/>
     </row>
-    <row r="30" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -7934,7 +7947,7 @@
       <c r="BK30" s="3"/>
       <c r="BL30" s="3"/>
     </row>
-    <row r="31" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -8000,7 +8013,7 @@
       <c r="BK31" s="3"/>
       <c r="BL31" s="3"/>
     </row>
-    <row r="32" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -8066,7 +8079,7 @@
       <c r="BK32" s="3"/>
       <c r="BL32" s="3"/>
     </row>
-    <row r="33" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -8132,7 +8145,7 @@
       <c r="BK33" s="3"/>
       <c r="BL33" s="3"/>
     </row>
-    <row r="34" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -8198,7 +8211,7 @@
       <c r="BK34" s="3"/>
       <c r="BL34" s="3"/>
     </row>
-    <row r="35" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -8274,20 +8287,20 @@
   <dimension ref="A1:BL35"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AO6" sqref="AO6"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="4.42578125" style="6"/>
-    <col min="20" max="20" width="4.42578125" style="8"/>
-    <col min="30" max="30" width="4.42578125" style="10"/>
-    <col min="40" max="40" width="4.42578125" style="12"/>
-    <col min="50" max="50" width="4.42578125" style="14"/>
+    <col min="10" max="10" width="4.44140625" style="6"/>
+    <col min="20" max="20" width="4.44140625" style="8"/>
+    <col min="30" max="30" width="4.44140625" style="10"/>
+    <col min="40" max="40" width="4.44140625" style="12"/>
+    <col min="50" max="50" width="4.44140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="68" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64" s="68" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -8353,7 +8366,7 @@
       <c r="BK2" s="3"/>
       <c r="BL2" s="3"/>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -8419,7 +8432,7 @@
       <c r="BK3" s="3"/>
       <c r="BL3" s="3"/>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -8485,7 +8498,7 @@
       <c r="BK4" s="3"/>
       <c r="BL4" s="3"/>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -8553,7 +8566,7 @@
       <c r="BK5" s="3"/>
       <c r="BL5" s="3"/>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -8603,7 +8616,7 @@
       <c r="AM6" s="1"/>
       <c r="AN6" s="11"/>
       <c r="AO6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP6" s="1"/>
       <c r="AQ6" s="1"/>
@@ -8629,7 +8642,7 @@
       <c r="BK6" s="3"/>
       <c r="BL6" s="3"/>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -8725,7 +8738,7 @@
       <c r="BK7" s="3"/>
       <c r="BL7" s="3"/>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -8807,7 +8820,7 @@
       <c r="BK8" s="3"/>
       <c r="BL8" s="3"/>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
@@ -8889,7 +8902,7 @@
       <c r="BK9" s="3"/>
       <c r="BL9" s="3"/>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -8973,7 +8986,7 @@
       <c r="BK10" s="3"/>
       <c r="BL10" s="3"/>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.3">
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="5"/>
@@ -9030,7 +9043,7 @@
         <v>2</v>
       </c>
       <c r="AY11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ11" s="1"/>
       <c r="BA11" s="1"/>
@@ -9046,7 +9059,7 @@
       <c r="BK11" s="3"/>
       <c r="BL11" s="3"/>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -9124,7 +9137,7 @@
       <c r="BK12" s="3"/>
       <c r="BL12" s="3"/>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -9132,7 +9145,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>0</v>
@@ -9220,16 +9233,14 @@
       <c r="BK13" s="3"/>
       <c r="BL13" s="3"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -9308,13 +9319,13 @@
       <c r="BK14" s="3"/>
       <c r="BL14" s="3"/>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -9388,14 +9399,14 @@
       <c r="BK15" s="3"/>
       <c r="BL15" s="3"/>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -9472,15 +9483,15 @@
       <c r="BK16" s="3"/>
       <c r="BL16" s="3"/>
     </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -9560,7 +9571,7 @@
       <c r="BK17" s="3"/>
       <c r="BL17" s="3"/>
     </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -9644,7 +9655,7 @@
       <c r="BK18" s="3"/>
       <c r="BL18" s="3"/>
     </row>
-    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -9724,7 +9735,7 @@
       <c r="BK19" s="3"/>
       <c r="BL19" s="3"/>
     </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -9807,7 +9818,7 @@
       <c r="BK20" s="3"/>
       <c r="BL20" s="3"/>
     </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -9875,7 +9886,7 @@
       <c r="BK21" s="3"/>
       <c r="BL21" s="3"/>
     </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -9949,7 +9960,7 @@
       <c r="BK22" s="3"/>
       <c r="BL22" s="3"/>
     </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -10023,7 +10034,7 @@
       <c r="BK23" s="3"/>
       <c r="BL23" s="3"/>
     </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -10044,13 +10055,13 @@
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
@@ -10099,7 +10110,7 @@
       <c r="BK24" s="3"/>
       <c r="BL24" s="3"/>
     </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -10123,7 +10134,7 @@
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
@@ -10171,7 +10182,7 @@
       <c r="BK25" s="3"/>
       <c r="BL25" s="3"/>
     </row>
-    <row r="26" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -10196,14 +10207,14 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
@@ -10244,7 +10255,7 @@
       <c r="BK26" s="3"/>
       <c r="BL26" s="3"/>
     </row>
-    <row r="27" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -10270,34 +10281,34 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA27" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC27" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AD27" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE27" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF27" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG27" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH27" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI27" s="1" t="s">
         <v>6</v>
@@ -10332,7 +10343,7 @@
       <c r="BK27" s="3"/>
       <c r="BL27" s="3"/>
     </row>
-    <row r="28" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -10397,7 +10408,7 @@
       <c r="BK28" s="3"/>
       <c r="BL28" s="3"/>
     </row>
-    <row r="29" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -10463,7 +10474,7 @@
       <c r="BK29" s="3"/>
       <c r="BL29" s="3"/>
     </row>
-    <row r="30" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -10529,7 +10540,7 @@
       <c r="BK30" s="3"/>
       <c r="BL30" s="3"/>
     </row>
-    <row r="31" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -10595,7 +10606,7 @@
       <c r="BK31" s="3"/>
       <c r="BL31" s="3"/>
     </row>
-    <row r="32" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -10661,7 +10672,7 @@
       <c r="BK32" s="3"/>
       <c r="BL32" s="3"/>
     </row>
-    <row r="33" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -10727,7 +10738,7 @@
       <c r="BK33" s="3"/>
       <c r="BL33" s="3"/>
     </row>
-    <row r="34" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -10793,7 +10804,7 @@
       <c r="BK34" s="3"/>
       <c r="BL34" s="3"/>
     </row>
-    <row r="35" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -10872,17 +10883,17 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="4.42578125" style="6"/>
-    <col min="20" max="20" width="4.42578125" style="8"/>
-    <col min="30" max="30" width="4.42578125" style="10"/>
-    <col min="40" max="40" width="4.42578125" style="12"/>
-    <col min="50" max="50" width="4.42578125" style="14"/>
+    <col min="10" max="10" width="4.44140625" style="6"/>
+    <col min="20" max="20" width="4.44140625" style="8"/>
+    <col min="30" max="30" width="4.44140625" style="10"/>
+    <col min="40" max="40" width="4.44140625" style="12"/>
+    <col min="50" max="50" width="4.44140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="68" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64" s="68" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -10948,7 +10959,7 @@
       <c r="BK2" s="3"/>
       <c r="BL2" s="3"/>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -11014,7 +11025,7 @@
       <c r="BK3" s="3"/>
       <c r="BL3" s="3"/>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -11080,7 +11091,7 @@
       <c r="BK4" s="3"/>
       <c r="BL4" s="3"/>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -11146,7 +11157,7 @@
       <c r="BK5" s="3"/>
       <c r="BL5" s="3"/>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -11212,7 +11223,7 @@
       <c r="BK6" s="3"/>
       <c r="BL6" s="3"/>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -11278,7 +11289,7 @@
       <c r="BK7" s="3"/>
       <c r="BL7" s="3"/>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -11344,7 +11355,7 @@
       <c r="BK8" s="3"/>
       <c r="BL8" s="3"/>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -11410,7 +11421,7 @@
       <c r="BK9" s="3"/>
       <c r="BL9" s="3"/>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -11476,7 +11487,7 @@
       <c r="BK10" s="3"/>
       <c r="BL10" s="3"/>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -11542,7 +11553,7 @@
       <c r="BK11" s="3"/>
       <c r="BL11" s="3"/>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -11608,7 +11619,7 @@
       <c r="BK12" s="3"/>
       <c r="BL12" s="3"/>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -11676,7 +11687,7 @@
       <c r="BK13" s="3"/>
       <c r="BL13" s="3"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -11770,7 +11781,7 @@
       <c r="BK14" s="3"/>
       <c r="BL14" s="3"/>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>1</v>
@@ -11778,9 +11789,7 @@
       <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -11850,7 +11859,7 @@
       <c r="BK15" s="3"/>
       <c r="BL15" s="3"/>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>1</v>
@@ -11927,7 +11936,7 @@
       <c r="BK16" s="3"/>
       <c r="BL16" s="3"/>
     </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -11988,7 +11997,7 @@
         <v>2</v>
       </c>
       <c r="AR17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS17" s="1"/>
       <c r="AT17" s="1"/>
@@ -12011,7 +12020,7 @@
       <c r="BK17" s="3"/>
       <c r="BL17" s="3"/>
     </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -12025,7 +12034,7 @@
         <v>2</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="1"/>
@@ -12091,7 +12100,7 @@
       <c r="BK18" s="3"/>
       <c r="BL18" s="3"/>
     </row>
-    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -12187,7 +12196,7 @@
       <c r="BK19" s="3"/>
       <c r="BL19" s="3"/>
     </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -12247,7 +12256,7 @@
         <v>2</v>
       </c>
       <c r="AW20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB20" t="s">
         <v>10</v>
@@ -12263,7 +12272,7 @@
       <c r="BK20" s="3"/>
       <c r="BL20" s="3"/>
     </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -12355,7 +12364,7 @@
       <c r="BK21" s="3"/>
       <c r="BL21" s="3"/>
     </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -12429,7 +12438,7 @@
       <c r="BK22" s="3"/>
       <c r="BL22" s="3"/>
     </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -12503,7 +12512,7 @@
       <c r="BK23" s="3"/>
       <c r="BL23" s="3"/>
     </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -12577,7 +12586,7 @@
       <c r="BK24" s="3"/>
       <c r="BL24" s="3"/>
     </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -12661,7 +12670,7 @@
       <c r="BK25" s="3"/>
       <c r="BL25" s="3"/>
     </row>
-    <row r="26" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -12727,7 +12736,7 @@
       <c r="BK26" s="3"/>
       <c r="BL26" s="3"/>
     </row>
-    <row r="27" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -12793,7 +12802,7 @@
       <c r="BK27" s="3"/>
       <c r="BL27" s="3"/>
     </row>
-    <row r="28" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -12858,7 +12867,7 @@
       <c r="BK28" s="3"/>
       <c r="BL28" s="3"/>
     </row>
-    <row r="29" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -12924,7 +12933,7 @@
       <c r="BK29" s="3"/>
       <c r="BL29" s="3"/>
     </row>
-    <row r="30" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -12990,7 +12999,7 @@
       <c r="BK30" s="3"/>
       <c r="BL30" s="3"/>
     </row>
-    <row r="31" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -13056,7 +13065,7 @@
       <c r="BK31" s="3"/>
       <c r="BL31" s="3"/>
     </row>
-    <row r="32" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -13122,7 +13131,7 @@
       <c r="BK32" s="3"/>
       <c r="BL32" s="3"/>
     </row>
-    <row r="33" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -13188,7 +13197,7 @@
       <c r="BK33" s="3"/>
       <c r="BL33" s="3"/>
     </row>
-    <row r="34" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -13254,7 +13263,7 @@
       <c r="BK34" s="3"/>
       <c r="BL34" s="3"/>
     </row>
-    <row r="35" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -13320,12 +13329,12 @@
       <c r="BK35" s="3"/>
       <c r="BL35" s="3"/>
     </row>
-    <row r="37" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:64" x14ac:dyDescent="0.3">
       <c r="AT37" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:64" x14ac:dyDescent="0.3">
       <c r="AU40" t="s">
         <v>7</v>
       </c>
@@ -13341,27 +13350,27 @@
   <dimension ref="A1:CY47"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Q27" sqref="P27:Q27"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="9" width="4.28515625" style="29"/>
-    <col min="10" max="10" width="4.28515625" style="36"/>
-    <col min="11" max="19" width="4.28515625" style="29"/>
-    <col min="20" max="20" width="4.28515625" style="37"/>
-    <col min="21" max="29" width="4.28515625" style="29"/>
-    <col min="30" max="30" width="4.28515625" style="38"/>
-    <col min="31" max="39" width="4.28515625" style="29"/>
-    <col min="40" max="40" width="4.28515625" style="39"/>
-    <col min="41" max="49" width="4.28515625" style="29"/>
-    <col min="50" max="50" width="4.28515625" style="40"/>
-    <col min="51" max="54" width="4.28515625" style="29"/>
-    <col min="55" max="55" width="4.28515625" style="43"/>
-    <col min="56" max="16384" width="4.28515625" style="29"/>
+    <col min="1" max="9" width="4.33203125" style="29"/>
+    <col min="10" max="10" width="4.33203125" style="36"/>
+    <col min="11" max="19" width="4.33203125" style="29"/>
+    <col min="20" max="20" width="4.33203125" style="37"/>
+    <col min="21" max="29" width="4.33203125" style="29"/>
+    <col min="30" max="30" width="4.33203125" style="38"/>
+    <col min="31" max="39" width="4.33203125" style="29"/>
+    <col min="40" max="40" width="4.33203125" style="39"/>
+    <col min="41" max="49" width="4.33203125" style="29"/>
+    <col min="50" max="50" width="4.33203125" style="40"/>
+    <col min="51" max="54" width="4.33203125" style="29"/>
+    <col min="55" max="55" width="4.33203125" style="43"/>
+    <col min="56" max="16384" width="4.33203125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:103" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="62"/>
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
@@ -13465,7 +13474,7 @@
       <c r="CX1" s="64"/>
       <c r="CY1" s="64"/>
     </row>
-    <row r="2" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44"/>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
@@ -13572,7 +13581,7 @@
       <c r="CX2" s="28"/>
       <c r="CY2" s="28"/>
     </row>
-    <row r="3" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="44"/>
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
@@ -13679,7 +13688,7 @@
       <c r="CX3" s="28"/>
       <c r="CY3" s="28"/>
     </row>
-    <row r="4" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="44"/>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -13786,7 +13795,7 @@
       <c r="CX4" s="28"/>
       <c r="CY4" s="28"/>
     </row>
-    <row r="5" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="44"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
@@ -13893,7 +13902,7 @@
       <c r="CX5" s="28"/>
       <c r="CY5" s="28"/>
     </row>
-    <row r="6" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="44"/>
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
@@ -14000,7 +14009,7 @@
       <c r="CX6" s="28"/>
       <c r="CY6" s="28"/>
     </row>
-    <row r="7" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="44"/>
       <c r="B7" s="44"/>
       <c r="C7" s="44"/>
@@ -14107,7 +14116,7 @@
       <c r="CX7" s="28"/>
       <c r="CY7" s="28"/>
     </row>
-    <row r="8" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="44"/>
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
@@ -14214,7 +14223,7 @@
       <c r="CX8" s="28"/>
       <c r="CY8" s="28"/>
     </row>
-    <row r="9" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="44"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
@@ -14321,7 +14330,7 @@
       <c r="CX9" s="28"/>
       <c r="CY9" s="28"/>
     </row>
-    <row r="10" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="44"/>
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
@@ -14428,7 +14437,7 @@
       <c r="CX10" s="28"/>
       <c r="CY10" s="28"/>
     </row>
-    <row r="11" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="44"/>
       <c r="B11" s="44"/>
       <c r="C11" s="44"/>
@@ -14535,7 +14544,7 @@
       <c r="CX11" s="28"/>
       <c r="CY11" s="28"/>
     </row>
-    <row r="12" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="44"/>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
@@ -14642,7 +14651,7 @@
       <c r="CX12" s="28"/>
       <c r="CY12" s="28"/>
     </row>
-    <row r="13" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="44"/>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
@@ -14749,7 +14758,7 @@
       <c r="CX13" s="28"/>
       <c r="CY13" s="28"/>
     </row>
-    <row r="14" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="44"/>
       <c r="B14" s="44"/>
       <c r="C14" s="44"/>
@@ -14856,7 +14865,7 @@
       <c r="CX14" s="28"/>
       <c r="CY14" s="28"/>
     </row>
-    <row r="15" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="44"/>
       <c r="B15" s="44"/>
       <c r="C15" s="44"/>
@@ -14977,7 +14986,7 @@
       <c r="CX15" s="28"/>
       <c r="CY15" s="28"/>
     </row>
-    <row r="16" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="44"/>
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
@@ -15092,7 +15101,7 @@
       <c r="CX16" s="28"/>
       <c r="CY16" s="28"/>
     </row>
-    <row r="17" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="44"/>
       <c r="B17" s="44"/>
       <c r="C17" s="44"/>
@@ -15124,7 +15133,7 @@
       <c r="U17" s="44"/>
       <c r="V17" s="44"/>
       <c r="W17" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X17" s="44"/>
       <c r="Y17" s="44"/>
@@ -15211,7 +15220,7 @@
       <c r="CX17" s="28"/>
       <c r="CY17" s="28"/>
     </row>
-    <row r="18" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="44"/>
       <c r="B18" s="44"/>
       <c r="C18" s="44"/>
@@ -15333,7 +15342,7 @@
       <c r="CX18" s="28"/>
       <c r="CY18" s="28"/>
     </row>
-    <row r="19" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="44"/>
       <c r="B19" s="44"/>
       <c r="C19" s="44"/>
@@ -15474,15 +15483,13 @@
       <c r="CX19" s="28"/>
       <c r="CY19" s="28"/>
     </row>
-    <row r="20" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="44" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="44"/>
       <c r="C20" s="44"/>
-      <c r="D20" s="44" t="s">
-        <v>10</v>
-      </c>
+      <c r="D20" s="44"/>
       <c r="E20" s="44" t="s">
         <v>5</v>
       </c>
@@ -15601,7 +15608,7 @@
       <c r="CX20" s="28"/>
       <c r="CY20" s="28"/>
     </row>
-    <row r="21" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="44" t="s">
         <v>0</v>
       </c>
@@ -15717,7 +15724,7 @@
       <c r="CX21" s="28"/>
       <c r="CY21" s="28"/>
     </row>
-    <row r="22" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="44"/>
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
@@ -15846,7 +15853,7 @@
       <c r="CX22" s="28"/>
       <c r="CY22" s="28"/>
     </row>
-    <row r="23" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="44"/>
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
@@ -15957,7 +15964,7 @@
       <c r="CX23" s="28"/>
       <c r="CY23" s="28"/>
     </row>
-    <row r="24" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="44"/>
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
@@ -15990,7 +15997,7 @@
       <c r="Z24" s="44"/>
       <c r="AB24" s="44"/>
       <c r="AC24" s="44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AD24" s="47"/>
       <c r="AE24" s="44"/>
@@ -16069,7 +16076,7 @@
       <c r="CX24" s="28"/>
       <c r="CY24" s="28"/>
     </row>
-    <row r="25" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="44"/>
       <c r="B25" s="44"/>
       <c r="C25" s="44"/>
@@ -16112,7 +16119,7 @@
         <v>0</v>
       </c>
       <c r="AD25" s="47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE25" s="44"/>
       <c r="AF25" s="44"/>
@@ -16130,11 +16137,11 @@
       <c r="AR25" s="44"/>
       <c r="AS25" s="44"/>
       <c r="AT25" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU25" s="44"/>
       <c r="AV25" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW25" s="44"/>
       <c r="AX25" s="44"/>
@@ -16196,7 +16203,7 @@
       <c r="CX25" s="28"/>
       <c r="CY25" s="28"/>
     </row>
-    <row r="26" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="44"/>
       <c r="B26" s="44"/>
       <c r="C26" s="44"/>
@@ -16228,7 +16235,7 @@
       <c r="AC26" s="44"/>
       <c r="AD26" s="47"/>
       <c r="AE26" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF26" s="44"/>
       <c r="AG26" s="44"/>
@@ -16244,34 +16251,34 @@
       <c r="AQ26" s="44"/>
       <c r="AR26" s="44"/>
       <c r="AS26" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT26" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU26" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV26" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW26" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX26" s="49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY26" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ26" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA26" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB26" s="50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC26" s="51">
         <v>24</v>
@@ -16325,7 +16332,7 @@
       <c r="CX26" s="28"/>
       <c r="CY26" s="28"/>
     </row>
-    <row r="27" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="44"/>
       <c r="B27" s="44"/>
       <c r="C27" s="44"/>
@@ -16358,7 +16365,7 @@
       <c r="AD27" s="47"/>
       <c r="AE27" s="44"/>
       <c r="AF27" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG27" s="44"/>
       <c r="AH27" s="44"/>
@@ -16372,7 +16379,7 @@
       <c r="AP27" s="44"/>
       <c r="AQ27" s="44"/>
       <c r="AR27" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS27" s="44"/>
       <c r="AT27" s="44"/>
@@ -16436,7 +16443,7 @@
       <c r="CX27" s="28"/>
       <c r="CY27" s="28"/>
     </row>
-    <row r="28" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="44"/>
       <c r="B28" s="44"/>
       <c r="C28" s="44"/>
@@ -16470,7 +16477,7 @@
       <c r="AE28" s="44"/>
       <c r="AF28" s="44"/>
       <c r="AG28" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH28" s="44"/>
       <c r="AI28" s="44"/>
@@ -16481,7 +16488,7 @@
       <c r="AO28" s="44"/>
       <c r="AP28" s="44"/>
       <c r="AQ28" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR28" s="44"/>
       <c r="AS28" s="44"/>
@@ -16546,7 +16553,7 @@
       <c r="CX28" s="28"/>
       <c r="CY28" s="28"/>
     </row>
-    <row r="29" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="44"/>
       <c r="B29" s="44"/>
       <c r="C29" s="44"/>
@@ -16581,31 +16588,31 @@
       <c r="AF29" s="44"/>
       <c r="AG29" s="44"/>
       <c r="AH29" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI29" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ29" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK29" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL29" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM29" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN29" s="48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO29" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP29" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ29" s="44"/>
       <c r="AR29" s="44"/>
@@ -16671,7 +16678,7 @@
       <c r="CX29" s="28"/>
       <c r="CY29" s="28"/>
     </row>
-    <row r="30" spans="1:103" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:103" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="54"/>
       <c r="B30" s="54"/>
       <c r="C30" s="54"/>
@@ -16778,7 +16785,7 @@
       <c r="CX30" s="28"/>
       <c r="CY30" s="28"/>
     </row>
-    <row r="31" spans="1:103" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:103" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="BC31" s="51">
         <v>29</v>
       </c>
@@ -16831,7 +16838,7 @@
       <c r="CX31" s="67"/>
       <c r="CY31" s="67"/>
     </row>
-    <row r="32" spans="1:103" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:103" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="53">
         <v>0</v>
       </c>
@@ -17044,7 +17051,7 @@
       <c r="CX32" s="28"/>
       <c r="CY32" s="28"/>
     </row>
-    <row r="33" spans="1:103" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:103" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="28"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -17149,7 +17156,7 @@
       <c r="CX33" s="28"/>
       <c r="CY33" s="28"/>
     </row>
-    <row r="34" spans="1:103" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:103" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J34" s="30"/>
       <c r="T34" s="31"/>
       <c r="AD34" s="32"/>
@@ -17157,7 +17164,7 @@
       <c r="AX34" s="34"/>
       <c r="BC34" s="35"/>
     </row>
-    <row r="35" spans="1:103" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:103" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="28"/>
       <c r="B35" s="28"/>
       <c r="C35" s="28"/>
@@ -17262,7 +17269,7 @@
       <c r="CX35" s="28"/>
       <c r="CY35" s="28"/>
     </row>
-    <row r="36" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="28"/>
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
@@ -17367,7 +17374,7 @@
       <c r="CX36" s="28"/>
       <c r="CY36" s="28"/>
     </row>
-    <row r="37" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="28"/>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
@@ -17472,7 +17479,7 @@
       <c r="CX37" s="28"/>
       <c r="CY37" s="28"/>
     </row>
-    <row r="38" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="28"/>
       <c r="B38" s="28"/>
       <c r="C38" s="28"/>
@@ -17577,7 +17584,7 @@
       <c r="CX38" s="28"/>
       <c r="CY38" s="28"/>
     </row>
-    <row r="39" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="28"/>
       <c r="B39" s="28"/>
       <c r="C39" s="28"/>
@@ -17682,7 +17689,7 @@
       <c r="CX39" s="28"/>
       <c r="CY39" s="28"/>
     </row>
-    <row r="40" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="28"/>
       <c r="B40" s="28"/>
       <c r="C40" s="28"/>
@@ -17787,7 +17794,7 @@
       <c r="CX40" s="28"/>
       <c r="CY40" s="28"/>
     </row>
-    <row r="41" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="28"/>
       <c r="B41" s="28"/>
       <c r="C41" s="28"/>
@@ -17892,7 +17899,7 @@
       <c r="CX41" s="28"/>
       <c r="CY41" s="28"/>
     </row>
-    <row r="42" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="28"/>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
@@ -17997,7 +18004,7 @@
       <c r="CX42" s="28"/>
       <c r="CY42" s="28"/>
     </row>
-    <row r="43" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="28"/>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
@@ -18102,7 +18109,7 @@
       <c r="CX43" s="28"/>
       <c r="CY43" s="28"/>
     </row>
-    <row r="44" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
@@ -18207,7 +18214,7 @@
       <c r="CX44" s="28"/>
       <c r="CY44" s="28"/>
     </row>
-    <row r="45" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
@@ -18312,7 +18319,7 @@
       <c r="CX45" s="28"/>
       <c r="CY45" s="28"/>
     </row>
-    <row r="46" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="28"/>
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
@@ -18417,7 +18424,7 @@
       <c r="CX46" s="28"/>
       <c r="CY46" s="28"/>
     </row>
-    <row r="47" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="BC47" s="41"/>
       <c r="BD47" s="42"/>
       <c r="BE47" s="42"/>
@@ -18478,12 +18485,12 @@
   <dimension ref="A1:BC32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AG17" sqref="AG17"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A1" s="62"/>
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
@@ -18540,7 +18547,7 @@
       <c r="BB1" s="63"/>
       <c r="BC1" s="65"/>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A2" s="44"/>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
@@ -18599,7 +18606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A3" s="44"/>
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
@@ -18658,7 +18665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A4" s="44"/>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -18717,7 +18724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A5" s="44"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
@@ -18776,7 +18783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A6" s="44"/>
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
@@ -18835,7 +18842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A7" s="44"/>
       <c r="B7" s="44"/>
       <c r="C7" s="44"/>
@@ -18866,7 +18873,7 @@
       <c r="AC7" s="44"/>
       <c r="AD7" s="47"/>
       <c r="AE7" s="44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF7" s="44"/>
       <c r="AG7" s="44"/>
@@ -18895,7 +18902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A8" s="44"/>
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
@@ -18976,7 +18983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A9" s="44"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
@@ -19057,7 +19064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A10" s="44"/>
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
@@ -19132,7 +19139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A11" s="44"/>
       <c r="B11" s="44"/>
       <c r="C11" s="44"/>
@@ -19207,7 +19214,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A12" s="44"/>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
@@ -19254,7 +19261,7 @@
       <c r="AJ12" s="44"/>
       <c r="AK12" s="44"/>
       <c r="AL12" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM12" s="44"/>
       <c r="AN12" s="48"/>
@@ -19284,7 +19291,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A13" s="44"/>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
@@ -19365,7 +19372,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A14" s="44"/>
       <c r="B14" s="44"/>
       <c r="C14" s="44"/>
@@ -19425,7 +19432,7 @@
         <v>8</v>
       </c>
       <c r="AY14" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ14" s="44"/>
       <c r="BA14" s="44"/>
@@ -19436,7 +19443,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A15" s="44"/>
       <c r="B15" s="44"/>
       <c r="C15" s="44"/>
@@ -19509,7 +19516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A16" s="44"/>
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
@@ -19572,7 +19579,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A17" s="44"/>
       <c r="B17" s="44"/>
       <c r="C17" s="44"/>
@@ -19635,7 +19642,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A18" s="44"/>
       <c r="B18" s="44"/>
       <c r="C18" s="44"/>
@@ -19654,7 +19661,7 @@
       <c r="P18" s="44"/>
       <c r="R18" s="44"/>
       <c r="S18" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T18" s="46"/>
       <c r="U18" s="44" t="s">
@@ -19699,7 +19706,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A19" s="44" t="s">
         <v>0</v>
       </c>
@@ -19734,22 +19741,22 @@
       <c r="N19" s="44"/>
       <c r="O19" s="44"/>
       <c r="P19" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q19" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R19" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S19" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T19" s="46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U19" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V19" s="44" t="s">
         <v>3</v>
@@ -19790,7 +19797,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A20" s="44"/>
       <c r="B20" s="44"/>
       <c r="C20" s="44"/>
@@ -19806,7 +19813,7 @@
       <c r="M20" s="44"/>
       <c r="N20" s="44"/>
       <c r="O20" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P20" s="44"/>
       <c r="Q20" s="44"/>
@@ -19851,7 +19858,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A21" s="44"/>
       <c r="B21" s="44"/>
       <c r="C21" s="44"/>
@@ -19866,7 +19873,7 @@
       <c r="L21" s="44"/>
       <c r="M21" s="44"/>
       <c r="N21" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O21" s="44"/>
       <c r="P21" s="44"/>
@@ -19912,7 +19919,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A22" s="44"/>
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
@@ -19926,7 +19933,7 @@
       <c r="K22" s="44"/>
       <c r="L22" s="44"/>
       <c r="M22" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N22" s="44"/>
       <c r="O22" s="44"/>
@@ -19973,7 +19980,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A23" s="44"/>
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
@@ -19986,7 +19993,7 @@
       <c r="J23" s="45"/>
       <c r="K23" s="44"/>
       <c r="L23" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M23" s="44"/>
       <c r="N23" s="44"/>
@@ -20034,7 +20041,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A24" s="44"/>
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
@@ -20046,7 +20053,7 @@
       <c r="I24" s="44"/>
       <c r="J24" s="45"/>
       <c r="K24" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L24" s="44"/>
       <c r="M24" s="44"/>
@@ -20095,22 +20102,20 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A25" s="44" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="44"/>
       <c r="C25" s="44"/>
       <c r="D25" s="44"/>
-      <c r="E25" s="44" t="s">
-        <v>10</v>
-      </c>
+      <c r="E25" s="44"/>
       <c r="F25" s="44"/>
       <c r="G25" s="44"/>
       <c r="H25" s="44"/>
       <c r="I25" s="44"/>
       <c r="J25" s="45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K25" s="44"/>
       <c r="L25" s="44"/>
@@ -20160,33 +20165,33 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A26" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D26" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26" s="49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F26" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G26" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H26" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I26" s="50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J26" s="45"/>
       <c r="K26" s="44"/>
@@ -20237,7 +20242,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A27" s="44"/>
       <c r="B27" s="44"/>
       <c r="C27" s="44"/>
@@ -20296,7 +20301,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A28" s="44"/>
       <c r="B28" s="44"/>
       <c r="C28" s="44"/>
@@ -20355,7 +20360,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A29" s="44"/>
       <c r="B29" s="44"/>
       <c r="C29" s="44"/>
@@ -20414,7 +20419,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A30" s="54"/>
       <c r="B30" s="54"/>
       <c r="C30" s="54"/>
@@ -20473,7 +20478,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="66"/>
       <c r="B31" s="66"/>
       <c r="C31" s="66"/>
@@ -20532,7 +20537,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A32" s="53">
         <v>0</v>
       </c>
@@ -20710,9 +20715,9 @@
       <selection activeCell="AU15" sqref="AU15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A1" s="62"/>
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
@@ -20769,7 +20774,7 @@
       <c r="BB1" s="63"/>
       <c r="BC1" s="65"/>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A2" s="44"/>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
@@ -20828,7 +20833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A3" s="44"/>
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
@@ -20887,7 +20892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A4" s="44"/>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -20946,7 +20951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A5" s="44"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
@@ -21005,7 +21010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A6" s="44"/>
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
@@ -21064,7 +21069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A7" s="44"/>
       <c r="B7" s="44"/>
       <c r="C7" s="44"/>
@@ -21123,7 +21128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A8" s="44"/>
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
@@ -21162,7 +21167,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A9" s="44"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
@@ -21201,7 +21206,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A10" s="44"/>
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
@@ -21260,7 +21265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A11" s="44"/>
       <c r="B11" s="44"/>
       <c r="C11" s="44"/>
@@ -21319,7 +21324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A12" s="44"/>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
@@ -21370,7 +21375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A13" s="44"/>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
@@ -21437,7 +21442,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A14" s="44" t="s">
         <v>9</v>
       </c>
@@ -21506,7 +21511,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A15" s="44" t="s">
         <v>0</v>
       </c>
@@ -21582,7 +21587,7 @@
       <c r="AS15" s="44"/>
       <c r="AT15" s="44"/>
       <c r="AU15" s="44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV15" s="44"/>
       <c r="AW15" s="44"/>
@@ -21590,13 +21595,13 @@
       <c r="AZ15" s="44"/>
       <c r="BA15" s="44"/>
       <c r="BB15" s="50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC15" s="51">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A16" s="44"/>
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
@@ -21679,7 +21684,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A17" s="44"/>
       <c r="B17" s="44"/>
       <c r="C17" s="44"/>
@@ -21750,7 +21755,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A18" s="44"/>
       <c r="B18" s="44"/>
       <c r="C18" s="44"/>
@@ -21821,7 +21826,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A19" s="44"/>
       <c r="B19" s="44"/>
       <c r="C19" s="44"/>
@@ -21892,7 +21897,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A20" s="44"/>
       <c r="B20" s="44"/>
       <c r="C20" s="44"/>
@@ -21973,7 +21978,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A21" s="44"/>
       <c r="B21" s="44"/>
       <c r="C21" s="44"/>
@@ -22046,7 +22051,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A22" s="44"/>
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
@@ -22073,7 +22078,7 @@
       <c r="X22" s="44"/>
       <c r="Y22" s="44"/>
       <c r="Z22" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA22" s="44"/>
       <c r="AB22" s="44"/>
@@ -22111,7 +22116,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A23" s="44"/>
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
@@ -22139,7 +22144,7 @@
       <c r="Y23" s="44"/>
       <c r="Z23" s="44"/>
       <c r="AA23" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB23" s="44"/>
       <c r="AC23" s="44"/>
@@ -22155,19 +22160,19 @@
       <c r="AM23" s="44"/>
       <c r="AN23" s="44"/>
       <c r="AO23" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP23" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ23" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR23" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS23" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT23" s="44"/>
       <c r="AU23" s="44"/>
@@ -22182,7 +22187,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A24" s="44"/>
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
@@ -22211,7 +22216,7 @@
       <c r="Z24" s="44"/>
       <c r="AA24" s="44"/>
       <c r="AB24" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC24" s="44"/>
       <c r="AD24" s="47"/>
@@ -22225,7 +22230,7 @@
       <c r="AL24" s="44"/>
       <c r="AM24" s="44"/>
       <c r="AN24" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO24" s="44"/>
       <c r="AP24" s="44"/>
@@ -22245,7 +22250,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A25" s="44"/>
       <c r="B25" s="44"/>
       <c r="C25" s="44"/>
@@ -22275,7 +22280,7 @@
       <c r="AA25" s="44"/>
       <c r="AB25" s="44"/>
       <c r="AC25" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AD25" s="47"/>
       <c r="AE25" s="44"/>
@@ -22287,7 +22292,7 @@
       <c r="AK25" s="44"/>
       <c r="AL25" s="44"/>
       <c r="AM25" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN25" s="44"/>
       <c r="AO25" s="44"/>
@@ -22308,7 +22313,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A26" s="44"/>
       <c r="B26" s="44"/>
       <c r="C26" s="44"/>
@@ -22339,21 +22344,21 @@
       <c r="AB26" s="44"/>
       <c r="AC26" s="44"/>
       <c r="AD26" s="47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE26" s="44"/>
       <c r="AF26" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG26" s="44"/>
       <c r="AH26" s="44"/>
       <c r="AI26" s="44"/>
       <c r="AJ26" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK26" s="44"/>
       <c r="AL26" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM26" s="44"/>
       <c r="AN26" s="44"/>
@@ -22375,7 +22380,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A27" s="44"/>
       <c r="B27" s="44"/>
       <c r="C27" s="44"/>
@@ -22407,25 +22412,25 @@
       <c r="AC27" s="44"/>
       <c r="AD27" s="47"/>
       <c r="AE27" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF27" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG27" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH27" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI27" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ27" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK27" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL27" s="44"/>
       <c r="AM27" s="44"/>
@@ -22448,7 +22453,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A28" s="44"/>
       <c r="B28" s="44"/>
       <c r="C28" s="44"/>
@@ -22507,7 +22512,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A29" s="44"/>
       <c r="B29" s="44"/>
       <c r="C29" s="44"/>
@@ -22566,7 +22571,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A30" s="54"/>
       <c r="B30" s="54"/>
       <c r="C30" s="54"/>
@@ -22625,7 +22630,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="66"/>
       <c r="B31" s="66"/>
       <c r="C31" s="66"/>
@@ -22684,7 +22689,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A32" s="53">
         <v>0</v>
       </c>

--- a/GUI_20212202_AYZ8R9/Maps/map.xlsx
+++ b/GUI_20212202_AYZ8R9/Maps/map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krisz\OneDrive\Asztali gép\SZTGUI Féléves\GUI_20212202_AYZ8R9\GUI_20212202_AYZ8R9\Maps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\game5\GUI_20212202_AYZ8R9\Maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE4DC4C-715E-4B95-B337-351A9BF3BC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0933D29-9A61-48F8-9CFE-96E55A86DF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="30">
   <si>
     <t>B</t>
   </si>
@@ -119,6 +119,18 @@
   </si>
   <si>
     <t>HOMERW</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
   </si>
 </sst>
 </file>
@@ -696,28 +708,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382D7427-FBDE-4BF3-ADAB-21A4C37623DD}">
   <dimension ref="A1:CY47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AF19" sqref="AF19"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="4.33203125" style="29"/>
-    <col min="10" max="10" width="4.33203125" style="36"/>
-    <col min="11" max="19" width="4.33203125" style="29"/>
-    <col min="20" max="20" width="4.33203125" style="37"/>
-    <col min="21" max="29" width="4.33203125" style="29"/>
-    <col min="30" max="30" width="4.33203125" style="38"/>
-    <col min="31" max="39" width="4.33203125" style="29"/>
-    <col min="40" max="40" width="4.33203125" style="39"/>
-    <col min="41" max="49" width="4.33203125" style="29"/>
-    <col min="50" max="50" width="4.33203125" style="40"/>
-    <col min="51" max="54" width="4.33203125" style="29"/>
-    <col min="55" max="55" width="4.33203125" style="43"/>
-    <col min="56" max="16384" width="4.33203125" style="29"/>
+    <col min="1" max="9" width="4.28515625" style="29"/>
+    <col min="10" max="10" width="4.28515625" style="36"/>
+    <col min="11" max="19" width="4.28515625" style="29"/>
+    <col min="20" max="20" width="4.28515625" style="37"/>
+    <col min="21" max="29" width="4.28515625" style="29"/>
+    <col min="30" max="30" width="4.28515625" style="38"/>
+    <col min="31" max="39" width="4.28515625" style="29"/>
+    <col min="40" max="40" width="4.28515625" style="39"/>
+    <col min="41" max="49" width="4.28515625" style="29"/>
+    <col min="50" max="50" width="4.28515625" style="40"/>
+    <col min="51" max="54" width="4.28515625" style="29"/>
+    <col min="55" max="55" width="4.28515625" style="43"/>
+    <col min="56" max="16384" width="4.28515625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:103" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="62"/>
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
@@ -821,7 +833,7 @@
       <c r="CX1" s="64"/>
       <c r="CY1" s="64"/>
     </row>
-    <row r="2" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="44"/>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
@@ -928,7 +940,7 @@
       <c r="CX2" s="28"/>
       <c r="CY2" s="28"/>
     </row>
-    <row r="3" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="44"/>
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
@@ -1035,7 +1047,7 @@
       <c r="CX3" s="28"/>
       <c r="CY3" s="28"/>
     </row>
-    <row r="4" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="44"/>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -1142,7 +1154,7 @@
       <c r="CX4" s="28"/>
       <c r="CY4" s="28"/>
     </row>
-    <row r="5" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="44"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
@@ -1249,7 +1261,7 @@
       <c r="CX5" s="28"/>
       <c r="CY5" s="28"/>
     </row>
-    <row r="6" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="44"/>
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
@@ -1356,7 +1368,7 @@
       <c r="CX6" s="28"/>
       <c r="CY6" s="28"/>
     </row>
-    <row r="7" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="44"/>
       <c r="B7" s="44"/>
       <c r="C7" s="44"/>
@@ -1463,7 +1475,7 @@
       <c r="CX7" s="28"/>
       <c r="CY7" s="28"/>
     </row>
-    <row r="8" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="44"/>
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
@@ -1570,7 +1582,7 @@
       <c r="CX8" s="28"/>
       <c r="CY8" s="28"/>
     </row>
-    <row r="9" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="44"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
@@ -1677,7 +1689,7 @@
       <c r="CX9" s="28"/>
       <c r="CY9" s="28"/>
     </row>
-    <row r="10" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="44"/>
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
@@ -1784,7 +1796,7 @@
       <c r="CX10" s="28"/>
       <c r="CY10" s="28"/>
     </row>
-    <row r="11" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="44"/>
       <c r="B11" s="44"/>
       <c r="C11" s="44"/>
@@ -1891,7 +1903,7 @@
       <c r="CX11" s="28"/>
       <c r="CY11" s="28"/>
     </row>
-    <row r="12" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="44"/>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
@@ -1998,7 +2010,7 @@
       <c r="CX12" s="28"/>
       <c r="CY12" s="28"/>
     </row>
-    <row r="13" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="44"/>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
@@ -2105,7 +2117,7 @@
       <c r="CX13" s="28"/>
       <c r="CY13" s="28"/>
     </row>
-    <row r="14" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" s="44"/>
       <c r="C14" s="44"/>
@@ -2212,7 +2224,7 @@
       <c r="CX14" s="28"/>
       <c r="CY14" s="28"/>
     </row>
-    <row r="15" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="44"/>
       <c r="B15" s="44"/>
       <c r="C15" s="44"/>
@@ -2319,7 +2331,7 @@
       <c r="CX15" s="28"/>
       <c r="CY15" s="28"/>
     </row>
-    <row r="16" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="44"/>
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
@@ -2448,7 +2460,7 @@
       <c r="CX16" s="28"/>
       <c r="CY16" s="28"/>
     </row>
-    <row r="17" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
       <c r="B17" s="44"/>
       <c r="C17" s="44"/>
@@ -2577,7 +2589,7 @@
       <c r="CX17" s="28"/>
       <c r="CY17" s="28"/>
     </row>
-    <row r="18" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="44"/>
       <c r="B18" s="44"/>
       <c r="C18" s="44"/>
@@ -2706,7 +2718,7 @@
       <c r="CX18" s="28"/>
       <c r="CY18" s="28"/>
     </row>
-    <row r="19" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="44"/>
       <c r="B19" s="44"/>
       <c r="C19" s="44"/>
@@ -2735,25 +2747,25 @@
         <v>23</v>
       </c>
       <c r="X19" s="44" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y19" s="44" t="s">
         <v>23</v>
       </c>
       <c r="Z19" s="44" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AA19" s="44" t="s">
         <v>23</v>
       </c>
       <c r="AB19" s="44" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AC19" s="44" t="s">
         <v>23</v>
       </c>
       <c r="AD19" s="44" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AE19" s="44" t="s">
         <v>23</v>
@@ -2841,7 +2853,7 @@
       <c r="CX19" s="28"/>
       <c r="CY19" s="28"/>
     </row>
-    <row r="20" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="s">
         <v>0</v>
       </c>
@@ -3056,7 +3068,7 @@
       <c r="CX20" s="28"/>
       <c r="CY20" s="28"/>
     </row>
-    <row r="21" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
       <c r="B21" s="44"/>
       <c r="C21" s="44"/>
@@ -3163,7 +3175,7 @@
       <c r="CX21" s="28"/>
       <c r="CY21" s="28"/>
     </row>
-    <row r="22" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="44"/>
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
@@ -3270,7 +3282,7 @@
       <c r="CX22" s="28"/>
       <c r="CY22" s="28"/>
     </row>
-    <row r="23" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="44"/>
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
@@ -3377,7 +3389,7 @@
       <c r="CX23" s="28"/>
       <c r="CY23" s="28"/>
     </row>
-    <row r="24" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="44"/>
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
@@ -3484,7 +3496,7 @@
       <c r="CX24" s="28"/>
       <c r="CY24" s="28"/>
     </row>
-    <row r="25" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="44"/>
       <c r="B25" s="44"/>
       <c r="C25" s="44"/>
@@ -3591,7 +3603,7 @@
       <c r="CX25" s="28"/>
       <c r="CY25" s="28"/>
     </row>
-    <row r="26" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="44"/>
       <c r="B26" s="44"/>
       <c r="C26" s="44"/>
@@ -3698,7 +3710,7 @@
       <c r="CX26" s="28"/>
       <c r="CY26" s="28"/>
     </row>
-    <row r="27" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="44"/>
       <c r="B27" s="44"/>
       <c r="C27" s="44"/>
@@ -3805,7 +3817,7 @@
       <c r="CX27" s="28"/>
       <c r="CY27" s="28"/>
     </row>
-    <row r="28" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="44"/>
       <c r="B28" s="44"/>
       <c r="C28" s="44"/>
@@ -3912,7 +3924,7 @@
       <c r="CX28" s="28"/>
       <c r="CY28" s="28"/>
     </row>
-    <row r="29" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="44"/>
       <c r="B29" s="44"/>
       <c r="C29" s="44"/>
@@ -4019,7 +4031,7 @@
       <c r="CX29" s="28"/>
       <c r="CY29" s="28"/>
     </row>
-    <row r="30" spans="1:103" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:103" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="54"/>
       <c r="B30" s="54"/>
       <c r="C30" s="54"/>
@@ -4126,7 +4138,7 @@
       <c r="CX30" s="28"/>
       <c r="CY30" s="28"/>
     </row>
-    <row r="31" spans="1:103" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:103" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC31" s="51">
         <v>29</v>
       </c>
@@ -4179,7 +4191,7 @@
       <c r="CX31" s="67"/>
       <c r="CY31" s="67"/>
     </row>
-    <row r="32" spans="1:103" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:103" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="53">
         <v>0</v>
       </c>
@@ -4392,7 +4404,7 @@
       <c r="CX32" s="28"/>
       <c r="CY32" s="28"/>
     </row>
-    <row r="33" spans="1:103" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:103" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="28"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -4497,7 +4509,7 @@
       <c r="CX33" s="28"/>
       <c r="CY33" s="28"/>
     </row>
-    <row r="34" spans="1:103" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:103" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J34" s="30"/>
       <c r="T34" s="31"/>
       <c r="AD34" s="32"/>
@@ -4505,7 +4517,7 @@
       <c r="AX34" s="34"/>
       <c r="BC34" s="35"/>
     </row>
-    <row r="35" spans="1:103" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:103" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="28"/>
       <c r="B35" s="28"/>
       <c r="C35" s="28"/>
@@ -4610,7 +4622,7 @@
       <c r="CX35" s="28"/>
       <c r="CY35" s="28"/>
     </row>
-    <row r="36" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="28"/>
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
@@ -4715,7 +4727,7 @@
       <c r="CX36" s="28"/>
       <c r="CY36" s="28"/>
     </row>
-    <row r="37" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="28"/>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
@@ -4820,7 +4832,7 @@
       <c r="CX37" s="28"/>
       <c r="CY37" s="28"/>
     </row>
-    <row r="38" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="28"/>
       <c r="B38" s="28"/>
       <c r="C38" s="28"/>
@@ -4925,7 +4937,7 @@
       <c r="CX38" s="28"/>
       <c r="CY38" s="28"/>
     </row>
-    <row r="39" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="28"/>
       <c r="B39" s="28"/>
       <c r="C39" s="28"/>
@@ -5030,7 +5042,7 @@
       <c r="CX39" s="28"/>
       <c r="CY39" s="28"/>
     </row>
-    <row r="40" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="28"/>
       <c r="B40" s="28"/>
       <c r="C40" s="28"/>
@@ -5135,7 +5147,7 @@
       <c r="CX40" s="28"/>
       <c r="CY40" s="28"/>
     </row>
-    <row r="41" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="28"/>
       <c r="B41" s="28"/>
       <c r="C41" s="28"/>
@@ -5240,7 +5252,7 @@
       <c r="CX41" s="28"/>
       <c r="CY41" s="28"/>
     </row>
-    <row r="42" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="28"/>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
@@ -5345,7 +5357,7 @@
       <c r="CX42" s="28"/>
       <c r="CY42" s="28"/>
     </row>
-    <row r="43" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="28"/>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
@@ -5450,7 +5462,7 @@
       <c r="CX43" s="28"/>
       <c r="CY43" s="28"/>
     </row>
-    <row r="44" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
@@ -5555,7 +5567,7 @@
       <c r="CX44" s="28"/>
       <c r="CY44" s="28"/>
     </row>
-    <row r="45" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
@@ -5660,7 +5672,7 @@
       <c r="CX45" s="28"/>
       <c r="CY45" s="28"/>
     </row>
-    <row r="46" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="28"/>
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
@@ -5765,7 +5777,7 @@
       <c r="CX46" s="28"/>
       <c r="CY46" s="28"/>
     </row>
-    <row r="47" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC47" s="41"/>
       <c r="BD47" s="42"/>
       <c r="BE47" s="42"/>
@@ -5827,20 +5839,20 @@
   <dimension ref="A1:BL35"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="4.44140625" style="6"/>
-    <col min="20" max="20" width="4.44140625" style="8"/>
-    <col min="30" max="30" width="4.44140625" style="10"/>
-    <col min="40" max="40" width="4.44140625" style="12"/>
-    <col min="50" max="50" width="4.44140625" style="14"/>
+    <col min="10" max="10" width="4.42578125" style="6"/>
+    <col min="20" max="20" width="4.42578125" style="8"/>
+    <col min="30" max="30" width="4.42578125" style="10"/>
+    <col min="40" max="40" width="4.42578125" style="12"/>
+    <col min="50" max="50" width="4.42578125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="68" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:64" s="68" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -5906,7 +5918,7 @@
       <c r="BK2" s="3"/>
       <c r="BL2" s="3"/>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -5972,7 +5984,7 @@
       <c r="BK3" s="3"/>
       <c r="BL3" s="3"/>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -6038,7 +6050,7 @@
       <c r="BK4" s="3"/>
       <c r="BL4" s="3"/>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -6104,7 +6116,7 @@
       <c r="BK5" s="3"/>
       <c r="BL5" s="3"/>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -6170,7 +6182,7 @@
       <c r="BK6" s="3"/>
       <c r="BL6" s="3"/>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -6236,7 +6248,7 @@
       <c r="BK7" s="3"/>
       <c r="BL7" s="3"/>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -6302,7 +6314,7 @@
       <c r="BK8" s="3"/>
       <c r="BL8" s="3"/>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -6372,7 +6384,7 @@
       <c r="BK9" s="3"/>
       <c r="BL9" s="3"/>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -6442,7 +6454,7 @@
       <c r="BK10" s="3"/>
       <c r="BL10" s="3"/>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -6511,7 +6523,7 @@
       <c r="BK11" s="3"/>
       <c r="BL11" s="3"/>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -6581,7 +6593,7 @@
       <c r="BK12" s="3"/>
       <c r="BL12" s="3"/>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -6651,7 +6663,7 @@
       <c r="BK13" s="3"/>
       <c r="BL13" s="3"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -6751,7 +6763,7 @@
       <c r="BK14" s="3"/>
       <c r="BL14" s="3"/>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -6817,7 +6829,7 @@
       <c r="BK15" s="3"/>
       <c r="BL15" s="3"/>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -6891,7 +6903,7 @@
       <c r="BK16" s="3"/>
       <c r="BL16" s="3"/>
     </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -6922,7 +6934,9 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="7"/>
-      <c r="U17" s="1"/>
+      <c r="U17" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="V17" s="1" t="s">
         <v>5</v>
       </c>
@@ -6981,7 +6995,7 @@
       <c r="BK17" s="3"/>
       <c r="BL17" s="3"/>
     </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -7063,7 +7077,7 @@
       <c r="BK18" s="3"/>
       <c r="BL18" s="3"/>
     </row>
-    <row r="19" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -7146,7 +7160,7 @@
       <c r="BK19" s="3"/>
       <c r="BL19" s="3"/>
     </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -7202,9 +7216,7 @@
       <c r="AO20" s="1"/>
       <c r="AP20" s="1"/>
       <c r="AQ20" s="1"/>
-      <c r="AR20" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="AR20" s="1"/>
       <c r="AS20" s="1"/>
       <c r="AT20" s="1"/>
       <c r="AU20" s="1"/>
@@ -7222,7 +7234,7 @@
       <c r="BK20" s="3"/>
       <c r="BL20" s="3"/>
     </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -7318,7 +7330,7 @@
       <c r="BK21" s="3"/>
       <c r="BL21" s="3"/>
     </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -7390,7 +7402,7 @@
       <c r="BK22" s="3"/>
       <c r="BL22" s="3"/>
     </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -7460,7 +7472,7 @@
       <c r="BK23" s="3"/>
       <c r="BL23" s="3"/>
     </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -7530,7 +7542,7 @@
       <c r="BK24" s="3"/>
       <c r="BL24" s="3"/>
     </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -7600,7 +7612,7 @@
       <c r="BK25" s="3"/>
       <c r="BL25" s="3"/>
     </row>
-    <row r="26" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -7672,7 +7684,7 @@
       <c r="BK26" s="3"/>
       <c r="BL26" s="3"/>
     </row>
-    <row r="27" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -7750,7 +7762,7 @@
       <c r="BK27" s="3"/>
       <c r="BL27" s="3"/>
     </row>
-    <row r="28" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -7815,7 +7827,7 @@
       <c r="BK28" s="3"/>
       <c r="BL28" s="3"/>
     </row>
-    <row r="29" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -7881,7 +7893,7 @@
       <c r="BK29" s="3"/>
       <c r="BL29" s="3"/>
     </row>
-    <row r="30" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -7947,7 +7959,7 @@
       <c r="BK30" s="3"/>
       <c r="BL30" s="3"/>
     </row>
-    <row r="31" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -8013,7 +8025,7 @@
       <c r="BK31" s="3"/>
       <c r="BL31" s="3"/>
     </row>
-    <row r="32" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -8079,7 +8091,7 @@
       <c r="BK32" s="3"/>
       <c r="BL32" s="3"/>
     </row>
-    <row r="33" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -8145,7 +8157,7 @@
       <c r="BK33" s="3"/>
       <c r="BL33" s="3"/>
     </row>
-    <row r="34" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -8211,7 +8223,7 @@
       <c r="BK34" s="3"/>
       <c r="BL34" s="3"/>
     </row>
-    <row r="35" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -8287,20 +8299,20 @@
   <dimension ref="A1:BL35"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="4.44140625" style="6"/>
-    <col min="20" max="20" width="4.44140625" style="8"/>
-    <col min="30" max="30" width="4.44140625" style="10"/>
-    <col min="40" max="40" width="4.44140625" style="12"/>
-    <col min="50" max="50" width="4.44140625" style="14"/>
+    <col min="10" max="10" width="4.42578125" style="6"/>
+    <col min="20" max="20" width="4.42578125" style="8"/>
+    <col min="30" max="30" width="4.42578125" style="10"/>
+    <col min="40" max="40" width="4.42578125" style="12"/>
+    <col min="50" max="50" width="4.42578125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="68" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:64" s="68" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -8366,7 +8378,7 @@
       <c r="BK2" s="3"/>
       <c r="BL2" s="3"/>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -8432,7 +8444,7 @@
       <c r="BK3" s="3"/>
       <c r="BL3" s="3"/>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -8498,7 +8510,7 @@
       <c r="BK4" s="3"/>
       <c r="BL4" s="3"/>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -8566,7 +8578,7 @@
       <c r="BK5" s="3"/>
       <c r="BL5" s="3"/>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -8615,13 +8627,12 @@
       <c r="AL6" s="1"/>
       <c r="AM6" s="1"/>
       <c r="AN6" s="11"/>
-      <c r="AO6" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="AP6" s="1"/>
       <c r="AQ6" s="1"/>
       <c r="AR6" s="1"/>
-      <c r="AS6" s="1"/>
+      <c r="AS6" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="AT6" s="1"/>
       <c r="AU6" s="1"/>
       <c r="AV6" s="1"/>
@@ -8642,7 +8653,7 @@
       <c r="BK6" s="3"/>
       <c r="BL6" s="3"/>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -8738,7 +8749,7 @@
       <c r="BK7" s="3"/>
       <c r="BL7" s="3"/>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -8820,7 +8831,7 @@
       <c r="BK8" s="3"/>
       <c r="BL8" s="3"/>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
@@ -8902,7 +8913,7 @@
       <c r="BK9" s="3"/>
       <c r="BL9" s="3"/>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -8986,7 +8997,7 @@
       <c r="BK10" s="3"/>
       <c r="BL10" s="3"/>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="5"/>
@@ -9042,9 +9053,7 @@
       <c r="AX11" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="AY11" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="AY11" s="1"/>
       <c r="AZ11" s="1"/>
       <c r="BA11" s="1"/>
       <c r="BB11" s="2"/>
@@ -9059,7 +9068,7 @@
       <c r="BK11" s="3"/>
       <c r="BL11" s="3"/>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -9067,12 +9076,16 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="5"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="M12" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -9137,7 +9150,7 @@
       <c r="BK12" s="3"/>
       <c r="BL12" s="3"/>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -9233,7 +9246,7 @@
       <c r="BK13" s="3"/>
       <c r="BL13" s="3"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -9319,7 +9332,7 @@
       <c r="BK14" s="3"/>
       <c r="BL14" s="3"/>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -9399,7 +9412,7 @@
       <c r="BK15" s="3"/>
       <c r="BL15" s="3"/>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -9483,7 +9496,7 @@
       <c r="BK16" s="3"/>
       <c r="BL16" s="3"/>
     </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -9571,7 +9584,7 @@
       <c r="BK17" s="3"/>
       <c r="BL17" s="3"/>
     </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -9655,7 +9668,7 @@
       <c r="BK18" s="3"/>
       <c r="BL18" s="3"/>
     </row>
-    <row r="19" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -9735,7 +9748,7 @@
       <c r="BK19" s="3"/>
       <c r="BL19" s="3"/>
     </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -9818,7 +9831,7 @@
       <c r="BK20" s="3"/>
       <c r="BL20" s="3"/>
     </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -9886,7 +9899,7 @@
       <c r="BK21" s="3"/>
       <c r="BL21" s="3"/>
     </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -9960,7 +9973,7 @@
       <c r="BK22" s="3"/>
       <c r="BL22" s="3"/>
     </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -10034,7 +10047,7 @@
       <c r="BK23" s="3"/>
       <c r="BL23" s="3"/>
     </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -10110,7 +10123,7 @@
       <c r="BK24" s="3"/>
       <c r="BL24" s="3"/>
     </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -10182,7 +10195,7 @@
       <c r="BK25" s="3"/>
       <c r="BL25" s="3"/>
     </row>
-    <row r="26" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -10255,7 +10268,7 @@
       <c r="BK26" s="3"/>
       <c r="BL26" s="3"/>
     </row>
-    <row r="27" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -10343,7 +10356,7 @@
       <c r="BK27" s="3"/>
       <c r="BL27" s="3"/>
     </row>
-    <row r="28" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -10408,7 +10421,7 @@
       <c r="BK28" s="3"/>
       <c r="BL28" s="3"/>
     </row>
-    <row r="29" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -10474,7 +10487,7 @@
       <c r="BK29" s="3"/>
       <c r="BL29" s="3"/>
     </row>
-    <row r="30" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -10540,7 +10553,7 @@
       <c r="BK30" s="3"/>
       <c r="BL30" s="3"/>
     </row>
-    <row r="31" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -10606,7 +10619,7 @@
       <c r="BK31" s="3"/>
       <c r="BL31" s="3"/>
     </row>
-    <row r="32" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -10672,7 +10685,7 @@
       <c r="BK32" s="3"/>
       <c r="BL32" s="3"/>
     </row>
-    <row r="33" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -10738,7 +10751,7 @@
       <c r="BK33" s="3"/>
       <c r="BL33" s="3"/>
     </row>
-    <row r="34" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -10804,7 +10817,7 @@
       <c r="BK34" s="3"/>
       <c r="BL34" s="3"/>
     </row>
-    <row r="35" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -10880,20 +10893,20 @@
   <dimension ref="A1:BL40"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="AE13" sqref="AE13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="4.44140625" style="6"/>
-    <col min="20" max="20" width="4.44140625" style="8"/>
-    <col min="30" max="30" width="4.44140625" style="10"/>
-    <col min="40" max="40" width="4.44140625" style="12"/>
-    <col min="50" max="50" width="4.44140625" style="14"/>
+    <col min="10" max="10" width="4.42578125" style="6"/>
+    <col min="20" max="20" width="4.42578125" style="8"/>
+    <col min="30" max="30" width="4.42578125" style="10"/>
+    <col min="40" max="40" width="4.42578125" style="12"/>
+    <col min="50" max="50" width="4.42578125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="68" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:64" s="68" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -10959,7 +10972,7 @@
       <c r="BK2" s="3"/>
       <c r="BL2" s="3"/>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -11025,7 +11038,7 @@
       <c r="BK3" s="3"/>
       <c r="BL3" s="3"/>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -11091,7 +11104,7 @@
       <c r="BK4" s="3"/>
       <c r="BL4" s="3"/>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -11157,7 +11170,7 @@
       <c r="BK5" s="3"/>
       <c r="BL5" s="3"/>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -11223,7 +11236,7 @@
       <c r="BK6" s="3"/>
       <c r="BL6" s="3"/>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -11289,7 +11302,7 @@
       <c r="BK7" s="3"/>
       <c r="BL7" s="3"/>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -11355,7 +11368,7 @@
       <c r="BK8" s="3"/>
       <c r="BL8" s="3"/>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -11421,7 +11434,7 @@
       <c r="BK9" s="3"/>
       <c r="BL9" s="3"/>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -11487,7 +11500,7 @@
       <c r="BK10" s="3"/>
       <c r="BL10" s="3"/>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -11553,7 +11566,7 @@
       <c r="BK11" s="3"/>
       <c r="BL11" s="3"/>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -11619,7 +11632,7 @@
       <c r="BK12" s="3"/>
       <c r="BL12" s="3"/>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -11652,7 +11665,9 @@
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="9"/>
-      <c r="AE13" s="1"/>
+      <c r="AE13" t="s">
+        <v>17</v>
+      </c>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
@@ -11687,7 +11702,7 @@
       <c r="BK13" s="3"/>
       <c r="BL13" s="3"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -11781,7 +11796,7 @@
       <c r="BK14" s="3"/>
       <c r="BL14" s="3"/>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>1</v>
@@ -11859,7 +11874,7 @@
       <c r="BK15" s="3"/>
       <c r="BL15" s="3"/>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>1</v>
@@ -11936,7 +11951,7 @@
       <c r="BK16" s="3"/>
       <c r="BL16" s="3"/>
     </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -11996,9 +12011,7 @@
       <c r="AQ17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AR17" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="AR17" s="1"/>
       <c r="AS17" s="1"/>
       <c r="AT17" s="1"/>
       <c r="AU17" s="1"/>
@@ -12020,7 +12033,7 @@
       <c r="BK17" s="3"/>
       <c r="BL17" s="3"/>
     </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -12033,16 +12046,17 @@
       <c r="H18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="J18" s="5"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="M18" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
+      <c r="P18" t="s">
+        <v>10</v>
+      </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
@@ -12100,7 +12114,7 @@
       <c r="BK18" s="3"/>
       <c r="BL18" s="3"/>
     </row>
-    <row r="19" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -12196,7 +12210,7 @@
       <c r="BK19" s="3"/>
       <c r="BL19" s="3"/>
     </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -12255,9 +12269,6 @@
       <c r="AT20" t="s">
         <v>2</v>
       </c>
-      <c r="AW20" t="s">
-        <v>17</v>
-      </c>
       <c r="BB20" t="s">
         <v>10</v>
       </c>
@@ -12272,7 +12283,7 @@
       <c r="BK20" s="3"/>
       <c r="BL20" s="3"/>
     </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -12364,7 +12375,7 @@
       <c r="BK21" s="3"/>
       <c r="BL21" s="3"/>
     </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -12438,7 +12449,7 @@
       <c r="BK22" s="3"/>
       <c r="BL22" s="3"/>
     </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -12512,7 +12523,7 @@
       <c r="BK23" s="3"/>
       <c r="BL23" s="3"/>
     </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -12586,7 +12597,7 @@
       <c r="BK24" s="3"/>
       <c r="BL24" s="3"/>
     </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -12670,7 +12681,7 @@
       <c r="BK25" s="3"/>
       <c r="BL25" s="3"/>
     </row>
-    <row r="26" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -12736,7 +12747,7 @@
       <c r="BK26" s="3"/>
       <c r="BL26" s="3"/>
     </row>
-    <row r="27" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -12802,7 +12813,7 @@
       <c r="BK27" s="3"/>
       <c r="BL27" s="3"/>
     </row>
-    <row r="28" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -12867,7 +12878,7 @@
       <c r="BK28" s="3"/>
       <c r="BL28" s="3"/>
     </row>
-    <row r="29" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -12933,7 +12944,7 @@
       <c r="BK29" s="3"/>
       <c r="BL29" s="3"/>
     </row>
-    <row r="30" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -12999,7 +13010,7 @@
       <c r="BK30" s="3"/>
       <c r="BL30" s="3"/>
     </row>
-    <row r="31" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -13065,7 +13076,7 @@
       <c r="BK31" s="3"/>
       <c r="BL31" s="3"/>
     </row>
-    <row r="32" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -13131,7 +13142,7 @@
       <c r="BK32" s="3"/>
       <c r="BL32" s="3"/>
     </row>
-    <row r="33" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -13197,7 +13208,7 @@
       <c r="BK33" s="3"/>
       <c r="BL33" s="3"/>
     </row>
-    <row r="34" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -13263,7 +13274,7 @@
       <c r="BK34" s="3"/>
       <c r="BL34" s="3"/>
     </row>
-    <row r="35" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -13329,12 +13340,12 @@
       <c r="BK35" s="3"/>
       <c r="BL35" s="3"/>
     </row>
-    <row r="37" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:64" x14ac:dyDescent="0.25">
       <c r="AT37" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:64" x14ac:dyDescent="0.25">
       <c r="AU40" t="s">
         <v>7</v>
       </c>
@@ -13350,27 +13361,27 @@
   <dimension ref="A1:CY47"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="AK28" sqref="AK28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="4.33203125" style="29"/>
-    <col min="10" max="10" width="4.33203125" style="36"/>
-    <col min="11" max="19" width="4.33203125" style="29"/>
-    <col min="20" max="20" width="4.33203125" style="37"/>
-    <col min="21" max="29" width="4.33203125" style="29"/>
-    <col min="30" max="30" width="4.33203125" style="38"/>
-    <col min="31" max="39" width="4.33203125" style="29"/>
-    <col min="40" max="40" width="4.33203125" style="39"/>
-    <col min="41" max="49" width="4.33203125" style="29"/>
-    <col min="50" max="50" width="4.33203125" style="40"/>
-    <col min="51" max="54" width="4.33203125" style="29"/>
-    <col min="55" max="55" width="4.33203125" style="43"/>
-    <col min="56" max="16384" width="4.33203125" style="29"/>
+    <col min="1" max="9" width="4.28515625" style="29"/>
+    <col min="10" max="10" width="4.28515625" style="36"/>
+    <col min="11" max="19" width="4.28515625" style="29"/>
+    <col min="20" max="20" width="4.28515625" style="37"/>
+    <col min="21" max="29" width="4.28515625" style="29"/>
+    <col min="30" max="30" width="4.28515625" style="38"/>
+    <col min="31" max="39" width="4.28515625" style="29"/>
+    <col min="40" max="40" width="4.28515625" style="39"/>
+    <col min="41" max="49" width="4.28515625" style="29"/>
+    <col min="50" max="50" width="4.28515625" style="40"/>
+    <col min="51" max="54" width="4.28515625" style="29"/>
+    <col min="55" max="55" width="4.28515625" style="43"/>
+    <col min="56" max="16384" width="4.28515625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:103" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="62"/>
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
@@ -13474,7 +13485,7 @@
       <c r="CX1" s="64"/>
       <c r="CY1" s="64"/>
     </row>
-    <row r="2" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="44"/>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
@@ -13581,7 +13592,7 @@
       <c r="CX2" s="28"/>
       <c r="CY2" s="28"/>
     </row>
-    <row r="3" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="44"/>
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
@@ -13688,7 +13699,7 @@
       <c r="CX3" s="28"/>
       <c r="CY3" s="28"/>
     </row>
-    <row r="4" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="44"/>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -13795,7 +13806,7 @@
       <c r="CX4" s="28"/>
       <c r="CY4" s="28"/>
     </row>
-    <row r="5" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="44"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
@@ -13902,7 +13913,7 @@
       <c r="CX5" s="28"/>
       <c r="CY5" s="28"/>
     </row>
-    <row r="6" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="44"/>
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
@@ -14009,7 +14020,7 @@
       <c r="CX6" s="28"/>
       <c r="CY6" s="28"/>
     </row>
-    <row r="7" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="44"/>
       <c r="B7" s="44"/>
       <c r="C7" s="44"/>
@@ -14116,7 +14127,7 @@
       <c r="CX7" s="28"/>
       <c r="CY7" s="28"/>
     </row>
-    <row r="8" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="44"/>
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
@@ -14223,7 +14234,7 @@
       <c r="CX8" s="28"/>
       <c r="CY8" s="28"/>
     </row>
-    <row r="9" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="44"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
@@ -14330,7 +14341,7 @@
       <c r="CX9" s="28"/>
       <c r="CY9" s="28"/>
     </row>
-    <row r="10" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="44"/>
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
@@ -14437,7 +14448,7 @@
       <c r="CX10" s="28"/>
       <c r="CY10" s="28"/>
     </row>
-    <row r="11" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="44"/>
       <c r="B11" s="44"/>
       <c r="C11" s="44"/>
@@ -14544,7 +14555,7 @@
       <c r="CX11" s="28"/>
       <c r="CY11" s="28"/>
     </row>
-    <row r="12" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="44"/>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
@@ -14651,7 +14662,7 @@
       <c r="CX12" s="28"/>
       <c r="CY12" s="28"/>
     </row>
-    <row r="13" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="44"/>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
@@ -14758,7 +14769,7 @@
       <c r="CX13" s="28"/>
       <c r="CY13" s="28"/>
     </row>
-    <row r="14" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" s="44"/>
       <c r="C14" s="44"/>
@@ -14865,7 +14876,7 @@
       <c r="CX14" s="28"/>
       <c r="CY14" s="28"/>
     </row>
-    <row r="15" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="44"/>
       <c r="B15" s="44"/>
       <c r="C15" s="44"/>
@@ -14986,7 +14997,7 @@
       <c r="CX15" s="28"/>
       <c r="CY15" s="28"/>
     </row>
-    <row r="16" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="44"/>
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
@@ -15101,7 +15112,7 @@
       <c r="CX16" s="28"/>
       <c r="CY16" s="28"/>
     </row>
-    <row r="17" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
       <c r="B17" s="44"/>
       <c r="C17" s="44"/>
@@ -15220,7 +15231,7 @@
       <c r="CX17" s="28"/>
       <c r="CY17" s="28"/>
     </row>
-    <row r="18" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="44"/>
       <c r="B18" s="44"/>
       <c r="C18" s="44"/>
@@ -15342,12 +15353,14 @@
       <c r="CX18" s="28"/>
       <c r="CY18" s="28"/>
     </row>
-    <row r="19" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="44"/>
       <c r="B19" s="44"/>
       <c r="C19" s="44"/>
       <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
+      <c r="E19" s="44" t="s">
+        <v>10</v>
+      </c>
       <c r="F19" s="44" t="s">
         <v>5</v>
       </c>
@@ -15483,7 +15496,7 @@
       <c r="CX19" s="28"/>
       <c r="CY19" s="28"/>
     </row>
-    <row r="20" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="s">
         <v>9</v>
       </c>
@@ -15608,7 +15621,7 @@
       <c r="CX20" s="28"/>
       <c r="CY20" s="28"/>
     </row>
-    <row r="21" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="44" t="s">
         <v>0</v>
       </c>
@@ -15724,7 +15737,7 @@
       <c r="CX21" s="28"/>
       <c r="CY21" s="28"/>
     </row>
-    <row r="22" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="44"/>
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
@@ -15853,7 +15866,7 @@
       <c r="CX22" s="28"/>
       <c r="CY22" s="28"/>
     </row>
-    <row r="23" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="44"/>
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
@@ -15964,7 +15977,7 @@
       <c r="CX23" s="28"/>
       <c r="CY23" s="28"/>
     </row>
-    <row r="24" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="44"/>
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
@@ -15996,9 +16009,6 @@
       </c>
       <c r="Z24" s="44"/>
       <c r="AB24" s="44"/>
-      <c r="AC24" s="44" t="s">
-        <v>17</v>
-      </c>
       <c r="AD24" s="47"/>
       <c r="AE24" s="44"/>
       <c r="AF24" s="44"/>
@@ -16076,7 +16086,7 @@
       <c r="CX24" s="28"/>
       <c r="CY24" s="28"/>
     </row>
-    <row r="25" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="44"/>
       <c r="B25" s="44"/>
       <c r="C25" s="44"/>
@@ -16136,13 +16146,9 @@
       <c r="AQ25" s="44"/>
       <c r="AR25" s="44"/>
       <c r="AS25" s="44"/>
-      <c r="AT25" s="44" t="s">
-        <v>13</v>
-      </c>
+      <c r="AT25" s="44"/>
       <c r="AU25" s="44"/>
-      <c r="AV25" s="44" t="s">
-        <v>13</v>
-      </c>
+      <c r="AV25" s="44"/>
       <c r="AW25" s="44"/>
       <c r="AX25" s="44"/>
       <c r="AY25" s="44"/>
@@ -16203,7 +16209,7 @@
       <c r="CX25" s="28"/>
       <c r="CY25" s="28"/>
     </row>
-    <row r="26" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="44"/>
       <c r="B26" s="44"/>
       <c r="C26" s="44"/>
@@ -16332,7 +16338,7 @@
       <c r="CX26" s="28"/>
       <c r="CY26" s="28"/>
     </row>
-    <row r="27" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="44"/>
       <c r="B27" s="44"/>
       <c r="C27" s="44"/>
@@ -16443,7 +16449,7 @@
       <c r="CX27" s="28"/>
       <c r="CY27" s="28"/>
     </row>
-    <row r="28" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="44"/>
       <c r="B28" s="44"/>
       <c r="C28" s="44"/>
@@ -16482,7 +16488,9 @@
       <c r="AH28" s="44"/>
       <c r="AI28" s="44"/>
       <c r="AJ28" s="44"/>
-      <c r="AK28" s="44"/>
+      <c r="AK28" s="44" t="s">
+        <v>17</v>
+      </c>
       <c r="AM28" s="44"/>
       <c r="AN28" s="44"/>
       <c r="AO28" s="44"/>
@@ -16553,7 +16561,7 @@
       <c r="CX28" s="28"/>
       <c r="CY28" s="28"/>
     </row>
-    <row r="29" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="44"/>
       <c r="B29" s="44"/>
       <c r="C29" s="44"/>
@@ -16678,7 +16686,7 @@
       <c r="CX29" s="28"/>
       <c r="CY29" s="28"/>
     </row>
-    <row r="30" spans="1:103" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:103" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="54"/>
       <c r="B30" s="54"/>
       <c r="C30" s="54"/>
@@ -16785,7 +16793,7 @@
       <c r="CX30" s="28"/>
       <c r="CY30" s="28"/>
     </row>
-    <row r="31" spans="1:103" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:103" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC31" s="51">
         <v>29</v>
       </c>
@@ -16838,7 +16846,7 @@
       <c r="CX31" s="67"/>
       <c r="CY31" s="67"/>
     </row>
-    <row r="32" spans="1:103" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:103" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="53">
         <v>0</v>
       </c>
@@ -17051,7 +17059,7 @@
       <c r="CX32" s="28"/>
       <c r="CY32" s="28"/>
     </row>
-    <row r="33" spans="1:103" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:103" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="28"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -17156,7 +17164,7 @@
       <c r="CX33" s="28"/>
       <c r="CY33" s="28"/>
     </row>
-    <row r="34" spans="1:103" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:103" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J34" s="30"/>
       <c r="T34" s="31"/>
       <c r="AD34" s="32"/>
@@ -17164,7 +17172,7 @@
       <c r="AX34" s="34"/>
       <c r="BC34" s="35"/>
     </row>
-    <row r="35" spans="1:103" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:103" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="28"/>
       <c r="B35" s="28"/>
       <c r="C35" s="28"/>
@@ -17269,7 +17277,7 @@
       <c r="CX35" s="28"/>
       <c r="CY35" s="28"/>
     </row>
-    <row r="36" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="28"/>
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
@@ -17374,7 +17382,7 @@
       <c r="CX36" s="28"/>
       <c r="CY36" s="28"/>
     </row>
-    <row r="37" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="28"/>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
@@ -17479,7 +17487,7 @@
       <c r="CX37" s="28"/>
       <c r="CY37" s="28"/>
     </row>
-    <row r="38" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="28"/>
       <c r="B38" s="28"/>
       <c r="C38" s="28"/>
@@ -17584,7 +17592,7 @@
       <c r="CX38" s="28"/>
       <c r="CY38" s="28"/>
     </row>
-    <row r="39" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="28"/>
       <c r="B39" s="28"/>
       <c r="C39" s="28"/>
@@ -17689,7 +17697,7 @@
       <c r="CX39" s="28"/>
       <c r="CY39" s="28"/>
     </row>
-    <row r="40" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="28"/>
       <c r="B40" s="28"/>
       <c r="C40" s="28"/>
@@ -17794,7 +17802,7 @@
       <c r="CX40" s="28"/>
       <c r="CY40" s="28"/>
     </row>
-    <row r="41" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="28"/>
       <c r="B41" s="28"/>
       <c r="C41" s="28"/>
@@ -17899,7 +17907,7 @@
       <c r="CX41" s="28"/>
       <c r="CY41" s="28"/>
     </row>
-    <row r="42" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="28"/>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
@@ -18004,7 +18012,7 @@
       <c r="CX42" s="28"/>
       <c r="CY42" s="28"/>
     </row>
-    <row r="43" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="28"/>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
@@ -18109,7 +18117,7 @@
       <c r="CX43" s="28"/>
       <c r="CY43" s="28"/>
     </row>
-    <row r="44" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
@@ -18214,7 +18222,7 @@
       <c r="CX44" s="28"/>
       <c r="CY44" s="28"/>
     </row>
-    <row r="45" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
@@ -18319,7 +18327,7 @@
       <c r="CX45" s="28"/>
       <c r="CY45" s="28"/>
     </row>
-    <row r="46" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="28"/>
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
@@ -18424,7 +18432,7 @@
       <c r="CX46" s="28"/>
       <c r="CY46" s="28"/>
     </row>
-    <row r="47" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC47" s="41"/>
       <c r="BD47" s="42"/>
       <c r="BE47" s="42"/>
@@ -18485,12 +18493,12 @@
   <dimension ref="A1:BC32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="AL12" sqref="AL12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A1" s="62"/>
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
@@ -18547,7 +18555,7 @@
       <c r="BB1" s="63"/>
       <c r="BC1" s="65"/>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A2" s="44"/>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
@@ -18606,7 +18614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A3" s="44"/>
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
@@ -18665,7 +18673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4" s="44"/>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -18724,7 +18732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" s="44"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
@@ -18783,7 +18791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" s="44"/>
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
@@ -18842,7 +18850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" s="44"/>
       <c r="B7" s="44"/>
       <c r="C7" s="44"/>
@@ -18872,9 +18880,7 @@
       <c r="AB7" s="44"/>
       <c r="AC7" s="44"/>
       <c r="AD7" s="47"/>
-      <c r="AE7" s="44" t="s">
-        <v>17</v>
-      </c>
+      <c r="AE7" s="44"/>
       <c r="AF7" s="44"/>
       <c r="AG7" s="44"/>
       <c r="AH7" s="44"/>
@@ -18902,7 +18908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" s="44"/>
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
@@ -18983,7 +18989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" s="44"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
@@ -19064,7 +19070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" s="44"/>
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
@@ -19139,7 +19145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11" s="44"/>
       <c r="B11" s="44"/>
       <c r="C11" s="44"/>
@@ -19214,7 +19220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A12" s="44"/>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
@@ -19261,7 +19267,7 @@
       <c r="AJ12" s="44"/>
       <c r="AK12" s="44"/>
       <c r="AL12" s="44" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AM12" s="44"/>
       <c r="AN12" s="48"/>
@@ -19291,7 +19297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A13" s="44"/>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
@@ -19372,7 +19378,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" s="44"/>
       <c r="C14" s="44"/>
@@ -19431,9 +19437,7 @@
       <c r="AX14" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="AY14" s="44" t="s">
-        <v>12</v>
-      </c>
+      <c r="AY14" s="44"/>
       <c r="AZ14" s="44"/>
       <c r="BA14" s="44"/>
       <c r="BB14" s="50" t="s">
@@ -19443,7 +19447,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15" s="44"/>
       <c r="B15" s="44"/>
       <c r="C15" s="44"/>
@@ -19516,7 +19520,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" s="44"/>
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
@@ -19579,7 +19583,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
       <c r="B17" s="44"/>
       <c r="C17" s="44"/>
@@ -19642,7 +19646,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A18" s="44"/>
       <c r="B18" s="44"/>
       <c r="C18" s="44"/>
@@ -19706,7 +19710,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
         <v>0</v>
       </c>
@@ -19797,7 +19801,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
       <c r="B20" s="44"/>
       <c r="C20" s="44"/>
@@ -19858,7 +19862,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
       <c r="B21" s="44"/>
       <c r="C21" s="44"/>
@@ -19919,7 +19923,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A22" s="44"/>
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
@@ -19980,7 +19984,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A23" s="44"/>
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
@@ -20041,7 +20045,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A24" s="44"/>
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
@@ -20102,14 +20106,16 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="44"/>
       <c r="C25" s="44"/>
       <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
+      <c r="E25" s="44" t="s">
+        <v>10</v>
+      </c>
       <c r="F25" s="44"/>
       <c r="G25" s="44"/>
       <c r="H25" s="44"/>
@@ -20165,7 +20171,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="s">
         <v>15</v>
       </c>
@@ -20242,7 +20248,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A27" s="44"/>
       <c r="B27" s="44"/>
       <c r="C27" s="44"/>
@@ -20301,7 +20307,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A28" s="44"/>
       <c r="B28" s="44"/>
       <c r="C28" s="44"/>
@@ -20360,7 +20366,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A29" s="44"/>
       <c r="B29" s="44"/>
       <c r="C29" s="44"/>
@@ -20419,7 +20425,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A30" s="54"/>
       <c r="B30" s="54"/>
       <c r="C30" s="54"/>
@@ -20478,7 +20484,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="66"/>
       <c r="B31" s="66"/>
       <c r="C31" s="66"/>
@@ -20537,7 +20543,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A32" s="53">
         <v>0</v>
       </c>
@@ -20712,12 +20718,12 @@
   <dimension ref="A1:BC32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AU15" sqref="AU15"/>
+      <selection activeCell="AJ26" sqref="AJ26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A1" s="62"/>
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
@@ -20774,7 +20780,7 @@
       <c r="BB1" s="63"/>
       <c r="BC1" s="65"/>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A2" s="44"/>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
@@ -20833,7 +20839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A3" s="44"/>
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
@@ -20892,7 +20898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4" s="44"/>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -20951,7 +20957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" s="44"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
@@ -21010,7 +21016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" s="44"/>
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
@@ -21069,7 +21075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" s="44"/>
       <c r="B7" s="44"/>
       <c r="C7" s="44"/>
@@ -21128,7 +21134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" s="44"/>
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
@@ -21167,7 +21173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" s="44"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
@@ -21206,7 +21212,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" s="44"/>
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
@@ -21265,18 +21271,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11" s="44"/>
       <c r="B11" s="44"/>
       <c r="C11" s="44"/>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
       <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
       <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
       <c r="J11" s="45"/>
-      <c r="K11" s="44"/>
       <c r="L11" s="44"/>
       <c r="M11" s="44"/>
       <c r="N11" s="44"/>
@@ -21324,7 +21327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A12" s="44"/>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
@@ -21375,7 +21378,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A13" s="44"/>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
@@ -21442,7 +21445,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
         <v>9</v>
       </c>
@@ -21511,7 +21514,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
         <v>0</v>
       </c>
@@ -21586,9 +21589,6 @@
       <c r="AR15" s="44"/>
       <c r="AS15" s="44"/>
       <c r="AT15" s="44"/>
-      <c r="AU15" s="44" t="s">
-        <v>17</v>
-      </c>
       <c r="AV15" s="44"/>
       <c r="AW15" s="44"/>
       <c r="AX15" s="49"/>
@@ -21601,7 +21601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" s="44"/>
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
@@ -21684,7 +21684,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
       <c r="B17" s="44"/>
       <c r="C17" s="44"/>
@@ -21755,7 +21755,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A18" s="44"/>
       <c r="B18" s="44"/>
       <c r="C18" s="44"/>
@@ -21826,7 +21826,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A19" s="44"/>
       <c r="B19" s="44"/>
       <c r="C19" s="44"/>
@@ -21897,7 +21897,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
       <c r="B20" s="44"/>
       <c r="C20" s="44"/>
@@ -21925,7 +21925,6 @@
       </c>
       <c r="V20" s="44"/>
       <c r="W20" s="44"/>
-      <c r="X20" s="44"/>
       <c r="Y20" s="44"/>
       <c r="Z20" s="44"/>
       <c r="AA20" s="44"/>
@@ -21978,7 +21977,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
       <c r="B21" s="44"/>
       <c r="C21" s="44"/>
@@ -22051,7 +22050,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A22" s="44"/>
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
@@ -22096,7 +22095,6 @@
       <c r="AN22" s="48"/>
       <c r="AO22" s="44"/>
       <c r="AP22" s="44"/>
-      <c r="AQ22" s="44"/>
       <c r="AR22" s="44"/>
       <c r="AS22" s="44" t="s">
         <v>8</v>
@@ -22116,7 +22114,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A23" s="44"/>
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
@@ -22187,7 +22185,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A24" s="44"/>
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
@@ -22250,7 +22248,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A25" s="44"/>
       <c r="B25" s="44"/>
       <c r="C25" s="44"/>
@@ -22313,7 +22311,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A26" s="44"/>
       <c r="B26" s="44"/>
       <c r="C26" s="44"/>
@@ -22354,7 +22352,7 @@
       <c r="AH26" s="44"/>
       <c r="AI26" s="44"/>
       <c r="AJ26" s="44" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AK26" s="44"/>
       <c r="AL26" s="44" t="s">
@@ -22380,7 +22378,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A27" s="44"/>
       <c r="B27" s="44"/>
       <c r="C27" s="44"/>
@@ -22453,7 +22451,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A28" s="44"/>
       <c r="B28" s="44"/>
       <c r="C28" s="44"/>
@@ -22512,7 +22510,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A29" s="44"/>
       <c r="B29" s="44"/>
       <c r="C29" s="44"/>
@@ -22571,7 +22569,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A30" s="54"/>
       <c r="B30" s="54"/>
       <c r="C30" s="54"/>
@@ -22630,7 +22628,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="66"/>
       <c r="B31" s="66"/>
       <c r="C31" s="66"/>
@@ -22689,7 +22687,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A32" s="53">
         <v>0</v>
       </c>

--- a/GUI_20212202_AYZ8R9/Maps/map.xlsx
+++ b/GUI_20212202_AYZ8R9/Maps/map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\game5\GUI_20212202_AYZ8R9\Maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0933D29-9A61-48F8-9CFE-96E55A86DF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B7339E-0304-4C64-AD84-6982B66B015B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4890" yWindow="615" windowWidth="21600" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="29">
   <si>
     <t>B</t>
   </si>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>HOMERW</t>
-  </si>
-  <si>
-    <t>P1</t>
   </si>
   <si>
     <t>P2</t>
@@ -708,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382D7427-FBDE-4BF3-ADAB-21A4C37623DD}">
   <dimension ref="A1:CY47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="U26" sqref="U26"/>
+    <sheetView tabSelected="1" topLeftCell="S7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AL15" sqref="AL15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2753,25 +2750,25 @@
         <v>23</v>
       </c>
       <c r="Z19" s="44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA19" s="44" t="s">
         <v>23</v>
       </c>
       <c r="AB19" s="44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC19" s="44" t="s">
         <v>23</v>
       </c>
       <c r="AD19" s="44" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE19" s="44" t="s">
         <v>23</v>
       </c>
       <c r="AF19" s="44" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AG19" s="44" t="s">
         <v>19</v>
@@ -2791,7 +2788,7 @@
       <c r="AR19" s="44"/>
       <c r="AS19" s="44"/>
       <c r="AT19" s="44"/>
-      <c r="AU19" s="44"/>
+      <c r="AU19" s="1"/>
       <c r="AV19" s="44"/>
       <c r="AW19" s="44"/>
       <c r="AX19" s="49"/>
@@ -5839,7 +5836,7 @@
   <dimension ref="A1:BL35"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6837,10 +6834,14 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="1"/>
+      <c r="K16" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -8299,7 +8300,7 @@
   <dimension ref="A1:BL35"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10893,7 +10894,7 @@
   <dimension ref="A1:BL40"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AE13" sqref="AE13"/>
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13360,8 +13361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9BF40A-B043-489B-97BD-E120A8256F34}">
   <dimension ref="A1:CY47"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AK28" sqref="AK28"/>
+    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AA24" sqref="AA24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16008,6 +16009,9 @@
         <v>8</v>
       </c>
       <c r="Z24" s="44"/>
+      <c r="AA24" s="44" t="s">
+        <v>17</v>
+      </c>
       <c r="AB24" s="44"/>
       <c r="AD24" s="47"/>
       <c r="AE24" s="44"/>
@@ -16488,9 +16492,6 @@
       <c r="AH28" s="44"/>
       <c r="AI28" s="44"/>
       <c r="AJ28" s="44"/>
-      <c r="AK28" s="44" t="s">
-        <v>17</v>
-      </c>
       <c r="AM28" s="44"/>
       <c r="AN28" s="44"/>
       <c r="AO28" s="44"/>
@@ -20718,7 +20719,7 @@
   <dimension ref="A1:BC32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AJ26" sqref="AJ26"/>
+      <selection activeCell="AQ22" sqref="AQ22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22095,7 +22096,9 @@
       <c r="AN22" s="48"/>
       <c r="AO22" s="44"/>
       <c r="AP22" s="44"/>
-      <c r="AR22" s="44"/>
+      <c r="AQ22" s="44" t="s">
+        <v>17</v>
+      </c>
       <c r="AS22" s="44" t="s">
         <v>8</v>
       </c>
@@ -22351,9 +22354,6 @@
       <c r="AG26" s="44"/>
       <c r="AH26" s="44"/>
       <c r="AI26" s="44"/>
-      <c r="AJ26" s="44" t="s">
-        <v>17</v>
-      </c>
       <c r="AK26" s="44"/>
       <c r="AL26" s="44" t="s">
         <v>16</v>

--- a/GUI_20212202_AYZ8R9/Maps/map.xlsx
+++ b/GUI_20212202_AYZ8R9/Maps/map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\game5\GUI_20212202_AYZ8R9\Maps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krisz\OneDrive\Asztali gép\SZTGUI Féléves\GUI_20212202_AYZ8R9\GUI_20212202_AYZ8R9\Maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B7339E-0304-4C64-AD84-6982B66B015B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447FFAEC-4886-4786-A2B8-8D14EC9C0806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="615" windowWidth="21600" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="29">
   <si>
     <t>B</t>
   </si>
@@ -705,28 +705,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382D7427-FBDE-4BF3-ADAB-21A4C37623DD}">
   <dimension ref="A1:CY47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="S7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="AL15" sqref="AL15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="9" width="4.28515625" style="29"/>
-    <col min="10" max="10" width="4.28515625" style="36"/>
-    <col min="11" max="19" width="4.28515625" style="29"/>
-    <col min="20" max="20" width="4.28515625" style="37"/>
-    <col min="21" max="29" width="4.28515625" style="29"/>
-    <col min="30" max="30" width="4.28515625" style="38"/>
-    <col min="31" max="39" width="4.28515625" style="29"/>
-    <col min="40" max="40" width="4.28515625" style="39"/>
-    <col min="41" max="49" width="4.28515625" style="29"/>
-    <col min="50" max="50" width="4.28515625" style="40"/>
-    <col min="51" max="54" width="4.28515625" style="29"/>
-    <col min="55" max="55" width="4.28515625" style="43"/>
-    <col min="56" max="16384" width="4.28515625" style="29"/>
+    <col min="1" max="9" width="4.33203125" style="29"/>
+    <col min="10" max="10" width="4.33203125" style="36"/>
+    <col min="11" max="19" width="4.33203125" style="29"/>
+    <col min="20" max="20" width="4.33203125" style="37"/>
+    <col min="21" max="29" width="4.33203125" style="29"/>
+    <col min="30" max="30" width="4.33203125" style="38"/>
+    <col min="31" max="39" width="4.33203125" style="29"/>
+    <col min="40" max="40" width="4.33203125" style="39"/>
+    <col min="41" max="49" width="4.33203125" style="29"/>
+    <col min="50" max="50" width="4.33203125" style="40"/>
+    <col min="51" max="54" width="4.33203125" style="29"/>
+    <col min="55" max="55" width="4.33203125" style="43"/>
+    <col min="56" max="16384" width="4.33203125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:103" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="62"/>
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
@@ -830,7 +830,7 @@
       <c r="CX1" s="64"/>
       <c r="CY1" s="64"/>
     </row>
-    <row r="2" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44"/>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
@@ -937,7 +937,7 @@
       <c r="CX2" s="28"/>
       <c r="CY2" s="28"/>
     </row>
-    <row r="3" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="44"/>
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
@@ -1044,7 +1044,7 @@
       <c r="CX3" s="28"/>
       <c r="CY3" s="28"/>
     </row>
-    <row r="4" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="44"/>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -1151,7 +1151,7 @@
       <c r="CX4" s="28"/>
       <c r="CY4" s="28"/>
     </row>
-    <row r="5" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="44"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
@@ -1258,7 +1258,7 @@
       <c r="CX5" s="28"/>
       <c r="CY5" s="28"/>
     </row>
-    <row r="6" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="44"/>
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
@@ -1365,7 +1365,7 @@
       <c r="CX6" s="28"/>
       <c r="CY6" s="28"/>
     </row>
-    <row r="7" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="44"/>
       <c r="B7" s="44"/>
       <c r="C7" s="44"/>
@@ -1472,7 +1472,7 @@
       <c r="CX7" s="28"/>
       <c r="CY7" s="28"/>
     </row>
-    <row r="8" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="44"/>
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
@@ -1579,7 +1579,7 @@
       <c r="CX8" s="28"/>
       <c r="CY8" s="28"/>
     </row>
-    <row r="9" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="44"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
@@ -1686,7 +1686,7 @@
       <c r="CX9" s="28"/>
       <c r="CY9" s="28"/>
     </row>
-    <row r="10" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="44"/>
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
@@ -1793,7 +1793,7 @@
       <c r="CX10" s="28"/>
       <c r="CY10" s="28"/>
     </row>
-    <row r="11" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="44"/>
       <c r="B11" s="44"/>
       <c r="C11" s="44"/>
@@ -1900,7 +1900,7 @@
       <c r="CX11" s="28"/>
       <c r="CY11" s="28"/>
     </row>
-    <row r="12" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="44"/>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
@@ -2007,7 +2007,7 @@
       <c r="CX12" s="28"/>
       <c r="CY12" s="28"/>
     </row>
-    <row r="13" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="44"/>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
@@ -2114,7 +2114,7 @@
       <c r="CX13" s="28"/>
       <c r="CY13" s="28"/>
     </row>
-    <row r="14" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="44"/>
       <c r="B14" s="44"/>
       <c r="C14" s="44"/>
@@ -2221,7 +2221,7 @@
       <c r="CX14" s="28"/>
       <c r="CY14" s="28"/>
     </row>
-    <row r="15" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="44"/>
       <c r="B15" s="44"/>
       <c r="C15" s="44"/>
@@ -2328,7 +2328,7 @@
       <c r="CX15" s="28"/>
       <c r="CY15" s="28"/>
     </row>
-    <row r="16" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="44"/>
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
@@ -2457,7 +2457,7 @@
       <c r="CX16" s="28"/>
       <c r="CY16" s="28"/>
     </row>
-    <row r="17" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="44"/>
       <c r="B17" s="44"/>
       <c r="C17" s="44"/>
@@ -2586,7 +2586,7 @@
       <c r="CX17" s="28"/>
       <c r="CY17" s="28"/>
     </row>
-    <row r="18" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="44"/>
       <c r="B18" s="44"/>
       <c r="C18" s="44"/>
@@ -2715,7 +2715,7 @@
       <c r="CX18" s="28"/>
       <c r="CY18" s="28"/>
     </row>
-    <row r="19" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="44"/>
       <c r="B19" s="44"/>
       <c r="C19" s="44"/>
@@ -2850,7 +2850,7 @@
       <c r="CX19" s="28"/>
       <c r="CY19" s="28"/>
     </row>
-    <row r="20" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="44" t="s">
         <v>0</v>
       </c>
@@ -3065,7 +3065,7 @@
       <c r="CX20" s="28"/>
       <c r="CY20" s="28"/>
     </row>
-    <row r="21" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="44"/>
       <c r="B21" s="44"/>
       <c r="C21" s="44"/>
@@ -3172,7 +3172,7 @@
       <c r="CX21" s="28"/>
       <c r="CY21" s="28"/>
     </row>
-    <row r="22" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="44"/>
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
@@ -3279,7 +3279,7 @@
       <c r="CX22" s="28"/>
       <c r="CY22" s="28"/>
     </row>
-    <row r="23" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="44"/>
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
@@ -3386,7 +3386,7 @@
       <c r="CX23" s="28"/>
       <c r="CY23" s="28"/>
     </row>
-    <row r="24" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="44"/>
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
@@ -3493,7 +3493,7 @@
       <c r="CX24" s="28"/>
       <c r="CY24" s="28"/>
     </row>
-    <row r="25" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="44"/>
       <c r="B25" s="44"/>
       <c r="C25" s="44"/>
@@ -3600,7 +3600,7 @@
       <c r="CX25" s="28"/>
       <c r="CY25" s="28"/>
     </row>
-    <row r="26" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="44"/>
       <c r="B26" s="44"/>
       <c r="C26" s="44"/>
@@ -3707,7 +3707,7 @@
       <c r="CX26" s="28"/>
       <c r="CY26" s="28"/>
     </row>
-    <row r="27" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="44"/>
       <c r="B27" s="44"/>
       <c r="C27" s="44"/>
@@ -3814,7 +3814,7 @@
       <c r="CX27" s="28"/>
       <c r="CY27" s="28"/>
     </row>
-    <row r="28" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="44"/>
       <c r="B28" s="44"/>
       <c r="C28" s="44"/>
@@ -3921,7 +3921,7 @@
       <c r="CX28" s="28"/>
       <c r="CY28" s="28"/>
     </row>
-    <row r="29" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="44"/>
       <c r="B29" s="44"/>
       <c r="C29" s="44"/>
@@ -4028,7 +4028,7 @@
       <c r="CX29" s="28"/>
       <c r="CY29" s="28"/>
     </row>
-    <row r="30" spans="1:103" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:103" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="54"/>
       <c r="B30" s="54"/>
       <c r="C30" s="54"/>
@@ -4135,7 +4135,7 @@
       <c r="CX30" s="28"/>
       <c r="CY30" s="28"/>
     </row>
-    <row r="31" spans="1:103" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:103" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="BC31" s="51">
         <v>29</v>
       </c>
@@ -4188,7 +4188,7 @@
       <c r="CX31" s="67"/>
       <c r="CY31" s="67"/>
     </row>
-    <row r="32" spans="1:103" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:103" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="53">
         <v>0</v>
       </c>
@@ -4401,7 +4401,7 @@
       <c r="CX32" s="28"/>
       <c r="CY32" s="28"/>
     </row>
-    <row r="33" spans="1:103" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:103" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="28"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -4506,7 +4506,7 @@
       <c r="CX33" s="28"/>
       <c r="CY33" s="28"/>
     </row>
-    <row r="34" spans="1:103" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:103" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J34" s="30"/>
       <c r="T34" s="31"/>
       <c r="AD34" s="32"/>
@@ -4514,7 +4514,7 @@
       <c r="AX34" s="34"/>
       <c r="BC34" s="35"/>
     </row>
-    <row r="35" spans="1:103" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:103" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="28"/>
       <c r="B35" s="28"/>
       <c r="C35" s="28"/>
@@ -4619,7 +4619,7 @@
       <c r="CX35" s="28"/>
       <c r="CY35" s="28"/>
     </row>
-    <row r="36" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="28"/>
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
@@ -4724,7 +4724,7 @@
       <c r="CX36" s="28"/>
       <c r="CY36" s="28"/>
     </row>
-    <row r="37" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="28"/>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
@@ -4829,7 +4829,7 @@
       <c r="CX37" s="28"/>
       <c r="CY37" s="28"/>
     </row>
-    <row r="38" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="28"/>
       <c r="B38" s="28"/>
       <c r="C38" s="28"/>
@@ -4934,7 +4934,7 @@
       <c r="CX38" s="28"/>
       <c r="CY38" s="28"/>
     </row>
-    <row r="39" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="28"/>
       <c r="B39" s="28"/>
       <c r="C39" s="28"/>
@@ -5039,7 +5039,7 @@
       <c r="CX39" s="28"/>
       <c r="CY39" s="28"/>
     </row>
-    <row r="40" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="28"/>
       <c r="B40" s="28"/>
       <c r="C40" s="28"/>
@@ -5144,7 +5144,7 @@
       <c r="CX40" s="28"/>
       <c r="CY40" s="28"/>
     </row>
-    <row r="41" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="28"/>
       <c r="B41" s="28"/>
       <c r="C41" s="28"/>
@@ -5249,7 +5249,7 @@
       <c r="CX41" s="28"/>
       <c r="CY41" s="28"/>
     </row>
-    <row r="42" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="28"/>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
@@ -5354,7 +5354,7 @@
       <c r="CX42" s="28"/>
       <c r="CY42" s="28"/>
     </row>
-    <row r="43" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="28"/>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
@@ -5459,7 +5459,7 @@
       <c r="CX43" s="28"/>
       <c r="CY43" s="28"/>
     </row>
-    <row r="44" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
@@ -5564,7 +5564,7 @@
       <c r="CX44" s="28"/>
       <c r="CY44" s="28"/>
     </row>
-    <row r="45" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
@@ -5669,7 +5669,7 @@
       <c r="CX45" s="28"/>
       <c r="CY45" s="28"/>
     </row>
-    <row r="46" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="28"/>
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
@@ -5774,7 +5774,7 @@
       <c r="CX46" s="28"/>
       <c r="CY46" s="28"/>
     </row>
-    <row r="47" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="BC47" s="41"/>
       <c r="BD47" s="42"/>
       <c r="BE47" s="42"/>
@@ -5836,20 +5836,20 @@
   <dimension ref="A1:BL35"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="4.42578125" style="6"/>
-    <col min="20" max="20" width="4.42578125" style="8"/>
-    <col min="30" max="30" width="4.42578125" style="10"/>
-    <col min="40" max="40" width="4.42578125" style="12"/>
-    <col min="50" max="50" width="4.42578125" style="14"/>
+    <col min="10" max="10" width="4.44140625" style="6"/>
+    <col min="20" max="20" width="4.44140625" style="8"/>
+    <col min="30" max="30" width="4.44140625" style="10"/>
+    <col min="40" max="40" width="4.44140625" style="12"/>
+    <col min="50" max="50" width="4.44140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="68" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64" s="68" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -5915,7 +5915,7 @@
       <c r="BK2" s="3"/>
       <c r="BL2" s="3"/>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -5981,7 +5981,7 @@
       <c r="BK3" s="3"/>
       <c r="BL3" s="3"/>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -6047,7 +6047,7 @@
       <c r="BK4" s="3"/>
       <c r="BL4" s="3"/>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -6113,7 +6113,7 @@
       <c r="BK5" s="3"/>
       <c r="BL5" s="3"/>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -6179,7 +6179,7 @@
       <c r="BK6" s="3"/>
       <c r="BL6" s="3"/>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -6245,7 +6245,7 @@
       <c r="BK7" s="3"/>
       <c r="BL7" s="3"/>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -6311,7 +6311,7 @@
       <c r="BK8" s="3"/>
       <c r="BL8" s="3"/>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -6381,7 +6381,7 @@
       <c r="BK9" s="3"/>
       <c r="BL9" s="3"/>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -6451,7 +6451,7 @@
       <c r="BK10" s="3"/>
       <c r="BL10" s="3"/>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -6520,7 +6520,7 @@
       <c r="BK11" s="3"/>
       <c r="BL11" s="3"/>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -6590,7 +6590,7 @@
       <c r="BK12" s="3"/>
       <c r="BL12" s="3"/>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -6660,7 +6660,7 @@
       <c r="BK13" s="3"/>
       <c r="BL13" s="3"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -6760,7 +6760,7 @@
       <c r="BK14" s="3"/>
       <c r="BL14" s="3"/>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -6826,7 +6826,7 @@
       <c r="BK15" s="3"/>
       <c r="BL15" s="3"/>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -6839,9 +6839,7 @@
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -6904,7 +6902,7 @@
       <c r="BK16" s="3"/>
       <c r="BL16" s="3"/>
     </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -6996,7 +6994,7 @@
       <c r="BK17" s="3"/>
       <c r="BL17" s="3"/>
     </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -7078,7 +7076,7 @@
       <c r="BK18" s="3"/>
       <c r="BL18" s="3"/>
     </row>
-    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -7161,7 +7159,7 @@
       <c r="BK19" s="3"/>
       <c r="BL19" s="3"/>
     </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -7235,7 +7233,7 @@
       <c r="BK20" s="3"/>
       <c r="BL20" s="3"/>
     </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -7331,7 +7329,7 @@
       <c r="BK21" s="3"/>
       <c r="BL21" s="3"/>
     </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -7403,7 +7401,7 @@
       <c r="BK22" s="3"/>
       <c r="BL22" s="3"/>
     </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -7473,7 +7471,7 @@
       <c r="BK23" s="3"/>
       <c r="BL23" s="3"/>
     </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -7543,7 +7541,7 @@
       <c r="BK24" s="3"/>
       <c r="BL24" s="3"/>
     </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -7613,7 +7611,7 @@
       <c r="BK25" s="3"/>
       <c r="BL25" s="3"/>
     </row>
-    <row r="26" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -7685,7 +7683,7 @@
       <c r="BK26" s="3"/>
       <c r="BL26" s="3"/>
     </row>
-    <row r="27" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -7763,7 +7761,7 @@
       <c r="BK27" s="3"/>
       <c r="BL27" s="3"/>
     </row>
-    <row r="28" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -7828,7 +7826,7 @@
       <c r="BK28" s="3"/>
       <c r="BL28" s="3"/>
     </row>
-    <row r="29" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -7894,7 +7892,7 @@
       <c r="BK29" s="3"/>
       <c r="BL29" s="3"/>
     </row>
-    <row r="30" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -7960,7 +7958,7 @@
       <c r="BK30" s="3"/>
       <c r="BL30" s="3"/>
     </row>
-    <row r="31" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -8026,7 +8024,7 @@
       <c r="BK31" s="3"/>
       <c r="BL31" s="3"/>
     </row>
-    <row r="32" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -8092,7 +8090,7 @@
       <c r="BK32" s="3"/>
       <c r="BL32" s="3"/>
     </row>
-    <row r="33" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -8158,7 +8156,7 @@
       <c r="BK33" s="3"/>
       <c r="BL33" s="3"/>
     </row>
-    <row r="34" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -8224,7 +8222,7 @@
       <c r="BK34" s="3"/>
       <c r="BL34" s="3"/>
     </row>
-    <row r="35" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -8299,21 +8297,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8F6284-F138-4CEB-A50F-8C3CA6F27EB7}">
   <dimension ref="A1:BL35"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="4.42578125" style="6"/>
-    <col min="20" max="20" width="4.42578125" style="8"/>
-    <col min="30" max="30" width="4.42578125" style="10"/>
-    <col min="40" max="40" width="4.42578125" style="12"/>
-    <col min="50" max="50" width="4.42578125" style="14"/>
+    <col min="10" max="10" width="4.44140625" style="6"/>
+    <col min="20" max="20" width="4.44140625" style="8"/>
+    <col min="30" max="30" width="4.44140625" style="10"/>
+    <col min="40" max="40" width="4.44140625" style="12"/>
+    <col min="50" max="50" width="4.44140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="68" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64" s="68" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -8379,7 +8377,7 @@
       <c r="BK2" s="3"/>
       <c r="BL2" s="3"/>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -8445,7 +8443,7 @@
       <c r="BK3" s="3"/>
       <c r="BL3" s="3"/>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -8511,7 +8509,7 @@
       <c r="BK4" s="3"/>
       <c r="BL4" s="3"/>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -8579,7 +8577,7 @@
       <c r="BK5" s="3"/>
       <c r="BL5" s="3"/>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -8654,7 +8652,7 @@
       <c r="BK6" s="3"/>
       <c r="BL6" s="3"/>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -8750,7 +8748,7 @@
       <c r="BK7" s="3"/>
       <c r="BL7" s="3"/>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -8832,7 +8830,7 @@
       <c r="BK8" s="3"/>
       <c r="BL8" s="3"/>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
@@ -8914,7 +8912,7 @@
       <c r="BK9" s="3"/>
       <c r="BL9" s="3"/>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -8998,7 +8996,7 @@
       <c r="BK10" s="3"/>
       <c r="BL10" s="3"/>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.3">
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="5"/>
@@ -9069,7 +9067,7 @@
       <c r="BK11" s="3"/>
       <c r="BL11" s="3"/>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -9084,9 +9082,7 @@
       <c r="J12" s="5"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -9151,7 +9147,7 @@
       <c r="BK12" s="3"/>
       <c r="BL12" s="3"/>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -9247,7 +9243,7 @@
       <c r="BK13" s="3"/>
       <c r="BL13" s="3"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -9333,7 +9329,7 @@
       <c r="BK14" s="3"/>
       <c r="BL14" s="3"/>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -9413,7 +9409,7 @@
       <c r="BK15" s="3"/>
       <c r="BL15" s="3"/>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -9497,7 +9493,7 @@
       <c r="BK16" s="3"/>
       <c r="BL16" s="3"/>
     </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -9585,7 +9581,7 @@
       <c r="BK17" s="3"/>
       <c r="BL17" s="3"/>
     </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -9669,7 +9665,7 @@
       <c r="BK18" s="3"/>
       <c r="BL18" s="3"/>
     </row>
-    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -9749,7 +9745,7 @@
       <c r="BK19" s="3"/>
       <c r="BL19" s="3"/>
     </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -9832,7 +9828,7 @@
       <c r="BK20" s="3"/>
       <c r="BL20" s="3"/>
     </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -9900,7 +9896,7 @@
       <c r="BK21" s="3"/>
       <c r="BL21" s="3"/>
     </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -9974,7 +9970,7 @@
       <c r="BK22" s="3"/>
       <c r="BL22" s="3"/>
     </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -10048,7 +10044,7 @@
       <c r="BK23" s="3"/>
       <c r="BL23" s="3"/>
     </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -10124,7 +10120,7 @@
       <c r="BK24" s="3"/>
       <c r="BL24" s="3"/>
     </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -10196,7 +10192,7 @@
       <c r="BK25" s="3"/>
       <c r="BL25" s="3"/>
     </row>
-    <row r="26" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -10269,7 +10265,7 @@
       <c r="BK26" s="3"/>
       <c r="BL26" s="3"/>
     </row>
-    <row r="27" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -10357,7 +10353,7 @@
       <c r="BK27" s="3"/>
       <c r="BL27" s="3"/>
     </row>
-    <row r="28" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -10422,7 +10418,7 @@
       <c r="BK28" s="3"/>
       <c r="BL28" s="3"/>
     </row>
-    <row r="29" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -10488,7 +10484,7 @@
       <c r="BK29" s="3"/>
       <c r="BL29" s="3"/>
     </row>
-    <row r="30" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -10554,7 +10550,7 @@
       <c r="BK30" s="3"/>
       <c r="BL30" s="3"/>
     </row>
-    <row r="31" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -10620,7 +10616,7 @@
       <c r="BK31" s="3"/>
       <c r="BL31" s="3"/>
     </row>
-    <row r="32" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -10686,7 +10682,7 @@
       <c r="BK32" s="3"/>
       <c r="BL32" s="3"/>
     </row>
-    <row r="33" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -10752,7 +10748,7 @@
       <c r="BK33" s="3"/>
       <c r="BL33" s="3"/>
     </row>
-    <row r="34" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -10818,7 +10814,7 @@
       <c r="BK34" s="3"/>
       <c r="BL34" s="3"/>
     </row>
-    <row r="35" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -10893,21 +10889,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL40"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView topLeftCell="W1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="4.42578125" style="6"/>
-    <col min="20" max="20" width="4.42578125" style="8"/>
-    <col min="30" max="30" width="4.42578125" style="10"/>
-    <col min="40" max="40" width="4.42578125" style="12"/>
-    <col min="50" max="50" width="4.42578125" style="14"/>
+    <col min="10" max="10" width="4.44140625" style="6"/>
+    <col min="20" max="20" width="4.44140625" style="8"/>
+    <col min="30" max="30" width="4.44140625" style="10"/>
+    <col min="40" max="40" width="4.44140625" style="12"/>
+    <col min="50" max="50" width="4.44140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="68" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64" s="68" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -10973,7 +10969,7 @@
       <c r="BK2" s="3"/>
       <c r="BL2" s="3"/>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -11039,7 +11035,7 @@
       <c r="BK3" s="3"/>
       <c r="BL3" s="3"/>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -11105,7 +11101,7 @@
       <c r="BK4" s="3"/>
       <c r="BL4" s="3"/>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -11171,7 +11167,7 @@
       <c r="BK5" s="3"/>
       <c r="BL5" s="3"/>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -11237,7 +11233,7 @@
       <c r="BK6" s="3"/>
       <c r="BL6" s="3"/>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -11303,7 +11299,7 @@
       <c r="BK7" s="3"/>
       <c r="BL7" s="3"/>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -11369,7 +11365,7 @@
       <c r="BK8" s="3"/>
       <c r="BL8" s="3"/>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -11435,7 +11431,7 @@
       <c r="BK9" s="3"/>
       <c r="BL9" s="3"/>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -11501,7 +11497,7 @@
       <c r="BK10" s="3"/>
       <c r="BL10" s="3"/>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -11567,7 +11563,7 @@
       <c r="BK11" s="3"/>
       <c r="BL11" s="3"/>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -11633,7 +11629,7 @@
       <c r="BK12" s="3"/>
       <c r="BL12" s="3"/>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -11703,7 +11699,7 @@
       <c r="BK13" s="3"/>
       <c r="BL13" s="3"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -11797,7 +11793,7 @@
       <c r="BK14" s="3"/>
       <c r="BL14" s="3"/>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>1</v>
@@ -11875,7 +11871,7 @@
       <c r="BK15" s="3"/>
       <c r="BL15" s="3"/>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>1</v>
@@ -11952,7 +11948,7 @@
       <c r="BK16" s="3"/>
       <c r="BL16" s="3"/>
     </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -12034,7 +12030,7 @@
       <c r="BK17" s="3"/>
       <c r="BL17" s="3"/>
     </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -12055,9 +12051,6 @@
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-      <c r="P18" t="s">
-        <v>10</v>
-      </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
@@ -12115,7 +12108,7 @@
       <c r="BK18" s="3"/>
       <c r="BL18" s="3"/>
     </row>
-    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -12211,7 +12204,7 @@
       <c r="BK19" s="3"/>
       <c r="BL19" s="3"/>
     </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -12284,7 +12277,7 @@
       <c r="BK20" s="3"/>
       <c r="BL20" s="3"/>
     </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -12376,7 +12369,7 @@
       <c r="BK21" s="3"/>
       <c r="BL21" s="3"/>
     </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -12450,7 +12443,7 @@
       <c r="BK22" s="3"/>
       <c r="BL22" s="3"/>
     </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -12524,7 +12517,7 @@
       <c r="BK23" s="3"/>
       <c r="BL23" s="3"/>
     </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -12598,7 +12591,7 @@
       <c r="BK24" s="3"/>
       <c r="BL24" s="3"/>
     </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -12682,7 +12675,7 @@
       <c r="BK25" s="3"/>
       <c r="BL25" s="3"/>
     </row>
-    <row r="26" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -12748,7 +12741,7 @@
       <c r="BK26" s="3"/>
       <c r="BL26" s="3"/>
     </row>
-    <row r="27" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -12814,7 +12807,7 @@
       <c r="BK27" s="3"/>
       <c r="BL27" s="3"/>
     </row>
-    <row r="28" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -12879,7 +12872,7 @@
       <c r="BK28" s="3"/>
       <c r="BL28" s="3"/>
     </row>
-    <row r="29" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -12945,7 +12938,7 @@
       <c r="BK29" s="3"/>
       <c r="BL29" s="3"/>
     </row>
-    <row r="30" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -13011,7 +13004,7 @@
       <c r="BK30" s="3"/>
       <c r="BL30" s="3"/>
     </row>
-    <row r="31" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -13077,7 +13070,7 @@
       <c r="BK31" s="3"/>
       <c r="BL31" s="3"/>
     </row>
-    <row r="32" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -13143,7 +13136,7 @@
       <c r="BK32" s="3"/>
       <c r="BL32" s="3"/>
     </row>
-    <row r="33" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -13209,7 +13202,7 @@
       <c r="BK33" s="3"/>
       <c r="BL33" s="3"/>
     </row>
-    <row r="34" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -13275,7 +13268,7 @@
       <c r="BK34" s="3"/>
       <c r="BL34" s="3"/>
     </row>
-    <row r="35" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -13341,12 +13334,12 @@
       <c r="BK35" s="3"/>
       <c r="BL35" s="3"/>
     </row>
-    <row r="37" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:64" x14ac:dyDescent="0.3">
       <c r="AT37" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:64" x14ac:dyDescent="0.3">
       <c r="AU40" t="s">
         <v>7</v>
       </c>
@@ -13361,28 +13354,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9BF40A-B043-489B-97BD-E120A8256F34}">
   <dimension ref="A1:CY47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AA24" sqref="AA24"/>
+    <sheetView topLeftCell="T4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="9" width="4.28515625" style="29"/>
-    <col min="10" max="10" width="4.28515625" style="36"/>
-    <col min="11" max="19" width="4.28515625" style="29"/>
-    <col min="20" max="20" width="4.28515625" style="37"/>
-    <col min="21" max="29" width="4.28515625" style="29"/>
-    <col min="30" max="30" width="4.28515625" style="38"/>
-    <col min="31" max="39" width="4.28515625" style="29"/>
-    <col min="40" max="40" width="4.28515625" style="39"/>
-    <col min="41" max="49" width="4.28515625" style="29"/>
-    <col min="50" max="50" width="4.28515625" style="40"/>
-    <col min="51" max="54" width="4.28515625" style="29"/>
-    <col min="55" max="55" width="4.28515625" style="43"/>
-    <col min="56" max="16384" width="4.28515625" style="29"/>
+    <col min="1" max="9" width="4.33203125" style="29"/>
+    <col min="10" max="10" width="4.33203125" style="36"/>
+    <col min="11" max="19" width="4.33203125" style="29"/>
+    <col min="20" max="20" width="4.33203125" style="37"/>
+    <col min="21" max="29" width="4.33203125" style="29"/>
+    <col min="30" max="30" width="4.33203125" style="38"/>
+    <col min="31" max="39" width="4.33203125" style="29"/>
+    <col min="40" max="40" width="4.33203125" style="39"/>
+    <col min="41" max="49" width="4.33203125" style="29"/>
+    <col min="50" max="50" width="4.33203125" style="40"/>
+    <col min="51" max="54" width="4.33203125" style="29"/>
+    <col min="55" max="55" width="4.33203125" style="43"/>
+    <col min="56" max="16384" width="4.33203125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:103" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="62"/>
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
@@ -13486,7 +13479,7 @@
       <c r="CX1" s="64"/>
       <c r="CY1" s="64"/>
     </row>
-    <row r="2" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44"/>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
@@ -13593,7 +13586,7 @@
       <c r="CX2" s="28"/>
       <c r="CY2" s="28"/>
     </row>
-    <row r="3" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="44"/>
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
@@ -13700,7 +13693,7 @@
       <c r="CX3" s="28"/>
       <c r="CY3" s="28"/>
     </row>
-    <row r="4" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="44"/>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -13807,7 +13800,7 @@
       <c r="CX4" s="28"/>
       <c r="CY4" s="28"/>
     </row>
-    <row r="5" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="44"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
@@ -13914,7 +13907,7 @@
       <c r="CX5" s="28"/>
       <c r="CY5" s="28"/>
     </row>
-    <row r="6" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="44"/>
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
@@ -14021,7 +14014,7 @@
       <c r="CX6" s="28"/>
       <c r="CY6" s="28"/>
     </row>
-    <row r="7" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="44"/>
       <c r="B7" s="44"/>
       <c r="C7" s="44"/>
@@ -14128,7 +14121,7 @@
       <c r="CX7" s="28"/>
       <c r="CY7" s="28"/>
     </row>
-    <row r="8" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="44"/>
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
@@ -14235,7 +14228,7 @@
       <c r="CX8" s="28"/>
       <c r="CY8" s="28"/>
     </row>
-    <row r="9" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="44"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
@@ -14342,7 +14335,7 @@
       <c r="CX9" s="28"/>
       <c r="CY9" s="28"/>
     </row>
-    <row r="10" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="44"/>
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
@@ -14449,7 +14442,7 @@
       <c r="CX10" s="28"/>
       <c r="CY10" s="28"/>
     </row>
-    <row r="11" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="44"/>
       <c r="B11" s="44"/>
       <c r="C11" s="44"/>
@@ -14556,7 +14549,7 @@
       <c r="CX11" s="28"/>
       <c r="CY11" s="28"/>
     </row>
-    <row r="12" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="44"/>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
@@ -14663,7 +14656,7 @@
       <c r="CX12" s="28"/>
       <c r="CY12" s="28"/>
     </row>
-    <row r="13" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="44"/>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
@@ -14770,7 +14763,7 @@
       <c r="CX13" s="28"/>
       <c r="CY13" s="28"/>
     </row>
-    <row r="14" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="44"/>
       <c r="B14" s="44"/>
       <c r="C14" s="44"/>
@@ -14877,7 +14870,7 @@
       <c r="CX14" s="28"/>
       <c r="CY14" s="28"/>
     </row>
-    <row r="15" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="44"/>
       <c r="B15" s="44"/>
       <c r="C15" s="44"/>
@@ -14998,7 +14991,7 @@
       <c r="CX15" s="28"/>
       <c r="CY15" s="28"/>
     </row>
-    <row r="16" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="44"/>
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
@@ -15113,7 +15106,7 @@
       <c r="CX16" s="28"/>
       <c r="CY16" s="28"/>
     </row>
-    <row r="17" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="44"/>
       <c r="B17" s="44"/>
       <c r="C17" s="44"/>
@@ -15232,7 +15225,7 @@
       <c r="CX17" s="28"/>
       <c r="CY17" s="28"/>
     </row>
-    <row r="18" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="44"/>
       <c r="B18" s="44"/>
       <c r="C18" s="44"/>
@@ -15354,14 +15347,12 @@
       <c r="CX18" s="28"/>
       <c r="CY18" s="28"/>
     </row>
-    <row r="19" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="44"/>
       <c r="B19" s="44"/>
       <c r="C19" s="44"/>
       <c r="D19" s="44"/>
-      <c r="E19" s="44" t="s">
-        <v>10</v>
-      </c>
+      <c r="E19" s="44"/>
       <c r="F19" s="44" t="s">
         <v>5</v>
       </c>
@@ -15497,7 +15488,7 @@
       <c r="CX19" s="28"/>
       <c r="CY19" s="28"/>
     </row>
-    <row r="20" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="44" t="s">
         <v>9</v>
       </c>
@@ -15622,7 +15613,7 @@
       <c r="CX20" s="28"/>
       <c r="CY20" s="28"/>
     </row>
-    <row r="21" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="44" t="s">
         <v>0</v>
       </c>
@@ -15738,7 +15729,7 @@
       <c r="CX21" s="28"/>
       <c r="CY21" s="28"/>
     </row>
-    <row r="22" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="44"/>
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
@@ -15867,7 +15858,7 @@
       <c r="CX22" s="28"/>
       <c r="CY22" s="28"/>
     </row>
-    <row r="23" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="44"/>
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
@@ -15978,7 +15969,7 @@
       <c r="CX23" s="28"/>
       <c r="CY23" s="28"/>
     </row>
-    <row r="24" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="44"/>
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
@@ -16090,7 +16081,7 @@
       <c r="CX24" s="28"/>
       <c r="CY24" s="28"/>
     </row>
-    <row r="25" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="44"/>
       <c r="B25" s="44"/>
       <c r="C25" s="44"/>
@@ -16213,7 +16204,7 @@
       <c r="CX25" s="28"/>
       <c r="CY25" s="28"/>
     </row>
-    <row r="26" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="44"/>
       <c r="B26" s="44"/>
       <c r="C26" s="44"/>
@@ -16342,7 +16333,7 @@
       <c r="CX26" s="28"/>
       <c r="CY26" s="28"/>
     </row>
-    <row r="27" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="44"/>
       <c r="B27" s="44"/>
       <c r="C27" s="44"/>
@@ -16453,7 +16444,7 @@
       <c r="CX27" s="28"/>
       <c r="CY27" s="28"/>
     </row>
-    <row r="28" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="44"/>
       <c r="B28" s="44"/>
       <c r="C28" s="44"/>
@@ -16562,7 +16553,7 @@
       <c r="CX28" s="28"/>
       <c r="CY28" s="28"/>
     </row>
-    <row r="29" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="44"/>
       <c r="B29" s="44"/>
       <c r="C29" s="44"/>
@@ -16687,7 +16678,7 @@
       <c r="CX29" s="28"/>
       <c r="CY29" s="28"/>
     </row>
-    <row r="30" spans="1:103" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:103" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="54"/>
       <c r="B30" s="54"/>
       <c r="C30" s="54"/>
@@ -16794,7 +16785,7 @@
       <c r="CX30" s="28"/>
       <c r="CY30" s="28"/>
     </row>
-    <row r="31" spans="1:103" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:103" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="BC31" s="51">
         <v>29</v>
       </c>
@@ -16847,7 +16838,7 @@
       <c r="CX31" s="67"/>
       <c r="CY31" s="67"/>
     </row>
-    <row r="32" spans="1:103" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:103" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="53">
         <v>0</v>
       </c>
@@ -17060,7 +17051,7 @@
       <c r="CX32" s="28"/>
       <c r="CY32" s="28"/>
     </row>
-    <row r="33" spans="1:103" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:103" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="28"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -17165,7 +17156,7 @@
       <c r="CX33" s="28"/>
       <c r="CY33" s="28"/>
     </row>
-    <row r="34" spans="1:103" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:103" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J34" s="30"/>
       <c r="T34" s="31"/>
       <c r="AD34" s="32"/>
@@ -17173,7 +17164,7 @@
       <c r="AX34" s="34"/>
       <c r="BC34" s="35"/>
     </row>
-    <row r="35" spans="1:103" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:103" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="28"/>
       <c r="B35" s="28"/>
       <c r="C35" s="28"/>
@@ -17278,7 +17269,7 @@
       <c r="CX35" s="28"/>
       <c r="CY35" s="28"/>
     </row>
-    <row r="36" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="28"/>
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
@@ -17383,7 +17374,7 @@
       <c r="CX36" s="28"/>
       <c r="CY36" s="28"/>
     </row>
-    <row r="37" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="28"/>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
@@ -17488,7 +17479,7 @@
       <c r="CX37" s="28"/>
       <c r="CY37" s="28"/>
     </row>
-    <row r="38" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="28"/>
       <c r="B38" s="28"/>
       <c r="C38" s="28"/>
@@ -17593,7 +17584,7 @@
       <c r="CX38" s="28"/>
       <c r="CY38" s="28"/>
     </row>
-    <row r="39" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="28"/>
       <c r="B39" s="28"/>
       <c r="C39" s="28"/>
@@ -17698,7 +17689,7 @@
       <c r="CX39" s="28"/>
       <c r="CY39" s="28"/>
     </row>
-    <row r="40" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="28"/>
       <c r="B40" s="28"/>
       <c r="C40" s="28"/>
@@ -17803,7 +17794,7 @@
       <c r="CX40" s="28"/>
       <c r="CY40" s="28"/>
     </row>
-    <row r="41" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="28"/>
       <c r="B41" s="28"/>
       <c r="C41" s="28"/>
@@ -17908,7 +17899,7 @@
       <c r="CX41" s="28"/>
       <c r="CY41" s="28"/>
     </row>
-    <row r="42" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="28"/>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
@@ -18013,7 +18004,7 @@
       <c r="CX42" s="28"/>
       <c r="CY42" s="28"/>
     </row>
-    <row r="43" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="28"/>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
@@ -18118,7 +18109,7 @@
       <c r="CX43" s="28"/>
       <c r="CY43" s="28"/>
     </row>
-    <row r="44" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
@@ -18223,7 +18214,7 @@
       <c r="CX44" s="28"/>
       <c r="CY44" s="28"/>
     </row>
-    <row r="45" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
@@ -18328,7 +18319,7 @@
       <c r="CX45" s="28"/>
       <c r="CY45" s="28"/>
     </row>
-    <row r="46" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="28"/>
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
@@ -18433,7 +18424,7 @@
       <c r="CX46" s="28"/>
       <c r="CY46" s="28"/>
     </row>
-    <row r="47" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="BC47" s="41"/>
       <c r="BD47" s="42"/>
       <c r="BE47" s="42"/>
@@ -18494,12 +18485,12 @@
   <dimension ref="A1:BC32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AL12" sqref="AL12"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A1" s="62"/>
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
@@ -18556,7 +18547,7 @@
       <c r="BB1" s="63"/>
       <c r="BC1" s="65"/>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A2" s="44"/>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
@@ -18615,7 +18606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A3" s="44"/>
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
@@ -18674,7 +18665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A4" s="44"/>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -18733,7 +18724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A5" s="44"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
@@ -18792,7 +18783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A6" s="44"/>
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
@@ -18851,7 +18842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A7" s="44"/>
       <c r="B7" s="44"/>
       <c r="C7" s="44"/>
@@ -18909,7 +18900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A8" s="44"/>
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
@@ -18990,7 +18981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A9" s="44"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
@@ -19071,7 +19062,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A10" s="44"/>
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
@@ -19146,7 +19137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A11" s="44"/>
       <c r="B11" s="44"/>
       <c r="C11" s="44"/>
@@ -19221,7 +19212,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A12" s="44"/>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
@@ -19298,7 +19289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A13" s="44"/>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
@@ -19379,7 +19370,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A14" s="44"/>
       <c r="B14" s="44"/>
       <c r="C14" s="44"/>
@@ -19448,7 +19439,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A15" s="44"/>
       <c r="B15" s="44"/>
       <c r="C15" s="44"/>
@@ -19521,7 +19512,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A16" s="44"/>
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
@@ -19584,7 +19575,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A17" s="44"/>
       <c r="B17" s="44"/>
       <c r="C17" s="44"/>
@@ -19647,7 +19638,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A18" s="44"/>
       <c r="B18" s="44"/>
       <c r="C18" s="44"/>
@@ -19711,7 +19702,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A19" s="44" t="s">
         <v>0</v>
       </c>
@@ -19802,7 +19793,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A20" s="44"/>
       <c r="B20" s="44"/>
       <c r="C20" s="44"/>
@@ -19863,7 +19854,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A21" s="44"/>
       <c r="B21" s="44"/>
       <c r="C21" s="44"/>
@@ -19924,7 +19915,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A22" s="44"/>
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
@@ -19985,7 +19976,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A23" s="44"/>
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
@@ -20046,7 +20037,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A24" s="44"/>
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
@@ -20107,16 +20098,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A25" s="44" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="44"/>
       <c r="C25" s="44"/>
       <c r="D25" s="44"/>
-      <c r="E25" s="44" t="s">
-        <v>10</v>
-      </c>
+      <c r="E25" s="44"/>
       <c r="F25" s="44"/>
       <c r="G25" s="44"/>
       <c r="H25" s="44"/>
@@ -20172,7 +20161,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A26" s="44" t="s">
         <v>15</v>
       </c>
@@ -20249,7 +20238,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A27" s="44"/>
       <c r="B27" s="44"/>
       <c r="C27" s="44"/>
@@ -20308,7 +20297,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A28" s="44"/>
       <c r="B28" s="44"/>
       <c r="C28" s="44"/>
@@ -20367,7 +20356,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A29" s="44"/>
       <c r="B29" s="44"/>
       <c r="C29" s="44"/>
@@ -20426,7 +20415,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A30" s="54"/>
       <c r="B30" s="54"/>
       <c r="C30" s="54"/>
@@ -20485,7 +20474,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="66"/>
       <c r="B31" s="66"/>
       <c r="C31" s="66"/>
@@ -20544,7 +20533,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A32" s="53">
         <v>0</v>
       </c>
@@ -20722,9 +20711,9 @@
       <selection activeCell="AQ22" sqref="AQ22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A1" s="62"/>
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
@@ -20781,7 +20770,7 @@
       <c r="BB1" s="63"/>
       <c r="BC1" s="65"/>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A2" s="44"/>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
@@ -20840,7 +20829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A3" s="44"/>
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
@@ -20899,7 +20888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A4" s="44"/>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -20958,7 +20947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A5" s="44"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
@@ -21017,7 +21006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A6" s="44"/>
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
@@ -21076,7 +21065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A7" s="44"/>
       <c r="B7" s="44"/>
       <c r="C7" s="44"/>
@@ -21135,7 +21124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A8" s="44"/>
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
@@ -21174,7 +21163,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A9" s="44"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
@@ -21213,7 +21202,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A10" s="44"/>
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
@@ -21272,7 +21261,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A11" s="44"/>
       <c r="B11" s="44"/>
       <c r="C11" s="44"/>
@@ -21328,7 +21317,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A12" s="44"/>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
@@ -21379,7 +21368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A13" s="44"/>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
@@ -21446,7 +21435,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A14" s="44" t="s">
         <v>9</v>
       </c>
@@ -21515,7 +21504,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A15" s="44" t="s">
         <v>0</v>
       </c>
@@ -21602,7 +21591,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A16" s="44"/>
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
@@ -21685,7 +21674,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A17" s="44"/>
       <c r="B17" s="44"/>
       <c r="C17" s="44"/>
@@ -21756,7 +21745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A18" s="44"/>
       <c r="B18" s="44"/>
       <c r="C18" s="44"/>
@@ -21827,7 +21816,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A19" s="44"/>
       <c r="B19" s="44"/>
       <c r="C19" s="44"/>
@@ -21898,7 +21887,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A20" s="44"/>
       <c r="B20" s="44"/>
       <c r="C20" s="44"/>
@@ -21978,7 +21967,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A21" s="44"/>
       <c r="B21" s="44"/>
       <c r="C21" s="44"/>
@@ -22051,7 +22040,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A22" s="44"/>
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
@@ -22117,7 +22106,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A23" s="44"/>
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
@@ -22188,7 +22177,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A24" s="44"/>
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
@@ -22251,7 +22240,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A25" s="44"/>
       <c r="B25" s="44"/>
       <c r="C25" s="44"/>
@@ -22314,7 +22303,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A26" s="44"/>
       <c r="B26" s="44"/>
       <c r="C26" s="44"/>
@@ -22378,7 +22367,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A27" s="44"/>
       <c r="B27" s="44"/>
       <c r="C27" s="44"/>
@@ -22451,7 +22440,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A28" s="44"/>
       <c r="B28" s="44"/>
       <c r="C28" s="44"/>
@@ -22510,7 +22499,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A29" s="44"/>
       <c r="B29" s="44"/>
       <c r="C29" s="44"/>
@@ -22569,7 +22558,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A30" s="54"/>
       <c r="B30" s="54"/>
       <c r="C30" s="54"/>
@@ -22628,7 +22617,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="66"/>
       <c r="B31" s="66"/>
       <c r="C31" s="66"/>
@@ -22687,7 +22676,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A32" s="53">
         <v>0</v>
       </c>

--- a/GUI_20212202_AYZ8R9/Maps/map.xlsx
+++ b/GUI_20212202_AYZ8R9/Maps/map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krisz\OneDrive\Asztali gép\SZTGUI Féléves\GUI_20212202_AYZ8R9\GUI_20212202_AYZ8R9\Maps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\game6\GUI_20212202_AYZ8R9\Maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447FFAEC-4886-4786-A2B8-8D14EC9C0806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E621FE3-E569-48F3-8092-8B7CDE800310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="29">
   <si>
     <t>B</t>
   </si>
@@ -706,27 +706,27 @@
   <dimension ref="A1:CY47"/>
   <sheetViews>
     <sheetView topLeftCell="S7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AL15" sqref="AL15"/>
+      <selection activeCell="AG19" sqref="AG19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="4.33203125" style="29"/>
-    <col min="10" max="10" width="4.33203125" style="36"/>
-    <col min="11" max="19" width="4.33203125" style="29"/>
-    <col min="20" max="20" width="4.33203125" style="37"/>
-    <col min="21" max="29" width="4.33203125" style="29"/>
-    <col min="30" max="30" width="4.33203125" style="38"/>
-    <col min="31" max="39" width="4.33203125" style="29"/>
-    <col min="40" max="40" width="4.33203125" style="39"/>
-    <col min="41" max="49" width="4.33203125" style="29"/>
-    <col min="50" max="50" width="4.33203125" style="40"/>
-    <col min="51" max="54" width="4.33203125" style="29"/>
-    <col min="55" max="55" width="4.33203125" style="43"/>
-    <col min="56" max="16384" width="4.33203125" style="29"/>
+    <col min="1" max="9" width="4.28515625" style="29"/>
+    <col min="10" max="10" width="4.28515625" style="36"/>
+    <col min="11" max="19" width="4.28515625" style="29"/>
+    <col min="20" max="20" width="4.28515625" style="37"/>
+    <col min="21" max="29" width="4.28515625" style="29"/>
+    <col min="30" max="30" width="4.28515625" style="38"/>
+    <col min="31" max="39" width="4.28515625" style="29"/>
+    <col min="40" max="40" width="4.28515625" style="39"/>
+    <col min="41" max="49" width="4.28515625" style="29"/>
+    <col min="50" max="50" width="4.28515625" style="40"/>
+    <col min="51" max="54" width="4.28515625" style="29"/>
+    <col min="55" max="55" width="4.28515625" style="43"/>
+    <col min="56" max="16384" width="4.28515625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:103" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="62"/>
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
@@ -830,7 +830,7 @@
       <c r="CX1" s="64"/>
       <c r="CY1" s="64"/>
     </row>
-    <row r="2" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="44"/>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
@@ -937,7 +937,7 @@
       <c r="CX2" s="28"/>
       <c r="CY2" s="28"/>
     </row>
-    <row r="3" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="44"/>
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
@@ -1044,7 +1044,7 @@
       <c r="CX3" s="28"/>
       <c r="CY3" s="28"/>
     </row>
-    <row r="4" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="44"/>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -1151,7 +1151,7 @@
       <c r="CX4" s="28"/>
       <c r="CY4" s="28"/>
     </row>
-    <row r="5" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="44"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
@@ -1258,7 +1258,7 @@
       <c r="CX5" s="28"/>
       <c r="CY5" s="28"/>
     </row>
-    <row r="6" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="44"/>
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
@@ -1365,7 +1365,7 @@
       <c r="CX6" s="28"/>
       <c r="CY6" s="28"/>
     </row>
-    <row r="7" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="44"/>
       <c r="B7" s="44"/>
       <c r="C7" s="44"/>
@@ -1472,7 +1472,7 @@
       <c r="CX7" s="28"/>
       <c r="CY7" s="28"/>
     </row>
-    <row r="8" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="44"/>
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
@@ -1579,7 +1579,7 @@
       <c r="CX8" s="28"/>
       <c r="CY8" s="28"/>
     </row>
-    <row r="9" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="44"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
@@ -1686,7 +1686,7 @@
       <c r="CX9" s="28"/>
       <c r="CY9" s="28"/>
     </row>
-    <row r="10" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="44"/>
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
@@ -1793,7 +1793,7 @@
       <c r="CX10" s="28"/>
       <c r="CY10" s="28"/>
     </row>
-    <row r="11" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="44"/>
       <c r="B11" s="44"/>
       <c r="C11" s="44"/>
@@ -1900,7 +1900,7 @@
       <c r="CX11" s="28"/>
       <c r="CY11" s="28"/>
     </row>
-    <row r="12" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="44"/>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
@@ -2007,7 +2007,7 @@
       <c r="CX12" s="28"/>
       <c r="CY12" s="28"/>
     </row>
-    <row r="13" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="44"/>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
@@ -2114,7 +2114,7 @@
       <c r="CX13" s="28"/>
       <c r="CY13" s="28"/>
     </row>
-    <row r="14" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" s="44"/>
       <c r="C14" s="44"/>
@@ -2221,7 +2221,7 @@
       <c r="CX14" s="28"/>
       <c r="CY14" s="28"/>
     </row>
-    <row r="15" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="44"/>
       <c r="B15" s="44"/>
       <c r="C15" s="44"/>
@@ -2328,7 +2328,7 @@
       <c r="CX15" s="28"/>
       <c r="CY15" s="28"/>
     </row>
-    <row r="16" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="44"/>
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
@@ -2457,7 +2457,7 @@
       <c r="CX16" s="28"/>
       <c r="CY16" s="28"/>
     </row>
-    <row r="17" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
       <c r="B17" s="44"/>
       <c r="C17" s="44"/>
@@ -2586,7 +2586,7 @@
       <c r="CX17" s="28"/>
       <c r="CY17" s="28"/>
     </row>
-    <row r="18" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="44"/>
       <c r="B18" s="44"/>
       <c r="C18" s="44"/>
@@ -2715,7 +2715,7 @@
       <c r="CX18" s="28"/>
       <c r="CY18" s="28"/>
     </row>
-    <row r="19" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="44"/>
       <c r="B19" s="44"/>
       <c r="C19" s="44"/>
@@ -2850,7 +2850,7 @@
       <c r="CX19" s="28"/>
       <c r="CY19" s="28"/>
     </row>
-    <row r="20" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="s">
         <v>0</v>
       </c>
@@ -3065,7 +3065,7 @@
       <c r="CX20" s="28"/>
       <c r="CY20" s="28"/>
     </row>
-    <row r="21" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
       <c r="B21" s="44"/>
       <c r="C21" s="44"/>
@@ -3172,7 +3172,7 @@
       <c r="CX21" s="28"/>
       <c r="CY21" s="28"/>
     </row>
-    <row r="22" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="44"/>
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
@@ -3279,7 +3279,7 @@
       <c r="CX22" s="28"/>
       <c r="CY22" s="28"/>
     </row>
-    <row r="23" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="44"/>
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
@@ -3386,7 +3386,7 @@
       <c r="CX23" s="28"/>
       <c r="CY23" s="28"/>
     </row>
-    <row r="24" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="44"/>
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
@@ -3493,7 +3493,7 @@
       <c r="CX24" s="28"/>
       <c r="CY24" s="28"/>
     </row>
-    <row r="25" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="44"/>
       <c r="B25" s="44"/>
       <c r="C25" s="44"/>
@@ -3600,7 +3600,7 @@
       <c r="CX25" s="28"/>
       <c r="CY25" s="28"/>
     </row>
-    <row r="26" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="44"/>
       <c r="B26" s="44"/>
       <c r="C26" s="44"/>
@@ -3707,7 +3707,7 @@
       <c r="CX26" s="28"/>
       <c r="CY26" s="28"/>
     </row>
-    <row r="27" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="44"/>
       <c r="B27" s="44"/>
       <c r="C27" s="44"/>
@@ -3814,7 +3814,7 @@
       <c r="CX27" s="28"/>
       <c r="CY27" s="28"/>
     </row>
-    <row r="28" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="44"/>
       <c r="B28" s="44"/>
       <c r="C28" s="44"/>
@@ -3921,7 +3921,7 @@
       <c r="CX28" s="28"/>
       <c r="CY28" s="28"/>
     </row>
-    <row r="29" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="44"/>
       <c r="B29" s="44"/>
       <c r="C29" s="44"/>
@@ -4028,7 +4028,7 @@
       <c r="CX29" s="28"/>
       <c r="CY29" s="28"/>
     </row>
-    <row r="30" spans="1:103" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:103" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="54"/>
       <c r="B30" s="54"/>
       <c r="C30" s="54"/>
@@ -4135,7 +4135,7 @@
       <c r="CX30" s="28"/>
       <c r="CY30" s="28"/>
     </row>
-    <row r="31" spans="1:103" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:103" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC31" s="51">
         <v>29</v>
       </c>
@@ -4188,7 +4188,7 @@
       <c r="CX31" s="67"/>
       <c r="CY31" s="67"/>
     </row>
-    <row r="32" spans="1:103" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:103" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="53">
         <v>0</v>
       </c>
@@ -4401,7 +4401,7 @@
       <c r="CX32" s="28"/>
       <c r="CY32" s="28"/>
     </row>
-    <row r="33" spans="1:103" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:103" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="28"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -4506,7 +4506,7 @@
       <c r="CX33" s="28"/>
       <c r="CY33" s="28"/>
     </row>
-    <row r="34" spans="1:103" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:103" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J34" s="30"/>
       <c r="T34" s="31"/>
       <c r="AD34" s="32"/>
@@ -4514,7 +4514,7 @@
       <c r="AX34" s="34"/>
       <c r="BC34" s="35"/>
     </row>
-    <row r="35" spans="1:103" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:103" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="28"/>
       <c r="B35" s="28"/>
       <c r="C35" s="28"/>
@@ -4619,7 +4619,7 @@
       <c r="CX35" s="28"/>
       <c r="CY35" s="28"/>
     </row>
-    <row r="36" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="28"/>
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
@@ -4724,7 +4724,7 @@
       <c r="CX36" s="28"/>
       <c r="CY36" s="28"/>
     </row>
-    <row r="37" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="28"/>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
@@ -4829,7 +4829,7 @@
       <c r="CX37" s="28"/>
       <c r="CY37" s="28"/>
     </row>
-    <row r="38" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="28"/>
       <c r="B38" s="28"/>
       <c r="C38" s="28"/>
@@ -4934,7 +4934,7 @@
       <c r="CX38" s="28"/>
       <c r="CY38" s="28"/>
     </row>
-    <row r="39" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="28"/>
       <c r="B39" s="28"/>
       <c r="C39" s="28"/>
@@ -5039,7 +5039,7 @@
       <c r="CX39" s="28"/>
       <c r="CY39" s="28"/>
     </row>
-    <row r="40" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="28"/>
       <c r="B40" s="28"/>
       <c r="C40" s="28"/>
@@ -5144,7 +5144,7 @@
       <c r="CX40" s="28"/>
       <c r="CY40" s="28"/>
     </row>
-    <row r="41" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="28"/>
       <c r="B41" s="28"/>
       <c r="C41" s="28"/>
@@ -5249,7 +5249,7 @@
       <c r="CX41" s="28"/>
       <c r="CY41" s="28"/>
     </row>
-    <row r="42" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="28"/>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
@@ -5354,7 +5354,7 @@
       <c r="CX42" s="28"/>
       <c r="CY42" s="28"/>
     </row>
-    <row r="43" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="28"/>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
@@ -5459,7 +5459,7 @@
       <c r="CX43" s="28"/>
       <c r="CY43" s="28"/>
     </row>
-    <row r="44" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
@@ -5564,7 +5564,7 @@
       <c r="CX44" s="28"/>
       <c r="CY44" s="28"/>
     </row>
-    <row r="45" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
@@ -5669,7 +5669,7 @@
       <c r="CX45" s="28"/>
       <c r="CY45" s="28"/>
     </row>
-    <row r="46" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="28"/>
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
@@ -5774,7 +5774,7 @@
       <c r="CX46" s="28"/>
       <c r="CY46" s="28"/>
     </row>
-    <row r="47" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC47" s="41"/>
       <c r="BD47" s="42"/>
       <c r="BE47" s="42"/>
@@ -5835,21 +5835,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32EA023-0038-482A-B633-0391C0CB8525}">
   <dimension ref="A1:BL35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AH25" sqref="AH25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="4.44140625" style="6"/>
-    <col min="20" max="20" width="4.44140625" style="8"/>
-    <col min="30" max="30" width="4.44140625" style="10"/>
-    <col min="40" max="40" width="4.44140625" style="12"/>
-    <col min="50" max="50" width="4.44140625" style="14"/>
+    <col min="10" max="10" width="4.42578125" style="6"/>
+    <col min="20" max="20" width="4.42578125" style="8"/>
+    <col min="30" max="30" width="4.42578125" style="10"/>
+    <col min="40" max="40" width="4.42578125" style="12"/>
+    <col min="50" max="50" width="4.42578125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="68" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:64" s="68" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -5915,7 +5915,7 @@
       <c r="BK2" s="3"/>
       <c r="BL2" s="3"/>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -5981,7 +5981,7 @@
       <c r="BK3" s="3"/>
       <c r="BL3" s="3"/>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -6047,7 +6047,7 @@
       <c r="BK4" s="3"/>
       <c r="BL4" s="3"/>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -6113,7 +6113,7 @@
       <c r="BK5" s="3"/>
       <c r="BL5" s="3"/>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -6179,7 +6179,7 @@
       <c r="BK6" s="3"/>
       <c r="BL6" s="3"/>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -6245,7 +6245,7 @@
       <c r="BK7" s="3"/>
       <c r="BL7" s="3"/>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -6311,7 +6311,7 @@
       <c r="BK8" s="3"/>
       <c r="BL8" s="3"/>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -6381,7 +6381,7 @@
       <c r="BK9" s="3"/>
       <c r="BL9" s="3"/>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -6451,7 +6451,7 @@
       <c r="BK10" s="3"/>
       <c r="BL10" s="3"/>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -6520,7 +6520,7 @@
       <c r="BK11" s="3"/>
       <c r="BL11" s="3"/>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -6590,7 +6590,7 @@
       <c r="BK12" s="3"/>
       <c r="BL12" s="3"/>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -6660,7 +6660,7 @@
       <c r="BK13" s="3"/>
       <c r="BL13" s="3"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -6760,7 +6760,7 @@
       <c r="BK14" s="3"/>
       <c r="BL14" s="3"/>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -6826,7 +6826,7 @@
       <c r="BK15" s="3"/>
       <c r="BL15" s="3"/>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -6834,9 +6834,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="5"/>
       <c r="K16" s="1"/>
@@ -6902,7 +6900,7 @@
       <c r="BK16" s="3"/>
       <c r="BL16" s="3"/>
     </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -6994,7 +6992,7 @@
       <c r="BK17" s="3"/>
       <c r="BL17" s="3"/>
     </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -7076,7 +7074,7 @@
       <c r="BK18" s="3"/>
       <c r="BL18" s="3"/>
     </row>
-    <row r="19" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -7159,7 +7157,7 @@
       <c r="BK19" s="3"/>
       <c r="BL19" s="3"/>
     </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -7233,7 +7231,7 @@
       <c r="BK20" s="3"/>
       <c r="BL20" s="3"/>
     </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -7329,7 +7327,7 @@
       <c r="BK21" s="3"/>
       <c r="BL21" s="3"/>
     </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -7401,7 +7399,7 @@
       <c r="BK22" s="3"/>
       <c r="BL22" s="3"/>
     </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -7471,7 +7469,7 @@
       <c r="BK23" s="3"/>
       <c r="BL23" s="3"/>
     </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -7541,7 +7539,7 @@
       <c r="BK24" s="3"/>
       <c r="BL24" s="3"/>
     </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -7611,7 +7609,7 @@
       <c r="BK25" s="3"/>
       <c r="BL25" s="3"/>
     </row>
-    <row r="26" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -7683,7 +7681,7 @@
       <c r="BK26" s="3"/>
       <c r="BL26" s="3"/>
     </row>
-    <row r="27" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -7761,7 +7759,7 @@
       <c r="BK27" s="3"/>
       <c r="BL27" s="3"/>
     </row>
-    <row r="28" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -7826,7 +7824,7 @@
       <c r="BK28" s="3"/>
       <c r="BL28" s="3"/>
     </row>
-    <row r="29" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -7892,7 +7890,7 @@
       <c r="BK29" s="3"/>
       <c r="BL29" s="3"/>
     </row>
-    <row r="30" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -7958,7 +7956,7 @@
       <c r="BK30" s="3"/>
       <c r="BL30" s="3"/>
     </row>
-    <row r="31" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -8024,7 +8022,7 @@
       <c r="BK31" s="3"/>
       <c r="BL31" s="3"/>
     </row>
-    <row r="32" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -8090,7 +8088,7 @@
       <c r="BK32" s="3"/>
       <c r="BL32" s="3"/>
     </row>
-    <row r="33" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -8156,7 +8154,7 @@
       <c r="BK33" s="3"/>
       <c r="BL33" s="3"/>
     </row>
-    <row r="34" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -8222,7 +8220,7 @@
       <c r="BK34" s="3"/>
       <c r="BL34" s="3"/>
     </row>
-    <row r="35" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -8297,21 +8295,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8F6284-F138-4CEB-A50F-8C3CA6F27EB7}">
   <dimension ref="A1:BL35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="4.44140625" style="6"/>
-    <col min="20" max="20" width="4.44140625" style="8"/>
-    <col min="30" max="30" width="4.44140625" style="10"/>
-    <col min="40" max="40" width="4.44140625" style="12"/>
-    <col min="50" max="50" width="4.44140625" style="14"/>
+    <col min="10" max="10" width="4.42578125" style="6"/>
+    <col min="20" max="20" width="4.42578125" style="8"/>
+    <col min="30" max="30" width="4.42578125" style="10"/>
+    <col min="40" max="40" width="4.42578125" style="12"/>
+    <col min="50" max="50" width="4.42578125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="68" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:64" s="68" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -8377,7 +8375,7 @@
       <c r="BK2" s="3"/>
       <c r="BL2" s="3"/>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -8443,7 +8441,7 @@
       <c r="BK3" s="3"/>
       <c r="BL3" s="3"/>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -8509,7 +8507,7 @@
       <c r="BK4" s="3"/>
       <c r="BL4" s="3"/>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -8577,7 +8575,7 @@
       <c r="BK5" s="3"/>
       <c r="BL5" s="3"/>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -8652,7 +8650,7 @@
       <c r="BK6" s="3"/>
       <c r="BL6" s="3"/>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -8748,7 +8746,7 @@
       <c r="BK7" s="3"/>
       <c r="BL7" s="3"/>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -8830,7 +8828,7 @@
       <c r="BK8" s="3"/>
       <c r="BL8" s="3"/>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
@@ -8912,7 +8910,7 @@
       <c r="BK9" s="3"/>
       <c r="BL9" s="3"/>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -8996,7 +8994,7 @@
       <c r="BK10" s="3"/>
       <c r="BL10" s="3"/>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="5"/>
@@ -9067,7 +9065,7 @@
       <c r="BK11" s="3"/>
       <c r="BL11" s="3"/>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -9075,9 +9073,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="5"/>
       <c r="K12" s="1"/>
@@ -9147,7 +9143,7 @@
       <c r="BK12" s="3"/>
       <c r="BL12" s="3"/>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -9243,7 +9239,7 @@
       <c r="BK13" s="3"/>
       <c r="BL13" s="3"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -9329,7 +9325,7 @@
       <c r="BK14" s="3"/>
       <c r="BL14" s="3"/>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -9409,7 +9405,7 @@
       <c r="BK15" s="3"/>
       <c r="BL15" s="3"/>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -9493,7 +9489,7 @@
       <c r="BK16" s="3"/>
       <c r="BL16" s="3"/>
     </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -9581,7 +9577,7 @@
       <c r="BK17" s="3"/>
       <c r="BL17" s="3"/>
     </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -9665,7 +9661,7 @@
       <c r="BK18" s="3"/>
       <c r="BL18" s="3"/>
     </row>
-    <row r="19" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -9745,7 +9741,7 @@
       <c r="BK19" s="3"/>
       <c r="BL19" s="3"/>
     </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -9828,7 +9824,7 @@
       <c r="BK20" s="3"/>
       <c r="BL20" s="3"/>
     </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -9896,7 +9892,7 @@
       <c r="BK21" s="3"/>
       <c r="BL21" s="3"/>
     </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -9970,7 +9966,7 @@
       <c r="BK22" s="3"/>
       <c r="BL22" s="3"/>
     </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -10044,7 +10040,7 @@
       <c r="BK23" s="3"/>
       <c r="BL23" s="3"/>
     </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -10120,7 +10116,7 @@
       <c r="BK24" s="3"/>
       <c r="BL24" s="3"/>
     </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -10192,7 +10188,7 @@
       <c r="BK25" s="3"/>
       <c r="BL25" s="3"/>
     </row>
-    <row r="26" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -10265,7 +10261,7 @@
       <c r="BK26" s="3"/>
       <c r="BL26" s="3"/>
     </row>
-    <row r="27" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -10353,7 +10349,7 @@
       <c r="BK27" s="3"/>
       <c r="BL27" s="3"/>
     </row>
-    <row r="28" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -10418,7 +10414,7 @@
       <c r="BK28" s="3"/>
       <c r="BL28" s="3"/>
     </row>
-    <row r="29" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -10484,7 +10480,7 @@
       <c r="BK29" s="3"/>
       <c r="BL29" s="3"/>
     </row>
-    <row r="30" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -10550,7 +10546,7 @@
       <c r="BK30" s="3"/>
       <c r="BL30" s="3"/>
     </row>
-    <row r="31" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -10616,7 +10612,7 @@
       <c r="BK31" s="3"/>
       <c r="BL31" s="3"/>
     </row>
-    <row r="32" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -10682,7 +10678,7 @@
       <c r="BK32" s="3"/>
       <c r="BL32" s="3"/>
     </row>
-    <row r="33" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -10748,7 +10744,7 @@
       <c r="BK33" s="3"/>
       <c r="BL33" s="3"/>
     </row>
-    <row r="34" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -10814,7 +10810,7 @@
       <c r="BK34" s="3"/>
       <c r="BL34" s="3"/>
     </row>
-    <row r="35" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -10889,21 +10885,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL40"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="4.44140625" style="6"/>
-    <col min="20" max="20" width="4.44140625" style="8"/>
-    <col min="30" max="30" width="4.44140625" style="10"/>
-    <col min="40" max="40" width="4.44140625" style="12"/>
-    <col min="50" max="50" width="4.44140625" style="14"/>
+    <col min="10" max="10" width="4.42578125" style="6"/>
+    <col min="20" max="20" width="4.42578125" style="8"/>
+    <col min="30" max="30" width="4.42578125" style="10"/>
+    <col min="40" max="40" width="4.42578125" style="12"/>
+    <col min="50" max="50" width="4.42578125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="68" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:64" s="68" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -10969,7 +10965,7 @@
       <c r="BK2" s="3"/>
       <c r="BL2" s="3"/>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -11035,7 +11031,7 @@
       <c r="BK3" s="3"/>
       <c r="BL3" s="3"/>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -11101,7 +11097,7 @@
       <c r="BK4" s="3"/>
       <c r="BL4" s="3"/>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -11167,7 +11163,7 @@
       <c r="BK5" s="3"/>
       <c r="BL5" s="3"/>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -11233,7 +11229,7 @@
       <c r="BK6" s="3"/>
       <c r="BL6" s="3"/>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -11299,7 +11295,7 @@
       <c r="BK7" s="3"/>
       <c r="BL7" s="3"/>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -11365,7 +11361,7 @@
       <c r="BK8" s="3"/>
       <c r="BL8" s="3"/>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -11431,7 +11427,7 @@
       <c r="BK9" s="3"/>
       <c r="BL9" s="3"/>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -11497,7 +11493,7 @@
       <c r="BK10" s="3"/>
       <c r="BL10" s="3"/>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -11563,7 +11559,7 @@
       <c r="BK11" s="3"/>
       <c r="BL11" s="3"/>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -11629,7 +11625,7 @@
       <c r="BK12" s="3"/>
       <c r="BL12" s="3"/>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -11699,7 +11695,7 @@
       <c r="BK13" s="3"/>
       <c r="BL13" s="3"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -11793,7 +11789,7 @@
       <c r="BK14" s="3"/>
       <c r="BL14" s="3"/>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>1</v>
@@ -11871,7 +11867,7 @@
       <c r="BK15" s="3"/>
       <c r="BL15" s="3"/>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>1</v>
@@ -11948,7 +11944,7 @@
       <c r="BK16" s="3"/>
       <c r="BL16" s="3"/>
     </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -12030,7 +12026,7 @@
       <c r="BK17" s="3"/>
       <c r="BL17" s="3"/>
     </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -12108,7 +12104,7 @@
       <c r="BK18" s="3"/>
       <c r="BL18" s="3"/>
     </row>
-    <row r="19" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -12204,7 +12200,7 @@
       <c r="BK19" s="3"/>
       <c r="BL19" s="3"/>
     </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -12277,7 +12273,7 @@
       <c r="BK20" s="3"/>
       <c r="BL20" s="3"/>
     </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -12369,7 +12365,7 @@
       <c r="BK21" s="3"/>
       <c r="BL21" s="3"/>
     </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -12443,7 +12439,7 @@
       <c r="BK22" s="3"/>
       <c r="BL22" s="3"/>
     </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -12517,7 +12513,7 @@
       <c r="BK23" s="3"/>
       <c r="BL23" s="3"/>
     </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -12591,7 +12587,7 @@
       <c r="BK24" s="3"/>
       <c r="BL24" s="3"/>
     </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -12675,7 +12671,7 @@
       <c r="BK25" s="3"/>
       <c r="BL25" s="3"/>
     </row>
-    <row r="26" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -12741,7 +12737,7 @@
       <c r="BK26" s="3"/>
       <c r="BL26" s="3"/>
     </row>
-    <row r="27" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -12807,7 +12803,7 @@
       <c r="BK27" s="3"/>
       <c r="BL27" s="3"/>
     </row>
-    <row r="28" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -12872,7 +12868,7 @@
       <c r="BK28" s="3"/>
       <c r="BL28" s="3"/>
     </row>
-    <row r="29" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -12938,7 +12934,7 @@
       <c r="BK29" s="3"/>
       <c r="BL29" s="3"/>
     </row>
-    <row r="30" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -13004,7 +13000,7 @@
       <c r="BK30" s="3"/>
       <c r="BL30" s="3"/>
     </row>
-    <row r="31" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -13070,7 +13066,7 @@
       <c r="BK31" s="3"/>
       <c r="BL31" s="3"/>
     </row>
-    <row r="32" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -13136,7 +13132,7 @@
       <c r="BK32" s="3"/>
       <c r="BL32" s="3"/>
     </row>
-    <row r="33" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -13202,7 +13198,7 @@
       <c r="BK33" s="3"/>
       <c r="BL33" s="3"/>
     </row>
-    <row r="34" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -13268,7 +13264,7 @@
       <c r="BK34" s="3"/>
       <c r="BL34" s="3"/>
     </row>
-    <row r="35" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -13334,12 +13330,12 @@
       <c r="BK35" s="3"/>
       <c r="BL35" s="3"/>
     </row>
-    <row r="37" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:64" x14ac:dyDescent="0.25">
       <c r="AT37" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:64" x14ac:dyDescent="0.25">
       <c r="AU40" t="s">
         <v>7</v>
       </c>
@@ -13354,28 +13350,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9BF40A-B043-489B-97BD-E120A8256F34}">
   <dimension ref="A1:CY47"/>
   <sheetViews>
-    <sheetView topLeftCell="T4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AJ25" sqref="AJ25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="4.33203125" style="29"/>
-    <col min="10" max="10" width="4.33203125" style="36"/>
-    <col min="11" max="19" width="4.33203125" style="29"/>
-    <col min="20" max="20" width="4.33203125" style="37"/>
-    <col min="21" max="29" width="4.33203125" style="29"/>
-    <col min="30" max="30" width="4.33203125" style="38"/>
-    <col min="31" max="39" width="4.33203125" style="29"/>
-    <col min="40" max="40" width="4.33203125" style="39"/>
-    <col min="41" max="49" width="4.33203125" style="29"/>
-    <col min="50" max="50" width="4.33203125" style="40"/>
-    <col min="51" max="54" width="4.33203125" style="29"/>
-    <col min="55" max="55" width="4.33203125" style="43"/>
-    <col min="56" max="16384" width="4.33203125" style="29"/>
+    <col min="1" max="9" width="4.28515625" style="29"/>
+    <col min="10" max="10" width="4.28515625" style="36"/>
+    <col min="11" max="19" width="4.28515625" style="29"/>
+    <col min="20" max="20" width="4.28515625" style="37"/>
+    <col min="21" max="29" width="4.28515625" style="29"/>
+    <col min="30" max="30" width="4.28515625" style="38"/>
+    <col min="31" max="39" width="4.28515625" style="29"/>
+    <col min="40" max="40" width="4.28515625" style="39"/>
+    <col min="41" max="49" width="4.28515625" style="29"/>
+    <col min="50" max="50" width="4.28515625" style="40"/>
+    <col min="51" max="54" width="4.28515625" style="29"/>
+    <col min="55" max="55" width="4.28515625" style="43"/>
+    <col min="56" max="16384" width="4.28515625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:103" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="62"/>
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
@@ -13479,7 +13475,7 @@
       <c r="CX1" s="64"/>
       <c r="CY1" s="64"/>
     </row>
-    <row r="2" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="44"/>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
@@ -13586,7 +13582,7 @@
       <c r="CX2" s="28"/>
       <c r="CY2" s="28"/>
     </row>
-    <row r="3" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="44"/>
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
@@ -13693,7 +13689,7 @@
       <c r="CX3" s="28"/>
       <c r="CY3" s="28"/>
     </row>
-    <row r="4" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="44"/>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -13800,7 +13796,7 @@
       <c r="CX4" s="28"/>
       <c r="CY4" s="28"/>
     </row>
-    <row r="5" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="44"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
@@ -13907,7 +13903,7 @@
       <c r="CX5" s="28"/>
       <c r="CY5" s="28"/>
     </row>
-    <row r="6" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="44"/>
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
@@ -14014,7 +14010,7 @@
       <c r="CX6" s="28"/>
       <c r="CY6" s="28"/>
     </row>
-    <row r="7" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="44"/>
       <c r="B7" s="44"/>
       <c r="C7" s="44"/>
@@ -14121,7 +14117,7 @@
       <c r="CX7" s="28"/>
       <c r="CY7" s="28"/>
     </row>
-    <row r="8" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="44"/>
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
@@ -14228,7 +14224,7 @@
       <c r="CX8" s="28"/>
       <c r="CY8" s="28"/>
     </row>
-    <row r="9" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="44"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
@@ -14335,7 +14331,7 @@
       <c r="CX9" s="28"/>
       <c r="CY9" s="28"/>
     </row>
-    <row r="10" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="44"/>
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
@@ -14442,7 +14438,7 @@
       <c r="CX10" s="28"/>
       <c r="CY10" s="28"/>
     </row>
-    <row r="11" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="44"/>
       <c r="B11" s="44"/>
       <c r="C11" s="44"/>
@@ -14549,7 +14545,7 @@
       <c r="CX11" s="28"/>
       <c r="CY11" s="28"/>
     </row>
-    <row r="12" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="44"/>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
@@ -14656,7 +14652,7 @@
       <c r="CX12" s="28"/>
       <c r="CY12" s="28"/>
     </row>
-    <row r="13" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="44"/>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
@@ -14763,7 +14759,7 @@
       <c r="CX13" s="28"/>
       <c r="CY13" s="28"/>
     </row>
-    <row r="14" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" s="44"/>
       <c r="C14" s="44"/>
@@ -14870,7 +14866,7 @@
       <c r="CX14" s="28"/>
       <c r="CY14" s="28"/>
     </row>
-    <row r="15" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="44"/>
       <c r="B15" s="44"/>
       <c r="C15" s="44"/>
@@ -14991,7 +14987,7 @@
       <c r="CX15" s="28"/>
       <c r="CY15" s="28"/>
     </row>
-    <row r="16" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="44"/>
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
@@ -15106,7 +15102,7 @@
       <c r="CX16" s="28"/>
       <c r="CY16" s="28"/>
     </row>
-    <row r="17" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
       <c r="B17" s="44"/>
       <c r="C17" s="44"/>
@@ -15225,7 +15221,7 @@
       <c r="CX17" s="28"/>
       <c r="CY17" s="28"/>
     </row>
-    <row r="18" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="44"/>
       <c r="B18" s="44"/>
       <c r="C18" s="44"/>
@@ -15347,7 +15343,7 @@
       <c r="CX18" s="28"/>
       <c r="CY18" s="28"/>
     </row>
-    <row r="19" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="44"/>
       <c r="B19" s="44"/>
       <c r="C19" s="44"/>
@@ -15488,7 +15484,7 @@
       <c r="CX19" s="28"/>
       <c r="CY19" s="28"/>
     </row>
-    <row r="20" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="s">
         <v>9</v>
       </c>
@@ -15613,7 +15609,7 @@
       <c r="CX20" s="28"/>
       <c r="CY20" s="28"/>
     </row>
-    <row r="21" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="44" t="s">
         <v>0</v>
       </c>
@@ -15729,7 +15725,7 @@
       <c r="CX21" s="28"/>
       <c r="CY21" s="28"/>
     </row>
-    <row r="22" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="44"/>
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
@@ -15858,7 +15854,7 @@
       <c r="CX22" s="28"/>
       <c r="CY22" s="28"/>
     </row>
-    <row r="23" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="44"/>
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
@@ -15969,7 +15965,7 @@
       <c r="CX23" s="28"/>
       <c r="CY23" s="28"/>
     </row>
-    <row r="24" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="44"/>
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
@@ -16081,7 +16077,7 @@
       <c r="CX24" s="28"/>
       <c r="CY24" s="28"/>
     </row>
-    <row r="25" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="44"/>
       <c r="B25" s="44"/>
       <c r="C25" s="44"/>
@@ -16204,7 +16200,7 @@
       <c r="CX25" s="28"/>
       <c r="CY25" s="28"/>
     </row>
-    <row r="26" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="44"/>
       <c r="B26" s="44"/>
       <c r="C26" s="44"/>
@@ -16333,7 +16329,7 @@
       <c r="CX26" s="28"/>
       <c r="CY26" s="28"/>
     </row>
-    <row r="27" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="44"/>
       <c r="B27" s="44"/>
       <c r="C27" s="44"/>
@@ -16444,7 +16440,7 @@
       <c r="CX27" s="28"/>
       <c r="CY27" s="28"/>
     </row>
-    <row r="28" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="44"/>
       <c r="B28" s="44"/>
       <c r="C28" s="44"/>
@@ -16553,7 +16549,7 @@
       <c r="CX28" s="28"/>
       <c r="CY28" s="28"/>
     </row>
-    <row r="29" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="44"/>
       <c r="B29" s="44"/>
       <c r="C29" s="44"/>
@@ -16678,7 +16674,7 @@
       <c r="CX29" s="28"/>
       <c r="CY29" s="28"/>
     </row>
-    <row r="30" spans="1:103" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:103" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="54"/>
       <c r="B30" s="54"/>
       <c r="C30" s="54"/>
@@ -16785,7 +16781,7 @@
       <c r="CX30" s="28"/>
       <c r="CY30" s="28"/>
     </row>
-    <row r="31" spans="1:103" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:103" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC31" s="51">
         <v>29</v>
       </c>
@@ -16838,7 +16834,7 @@
       <c r="CX31" s="67"/>
       <c r="CY31" s="67"/>
     </row>
-    <row r="32" spans="1:103" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:103" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="53">
         <v>0</v>
       </c>
@@ -17051,7 +17047,7 @@
       <c r="CX32" s="28"/>
       <c r="CY32" s="28"/>
     </row>
-    <row r="33" spans="1:103" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:103" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="28"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -17156,7 +17152,7 @@
       <c r="CX33" s="28"/>
       <c r="CY33" s="28"/>
     </row>
-    <row r="34" spans="1:103" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:103" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J34" s="30"/>
       <c r="T34" s="31"/>
       <c r="AD34" s="32"/>
@@ -17164,7 +17160,7 @@
       <c r="AX34" s="34"/>
       <c r="BC34" s="35"/>
     </row>
-    <row r="35" spans="1:103" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:103" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="28"/>
       <c r="B35" s="28"/>
       <c r="C35" s="28"/>
@@ -17269,7 +17265,7 @@
       <c r="CX35" s="28"/>
       <c r="CY35" s="28"/>
     </row>
-    <row r="36" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="28"/>
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
@@ -17374,7 +17370,7 @@
       <c r="CX36" s="28"/>
       <c r="CY36" s="28"/>
     </row>
-    <row r="37" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="28"/>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
@@ -17479,7 +17475,7 @@
       <c r="CX37" s="28"/>
       <c r="CY37" s="28"/>
     </row>
-    <row r="38" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="28"/>
       <c r="B38" s="28"/>
       <c r="C38" s="28"/>
@@ -17584,7 +17580,7 @@
       <c r="CX38" s="28"/>
       <c r="CY38" s="28"/>
     </row>
-    <row r="39" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="28"/>
       <c r="B39" s="28"/>
       <c r="C39" s="28"/>
@@ -17689,7 +17685,7 @@
       <c r="CX39" s="28"/>
       <c r="CY39" s="28"/>
     </row>
-    <row r="40" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="28"/>
       <c r="B40" s="28"/>
       <c r="C40" s="28"/>
@@ -17794,7 +17790,7 @@
       <c r="CX40" s="28"/>
       <c r="CY40" s="28"/>
     </row>
-    <row r="41" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="28"/>
       <c r="B41" s="28"/>
       <c r="C41" s="28"/>
@@ -17899,7 +17895,7 @@
       <c r="CX41" s="28"/>
       <c r="CY41" s="28"/>
     </row>
-    <row r="42" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="28"/>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
@@ -18004,7 +18000,7 @@
       <c r="CX42" s="28"/>
       <c r="CY42" s="28"/>
     </row>
-    <row r="43" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="28"/>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
@@ -18109,7 +18105,7 @@
       <c r="CX43" s="28"/>
       <c r="CY43" s="28"/>
     </row>
-    <row r="44" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
@@ -18214,7 +18210,7 @@
       <c r="CX44" s="28"/>
       <c r="CY44" s="28"/>
     </row>
-    <row r="45" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
@@ -18319,7 +18315,7 @@
       <c r="CX45" s="28"/>
       <c r="CY45" s="28"/>
     </row>
-    <row r="46" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="28"/>
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
@@ -18424,7 +18420,7 @@
       <c r="CX46" s="28"/>
       <c r="CY46" s="28"/>
     </row>
-    <row r="47" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC47" s="41"/>
       <c r="BD47" s="42"/>
       <c r="BE47" s="42"/>
@@ -18488,9 +18484,9 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A1" s="62"/>
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
@@ -18547,7 +18543,7 @@
       <c r="BB1" s="63"/>
       <c r="BC1" s="65"/>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A2" s="44"/>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
@@ -18606,7 +18602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A3" s="44"/>
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
@@ -18665,7 +18661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4" s="44"/>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -18724,7 +18720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" s="44"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
@@ -18783,7 +18779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" s="44"/>
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
@@ -18842,7 +18838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" s="44"/>
       <c r="B7" s="44"/>
       <c r="C7" s="44"/>
@@ -18900,7 +18896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" s="44"/>
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
@@ -18981,7 +18977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" s="44"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
@@ -19062,7 +19058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" s="44"/>
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
@@ -19137,7 +19133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11" s="44"/>
       <c r="B11" s="44"/>
       <c r="C11" s="44"/>
@@ -19212,7 +19208,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A12" s="44"/>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
@@ -19289,7 +19285,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A13" s="44"/>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
@@ -19370,7 +19366,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" s="44"/>
       <c r="C14" s="44"/>
@@ -19439,7 +19435,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15" s="44"/>
       <c r="B15" s="44"/>
       <c r="C15" s="44"/>
@@ -19512,7 +19508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" s="44"/>
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
@@ -19575,7 +19571,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
       <c r="B17" s="44"/>
       <c r="C17" s="44"/>
@@ -19638,7 +19634,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A18" s="44"/>
       <c r="B18" s="44"/>
       <c r="C18" s="44"/>
@@ -19702,7 +19698,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
         <v>0</v>
       </c>
@@ -19793,7 +19789,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
       <c r="B20" s="44"/>
       <c r="C20" s="44"/>
@@ -19854,7 +19850,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
       <c r="B21" s="44"/>
       <c r="C21" s="44"/>
@@ -19915,7 +19911,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A22" s="44"/>
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
@@ -19976,7 +19972,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A23" s="44"/>
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
@@ -20037,7 +20033,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A24" s="44"/>
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
@@ -20098,7 +20094,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="s">
         <v>9</v>
       </c>
@@ -20161,7 +20157,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="s">
         <v>15</v>
       </c>
@@ -20238,7 +20234,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A27" s="44"/>
       <c r="B27" s="44"/>
       <c r="C27" s="44"/>
@@ -20297,7 +20293,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A28" s="44"/>
       <c r="B28" s="44"/>
       <c r="C28" s="44"/>
@@ -20356,7 +20352,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A29" s="44"/>
       <c r="B29" s="44"/>
       <c r="C29" s="44"/>
@@ -20415,7 +20411,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A30" s="54"/>
       <c r="B30" s="54"/>
       <c r="C30" s="54"/>
@@ -20474,7 +20470,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="66"/>
       <c r="B31" s="66"/>
       <c r="C31" s="66"/>
@@ -20533,7 +20529,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A32" s="53">
         <v>0</v>
       </c>
@@ -20711,9 +20707,9 @@
       <selection activeCell="AQ22" sqref="AQ22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A1" s="62"/>
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
@@ -20770,7 +20766,7 @@
       <c r="BB1" s="63"/>
       <c r="BC1" s="65"/>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A2" s="44"/>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
@@ -20829,7 +20825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A3" s="44"/>
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
@@ -20888,7 +20884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4" s="44"/>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -20947,7 +20943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" s="44"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
@@ -21006,7 +21002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" s="44"/>
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
@@ -21065,7 +21061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" s="44"/>
       <c r="B7" s="44"/>
       <c r="C7" s="44"/>
@@ -21124,7 +21120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" s="44"/>
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
@@ -21163,7 +21159,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" s="44"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
@@ -21202,7 +21198,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" s="44"/>
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
@@ -21261,7 +21257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11" s="44"/>
       <c r="B11" s="44"/>
       <c r="C11" s="44"/>
@@ -21317,7 +21313,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A12" s="44"/>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
@@ -21368,7 +21364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A13" s="44"/>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
@@ -21435,7 +21431,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
         <v>9</v>
       </c>
@@ -21504,7 +21500,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
         <v>0</v>
       </c>
@@ -21591,7 +21587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" s="44"/>
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
@@ -21674,7 +21670,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
       <c r="B17" s="44"/>
       <c r="C17" s="44"/>
@@ -21745,7 +21741,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A18" s="44"/>
       <c r="B18" s="44"/>
       <c r="C18" s="44"/>
@@ -21816,7 +21812,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A19" s="44"/>
       <c r="B19" s="44"/>
       <c r="C19" s="44"/>
@@ -21887,7 +21883,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
       <c r="B20" s="44"/>
       <c r="C20" s="44"/>
@@ -21967,7 +21963,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
       <c r="B21" s="44"/>
       <c r="C21" s="44"/>
@@ -22040,7 +22036,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A22" s="44"/>
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
@@ -22106,7 +22102,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A23" s="44"/>
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
@@ -22177,7 +22173,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A24" s="44"/>
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
@@ -22240,7 +22236,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A25" s="44"/>
       <c r="B25" s="44"/>
       <c r="C25" s="44"/>
@@ -22303,7 +22299,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A26" s="44"/>
       <c r="B26" s="44"/>
       <c r="C26" s="44"/>
@@ -22367,7 +22363,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A27" s="44"/>
       <c r="B27" s="44"/>
       <c r="C27" s="44"/>
@@ -22440,7 +22436,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A28" s="44"/>
       <c r="B28" s="44"/>
       <c r="C28" s="44"/>
@@ -22499,7 +22495,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A29" s="44"/>
       <c r="B29" s="44"/>
       <c r="C29" s="44"/>
@@ -22558,7 +22554,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A30" s="54"/>
       <c r="B30" s="54"/>
       <c r="C30" s="54"/>
@@ -22617,7 +22613,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="66"/>
       <c r="B31" s="66"/>
       <c r="C31" s="66"/>
@@ -22676,7 +22672,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A32" s="53">
         <v>0</v>
       </c>

--- a/GUI_20212202_AYZ8R9/Maps/map.xlsx
+++ b/GUI_20212202_AYZ8R9/Maps/map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\game6\GUI_20212202_AYZ8R9\Maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E621FE3-E569-48F3-8092-8B7CDE800310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F2DFF0-9045-409A-8BD0-F3FED0167E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="4" r:id="rId1"/>
@@ -5835,7 +5835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32EA023-0038-482A-B633-0391C0CB8525}">
   <dimension ref="A1:BL35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="AH25" sqref="AH25"/>
     </sheetView>
   </sheetViews>
@@ -8295,8 +8295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8F6284-F138-4CEB-A50F-8C3CA6F27EB7}">
   <dimension ref="A1:BL35"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AK6" sqref="AK6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8620,16 +8620,16 @@
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
-      <c r="AK6" s="1"/>
+      <c r="AK6" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="AL6" s="1"/>
       <c r="AM6" s="1"/>
       <c r="AN6" s="11"/>
       <c r="AP6" s="1"/>
       <c r="AQ6" s="1"/>
       <c r="AR6" s="1"/>
-      <c r="AS6" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="AS6" s="1"/>
       <c r="AT6" s="1"/>
       <c r="AU6" s="1"/>
       <c r="AV6" s="1"/>

--- a/GUI_20212202_AYZ8R9/Maps/map.xlsx
+++ b/GUI_20212202_AYZ8R9/Maps/map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\game6\GUI_20212202_AYZ8R9\Maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F2DFF0-9045-409A-8BD0-F3FED0167E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948C6386-417B-4419-8A6A-E2C417EC0427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="4" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="Munka3" sheetId="3" r:id="rId3"/>
     <sheet name="Munka4" sheetId="1" r:id="rId4"/>
     <sheet name="Munka5" sheetId="5" r:id="rId5"/>
-    <sheet name="Munka6" sheetId="6" r:id="rId6"/>
-    <sheet name="Munka7" sheetId="7" r:id="rId7"/>
+    <sheet name="Munka8" sheetId="8" r:id="rId6"/>
+    <sheet name="Munka6" sheetId="6" r:id="rId7"/>
+    <sheet name="Munka7" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="28">
   <si>
     <t>B</t>
   </si>
@@ -95,9 +96,6 @@
   </si>
   <si>
     <t>EN</t>
-  </si>
-  <si>
-    <t>END</t>
   </si>
   <si>
     <t>HC</t>
@@ -705,16 +703,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382D7427-FBDE-4BF3-ADAB-21A4C37623DD}">
   <dimension ref="A1:CY47"/>
   <sheetViews>
-    <sheetView topLeftCell="S7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AG19" sqref="AG19"/>
+    <sheetView topLeftCell="C3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AL27" sqref="AL27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="9" width="4.28515625" style="29"/>
     <col min="10" max="10" width="4.28515625" style="36"/>
-    <col min="11" max="19" width="4.28515625" style="29"/>
-    <col min="20" max="20" width="4.28515625" style="37"/>
+    <col min="11" max="18" width="4.28515625" style="29"/>
+    <col min="19" max="19" width="4.28515625" style="29" customWidth="1"/>
+    <col min="20" max="20" width="4.28515625" style="37" customWidth="1"/>
     <col min="21" max="29" width="4.28515625" style="29"/>
     <col min="30" max="30" width="4.28515625" style="38"/>
     <col min="31" max="39" width="4.28515625" style="29"/>
@@ -2351,37 +2350,37 @@
       <c r="T16" s="46"/>
       <c r="U16" s="44"/>
       <c r="V16" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="W16" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="W16" s="44" t="s">
-        <v>21</v>
-      </c>
       <c r="X16" s="44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y16" s="44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z16" s="44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA16" s="44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB16" s="44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC16" s="44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD16" s="44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE16" s="44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF16" s="44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG16" s="44"/>
       <c r="AH16" s="44"/>
@@ -2480,37 +2479,37 @@
       <c r="T17" s="46"/>
       <c r="U17" s="44"/>
       <c r="V17" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="W17" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="W17" s="44" t="s">
-        <v>23</v>
-      </c>
       <c r="X17" s="44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y17" s="44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z17" s="44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA17" s="44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB17" s="44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC17" s="44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AD17" s="44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE17" s="44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF17" s="44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG17" s="44"/>
       <c r="AH17" s="44"/>
@@ -2609,37 +2608,37 @@
       <c r="T18" s="46"/>
       <c r="U18" s="44"/>
       <c r="V18" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="W18" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="W18" s="44" t="s">
-        <v>23</v>
-      </c>
       <c r="X18" s="44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y18" s="44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z18" s="44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA18" s="44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB18" s="44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC18" s="44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AD18" s="44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE18" s="44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF18" s="44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG18" s="44"/>
       <c r="AH18" s="52"/>
@@ -2738,40 +2737,40 @@
       <c r="T19" s="46"/>
       <c r="U19" s="44"/>
       <c r="V19" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="W19" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="W19" s="44" t="s">
-        <v>23</v>
-      </c>
       <c r="X19" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y19" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z19" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA19" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB19" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="Y19" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z19" s="44" t="s">
+      <c r="AC19" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD19" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="AA19" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB19" s="44" t="s">
+      <c r="AE19" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF19" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="AC19" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD19" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE19" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF19" s="44" t="s">
-        <v>28</v>
-      </c>
       <c r="AG19" s="44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH19" s="44"/>
       <c r="AI19" s="44"/>
@@ -8295,7 +8294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8F6284-F138-4CEB-A50F-8C3CA6F27EB7}">
   <dimension ref="A1:BL35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="AK6" sqref="AK6"/>
     </sheetView>
   </sheetViews>
@@ -13350,8 +13349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9BF40A-B043-489B-97BD-E120A8256F34}">
   <dimension ref="A1:CY47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AJ25" sqref="AJ25"/>
+    <sheetView topLeftCell="AS4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18477,11 +18476,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC06BF06-21CA-44FE-9111-2AB0C0E21444}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C52672-88BB-4AE4-B0C9-F548BA5F269A}">
   <dimension ref="A1:BC32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="AE8" sqref="AE8:AK13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20699,12 +20710,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF70BD8-2872-42BA-B1C3-A79569DA3A3A}">
   <dimension ref="A1:BC32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AQ22" sqref="AQ22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AS24" sqref="AS24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21320,24 +21331,12 @@
       <c r="D12" s="44"/>
       <c r="E12" s="44"/>
       <c r="F12" s="44"/>
-      <c r="G12" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="K12" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="L12" s="44" t="s">
-        <v>2</v>
-      </c>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
       <c r="M12" s="44"/>
       <c r="N12" s="44"/>
       <c r="O12" s="44"/>
@@ -21365,34 +21364,42 @@
       </c>
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
+      <c r="A13" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>0</v>
+      </c>
       <c r="F13" s="44" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G13" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="44"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="44" t="s">
+        <v>0</v>
+      </c>
       <c r="I13" s="44"/>
-      <c r="J13" s="45"/>
+      <c r="J13" s="44"/>
       <c r="K13" s="44"/>
-      <c r="L13" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="M13" s="44" t="s">
-        <v>2</v>
-      </c>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
       <c r="N13" s="44"/>
       <c r="O13" s="44"/>
       <c r="P13" s="44"/>
       <c r="Q13" s="44"/>
       <c r="R13" s="44"/>
       <c r="S13" s="44"/>
-      <c r="T13" s="46"/>
+      <c r="T13" s="44"/>
       <c r="U13" s="44"/>
       <c r="V13" s="44"/>
       <c r="W13" s="44"/>
@@ -21402,7 +21409,7 @@
       <c r="AA13" s="44"/>
       <c r="AB13" s="44"/>
       <c r="AC13" s="44"/>
-      <c r="AD13" s="47"/>
+      <c r="AD13" s="44"/>
       <c r="AE13" s="44"/>
       <c r="AF13" s="44"/>
       <c r="AG13" s="44"/>
@@ -21412,7 +21419,7 @@
       <c r="AK13" s="44"/>
       <c r="AL13" s="44"/>
       <c r="AM13" s="44"/>
-      <c r="AN13" s="48"/>
+      <c r="AN13" s="44"/>
       <c r="AO13" s="44"/>
       <c r="AP13" s="44"/>
       <c r="AQ13" s="44"/>
@@ -21422,40 +21429,34 @@
       <c r="AU13" s="44"/>
       <c r="AV13" s="44"/>
       <c r="AW13" s="44"/>
-      <c r="AX13" s="49"/>
+      <c r="AX13" s="44"/>
       <c r="AY13" s="44"/>
       <c r="AZ13" s="44"/>
       <c r="BA13" s="44"/>
-      <c r="BB13" s="50"/>
-      <c r="BC13" s="51">
+      <c r="BB13" s="44"/>
+      <c r="BC13" s="44">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
-        <v>9</v>
-      </c>
+      <c r="A14" s="44"/>
       <c r="B14" s="44"/>
       <c r="C14" s="44"/>
       <c r="D14" s="44"/>
-      <c r="E14" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="44" t="s">
-        <v>4</v>
-      </c>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
       <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="45"/>
+      <c r="H14" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="44"/>
       <c r="K14" s="44"/>
       <c r="L14" s="44"/>
-      <c r="M14" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="N14" s="44" t="s">
-        <v>2</v>
-      </c>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
       <c r="O14" s="44"/>
       <c r="P14" s="44"/>
       <c r="Q14" s="44"/>
@@ -21501,60 +21502,36 @@
       </c>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="44" t="s">
-        <v>4</v>
-      </c>
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
       <c r="F15" s="44"/>
       <c r="G15" s="44"/>
       <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="45"/>
+      <c r="I15" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="44" t="s">
+        <v>2</v>
+      </c>
       <c r="K15" s="44"/>
       <c r="L15" s="44"/>
       <c r="M15" s="44"/>
-      <c r="N15" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="O15" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="P15" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="R15" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="S15" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="T15" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="U15" s="44" t="s">
-        <v>8</v>
-      </c>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="46"/>
+      <c r="U15" s="44"/>
       <c r="V15" s="44"/>
       <c r="W15" s="44"/>
       <c r="X15" s="44"/>
       <c r="Y15" s="44"/>
-      <c r="Z15" s="44" t="s">
-        <v>2</v>
-      </c>
+      <c r="Z15" s="44"/>
       <c r="AA15" s="44"/>
       <c r="AB15" s="44"/>
       <c r="AC15" s="44"/>
@@ -21580,9 +21557,7 @@
       <c r="AX15" s="49"/>
       <c r="AZ15" s="44"/>
       <c r="BA15" s="44"/>
-      <c r="BB15" s="50" t="s">
-        <v>18</v>
-      </c>
+      <c r="BB15" s="50"/>
       <c r="BC15" s="51">
         <v>13</v>
       </c>
@@ -21597,8 +21572,12 @@
       <c r="G16" s="44"/>
       <c r="H16" s="44"/>
       <c r="I16" s="44"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="44"/>
+      <c r="J16" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" s="44" t="s">
+        <v>2</v>
+      </c>
       <c r="L16" s="44"/>
       <c r="M16" s="44"/>
       <c r="N16" s="44"/>
@@ -21607,20 +21586,14 @@
       <c r="Q16" s="44"/>
       <c r="R16" s="44"/>
       <c r="S16" s="44"/>
-      <c r="T16" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="U16" s="44" t="s">
-        <v>8</v>
-      </c>
+      <c r="T16" s="46"/>
+      <c r="U16" s="44"/>
       <c r="V16" s="44"/>
       <c r="W16" s="44"/>
       <c r="X16" s="44"/>
       <c r="Y16" s="44"/>
       <c r="Z16" s="44"/>
-      <c r="AA16" s="44" t="s">
-        <v>2</v>
-      </c>
+      <c r="AA16" s="44"/>
       <c r="AB16" s="44"/>
       <c r="AC16" s="44"/>
       <c r="AD16" s="47"/>
@@ -21634,38 +21607,20 @@
       <c r="AL16" s="44"/>
       <c r="AM16" s="44"/>
       <c r="AN16" s="44"/>
-      <c r="AO16" s="44" t="s">
-        <v>5</v>
-      </c>
+      <c r="AO16" s="44"/>
       <c r="AP16" s="44"/>
       <c r="AQ16" s="44"/>
       <c r="AR16" s="44"/>
       <c r="AS16" s="44"/>
       <c r="AT16" s="44"/>
-      <c r="AU16" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV16" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW16" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX16" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY16" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ16" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA16" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB16" s="50" t="s">
-        <v>0</v>
-      </c>
+      <c r="AU16" s="44"/>
+      <c r="AV16" s="44"/>
+      <c r="AW16" s="44"/>
+      <c r="AX16" s="49"/>
+      <c r="AY16" s="44"/>
+      <c r="AZ16" s="44"/>
+      <c r="BA16" s="44"/>
+      <c r="BB16" s="50"/>
       <c r="BC16" s="51">
         <v>14</v>
       </c>
@@ -21680,9 +21635,13 @@
       <c r="G17" s="44"/>
       <c r="H17" s="44"/>
       <c r="I17" s="44"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" s="44" t="s">
+        <v>2</v>
+      </c>
       <c r="M17" s="44"/>
       <c r="N17" s="44"/>
       <c r="O17" s="44"/>
@@ -21690,21 +21649,15 @@
       <c r="Q17" s="44"/>
       <c r="R17" s="44"/>
       <c r="S17" s="44"/>
-      <c r="T17" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="U17" s="44" t="s">
-        <v>8</v>
-      </c>
+      <c r="T17" s="46"/>
+      <c r="U17" s="44"/>
       <c r="V17" s="44"/>
       <c r="W17" s="44"/>
       <c r="X17" s="44"/>
       <c r="Y17" s="44"/>
       <c r="Z17" s="44"/>
       <c r="AA17" s="44"/>
-      <c r="AB17" s="44" t="s">
-        <v>2</v>
-      </c>
+      <c r="AB17" s="44"/>
       <c r="AC17" s="44"/>
       <c r="AD17" s="47"/>
       <c r="AE17" s="44"/>
@@ -21716,19 +21669,13 @@
       <c r="AK17" s="44"/>
       <c r="AL17" s="44"/>
       <c r="AM17" s="44"/>
-      <c r="AN17" s="44" t="s">
-        <v>5</v>
-      </c>
+      <c r="AN17" s="44"/>
       <c r="AO17" s="44"/>
       <c r="AP17" s="44"/>
       <c r="AQ17" s="44"/>
       <c r="AR17" s="44"/>
-      <c r="AS17" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="AT17" s="44" t="s">
-        <v>6</v>
-      </c>
+      <c r="AS17" s="44"/>
+      <c r="AT17" s="44"/>
       <c r="AU17" s="44"/>
       <c r="AV17" s="44"/>
       <c r="AW17" s="44"/>
@@ -21751,63 +21698,137 @@
       <c r="G18" s="44"/>
       <c r="H18" s="44"/>
       <c r="I18" s="44"/>
-      <c r="J18" s="45"/>
+      <c r="J18" s="44"/>
       <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="46" t="s">
-        <v>3</v>
+      <c r="L18" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="M18" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N18" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O18" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P18" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R18" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S18" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="T18" s="44" t="s">
+        <v>0</v>
       </c>
       <c r="U18" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="V18" s="44"/>
-      <c r="W18" s="44"/>
-      <c r="X18" s="44"/>
-      <c r="Y18" s="44"/>
-      <c r="Z18" s="44"/>
-      <c r="AA18" s="44"/>
-      <c r="AB18" s="44"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="W18" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="X18" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="44" t="s">
+        <v>0</v>
+      </c>
       <c r="AC18" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD18" s="47"/>
-      <c r="AE18" s="44"/>
-      <c r="AF18" s="44"/>
-      <c r="AG18" s="44"/>
-      <c r="AH18" s="44"/>
-      <c r="AI18" s="44"/>
-      <c r="AJ18" s="44"/>
-      <c r="AK18" s="44"/>
-      <c r="AL18" s="44"/>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="44" t="s">
+        <v>0</v>
+      </c>
       <c r="AM18" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN18" s="44"/>
-      <c r="AO18" s="44"/>
-      <c r="AP18" s="44"/>
-      <c r="AQ18" s="44"/>
-      <c r="AR18" s="44"/>
+        <v>0</v>
+      </c>
+      <c r="AN18" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="44" t="s">
+        <v>0</v>
+      </c>
       <c r="AS18" s="44" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="AU18" s="29"/>
-      <c r="AV18" s="29"/>
-      <c r="AW18" s="29"/>
-      <c r="AX18" s="40"/>
-      <c r="AY18" s="29"/>
-      <c r="AZ18" s="29"/>
-      <c r="BA18" s="29"/>
-      <c r="BB18" s="29"/>
+        <v>0</v>
+      </c>
+      <c r="AU18" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX18" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="44" t="s">
+        <v>0</v>
+      </c>
       <c r="BC18" s="51">
         <v>16</v>
       </c>
@@ -21832,12 +21853,8 @@
       <c r="Q19" s="44"/>
       <c r="R19" s="44"/>
       <c r="S19" s="44"/>
-      <c r="T19" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="U19" s="44" t="s">
-        <v>8</v>
-      </c>
+      <c r="T19" s="46"/>
+      <c r="U19" s="44"/>
       <c r="V19" s="44"/>
       <c r="W19" s="44"/>
       <c r="X19" s="44"/>
@@ -21846,9 +21863,7 @@
       <c r="AA19" s="44"/>
       <c r="AB19" s="44"/>
       <c r="AC19" s="44"/>
-      <c r="AD19" s="47" t="s">
-        <v>2</v>
-      </c>
+      <c r="AD19" s="47"/>
       <c r="AE19" s="44"/>
       <c r="AF19" s="44"/>
       <c r="AG19" s="44"/>
@@ -21856,21 +21871,15 @@
       <c r="AI19" s="44"/>
       <c r="AJ19" s="44"/>
       <c r="AK19" s="44"/>
-      <c r="AL19" s="44" t="s">
-        <v>5</v>
-      </c>
+      <c r="AL19" s="44"/>
       <c r="AM19" s="44"/>
       <c r="AN19" s="44"/>
       <c r="AO19" s="44"/>
       <c r="AP19" s="44"/>
       <c r="AQ19" s="44"/>
       <c r="AR19" s="44"/>
-      <c r="AS19" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="AT19" s="44" t="s">
-        <v>6</v>
-      </c>
+      <c r="AS19" s="44"/>
+      <c r="AT19" s="44"/>
       <c r="AU19" s="44"/>
       <c r="AV19" s="44"/>
       <c r="AW19" s="44"/>
@@ -21903,12 +21912,8 @@
       <c r="Q20" s="44"/>
       <c r="R20" s="44"/>
       <c r="S20" s="44"/>
-      <c r="T20" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="U20" s="44" t="s">
-        <v>8</v>
-      </c>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
       <c r="V20" s="44"/>
       <c r="W20" s="44"/>
       <c r="Y20" s="44"/>
@@ -21917,27 +21922,13 @@
       <c r="AB20" s="44"/>
       <c r="AC20" s="44"/>
       <c r="AD20" s="47"/>
-      <c r="AE20" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI20" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ20" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK20" s="44" t="s">
-        <v>0</v>
-      </c>
+      <c r="AE20" s="44"/>
+      <c r="AF20" s="44"/>
+      <c r="AG20" s="44"/>
+      <c r="AH20" s="44"/>
+      <c r="AI20" s="44"/>
+      <c r="AJ20" s="44"/>
+      <c r="AK20" s="44"/>
       <c r="AL20" s="44"/>
       <c r="AM20" s="44"/>
       <c r="AN20" s="44"/>
@@ -21945,12 +21936,8 @@
       <c r="AP20" s="44"/>
       <c r="AQ20" s="44"/>
       <c r="AR20" s="44"/>
-      <c r="AS20" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="AT20" s="44" t="s">
-        <v>6</v>
-      </c>
+      <c r="AS20" s="44"/>
+      <c r="AT20" s="44"/>
       <c r="AU20" s="44"/>
       <c r="AV20" s="44"/>
       <c r="AW20" s="44"/>
@@ -21984,21 +21971,11 @@
       <c r="R21" s="44"/>
       <c r="S21" s="44"/>
       <c r="T21" s="46"/>
-      <c r="U21" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="V21" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="W21" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="X21" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="44" t="s">
-        <v>0</v>
-      </c>
+      <c r="U21" s="44"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="44"/>
+      <c r="Y21" s="44"/>
       <c r="Z21" s="44"/>
       <c r="AA21" s="44"/>
       <c r="AB21" s="44"/>
@@ -22018,12 +21995,8 @@
       <c r="AP21" s="29"/>
       <c r="AQ21" s="44"/>
       <c r="AR21" s="44"/>
-      <c r="AS21" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="AT21" s="44" t="s">
-        <v>6</v>
-      </c>
+      <c r="AS21" s="44"/>
+      <c r="AT21" s="44"/>
       <c r="AU21" s="44"/>
       <c r="AV21" s="44"/>
       <c r="AW21" s="44"/>
@@ -22062,9 +22035,7 @@
       <c r="W22" s="44"/>
       <c r="X22" s="44"/>
       <c r="Y22" s="44"/>
-      <c r="Z22" s="44" t="s">
-        <v>14</v>
-      </c>
+      <c r="Z22" s="44"/>
       <c r="AA22" s="44"/>
       <c r="AB22" s="44"/>
       <c r="AC22" s="44"/>
@@ -22081,15 +22052,9 @@
       <c r="AN22" s="48"/>
       <c r="AO22" s="44"/>
       <c r="AP22" s="44"/>
-      <c r="AQ22" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="AS22" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="AT22" s="44" t="s">
-        <v>6</v>
-      </c>
+      <c r="AQ22" s="44"/>
+      <c r="AS22" s="44"/>
+      <c r="AT22" s="44"/>
       <c r="AU22" s="44"/>
       <c r="AV22" s="44"/>
       <c r="AW22" s="44"/>
@@ -22129,9 +22094,7 @@
       <c r="X23" s="44"/>
       <c r="Y23" s="44"/>
       <c r="Z23" s="44"/>
-      <c r="AA23" s="44" t="s">
-        <v>14</v>
-      </c>
+      <c r="AA23" s="44"/>
       <c r="AB23" s="44"/>
       <c r="AC23" s="44"/>
       <c r="AD23" s="47"/>
@@ -22145,21 +22108,11 @@
       <c r="AL23" s="44"/>
       <c r="AM23" s="44"/>
       <c r="AN23" s="44"/>
-      <c r="AO23" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="AP23" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ23" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR23" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS23" s="44" t="s">
-        <v>15</v>
-      </c>
+      <c r="AO23" s="44"/>
+      <c r="AP23" s="44"/>
+      <c r="AQ23" s="44"/>
+      <c r="AR23" s="44"/>
+      <c r="AS23" s="44"/>
       <c r="AT23" s="44"/>
       <c r="AU23" s="44"/>
       <c r="AV23" s="44"/>
@@ -22201,9 +22154,7 @@
       <c r="Y24" s="44"/>
       <c r="Z24" s="44"/>
       <c r="AA24" s="44"/>
-      <c r="AB24" s="44" t="s">
-        <v>14</v>
-      </c>
+      <c r="AB24" s="44"/>
       <c r="AC24" s="44"/>
       <c r="AD24" s="47"/>
       <c r="AE24" s="44"/>
@@ -22215,9 +22166,7 @@
       <c r="AK24" s="44"/>
       <c r="AL24" s="44"/>
       <c r="AM24" s="44"/>
-      <c r="AN24" s="44" t="s">
-        <v>16</v>
-      </c>
+      <c r="AN24" s="44"/>
       <c r="AO24" s="44"/>
       <c r="AP24" s="44"/>
       <c r="AQ24" s="44"/>
@@ -22265,9 +22214,7 @@
       <c r="Z25" s="44"/>
       <c r="AA25" s="44"/>
       <c r="AB25" s="44"/>
-      <c r="AC25" s="44" t="s">
-        <v>14</v>
-      </c>
+      <c r="AC25" s="44"/>
       <c r="AD25" s="47"/>
       <c r="AE25" s="44"/>
       <c r="AF25" s="44"/>
@@ -22277,9 +22224,7 @@
       <c r="AJ25" s="44"/>
       <c r="AK25" s="44"/>
       <c r="AL25" s="44"/>
-      <c r="AM25" s="44" t="s">
-        <v>16</v>
-      </c>
+      <c r="AM25" s="44"/>
       <c r="AN25" s="44"/>
       <c r="AO25" s="44"/>
       <c r="AP25" s="44"/>
@@ -22329,20 +22274,14 @@
       <c r="AA26" s="44"/>
       <c r="AB26" s="44"/>
       <c r="AC26" s="44"/>
-      <c r="AD26" s="47" t="s">
-        <v>14</v>
-      </c>
+      <c r="AD26" s="47"/>
       <c r="AE26" s="44"/>
-      <c r="AF26" s="44" t="s">
-        <v>13</v>
-      </c>
+      <c r="AF26" s="44"/>
       <c r="AG26" s="44"/>
       <c r="AH26" s="44"/>
       <c r="AI26" s="44"/>
       <c r="AK26" s="44"/>
-      <c r="AL26" s="44" t="s">
-        <v>16</v>
-      </c>
+      <c r="AL26" s="44"/>
       <c r="AM26" s="44"/>
       <c r="AN26" s="44"/>
       <c r="AO26" s="44"/>
@@ -22394,27 +22333,13 @@
       <c r="AB27" s="44"/>
       <c r="AC27" s="44"/>
       <c r="AD27" s="47"/>
-      <c r="AE27" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF27" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG27" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH27" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI27" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ27" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="AK27" s="44" t="s">
-        <v>15</v>
-      </c>
+      <c r="AE27" s="44"/>
+      <c r="AF27" s="44"/>
+      <c r="AG27" s="44"/>
+      <c r="AH27" s="44"/>
+      <c r="AI27" s="44"/>
+      <c r="AJ27" s="44"/>
+      <c r="AK27" s="44"/>
       <c r="AL27" s="44"/>
       <c r="AM27" s="44"/>
       <c r="AN27" s="44"/>

--- a/GUI_20212202_AYZ8R9/Maps/map.xlsx
+++ b/GUI_20212202_AYZ8R9/Maps/map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\game6\GUI_20212202_AYZ8R9\Maps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krisz\OneDrive\Asztali gép\SZTGUI Féléves\GUI_20212202_AYZ8R9\GUI_20212202_AYZ8R9\Maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948C6386-417B-4419-8A6A-E2C417EC0427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3371D33F-5AE0-4311-AE08-7B0EF037CA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="28">
   <si>
     <t>B</t>
   </si>
@@ -707,25 +706,25 @@
       <selection activeCell="AL27" sqref="AL27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="9" width="4.28515625" style="29"/>
-    <col min="10" max="10" width="4.28515625" style="36"/>
-    <col min="11" max="18" width="4.28515625" style="29"/>
-    <col min="19" max="19" width="4.28515625" style="29" customWidth="1"/>
-    <col min="20" max="20" width="4.28515625" style="37" customWidth="1"/>
-    <col min="21" max="29" width="4.28515625" style="29"/>
-    <col min="30" max="30" width="4.28515625" style="38"/>
-    <col min="31" max="39" width="4.28515625" style="29"/>
-    <col min="40" max="40" width="4.28515625" style="39"/>
-    <col min="41" max="49" width="4.28515625" style="29"/>
-    <col min="50" max="50" width="4.28515625" style="40"/>
-    <col min="51" max="54" width="4.28515625" style="29"/>
-    <col min="55" max="55" width="4.28515625" style="43"/>
-    <col min="56" max="16384" width="4.28515625" style="29"/>
+    <col min="1" max="9" width="4.33203125" style="29"/>
+    <col min="10" max="10" width="4.33203125" style="36"/>
+    <col min="11" max="18" width="4.33203125" style="29"/>
+    <col min="19" max="19" width="4.33203125" style="29" customWidth="1"/>
+    <col min="20" max="20" width="4.33203125" style="37" customWidth="1"/>
+    <col min="21" max="29" width="4.33203125" style="29"/>
+    <col min="30" max="30" width="4.33203125" style="38"/>
+    <col min="31" max="39" width="4.33203125" style="29"/>
+    <col min="40" max="40" width="4.33203125" style="39"/>
+    <col min="41" max="49" width="4.33203125" style="29"/>
+    <col min="50" max="50" width="4.33203125" style="40"/>
+    <col min="51" max="54" width="4.33203125" style="29"/>
+    <col min="55" max="55" width="4.33203125" style="43"/>
+    <col min="56" max="16384" width="4.33203125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:103" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="62"/>
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
@@ -829,7 +828,7 @@
       <c r="CX1" s="64"/>
       <c r="CY1" s="64"/>
     </row>
-    <row r="2" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44"/>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
@@ -936,7 +935,7 @@
       <c r="CX2" s="28"/>
       <c r="CY2" s="28"/>
     </row>
-    <row r="3" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="44"/>
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
@@ -1043,7 +1042,7 @@
       <c r="CX3" s="28"/>
       <c r="CY3" s="28"/>
     </row>
-    <row r="4" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="44"/>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -1150,7 +1149,7 @@
       <c r="CX4" s="28"/>
       <c r="CY4" s="28"/>
     </row>
-    <row r="5" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="44"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
@@ -1257,7 +1256,7 @@
       <c r="CX5" s="28"/>
       <c r="CY5" s="28"/>
     </row>
-    <row r="6" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="44"/>
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
@@ -1364,7 +1363,7 @@
       <c r="CX6" s="28"/>
       <c r="CY6" s="28"/>
     </row>
-    <row r="7" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="44"/>
       <c r="B7" s="44"/>
       <c r="C7" s="44"/>
@@ -1471,7 +1470,7 @@
       <c r="CX7" s="28"/>
       <c r="CY7" s="28"/>
     </row>
-    <row r="8" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="44"/>
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
@@ -1578,7 +1577,7 @@
       <c r="CX8" s="28"/>
       <c r="CY8" s="28"/>
     </row>
-    <row r="9" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="44"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
@@ -1685,7 +1684,7 @@
       <c r="CX9" s="28"/>
       <c r="CY9" s="28"/>
     </row>
-    <row r="10" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="44"/>
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
@@ -1792,7 +1791,7 @@
       <c r="CX10" s="28"/>
       <c r="CY10" s="28"/>
     </row>
-    <row r="11" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="44"/>
       <c r="B11" s="44"/>
       <c r="C11" s="44"/>
@@ -1899,7 +1898,7 @@
       <c r="CX11" s="28"/>
       <c r="CY11" s="28"/>
     </row>
-    <row r="12" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="44"/>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
@@ -2006,7 +2005,7 @@
       <c r="CX12" s="28"/>
       <c r="CY12" s="28"/>
     </row>
-    <row r="13" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="44"/>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
@@ -2113,7 +2112,7 @@
       <c r="CX13" s="28"/>
       <c r="CY13" s="28"/>
     </row>
-    <row r="14" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="44"/>
       <c r="B14" s="44"/>
       <c r="C14" s="44"/>
@@ -2220,7 +2219,7 @@
       <c r="CX14" s="28"/>
       <c r="CY14" s="28"/>
     </row>
-    <row r="15" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="44"/>
       <c r="B15" s="44"/>
       <c r="C15" s="44"/>
@@ -2327,7 +2326,7 @@
       <c r="CX15" s="28"/>
       <c r="CY15" s="28"/>
     </row>
-    <row r="16" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="44"/>
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
@@ -2456,7 +2455,7 @@
       <c r="CX16" s="28"/>
       <c r="CY16" s="28"/>
     </row>
-    <row r="17" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="44"/>
       <c r="B17" s="44"/>
       <c r="C17" s="44"/>
@@ -2585,7 +2584,7 @@
       <c r="CX17" s="28"/>
       <c r="CY17" s="28"/>
     </row>
-    <row r="18" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="44"/>
       <c r="B18" s="44"/>
       <c r="C18" s="44"/>
@@ -2714,7 +2713,7 @@
       <c r="CX18" s="28"/>
       <c r="CY18" s="28"/>
     </row>
-    <row r="19" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="44"/>
       <c r="B19" s="44"/>
       <c r="C19" s="44"/>
@@ -2849,7 +2848,7 @@
       <c r="CX19" s="28"/>
       <c r="CY19" s="28"/>
     </row>
-    <row r="20" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="44" t="s">
         <v>0</v>
       </c>
@@ -3064,7 +3063,7 @@
       <c r="CX20" s="28"/>
       <c r="CY20" s="28"/>
     </row>
-    <row r="21" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="44"/>
       <c r="B21" s="44"/>
       <c r="C21" s="44"/>
@@ -3171,7 +3170,7 @@
       <c r="CX21" s="28"/>
       <c r="CY21" s="28"/>
     </row>
-    <row r="22" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="44"/>
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
@@ -3278,7 +3277,7 @@
       <c r="CX22" s="28"/>
       <c r="CY22" s="28"/>
     </row>
-    <row r="23" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="44"/>
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
@@ -3385,7 +3384,7 @@
       <c r="CX23" s="28"/>
       <c r="CY23" s="28"/>
     </row>
-    <row r="24" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="44"/>
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
@@ -3492,7 +3491,7 @@
       <c r="CX24" s="28"/>
       <c r="CY24" s="28"/>
     </row>
-    <row r="25" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="44"/>
       <c r="B25" s="44"/>
       <c r="C25" s="44"/>
@@ -3599,7 +3598,7 @@
       <c r="CX25" s="28"/>
       <c r="CY25" s="28"/>
     </row>
-    <row r="26" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="44"/>
       <c r="B26" s="44"/>
       <c r="C26" s="44"/>
@@ -3706,7 +3705,7 @@
       <c r="CX26" s="28"/>
       <c r="CY26" s="28"/>
     </row>
-    <row r="27" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="44"/>
       <c r="B27" s="44"/>
       <c r="C27" s="44"/>
@@ -3813,7 +3812,7 @@
       <c r="CX27" s="28"/>
       <c r="CY27" s="28"/>
     </row>
-    <row r="28" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="44"/>
       <c r="B28" s="44"/>
       <c r="C28" s="44"/>
@@ -3920,7 +3919,7 @@
       <c r="CX28" s="28"/>
       <c r="CY28" s="28"/>
     </row>
-    <row r="29" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="44"/>
       <c r="B29" s="44"/>
       <c r="C29" s="44"/>
@@ -4027,7 +4026,7 @@
       <c r="CX29" s="28"/>
       <c r="CY29" s="28"/>
     </row>
-    <row r="30" spans="1:103" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:103" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="54"/>
       <c r="B30" s="54"/>
       <c r="C30" s="54"/>
@@ -4134,7 +4133,7 @@
       <c r="CX30" s="28"/>
       <c r="CY30" s="28"/>
     </row>
-    <row r="31" spans="1:103" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:103" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="BC31" s="51">
         <v>29</v>
       </c>
@@ -4187,7 +4186,7 @@
       <c r="CX31" s="67"/>
       <c r="CY31" s="67"/>
     </row>
-    <row r="32" spans="1:103" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:103" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="53">
         <v>0</v>
       </c>
@@ -4400,7 +4399,7 @@
       <c r="CX32" s="28"/>
       <c r="CY32" s="28"/>
     </row>
-    <row r="33" spans="1:103" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:103" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="28"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -4505,7 +4504,7 @@
       <c r="CX33" s="28"/>
       <c r="CY33" s="28"/>
     </row>
-    <row r="34" spans="1:103" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:103" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J34" s="30"/>
       <c r="T34" s="31"/>
       <c r="AD34" s="32"/>
@@ -4513,7 +4512,7 @@
       <c r="AX34" s="34"/>
       <c r="BC34" s="35"/>
     </row>
-    <row r="35" spans="1:103" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:103" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="28"/>
       <c r="B35" s="28"/>
       <c r="C35" s="28"/>
@@ -4618,7 +4617,7 @@
       <c r="CX35" s="28"/>
       <c r="CY35" s="28"/>
     </row>
-    <row r="36" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="28"/>
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
@@ -4723,7 +4722,7 @@
       <c r="CX36" s="28"/>
       <c r="CY36" s="28"/>
     </row>
-    <row r="37" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="28"/>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
@@ -4828,7 +4827,7 @@
       <c r="CX37" s="28"/>
       <c r="CY37" s="28"/>
     </row>
-    <row r="38" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="28"/>
       <c r="B38" s="28"/>
       <c r="C38" s="28"/>
@@ -4933,7 +4932,7 @@
       <c r="CX38" s="28"/>
       <c r="CY38" s="28"/>
     </row>
-    <row r="39" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="28"/>
       <c r="B39" s="28"/>
       <c r="C39" s="28"/>
@@ -5038,7 +5037,7 @@
       <c r="CX39" s="28"/>
       <c r="CY39" s="28"/>
     </row>
-    <row r="40" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="28"/>
       <c r="B40" s="28"/>
       <c r="C40" s="28"/>
@@ -5143,7 +5142,7 @@
       <c r="CX40" s="28"/>
       <c r="CY40" s="28"/>
     </row>
-    <row r="41" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="28"/>
       <c r="B41" s="28"/>
       <c r="C41" s="28"/>
@@ -5248,7 +5247,7 @@
       <c r="CX41" s="28"/>
       <c r="CY41" s="28"/>
     </row>
-    <row r="42" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="28"/>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
@@ -5353,7 +5352,7 @@
       <c r="CX42" s="28"/>
       <c r="CY42" s="28"/>
     </row>
-    <row r="43" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="28"/>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
@@ -5458,7 +5457,7 @@
       <c r="CX43" s="28"/>
       <c r="CY43" s="28"/>
     </row>
-    <row r="44" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
@@ -5563,7 +5562,7 @@
       <c r="CX44" s="28"/>
       <c r="CY44" s="28"/>
     </row>
-    <row r="45" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
@@ -5668,7 +5667,7 @@
       <c r="CX45" s="28"/>
       <c r="CY45" s="28"/>
     </row>
-    <row r="46" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="28"/>
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
@@ -5773,7 +5772,7 @@
       <c r="CX46" s="28"/>
       <c r="CY46" s="28"/>
     </row>
-    <row r="47" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="BC47" s="41"/>
       <c r="BD47" s="42"/>
       <c r="BE47" s="42"/>
@@ -5834,21 +5833,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32EA023-0038-482A-B633-0391C0CB8525}">
   <dimension ref="A1:BL35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AH25" sqref="AH25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="4.42578125" style="6"/>
-    <col min="20" max="20" width="4.42578125" style="8"/>
-    <col min="30" max="30" width="4.42578125" style="10"/>
-    <col min="40" max="40" width="4.42578125" style="12"/>
-    <col min="50" max="50" width="4.42578125" style="14"/>
+    <col min="10" max="10" width="4.44140625" style="6"/>
+    <col min="20" max="20" width="4.44140625" style="8"/>
+    <col min="30" max="30" width="4.44140625" style="10"/>
+    <col min="40" max="40" width="4.44140625" style="12"/>
+    <col min="50" max="50" width="4.44140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="68" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64" s="68" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -5914,7 +5913,7 @@
       <c r="BK2" s="3"/>
       <c r="BL2" s="3"/>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -5980,7 +5979,7 @@
       <c r="BK3" s="3"/>
       <c r="BL3" s="3"/>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -6046,7 +6045,7 @@
       <c r="BK4" s="3"/>
       <c r="BL4" s="3"/>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -6112,7 +6111,7 @@
       <c r="BK5" s="3"/>
       <c r="BL5" s="3"/>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -6178,7 +6177,7 @@
       <c r="BK6" s="3"/>
       <c r="BL6" s="3"/>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -6244,7 +6243,7 @@
       <c r="BK7" s="3"/>
       <c r="BL7" s="3"/>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -6310,7 +6309,7 @@
       <c r="BK8" s="3"/>
       <c r="BL8" s="3"/>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -6380,7 +6379,7 @@
       <c r="BK9" s="3"/>
       <c r="BL9" s="3"/>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -6450,7 +6449,7 @@
       <c r="BK10" s="3"/>
       <c r="BL10" s="3"/>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -6519,7 +6518,7 @@
       <c r="BK11" s="3"/>
       <c r="BL11" s="3"/>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -6589,7 +6588,7 @@
       <c r="BK12" s="3"/>
       <c r="BL12" s="3"/>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -6659,7 +6658,7 @@
       <c r="BK13" s="3"/>
       <c r="BL13" s="3"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -6759,7 +6758,7 @@
       <c r="BK14" s="3"/>
       <c r="BL14" s="3"/>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -6825,7 +6824,7 @@
       <c r="BK15" s="3"/>
       <c r="BL15" s="3"/>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -6899,7 +6898,7 @@
       <c r="BK16" s="3"/>
       <c r="BL16" s="3"/>
     </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -6930,9 +6929,7 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="7"/>
-      <c r="U17" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="U17" s="1"/>
       <c r="V17" s="1" t="s">
         <v>5</v>
       </c>
@@ -6991,7 +6988,7 @@
       <c r="BK17" s="3"/>
       <c r="BL17" s="3"/>
     </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -7073,7 +7070,7 @@
       <c r="BK18" s="3"/>
       <c r="BL18" s="3"/>
     </row>
-    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -7097,6 +7094,9 @@
       </c>
       <c r="O19" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="P19" s="27" t="s">
+        <v>8</v>
       </c>
       <c r="R19" s="1"/>
       <c r="S19" s="1" t="s">
@@ -7156,7 +7156,7 @@
       <c r="BK19" s="3"/>
       <c r="BL19" s="3"/>
     </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -7179,6 +7179,9 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="P20" t="s">
+        <v>8</v>
       </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1" t="s">
@@ -7230,7 +7233,7 @@
       <c r="BK20" s="3"/>
       <c r="BL20" s="3"/>
     </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -7257,6 +7260,9 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="P21" t="s">
+        <v>8</v>
       </c>
       <c r="R21" s="1"/>
       <c r="S21" s="1" t="s">
@@ -7326,7 +7332,7 @@
       <c r="BK21" s="3"/>
       <c r="BL21" s="3"/>
     </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -7343,6 +7349,9 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="P22" t="s">
+        <v>8</v>
       </c>
       <c r="R22" s="1"/>
       <c r="S22" s="1" t="s">
@@ -7398,7 +7407,7 @@
       <c r="BK22" s="3"/>
       <c r="BL22" s="3"/>
     </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -7415,6 +7424,9 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="P23" t="s">
+        <v>8</v>
       </c>
       <c r="R23" s="1"/>
       <c r="S23" s="1" t="s">
@@ -7468,7 +7480,7 @@
       <c r="BK23" s="3"/>
       <c r="BL23" s="3"/>
     </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -7485,6 +7497,9 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="P24" t="s">
+        <v>8</v>
       </c>
       <c r="R24" s="1"/>
       <c r="S24" s="1" t="s">
@@ -7538,7 +7553,7 @@
       <c r="BK24" s="3"/>
       <c r="BL24" s="3"/>
     </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -7555,6 +7570,9 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="P25" t="s">
+        <v>8</v>
       </c>
       <c r="R25" s="1"/>
       <c r="S25" s="1" t="s">
@@ -7608,7 +7626,7 @@
       <c r="BK25" s="3"/>
       <c r="BL25" s="3"/>
     </row>
-    <row r="26" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -7625,6 +7643,9 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="P26" t="s">
+        <v>8</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>12</v>
@@ -7680,7 +7701,7 @@
       <c r="BK26" s="3"/>
       <c r="BL26" s="3"/>
     </row>
-    <row r="27" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -7758,7 +7779,7 @@
       <c r="BK27" s="3"/>
       <c r="BL27" s="3"/>
     </row>
-    <row r="28" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -7823,7 +7844,7 @@
       <c r="BK28" s="3"/>
       <c r="BL28" s="3"/>
     </row>
-    <row r="29" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -7889,7 +7910,7 @@
       <c r="BK29" s="3"/>
       <c r="BL29" s="3"/>
     </row>
-    <row r="30" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -7955,7 +7976,7 @@
       <c r="BK30" s="3"/>
       <c r="BL30" s="3"/>
     </row>
-    <row r="31" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -8021,7 +8042,7 @@
       <c r="BK31" s="3"/>
       <c r="BL31" s="3"/>
     </row>
-    <row r="32" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -8087,7 +8108,7 @@
       <c r="BK32" s="3"/>
       <c r="BL32" s="3"/>
     </row>
-    <row r="33" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -8153,7 +8174,7 @@
       <c r="BK33" s="3"/>
       <c r="BL33" s="3"/>
     </row>
-    <row r="34" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -8219,7 +8240,7 @@
       <c r="BK34" s="3"/>
       <c r="BL34" s="3"/>
     </row>
-    <row r="35" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -8298,17 +8319,17 @@
       <selection activeCell="AK6" sqref="AK6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="4.42578125" style="6"/>
-    <col min="20" max="20" width="4.42578125" style="8"/>
-    <col min="30" max="30" width="4.42578125" style="10"/>
-    <col min="40" max="40" width="4.42578125" style="12"/>
-    <col min="50" max="50" width="4.42578125" style="14"/>
+    <col min="10" max="10" width="4.44140625" style="6"/>
+    <col min="20" max="20" width="4.44140625" style="8"/>
+    <col min="30" max="30" width="4.44140625" style="10"/>
+    <col min="40" max="40" width="4.44140625" style="12"/>
+    <col min="50" max="50" width="4.44140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="68" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64" s="68" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -8374,7 +8395,7 @@
       <c r="BK2" s="3"/>
       <c r="BL2" s="3"/>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -8440,7 +8461,7 @@
       <c r="BK3" s="3"/>
       <c r="BL3" s="3"/>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -8506,7 +8527,7 @@
       <c r="BK4" s="3"/>
       <c r="BL4" s="3"/>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -8574,7 +8595,7 @@
       <c r="BK5" s="3"/>
       <c r="BL5" s="3"/>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -8649,7 +8670,7 @@
       <c r="BK6" s="3"/>
       <c r="BL6" s="3"/>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -8745,7 +8766,7 @@
       <c r="BK7" s="3"/>
       <c r="BL7" s="3"/>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -8827,7 +8848,7 @@
       <c r="BK8" s="3"/>
       <c r="BL8" s="3"/>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
@@ -8909,7 +8930,7 @@
       <c r="BK9" s="3"/>
       <c r="BL9" s="3"/>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -8993,7 +9014,7 @@
       <c r="BK10" s="3"/>
       <c r="BL10" s="3"/>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.3">
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="5"/>
@@ -9064,7 +9085,7 @@
       <c r="BK11" s="3"/>
       <c r="BL11" s="3"/>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -9142,7 +9163,7 @@
       <c r="BK12" s="3"/>
       <c r="BL12" s="3"/>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -9238,7 +9259,7 @@
       <c r="BK13" s="3"/>
       <c r="BL13" s="3"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -9324,7 +9345,7 @@
       <c r="BK14" s="3"/>
       <c r="BL14" s="3"/>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -9404,7 +9425,7 @@
       <c r="BK15" s="3"/>
       <c r="BL15" s="3"/>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -9488,7 +9509,7 @@
       <c r="BK16" s="3"/>
       <c r="BL16" s="3"/>
     </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -9576,7 +9597,7 @@
       <c r="BK17" s="3"/>
       <c r="BL17" s="3"/>
     </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -9660,7 +9681,7 @@
       <c r="BK18" s="3"/>
       <c r="BL18" s="3"/>
     </row>
-    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -9740,7 +9761,7 @@
       <c r="BK19" s="3"/>
       <c r="BL19" s="3"/>
     </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -9823,7 +9844,7 @@
       <c r="BK20" s="3"/>
       <c r="BL20" s="3"/>
     </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -9891,7 +9912,7 @@
       <c r="BK21" s="3"/>
       <c r="BL21" s="3"/>
     </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -9965,7 +9986,7 @@
       <c r="BK22" s="3"/>
       <c r="BL22" s="3"/>
     </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -10039,7 +10060,7 @@
       <c r="BK23" s="3"/>
       <c r="BL23" s="3"/>
     </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -10115,7 +10136,7 @@
       <c r="BK24" s="3"/>
       <c r="BL24" s="3"/>
     </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -10187,7 +10208,7 @@
       <c r="BK25" s="3"/>
       <c r="BL25" s="3"/>
     </row>
-    <row r="26" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -10260,7 +10281,7 @@
       <c r="BK26" s="3"/>
       <c r="BL26" s="3"/>
     </row>
-    <row r="27" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -10348,7 +10369,7 @@
       <c r="BK27" s="3"/>
       <c r="BL27" s="3"/>
     </row>
-    <row r="28" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -10413,7 +10434,7 @@
       <c r="BK28" s="3"/>
       <c r="BL28" s="3"/>
     </row>
-    <row r="29" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -10479,7 +10500,7 @@
       <c r="BK29" s="3"/>
       <c r="BL29" s="3"/>
     </row>
-    <row r="30" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -10545,7 +10566,7 @@
       <c r="BK30" s="3"/>
       <c r="BL30" s="3"/>
     </row>
-    <row r="31" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -10611,7 +10632,7 @@
       <c r="BK31" s="3"/>
       <c r="BL31" s="3"/>
     </row>
-    <row r="32" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -10677,7 +10698,7 @@
       <c r="BK32" s="3"/>
       <c r="BL32" s="3"/>
     </row>
-    <row r="33" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -10743,7 +10764,7 @@
       <c r="BK33" s="3"/>
       <c r="BL33" s="3"/>
     </row>
-    <row r="34" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -10809,7 +10830,7 @@
       <c r="BK34" s="3"/>
       <c r="BL34" s="3"/>
     </row>
-    <row r="35" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -10888,17 +10909,17 @@
       <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="4.42578125" style="6"/>
-    <col min="20" max="20" width="4.42578125" style="8"/>
-    <col min="30" max="30" width="4.42578125" style="10"/>
-    <col min="40" max="40" width="4.42578125" style="12"/>
-    <col min="50" max="50" width="4.42578125" style="14"/>
+    <col min="10" max="10" width="4.44140625" style="6"/>
+    <col min="20" max="20" width="4.44140625" style="8"/>
+    <col min="30" max="30" width="4.44140625" style="10"/>
+    <col min="40" max="40" width="4.44140625" style="12"/>
+    <col min="50" max="50" width="4.44140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="68" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64" s="68" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -10964,7 +10985,7 @@
       <c r="BK2" s="3"/>
       <c r="BL2" s="3"/>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -11030,7 +11051,7 @@
       <c r="BK3" s="3"/>
       <c r="BL3" s="3"/>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -11096,7 +11117,7 @@
       <c r="BK4" s="3"/>
       <c r="BL4" s="3"/>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -11162,7 +11183,7 @@
       <c r="BK5" s="3"/>
       <c r="BL5" s="3"/>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -11228,7 +11249,7 @@
       <c r="BK6" s="3"/>
       <c r="BL6" s="3"/>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -11294,7 +11315,7 @@
       <c r="BK7" s="3"/>
       <c r="BL7" s="3"/>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -11360,7 +11381,7 @@
       <c r="BK8" s="3"/>
       <c r="BL8" s="3"/>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -11426,7 +11447,7 @@
       <c r="BK9" s="3"/>
       <c r="BL9" s="3"/>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -11492,7 +11513,7 @@
       <c r="BK10" s="3"/>
       <c r="BL10" s="3"/>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -11558,7 +11579,7 @@
       <c r="BK11" s="3"/>
       <c r="BL11" s="3"/>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -11624,7 +11645,7 @@
       <c r="BK12" s="3"/>
       <c r="BL12" s="3"/>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -11694,7 +11715,7 @@
       <c r="BK13" s="3"/>
       <c r="BL13" s="3"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -11788,7 +11809,7 @@
       <c r="BK14" s="3"/>
       <c r="BL14" s="3"/>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>1</v>
@@ -11866,7 +11887,7 @@
       <c r="BK15" s="3"/>
       <c r="BL15" s="3"/>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>1</v>
@@ -11943,7 +11964,7 @@
       <c r="BK16" s="3"/>
       <c r="BL16" s="3"/>
     </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -12025,7 +12046,7 @@
       <c r="BK17" s="3"/>
       <c r="BL17" s="3"/>
     </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -12103,7 +12124,7 @@
       <c r="BK18" s="3"/>
       <c r="BL18" s="3"/>
     </row>
-    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -12199,7 +12220,7 @@
       <c r="BK19" s="3"/>
       <c r="BL19" s="3"/>
     </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -12272,7 +12293,7 @@
       <c r="BK20" s="3"/>
       <c r="BL20" s="3"/>
     </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -12364,7 +12385,7 @@
       <c r="BK21" s="3"/>
       <c r="BL21" s="3"/>
     </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -12438,7 +12459,7 @@
       <c r="BK22" s="3"/>
       <c r="BL22" s="3"/>
     </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -12512,7 +12533,7 @@
       <c r="BK23" s="3"/>
       <c r="BL23" s="3"/>
     </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -12586,7 +12607,7 @@
       <c r="BK24" s="3"/>
       <c r="BL24" s="3"/>
     </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -12670,7 +12691,7 @@
       <c r="BK25" s="3"/>
       <c r="BL25" s="3"/>
     </row>
-    <row r="26" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -12736,7 +12757,7 @@
       <c r="BK26" s="3"/>
       <c r="BL26" s="3"/>
     </row>
-    <row r="27" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -12802,7 +12823,7 @@
       <c r="BK27" s="3"/>
       <c r="BL27" s="3"/>
     </row>
-    <row r="28" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -12867,7 +12888,7 @@
       <c r="BK28" s="3"/>
       <c r="BL28" s="3"/>
     </row>
-    <row r="29" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -12933,7 +12954,7 @@
       <c r="BK29" s="3"/>
       <c r="BL29" s="3"/>
     </row>
-    <row r="30" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -12999,7 +13020,7 @@
       <c r="BK30" s="3"/>
       <c r="BL30" s="3"/>
     </row>
-    <row r="31" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -13065,7 +13086,7 @@
       <c r="BK31" s="3"/>
       <c r="BL31" s="3"/>
     </row>
-    <row r="32" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -13131,7 +13152,7 @@
       <c r="BK32" s="3"/>
       <c r="BL32" s="3"/>
     </row>
-    <row r="33" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -13197,7 +13218,7 @@
       <c r="BK33" s="3"/>
       <c r="BL33" s="3"/>
     </row>
-    <row r="34" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -13263,7 +13284,7 @@
       <c r="BK34" s="3"/>
       <c r="BL34" s="3"/>
     </row>
-    <row r="35" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -13329,12 +13350,12 @@
       <c r="BK35" s="3"/>
       <c r="BL35" s="3"/>
     </row>
-    <row r="37" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:64" x14ac:dyDescent="0.3">
       <c r="AT37" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:64" x14ac:dyDescent="0.3">
       <c r="AU40" t="s">
         <v>7</v>
       </c>
@@ -13353,24 +13374,24 @@
       <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="9" width="4.28515625" style="29"/>
-    <col min="10" max="10" width="4.28515625" style="36"/>
-    <col min="11" max="19" width="4.28515625" style="29"/>
-    <col min="20" max="20" width="4.28515625" style="37"/>
-    <col min="21" max="29" width="4.28515625" style="29"/>
-    <col min="30" max="30" width="4.28515625" style="38"/>
-    <col min="31" max="39" width="4.28515625" style="29"/>
-    <col min="40" max="40" width="4.28515625" style="39"/>
-    <col min="41" max="49" width="4.28515625" style="29"/>
-    <col min="50" max="50" width="4.28515625" style="40"/>
-    <col min="51" max="54" width="4.28515625" style="29"/>
-    <col min="55" max="55" width="4.28515625" style="43"/>
-    <col min="56" max="16384" width="4.28515625" style="29"/>
+    <col min="1" max="9" width="4.33203125" style="29"/>
+    <col min="10" max="10" width="4.33203125" style="36"/>
+    <col min="11" max="19" width="4.33203125" style="29"/>
+    <col min="20" max="20" width="4.33203125" style="37"/>
+    <col min="21" max="29" width="4.33203125" style="29"/>
+    <col min="30" max="30" width="4.33203125" style="38"/>
+    <col min="31" max="39" width="4.33203125" style="29"/>
+    <col min="40" max="40" width="4.33203125" style="39"/>
+    <col min="41" max="49" width="4.33203125" style="29"/>
+    <col min="50" max="50" width="4.33203125" style="40"/>
+    <col min="51" max="54" width="4.33203125" style="29"/>
+    <col min="55" max="55" width="4.33203125" style="43"/>
+    <col min="56" max="16384" width="4.33203125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:103" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="62"/>
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
@@ -13474,7 +13495,7 @@
       <c r="CX1" s="64"/>
       <c r="CY1" s="64"/>
     </row>
-    <row r="2" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44"/>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
@@ -13581,7 +13602,7 @@
       <c r="CX2" s="28"/>
       <c r="CY2" s="28"/>
     </row>
-    <row r="3" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="44"/>
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
@@ -13688,7 +13709,7 @@
       <c r="CX3" s="28"/>
       <c r="CY3" s="28"/>
     </row>
-    <row r="4" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="44"/>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -13795,7 +13816,7 @@
       <c r="CX4" s="28"/>
       <c r="CY4" s="28"/>
     </row>
-    <row r="5" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="44"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
@@ -13902,7 +13923,7 @@
       <c r="CX5" s="28"/>
       <c r="CY5" s="28"/>
     </row>
-    <row r="6" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="44"/>
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
@@ -14009,7 +14030,7 @@
       <c r="CX6" s="28"/>
       <c r="CY6" s="28"/>
     </row>
-    <row r="7" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="44"/>
       <c r="B7" s="44"/>
       <c r="C7" s="44"/>
@@ -14116,7 +14137,7 @@
       <c r="CX7" s="28"/>
       <c r="CY7" s="28"/>
     </row>
-    <row r="8" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="44"/>
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
@@ -14223,7 +14244,7 @@
       <c r="CX8" s="28"/>
       <c r="CY8" s="28"/>
     </row>
-    <row r="9" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="44"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
@@ -14330,7 +14351,7 @@
       <c r="CX9" s="28"/>
       <c r="CY9" s="28"/>
     </row>
-    <row r="10" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="44"/>
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
@@ -14437,7 +14458,7 @@
       <c r="CX10" s="28"/>
       <c r="CY10" s="28"/>
     </row>
-    <row r="11" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="44"/>
       <c r="B11" s="44"/>
       <c r="C11" s="44"/>
@@ -14544,7 +14565,7 @@
       <c r="CX11" s="28"/>
       <c r="CY11" s="28"/>
     </row>
-    <row r="12" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="44"/>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
@@ -14651,7 +14672,7 @@
       <c r="CX12" s="28"/>
       <c r="CY12" s="28"/>
     </row>
-    <row r="13" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="44"/>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
@@ -14758,7 +14779,7 @@
       <c r="CX13" s="28"/>
       <c r="CY13" s="28"/>
     </row>
-    <row r="14" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="44"/>
       <c r="B14" s="44"/>
       <c r="C14" s="44"/>
@@ -14865,7 +14886,7 @@
       <c r="CX14" s="28"/>
       <c r="CY14" s="28"/>
     </row>
-    <row r="15" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="44"/>
       <c r="B15" s="44"/>
       <c r="C15" s="44"/>
@@ -14986,7 +15007,7 @@
       <c r="CX15" s="28"/>
       <c r="CY15" s="28"/>
     </row>
-    <row r="16" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="44"/>
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
@@ -15101,7 +15122,7 @@
       <c r="CX16" s="28"/>
       <c r="CY16" s="28"/>
     </row>
-    <row r="17" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="44"/>
       <c r="B17" s="44"/>
       <c r="C17" s="44"/>
@@ -15220,7 +15241,7 @@
       <c r="CX17" s="28"/>
       <c r="CY17" s="28"/>
     </row>
-    <row r="18" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="44"/>
       <c r="B18" s="44"/>
       <c r="C18" s="44"/>
@@ -15342,7 +15363,7 @@
       <c r="CX18" s="28"/>
       <c r="CY18" s="28"/>
     </row>
-    <row r="19" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="44"/>
       <c r="B19" s="44"/>
       <c r="C19" s="44"/>
@@ -15483,7 +15504,7 @@
       <c r="CX19" s="28"/>
       <c r="CY19" s="28"/>
     </row>
-    <row r="20" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="44" t="s">
         <v>9</v>
       </c>
@@ -15608,7 +15629,7 @@
       <c r="CX20" s="28"/>
       <c r="CY20" s="28"/>
     </row>
-    <row r="21" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="44" t="s">
         <v>0</v>
       </c>
@@ -15724,7 +15745,7 @@
       <c r="CX21" s="28"/>
       <c r="CY21" s="28"/>
     </row>
-    <row r="22" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="44"/>
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
@@ -15853,7 +15874,7 @@
       <c r="CX22" s="28"/>
       <c r="CY22" s="28"/>
     </row>
-    <row r="23" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="44"/>
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
@@ -15964,7 +15985,7 @@
       <c r="CX23" s="28"/>
       <c r="CY23" s="28"/>
     </row>
-    <row r="24" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="44"/>
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
@@ -16076,7 +16097,7 @@
       <c r="CX24" s="28"/>
       <c r="CY24" s="28"/>
     </row>
-    <row r="25" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="44"/>
       <c r="B25" s="44"/>
       <c r="C25" s="44"/>
@@ -16199,7 +16220,7 @@
       <c r="CX25" s="28"/>
       <c r="CY25" s="28"/>
     </row>
-    <row r="26" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="44"/>
       <c r="B26" s="44"/>
       <c r="C26" s="44"/>
@@ -16328,7 +16349,7 @@
       <c r="CX26" s="28"/>
       <c r="CY26" s="28"/>
     </row>
-    <row r="27" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="44"/>
       <c r="B27" s="44"/>
       <c r="C27" s="44"/>
@@ -16439,7 +16460,7 @@
       <c r="CX27" s="28"/>
       <c r="CY27" s="28"/>
     </row>
-    <row r="28" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="44"/>
       <c r="B28" s="44"/>
       <c r="C28" s="44"/>
@@ -16548,7 +16569,7 @@
       <c r="CX28" s="28"/>
       <c r="CY28" s="28"/>
     </row>
-    <row r="29" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="44"/>
       <c r="B29" s="44"/>
       <c r="C29" s="44"/>
@@ -16673,7 +16694,7 @@
       <c r="CX29" s="28"/>
       <c r="CY29" s="28"/>
     </row>
-    <row r="30" spans="1:103" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:103" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="54"/>
       <c r="B30" s="54"/>
       <c r="C30" s="54"/>
@@ -16780,7 +16801,7 @@
       <c r="CX30" s="28"/>
       <c r="CY30" s="28"/>
     </row>
-    <row r="31" spans="1:103" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:103" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="BC31" s="51">
         <v>29</v>
       </c>
@@ -16833,7 +16854,7 @@
       <c r="CX31" s="67"/>
       <c r="CY31" s="67"/>
     </row>
-    <row r="32" spans="1:103" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:103" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="53">
         <v>0</v>
       </c>
@@ -17046,7 +17067,7 @@
       <c r="CX32" s="28"/>
       <c r="CY32" s="28"/>
     </row>
-    <row r="33" spans="1:103" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:103" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="28"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -17151,7 +17172,7 @@
       <c r="CX33" s="28"/>
       <c r="CY33" s="28"/>
     </row>
-    <row r="34" spans="1:103" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:103" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J34" s="30"/>
       <c r="T34" s="31"/>
       <c r="AD34" s="32"/>
@@ -17159,7 +17180,7 @@
       <c r="AX34" s="34"/>
       <c r="BC34" s="35"/>
     </row>
-    <row r="35" spans="1:103" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:103" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="28"/>
       <c r="B35" s="28"/>
       <c r="C35" s="28"/>
@@ -17264,7 +17285,7 @@
       <c r="CX35" s="28"/>
       <c r="CY35" s="28"/>
     </row>
-    <row r="36" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="28"/>
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
@@ -17369,7 +17390,7 @@
       <c r="CX36" s="28"/>
       <c r="CY36" s="28"/>
     </row>
-    <row r="37" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="28"/>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
@@ -17474,7 +17495,7 @@
       <c r="CX37" s="28"/>
       <c r="CY37" s="28"/>
     </row>
-    <row r="38" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="28"/>
       <c r="B38" s="28"/>
       <c r="C38" s="28"/>
@@ -17579,7 +17600,7 @@
       <c r="CX38" s="28"/>
       <c r="CY38" s="28"/>
     </row>
-    <row r="39" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="28"/>
       <c r="B39" s="28"/>
       <c r="C39" s="28"/>
@@ -17684,7 +17705,7 @@
       <c r="CX39" s="28"/>
       <c r="CY39" s="28"/>
     </row>
-    <row r="40" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="28"/>
       <c r="B40" s="28"/>
       <c r="C40" s="28"/>
@@ -17789,7 +17810,7 @@
       <c r="CX40" s="28"/>
       <c r="CY40" s="28"/>
     </row>
-    <row r="41" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="28"/>
       <c r="B41" s="28"/>
       <c r="C41" s="28"/>
@@ -17894,7 +17915,7 @@
       <c r="CX41" s="28"/>
       <c r="CY41" s="28"/>
     </row>
-    <row r="42" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="28"/>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
@@ -17999,7 +18020,7 @@
       <c r="CX42" s="28"/>
       <c r="CY42" s="28"/>
     </row>
-    <row r="43" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="28"/>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
@@ -18104,7 +18125,7 @@
       <c r="CX43" s="28"/>
       <c r="CY43" s="28"/>
     </row>
-    <row r="44" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
@@ -18209,7 +18230,7 @@
       <c r="CX44" s="28"/>
       <c r="CY44" s="28"/>
     </row>
-    <row r="45" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
@@ -18314,7 +18335,7 @@
       <c r="CX45" s="28"/>
       <c r="CY45" s="28"/>
     </row>
-    <row r="46" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="28"/>
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
@@ -18419,7 +18440,7 @@
       <c r="CX46" s="28"/>
       <c r="CY46" s="28"/>
     </row>
-    <row r="47" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="BC47" s="41"/>
       <c r="BD47" s="42"/>
       <c r="BE47" s="42"/>
@@ -18481,7 +18502,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18495,9 +18516,9 @@
       <selection activeCell="AE8" sqref="AE8:AK13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A1" s="62"/>
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
@@ -18554,7 +18575,7 @@
       <c r="BB1" s="63"/>
       <c r="BC1" s="65"/>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A2" s="44"/>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
@@ -18613,7 +18634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A3" s="44"/>
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
@@ -18672,7 +18693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A4" s="44"/>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -18731,7 +18752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A5" s="44"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
@@ -18790,7 +18811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A6" s="44"/>
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
@@ -18849,7 +18870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A7" s="44"/>
       <c r="B7" s="44"/>
       <c r="C7" s="44"/>
@@ -18907,7 +18928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A8" s="44"/>
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
@@ -18988,7 +19009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A9" s="44"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
@@ -19069,7 +19090,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A10" s="44"/>
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
@@ -19144,7 +19165,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A11" s="44"/>
       <c r="B11" s="44"/>
       <c r="C11" s="44"/>
@@ -19219,7 +19240,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A12" s="44"/>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
@@ -19296,7 +19317,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A13" s="44"/>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
@@ -19377,7 +19398,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A14" s="44"/>
       <c r="B14" s="44"/>
       <c r="C14" s="44"/>
@@ -19446,7 +19467,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A15" s="44"/>
       <c r="B15" s="44"/>
       <c r="C15" s="44"/>
@@ -19519,7 +19540,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A16" s="44"/>
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
@@ -19582,7 +19603,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A17" s="44"/>
       <c r="B17" s="44"/>
       <c r="C17" s="44"/>
@@ -19645,7 +19666,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A18" s="44"/>
       <c r="B18" s="44"/>
       <c r="C18" s="44"/>
@@ -19709,7 +19730,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A19" s="44" t="s">
         <v>0</v>
       </c>
@@ -19800,7 +19821,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A20" s="44"/>
       <c r="B20" s="44"/>
       <c r="C20" s="44"/>
@@ -19861,7 +19882,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A21" s="44"/>
       <c r="B21" s="44"/>
       <c r="C21" s="44"/>
@@ -19922,7 +19943,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A22" s="44"/>
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
@@ -19983,7 +20004,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A23" s="44"/>
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
@@ -20044,7 +20065,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A24" s="44"/>
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
@@ -20105,7 +20126,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A25" s="44" t="s">
         <v>9</v>
       </c>
@@ -20168,7 +20189,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A26" s="44" t="s">
         <v>15</v>
       </c>
@@ -20245,7 +20266,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A27" s="44"/>
       <c r="B27" s="44"/>
       <c r="C27" s="44"/>
@@ -20304,7 +20325,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A28" s="44"/>
       <c r="B28" s="44"/>
       <c r="C28" s="44"/>
@@ -20363,7 +20384,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A29" s="44"/>
       <c r="B29" s="44"/>
       <c r="C29" s="44"/>
@@ -20422,7 +20443,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A30" s="54"/>
       <c r="B30" s="54"/>
       <c r="C30" s="54"/>
@@ -20481,7 +20502,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="66"/>
       <c r="B31" s="66"/>
       <c r="C31" s="66"/>
@@ -20540,7 +20561,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A32" s="53">
         <v>0</v>
       </c>
@@ -20714,13 +20735,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF70BD8-2872-42BA-B1C3-A79569DA3A3A}">
   <dimension ref="A1:BC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AS24" sqref="AS24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A1" s="62"/>
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
@@ -20777,7 +20798,7 @@
       <c r="BB1" s="63"/>
       <c r="BC1" s="65"/>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A2" s="44"/>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
@@ -20836,7 +20857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A3" s="44"/>
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
@@ -20895,7 +20916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A4" s="44"/>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -20954,7 +20975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A5" s="44"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
@@ -21013,7 +21034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A6" s="44"/>
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
@@ -21072,7 +21093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A7" s="44"/>
       <c r="B7" s="44"/>
       <c r="C7" s="44"/>
@@ -21131,7 +21152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A8" s="44"/>
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
@@ -21170,7 +21191,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A9" s="44"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
@@ -21209,7 +21230,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A10" s="44"/>
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
@@ -21268,7 +21289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A11" s="44"/>
       <c r="B11" s="44"/>
       <c r="C11" s="44"/>
@@ -21324,7 +21345,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A12" s="44"/>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
@@ -21363,7 +21384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
         <v>0</v>
       </c>
@@ -21438,7 +21459,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A14" s="44"/>
       <c r="B14" s="44"/>
       <c r="C14" s="44"/>
@@ -21501,7 +21522,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A15" s="44"/>
       <c r="B15" s="44"/>
       <c r="C15" s="44"/>
@@ -21562,7 +21583,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A16" s="44"/>
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
@@ -21625,7 +21646,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A17" s="44"/>
       <c r="B17" s="44"/>
       <c r="C17" s="44"/>
@@ -21688,7 +21709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A18" s="44"/>
       <c r="B18" s="44"/>
       <c r="C18" s="44"/>
@@ -21833,7 +21854,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A19" s="44"/>
       <c r="B19" s="44"/>
       <c r="C19" s="44"/>
@@ -21892,7 +21913,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A20" s="44"/>
       <c r="B20" s="44"/>
       <c r="C20" s="44"/>
@@ -21950,7 +21971,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A21" s="44"/>
       <c r="B21" s="44"/>
       <c r="C21" s="44"/>
@@ -22009,7 +22030,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A22" s="44"/>
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
@@ -22067,7 +22088,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A23" s="44"/>
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
@@ -22126,7 +22147,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A24" s="44"/>
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
@@ -22185,7 +22206,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A25" s="44"/>
       <c r="B25" s="44"/>
       <c r="C25" s="44"/>
@@ -22244,7 +22265,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A26" s="44"/>
       <c r="B26" s="44"/>
       <c r="C26" s="44"/>
@@ -22302,7 +22323,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A27" s="44"/>
       <c r="B27" s="44"/>
       <c r="C27" s="44"/>
@@ -22361,7 +22382,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A28" s="44"/>
       <c r="B28" s="44"/>
       <c r="C28" s="44"/>
@@ -22420,7 +22441,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A29" s="44"/>
       <c r="B29" s="44"/>
       <c r="C29" s="44"/>
@@ -22479,7 +22500,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A30" s="54"/>
       <c r="B30" s="54"/>
       <c r="C30" s="54"/>
@@ -22538,7 +22559,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="66"/>
       <c r="B31" s="66"/>
       <c r="C31" s="66"/>
@@ -22597,7 +22618,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A32" s="53">
         <v>0</v>
       </c>

--- a/GUI_20212202_AYZ8R9/Maps/map.xlsx
+++ b/GUI_20212202_AYZ8R9/Maps/map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krisz\OneDrive\Asztali gép\SZTGUI Féléves\GUI_20212202_AYZ8R9\GUI_20212202_AYZ8R9\Maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3371D33F-5AE0-4311-AE08-7B0EF037CA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33D775D-0A62-4B9F-AF99-7D3EE07C4664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="28">
   <si>
     <t>B</t>
   </si>
@@ -131,7 +131,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,8 +165,16 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,6 +226,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -420,6 +434,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -706,25 +729,25 @@
       <selection activeCell="AL27" sqref="AL27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="4.33203125" style="29"/>
-    <col min="10" max="10" width="4.33203125" style="36"/>
-    <col min="11" max="18" width="4.33203125" style="29"/>
-    <col min="19" max="19" width="4.33203125" style="29" customWidth="1"/>
-    <col min="20" max="20" width="4.33203125" style="37" customWidth="1"/>
-    <col min="21" max="29" width="4.33203125" style="29"/>
-    <col min="30" max="30" width="4.33203125" style="38"/>
-    <col min="31" max="39" width="4.33203125" style="29"/>
-    <col min="40" max="40" width="4.33203125" style="39"/>
-    <col min="41" max="49" width="4.33203125" style="29"/>
-    <col min="50" max="50" width="4.33203125" style="40"/>
-    <col min="51" max="54" width="4.33203125" style="29"/>
-    <col min="55" max="55" width="4.33203125" style="43"/>
-    <col min="56" max="16384" width="4.33203125" style="29"/>
+    <col min="1" max="9" width="4.28515625" style="29"/>
+    <col min="10" max="10" width="4.28515625" style="36"/>
+    <col min="11" max="18" width="4.28515625" style="29"/>
+    <col min="19" max="19" width="4.28515625" style="29" customWidth="1"/>
+    <col min="20" max="20" width="4.28515625" style="37" customWidth="1"/>
+    <col min="21" max="29" width="4.28515625" style="29"/>
+    <col min="30" max="30" width="4.28515625" style="38"/>
+    <col min="31" max="39" width="4.28515625" style="29"/>
+    <col min="40" max="40" width="4.28515625" style="39"/>
+    <col min="41" max="49" width="4.28515625" style="29"/>
+    <col min="50" max="50" width="4.28515625" style="40"/>
+    <col min="51" max="54" width="4.28515625" style="29"/>
+    <col min="55" max="55" width="4.28515625" style="43"/>
+    <col min="56" max="16384" width="4.28515625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:103" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="62"/>
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
@@ -828,7 +851,7 @@
       <c r="CX1" s="64"/>
       <c r="CY1" s="64"/>
     </row>
-    <row r="2" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="44"/>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
@@ -935,7 +958,7 @@
       <c r="CX2" s="28"/>
       <c r="CY2" s="28"/>
     </row>
-    <row r="3" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="44"/>
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
@@ -1042,7 +1065,7 @@
       <c r="CX3" s="28"/>
       <c r="CY3" s="28"/>
     </row>
-    <row r="4" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="44"/>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -1149,7 +1172,7 @@
       <c r="CX4" s="28"/>
       <c r="CY4" s="28"/>
     </row>
-    <row r="5" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="44"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
@@ -1256,7 +1279,7 @@
       <c r="CX5" s="28"/>
       <c r="CY5" s="28"/>
     </row>
-    <row r="6" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="44"/>
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
@@ -1363,7 +1386,7 @@
       <c r="CX6" s="28"/>
       <c r="CY6" s="28"/>
     </row>
-    <row r="7" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="44"/>
       <c r="B7" s="44"/>
       <c r="C7" s="44"/>
@@ -1470,7 +1493,7 @@
       <c r="CX7" s="28"/>
       <c r="CY7" s="28"/>
     </row>
-    <row r="8" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="44"/>
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
@@ -1577,7 +1600,7 @@
       <c r="CX8" s="28"/>
       <c r="CY8" s="28"/>
     </row>
-    <row r="9" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="44"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
@@ -1684,7 +1707,7 @@
       <c r="CX9" s="28"/>
       <c r="CY9" s="28"/>
     </row>
-    <row r="10" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="44"/>
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
@@ -1791,7 +1814,7 @@
       <c r="CX10" s="28"/>
       <c r="CY10" s="28"/>
     </row>
-    <row r="11" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="44"/>
       <c r="B11" s="44"/>
       <c r="C11" s="44"/>
@@ -1898,7 +1921,7 @@
       <c r="CX11" s="28"/>
       <c r="CY11" s="28"/>
     </row>
-    <row r="12" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="44"/>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
@@ -2005,7 +2028,7 @@
       <c r="CX12" s="28"/>
       <c r="CY12" s="28"/>
     </row>
-    <row r="13" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="44"/>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
@@ -2112,7 +2135,7 @@
       <c r="CX13" s="28"/>
       <c r="CY13" s="28"/>
     </row>
-    <row r="14" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" s="44"/>
       <c r="C14" s="44"/>
@@ -2219,7 +2242,7 @@
       <c r="CX14" s="28"/>
       <c r="CY14" s="28"/>
     </row>
-    <row r="15" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="44"/>
       <c r="B15" s="44"/>
       <c r="C15" s="44"/>
@@ -2326,7 +2349,7 @@
       <c r="CX15" s="28"/>
       <c r="CY15" s="28"/>
     </row>
-    <row r="16" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="44"/>
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
@@ -2455,7 +2478,7 @@
       <c r="CX16" s="28"/>
       <c r="CY16" s="28"/>
     </row>
-    <row r="17" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
       <c r="B17" s="44"/>
       <c r="C17" s="44"/>
@@ -2584,7 +2607,7 @@
       <c r="CX17" s="28"/>
       <c r="CY17" s="28"/>
     </row>
-    <row r="18" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="44"/>
       <c r="B18" s="44"/>
       <c r="C18" s="44"/>
@@ -2713,7 +2736,7 @@
       <c r="CX18" s="28"/>
       <c r="CY18" s="28"/>
     </row>
-    <row r="19" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="44"/>
       <c r="B19" s="44"/>
       <c r="C19" s="44"/>
@@ -2848,7 +2871,7 @@
       <c r="CX19" s="28"/>
       <c r="CY19" s="28"/>
     </row>
-    <row r="20" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="s">
         <v>0</v>
       </c>
@@ -3063,7 +3086,7 @@
       <c r="CX20" s="28"/>
       <c r="CY20" s="28"/>
     </row>
-    <row r="21" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
       <c r="B21" s="44"/>
       <c r="C21" s="44"/>
@@ -3170,7 +3193,7 @@
       <c r="CX21" s="28"/>
       <c r="CY21" s="28"/>
     </row>
-    <row r="22" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="44"/>
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
@@ -3277,7 +3300,7 @@
       <c r="CX22" s="28"/>
       <c r="CY22" s="28"/>
     </row>
-    <row r="23" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="44"/>
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
@@ -3384,7 +3407,7 @@
       <c r="CX23" s="28"/>
       <c r="CY23" s="28"/>
     </row>
-    <row r="24" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="44"/>
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
@@ -3491,7 +3514,7 @@
       <c r="CX24" s="28"/>
       <c r="CY24" s="28"/>
     </row>
-    <row r="25" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="44"/>
       <c r="B25" s="44"/>
       <c r="C25" s="44"/>
@@ -3598,7 +3621,7 @@
       <c r="CX25" s="28"/>
       <c r="CY25" s="28"/>
     </row>
-    <row r="26" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="44"/>
       <c r="B26" s="44"/>
       <c r="C26" s="44"/>
@@ -3705,7 +3728,7 @@
       <c r="CX26" s="28"/>
       <c r="CY26" s="28"/>
     </row>
-    <row r="27" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="44"/>
       <c r="B27" s="44"/>
       <c r="C27" s="44"/>
@@ -3812,7 +3835,7 @@
       <c r="CX27" s="28"/>
       <c r="CY27" s="28"/>
     </row>
-    <row r="28" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="44"/>
       <c r="B28" s="44"/>
       <c r="C28" s="44"/>
@@ -3919,7 +3942,7 @@
       <c r="CX28" s="28"/>
       <c r="CY28" s="28"/>
     </row>
-    <row r="29" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="44"/>
       <c r="B29" s="44"/>
       <c r="C29" s="44"/>
@@ -4026,7 +4049,7 @@
       <c r="CX29" s="28"/>
       <c r="CY29" s="28"/>
     </row>
-    <row r="30" spans="1:103" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:103" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="54"/>
       <c r="B30" s="54"/>
       <c r="C30" s="54"/>
@@ -4133,7 +4156,7 @@
       <c r="CX30" s="28"/>
       <c r="CY30" s="28"/>
     </row>
-    <row r="31" spans="1:103" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:103" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC31" s="51">
         <v>29</v>
       </c>
@@ -4186,7 +4209,7 @@
       <c r="CX31" s="67"/>
       <c r="CY31" s="67"/>
     </row>
-    <row r="32" spans="1:103" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:103" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="53">
         <v>0</v>
       </c>
@@ -4399,7 +4422,7 @@
       <c r="CX32" s="28"/>
       <c r="CY32" s="28"/>
     </row>
-    <row r="33" spans="1:103" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:103" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="28"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -4504,7 +4527,7 @@
       <c r="CX33" s="28"/>
       <c r="CY33" s="28"/>
     </row>
-    <row r="34" spans="1:103" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:103" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J34" s="30"/>
       <c r="T34" s="31"/>
       <c r="AD34" s="32"/>
@@ -4512,7 +4535,7 @@
       <c r="AX34" s="34"/>
       <c r="BC34" s="35"/>
     </row>
-    <row r="35" spans="1:103" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:103" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="28"/>
       <c r="B35" s="28"/>
       <c r="C35" s="28"/>
@@ -4617,7 +4640,7 @@
       <c r="CX35" s="28"/>
       <c r="CY35" s="28"/>
     </row>
-    <row r="36" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="28"/>
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
@@ -4722,7 +4745,7 @@
       <c r="CX36" s="28"/>
       <c r="CY36" s="28"/>
     </row>
-    <row r="37" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="28"/>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
@@ -4827,7 +4850,7 @@
       <c r="CX37" s="28"/>
       <c r="CY37" s="28"/>
     </row>
-    <row r="38" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="28"/>
       <c r="B38" s="28"/>
       <c r="C38" s="28"/>
@@ -4932,7 +4955,7 @@
       <c r="CX38" s="28"/>
       <c r="CY38" s="28"/>
     </row>
-    <row r="39" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="28"/>
       <c r="B39" s="28"/>
       <c r="C39" s="28"/>
@@ -5037,7 +5060,7 @@
       <c r="CX39" s="28"/>
       <c r="CY39" s="28"/>
     </row>
-    <row r="40" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="28"/>
       <c r="B40" s="28"/>
       <c r="C40" s="28"/>
@@ -5142,7 +5165,7 @@
       <c r="CX40" s="28"/>
       <c r="CY40" s="28"/>
     </row>
-    <row r="41" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="28"/>
       <c r="B41" s="28"/>
       <c r="C41" s="28"/>
@@ -5247,7 +5270,7 @@
       <c r="CX41" s="28"/>
       <c r="CY41" s="28"/>
     </row>
-    <row r="42" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="28"/>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
@@ -5352,7 +5375,7 @@
       <c r="CX42" s="28"/>
       <c r="CY42" s="28"/>
     </row>
-    <row r="43" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="28"/>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
@@ -5457,7 +5480,7 @@
       <c r="CX43" s="28"/>
       <c r="CY43" s="28"/>
     </row>
-    <row r="44" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
@@ -5562,7 +5585,7 @@
       <c r="CX44" s="28"/>
       <c r="CY44" s="28"/>
     </row>
-    <row r="45" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
@@ -5667,7 +5690,7 @@
       <c r="CX45" s="28"/>
       <c r="CY45" s="28"/>
     </row>
-    <row r="46" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="28"/>
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
@@ -5772,7 +5795,7 @@
       <c r="CX46" s="28"/>
       <c r="CY46" s="28"/>
     </row>
-    <row r="47" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC47" s="41"/>
       <c r="BD47" s="42"/>
       <c r="BE47" s="42"/>
@@ -5833,21 +5856,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32EA023-0038-482A-B633-0391C0CB8525}">
   <dimension ref="A1:BL35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="4.44140625" style="6"/>
-    <col min="20" max="20" width="4.44140625" style="8"/>
-    <col min="30" max="30" width="4.44140625" style="10"/>
-    <col min="40" max="40" width="4.44140625" style="12"/>
-    <col min="50" max="50" width="4.44140625" style="14"/>
+    <col min="10" max="10" width="4.42578125" style="6"/>
+    <col min="20" max="20" width="4.42578125" style="8"/>
+    <col min="30" max="30" width="4.42578125" style="10"/>
+    <col min="40" max="40" width="4.42578125" style="12"/>
+    <col min="50" max="50" width="4.42578125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="68" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:64" s="68" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -5913,7 +5936,7 @@
       <c r="BK2" s="3"/>
       <c r="BL2" s="3"/>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -5979,7 +6002,7 @@
       <c r="BK3" s="3"/>
       <c r="BL3" s="3"/>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -6045,7 +6068,7 @@
       <c r="BK4" s="3"/>
       <c r="BL4" s="3"/>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -6111,7 +6134,7 @@
       <c r="BK5" s="3"/>
       <c r="BL5" s="3"/>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -6177,7 +6200,7 @@
       <c r="BK6" s="3"/>
       <c r="BL6" s="3"/>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -6243,7 +6266,7 @@
       <c r="BK7" s="3"/>
       <c r="BL7" s="3"/>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -6309,7 +6332,7 @@
       <c r="BK8" s="3"/>
       <c r="BL8" s="3"/>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -6379,7 +6402,7 @@
       <c r="BK9" s="3"/>
       <c r="BL9" s="3"/>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -6449,7 +6472,7 @@
       <c r="BK10" s="3"/>
       <c r="BL10" s="3"/>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -6518,7 +6541,7 @@
       <c r="BK11" s="3"/>
       <c r="BL11" s="3"/>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -6588,7 +6611,7 @@
       <c r="BK12" s="3"/>
       <c r="BL12" s="3"/>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -6658,7 +6681,7 @@
       <c r="BK13" s="3"/>
       <c r="BL13" s="3"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -6758,7 +6781,7 @@
       <c r="BK14" s="3"/>
       <c r="BL14" s="3"/>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -6824,7 +6847,7 @@
       <c r="BK15" s="3"/>
       <c r="BL15" s="3"/>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -6898,7 +6921,7 @@
       <c r="BK16" s="3"/>
       <c r="BL16" s="3"/>
     </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -6988,7 +7011,7 @@
       <c r="BK17" s="3"/>
       <c r="BL17" s="3"/>
     </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -7070,7 +7093,7 @@
       <c r="BK18" s="3"/>
       <c r="BL18" s="3"/>
     </row>
-    <row r="19" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -7156,7 +7179,7 @@
       <c r="BK19" s="3"/>
       <c r="BL19" s="3"/>
     </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -7233,7 +7256,7 @@
       <c r="BK20" s="3"/>
       <c r="BL20" s="3"/>
     </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -7332,7 +7355,7 @@
       <c r="BK21" s="3"/>
       <c r="BL21" s="3"/>
     </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -7407,7 +7430,7 @@
       <c r="BK22" s="3"/>
       <c r="BL22" s="3"/>
     </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -7480,7 +7503,7 @@
       <c r="BK23" s="3"/>
       <c r="BL23" s="3"/>
     </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -7553,7 +7576,7 @@
       <c r="BK24" s="3"/>
       <c r="BL24" s="3"/>
     </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -7626,7 +7649,7 @@
       <c r="BK25" s="3"/>
       <c r="BL25" s="3"/>
     </row>
-    <row r="26" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -7701,7 +7724,7 @@
       <c r="BK26" s="3"/>
       <c r="BL26" s="3"/>
     </row>
-    <row r="27" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -7779,7 +7802,7 @@
       <c r="BK27" s="3"/>
       <c r="BL27" s="3"/>
     </row>
-    <row r="28" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -7844,7 +7867,7 @@
       <c r="BK28" s="3"/>
       <c r="BL28" s="3"/>
     </row>
-    <row r="29" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -7910,7 +7933,7 @@
       <c r="BK29" s="3"/>
       <c r="BL29" s="3"/>
     </row>
-    <row r="30" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -7976,7 +7999,7 @@
       <c r="BK30" s="3"/>
       <c r="BL30" s="3"/>
     </row>
-    <row r="31" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -8042,7 +8065,7 @@
       <c r="BK31" s="3"/>
       <c r="BL31" s="3"/>
     </row>
-    <row r="32" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -8108,7 +8131,7 @@
       <c r="BK32" s="3"/>
       <c r="BL32" s="3"/>
     </row>
-    <row r="33" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -8174,7 +8197,7 @@
       <c r="BK33" s="3"/>
       <c r="BL33" s="3"/>
     </row>
-    <row r="34" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -8240,7 +8263,7 @@
       <c r="BK34" s="3"/>
       <c r="BL34" s="3"/>
     </row>
-    <row r="35" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -8319,17 +8342,17 @@
       <selection activeCell="AK6" sqref="AK6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="4.44140625" style="6"/>
-    <col min="20" max="20" width="4.44140625" style="8"/>
-    <col min="30" max="30" width="4.44140625" style="10"/>
-    <col min="40" max="40" width="4.44140625" style="12"/>
-    <col min="50" max="50" width="4.44140625" style="14"/>
+    <col min="10" max="10" width="4.42578125" style="6"/>
+    <col min="20" max="20" width="4.42578125" style="8"/>
+    <col min="30" max="30" width="4.42578125" style="10"/>
+    <col min="40" max="40" width="4.42578125" style="12"/>
+    <col min="50" max="50" width="4.42578125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="68" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:64" s="68" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -8395,7 +8418,7 @@
       <c r="BK2" s="3"/>
       <c r="BL2" s="3"/>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -8461,7 +8484,7 @@
       <c r="BK3" s="3"/>
       <c r="BL3" s="3"/>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -8527,7 +8550,7 @@
       <c r="BK4" s="3"/>
       <c r="BL4" s="3"/>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -8595,7 +8618,7 @@
       <c r="BK5" s="3"/>
       <c r="BL5" s="3"/>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -8670,7 +8693,7 @@
       <c r="BK6" s="3"/>
       <c r="BL6" s="3"/>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -8766,7 +8789,7 @@
       <c r="BK7" s="3"/>
       <c r="BL7" s="3"/>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -8848,7 +8871,7 @@
       <c r="BK8" s="3"/>
       <c r="BL8" s="3"/>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
@@ -8930,7 +8953,7 @@
       <c r="BK9" s="3"/>
       <c r="BL9" s="3"/>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -9014,7 +9037,7 @@
       <c r="BK10" s="3"/>
       <c r="BL10" s="3"/>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="5"/>
@@ -9085,7 +9108,7 @@
       <c r="BK11" s="3"/>
       <c r="BL11" s="3"/>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -9163,7 +9186,7 @@
       <c r="BK12" s="3"/>
       <c r="BL12" s="3"/>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -9259,7 +9282,7 @@
       <c r="BK13" s="3"/>
       <c r="BL13" s="3"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -9345,7 +9368,7 @@
       <c r="BK14" s="3"/>
       <c r="BL14" s="3"/>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -9425,7 +9448,7 @@
       <c r="BK15" s="3"/>
       <c r="BL15" s="3"/>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -9509,7 +9532,7 @@
       <c r="BK16" s="3"/>
       <c r="BL16" s="3"/>
     </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -9597,7 +9620,7 @@
       <c r="BK17" s="3"/>
       <c r="BL17" s="3"/>
     </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -9681,7 +9704,7 @@
       <c r="BK18" s="3"/>
       <c r="BL18" s="3"/>
     </row>
-    <row r="19" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -9761,7 +9784,7 @@
       <c r="BK19" s="3"/>
       <c r="BL19" s="3"/>
     </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -9844,7 +9867,7 @@
       <c r="BK20" s="3"/>
       <c r="BL20" s="3"/>
     </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -9912,7 +9935,7 @@
       <c r="BK21" s="3"/>
       <c r="BL21" s="3"/>
     </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -9986,7 +10009,7 @@
       <c r="BK22" s="3"/>
       <c r="BL22" s="3"/>
     </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -10060,7 +10083,7 @@
       <c r="BK23" s="3"/>
       <c r="BL23" s="3"/>
     </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -10136,7 +10159,7 @@
       <c r="BK24" s="3"/>
       <c r="BL24" s="3"/>
     </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -10208,7 +10231,7 @@
       <c r="BK25" s="3"/>
       <c r="BL25" s="3"/>
     </row>
-    <row r="26" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -10281,7 +10304,7 @@
       <c r="BK26" s="3"/>
       <c r="BL26" s="3"/>
     </row>
-    <row r="27" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -10369,7 +10392,7 @@
       <c r="BK27" s="3"/>
       <c r="BL27" s="3"/>
     </row>
-    <row r="28" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -10434,7 +10457,7 @@
       <c r="BK28" s="3"/>
       <c r="BL28" s="3"/>
     </row>
-    <row r="29" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -10500,7 +10523,7 @@
       <c r="BK29" s="3"/>
       <c r="BL29" s="3"/>
     </row>
-    <row r="30" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -10566,7 +10589,7 @@
       <c r="BK30" s="3"/>
       <c r="BL30" s="3"/>
     </row>
-    <row r="31" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -10632,7 +10655,7 @@
       <c r="BK31" s="3"/>
       <c r="BL31" s="3"/>
     </row>
-    <row r="32" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -10698,7 +10721,7 @@
       <c r="BK32" s="3"/>
       <c r="BL32" s="3"/>
     </row>
-    <row r="33" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -10764,7 +10787,7 @@
       <c r="BK33" s="3"/>
       <c r="BL33" s="3"/>
     </row>
-    <row r="34" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -10830,7 +10853,7 @@
       <c r="BK34" s="3"/>
       <c r="BL34" s="3"/>
     </row>
-    <row r="35" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -10909,17 +10932,17 @@
       <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="4.44140625" style="6"/>
-    <col min="20" max="20" width="4.44140625" style="8"/>
-    <col min="30" max="30" width="4.44140625" style="10"/>
-    <col min="40" max="40" width="4.44140625" style="12"/>
-    <col min="50" max="50" width="4.44140625" style="14"/>
+    <col min="10" max="10" width="4.42578125" style="6"/>
+    <col min="20" max="20" width="4.42578125" style="8"/>
+    <col min="30" max="30" width="4.42578125" style="10"/>
+    <col min="40" max="40" width="4.42578125" style="12"/>
+    <col min="50" max="50" width="4.42578125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="68" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:64" s="68" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -10985,7 +11008,7 @@
       <c r="BK2" s="3"/>
       <c r="BL2" s="3"/>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -11051,7 +11074,7 @@
       <c r="BK3" s="3"/>
       <c r="BL3" s="3"/>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -11117,7 +11140,7 @@
       <c r="BK4" s="3"/>
       <c r="BL4" s="3"/>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -11183,7 +11206,7 @@
       <c r="BK5" s="3"/>
       <c r="BL5" s="3"/>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -11249,7 +11272,7 @@
       <c r="BK6" s="3"/>
       <c r="BL6" s="3"/>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -11315,7 +11338,7 @@
       <c r="BK7" s="3"/>
       <c r="BL7" s="3"/>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -11381,7 +11404,7 @@
       <c r="BK8" s="3"/>
       <c r="BL8" s="3"/>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -11447,7 +11470,7 @@
       <c r="BK9" s="3"/>
       <c r="BL9" s="3"/>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -11513,7 +11536,7 @@
       <c r="BK10" s="3"/>
       <c r="BL10" s="3"/>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -11579,7 +11602,7 @@
       <c r="BK11" s="3"/>
       <c r="BL11" s="3"/>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -11645,7 +11668,7 @@
       <c r="BK12" s="3"/>
       <c r="BL12" s="3"/>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -11715,7 +11738,7 @@
       <c r="BK13" s="3"/>
       <c r="BL13" s="3"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -11809,7 +11832,7 @@
       <c r="BK14" s="3"/>
       <c r="BL14" s="3"/>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>1</v>
@@ -11887,7 +11910,7 @@
       <c r="BK15" s="3"/>
       <c r="BL15" s="3"/>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>1</v>
@@ -11964,7 +11987,7 @@
       <c r="BK16" s="3"/>
       <c r="BL16" s="3"/>
     </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -12046,7 +12069,7 @@
       <c r="BK17" s="3"/>
       <c r="BL17" s="3"/>
     </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -12124,7 +12147,7 @@
       <c r="BK18" s="3"/>
       <c r="BL18" s="3"/>
     </row>
-    <row r="19" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -12220,7 +12243,7 @@
       <c r="BK19" s="3"/>
       <c r="BL19" s="3"/>
     </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -12293,7 +12316,7 @@
       <c r="BK20" s="3"/>
       <c r="BL20" s="3"/>
     </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -12385,7 +12408,7 @@
       <c r="BK21" s="3"/>
       <c r="BL21" s="3"/>
     </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -12459,7 +12482,7 @@
       <c r="BK22" s="3"/>
       <c r="BL22" s="3"/>
     </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -12533,7 +12556,7 @@
       <c r="BK23" s="3"/>
       <c r="BL23" s="3"/>
     </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -12607,7 +12630,7 @@
       <c r="BK24" s="3"/>
       <c r="BL24" s="3"/>
     </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -12691,7 +12714,7 @@
       <c r="BK25" s="3"/>
       <c r="BL25" s="3"/>
     </row>
-    <row r="26" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -12757,7 +12780,7 @@
       <c r="BK26" s="3"/>
       <c r="BL26" s="3"/>
     </row>
-    <row r="27" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -12823,7 +12846,7 @@
       <c r="BK27" s="3"/>
       <c r="BL27" s="3"/>
     </row>
-    <row r="28" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -12888,7 +12911,7 @@
       <c r="BK28" s="3"/>
       <c r="BL28" s="3"/>
     </row>
-    <row r="29" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -12954,7 +12977,7 @@
       <c r="BK29" s="3"/>
       <c r="BL29" s="3"/>
     </row>
-    <row r="30" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -13020,7 +13043,7 @@
       <c r="BK30" s="3"/>
       <c r="BL30" s="3"/>
     </row>
-    <row r="31" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -13086,7 +13109,7 @@
       <c r="BK31" s="3"/>
       <c r="BL31" s="3"/>
     </row>
-    <row r="32" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -13152,7 +13175,7 @@
       <c r="BK32" s="3"/>
       <c r="BL32" s="3"/>
     </row>
-    <row r="33" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -13218,7 +13241,7 @@
       <c r="BK33" s="3"/>
       <c r="BL33" s="3"/>
     </row>
-    <row r="34" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -13284,7 +13307,7 @@
       <c r="BK34" s="3"/>
       <c r="BL34" s="3"/>
     </row>
-    <row r="35" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -13350,12 +13373,12 @@
       <c r="BK35" s="3"/>
       <c r="BL35" s="3"/>
     </row>
-    <row r="37" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:64" x14ac:dyDescent="0.25">
       <c r="AT37" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:64" x14ac:dyDescent="0.25">
       <c r="AU40" t="s">
         <v>7</v>
       </c>
@@ -13374,24 +13397,24 @@
       <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="4.33203125" style="29"/>
-    <col min="10" max="10" width="4.33203125" style="36"/>
-    <col min="11" max="19" width="4.33203125" style="29"/>
-    <col min="20" max="20" width="4.33203125" style="37"/>
-    <col min="21" max="29" width="4.33203125" style="29"/>
-    <col min="30" max="30" width="4.33203125" style="38"/>
-    <col min="31" max="39" width="4.33203125" style="29"/>
-    <col min="40" max="40" width="4.33203125" style="39"/>
-    <col min="41" max="49" width="4.33203125" style="29"/>
-    <col min="50" max="50" width="4.33203125" style="40"/>
-    <col min="51" max="54" width="4.33203125" style="29"/>
-    <col min="55" max="55" width="4.33203125" style="43"/>
-    <col min="56" max="16384" width="4.33203125" style="29"/>
+    <col min="1" max="9" width="4.28515625" style="29"/>
+    <col min="10" max="10" width="4.28515625" style="36"/>
+    <col min="11" max="19" width="4.28515625" style="29"/>
+    <col min="20" max="20" width="4.28515625" style="37"/>
+    <col min="21" max="29" width="4.28515625" style="29"/>
+    <col min="30" max="30" width="4.28515625" style="38"/>
+    <col min="31" max="39" width="4.28515625" style="29"/>
+    <col min="40" max="40" width="4.28515625" style="39"/>
+    <col min="41" max="49" width="4.28515625" style="29"/>
+    <col min="50" max="50" width="4.28515625" style="40"/>
+    <col min="51" max="54" width="4.28515625" style="29"/>
+    <col min="55" max="55" width="4.28515625" style="43"/>
+    <col min="56" max="16384" width="4.28515625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:103" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="62"/>
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
@@ -13495,7 +13518,7 @@
       <c r="CX1" s="64"/>
       <c r="CY1" s="64"/>
     </row>
-    <row r="2" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="44"/>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
@@ -13602,7 +13625,7 @@
       <c r="CX2" s="28"/>
       <c r="CY2" s="28"/>
     </row>
-    <row r="3" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="44"/>
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
@@ -13709,7 +13732,7 @@
       <c r="CX3" s="28"/>
       <c r="CY3" s="28"/>
     </row>
-    <row r="4" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="44"/>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -13816,7 +13839,7 @@
       <c r="CX4" s="28"/>
       <c r="CY4" s="28"/>
     </row>
-    <row r="5" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="44"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
@@ -13923,7 +13946,7 @@
       <c r="CX5" s="28"/>
       <c r="CY5" s="28"/>
     </row>
-    <row r="6" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="44"/>
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
@@ -14030,7 +14053,7 @@
       <c r="CX6" s="28"/>
       <c r="CY6" s="28"/>
     </row>
-    <row r="7" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="44"/>
       <c r="B7" s="44"/>
       <c r="C7" s="44"/>
@@ -14137,7 +14160,7 @@
       <c r="CX7" s="28"/>
       <c r="CY7" s="28"/>
     </row>
-    <row r="8" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="44"/>
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
@@ -14244,7 +14267,7 @@
       <c r="CX8" s="28"/>
       <c r="CY8" s="28"/>
     </row>
-    <row r="9" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="44"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
@@ -14351,7 +14374,7 @@
       <c r="CX9" s="28"/>
       <c r="CY9" s="28"/>
     </row>
-    <row r="10" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="44"/>
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
@@ -14458,7 +14481,7 @@
       <c r="CX10" s="28"/>
       <c r="CY10" s="28"/>
     </row>
-    <row r="11" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="44"/>
       <c r="B11" s="44"/>
       <c r="C11" s="44"/>
@@ -14565,7 +14588,7 @@
       <c r="CX11" s="28"/>
       <c r="CY11" s="28"/>
     </row>
-    <row r="12" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="44"/>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
@@ -14672,7 +14695,7 @@
       <c r="CX12" s="28"/>
       <c r="CY12" s="28"/>
     </row>
-    <row r="13" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="44"/>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
@@ -14779,7 +14802,7 @@
       <c r="CX13" s="28"/>
       <c r="CY13" s="28"/>
     </row>
-    <row r="14" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" s="44"/>
       <c r="C14" s="44"/>
@@ -14886,7 +14909,7 @@
       <c r="CX14" s="28"/>
       <c r="CY14" s="28"/>
     </row>
-    <row r="15" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="44"/>
       <c r="B15" s="44"/>
       <c r="C15" s="44"/>
@@ -15007,7 +15030,7 @@
       <c r="CX15" s="28"/>
       <c r="CY15" s="28"/>
     </row>
-    <row r="16" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="44"/>
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
@@ -15122,7 +15145,7 @@
       <c r="CX16" s="28"/>
       <c r="CY16" s="28"/>
     </row>
-    <row r="17" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
       <c r="B17" s="44"/>
       <c r="C17" s="44"/>
@@ -15241,7 +15264,7 @@
       <c r="CX17" s="28"/>
       <c r="CY17" s="28"/>
     </row>
-    <row r="18" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="44"/>
       <c r="B18" s="44"/>
       <c r="C18" s="44"/>
@@ -15363,7 +15386,7 @@
       <c r="CX18" s="28"/>
       <c r="CY18" s="28"/>
     </row>
-    <row r="19" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="44"/>
       <c r="B19" s="44"/>
       <c r="C19" s="44"/>
@@ -15504,7 +15527,7 @@
       <c r="CX19" s="28"/>
       <c r="CY19" s="28"/>
     </row>
-    <row r="20" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="s">
         <v>9</v>
       </c>
@@ -15629,7 +15652,7 @@
       <c r="CX20" s="28"/>
       <c r="CY20" s="28"/>
     </row>
-    <row r="21" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="44" t="s">
         <v>0</v>
       </c>
@@ -15745,7 +15768,7 @@
       <c r="CX21" s="28"/>
       <c r="CY21" s="28"/>
     </row>
-    <row r="22" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="44"/>
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
@@ -15874,7 +15897,7 @@
       <c r="CX22" s="28"/>
       <c r="CY22" s="28"/>
     </row>
-    <row r="23" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="44"/>
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
@@ -15985,7 +16008,7 @@
       <c r="CX23" s="28"/>
       <c r="CY23" s="28"/>
     </row>
-    <row r="24" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="44"/>
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
@@ -16097,7 +16120,7 @@
       <c r="CX24" s="28"/>
       <c r="CY24" s="28"/>
     </row>
-    <row r="25" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="44"/>
       <c r="B25" s="44"/>
       <c r="C25" s="44"/>
@@ -16220,7 +16243,7 @@
       <c r="CX25" s="28"/>
       <c r="CY25" s="28"/>
     </row>
-    <row r="26" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="44"/>
       <c r="B26" s="44"/>
       <c r="C26" s="44"/>
@@ -16349,7 +16372,7 @@
       <c r="CX26" s="28"/>
       <c r="CY26" s="28"/>
     </row>
-    <row r="27" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="44"/>
       <c r="B27" s="44"/>
       <c r="C27" s="44"/>
@@ -16460,7 +16483,7 @@
       <c r="CX27" s="28"/>
       <c r="CY27" s="28"/>
     </row>
-    <row r="28" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="44"/>
       <c r="B28" s="44"/>
       <c r="C28" s="44"/>
@@ -16569,7 +16592,7 @@
       <c r="CX28" s="28"/>
       <c r="CY28" s="28"/>
     </row>
-    <row r="29" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="44"/>
       <c r="B29" s="44"/>
       <c r="C29" s="44"/>
@@ -16694,7 +16717,7 @@
       <c r="CX29" s="28"/>
       <c r="CY29" s="28"/>
     </row>
-    <row r="30" spans="1:103" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:103" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="54"/>
       <c r="B30" s="54"/>
       <c r="C30" s="54"/>
@@ -16801,7 +16824,7 @@
       <c r="CX30" s="28"/>
       <c r="CY30" s="28"/>
     </row>
-    <row r="31" spans="1:103" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:103" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC31" s="51">
         <v>29</v>
       </c>
@@ -16854,7 +16877,7 @@
       <c r="CX31" s="67"/>
       <c r="CY31" s="67"/>
     </row>
-    <row r="32" spans="1:103" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:103" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="53">
         <v>0</v>
       </c>
@@ -17067,7 +17090,7 @@
       <c r="CX32" s="28"/>
       <c r="CY32" s="28"/>
     </row>
-    <row r="33" spans="1:103" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:103" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="28"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -17172,7 +17195,7 @@
       <c r="CX33" s="28"/>
       <c r="CY33" s="28"/>
     </row>
-    <row r="34" spans="1:103" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:103" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J34" s="30"/>
       <c r="T34" s="31"/>
       <c r="AD34" s="32"/>
@@ -17180,7 +17203,7 @@
       <c r="AX34" s="34"/>
       <c r="BC34" s="35"/>
     </row>
-    <row r="35" spans="1:103" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:103" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="28"/>
       <c r="B35" s="28"/>
       <c r="C35" s="28"/>
@@ -17285,7 +17308,7 @@
       <c r="CX35" s="28"/>
       <c r="CY35" s="28"/>
     </row>
-    <row r="36" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="28"/>
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
@@ -17390,7 +17413,7 @@
       <c r="CX36" s="28"/>
       <c r="CY36" s="28"/>
     </row>
-    <row r="37" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="28"/>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
@@ -17495,7 +17518,7 @@
       <c r="CX37" s="28"/>
       <c r="CY37" s="28"/>
     </row>
-    <row r="38" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="28"/>
       <c r="B38" s="28"/>
       <c r="C38" s="28"/>
@@ -17600,7 +17623,7 @@
       <c r="CX38" s="28"/>
       <c r="CY38" s="28"/>
     </row>
-    <row r="39" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="28"/>
       <c r="B39" s="28"/>
       <c r="C39" s="28"/>
@@ -17705,7 +17728,7 @@
       <c r="CX39" s="28"/>
       <c r="CY39" s="28"/>
     </row>
-    <row r="40" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="28"/>
       <c r="B40" s="28"/>
       <c r="C40" s="28"/>
@@ -17810,7 +17833,7 @@
       <c r="CX40" s="28"/>
       <c r="CY40" s="28"/>
     </row>
-    <row r="41" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="28"/>
       <c r="B41" s="28"/>
       <c r="C41" s="28"/>
@@ -17915,7 +17938,7 @@
       <c r="CX41" s="28"/>
       <c r="CY41" s="28"/>
     </row>
-    <row r="42" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="28"/>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
@@ -18020,7 +18043,7 @@
       <c r="CX42" s="28"/>
       <c r="CY42" s="28"/>
     </row>
-    <row r="43" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="28"/>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
@@ -18125,7 +18148,7 @@
       <c r="CX43" s="28"/>
       <c r="CY43" s="28"/>
     </row>
-    <row r="44" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
@@ -18230,7 +18253,7 @@
       <c r="CX44" s="28"/>
       <c r="CY44" s="28"/>
     </row>
-    <row r="45" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
@@ -18335,7 +18358,7 @@
       <c r="CX45" s="28"/>
       <c r="CY45" s="28"/>
     </row>
-    <row r="46" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="28"/>
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
@@ -18440,7 +18463,7 @@
       <c r="CX46" s="28"/>
       <c r="CY46" s="28"/>
     </row>
-    <row r="47" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC47" s="41"/>
       <c r="BD47" s="42"/>
       <c r="BE47" s="42"/>
@@ -18502,7 +18525,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18512,13 +18535,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C52672-88BB-4AE4-B0C9-F548BA5F269A}">
   <dimension ref="A1:BC32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AE8" sqref="AE8:AK13"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AE19" sqref="AE19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A1" s="62"/>
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
@@ -18575,7 +18598,7 @@
       <c r="BB1" s="63"/>
       <c r="BC1" s="65"/>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A2" s="44"/>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
@@ -18634,7 +18657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A3" s="44"/>
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
@@ -18693,7 +18716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4" s="44"/>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -18752,7 +18775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" s="44"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
@@ -18811,7 +18834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" s="44"/>
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
@@ -18870,7 +18893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" s="44"/>
       <c r="B7" s="44"/>
       <c r="C7" s="44"/>
@@ -18928,7 +18951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" s="44"/>
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
@@ -19009,7 +19032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" s="44"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
@@ -19090,7 +19113,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" s="44"/>
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
@@ -19165,7 +19188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11" s="44"/>
       <c r="B11" s="44"/>
       <c r="C11" s="44"/>
@@ -19240,7 +19263,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A12" s="44"/>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
@@ -19317,7 +19340,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A13" s="44"/>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
@@ -19398,7 +19421,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" s="44"/>
       <c r="C14" s="44"/>
@@ -19467,7 +19490,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15" s="44"/>
       <c r="B15" s="44"/>
       <c r="C15" s="44"/>
@@ -19540,7 +19563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" s="44"/>
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
@@ -19603,7 +19626,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
       <c r="B17" s="44"/>
       <c r="C17" s="44"/>
@@ -19666,7 +19689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A18" s="44"/>
       <c r="B18" s="44"/>
       <c r="C18" s="44"/>
@@ -19730,7 +19753,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
         <v>0</v>
       </c>
@@ -19821,7 +19844,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
       <c r="B20" s="44"/>
       <c r="C20" s="44"/>
@@ -19882,7 +19905,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
       <c r="B21" s="44"/>
       <c r="C21" s="44"/>
@@ -19943,7 +19966,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A22" s="44"/>
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
@@ -20004,7 +20027,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A23" s="44"/>
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
@@ -20065,7 +20088,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A24" s="44"/>
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
@@ -20126,7 +20149,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="s">
         <v>9</v>
       </c>
@@ -20189,7 +20212,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="s">
         <v>15</v>
       </c>
@@ -20266,7 +20289,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A27" s="44"/>
       <c r="B27" s="44"/>
       <c r="C27" s="44"/>
@@ -20325,7 +20348,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A28" s="44"/>
       <c r="B28" s="44"/>
       <c r="C28" s="44"/>
@@ -20384,7 +20407,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A29" s="44"/>
       <c r="B29" s="44"/>
       <c r="C29" s="44"/>
@@ -20443,7 +20466,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A30" s="54"/>
       <c r="B30" s="54"/>
       <c r="C30" s="54"/>
@@ -20502,7 +20525,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="66"/>
       <c r="B31" s="66"/>
       <c r="C31" s="66"/>
@@ -20561,7 +20584,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A32" s="53">
         <v>0</v>
       </c>
@@ -20735,13 +20758,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF70BD8-2872-42BA-B1C3-A79569DA3A3A}">
   <dimension ref="A1:BC32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AS24" sqref="AS24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A1" s="62"/>
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
@@ -20798,7 +20821,7 @@
       <c r="BB1" s="63"/>
       <c r="BC1" s="65"/>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A2" s="44"/>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
@@ -20806,58 +20829,15 @@
       <c r="E2" s="44"/>
       <c r="F2" s="44"/>
       <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
+      <c r="H2" s="71" t="s">
+        <v>24</v>
+      </c>
       <c r="I2" s="44"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="44"/>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="44"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="48"/>
-      <c r="AO2" s="44"/>
-      <c r="AP2" s="44"/>
-      <c r="AQ2" s="44"/>
-      <c r="AR2" s="44"/>
-      <c r="AS2" s="44"/>
-      <c r="AT2" s="44"/>
-      <c r="AU2" s="44"/>
-      <c r="AV2" s="44"/>
-      <c r="AW2" s="44"/>
-      <c r="AX2" s="49"/>
-      <c r="AY2" s="44"/>
-      <c r="AZ2" s="44"/>
-      <c r="BA2" s="44"/>
-      <c r="BB2" s="50"/>
       <c r="BC2" s="51">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A3" s="44"/>
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
@@ -20865,58 +20845,92 @@
       <c r="E3" s="44"/>
       <c r="F3" s="44"/>
       <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
+      <c r="H3" s="71" t="s">
+        <v>24</v>
+      </c>
       <c r="I3" s="44"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="U3" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="V3" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="W3" s="71" t="s">
+        <v>20</v>
+      </c>
       <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
+      <c r="AA3" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB3" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC3" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG3" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH3" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI3" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ3" s="44" t="s">
+        <v>10</v>
+      </c>
       <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="48"/>
-      <c r="AO3" s="44"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="44"/>
+      <c r="AM3" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN3" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO3" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP3" s="69"/>
       <c r="AR3" s="44"/>
-      <c r="AS3" s="44"/>
-      <c r="AT3" s="44"/>
+      <c r="AS3" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="AT3" s="71" t="s">
+        <v>20</v>
+      </c>
       <c r="AU3" s="44"/>
-      <c r="AV3" s="44"/>
-      <c r="AW3" s="44"/>
-      <c r="AX3" s="49"/>
-      <c r="AY3" s="44"/>
-      <c r="AZ3" s="44"/>
-      <c r="BA3" s="44"/>
-      <c r="BB3" s="50"/>
+      <c r="AY3" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ3" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="BA3" s="71" t="s">
+        <v>20</v>
+      </c>
       <c r="BC3" s="51">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4" s="44"/>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -20924,413 +20938,647 @@
       <c r="E4" s="44"/>
       <c r="F4" s="44"/>
       <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
+      <c r="H4" s="71" t="s">
+        <v>24</v>
+      </c>
       <c r="I4" s="44"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
+      <c r="J4" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="71" t="s">
+        <v>20</v>
+      </c>
       <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="44"/>
-      <c r="AC4" s="44"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="44"/>
-      <c r="AG4" s="44"/>
-      <c r="AH4" s="44"/>
-      <c r="AI4" s="44"/>
-      <c r="AJ4" s="44"/>
-      <c r="AK4" s="44"/>
+      <c r="R4" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="U4" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="W4" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="X4" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA4" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB4" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC4" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG4" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH4" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI4" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ4" s="44" t="s">
+        <v>10</v>
+      </c>
       <c r="AL4" s="44"/>
-      <c r="AM4" s="44"/>
-      <c r="AN4" s="48"/>
-      <c r="AO4" s="44"/>
+      <c r="AM4" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN4" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO4" s="44" t="s">
+        <v>10</v>
+      </c>
       <c r="AP4" s="44"/>
-      <c r="AQ4" s="44"/>
-      <c r="AR4" s="44"/>
-      <c r="AS4" s="44"/>
-      <c r="AT4" s="44"/>
-      <c r="AU4" s="44"/>
-      <c r="AV4" s="44"/>
-      <c r="AW4" s="44"/>
-      <c r="AX4" s="49"/>
-      <c r="AY4" s="44"/>
-      <c r="AZ4" s="44"/>
-      <c r="BA4" s="44"/>
-      <c r="BB4" s="50"/>
+      <c r="AR4" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS4" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT4" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU4" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="AX4" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY4" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ4" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA4" s="44" t="s">
+        <v>10</v>
+      </c>
       <c r="BC4" s="51">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="44"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="44"/>
-      <c r="Z5" s="44"/>
-      <c r="AA5" s="44"/>
-      <c r="AB5" s="44"/>
-      <c r="AC5" s="44"/>
-      <c r="AD5" s="44"/>
-      <c r="AE5" s="44"/>
-      <c r="AF5" s="44"/>
-      <c r="AG5" s="44"/>
-      <c r="AH5" s="44"/>
-      <c r="AI5" s="44"/>
-      <c r="AJ5" s="44"/>
-      <c r="AK5" s="44"/>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="H5" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="U5" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="V5" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="W5" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="X5" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA5" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB5" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC5" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG5" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH5" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI5" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ5" s="44" t="s">
+        <v>10</v>
+      </c>
       <c r="AL5" s="44"/>
-      <c r="AM5" s="44"/>
-      <c r="AN5" s="48"/>
-      <c r="AO5" s="44"/>
+      <c r="AM5" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN5" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO5" s="44" t="s">
+        <v>10</v>
+      </c>
       <c r="AP5" s="44"/>
-      <c r="AQ5" s="44"/>
-      <c r="AR5" s="44"/>
-      <c r="AS5" s="44"/>
-      <c r="AT5" s="44"/>
-      <c r="AU5" s="44"/>
-      <c r="AV5" s="44"/>
-      <c r="AW5" s="44"/>
-      <c r="AX5" s="49"/>
-      <c r="AY5" s="44"/>
-      <c r="AZ5" s="44"/>
-      <c r="BA5" s="44"/>
-      <c r="BB5" s="50"/>
+      <c r="AR5" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS5" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT5" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU5" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="AX5" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY5" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ5" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="BA5" s="44" t="s">
+        <v>10</v>
+      </c>
       <c r="BC5" s="51">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="46"/>
-      <c r="U6" s="44"/>
-      <c r="V6" s="44"/>
-      <c r="W6" s="44"/>
-      <c r="X6" s="44"/>
-      <c r="Y6" s="44"/>
-      <c r="Z6" s="44"/>
-      <c r="AA6" s="44"/>
-      <c r="AB6" s="44"/>
-      <c r="AC6" s="44"/>
-      <c r="AD6" s="44"/>
-      <c r="AE6" s="44"/>
-      <c r="AF6" s="44"/>
-      <c r="AG6" s="44"/>
-      <c r="AH6" s="44"/>
-      <c r="AI6" s="44"/>
-      <c r="AJ6" s="44"/>
-      <c r="AK6" s="44"/>
-      <c r="AL6" s="44"/>
-      <c r="AM6" s="44"/>
-      <c r="AN6" s="48"/>
-      <c r="AO6" s="44"/>
-      <c r="AP6" s="44"/>
-      <c r="AQ6" s="44"/>
-      <c r="AR6" s="44"/>
-      <c r="AS6" s="44"/>
-      <c r="AT6" s="44"/>
-      <c r="AU6" s="44"/>
-      <c r="AV6" s="44"/>
-      <c r="AW6" s="44"/>
-      <c r="AX6" s="49"/>
-      <c r="AY6" s="44"/>
-      <c r="AZ6" s="44"/>
-      <c r="BA6" s="44"/>
-      <c r="BB6" s="50"/>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="H6" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="R6" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="U6" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="V6" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="X6" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA6" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB6" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC6" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG6" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH6" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI6" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ6" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM6" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN6" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO6" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR6" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS6" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT6" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU6" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="AX6" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AY6" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ6" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA6" s="71" t="s">
+        <v>24</v>
+      </c>
       <c r="BC6" s="51">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="46"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="44"/>
-      <c r="Z7" s="44"/>
-      <c r="AA7" s="44"/>
-      <c r="AB7" s="44"/>
-      <c r="AC7" s="44"/>
-      <c r="AD7" s="47"/>
-      <c r="AE7" s="44"/>
-      <c r="AF7" s="44"/>
-      <c r="AG7" s="44"/>
-      <c r="AH7" s="44"/>
-      <c r="AI7" s="44"/>
-      <c r="AJ7" s="44"/>
-      <c r="AK7" s="44"/>
-      <c r="AL7" s="44"/>
-      <c r="AM7" s="44"/>
-      <c r="AN7" s="48"/>
-      <c r="AO7" s="44"/>
-      <c r="AP7" s="44"/>
-      <c r="AQ7" s="44"/>
-      <c r="AR7" s="44"/>
-      <c r="AS7" s="44"/>
-      <c r="AT7" s="44"/>
-      <c r="AU7" s="44"/>
-      <c r="AV7" s="44"/>
-      <c r="AW7" s="44"/>
-      <c r="AX7" s="49"/>
-      <c r="AY7" s="44"/>
-      <c r="AZ7" s="44"/>
-      <c r="BA7" s="44"/>
-      <c r="BB7" s="50"/>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="H7" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="U7" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="V7" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="W7" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="X7" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA7" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB7" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC7" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG7" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH7" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI7" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ7" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM7" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN7" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO7" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR7" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS7" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT7" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU7" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="AX7" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AY7" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ7" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA7" s="71" t="s">
+        <v>24</v>
+      </c>
       <c r="BC7" s="51">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="46"/>
-      <c r="U8" s="44"/>
-      <c r="V8" s="44"/>
-      <c r="W8" s="44"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="44"/>
-      <c r="AT8" s="44"/>
-      <c r="AU8" s="44"/>
-      <c r="AV8" s="44"/>
-      <c r="AW8" s="44"/>
-      <c r="AX8" s="49"/>
-      <c r="AY8" s="44"/>
-      <c r="AZ8" s="44"/>
-      <c r="BA8" s="44"/>
-      <c r="BB8" s="50"/>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="H8" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="44"/>
+      <c r="K8" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="R8" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="U8" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="V8" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="W8" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="X8" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA8" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB8" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC8" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG8" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH8" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI8" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ8" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL8" s="44"/>
+      <c r="AM8" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN8" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO8" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP8" s="44"/>
+      <c r="AR8" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS8" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="AT8" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="AU8" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX8" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY8" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ8" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="BA8" s="44" t="s">
+        <v>10</v>
+      </c>
       <c r="BC8" s="51">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="H9" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="44" t="s">
+        <v>10</v>
+      </c>
       <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="46"/>
-      <c r="U9" s="44"/>
-      <c r="V9" s="44"/>
-      <c r="W9" s="44"/>
-      <c r="X9" s="44"/>
-      <c r="Y9" s="44"/>
-      <c r="AT9" s="44"/>
-      <c r="AU9" s="44"/>
+      <c r="O9" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="R9" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="S9" s="45"/>
+      <c r="U9" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="V9" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="W9" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="X9" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y9" s="70"/>
+      <c r="Z9" s="44"/>
+      <c r="AA9" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB9" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC9" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD9" s="44"/>
+      <c r="AE9" s="44"/>
+      <c r="AF9" s="44"/>
+      <c r="AG9" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH9" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI9" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ9" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK9" s="44"/>
+      <c r="AL9" s="44"/>
+      <c r="AM9" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN9" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO9" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP9" s="44"/>
+      <c r="AQ9" s="44"/>
+      <c r="AR9" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS9" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT9" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU9" s="44" t="s">
+        <v>10</v>
+      </c>
       <c r="AV9" s="44"/>
-      <c r="AW9" s="44"/>
-      <c r="AX9" s="49"/>
-      <c r="AY9" s="44"/>
-      <c r="AZ9" s="44"/>
-      <c r="BA9" s="44"/>
-      <c r="BB9" s="50"/>
+      <c r="AW9" s="48"/>
+      <c r="AX9" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AY9" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ9" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA9" s="44" t="s">
+        <v>10</v>
+      </c>
       <c r="BC9" s="51">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="44"/>
-      <c r="T10" s="46"/>
-      <c r="U10" s="44"/>
-      <c r="V10" s="44"/>
-      <c r="W10" s="44"/>
-      <c r="X10" s="44"/>
-      <c r="Y10" s="44"/>
-      <c r="Z10" s="44"/>
-      <c r="AA10" s="44"/>
-      <c r="AB10" s="44"/>
-      <c r="AC10" s="44"/>
-      <c r="AD10" s="47"/>
-      <c r="AE10" s="44"/>
-      <c r="AF10" s="44"/>
-      <c r="AG10" s="44"/>
-      <c r="AH10" s="44"/>
-      <c r="AI10" s="44"/>
-      <c r="AJ10" s="44"/>
-      <c r="AK10" s="44"/>
-      <c r="AL10" s="44"/>
-      <c r="AM10" s="44"/>
-      <c r="AN10" s="48"/>
-      <c r="AO10" s="44"/>
-      <c r="AP10" s="44"/>
-      <c r="AQ10" s="44"/>
-      <c r="AR10" s="44"/>
-      <c r="AS10" s="44"/>
-      <c r="AT10" s="44"/>
-      <c r="AU10" s="44"/>
-      <c r="AV10" s="44"/>
-      <c r="AW10" s="44"/>
-      <c r="AX10" s="49"/>
-      <c r="AY10" s="44"/>
-      <c r="AZ10" s="44"/>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="H10" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="44" t="s">
+        <v>10</v>
+      </c>
       <c r="BA10" s="44"/>
       <c r="BB10" s="50"/>
       <c r="BC10" s="51">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="J11" s="45"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="44"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="46"/>
-      <c r="U11" s="44"/>
-      <c r="V11" s="44"/>
-      <c r="W11" s="44"/>
-      <c r="X11" s="44"/>
-      <c r="Y11" s="44"/>
-      <c r="Z11" s="44"/>
-      <c r="AA11" s="44"/>
-      <c r="AB11" s="44"/>
-      <c r="AC11" s="44"/>
-      <c r="AD11" s="47"/>
-      <c r="AE11" s="44"/>
-      <c r="AF11" s="44"/>
-      <c r="AG11" s="44"/>
-      <c r="AH11" s="44"/>
-      <c r="AI11" s="44"/>
-      <c r="AJ11" s="44"/>
-      <c r="AK11" s="44"/>
-      <c r="AL11" s="44"/>
-      <c r="AM11" s="44"/>
-      <c r="AN11" s="48"/>
-      <c r="AO11" s="44"/>
-      <c r="AP11" s="44"/>
-      <c r="AQ11" s="44"/>
-      <c r="AR11" s="44"/>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="H11" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="44" t="s">
+        <v>10</v>
+      </c>
       <c r="AS11" s="44"/>
       <c r="AT11" s="44"/>
       <c r="AU11" s="44"/>
@@ -21345,46 +21593,101 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A12" s="44"/>
       <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
+      <c r="C12" s="44" t="s">
+        <v>9</v>
+      </c>
       <c r="D12" s="44"/>
       <c r="E12" s="44"/>
       <c r="F12" s="44"/>
       <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
+      <c r="H12" s="71" t="s">
+        <v>24</v>
+      </c>
       <c r="I12" s="44"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="44"/>
+      <c r="J12" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="44" t="s">
+        <v>10</v>
+      </c>
       <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
+      <c r="M12" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="71" t="s">
+        <v>20</v>
+      </c>
       <c r="P12" s="44"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="44"/>
       <c r="S12" s="44"/>
-      <c r="T12" s="46"/>
-      <c r="U12" s="44"/>
+      <c r="T12" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="U12" s="71" t="s">
+        <v>20</v>
+      </c>
       <c r="V12" s="44"/>
       <c r="W12" s="44"/>
       <c r="X12" s="44"/>
       <c r="Y12" s="44"/>
+      <c r="Z12" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA12" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB12" s="44"/>
+      <c r="AC12" s="44"/>
+      <c r="AD12" s="44"/>
+      <c r="AE12" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF12" s="44"/>
+      <c r="AG12" s="44"/>
+      <c r="AH12" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI12" s="44"/>
+      <c r="AJ12" s="44"/>
+      <c r="AK12" s="44"/>
+      <c r="AL12" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM12" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN12" s="44"/>
+      <c r="AO12" s="44"/>
+      <c r="AP12" s="44"/>
+      <c r="AQ12" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="AR12" s="44"/>
+      <c r="AS12" s="44"/>
       <c r="AT12" s="44"/>
       <c r="AU12" s="44"/>
-      <c r="AV12" s="44"/>
-      <c r="AW12" s="44"/>
-      <c r="AX12" s="49"/>
-      <c r="AY12" s="44"/>
-      <c r="AZ12" s="44"/>
+      <c r="AV12" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="AW12" s="69"/>
+      <c r="AX12" s="69"/>
+      <c r="AY12" s="71" t="s">
+        <v>20</v>
+      </c>
       <c r="BA12" s="44"/>
       <c r="BB12" s="50"/>
       <c r="BC12" s="51">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
         <v>0</v>
       </c>
@@ -21410,56 +21713,101 @@
         <v>0</v>
       </c>
       <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
+      <c r="J13" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="44" t="s">
+        <v>10</v>
+      </c>
       <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
+      <c r="M13" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="P13" s="71" t="s">
+        <v>24</v>
+      </c>
       <c r="Q13" s="44"/>
       <c r="R13" s="44"/>
-      <c r="S13" s="44"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="44"/>
+      <c r="S13" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="T13" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="U13" s="44" t="s">
+        <v>10</v>
+      </c>
       <c r="V13" s="44"/>
       <c r="W13" s="44"/>
       <c r="X13" s="44"/>
-      <c r="Y13" s="44"/>
-      <c r="Z13" s="44"/>
-      <c r="AA13" s="44"/>
-      <c r="AB13" s="44"/>
+      <c r="Y13" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z13" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA13" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB13" s="71" t="s">
+        <v>24</v>
+      </c>
       <c r="AC13" s="44"/>
-      <c r="AD13" s="44"/>
-      <c r="AE13" s="44"/>
+      <c r="AD13" s="46"/>
+      <c r="AE13" s="71" t="s">
+        <v>24</v>
+      </c>
       <c r="AF13" s="44"/>
       <c r="AG13" s="44"/>
-      <c r="AH13" s="44"/>
+      <c r="AH13" s="71" t="s">
+        <v>24</v>
+      </c>
       <c r="AI13" s="44"/>
       <c r="AJ13" s="44"/>
-      <c r="AK13" s="44"/>
-      <c r="AL13" s="44"/>
-      <c r="AM13" s="44"/>
-      <c r="AN13" s="44"/>
+      <c r="AK13" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL13" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM13" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN13" s="71" t="s">
+        <v>24</v>
+      </c>
       <c r="AO13" s="44"/>
       <c r="AP13" s="44"/>
-      <c r="AQ13" s="44"/>
-      <c r="AR13" s="44"/>
-      <c r="AS13" s="44"/>
-      <c r="AT13" s="44"/>
-      <c r="AU13" s="44"/>
-      <c r="AV13" s="44"/>
-      <c r="AW13" s="44"/>
+      <c r="AQ13" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="AR13" s="29"/>
+      <c r="AS13" s="29"/>
+      <c r="AT13" s="29"/>
+      <c r="AU13" s="29"/>
+      <c r="AV13" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW13" s="71" t="s">
+        <v>20</v>
+      </c>
       <c r="AX13" s="44"/>
-      <c r="AY13" s="44"/>
-      <c r="AZ13" s="44"/>
+      <c r="AY13" s="71" t="s">
+        <v>24</v>
+      </c>
       <c r="BA13" s="44"/>
       <c r="BB13" s="44"/>
       <c r="BC13" s="44">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" s="44"/>
       <c r="C14" s="44"/>
@@ -21473,62 +21821,105 @@
       <c r="I14" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
+      <c r="J14" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="44" t="s">
+        <v>10</v>
+      </c>
       <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44"/>
+      <c r="M14" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="71" t="s">
+        <v>24</v>
+      </c>
       <c r="Q14" s="44"/>
       <c r="R14" s="44"/>
-      <c r="S14" s="44"/>
-      <c r="T14" s="46"/>
-      <c r="U14" s="44"/>
+      <c r="S14" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="T14" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="U14" s="44" t="s">
+        <v>10</v>
+      </c>
       <c r="V14" s="44"/>
       <c r="W14" s="44"/>
       <c r="X14" s="44"/>
-      <c r="Y14" s="44"/>
-      <c r="Z14" s="44"/>
-      <c r="AA14" s="44"/>
-      <c r="AB14" s="44"/>
+      <c r="Y14" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z14" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA14" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB14" s="71" t="s">
+        <v>24</v>
+      </c>
       <c r="AC14" s="44"/>
-      <c r="AD14" s="47"/>
-      <c r="AE14" s="44"/>
+      <c r="AD14" s="46"/>
+      <c r="AE14" s="71" t="s">
+        <v>24</v>
+      </c>
       <c r="AF14" s="44"/>
       <c r="AG14" s="44"/>
-      <c r="AH14" s="29"/>
-      <c r="AI14" s="29"/>
-      <c r="AJ14" s="29"/>
-      <c r="AK14" s="29"/>
-      <c r="AL14" s="29"/>
-      <c r="AM14" s="29"/>
-      <c r="AN14" s="39"/>
-      <c r="AO14" s="29"/>
-      <c r="AP14" s="29"/>
-      <c r="AQ14" s="44"/>
+      <c r="AH14" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI14" s="44"/>
+      <c r="AJ14" s="44"/>
+      <c r="AK14" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL14" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM14" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN14" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO14" s="44"/>
+      <c r="AP14" s="44"/>
+      <c r="AQ14" s="71" t="s">
+        <v>24</v>
+      </c>
       <c r="AR14" s="44"/>
       <c r="AS14" s="44"/>
       <c r="AT14" s="44"/>
       <c r="AU14" s="44"/>
-      <c r="AV14" s="44"/>
-      <c r="AW14" s="44"/>
-      <c r="AX14" s="49"/>
-      <c r="AY14" s="44"/>
-      <c r="AZ14" s="44"/>
+      <c r="AV14" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW14" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX14" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY14" s="71" t="s">
+        <v>24</v>
+      </c>
       <c r="BA14" s="44"/>
       <c r="BB14" s="50"/>
       <c r="BC14" s="51">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15" s="44"/>
       <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
       <c r="G15" s="44"/>
       <c r="H15" s="44"/>
       <c r="I15" s="44" t="s">
@@ -21537,59 +21928,103 @@
       <c r="J15" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="K15" s="44"/>
+      <c r="K15" s="44" t="s">
+        <v>10</v>
+      </c>
       <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
+      <c r="M15" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="71" t="s">
+        <v>24</v>
+      </c>
       <c r="Q15" s="44"/>
       <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="46"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="44"/>
+      <c r="S15" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="T15" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="U15" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="V15" s="71" t="s">
+        <v>20</v>
+      </c>
       <c r="W15" s="44"/>
       <c r="X15" s="44"/>
-      <c r="Y15" s="44"/>
-      <c r="Z15" s="44"/>
-      <c r="AA15" s="44"/>
-      <c r="AB15" s="44"/>
+      <c r="Y15" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z15" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA15" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB15" s="71" t="s">
+        <v>24</v>
+      </c>
       <c r="AC15" s="44"/>
-      <c r="AD15" s="47"/>
-      <c r="AE15" s="44"/>
-      <c r="AF15" s="44"/>
+      <c r="AD15" s="46"/>
+      <c r="AE15" s="71" t="s">
+        <v>24</v>
+      </c>
       <c r="AG15" s="44"/>
-      <c r="AH15" s="44"/>
+      <c r="AH15" s="71" t="s">
+        <v>24</v>
+      </c>
       <c r="AI15" s="44"/>
       <c r="AJ15" s="44"/>
-      <c r="AK15" s="44"/>
-      <c r="AL15" s="44"/>
-      <c r="AM15" s="44"/>
-      <c r="AN15" s="48"/>
+      <c r="AK15" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL15" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM15" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN15" s="71" t="s">
+        <v>24</v>
+      </c>
       <c r="AO15" s="44"/>
       <c r="AP15" s="44"/>
-      <c r="AQ15" s="44"/>
+      <c r="AQ15" s="71" t="s">
+        <v>24</v>
+      </c>
       <c r="AR15" s="44"/>
       <c r="AS15" s="44"/>
       <c r="AT15" s="44"/>
-      <c r="AV15" s="44"/>
-      <c r="AW15" s="44"/>
-      <c r="AX15" s="49"/>
-      <c r="AZ15" s="44"/>
+      <c r="AU15" s="44"/>
+      <c r="AV15" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW15" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX15" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AY15" s="71" t="s">
+        <v>24</v>
+      </c>
       <c r="BA15" s="44"/>
       <c r="BB15" s="50"/>
       <c r="BC15" s="51">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" s="44"/>
       <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
       <c r="G16" s="44"/>
       <c r="H16" s="44"/>
       <c r="I16" s="44"/>
@@ -21600,59 +22035,89 @@
         <v>2</v>
       </c>
       <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
+      <c r="M16" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="O16" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="P16" s="71" t="s">
+        <v>24</v>
+      </c>
       <c r="Q16" s="44"/>
       <c r="R16" s="44"/>
-      <c r="S16" s="44"/>
-      <c r="T16" s="46"/>
+      <c r="S16" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="T16" s="44" t="s">
+        <v>10</v>
+      </c>
       <c r="U16" s="44"/>
-      <c r="V16" s="44"/>
+      <c r="V16" s="71" t="s">
+        <v>24</v>
+      </c>
       <c r="W16" s="44"/>
       <c r="X16" s="44"/>
-      <c r="Y16" s="44"/>
+      <c r="Y16" s="71" t="s">
+        <v>24</v>
+      </c>
       <c r="Z16" s="44"/>
       <c r="AA16" s="44"/>
-      <c r="AB16" s="44"/>
+      <c r="AB16" s="71" t="s">
+        <v>24</v>
+      </c>
       <c r="AC16" s="44"/>
-      <c r="AD16" s="47"/>
-      <c r="AE16" s="44"/>
-      <c r="AF16" s="44"/>
+      <c r="AD16" s="46"/>
+      <c r="AE16" s="71" t="s">
+        <v>24</v>
+      </c>
       <c r="AG16" s="44"/>
-      <c r="AH16" s="44"/>
+      <c r="AH16" s="71" t="s">
+        <v>24</v>
+      </c>
       <c r="AI16" s="44"/>
       <c r="AJ16" s="44"/>
-      <c r="AK16" s="44"/>
+      <c r="AK16" s="71" t="s">
+        <v>24</v>
+      </c>
       <c r="AL16" s="44"/>
       <c r="AM16" s="44"/>
-      <c r="AN16" s="44"/>
+      <c r="AN16" s="71" t="s">
+        <v>24</v>
+      </c>
       <c r="AO16" s="44"/>
       <c r="AP16" s="44"/>
-      <c r="AQ16" s="44"/>
+      <c r="AQ16" s="71" t="s">
+        <v>24</v>
+      </c>
       <c r="AR16" s="44"/>
       <c r="AS16" s="44"/>
       <c r="AT16" s="44"/>
       <c r="AU16" s="44"/>
-      <c r="AV16" s="44"/>
-      <c r="AW16" s="44"/>
-      <c r="AX16" s="49"/>
-      <c r="AY16" s="44"/>
-      <c r="AZ16" s="44"/>
+      <c r="AV16" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW16" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX16" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AY16" s="71" t="s">
+        <v>24</v>
+      </c>
       <c r="BA16" s="44"/>
       <c r="BB16" s="50"/>
       <c r="BC16" s="51">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
       <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
       <c r="G17" s="44"/>
       <c r="H17" s="44"/>
       <c r="I17" s="44"/>
@@ -21664,58 +22129,83 @@
         <v>2</v>
       </c>
       <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
+      <c r="N17" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="71" t="s">
+        <v>20</v>
+      </c>
       <c r="P17" s="44"/>
       <c r="Q17" s="44"/>
       <c r="R17" s="44"/>
       <c r="S17" s="44"/>
-      <c r="T17" s="46"/>
-      <c r="U17" s="44"/>
+      <c r="T17" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="U17" s="71" t="s">
+        <v>20</v>
+      </c>
       <c r="V17" s="44"/>
       <c r="W17" s="44"/>
       <c r="X17" s="44"/>
-      <c r="Y17" s="44"/>
+      <c r="Y17" s="71" t="s">
+        <v>24</v>
+      </c>
       <c r="Z17" s="44"/>
       <c r="AA17" s="44"/>
-      <c r="AB17" s="44"/>
+      <c r="AB17" s="71" t="s">
+        <v>24</v>
+      </c>
       <c r="AC17" s="44"/>
-      <c r="AD17" s="47"/>
+      <c r="AD17" s="46"/>
       <c r="AE17" s="44"/>
-      <c r="AF17" s="44"/>
-      <c r="AG17" s="44"/>
+      <c r="AF17" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG17" s="71" t="s">
+        <v>20</v>
+      </c>
       <c r="AH17" s="44"/>
       <c r="AI17" s="44"/>
       <c r="AJ17" s="44"/>
-      <c r="AK17" s="44"/>
+      <c r="AK17" s="71" t="s">
+        <v>24</v>
+      </c>
       <c r="AL17" s="44"/>
       <c r="AM17" s="44"/>
-      <c r="AN17" s="44"/>
+      <c r="AN17" s="71" t="s">
+        <v>24</v>
+      </c>
       <c r="AO17" s="44"/>
       <c r="AP17" s="44"/>
-      <c r="AQ17" s="44"/>
+      <c r="AQ17" s="71" t="s">
+        <v>24</v>
+      </c>
       <c r="AR17" s="44"/>
       <c r="AS17" s="44"/>
       <c r="AT17" s="44"/>
       <c r="AU17" s="44"/>
-      <c r="AV17" s="44"/>
-      <c r="AW17" s="44"/>
-      <c r="AX17" s="49"/>
-      <c r="AY17" s="44"/>
-      <c r="AZ17" s="44"/>
+      <c r="AV17" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW17" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX17" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AY17" s="71" t="s">
+        <v>24</v>
+      </c>
       <c r="BA17" s="44"/>
       <c r="BB17" s="50"/>
       <c r="BC17" s="51">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A18" s="44"/>
       <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
       <c r="G18" s="44"/>
       <c r="H18" s="44"/>
       <c r="I18" s="44"/>
@@ -21854,19 +22344,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A19" s="44"/>
       <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="44"/>
       <c r="G19" s="44"/>
       <c r="H19" s="44"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
       <c r="M19" s="44"/>
       <c r="N19" s="44"/>
       <c r="O19" s="44"/>
@@ -21913,47 +22395,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
       <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="44"/>
-      <c r="T20" s="44"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="44"/>
-      <c r="Y20" s="44"/>
-      <c r="Z20" s="44"/>
-      <c r="AA20" s="44"/>
-      <c r="AB20" s="44"/>
-      <c r="AC20" s="44"/>
-      <c r="AD20" s="47"/>
-      <c r="AE20" s="44"/>
-      <c r="AF20" s="44"/>
-      <c r="AG20" s="44"/>
-      <c r="AH20" s="44"/>
-      <c r="AI20" s="44"/>
-      <c r="AJ20" s="44"/>
-      <c r="AK20" s="44"/>
-      <c r="AL20" s="44"/>
-      <c r="AM20" s="44"/>
-      <c r="AN20" s="44"/>
-      <c r="AO20" s="44"/>
       <c r="AP20" s="44"/>
       <c r="AQ20" s="44"/>
       <c r="AR20" s="44"/>
@@ -21971,48 +22415,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
       <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="46"/>
-      <c r="U21" s="44"/>
-      <c r="V21" s="44"/>
-      <c r="W21" s="44"/>
-      <c r="X21" s="44"/>
-      <c r="Y21" s="44"/>
-      <c r="Z21" s="44"/>
-      <c r="AA21" s="44"/>
-      <c r="AB21" s="44"/>
-      <c r="AC21" s="44"/>
-      <c r="AD21" s="47"/>
-      <c r="AE21" s="44"/>
-      <c r="AF21" s="44"/>
-      <c r="AG21" s="44"/>
-      <c r="AH21" s="29"/>
-      <c r="AI21" s="29"/>
-      <c r="AJ21" s="29"/>
-      <c r="AK21" s="29"/>
-      <c r="AL21" s="29"/>
-      <c r="AM21" s="29"/>
-      <c r="AN21" s="39"/>
-      <c r="AO21" s="29"/>
       <c r="AP21" s="29"/>
       <c r="AQ21" s="44"/>
       <c r="AR21" s="44"/>
@@ -22030,48 +22435,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A22" s="44"/>
       <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="44"/>
-      <c r="S22" s="44"/>
-      <c r="T22" s="46"/>
-      <c r="U22" s="44"/>
-      <c r="V22" s="44"/>
-      <c r="W22" s="44"/>
-      <c r="X22" s="44"/>
-      <c r="Y22" s="44"/>
-      <c r="Z22" s="44"/>
-      <c r="AA22" s="44"/>
-      <c r="AB22" s="44"/>
-      <c r="AC22" s="44"/>
-      <c r="AD22" s="47"/>
-      <c r="AE22" s="44"/>
-      <c r="AF22" s="44"/>
-      <c r="AG22" s="44"/>
-      <c r="AH22" s="44"/>
-      <c r="AI22" s="44"/>
-      <c r="AJ22" s="44"/>
-      <c r="AK22" s="44"/>
-      <c r="AL22" s="44"/>
-      <c r="AM22" s="44"/>
-      <c r="AN22" s="48"/>
-      <c r="AO22" s="44"/>
       <c r="AP22" s="44"/>
       <c r="AQ22" s="44"/>
       <c r="AS22" s="44"/>
@@ -22088,48 +22454,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A23" s="44"/>
       <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="44"/>
-      <c r="S23" s="44"/>
-      <c r="T23" s="46"/>
-      <c r="U23" s="44"/>
-      <c r="V23" s="44"/>
-      <c r="W23" s="44"/>
-      <c r="X23" s="44"/>
-      <c r="Y23" s="44"/>
-      <c r="Z23" s="44"/>
-      <c r="AA23" s="44"/>
-      <c r="AB23" s="44"/>
-      <c r="AC23" s="44"/>
-      <c r="AD23" s="47"/>
-      <c r="AE23" s="44"/>
-      <c r="AF23" s="44"/>
-      <c r="AG23" s="44"/>
-      <c r="AH23" s="44"/>
-      <c r="AI23" s="44"/>
-      <c r="AJ23" s="44"/>
-      <c r="AK23" s="44"/>
-      <c r="AL23" s="44"/>
-      <c r="AM23" s="44"/>
-      <c r="AN23" s="44"/>
-      <c r="AO23" s="44"/>
       <c r="AP23" s="44"/>
       <c r="AQ23" s="44"/>
       <c r="AR23" s="44"/>
@@ -22147,48 +22474,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A24" s="44"/>
       <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="44"/>
-      <c r="S24" s="44"/>
-      <c r="T24" s="46"/>
-      <c r="U24" s="44"/>
-      <c r="V24" s="44"/>
-      <c r="W24" s="44"/>
-      <c r="X24" s="44"/>
-      <c r="Y24" s="44"/>
-      <c r="Z24" s="44"/>
-      <c r="AA24" s="44"/>
-      <c r="AB24" s="44"/>
-      <c r="AC24" s="44"/>
-      <c r="AD24" s="47"/>
-      <c r="AE24" s="44"/>
-      <c r="AF24" s="44"/>
-      <c r="AG24" s="44"/>
-      <c r="AH24" s="44"/>
-      <c r="AI24" s="44"/>
-      <c r="AJ24" s="44"/>
-      <c r="AK24" s="44"/>
-      <c r="AL24" s="44"/>
-      <c r="AM24" s="44"/>
-      <c r="AN24" s="44"/>
-      <c r="AO24" s="44"/>
       <c r="AP24" s="44"/>
       <c r="AQ24" s="44"/>
       <c r="AR24" s="44"/>
@@ -22206,48 +22494,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A25" s="44"/>
       <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="44"/>
-      <c r="T25" s="46"/>
-      <c r="U25" s="44"/>
-      <c r="V25" s="44"/>
-      <c r="W25" s="44"/>
-      <c r="X25" s="44"/>
-      <c r="Y25" s="44"/>
-      <c r="Z25" s="44"/>
-      <c r="AA25" s="44"/>
-      <c r="AB25" s="44"/>
-      <c r="AC25" s="44"/>
-      <c r="AD25" s="47"/>
-      <c r="AE25" s="44"/>
-      <c r="AF25" s="44"/>
-      <c r="AG25" s="44"/>
-      <c r="AH25" s="44"/>
-      <c r="AI25" s="44"/>
-      <c r="AJ25" s="44"/>
-      <c r="AK25" s="44"/>
-      <c r="AL25" s="44"/>
-      <c r="AM25" s="44"/>
-      <c r="AN25" s="44"/>
-      <c r="AO25" s="44"/>
       <c r="AP25" s="44"/>
       <c r="AQ25" s="44"/>
       <c r="AR25" s="44"/>
@@ -22265,17 +22514,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A26" s="44"/>
       <c r="B26" s="44"/>
       <c r="C26" s="44"/>
       <c r="D26" s="44"/>
-      <c r="E26" s="49"/>
+      <c r="E26" s="44"/>
       <c r="F26" s="44"/>
       <c r="G26" s="44"/>
       <c r="H26" s="44"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="45"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
       <c r="K26" s="44"/>
       <c r="L26" s="44"/>
       <c r="M26" s="44"/>
@@ -22295,7 +22544,7 @@
       <c r="AA26" s="44"/>
       <c r="AB26" s="44"/>
       <c r="AC26" s="44"/>
-      <c r="AD26" s="47"/>
+      <c r="AD26" s="44"/>
       <c r="AE26" s="44"/>
       <c r="AF26" s="44"/>
       <c r="AG26" s="44"/>
@@ -22323,7 +22572,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A27" s="44"/>
       <c r="B27" s="44"/>
       <c r="C27" s="44"/>
@@ -22333,7 +22582,7 @@
       <c r="G27" s="44"/>
       <c r="H27" s="44"/>
       <c r="I27" s="44"/>
-      <c r="J27" s="45"/>
+      <c r="J27" s="44"/>
       <c r="K27" s="44"/>
       <c r="L27" s="44"/>
       <c r="M27" s="44"/>
@@ -22353,7 +22602,7 @@
       <c r="AA27" s="44"/>
       <c r="AB27" s="44"/>
       <c r="AC27" s="44"/>
-      <c r="AD27" s="47"/>
+      <c r="AD27" s="44"/>
       <c r="AE27" s="44"/>
       <c r="AF27" s="44"/>
       <c r="AG27" s="44"/>
@@ -22382,7 +22631,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A28" s="44"/>
       <c r="B28" s="44"/>
       <c r="C28" s="44"/>
@@ -22392,7 +22641,7 @@
       <c r="G28" s="44"/>
       <c r="H28" s="44"/>
       <c r="I28" s="44"/>
-      <c r="J28" s="45"/>
+      <c r="J28" s="44"/>
       <c r="K28" s="44"/>
       <c r="L28" s="44"/>
       <c r="M28" s="44"/>
@@ -22412,7 +22661,7 @@
       <c r="AA28" s="44"/>
       <c r="AB28" s="44"/>
       <c r="AC28" s="44"/>
-      <c r="AD28" s="47"/>
+      <c r="AD28" s="44"/>
       <c r="AE28" s="44"/>
       <c r="AF28" s="44"/>
       <c r="AG28" s="44"/>
@@ -22441,7 +22690,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A29" s="44"/>
       <c r="B29" s="44"/>
       <c r="C29" s="44"/>
@@ -22451,7 +22700,7 @@
       <c r="G29" s="44"/>
       <c r="H29" s="44"/>
       <c r="I29" s="44"/>
-      <c r="J29" s="45"/>
+      <c r="J29" s="44"/>
       <c r="K29" s="44"/>
       <c r="L29" s="44"/>
       <c r="M29" s="44"/>
@@ -22471,7 +22720,7 @@
       <c r="AA29" s="44"/>
       <c r="AB29" s="44"/>
       <c r="AC29" s="44"/>
-      <c r="AD29" s="47"/>
+      <c r="AD29" s="44"/>
       <c r="AE29" s="44"/>
       <c r="AF29" s="44"/>
       <c r="AG29" s="44"/>
@@ -22481,7 +22730,7 @@
       <c r="AK29" s="44"/>
       <c r="AL29" s="44"/>
       <c r="AM29" s="44"/>
-      <c r="AN29" s="48"/>
+      <c r="AN29" s="44"/>
       <c r="AO29" s="44"/>
       <c r="AP29" s="44"/>
       <c r="AQ29" s="44"/>
@@ -22500,48 +22749,48 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A30" s="54"/>
       <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
       <c r="G30" s="54"/>
       <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="54"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
       <c r="M30" s="54"/>
       <c r="N30" s="54"/>
-      <c r="O30" s="54"/>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="54"/>
-      <c r="R30" s="54"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="44"/>
       <c r="S30" s="54"/>
       <c r="T30" s="56"/>
-      <c r="U30" s="54"/>
-      <c r="V30" s="54"/>
-      <c r="W30" s="54"/>
-      <c r="X30" s="54"/>
+      <c r="U30" s="44"/>
+      <c r="V30" s="44"/>
+      <c r="W30" s="44"/>
+      <c r="X30" s="44"/>
       <c r="Y30" s="54"/>
       <c r="Z30" s="54"/>
-      <c r="AA30" s="54"/>
-      <c r="AB30" s="54"/>
-      <c r="AC30" s="54"/>
-      <c r="AD30" s="57"/>
+      <c r="AA30" s="44"/>
+      <c r="AB30" s="44"/>
+      <c r="AC30" s="44"/>
+      <c r="AD30" s="44"/>
       <c r="AE30" s="54"/>
       <c r="AF30" s="54"/>
-      <c r="AG30" s="54"/>
+      <c r="AG30" s="44"/>
       <c r="AH30" s="54"/>
       <c r="AI30" s="54"/>
       <c r="AJ30" s="54"/>
       <c r="AK30" s="54"/>
-      <c r="AL30" s="54"/>
-      <c r="AM30" s="54"/>
-      <c r="AN30" s="58"/>
-      <c r="AO30" s="54"/>
+      <c r="AL30" s="44"/>
+      <c r="AM30" s="44"/>
+      <c r="AN30" s="44"/>
+      <c r="AO30" s="44"/>
       <c r="AP30" s="54"/>
       <c r="AQ30" s="54"/>
       <c r="AR30" s="54"/>
@@ -22559,48 +22808,48 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="66"/>
       <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
       <c r="G31" s="66"/>
       <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="66"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
       <c r="M31" s="66"/>
       <c r="N31" s="66"/>
-      <c r="O31" s="66"/>
-      <c r="P31" s="66"/>
-      <c r="Q31" s="66"/>
-      <c r="R31" s="66"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="44"/>
       <c r="S31" s="66"/>
       <c r="T31" s="66"/>
-      <c r="U31" s="66"/>
-      <c r="V31" s="66"/>
-      <c r="W31" s="66"/>
-      <c r="X31" s="66"/>
+      <c r="U31" s="44"/>
+      <c r="V31" s="44"/>
+      <c r="W31" s="44"/>
+      <c r="X31" s="44"/>
       <c r="Y31" s="66"/>
       <c r="Z31" s="66"/>
-      <c r="AA31" s="66"/>
-      <c r="AB31" s="66"/>
-      <c r="AC31" s="66"/>
-      <c r="AD31" s="66"/>
+      <c r="AA31" s="44"/>
+      <c r="AB31" s="44"/>
+      <c r="AC31" s="44"/>
+      <c r="AD31" s="44"/>
       <c r="AE31" s="66"/>
       <c r="AF31" s="66"/>
-      <c r="AG31" s="66"/>
+      <c r="AG31" s="44"/>
       <c r="AH31" s="66"/>
       <c r="AI31" s="66"/>
       <c r="AJ31" s="66"/>
       <c r="AK31" s="66"/>
-      <c r="AL31" s="66"/>
-      <c r="AM31" s="66"/>
-      <c r="AN31" s="66"/>
-      <c r="AO31" s="66"/>
+      <c r="AL31" s="44"/>
+      <c r="AM31" s="44"/>
+      <c r="AN31" s="44"/>
+      <c r="AO31" s="44"/>
       <c r="AP31" s="66"/>
       <c r="AQ31" s="66"/>
       <c r="AR31" s="66"/>
@@ -22618,7 +22867,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A32" s="53">
         <v>0</v>
       </c>
